--- a/doc/最新接口_拟定.xlsx
+++ b/doc/最新接口_拟定.xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="首标签" sheetId="1" r:id="rId1"/>
     <sheet name="接口" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="计划" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -53,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="294">
   <si>
     <t>int</t>
   </si>
@@ -1200,6 +1202,38 @@
   </si>
   <si>
     <t>庄家索引id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口核对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术核对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器部署</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发包测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以发布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹性一周</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1781,7 +1815,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1934,11 +1968,14 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1958,6 +1995,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1967,14 +2010,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1993,11 +2033,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2316,32 +2353,32 @@
   <sheetData>
     <row r="3" spans="2:16" ht="14.25" thickBot="1"/>
     <row r="4" spans="2:16">
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="85" t="s">
         <v>241</v>
       </c>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="86"/>
-      <c r="I4" s="84" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="87"/>
+      <c r="I4" s="85" t="s">
         <v>243</v>
       </c>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="87"/>
     </row>
     <row r="5" spans="2:16">
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="88" t="s">
         <v>242</v>
       </c>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="89"/>
-      <c r="I5" s="87" t="s">
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="90"/>
+      <c r="I5" s="88" t="s">
         <v>244</v>
       </c>
-      <c r="J5" s="88"/>
-      <c r="K5" s="88"/>
-      <c r="L5" s="89"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="89"/>
+      <c r="L5" s="90"/>
     </row>
     <row r="6" spans="2:16">
       <c r="B6" s="8"/>
@@ -2405,21 +2442,21 @@
     </row>
     <row r="11" spans="2:16" ht="14.25" customHeight="1"/>
     <row r="14" spans="2:16" ht="14.25" thickBot="1">
-      <c r="I14" s="93" t="s">
+      <c r="I14" s="82" t="s">
         <v>56</v>
       </c>
-      <c r="J14" s="94"/>
-      <c r="K14" s="94"/>
-      <c r="L14" s="94"/>
-      <c r="M14" s="95"/>
+      <c r="J14" s="83"/>
+      <c r="K14" s="83"/>
+      <c r="L14" s="83"/>
+      <c r="M14" s="84"/>
     </row>
     <row r="15" spans="2:16">
-      <c r="B15" s="84" t="s">
+      <c r="B15" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="85"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="86"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="87"/>
       <c r="I15" s="21" t="s">
         <v>36</v>
       </c>
@@ -2434,18 +2471,18 @@
         <v>36</v>
       </c>
       <c r="N15" s="3"/>
-      <c r="O15" s="82" t="s">
+      <c r="O15" s="91" t="s">
         <v>41</v>
       </c>
-      <c r="P15" s="83"/>
+      <c r="P15" s="92"/>
     </row>
     <row r="16" spans="2:16">
-      <c r="B16" s="87" t="s">
+      <c r="B16" s="88" t="s">
         <v>242</v>
       </c>
-      <c r="C16" s="88"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="89"/>
+      <c r="C16" s="89"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="90"/>
       <c r="I16" s="33"/>
       <c r="J16" s="30"/>
       <c r="K16" s="31">
@@ -2943,11 +2980,11 @@
       <c r="P37" s="23"/>
     </row>
     <row r="38" spans="2:16">
-      <c r="B38" s="90" t="s">
+      <c r="B38" s="93" t="s">
         <v>194</v>
       </c>
-      <c r="C38" s="91"/>
-      <c r="D38" s="92"/>
+      <c r="C38" s="94"/>
+      <c r="D38" s="95"/>
       <c r="I38" s="33" t="s">
         <v>119</v>
       </c>
@@ -3010,18 +3047,18 @@
     <row r="42" spans="2:16" ht="22.5" customHeight="1"/>
     <row r="43" spans="2:16" ht="31.5" customHeight="1"/>
     <row r="44" spans="2:16">
-      <c r="H44" s="82" t="s">
+      <c r="H44" s="91" t="s">
         <v>258</v>
       </c>
-      <c r="I44" s="83"/>
-      <c r="J44" s="82" t="s">
+      <c r="I44" s="92"/>
+      <c r="J44" s="91" t="s">
         <v>118</v>
       </c>
-      <c r="K44" s="83"/>
-      <c r="L44" s="82" t="s">
+      <c r="K44" s="92"/>
+      <c r="L44" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="M44" s="83"/>
+      <c r="M44" s="92"/>
     </row>
     <row r="45" spans="2:16">
       <c r="H45" s="22">
@@ -3137,11 +3174,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="I14:M14"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="I5:L5"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="J44:K44"/>
     <mergeCell ref="L44:M44"/>
@@ -3149,6 +3181,11 @@
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="H44:I44"/>
+    <mergeCell ref="I14:M14"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="I5:L5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3342,11 +3379,11 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="4"/>
-      <c r="B10" s="98" t="s">
+      <c r="B10" s="100" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="99"/>
-      <c r="D10" s="100"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="102"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -3355,11 +3392,11 @@
       <c r="J10" s="4"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="98" t="s">
+      <c r="M10" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="N10" s="99"/>
-      <c r="O10" s="100"/>
+      <c r="N10" s="101"/>
+      <c r="O10" s="102"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -3369,11 +3406,11 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="4"/>
-      <c r="B11" s="90" t="s">
+      <c r="B11" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="91"/>
-      <c r="D11" s="92"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="95"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -3382,11 +3419,11 @@
       <c r="J11" s="4"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="90" t="s">
+      <c r="M11" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="N11" s="91"/>
-      <c r="O11" s="92"/>
+      <c r="N11" s="94"/>
+      <c r="O11" s="95"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -3507,11 +3544,11 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="4"/>
-      <c r="B17" s="98" t="s">
+      <c r="B17" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="99"/>
-      <c r="D17" s="100"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="102"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -3520,11 +3557,11 @@
       <c r="J17" s="4"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="98" t="s">
+      <c r="M17" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="N17" s="99"/>
-      <c r="O17" s="100"/>
+      <c r="N17" s="101"/>
+      <c r="O17" s="102"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -3533,11 +3570,11 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="4"/>
-      <c r="B18" s="90" t="s">
+      <c r="B18" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="91"/>
-      <c r="D18" s="92"/>
+      <c r="C18" s="94"/>
+      <c r="D18" s="95"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -3546,11 +3583,11 @@
       <c r="J18" s="4"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="90" t="s">
+      <c r="M18" s="93" t="s">
         <v>131</v>
       </c>
-      <c r="N18" s="91"/>
-      <c r="O18" s="92"/>
+      <c r="N18" s="94"/>
+      <c r="O18" s="95"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -3590,9 +3627,9 @@
     </row>
     <row r="20" spans="1:21" ht="41.25" thickBot="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="98"/>
-      <c r="C20" s="99"/>
-      <c r="D20" s="100"/>
+      <c r="B20" s="100"/>
+      <c r="C20" s="101"/>
+      <c r="D20" s="102"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -3621,11 +3658,11 @@
     </row>
     <row r="21" spans="1:21" ht="14.25" thickBot="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="90" t="s">
+      <c r="B21" s="93" t="s">
         <v>131</v>
       </c>
-      <c r="C21" s="91"/>
-      <c r="D21" s="92"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="95"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -3692,11 +3729,11 @@
       <c r="J23" s="4"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="98" t="s">
+      <c r="M23" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="N23" s="99"/>
-      <c r="O23" s="100"/>
+      <c r="N23" s="101"/>
+      <c r="O23" s="102"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
@@ -3717,11 +3754,11 @@
       <c r="J24" s="4"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-      <c r="M24" s="90" t="s">
+      <c r="M24" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="N24" s="91"/>
-      <c r="O24" s="92"/>
+      <c r="N24" s="94"/>
+      <c r="O24" s="95"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
@@ -3854,11 +3891,11 @@
       <c r="J29" s="4"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
-      <c r="M29" s="98" t="s">
+      <c r="M29" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="N29" s="99"/>
-      <c r="O29" s="100"/>
+      <c r="N29" s="101"/>
+      <c r="O29" s="102"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
@@ -3879,11 +3916,11 @@
       <c r="J30" s="4"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="90" t="s">
+      <c r="M30" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="N30" s="91"/>
-      <c r="O30" s="92"/>
+      <c r="N30" s="94"/>
+      <c r="O30" s="95"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
@@ -4039,11 +4076,11 @@
       <c r="J36" s="4"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
-      <c r="M36" s="98" t="s">
+      <c r="M36" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="N36" s="99"/>
-      <c r="O36" s="100"/>
+      <c r="N36" s="101"/>
+      <c r="O36" s="102"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
@@ -4064,11 +4101,11 @@
       <c r="J37" s="4"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
-      <c r="M37" s="90" t="s">
+      <c r="M37" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="N37" s="91"/>
-      <c r="O37" s="92"/>
+      <c r="N37" s="94"/>
+      <c r="O37" s="95"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
@@ -4247,14 +4284,14 @@
       <c r="J44" s="4"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
-      <c r="M44" s="98" t="s">
+      <c r="M44" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="N44" s="99"/>
-      <c r="O44" s="99"/>
-      <c r="P44" s="99"/>
-      <c r="Q44" s="99"/>
-      <c r="R44" s="100"/>
+      <c r="N44" s="101"/>
+      <c r="O44" s="101"/>
+      <c r="P44" s="101"/>
+      <c r="Q44" s="101"/>
+      <c r="R44" s="102"/>
       <c r="S44" s="2"/>
       <c r="T44" s="3"/>
       <c r="U44" s="3"/>
@@ -4272,14 +4309,14 @@
       <c r="J45" s="4"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
-      <c r="M45" s="90" t="s">
+      <c r="M45" s="93" t="s">
         <v>138</v>
       </c>
-      <c r="N45" s="91"/>
-      <c r="O45" s="91"/>
-      <c r="P45" s="91"/>
-      <c r="Q45" s="91"/>
-      <c r="R45" s="92"/>
+      <c r="N45" s="94"/>
+      <c r="O45" s="94"/>
+      <c r="P45" s="94"/>
+      <c r="Q45" s="94"/>
+      <c r="R45" s="95"/>
       <c r="S45" s="2"/>
       <c r="T45" s="3"/>
       <c r="U45" s="3"/>
@@ -4306,11 +4343,11 @@
       <c r="O46" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="P46" s="101" t="s">
+      <c r="P46" s="103" t="s">
         <v>132</v>
       </c>
-      <c r="Q46" s="101"/>
-      <c r="R46" s="102"/>
+      <c r="Q46" s="103"/>
+      <c r="R46" s="104"/>
       <c r="S46" s="2"/>
       <c r="T46" s="3"/>
       <c r="U46" s="3"/>
@@ -4337,22 +4374,22 @@
       <c r="O47" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="P47" s="101" t="s">
+      <c r="P47" s="103" t="s">
         <v>152</v>
       </c>
-      <c r="Q47" s="101"/>
-      <c r="R47" s="102"/>
+      <c r="Q47" s="103"/>
+      <c r="R47" s="104"/>
       <c r="S47" s="2"/>
       <c r="T47" s="3"/>
       <c r="U47" s="3"/>
     </row>
     <row r="48" spans="1:21">
       <c r="A48" s="1"/>
-      <c r="B48" s="98" t="s">
+      <c r="B48" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="C48" s="99"/>
-      <c r="D48" s="100"/>
+      <c r="C48" s="101"/>
+      <c r="D48" s="102"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -4370,22 +4407,22 @@
       <c r="O48" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P48" s="101" t="s">
+      <c r="P48" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="Q48" s="101"/>
-      <c r="R48" s="102"/>
+      <c r="Q48" s="103"/>
+      <c r="R48" s="104"/>
       <c r="S48" s="2"/>
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
     </row>
     <row r="49" spans="1:21">
       <c r="A49" s="1"/>
-      <c r="B49" s="90" t="s">
+      <c r="B49" s="93" t="s">
         <v>114</v>
       </c>
-      <c r="C49" s="91"/>
-      <c r="D49" s="92"/>
+      <c r="C49" s="94"/>
+      <c r="D49" s="95"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -4442,11 +4479,11 @@
       <c r="O50" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P50" s="101" t="s">
+      <c r="P50" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="Q50" s="101"/>
-      <c r="R50" s="102"/>
+      <c r="Q50" s="103"/>
+      <c r="R50" s="104"/>
       <c r="S50" s="2"/>
       <c r="T50" s="3"/>
       <c r="U50" s="3"/>
@@ -4473,11 +4510,11 @@
       <c r="O51" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="P51" s="101" t="s">
+      <c r="P51" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="Q51" s="101"/>
-      <c r="R51" s="102"/>
+      <c r="Q51" s="103"/>
+      <c r="R51" s="104"/>
       <c r="S51" s="2"/>
       <c r="T51" s="3"/>
       <c r="U51" s="3"/>
@@ -4535,11 +4572,11 @@
       <c r="O53" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="P53" s="101" t="s">
+      <c r="P53" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="Q53" s="101"/>
-      <c r="R53" s="102"/>
+      <c r="Q53" s="103"/>
+      <c r="R53" s="104"/>
       <c r="S53" s="2"/>
       <c r="T53" s="3"/>
       <c r="U53" s="3"/>
@@ -4704,13 +4741,13 @@
       <c r="J59" s="4"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
-      <c r="M59" s="98" t="s">
+      <c r="M59" s="100" t="s">
         <v>139</v>
       </c>
-      <c r="N59" s="99"/>
-      <c r="O59" s="99"/>
-      <c r="P59" s="99"/>
-      <c r="Q59" s="100"/>
+      <c r="N59" s="101"/>
+      <c r="O59" s="101"/>
+      <c r="P59" s="101"/>
+      <c r="Q59" s="102"/>
       <c r="R59" s="1"/>
       <c r="S59" s="2"/>
       <c r="T59" s="3"/>
@@ -4738,10 +4775,10 @@
       <c r="O60" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="P60" s="96" t="s">
+      <c r="P60" s="98" t="s">
         <v>140</v>
       </c>
-      <c r="Q60" s="97"/>
+      <c r="Q60" s="99"/>
       <c r="R60" s="1"/>
       <c r="S60" s="2"/>
       <c r="T60" s="3"/>
@@ -4769,10 +4806,10 @@
       <c r="O61" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="P61" s="96" t="s">
+      <c r="P61" s="98" t="s">
         <v>143</v>
       </c>
-      <c r="Q61" s="97"/>
+      <c r="Q61" s="99"/>
       <c r="R61" s="1"/>
       <c r="S61" s="2"/>
       <c r="T61" s="3"/>
@@ -4800,10 +4837,10 @@
       <c r="O62" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="P62" s="96" t="s">
+      <c r="P62" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="Q62" s="97"/>
+      <c r="Q62" s="99"/>
       <c r="R62" s="1"/>
       <c r="S62" s="2"/>
       <c r="T62" s="3"/>
@@ -4831,10 +4868,10 @@
       <c r="O63" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P63" s="103" t="s">
+      <c r="P63" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="Q63" s="104"/>
+      <c r="Q63" s="97"/>
       <c r="R63" s="1"/>
       <c r="S63" s="2"/>
       <c r="T63" s="3"/>
@@ -4862,10 +4899,10 @@
       <c r="O64" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="P64" s="96" t="s">
+      <c r="P64" s="98" t="s">
         <v>164</v>
       </c>
-      <c r="Q64" s="97"/>
+      <c r="Q64" s="99"/>
       <c r="R64" s="1"/>
       <c r="S64" s="2"/>
       <c r="T64" s="3"/>
@@ -4893,10 +4930,10 @@
       <c r="O65" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="P65" s="96" t="s">
+      <c r="P65" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="Q65" s="97"/>
+      <c r="Q65" s="99"/>
       <c r="R65" s="1"/>
       <c r="S65" s="2"/>
       <c r="T65" s="3"/>
@@ -4924,10 +4961,10 @@
       <c r="O66" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="P66" s="96" t="s">
+      <c r="P66" s="98" t="s">
         <v>221</v>
       </c>
-      <c r="Q66" s="97"/>
+      <c r="Q66" s="99"/>
       <c r="R66" s="1"/>
       <c r="S66" s="2"/>
       <c r="T66" s="3"/>
@@ -4955,10 +4992,10 @@
       <c r="O67" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="P67" s="96" t="s">
+      <c r="P67" s="98" t="s">
         <v>220</v>
       </c>
-      <c r="Q67" s="97"/>
+      <c r="Q67" s="99"/>
       <c r="R67" s="1"/>
       <c r="S67" s="1"/>
       <c r="T67" s="3"/>
@@ -5000,13 +5037,13 @@
       <c r="J69" s="4"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
-      <c r="M69" s="98" t="s">
+      <c r="M69" s="100" t="s">
         <v>179</v>
       </c>
-      <c r="N69" s="99"/>
-      <c r="O69" s="99"/>
-      <c r="P69" s="99"/>
-      <c r="Q69" s="100"/>
+      <c r="N69" s="101"/>
+      <c r="O69" s="101"/>
+      <c r="P69" s="101"/>
+      <c r="Q69" s="102"/>
       <c r="R69" s="1"/>
       <c r="S69" s="1"/>
       <c r="T69" s="3"/>
@@ -5025,13 +5062,13 @@
       <c r="J70" s="4"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
-      <c r="M70" s="98" t="s">
+      <c r="M70" s="100" t="s">
         <v>180</v>
       </c>
-      <c r="N70" s="99"/>
-      <c r="O70" s="99"/>
-      <c r="P70" s="99"/>
-      <c r="Q70" s="100"/>
+      <c r="N70" s="101"/>
+      <c r="O70" s="101"/>
+      <c r="P70" s="101"/>
+      <c r="Q70" s="102"/>
       <c r="R70" s="1"/>
       <c r="S70" s="1"/>
       <c r="T70" s="3"/>
@@ -5059,10 +5096,10 @@
       <c r="O71" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="P71" s="103" t="s">
+      <c r="P71" s="96" t="s">
         <v>204</v>
       </c>
-      <c r="Q71" s="104"/>
+      <c r="Q71" s="97"/>
       <c r="R71" s="1"/>
       <c r="S71" s="1"/>
       <c r="T71" s="3"/>
@@ -5090,10 +5127,10 @@
       <c r="O72" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="P72" s="103" t="s">
+      <c r="P72" s="96" t="s">
         <v>196</v>
       </c>
-      <c r="Q72" s="104"/>
+      <c r="Q72" s="97"/>
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
       <c r="T72" s="3"/>
@@ -5121,10 +5158,10 @@
       <c r="O73" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="P73" s="103" t="s">
+      <c r="P73" s="96" t="s">
         <v>193</v>
       </c>
-      <c r="Q73" s="104"/>
+      <c r="Q73" s="97"/>
       <c r="R73" s="1"/>
       <c r="S73" s="1"/>
       <c r="T73" s="3"/>
@@ -5181,10 +5218,10 @@
       <c r="O75" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="P75" s="96" t="s">
+      <c r="P75" s="98" t="s">
         <v>222</v>
       </c>
-      <c r="Q75" s="97"/>
+      <c r="Q75" s="99"/>
       <c r="R75" s="1"/>
       <c r="S75" s="1"/>
       <c r="T75" s="3"/>
@@ -5212,10 +5249,10 @@
       <c r="O76" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="P76" s="96" t="s">
+      <c r="P76" s="98" t="s">
         <v>223</v>
       </c>
-      <c r="Q76" s="97"/>
+      <c r="Q76" s="99"/>
       <c r="R76" s="1"/>
       <c r="S76" s="1"/>
       <c r="T76" s="3"/>
@@ -5257,11 +5294,11 @@
       <c r="J78" s="4"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
-      <c r="M78" s="90" t="s">
+      <c r="M78" s="93" t="s">
         <v>194</v>
       </c>
-      <c r="N78" s="91"/>
-      <c r="O78" s="92"/>
+      <c r="N78" s="94"/>
+      <c r="O78" s="95"/>
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
       <c r="R78" s="1"/>
@@ -5363,11 +5400,11 @@
       <c r="J82" s="4"/>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
-      <c r="M82" s="90" t="s">
+      <c r="M82" s="93" t="s">
         <v>186</v>
       </c>
-      <c r="N82" s="91"/>
-      <c r="O82" s="92"/>
+      <c r="N82" s="94"/>
+      <c r="O82" s="95"/>
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
       <c r="R82" s="1"/>
@@ -5878,6 +5915,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="M78:O78"/>
+    <mergeCell ref="M82:O82"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="M59:Q59"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P51:R51"/>
+    <mergeCell ref="P53:R53"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="M44:R44"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="M45:R45"/>
+    <mergeCell ref="P46:R46"/>
+    <mergeCell ref="P47:R47"/>
+    <mergeCell ref="P48:R48"/>
+    <mergeCell ref="P50:R50"/>
     <mergeCell ref="P63:Q63"/>
     <mergeCell ref="P66:Q66"/>
     <mergeCell ref="B48:D48"/>
@@ -5894,34 +5959,6 @@
     <mergeCell ref="P60:Q60"/>
     <mergeCell ref="P62:Q62"/>
     <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="M45:R45"/>
-    <mergeCell ref="P46:R46"/>
-    <mergeCell ref="P47:R47"/>
-    <mergeCell ref="P48:R48"/>
-    <mergeCell ref="P50:R50"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="M44:R44"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="M78:O78"/>
-    <mergeCell ref="M82:O82"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="M59:Q59"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P51:R51"/>
-    <mergeCell ref="P53:R53"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="M29:O29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5933,7 +5970,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="G51" sqref="A35:G51"/>
     </sheetView>
   </sheetViews>
@@ -5966,10 +6003,10 @@
       </c>
     </row>
     <row r="6" spans="1:20" ht="24" customHeight="1">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="91" t="s">
         <v>261</v>
       </c>
-      <c r="B6" s="83"/>
+      <c r="B6" s="92"/>
       <c r="E6" s="62"/>
       <c r="F6" s="61">
         <v>1</v>
@@ -6254,24 +6291,24 @@
     </row>
     <row r="31" spans="1:8" ht="14.25" thickBot="1"/>
     <row r="32" spans="1:8">
-      <c r="A32" s="98" t="s">
+      <c r="A32" s="100" t="s">
         <v>283</v>
       </c>
-      <c r="B32" s="99"/>
-      <c r="C32" s="99"/>
-      <c r="D32" s="99"/>
-      <c r="E32" s="99"/>
-      <c r="F32" s="100"/>
+      <c r="B32" s="101"/>
+      <c r="C32" s="101"/>
+      <c r="D32" s="101"/>
+      <c r="E32" s="101"/>
+      <c r="F32" s="102"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="90" t="s">
+      <c r="A33" s="93" t="s">
         <v>282</v>
       </c>
-      <c r="B33" s="91"/>
-      <c r="C33" s="91"/>
-      <c r="D33" s="91"/>
-      <c r="E33" s="91"/>
-      <c r="F33" s="92"/>
+      <c r="B33" s="94"/>
+      <c r="C33" s="94"/>
+      <c r="D33" s="94"/>
+      <c r="E33" s="94"/>
+      <c r="F33" s="95"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="8" t="s">
@@ -6283,27 +6320,27 @@
       <c r="C34" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="D34" s="101" t="s">
+      <c r="D34" s="103" t="s">
         <v>285</v>
       </c>
-      <c r="E34" s="101"/>
-      <c r="F34" s="102"/>
+      <c r="E34" s="103"/>
+      <c r="F34" s="104"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="8"/>
       <c r="B35" s="58"/>
       <c r="C35" s="58"/>
-      <c r="D35" s="101"/>
-      <c r="E35" s="101"/>
-      <c r="F35" s="102"/>
+      <c r="D35" s="103"/>
+      <c r="E35" s="103"/>
+      <c r="F35" s="104"/>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="8"/>
       <c r="B36" s="58"/>
       <c r="C36" s="58"/>
-      <c r="D36" s="101"/>
-      <c r="E36" s="101"/>
-      <c r="F36" s="102"/>
+      <c r="D36" s="103"/>
+      <c r="E36" s="103"/>
+      <c r="F36" s="104"/>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="8"/>
@@ -6317,17 +6354,17 @@
       <c r="A38" s="8"/>
       <c r="B38" s="58"/>
       <c r="C38" s="58"/>
-      <c r="D38" s="101"/>
-      <c r="E38" s="101"/>
-      <c r="F38" s="102"/>
+      <c r="D38" s="103"/>
+      <c r="E38" s="103"/>
+      <c r="F38" s="104"/>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="8"/>
       <c r="B39" s="58"/>
       <c r="C39" s="58"/>
-      <c r="D39" s="101"/>
-      <c r="E39" s="101"/>
-      <c r="F39" s="102"/>
+      <c r="D39" s="103"/>
+      <c r="E39" s="103"/>
+      <c r="F39" s="104"/>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="8"/>
@@ -6341,9 +6378,9 @@
       <c r="A41" s="8"/>
       <c r="B41" s="58"/>
       <c r="C41" s="58"/>
-      <c r="D41" s="101"/>
-      <c r="E41" s="101"/>
-      <c r="F41" s="102"/>
+      <c r="D41" s="103"/>
+      <c r="E41" s="103"/>
+      <c r="F41" s="104"/>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="42"/>
@@ -6393,4 +6430,121 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="105">
+        <v>42848</v>
+      </c>
+      <c r="C3" t="s">
+        <v>286</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="105">
+        <v>42861</v>
+      </c>
+      <c r="C5" t="s">
+        <v>287</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="105">
+        <v>42868</v>
+      </c>
+      <c r="C7" t="s">
+        <v>288</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="105">
+        <v>42883</v>
+      </c>
+      <c r="C8" t="s">
+        <v>289</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="105">
+        <v>42889</v>
+      </c>
+      <c r="C9" t="s">
+        <v>290</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="105">
+        <v>42896</v>
+      </c>
+      <c r="C10" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="105">
+        <v>42903</v>
+      </c>
+      <c r="C11" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="105">
+        <v>42910</v>
+      </c>
+      <c r="C12" t="s">
+        <v>292</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/最新接口_拟定.xlsx
+++ b/doc/最新接口_拟定.xlsx
@@ -4,14 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="首标签" sheetId="1" r:id="rId1"/>
     <sheet name="接口" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
-    <sheet name="计划" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -55,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="286">
   <si>
     <t>int</t>
   </si>
@@ -1202,38 +1201,6 @@
   </si>
   <si>
     <t>庄家索引id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口核对</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>美术核对</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务器部署</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联调</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发包测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以发布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹性一周</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1815,7 +1782,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1968,14 +1935,11 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1995,12 +1959,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2010,11 +1968,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2033,8 +1994,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2353,32 +2317,32 @@
   <sheetData>
     <row r="3" spans="2:16" ht="14.25" thickBot="1"/>
     <row r="4" spans="2:16">
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="84" t="s">
         <v>241</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="87"/>
-      <c r="I4" s="85" t="s">
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="86"/>
+      <c r="I4" s="84" t="s">
         <v>243</v>
       </c>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="87"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="86"/>
     </row>
     <row r="5" spans="2:16">
-      <c r="B5" s="88" t="s">
+      <c r="B5" s="87" t="s">
         <v>242</v>
       </c>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="90"/>
-      <c r="I5" s="88" t="s">
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="89"/>
+      <c r="I5" s="87" t="s">
         <v>244</v>
       </c>
-      <c r="J5" s="89"/>
-      <c r="K5" s="89"/>
-      <c r="L5" s="90"/>
+      <c r="J5" s="88"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="89"/>
     </row>
     <row r="6" spans="2:16">
       <c r="B6" s="8"/>
@@ -2442,21 +2406,21 @@
     </row>
     <row r="11" spans="2:16" ht="14.25" customHeight="1"/>
     <row r="14" spans="2:16" ht="14.25" thickBot="1">
-      <c r="I14" s="82" t="s">
+      <c r="I14" s="93" t="s">
         <v>56</v>
       </c>
-      <c r="J14" s="83"/>
-      <c r="K14" s="83"/>
-      <c r="L14" s="83"/>
-      <c r="M14" s="84"/>
+      <c r="J14" s="94"/>
+      <c r="K14" s="94"/>
+      <c r="L14" s="94"/>
+      <c r="M14" s="95"/>
     </row>
     <row r="15" spans="2:16">
-      <c r="B15" s="85" t="s">
+      <c r="B15" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="86"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="87"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="86"/>
       <c r="I15" s="21" t="s">
         <v>36</v>
       </c>
@@ -2471,18 +2435,18 @@
         <v>36</v>
       </c>
       <c r="N15" s="3"/>
-      <c r="O15" s="91" t="s">
+      <c r="O15" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="P15" s="92"/>
+      <c r="P15" s="83"/>
     </row>
     <row r="16" spans="2:16">
-      <c r="B16" s="88" t="s">
+      <c r="B16" s="87" t="s">
         <v>242</v>
       </c>
-      <c r="C16" s="89"/>
-      <c r="D16" s="89"/>
-      <c r="E16" s="90"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="89"/>
       <c r="I16" s="33"/>
       <c r="J16" s="30"/>
       <c r="K16" s="31">
@@ -2980,11 +2944,11 @@
       <c r="P37" s="23"/>
     </row>
     <row r="38" spans="2:16">
-      <c r="B38" s="93" t="s">
+      <c r="B38" s="90" t="s">
         <v>194</v>
       </c>
-      <c r="C38" s="94"/>
-      <c r="D38" s="95"/>
+      <c r="C38" s="91"/>
+      <c r="D38" s="92"/>
       <c r="I38" s="33" t="s">
         <v>119</v>
       </c>
@@ -3047,18 +3011,18 @@
     <row r="42" spans="2:16" ht="22.5" customHeight="1"/>
     <row r="43" spans="2:16" ht="31.5" customHeight="1"/>
     <row r="44" spans="2:16">
-      <c r="H44" s="91" t="s">
+      <c r="H44" s="82" t="s">
         <v>258</v>
       </c>
-      <c r="I44" s="92"/>
-      <c r="J44" s="91" t="s">
+      <c r="I44" s="83"/>
+      <c r="J44" s="82" t="s">
         <v>118</v>
       </c>
-      <c r="K44" s="92"/>
-      <c r="L44" s="91" t="s">
+      <c r="K44" s="83"/>
+      <c r="L44" s="82" t="s">
         <v>79</v>
       </c>
-      <c r="M44" s="92"/>
+      <c r="M44" s="83"/>
     </row>
     <row r="45" spans="2:16">
       <c r="H45" s="22">
@@ -3174,6 +3138,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="I14:M14"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="I5:L5"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="J44:K44"/>
     <mergeCell ref="L44:M44"/>
@@ -3181,11 +3150,6 @@
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="H44:I44"/>
-    <mergeCell ref="I14:M14"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="I5:L5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3379,11 +3343,11 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="4"/>
-      <c r="B10" s="100" t="s">
+      <c r="B10" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="101"/>
-      <c r="D10" s="102"/>
+      <c r="C10" s="99"/>
+      <c r="D10" s="100"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -3392,11 +3356,11 @@
       <c r="J10" s="4"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="100" t="s">
+      <c r="M10" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="N10" s="101"/>
-      <c r="O10" s="102"/>
+      <c r="N10" s="99"/>
+      <c r="O10" s="100"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -3406,11 +3370,11 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="4"/>
-      <c r="B11" s="93" t="s">
+      <c r="B11" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="94"/>
-      <c r="D11" s="95"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="92"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -3419,11 +3383,11 @@
       <c r="J11" s="4"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="93" t="s">
+      <c r="M11" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="N11" s="94"/>
-      <c r="O11" s="95"/>
+      <c r="N11" s="91"/>
+      <c r="O11" s="92"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -3544,11 +3508,11 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="4"/>
-      <c r="B17" s="100" t="s">
+      <c r="B17" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="101"/>
-      <c r="D17" s="102"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="100"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -3557,11 +3521,11 @@
       <c r="J17" s="4"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="100" t="s">
+      <c r="M17" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="N17" s="101"/>
-      <c r="O17" s="102"/>
+      <c r="N17" s="99"/>
+      <c r="O17" s="100"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -3570,11 +3534,11 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="4"/>
-      <c r="B18" s="93" t="s">
+      <c r="B18" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="94"/>
-      <c r="D18" s="95"/>
+      <c r="C18" s="91"/>
+      <c r="D18" s="92"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -3583,11 +3547,11 @@
       <c r="J18" s="4"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="93" t="s">
+      <c r="M18" s="90" t="s">
         <v>131</v>
       </c>
-      <c r="N18" s="94"/>
-      <c r="O18" s="95"/>
+      <c r="N18" s="91"/>
+      <c r="O18" s="92"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -3627,9 +3591,9 @@
     </row>
     <row r="20" spans="1:21" ht="41.25" thickBot="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="100"/>
-      <c r="C20" s="101"/>
-      <c r="D20" s="102"/>
+      <c r="B20" s="98"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="100"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -3658,11 +3622,11 @@
     </row>
     <row r="21" spans="1:21" ht="14.25" thickBot="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="93" t="s">
+      <c r="B21" s="90" t="s">
         <v>131</v>
       </c>
-      <c r="C21" s="94"/>
-      <c r="D21" s="95"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="92"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -3729,11 +3693,11 @@
       <c r="J23" s="4"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="100" t="s">
+      <c r="M23" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="N23" s="101"/>
-      <c r="O23" s="102"/>
+      <c r="N23" s="99"/>
+      <c r="O23" s="100"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
@@ -3754,11 +3718,11 @@
       <c r="J24" s="4"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-      <c r="M24" s="93" t="s">
+      <c r="M24" s="90" t="s">
         <v>71</v>
       </c>
-      <c r="N24" s="94"/>
-      <c r="O24" s="95"/>
+      <c r="N24" s="91"/>
+      <c r="O24" s="92"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
@@ -3891,11 +3855,11 @@
       <c r="J29" s="4"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
-      <c r="M29" s="100" t="s">
+      <c r="M29" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="N29" s="101"/>
-      <c r="O29" s="102"/>
+      <c r="N29" s="99"/>
+      <c r="O29" s="100"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
@@ -3916,11 +3880,11 @@
       <c r="J30" s="4"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="93" t="s">
+      <c r="M30" s="90" t="s">
         <v>71</v>
       </c>
-      <c r="N30" s="94"/>
-      <c r="O30" s="95"/>
+      <c r="N30" s="91"/>
+      <c r="O30" s="92"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
@@ -4076,11 +4040,11 @@
       <c r="J36" s="4"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
-      <c r="M36" s="100" t="s">
+      <c r="M36" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="N36" s="101"/>
-      <c r="O36" s="102"/>
+      <c r="N36" s="99"/>
+      <c r="O36" s="100"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
@@ -4101,11 +4065,11 @@
       <c r="J37" s="4"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
-      <c r="M37" s="93" t="s">
+      <c r="M37" s="90" t="s">
         <v>71</v>
       </c>
-      <c r="N37" s="94"/>
-      <c r="O37" s="95"/>
+      <c r="N37" s="91"/>
+      <c r="O37" s="92"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
@@ -4284,14 +4248,14 @@
       <c r="J44" s="4"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
-      <c r="M44" s="100" t="s">
+      <c r="M44" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="N44" s="101"/>
-      <c r="O44" s="101"/>
-      <c r="P44" s="101"/>
-      <c r="Q44" s="101"/>
-      <c r="R44" s="102"/>
+      <c r="N44" s="99"/>
+      <c r="O44" s="99"/>
+      <c r="P44" s="99"/>
+      <c r="Q44" s="99"/>
+      <c r="R44" s="100"/>
       <c r="S44" s="2"/>
       <c r="T44" s="3"/>
       <c r="U44" s="3"/>
@@ -4309,14 +4273,14 @@
       <c r="J45" s="4"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
-      <c r="M45" s="93" t="s">
+      <c r="M45" s="90" t="s">
         <v>138</v>
       </c>
-      <c r="N45" s="94"/>
-      <c r="O45" s="94"/>
-      <c r="P45" s="94"/>
-      <c r="Q45" s="94"/>
-      <c r="R45" s="95"/>
+      <c r="N45" s="91"/>
+      <c r="O45" s="91"/>
+      <c r="P45" s="91"/>
+      <c r="Q45" s="91"/>
+      <c r="R45" s="92"/>
       <c r="S45" s="2"/>
       <c r="T45" s="3"/>
       <c r="U45" s="3"/>
@@ -4343,11 +4307,11 @@
       <c r="O46" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="P46" s="103" t="s">
+      <c r="P46" s="101" t="s">
         <v>132</v>
       </c>
-      <c r="Q46" s="103"/>
-      <c r="R46" s="104"/>
+      <c r="Q46" s="101"/>
+      <c r="R46" s="102"/>
       <c r="S46" s="2"/>
       <c r="T46" s="3"/>
       <c r="U46" s="3"/>
@@ -4374,22 +4338,22 @@
       <c r="O47" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="P47" s="103" t="s">
+      <c r="P47" s="101" t="s">
         <v>152</v>
       </c>
-      <c r="Q47" s="103"/>
-      <c r="R47" s="104"/>
+      <c r="Q47" s="101"/>
+      <c r="R47" s="102"/>
       <c r="S47" s="2"/>
       <c r="T47" s="3"/>
       <c r="U47" s="3"/>
     </row>
     <row r="48" spans="1:21">
       <c r="A48" s="1"/>
-      <c r="B48" s="100" t="s">
+      <c r="B48" s="98" t="s">
         <v>116</v>
       </c>
-      <c r="C48" s="101"/>
-      <c r="D48" s="102"/>
+      <c r="C48" s="99"/>
+      <c r="D48" s="100"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -4407,22 +4371,22 @@
       <c r="O48" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P48" s="103" t="s">
+      <c r="P48" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="Q48" s="103"/>
-      <c r="R48" s="104"/>
+      <c r="Q48" s="101"/>
+      <c r="R48" s="102"/>
       <c r="S48" s="2"/>
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
     </row>
     <row r="49" spans="1:21">
       <c r="A49" s="1"/>
-      <c r="B49" s="93" t="s">
+      <c r="B49" s="90" t="s">
         <v>114</v>
       </c>
-      <c r="C49" s="94"/>
-      <c r="D49" s="95"/>
+      <c r="C49" s="91"/>
+      <c r="D49" s="92"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -4479,11 +4443,11 @@
       <c r="O50" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P50" s="103" t="s">
+      <c r="P50" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="Q50" s="103"/>
-      <c r="R50" s="104"/>
+      <c r="Q50" s="101"/>
+      <c r="R50" s="102"/>
       <c r="S50" s="2"/>
       <c r="T50" s="3"/>
       <c r="U50" s="3"/>
@@ -4510,11 +4474,11 @@
       <c r="O51" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="P51" s="103" t="s">
+      <c r="P51" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="Q51" s="103"/>
-      <c r="R51" s="104"/>
+      <c r="Q51" s="101"/>
+      <c r="R51" s="102"/>
       <c r="S51" s="2"/>
       <c r="T51" s="3"/>
       <c r="U51" s="3"/>
@@ -4572,11 +4536,11 @@
       <c r="O53" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="P53" s="103" t="s">
+      <c r="P53" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="Q53" s="103"/>
-      <c r="R53" s="104"/>
+      <c r="Q53" s="101"/>
+      <c r="R53" s="102"/>
       <c r="S53" s="2"/>
       <c r="T53" s="3"/>
       <c r="U53" s="3"/>
@@ -4741,13 +4705,13 @@
       <c r="J59" s="4"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
-      <c r="M59" s="100" t="s">
+      <c r="M59" s="98" t="s">
         <v>139</v>
       </c>
-      <c r="N59" s="101"/>
-      <c r="O59" s="101"/>
-      <c r="P59" s="101"/>
-      <c r="Q59" s="102"/>
+      <c r="N59" s="99"/>
+      <c r="O59" s="99"/>
+      <c r="P59" s="99"/>
+      <c r="Q59" s="100"/>
       <c r="R59" s="1"/>
       <c r="S59" s="2"/>
       <c r="T59" s="3"/>
@@ -4775,10 +4739,10 @@
       <c r="O60" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="P60" s="98" t="s">
+      <c r="P60" s="96" t="s">
         <v>140</v>
       </c>
-      <c r="Q60" s="99"/>
+      <c r="Q60" s="97"/>
       <c r="R60" s="1"/>
       <c r="S60" s="2"/>
       <c r="T60" s="3"/>
@@ -4806,10 +4770,10 @@
       <c r="O61" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="P61" s="98" t="s">
+      <c r="P61" s="96" t="s">
         <v>143</v>
       </c>
-      <c r="Q61" s="99"/>
+      <c r="Q61" s="97"/>
       <c r="R61" s="1"/>
       <c r="S61" s="2"/>
       <c r="T61" s="3"/>
@@ -4837,10 +4801,10 @@
       <c r="O62" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="P62" s="98" t="s">
+      <c r="P62" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="Q62" s="99"/>
+      <c r="Q62" s="97"/>
       <c r="R62" s="1"/>
       <c r="S62" s="2"/>
       <c r="T62" s="3"/>
@@ -4868,10 +4832,10 @@
       <c r="O63" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P63" s="96" t="s">
+      <c r="P63" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="Q63" s="97"/>
+      <c r="Q63" s="104"/>
       <c r="R63" s="1"/>
       <c r="S63" s="2"/>
       <c r="T63" s="3"/>
@@ -4899,10 +4863,10 @@
       <c r="O64" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="P64" s="98" t="s">
+      <c r="P64" s="96" t="s">
         <v>164</v>
       </c>
-      <c r="Q64" s="99"/>
+      <c r="Q64" s="97"/>
       <c r="R64" s="1"/>
       <c r="S64" s="2"/>
       <c r="T64" s="3"/>
@@ -4930,10 +4894,10 @@
       <c r="O65" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="P65" s="98" t="s">
+      <c r="P65" s="96" t="s">
         <v>62</v>
       </c>
-      <c r="Q65" s="99"/>
+      <c r="Q65" s="97"/>
       <c r="R65" s="1"/>
       <c r="S65" s="2"/>
       <c r="T65" s="3"/>
@@ -4961,10 +4925,10 @@
       <c r="O66" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="P66" s="98" t="s">
+      <c r="P66" s="96" t="s">
         <v>221</v>
       </c>
-      <c r="Q66" s="99"/>
+      <c r="Q66" s="97"/>
       <c r="R66" s="1"/>
       <c r="S66" s="2"/>
       <c r="T66" s="3"/>
@@ -4992,10 +4956,10 @@
       <c r="O67" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="P67" s="98" t="s">
+      <c r="P67" s="96" t="s">
         <v>220</v>
       </c>
-      <c r="Q67" s="99"/>
+      <c r="Q67" s="97"/>
       <c r="R67" s="1"/>
       <c r="S67" s="1"/>
       <c r="T67" s="3"/>
@@ -5037,13 +5001,13 @@
       <c r="J69" s="4"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
-      <c r="M69" s="100" t="s">
+      <c r="M69" s="98" t="s">
         <v>179</v>
       </c>
-      <c r="N69" s="101"/>
-      <c r="O69" s="101"/>
-      <c r="P69" s="101"/>
-      <c r="Q69" s="102"/>
+      <c r="N69" s="99"/>
+      <c r="O69" s="99"/>
+      <c r="P69" s="99"/>
+      <c r="Q69" s="100"/>
       <c r="R69" s="1"/>
       <c r="S69" s="1"/>
       <c r="T69" s="3"/>
@@ -5062,13 +5026,13 @@
       <c r="J70" s="4"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
-      <c r="M70" s="100" t="s">
+      <c r="M70" s="98" t="s">
         <v>180</v>
       </c>
-      <c r="N70" s="101"/>
-      <c r="O70" s="101"/>
-      <c r="P70" s="101"/>
-      <c r="Q70" s="102"/>
+      <c r="N70" s="99"/>
+      <c r="O70" s="99"/>
+      <c r="P70" s="99"/>
+      <c r="Q70" s="100"/>
       <c r="R70" s="1"/>
       <c r="S70" s="1"/>
       <c r="T70" s="3"/>
@@ -5096,10 +5060,10 @@
       <c r="O71" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="P71" s="96" t="s">
+      <c r="P71" s="103" t="s">
         <v>204</v>
       </c>
-      <c r="Q71" s="97"/>
+      <c r="Q71" s="104"/>
       <c r="R71" s="1"/>
       <c r="S71" s="1"/>
       <c r="T71" s="3"/>
@@ -5127,10 +5091,10 @@
       <c r="O72" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="P72" s="96" t="s">
+      <c r="P72" s="103" t="s">
         <v>196</v>
       </c>
-      <c r="Q72" s="97"/>
+      <c r="Q72" s="104"/>
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
       <c r="T72" s="3"/>
@@ -5158,10 +5122,10 @@
       <c r="O73" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="P73" s="96" t="s">
+      <c r="P73" s="103" t="s">
         <v>193</v>
       </c>
-      <c r="Q73" s="97"/>
+      <c r="Q73" s="104"/>
       <c r="R73" s="1"/>
       <c r="S73" s="1"/>
       <c r="T73" s="3"/>
@@ -5218,10 +5182,10 @@
       <c r="O75" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="P75" s="98" t="s">
+      <c r="P75" s="96" t="s">
         <v>222</v>
       </c>
-      <c r="Q75" s="99"/>
+      <c r="Q75" s="97"/>
       <c r="R75" s="1"/>
       <c r="S75" s="1"/>
       <c r="T75" s="3"/>
@@ -5249,10 +5213,10 @@
       <c r="O76" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="P76" s="98" t="s">
+      <c r="P76" s="96" t="s">
         <v>223</v>
       </c>
-      <c r="Q76" s="99"/>
+      <c r="Q76" s="97"/>
       <c r="R76" s="1"/>
       <c r="S76" s="1"/>
       <c r="T76" s="3"/>
@@ -5294,11 +5258,11 @@
       <c r="J78" s="4"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
-      <c r="M78" s="93" t="s">
+      <c r="M78" s="90" t="s">
         <v>194</v>
       </c>
-      <c r="N78" s="94"/>
-      <c r="O78" s="95"/>
+      <c r="N78" s="91"/>
+      <c r="O78" s="92"/>
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
       <c r="R78" s="1"/>
@@ -5400,11 +5364,11 @@
       <c r="J82" s="4"/>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
-      <c r="M82" s="93" t="s">
+      <c r="M82" s="90" t="s">
         <v>186</v>
       </c>
-      <c r="N82" s="94"/>
-      <c r="O82" s="95"/>
+      <c r="N82" s="91"/>
+      <c r="O82" s="92"/>
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
       <c r="R82" s="1"/>
@@ -5915,6 +5879,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="M69:Q69"/>
+    <mergeCell ref="M70:Q70"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="M45:R45"/>
+    <mergeCell ref="P46:R46"/>
+    <mergeCell ref="P47:R47"/>
+    <mergeCell ref="P48:R48"/>
+    <mergeCell ref="P50:R50"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="M44:R44"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
     <mergeCell ref="P76:Q76"/>
     <mergeCell ref="M78:O78"/>
     <mergeCell ref="M82:O82"/>
@@ -5931,34 +5923,6 @@
     <mergeCell ref="M11:O11"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="M29:O29"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="M44:R44"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="M45:R45"/>
-    <mergeCell ref="P46:R46"/>
-    <mergeCell ref="P47:R47"/>
-    <mergeCell ref="P48:R48"/>
-    <mergeCell ref="P50:R50"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="M69:Q69"/>
-    <mergeCell ref="M70:Q70"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="P67:Q67"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6003,10 +5967,10 @@
       </c>
     </row>
     <row r="6" spans="1:20" ht="24" customHeight="1">
-      <c r="A6" s="91" t="s">
+      <c r="A6" s="82" t="s">
         <v>261</v>
       </c>
-      <c r="B6" s="92"/>
+      <c r="B6" s="83"/>
       <c r="E6" s="62"/>
       <c r="F6" s="61">
         <v>1</v>
@@ -6291,24 +6255,24 @@
     </row>
     <row r="31" spans="1:8" ht="14.25" thickBot="1"/>
     <row r="32" spans="1:8">
-      <c r="A32" s="100" t="s">
+      <c r="A32" s="98" t="s">
         <v>283</v>
       </c>
-      <c r="B32" s="101"/>
-      <c r="C32" s="101"/>
-      <c r="D32" s="101"/>
-      <c r="E32" s="101"/>
-      <c r="F32" s="102"/>
+      <c r="B32" s="99"/>
+      <c r="C32" s="99"/>
+      <c r="D32" s="99"/>
+      <c r="E32" s="99"/>
+      <c r="F32" s="100"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="93" t="s">
+      <c r="A33" s="90" t="s">
         <v>282</v>
       </c>
-      <c r="B33" s="94"/>
-      <c r="C33" s="94"/>
-      <c r="D33" s="94"/>
-      <c r="E33" s="94"/>
-      <c r="F33" s="95"/>
+      <c r="B33" s="91"/>
+      <c r="C33" s="91"/>
+      <c r="D33" s="91"/>
+      <c r="E33" s="91"/>
+      <c r="F33" s="92"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="8" t="s">
@@ -6320,27 +6284,27 @@
       <c r="C34" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="D34" s="103" t="s">
+      <c r="D34" s="101" t="s">
         <v>285</v>
       </c>
-      <c r="E34" s="103"/>
-      <c r="F34" s="104"/>
+      <c r="E34" s="101"/>
+      <c r="F34" s="102"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="8"/>
       <c r="B35" s="58"/>
       <c r="C35" s="58"/>
-      <c r="D35" s="103"/>
-      <c r="E35" s="103"/>
-      <c r="F35" s="104"/>
+      <c r="D35" s="101"/>
+      <c r="E35" s="101"/>
+      <c r="F35" s="102"/>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="8"/>
       <c r="B36" s="58"/>
       <c r="C36" s="58"/>
-      <c r="D36" s="103"/>
-      <c r="E36" s="103"/>
-      <c r="F36" s="104"/>
+      <c r="D36" s="101"/>
+      <c r="E36" s="101"/>
+      <c r="F36" s="102"/>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="8"/>
@@ -6354,17 +6318,17 @@
       <c r="A38" s="8"/>
       <c r="B38" s="58"/>
       <c r="C38" s="58"/>
-      <c r="D38" s="103"/>
-      <c r="E38" s="103"/>
-      <c r="F38" s="104"/>
+      <c r="D38" s="101"/>
+      <c r="E38" s="101"/>
+      <c r="F38" s="102"/>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="8"/>
       <c r="B39" s="58"/>
       <c r="C39" s="58"/>
-      <c r="D39" s="103"/>
-      <c r="E39" s="103"/>
-      <c r="F39" s="104"/>
+      <c r="D39" s="101"/>
+      <c r="E39" s="101"/>
+      <c r="F39" s="102"/>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="8"/>
@@ -6378,9 +6342,9 @@
       <c r="A41" s="8"/>
       <c r="B41" s="58"/>
       <c r="C41" s="58"/>
-      <c r="D41" s="103"/>
-      <c r="E41" s="103"/>
-      <c r="F41" s="104"/>
+      <c r="D41" s="101"/>
+      <c r="E41" s="101"/>
+      <c r="F41" s="102"/>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="42"/>
@@ -6436,115 +6400,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:D12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="105">
-        <v>42848</v>
-      </c>
-      <c r="C3" t="s">
-        <v>286</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="105">
-        <v>42861</v>
-      </c>
-      <c r="C5" t="s">
-        <v>287</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="105">
-        <v>42868</v>
-      </c>
-      <c r="C7" t="s">
-        <v>288</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="105">
-        <v>42883</v>
-      </c>
-      <c r="C8" t="s">
-        <v>289</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="105">
-        <v>42889</v>
-      </c>
-      <c r="C9" t="s">
-        <v>290</v>
-      </c>
-      <c r="D9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="105">
-        <v>42896</v>
-      </c>
-      <c r="C10" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="105">
-        <v>42903</v>
-      </c>
-      <c r="C11" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="105">
-        <v>42910</v>
-      </c>
-      <c r="C12" t="s">
-        <v>292</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/doc/最新接口_拟定.xlsx
+++ b/doc/最新接口_拟定.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="首标签" sheetId="1" r:id="rId1"/>
@@ -1935,11 +1935,14 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1959,6 +1962,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1968,14 +1977,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1994,12 +2000,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2317,32 +2317,32 @@
   <sheetData>
     <row r="3" spans="2:16" ht="14.25" thickBot="1"/>
     <row r="4" spans="2:16">
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="85" t="s">
         <v>241</v>
       </c>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="86"/>
-      <c r="I4" s="84" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="87"/>
+      <c r="I4" s="85" t="s">
         <v>243</v>
       </c>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="87"/>
     </row>
     <row r="5" spans="2:16">
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="88" t="s">
         <v>242</v>
       </c>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="89"/>
-      <c r="I5" s="87" t="s">
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="90"/>
+      <c r="I5" s="88" t="s">
         <v>244</v>
       </c>
-      <c r="J5" s="88"/>
-      <c r="K5" s="88"/>
-      <c r="L5" s="89"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="89"/>
+      <c r="L5" s="90"/>
     </row>
     <row r="6" spans="2:16">
       <c r="B6" s="8"/>
@@ -2406,21 +2406,21 @@
     </row>
     <row r="11" spans="2:16" ht="14.25" customHeight="1"/>
     <row r="14" spans="2:16" ht="14.25" thickBot="1">
-      <c r="I14" s="93" t="s">
+      <c r="I14" s="82" t="s">
         <v>56</v>
       </c>
-      <c r="J14" s="94"/>
-      <c r="K14" s="94"/>
-      <c r="L14" s="94"/>
-      <c r="M14" s="95"/>
+      <c r="J14" s="83"/>
+      <c r="K14" s="83"/>
+      <c r="L14" s="83"/>
+      <c r="M14" s="84"/>
     </row>
     <row r="15" spans="2:16">
-      <c r="B15" s="84" t="s">
+      <c r="B15" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="85"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="86"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="87"/>
       <c r="I15" s="21" t="s">
         <v>36</v>
       </c>
@@ -2435,18 +2435,18 @@
         <v>36</v>
       </c>
       <c r="N15" s="3"/>
-      <c r="O15" s="82" t="s">
+      <c r="O15" s="91" t="s">
         <v>41</v>
       </c>
-      <c r="P15" s="83"/>
+      <c r="P15" s="92"/>
     </row>
     <row r="16" spans="2:16">
-      <c r="B16" s="87" t="s">
+      <c r="B16" s="88" t="s">
         <v>242</v>
       </c>
-      <c r="C16" s="88"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="89"/>
+      <c r="C16" s="89"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="90"/>
       <c r="I16" s="33"/>
       <c r="J16" s="30"/>
       <c r="K16" s="31">
@@ -2944,11 +2944,11 @@
       <c r="P37" s="23"/>
     </row>
     <row r="38" spans="2:16">
-      <c r="B38" s="90" t="s">
+      <c r="B38" s="93" t="s">
         <v>194</v>
       </c>
-      <c r="C38" s="91"/>
-      <c r="D38" s="92"/>
+      <c r="C38" s="94"/>
+      <c r="D38" s="95"/>
       <c r="I38" s="33" t="s">
         <v>119</v>
       </c>
@@ -3011,18 +3011,18 @@
     <row r="42" spans="2:16" ht="22.5" customHeight="1"/>
     <row r="43" spans="2:16" ht="31.5" customHeight="1"/>
     <row r="44" spans="2:16">
-      <c r="H44" s="82" t="s">
+      <c r="H44" s="91" t="s">
         <v>258</v>
       </c>
-      <c r="I44" s="83"/>
-      <c r="J44" s="82" t="s">
+      <c r="I44" s="92"/>
+      <c r="J44" s="91" t="s">
         <v>118</v>
       </c>
-      <c r="K44" s="83"/>
-      <c r="L44" s="82" t="s">
+      <c r="K44" s="92"/>
+      <c r="L44" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="M44" s="83"/>
+      <c r="M44" s="92"/>
     </row>
     <row r="45" spans="2:16">
       <c r="H45" s="22">
@@ -3138,11 +3138,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="I14:M14"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="I5:L5"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="J44:K44"/>
     <mergeCell ref="L44:M44"/>
@@ -3150,6 +3145,11 @@
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="H44:I44"/>
+    <mergeCell ref="I14:M14"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="I5:L5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3162,8 +3162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:U103"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="M44" sqref="M44:R57"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="O46" sqref="O46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3343,11 +3343,11 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="4"/>
-      <c r="B10" s="98" t="s">
+      <c r="B10" s="100" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="99"/>
-      <c r="D10" s="100"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="102"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -3356,11 +3356,11 @@
       <c r="J10" s="4"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="98" t="s">
+      <c r="M10" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="N10" s="99"/>
-      <c r="O10" s="100"/>
+      <c r="N10" s="101"/>
+      <c r="O10" s="102"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -3370,11 +3370,11 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="4"/>
-      <c r="B11" s="90" t="s">
+      <c r="B11" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="91"/>
-      <c r="D11" s="92"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="95"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -3383,11 +3383,11 @@
       <c r="J11" s="4"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="90" t="s">
+      <c r="M11" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="N11" s="91"/>
-      <c r="O11" s="92"/>
+      <c r="N11" s="94"/>
+      <c r="O11" s="95"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -3508,11 +3508,11 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="4"/>
-      <c r="B17" s="98" t="s">
+      <c r="B17" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="99"/>
-      <c r="D17" s="100"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="102"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -3521,11 +3521,11 @@
       <c r="J17" s="4"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="98" t="s">
+      <c r="M17" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="N17" s="99"/>
-      <c r="O17" s="100"/>
+      <c r="N17" s="101"/>
+      <c r="O17" s="102"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -3534,11 +3534,11 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="4"/>
-      <c r="B18" s="90" t="s">
+      <c r="B18" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="91"/>
-      <c r="D18" s="92"/>
+      <c r="C18" s="94"/>
+      <c r="D18" s="95"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -3547,11 +3547,11 @@
       <c r="J18" s="4"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="90" t="s">
+      <c r="M18" s="93" t="s">
         <v>131</v>
       </c>
-      <c r="N18" s="91"/>
-      <c r="O18" s="92"/>
+      <c r="N18" s="94"/>
+      <c r="O18" s="95"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -3591,9 +3591,9 @@
     </row>
     <row r="20" spans="1:21" ht="41.25" thickBot="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="98"/>
-      <c r="C20" s="99"/>
-      <c r="D20" s="100"/>
+      <c r="B20" s="100"/>
+      <c r="C20" s="101"/>
+      <c r="D20" s="102"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -3622,11 +3622,11 @@
     </row>
     <row r="21" spans="1:21" ht="14.25" thickBot="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="90" t="s">
+      <c r="B21" s="93" t="s">
         <v>131</v>
       </c>
-      <c r="C21" s="91"/>
-      <c r="D21" s="92"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="95"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -3693,11 +3693,11 @@
       <c r="J23" s="4"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="98" t="s">
+      <c r="M23" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="N23" s="99"/>
-      <c r="O23" s="100"/>
+      <c r="N23" s="101"/>
+      <c r="O23" s="102"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
@@ -3718,11 +3718,11 @@
       <c r="J24" s="4"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-      <c r="M24" s="90" t="s">
+      <c r="M24" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="N24" s="91"/>
-      <c r="O24" s="92"/>
+      <c r="N24" s="94"/>
+      <c r="O24" s="95"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
@@ -3855,11 +3855,11 @@
       <c r="J29" s="4"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
-      <c r="M29" s="98" t="s">
+      <c r="M29" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="N29" s="99"/>
-      <c r="O29" s="100"/>
+      <c r="N29" s="101"/>
+      <c r="O29" s="102"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
@@ -3880,11 +3880,11 @@
       <c r="J30" s="4"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="90" t="s">
+      <c r="M30" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="N30" s="91"/>
-      <c r="O30" s="92"/>
+      <c r="N30" s="94"/>
+      <c r="O30" s="95"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
@@ -4040,11 +4040,11 @@
       <c r="J36" s="4"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
-      <c r="M36" s="98" t="s">
+      <c r="M36" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="N36" s="99"/>
-      <c r="O36" s="100"/>
+      <c r="N36" s="101"/>
+      <c r="O36" s="102"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
@@ -4065,11 +4065,11 @@
       <c r="J37" s="4"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
-      <c r="M37" s="90" t="s">
+      <c r="M37" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="N37" s="91"/>
-      <c r="O37" s="92"/>
+      <c r="N37" s="94"/>
+      <c r="O37" s="95"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
@@ -4248,14 +4248,14 @@
       <c r="J44" s="4"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
-      <c r="M44" s="98" t="s">
+      <c r="M44" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="N44" s="99"/>
-      <c r="O44" s="99"/>
-      <c r="P44" s="99"/>
-      <c r="Q44" s="99"/>
-      <c r="R44" s="100"/>
+      <c r="N44" s="101"/>
+      <c r="O44" s="101"/>
+      <c r="P44" s="101"/>
+      <c r="Q44" s="101"/>
+      <c r="R44" s="102"/>
       <c r="S44" s="2"/>
       <c r="T44" s="3"/>
       <c r="U44" s="3"/>
@@ -4273,14 +4273,14 @@
       <c r="J45" s="4"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
-      <c r="M45" s="90" t="s">
+      <c r="M45" s="93" t="s">
         <v>138</v>
       </c>
-      <c r="N45" s="91"/>
-      <c r="O45" s="91"/>
-      <c r="P45" s="91"/>
-      <c r="Q45" s="91"/>
-      <c r="R45" s="92"/>
+      <c r="N45" s="94"/>
+      <c r="O45" s="94"/>
+      <c r="P45" s="94"/>
+      <c r="Q45" s="94"/>
+      <c r="R45" s="95"/>
       <c r="S45" s="2"/>
       <c r="T45" s="3"/>
       <c r="U45" s="3"/>
@@ -4307,11 +4307,11 @@
       <c r="O46" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="P46" s="101" t="s">
+      <c r="P46" s="103" t="s">
         <v>132</v>
       </c>
-      <c r="Q46" s="101"/>
-      <c r="R46" s="102"/>
+      <c r="Q46" s="103"/>
+      <c r="R46" s="104"/>
       <c r="S46" s="2"/>
       <c r="T46" s="3"/>
       <c r="U46" s="3"/>
@@ -4338,22 +4338,22 @@
       <c r="O47" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="P47" s="101" t="s">
+      <c r="P47" s="103" t="s">
         <v>152</v>
       </c>
-      <c r="Q47" s="101"/>
-      <c r="R47" s="102"/>
+      <c r="Q47" s="103"/>
+      <c r="R47" s="104"/>
       <c r="S47" s="2"/>
       <c r="T47" s="3"/>
       <c r="U47" s="3"/>
     </row>
     <row r="48" spans="1:21">
       <c r="A48" s="1"/>
-      <c r="B48" s="98" t="s">
+      <c r="B48" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="C48" s="99"/>
-      <c r="D48" s="100"/>
+      <c r="C48" s="101"/>
+      <c r="D48" s="102"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -4371,22 +4371,22 @@
       <c r="O48" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P48" s="101" t="s">
+      <c r="P48" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="Q48" s="101"/>
-      <c r="R48" s="102"/>
+      <c r="Q48" s="103"/>
+      <c r="R48" s="104"/>
       <c r="S48" s="2"/>
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
     </row>
     <row r="49" spans="1:21">
       <c r="A49" s="1"/>
-      <c r="B49" s="90" t="s">
+      <c r="B49" s="93" t="s">
         <v>114</v>
       </c>
-      <c r="C49" s="91"/>
-      <c r="D49" s="92"/>
+      <c r="C49" s="94"/>
+      <c r="D49" s="95"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -4443,11 +4443,11 @@
       <c r="O50" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P50" s="101" t="s">
+      <c r="P50" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="Q50" s="101"/>
-      <c r="R50" s="102"/>
+      <c r="Q50" s="103"/>
+      <c r="R50" s="104"/>
       <c r="S50" s="2"/>
       <c r="T50" s="3"/>
       <c r="U50" s="3"/>
@@ -4474,11 +4474,11 @@
       <c r="O51" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="P51" s="101" t="s">
+      <c r="P51" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="Q51" s="101"/>
-      <c r="R51" s="102"/>
+      <c r="Q51" s="103"/>
+      <c r="R51" s="104"/>
       <c r="S51" s="2"/>
       <c r="T51" s="3"/>
       <c r="U51" s="3"/>
@@ -4536,11 +4536,11 @@
       <c r="O53" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="P53" s="101" t="s">
+      <c r="P53" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="Q53" s="101"/>
-      <c r="R53" s="102"/>
+      <c r="Q53" s="103"/>
+      <c r="R53" s="104"/>
       <c r="S53" s="2"/>
       <c r="T53" s="3"/>
       <c r="U53" s="3"/>
@@ -4705,13 +4705,13 @@
       <c r="J59" s="4"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
-      <c r="M59" s="98" t="s">
+      <c r="M59" s="100" t="s">
         <v>139</v>
       </c>
-      <c r="N59" s="99"/>
-      <c r="O59" s="99"/>
-      <c r="P59" s="99"/>
-      <c r="Q59" s="100"/>
+      <c r="N59" s="101"/>
+      <c r="O59" s="101"/>
+      <c r="P59" s="101"/>
+      <c r="Q59" s="102"/>
       <c r="R59" s="1"/>
       <c r="S59" s="2"/>
       <c r="T59" s="3"/>
@@ -4739,10 +4739,10 @@
       <c r="O60" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="P60" s="96" t="s">
+      <c r="P60" s="98" t="s">
         <v>140</v>
       </c>
-      <c r="Q60" s="97"/>
+      <c r="Q60" s="99"/>
       <c r="R60" s="1"/>
       <c r="S60" s="2"/>
       <c r="T60" s="3"/>
@@ -4770,10 +4770,10 @@
       <c r="O61" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="P61" s="96" t="s">
+      <c r="P61" s="98" t="s">
         <v>143</v>
       </c>
-      <c r="Q61" s="97"/>
+      <c r="Q61" s="99"/>
       <c r="R61" s="1"/>
       <c r="S61" s="2"/>
       <c r="T61" s="3"/>
@@ -4801,10 +4801,10 @@
       <c r="O62" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="P62" s="96" t="s">
+      <c r="P62" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="Q62" s="97"/>
+      <c r="Q62" s="99"/>
       <c r="R62" s="1"/>
       <c r="S62" s="2"/>
       <c r="T62" s="3"/>
@@ -4832,10 +4832,10 @@
       <c r="O63" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P63" s="103" t="s">
+      <c r="P63" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="Q63" s="104"/>
+      <c r="Q63" s="97"/>
       <c r="R63" s="1"/>
       <c r="S63" s="2"/>
       <c r="T63" s="3"/>
@@ -4863,10 +4863,10 @@
       <c r="O64" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="P64" s="96" t="s">
+      <c r="P64" s="98" t="s">
         <v>164</v>
       </c>
-      <c r="Q64" s="97"/>
+      <c r="Q64" s="99"/>
       <c r="R64" s="1"/>
       <c r="S64" s="2"/>
       <c r="T64" s="3"/>
@@ -4894,10 +4894,10 @@
       <c r="O65" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="P65" s="96" t="s">
+      <c r="P65" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="Q65" s="97"/>
+      <c r="Q65" s="99"/>
       <c r="R65" s="1"/>
       <c r="S65" s="2"/>
       <c r="T65" s="3"/>
@@ -4925,10 +4925,10 @@
       <c r="O66" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="P66" s="96" t="s">
+      <c r="P66" s="98" t="s">
         <v>221</v>
       </c>
-      <c r="Q66" s="97"/>
+      <c r="Q66" s="99"/>
       <c r="R66" s="1"/>
       <c r="S66" s="2"/>
       <c r="T66" s="3"/>
@@ -4956,10 +4956,10 @@
       <c r="O67" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="P67" s="96" t="s">
+      <c r="P67" s="98" t="s">
         <v>220</v>
       </c>
-      <c r="Q67" s="97"/>
+      <c r="Q67" s="99"/>
       <c r="R67" s="1"/>
       <c r="S67" s="1"/>
       <c r="T67" s="3"/>
@@ -5001,13 +5001,13 @@
       <c r="J69" s="4"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
-      <c r="M69" s="98" t="s">
+      <c r="M69" s="100" t="s">
         <v>179</v>
       </c>
-      <c r="N69" s="99"/>
-      <c r="O69" s="99"/>
-      <c r="P69" s="99"/>
-      <c r="Q69" s="100"/>
+      <c r="N69" s="101"/>
+      <c r="O69" s="101"/>
+      <c r="P69" s="101"/>
+      <c r="Q69" s="102"/>
       <c r="R69" s="1"/>
       <c r="S69" s="1"/>
       <c r="T69" s="3"/>
@@ -5026,13 +5026,13 @@
       <c r="J70" s="4"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
-      <c r="M70" s="98" t="s">
+      <c r="M70" s="100" t="s">
         <v>180</v>
       </c>
-      <c r="N70" s="99"/>
-      <c r="O70" s="99"/>
-      <c r="P70" s="99"/>
-      <c r="Q70" s="100"/>
+      <c r="N70" s="101"/>
+      <c r="O70" s="101"/>
+      <c r="P70" s="101"/>
+      <c r="Q70" s="102"/>
       <c r="R70" s="1"/>
       <c r="S70" s="1"/>
       <c r="T70" s="3"/>
@@ -5060,10 +5060,10 @@
       <c r="O71" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="P71" s="103" t="s">
+      <c r="P71" s="96" t="s">
         <v>204</v>
       </c>
-      <c r="Q71" s="104"/>
+      <c r="Q71" s="97"/>
       <c r="R71" s="1"/>
       <c r="S71" s="1"/>
       <c r="T71" s="3"/>
@@ -5091,10 +5091,10 @@
       <c r="O72" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="P72" s="103" t="s">
+      <c r="P72" s="96" t="s">
         <v>196</v>
       </c>
-      <c r="Q72" s="104"/>
+      <c r="Q72" s="97"/>
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
       <c r="T72" s="3"/>
@@ -5122,10 +5122,10 @@
       <c r="O73" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="P73" s="103" t="s">
+      <c r="P73" s="96" t="s">
         <v>193</v>
       </c>
-      <c r="Q73" s="104"/>
+      <c r="Q73" s="97"/>
       <c r="R73" s="1"/>
       <c r="S73" s="1"/>
       <c r="T73" s="3"/>
@@ -5182,10 +5182,10 @@
       <c r="O75" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="P75" s="96" t="s">
+      <c r="P75" s="98" t="s">
         <v>222</v>
       </c>
-      <c r="Q75" s="97"/>
+      <c r="Q75" s="99"/>
       <c r="R75" s="1"/>
       <c r="S75" s="1"/>
       <c r="T75" s="3"/>
@@ -5213,10 +5213,10 @@
       <c r="O76" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="P76" s="96" t="s">
+      <c r="P76" s="98" t="s">
         <v>223</v>
       </c>
-      <c r="Q76" s="97"/>
+      <c r="Q76" s="99"/>
       <c r="R76" s="1"/>
       <c r="S76" s="1"/>
       <c r="T76" s="3"/>
@@ -5258,11 +5258,11 @@
       <c r="J78" s="4"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
-      <c r="M78" s="90" t="s">
+      <c r="M78" s="93" t="s">
         <v>194</v>
       </c>
-      <c r="N78" s="91"/>
-      <c r="O78" s="92"/>
+      <c r="N78" s="94"/>
+      <c r="O78" s="95"/>
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
       <c r="R78" s="1"/>
@@ -5364,11 +5364,11 @@
       <c r="J82" s="4"/>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
-      <c r="M82" s="90" t="s">
+      <c r="M82" s="93" t="s">
         <v>186</v>
       </c>
-      <c r="N82" s="91"/>
-      <c r="O82" s="92"/>
+      <c r="N82" s="94"/>
+      <c r="O82" s="95"/>
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
       <c r="R82" s="1"/>
@@ -5879,6 +5879,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="M78:O78"/>
+    <mergeCell ref="M82:O82"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="M59:Q59"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P51:R51"/>
+    <mergeCell ref="P53:R53"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="M44:R44"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="M45:R45"/>
+    <mergeCell ref="P46:R46"/>
+    <mergeCell ref="P47:R47"/>
+    <mergeCell ref="P48:R48"/>
+    <mergeCell ref="P50:R50"/>
     <mergeCell ref="P63:Q63"/>
     <mergeCell ref="P66:Q66"/>
     <mergeCell ref="B48:D48"/>
@@ -5895,34 +5923,6 @@
     <mergeCell ref="P60:Q60"/>
     <mergeCell ref="P62:Q62"/>
     <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="M45:R45"/>
-    <mergeCell ref="P46:R46"/>
-    <mergeCell ref="P47:R47"/>
-    <mergeCell ref="P48:R48"/>
-    <mergeCell ref="P50:R50"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="M44:R44"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="M78:O78"/>
-    <mergeCell ref="M82:O82"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="M59:Q59"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P51:R51"/>
-    <mergeCell ref="P53:R53"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="M29:O29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5934,8 +5934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T45"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G51" sqref="A35:G51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5967,10 +5967,10 @@
       </c>
     </row>
     <row r="6" spans="1:20" ht="24" customHeight="1">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="91" t="s">
         <v>261</v>
       </c>
-      <c r="B6" s="83"/>
+      <c r="B6" s="92"/>
       <c r="E6" s="62"/>
       <c r="F6" s="61">
         <v>1</v>
@@ -6255,24 +6255,24 @@
     </row>
     <row r="31" spans="1:8" ht="14.25" thickBot="1"/>
     <row r="32" spans="1:8">
-      <c r="A32" s="98" t="s">
+      <c r="A32" s="100" t="s">
         <v>283</v>
       </c>
-      <c r="B32" s="99"/>
-      <c r="C32" s="99"/>
-      <c r="D32" s="99"/>
-      <c r="E32" s="99"/>
-      <c r="F32" s="100"/>
+      <c r="B32" s="101"/>
+      <c r="C32" s="101"/>
+      <c r="D32" s="101"/>
+      <c r="E32" s="101"/>
+      <c r="F32" s="102"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="90" t="s">
+      <c r="A33" s="93" t="s">
         <v>282</v>
       </c>
-      <c r="B33" s="91"/>
-      <c r="C33" s="91"/>
-      <c r="D33" s="91"/>
-      <c r="E33" s="91"/>
-      <c r="F33" s="92"/>
+      <c r="B33" s="94"/>
+      <c r="C33" s="94"/>
+      <c r="D33" s="94"/>
+      <c r="E33" s="94"/>
+      <c r="F33" s="95"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="8" t="s">
@@ -6284,27 +6284,27 @@
       <c r="C34" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="D34" s="101" t="s">
+      <c r="D34" s="103" t="s">
         <v>285</v>
       </c>
-      <c r="E34" s="101"/>
-      <c r="F34" s="102"/>
+      <c r="E34" s="103"/>
+      <c r="F34" s="104"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="8"/>
       <c r="B35" s="58"/>
       <c r="C35" s="58"/>
-      <c r="D35" s="101"/>
-      <c r="E35" s="101"/>
-      <c r="F35" s="102"/>
+      <c r="D35" s="103"/>
+      <c r="E35" s="103"/>
+      <c r="F35" s="104"/>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="8"/>
       <c r="B36" s="58"/>
       <c r="C36" s="58"/>
-      <c r="D36" s="101"/>
-      <c r="E36" s="101"/>
-      <c r="F36" s="102"/>
+      <c r="D36" s="103"/>
+      <c r="E36" s="103"/>
+      <c r="F36" s="104"/>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="8"/>
@@ -6318,17 +6318,17 @@
       <c r="A38" s="8"/>
       <c r="B38" s="58"/>
       <c r="C38" s="58"/>
-      <c r="D38" s="101"/>
-      <c r="E38" s="101"/>
-      <c r="F38" s="102"/>
+      <c r="D38" s="103"/>
+      <c r="E38" s="103"/>
+      <c r="F38" s="104"/>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="8"/>
       <c r="B39" s="58"/>
       <c r="C39" s="58"/>
-      <c r="D39" s="101"/>
-      <c r="E39" s="101"/>
-      <c r="F39" s="102"/>
+      <c r="D39" s="103"/>
+      <c r="E39" s="103"/>
+      <c r="F39" s="104"/>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="8"/>
@@ -6342,9 +6342,9 @@
       <c r="A41" s="8"/>
       <c r="B41" s="58"/>
       <c r="C41" s="58"/>
-      <c r="D41" s="101"/>
-      <c r="E41" s="101"/>
-      <c r="F41" s="102"/>
+      <c r="D41" s="103"/>
+      <c r="E41" s="103"/>
+      <c r="F41" s="104"/>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="42"/>
@@ -6400,7 +6400,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>

--- a/doc/最新接口_拟定.xlsx
+++ b/doc/最新接口_拟定.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="首标签" sheetId="1" r:id="rId1"/>
@@ -53,8 +53,44 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="A58" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+参考右图</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="329">
   <si>
     <t>int</t>
   </si>
@@ -165,12 +201,6 @@
   </si>
   <si>
     <t>操作</t>
-  </si>
-  <si>
-    <t>操作类型</t>
-  </si>
-  <si>
-    <t>操作人</t>
   </si>
   <si>
     <t>附加数据</t>
@@ -594,10 +624,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>battle_enter_room_again</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ReEnterData</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1139,10 +1165,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>实际操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">
 dval:定缺内容1-4</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1153,54 +1175,247 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">flag参考212
-吃/三剑客/听牌：dval:牌；
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可操作集合(可能多个)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>flag:可操作类型1：发牌，2：打牌,3:碰，4：吃，5：听，6胡,7：过；10以后各种杠（11：明杠/点杠，12：暗杠，13：补杠/捡杠,14：四风杠；15：三剑客）
-吃：KVData(吃的类型-使用的牌);三剑客:中发白重复的那张牌；听：KVData（牌-听胡的类型）</t>
+    <t>区域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新进入房间（开始游戏之后）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bankId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>庄家索引id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NetOprateData</t>
+  </si>
+  <si>
+    <t>NetKVData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NetchairInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NeMiddleEnter_room</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chairs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chairInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置信息otype=4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dval:roomId
+dlist:玩家选项配置(0：最大番数,1:按位合并)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;NetKVData&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出房间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uid:uid
+dval:1位:是否离线,2位:是否托管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离线托管状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回otype：6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发牌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>uid:uid
 dval:playerStatus
 flag:玩家索引位置
-kvData：1附加状态-&gt;（1位:是否离线,2位:是否托管）;2-&gt;东西南北；3:分数
-dList:玩家手牌信息：第一个为手牌数量，后面为手牌内容（可能不传）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>区域</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">flag参考212(注意这个为复合值=falg(212)&lt;&lt;6|手牌数量)
-吃/听牌：dval:牌；
-胡、听牌类型集合：dList
-发牌：dList;KVData为所有人的手牌数量
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>middle_enter_room_again</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重新进入房间（开始游戏之后）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bankId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>庄家索引id</t>
+kvData：1附加状态-&gt;（1位:是否离线,2位:是否托管）;2-&gt;东西南北；3:分数;4:定缺信息（0:等待定缺，大于0定缺内容）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uid:uid
+dval:手牌数量
+dlist：手牌内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cards</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;NetchairInfo&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NetCardGroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NetGroupUnit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;NetGroupUnit&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>units</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牌内容详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;NetCardGroup&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各区域牌的情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丢弃牌（打牌）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可操作集合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碰牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>听牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uid:uid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uid:uid
+dval:内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uid:uid
+dval:内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uid:uid
+dlist:内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uid:uid
+dVal:打出的牌
+dlist:听牌类型集合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uid:uid
+dVal:胡牌
+dlist:胡牌类型集合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uid:uid
+dVal:杠的子类型
+dlist:杠的内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dVal:打出的牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KVData:可操作类型otype集合&gt;&gt;k:optype,v:subType(子类),dlist:详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dVal:吃的子类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dVal:杠的子类型
+dlist:杠的内容（明杠，暗杠，捡杠，四风都不需要传，三剑客只需要传多余的哪一个牌即可）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1208,7 +1423,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1257,6 +1472,21 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1782,7 +2012,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1868,7 +2098,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1935,6 +2164,9 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1968,14 +2200,14 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1998,8 +2230,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2297,7 +2541,7 @@
   <dimension ref="B3:P51"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2317,32 +2561,32 @@
   <sheetData>
     <row r="3" spans="2:16" ht="14.25" thickBot="1"/>
     <row r="4" spans="2:16">
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="87" t="s">
+        <v>238</v>
+      </c>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="89"/>
+      <c r="I4" s="87" t="s">
+        <v>240</v>
+      </c>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="89"/>
+    </row>
+    <row r="5" spans="2:16">
+      <c r="B5" s="90" t="s">
+        <v>239</v>
+      </c>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="92"/>
+      <c r="I5" s="90" t="s">
         <v>241</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="87"/>
-      <c r="I4" s="85" t="s">
-        <v>243</v>
-      </c>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="87"/>
-    </row>
-    <row r="5" spans="2:16">
-      <c r="B5" s="88" t="s">
-        <v>242</v>
-      </c>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="90"/>
-      <c r="I5" s="88" t="s">
-        <v>244</v>
-      </c>
-      <c r="J5" s="89"/>
-      <c r="K5" s="89"/>
-      <c r="L5" s="90"/>
+      <c r="J5" s="91"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="92"/>
     </row>
     <row r="6" spans="2:16">
       <c r="B6" s="8"/>
@@ -2350,103 +2594,103 @@
       <c r="D6" s="15"/>
       <c r="E6" s="56"/>
       <c r="I6" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="J6" s="55" t="s">
+        <v>244</v>
+      </c>
+      <c r="K6" s="55" t="s">
+        <v>245</v>
+      </c>
+      <c r="L6" s="56" t="s">
         <v>246</v>
-      </c>
-      <c r="J6" s="55" t="s">
-        <v>247</v>
-      </c>
-      <c r="K6" s="55" t="s">
-        <v>248</v>
-      </c>
-      <c r="L6" s="56" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="7" spans="2:16">
       <c r="I7" s="8" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="J7" s="55" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="K7" s="55" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="L7" s="56" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="2:16">
       <c r="I8" s="8" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="J8" s="55" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="K8" s="55" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="L8" s="56" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="2:16">
       <c r="I9" s="8" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="J9" s="55" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="K9" s="55" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="L9" s="56" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="2:16" ht="14.25" customHeight="1"/>
     <row r="14" spans="2:16" ht="14.25" thickBot="1">
-      <c r="I14" s="82" t="s">
-        <v>56</v>
-      </c>
-      <c r="J14" s="83"/>
-      <c r="K14" s="83"/>
-      <c r="L14" s="83"/>
-      <c r="M14" s="84"/>
+      <c r="I14" s="84" t="s">
+        <v>54</v>
+      </c>
+      <c r="J14" s="85"/>
+      <c r="K14" s="85"/>
+      <c r="L14" s="85"/>
+      <c r="M14" s="86"/>
     </row>
     <row r="15" spans="2:16">
-      <c r="B15" s="85" t="s">
+      <c r="B15" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="86"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="87"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="89"/>
       <c r="I15" s="21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J15" s="21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K15" s="21"/>
       <c r="L15" s="21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M15" s="21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N15" s="3"/>
-      <c r="O15" s="91" t="s">
-        <v>41</v>
-      </c>
-      <c r="P15" s="92"/>
+      <c r="O15" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="P15" s="94"/>
     </row>
     <row r="16" spans="2:16">
-      <c r="B16" s="88" t="s">
-        <v>242</v>
-      </c>
-      <c r="C16" s="89"/>
-      <c r="D16" s="89"/>
-      <c r="E16" s="90"/>
+      <c r="B16" s="90" t="s">
+        <v>239</v>
+      </c>
+      <c r="C16" s="91"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="92"/>
       <c r="I16" s="33"/>
       <c r="J16" s="30"/>
       <c r="K16" s="31">
@@ -2456,25 +2700,25 @@
         <v>7</v>
       </c>
       <c r="M16" s="33" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="N16" s="3"/>
       <c r="O16" s="22">
         <v>0</v>
       </c>
       <c r="P16" s="25" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="2:16">
       <c r="B17" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D17" s="15" t="s">
-        <v>34</v>
+      <c r="D17" s="83" t="s">
+        <v>282</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>14</v>
@@ -2485,28 +2729,28 @@
         <v>102</v>
       </c>
       <c r="L17" s="32" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M17" s="33" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="N17" s="3"/>
       <c r="O17" s="22">
         <v>1</v>
       </c>
       <c r="P17" s="25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="2:16" ht="14.25" thickBot="1">
       <c r="B18" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="9" t="s">
-        <v>35</v>
+      <c r="D18" s="83" t="s">
+        <v>328</v>
       </c>
       <c r="E18" s="20" t="s">
         <v>13</v>
@@ -2517,64 +2761,64 @@
         <v>103</v>
       </c>
       <c r="L18" s="32" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M18" s="33" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N18" s="3"/>
       <c r="O18" s="22">
         <v>2</v>
       </c>
       <c r="P18" s="25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="2:16" ht="27.75" thickBot="1">
       <c r="B19" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D19" s="34" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E19" s="20" t="s">
         <v>13</v>
       </c>
       <c r="I19" s="33" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J19" s="30" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="K19" s="31">
         <v>104</v>
       </c>
       <c r="L19" s="32" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="M19" s="33" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="N19" s="3"/>
       <c r="O19" s="22">
         <v>3</v>
       </c>
       <c r="P19" s="25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="2:16" ht="27.75" thickBot="1">
       <c r="B20" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E20" s="20" t="s">
         <v>13</v>
@@ -2585,34 +2829,34 @@
         <v>105</v>
       </c>
       <c r="L20" s="32" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="M20" s="33" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="N20" s="3"/>
       <c r="O20" s="22">
         <v>4</v>
       </c>
       <c r="P20" s="25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="2:16" ht="81.75" thickBot="1">
       <c r="B21" s="5" t="s">
-        <v>227</v>
+        <v>123</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>194</v>
+        <v>91</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>13</v>
+        <v>34</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="I21" s="33" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J21" s="30" t="s">
         <v>9</v>
@@ -2624,30 +2868,30 @@
         <v>9</v>
       </c>
       <c r="M21" s="33" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O21" s="22">
         <v>5</v>
       </c>
       <c r="P21" s="25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="2:16" ht="27.75" thickBot="1">
       <c r="B22" s="5" t="s">
-        <v>125</v>
+        <v>224</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>93</v>
+        <v>286</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>13</v>
+        <v>34</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="I22" s="33" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J22" s="35" t="s">
         <v>10</v>
@@ -2656,17 +2900,17 @@
         <v>107</v>
       </c>
       <c r="L22" s="37" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M22" s="38" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N22" s="3"/>
       <c r="O22" s="22">
         <v>6</v>
       </c>
       <c r="P22" s="25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="2:16">
@@ -2676,17 +2920,17 @@
         <v>108</v>
       </c>
       <c r="L23" s="32" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M23" s="33" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="N23" s="3"/>
       <c r="O23" s="22">
         <v>7</v>
       </c>
       <c r="P23" s="25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="2:16">
@@ -2696,19 +2940,19 @@
         <v>109</v>
       </c>
       <c r="L24" s="32" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="M24" s="33" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="N24" s="24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O24" s="22">
         <v>8</v>
       </c>
       <c r="P24" s="25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="2:16">
@@ -2723,14 +2967,14 @@
         <v>11</v>
       </c>
       <c r="M25" s="38" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N25" s="3"/>
       <c r="O25" s="22">
         <v>9</v>
       </c>
       <c r="P25" s="25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="2:16">
@@ -2744,7 +2988,7 @@
         <v>10</v>
       </c>
       <c r="P26" s="25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="2:16">
@@ -2758,7 +3002,7 @@
         <v>11</v>
       </c>
       <c r="P27" s="25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="2:16">
@@ -2768,17 +3012,17 @@
         <v>113</v>
       </c>
       <c r="L28" s="32" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M28" s="33" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N28" s="3"/>
       <c r="O28" s="22">
         <v>12</v>
       </c>
       <c r="P28" s="25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="2:16">
@@ -2788,17 +3032,17 @@
         <v>114</v>
       </c>
       <c r="L29" s="37" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M29" s="38" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="N29" s="3"/>
       <c r="O29" s="22">
         <v>13</v>
       </c>
       <c r="P29" s="25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="2:16">
@@ -2808,17 +3052,17 @@
         <v>115</v>
       </c>
       <c r="L30" s="37" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M30" s="38" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="N30" s="3"/>
       <c r="O30" s="22">
         <v>14</v>
       </c>
       <c r="P30" s="25" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="2:16">
@@ -2828,17 +3072,17 @@
         <v>116</v>
       </c>
       <c r="L31" s="32" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M31" s="33" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N31" s="3"/>
       <c r="O31" s="22">
         <v>15</v>
       </c>
       <c r="P31" s="25" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="2:16">
@@ -2848,32 +3092,32 @@
         <v>117</v>
       </c>
       <c r="L32" s="32" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M32" s="33" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N32" s="3"/>
       <c r="O32" s="22">
         <v>16</v>
       </c>
       <c r="P32" s="25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="2:16" ht="27">
       <c r="I33" s="33" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J33" s="35"/>
       <c r="K33" s="36">
         <v>118</v>
       </c>
       <c r="L33" s="37" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="M33" s="38" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="N33" s="3"/>
       <c r="O33" s="22"/>
@@ -2886,10 +3130,10 @@
         <v>119</v>
       </c>
       <c r="L34" s="32" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M34" s="33" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N34" s="3"/>
       <c r="O34" s="22"/>
@@ -2902,10 +3146,10 @@
         <v>120</v>
       </c>
       <c r="L35" s="32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M35" s="33" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N35" s="3"/>
       <c r="O35" s="22"/>
@@ -2918,10 +3162,10 @@
         <v>121</v>
       </c>
       <c r="L36" s="32" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M36" s="33" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N36" s="3"/>
       <c r="O36" s="22"/>
@@ -2934,44 +3178,48 @@
         <v>122</v>
       </c>
       <c r="L37" s="32" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M37" s="33" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="N37" s="3"/>
       <c r="O37" s="22"/>
       <c r="P37" s="23"/>
     </row>
     <row r="38" spans="2:16">
-      <c r="B38" s="93" t="s">
-        <v>194</v>
-      </c>
-      <c r="C38" s="94"/>
-      <c r="D38" s="95"/>
+      <c r="B38" s="95" t="s">
+        <v>277</v>
+      </c>
+      <c r="C38" s="96"/>
+      <c r="D38" s="96"/>
+      <c r="E38" s="97"/>
       <c r="I38" s="33" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J38" s="35"/>
       <c r="K38" s="36">
         <v>123</v>
       </c>
       <c r="L38" s="37" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M38" s="38" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="2:16" ht="14.25" thickBot="1">
       <c r="B39" s="5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>13</v>
       </c>
       <c r="I39" s="33"/>
       <c r="J39" s="30"/>
@@ -2979,21 +3227,24 @@
         <v>125</v>
       </c>
       <c r="L39" s="32" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M39" s="33" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="40" spans="2:16" ht="17.25" customHeight="1" thickBot="1">
       <c r="B40" s="5" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>13</v>
       </c>
       <c r="I40" s="33"/>
       <c r="J40" s="30"/>
@@ -3001,47 +3252,60 @@
         <v>126</v>
       </c>
       <c r="L40" s="32" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M40" s="33" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="41" spans="2:16" ht="18.75" customHeight="1"/>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16" ht="18.75" customHeight="1" thickBot="1">
+      <c r="B41" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
     <row r="42" spans="2:16" ht="22.5" customHeight="1"/>
     <row r="43" spans="2:16" ht="31.5" customHeight="1"/>
     <row r="44" spans="2:16">
-      <c r="H44" s="91" t="s">
-        <v>258</v>
-      </c>
-      <c r="I44" s="92"/>
-      <c r="J44" s="91" t="s">
-        <v>118</v>
-      </c>
-      <c r="K44" s="92"/>
-      <c r="L44" s="91" t="s">
-        <v>79</v>
-      </c>
-      <c r="M44" s="92"/>
+      <c r="H44" s="93" t="s">
+        <v>255</v>
+      </c>
+      <c r="I44" s="94"/>
+      <c r="J44" s="93" t="s">
+        <v>116</v>
+      </c>
+      <c r="K44" s="94"/>
+      <c r="L44" s="93" t="s">
+        <v>77</v>
+      </c>
+      <c r="M44" s="94"/>
     </row>
     <row r="45" spans="2:16">
       <c r="H45" s="22">
         <v>0</v>
       </c>
       <c r="I45" s="25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J45" s="22">
         <v>0</v>
       </c>
       <c r="K45" s="25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L45" s="22">
         <v>0</v>
       </c>
       <c r="M45" s="22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46" spans="2:16">
@@ -3049,19 +3313,19 @@
         <v>1</v>
       </c>
       <c r="I46" s="25" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="J46" s="22">
         <v>1</v>
       </c>
       <c r="K46" s="25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L46" s="22">
         <v>1</v>
       </c>
       <c r="M46" s="29" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" spans="2:16">
@@ -3069,19 +3333,19 @@
         <v>2</v>
       </c>
       <c r="I47" s="25" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="J47" s="22">
         <v>2</v>
       </c>
       <c r="K47" s="25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L47" s="22">
         <v>2</v>
       </c>
       <c r="M47" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" spans="2:16">
@@ -3091,13 +3355,13 @@
         <v>3</v>
       </c>
       <c r="K48" s="25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L48" s="22">
         <v>3</v>
       </c>
       <c r="M48" s="22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" spans="8:13">
@@ -3109,7 +3373,7 @@
         <v>4</v>
       </c>
       <c r="M49" s="22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50" spans="8:13">
@@ -3121,7 +3385,7 @@
         <v>5</v>
       </c>
       <c r="M50" s="22" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51" spans="8:13">
@@ -3133,7 +3397,7 @@
         <v>6</v>
       </c>
       <c r="M51" s="22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -3143,8 +3407,8 @@
     <mergeCell ref="L44:M44"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B38:D38"/>
     <mergeCell ref="H44:I44"/>
+    <mergeCell ref="B38:E38"/>
     <mergeCell ref="I14:M14"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
@@ -3162,8 +3426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:U103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="O46" sqref="O46"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M45" sqref="M45:R49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3343,11 +3607,11 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="4"/>
-      <c r="B10" s="100" t="s">
+      <c r="B10" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="101"/>
-      <c r="D10" s="102"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="104"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -3356,11 +3620,11 @@
       <c r="J10" s="4"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="100" t="s">
+      <c r="M10" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="N10" s="101"/>
-      <c r="O10" s="102"/>
+      <c r="N10" s="103"/>
+      <c r="O10" s="104"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -3370,11 +3634,11 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="4"/>
-      <c r="B11" s="93" t="s">
+      <c r="B11" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="94"/>
-      <c r="D11" s="95"/>
+      <c r="C11" s="106"/>
+      <c r="D11" s="107"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -3383,11 +3647,11 @@
       <c r="J11" s="4"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="93" t="s">
+      <c r="M11" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="N11" s="94"/>
-      <c r="O11" s="95"/>
+      <c r="N11" s="106"/>
+      <c r="O11" s="107"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -3508,11 +3772,11 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="4"/>
-      <c r="B17" s="100" t="s">
+      <c r="B17" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="101"/>
-      <c r="D17" s="102"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="104"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -3521,11 +3785,11 @@
       <c r="J17" s="4"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="100" t="s">
+      <c r="M17" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="N17" s="101"/>
-      <c r="O17" s="102"/>
+      <c r="N17" s="103"/>
+      <c r="O17" s="104"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -3534,11 +3798,11 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="4"/>
-      <c r="B18" s="93" t="s">
+      <c r="B18" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="94"/>
-      <c r="D18" s="95"/>
+      <c r="C18" s="106"/>
+      <c r="D18" s="107"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -3547,11 +3811,11 @@
       <c r="J18" s="4"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="93" t="s">
-        <v>131</v>
-      </c>
-      <c r="N18" s="94"/>
-      <c r="O18" s="95"/>
+      <c r="M18" s="105" t="s">
+        <v>129</v>
+      </c>
+      <c r="N18" s="106"/>
+      <c r="O18" s="107"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -3572,16 +3836,16 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="26" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -3591,9 +3855,9 @@
     </row>
     <row r="20" spans="1:21" ht="41.25" thickBot="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="100"/>
-      <c r="C20" s="101"/>
-      <c r="D20" s="102"/>
+      <c r="B20" s="102"/>
+      <c r="C20" s="103"/>
+      <c r="D20" s="104"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -3603,16 +3867,16 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="26" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N20" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P20" s="27" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -3622,11 +3886,11 @@
     </row>
     <row r="21" spans="1:21" ht="14.25" thickBot="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="93" t="s">
-        <v>131</v>
-      </c>
-      <c r="C21" s="94"/>
-      <c r="D21" s="95"/>
+      <c r="B21" s="105" t="s">
+        <v>129</v>
+      </c>
+      <c r="C21" s="106"/>
+      <c r="D21" s="107"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -3636,13 +3900,13 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
@@ -3693,11 +3957,11 @@
       <c r="J23" s="4"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="100" t="s">
+      <c r="M23" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="N23" s="101"/>
-      <c r="O23" s="102"/>
+      <c r="N23" s="103"/>
+      <c r="O23" s="104"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
@@ -3718,11 +3982,11 @@
       <c r="J24" s="4"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-      <c r="M24" s="93" t="s">
-        <v>71</v>
-      </c>
-      <c r="N24" s="94"/>
-      <c r="O24" s="95"/>
+      <c r="M24" s="105" t="s">
+        <v>69</v>
+      </c>
+      <c r="N24" s="106"/>
+      <c r="O24" s="107"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
@@ -3744,13 +4008,13 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="26" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="N25" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
@@ -3773,7 +4037,7 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="26" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N26" s="6" t="s">
         <v>1</v>
@@ -3782,7 +4046,7 @@
         <v>2</v>
       </c>
       <c r="P26" s="27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
@@ -3804,13 +4068,13 @@
       <c r="K27" s="1"/>
       <c r="L27" s="12"/>
       <c r="M27" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N27" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P27" s="12"/>
       <c r="Q27" s="1"/>
@@ -3855,11 +4119,11 @@
       <c r="J29" s="4"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
-      <c r="M29" s="100" t="s">
+      <c r="M29" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="N29" s="101"/>
-      <c r="O29" s="102"/>
+      <c r="N29" s="103"/>
+      <c r="O29" s="104"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
@@ -3880,11 +4144,11 @@
       <c r="J30" s="4"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="93" t="s">
-        <v>71</v>
-      </c>
-      <c r="N30" s="94"/>
-      <c r="O30" s="95"/>
+      <c r="M30" s="105" t="s">
+        <v>69</v>
+      </c>
+      <c r="N30" s="106"/>
+      <c r="O30" s="107"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
@@ -3906,13 +4170,13 @@
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="26" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="N31" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
@@ -3935,16 +4199,16 @@
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="26" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N32" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>2</v>
       </c>
       <c r="P32" s="27" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
@@ -3966,13 +4230,13 @@
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N33" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
@@ -4040,11 +4304,11 @@
       <c r="J36" s="4"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
-      <c r="M36" s="100" t="s">
+      <c r="M36" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="N36" s="101"/>
-      <c r="O36" s="102"/>
+      <c r="N36" s="103"/>
+      <c r="O36" s="104"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
@@ -4065,11 +4329,11 @@
       <c r="J37" s="4"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
-      <c r="M37" s="93" t="s">
-        <v>71</v>
-      </c>
-      <c r="N37" s="94"/>
-      <c r="O37" s="95"/>
+      <c r="M37" s="105" t="s">
+        <v>69</v>
+      </c>
+      <c r="N37" s="106"/>
+      <c r="O37" s="107"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
@@ -4091,13 +4355,13 @@
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="26" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="N38" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
@@ -4120,16 +4384,16 @@
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="26" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N39" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>2</v>
       </c>
       <c r="P39" s="27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
@@ -4151,13 +4415,13 @@
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N40" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
@@ -4248,14 +4512,14 @@
       <c r="J44" s="4"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
-      <c r="M44" s="100" t="s">
+      <c r="M44" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="N44" s="101"/>
-      <c r="O44" s="101"/>
-      <c r="P44" s="101"/>
-      <c r="Q44" s="101"/>
-      <c r="R44" s="102"/>
+      <c r="N44" s="103"/>
+      <c r="O44" s="103"/>
+      <c r="P44" s="103"/>
+      <c r="Q44" s="103"/>
+      <c r="R44" s="104"/>
       <c r="S44" s="2"/>
       <c r="T44" s="3"/>
       <c r="U44" s="3"/>
@@ -4273,14 +4537,14 @@
       <c r="J45" s="4"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
-      <c r="M45" s="93" t="s">
-        <v>138</v>
-      </c>
-      <c r="N45" s="94"/>
-      <c r="O45" s="94"/>
-      <c r="P45" s="94"/>
-      <c r="Q45" s="94"/>
-      <c r="R45" s="95"/>
+      <c r="M45" s="105" t="s">
+        <v>323</v>
+      </c>
+      <c r="N45" s="106"/>
+      <c r="O45" s="106"/>
+      <c r="P45" s="106"/>
+      <c r="Q45" s="106"/>
+      <c r="R45" s="107"/>
       <c r="S45" s="2"/>
       <c r="T45" s="3"/>
       <c r="U45" s="3"/>
@@ -4299,7 +4563,7 @@
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="N46" s="9" t="s">
         <v>12</v>
@@ -4307,11 +4571,11 @@
       <c r="O46" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="P46" s="103" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q46" s="103"/>
-      <c r="R46" s="104"/>
+      <c r="P46" s="108" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q46" s="108"/>
+      <c r="R46" s="109"/>
       <c r="S46" s="2"/>
       <c r="T46" s="3"/>
       <c r="U46" s="3"/>
@@ -4330,7 +4594,7 @@
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="N47" s="9" t="s">
         <v>8</v>
@@ -4338,22 +4602,22 @@
       <c r="O47" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="P47" s="103" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q47" s="103"/>
-      <c r="R47" s="104"/>
+      <c r="P47" s="108" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q47" s="108"/>
+      <c r="R47" s="109"/>
       <c r="S47" s="2"/>
       <c r="T47" s="3"/>
       <c r="U47" s="3"/>
     </row>
     <row r="48" spans="1:21">
       <c r="A48" s="1"/>
-      <c r="B48" s="100" t="s">
-        <v>116</v>
-      </c>
-      <c r="C48" s="101"/>
-      <c r="D48" s="102"/>
+      <c r="B48" s="102" t="s">
+        <v>114</v>
+      </c>
+      <c r="C48" s="103"/>
+      <c r="D48" s="104"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -4363,7 +4627,7 @@
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="8" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="N48" s="9" t="s">
         <v>0</v>
@@ -4371,22 +4635,22 @@
       <c r="O48" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P48" s="103" t="s">
+      <c r="P48" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="Q48" s="103"/>
-      <c r="R48" s="104"/>
+      <c r="Q48" s="108"/>
+      <c r="R48" s="109"/>
       <c r="S48" s="2"/>
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
     </row>
     <row r="49" spans="1:21">
       <c r="A49" s="1"/>
-      <c r="B49" s="93" t="s">
-        <v>114</v>
-      </c>
-      <c r="C49" s="94"/>
-      <c r="D49" s="95"/>
+      <c r="B49" s="105" t="s">
+        <v>112</v>
+      </c>
+      <c r="C49" s="106"/>
+      <c r="D49" s="107"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -4396,7 +4660,7 @@
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="N49" s="9" t="s">
         <v>0</v>
@@ -4405,7 +4669,7 @@
         <v>14</v>
       </c>
       <c r="P49" s="41" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="Q49" s="9"/>
       <c r="R49" s="10"/>
@@ -4419,13 +4683,13 @@
         <v>5</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D50" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -4435,7 +4699,7 @@
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
       <c r="M50" s="8" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="N50" s="9" t="s">
         <v>0</v>
@@ -4443,11 +4707,11 @@
       <c r="O50" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P50" s="103" t="s">
+      <c r="P50" s="108" t="s">
         <v>18</v>
       </c>
-      <c r="Q50" s="103"/>
-      <c r="R50" s="104"/>
+      <c r="Q50" s="108"/>
+      <c r="R50" s="109"/>
       <c r="S50" s="2"/>
       <c r="T50" s="3"/>
       <c r="U50" s="3"/>
@@ -4466,19 +4730,19 @@
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="8" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="N51" s="9" t="s">
         <v>19</v>
       </c>
       <c r="O51" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="P51" s="103" t="s">
+        <v>72</v>
+      </c>
+      <c r="P51" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="Q51" s="103"/>
-      <c r="R51" s="104"/>
+      <c r="Q51" s="108"/>
+      <c r="R51" s="109"/>
       <c r="S51" s="2"/>
       <c r="T51" s="3"/>
       <c r="U51" s="3"/>
@@ -4497,16 +4761,16 @@
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="8" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="N52" s="39" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="O52" s="39" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P52" s="41" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="Q52" s="39"/>
       <c r="R52" s="40"/>
@@ -4528,19 +4792,19 @@
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="N53" s="16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O53" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="P53" s="103" t="s">
+        <v>71</v>
+      </c>
+      <c r="P53" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="Q53" s="103"/>
-      <c r="R53" s="104"/>
+      <c r="Q53" s="108"/>
+      <c r="R53" s="109"/>
       <c r="S53" s="2"/>
       <c r="T53" s="3"/>
       <c r="U53" s="3"/>
@@ -4559,16 +4823,16 @@
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
       <c r="M54" s="42" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="N54" s="43" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="O54" s="49" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P54" s="43" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Q54" s="43"/>
       <c r="R54" s="44"/>
@@ -4590,16 +4854,16 @@
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
       <c r="M55" s="42" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N55" s="43" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O55" s="7" t="s">
         <v>14</v>
       </c>
       <c r="P55" s="43" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="Q55" s="43"/>
       <c r="R55" s="44"/>
@@ -4621,16 +4885,16 @@
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="28" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N56" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O56" s="7" t="s">
         <v>14</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Q56" s="7"/>
       <c r="R56" s="7"/>
@@ -4652,16 +4916,16 @@
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="28" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="N57" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O57" s="7" t="s">
         <v>14</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Q57" s="7"/>
       <c r="R57" s="7"/>
@@ -4705,13 +4969,13 @@
       <c r="J59" s="4"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
-      <c r="M59" s="100" t="s">
-        <v>139</v>
-      </c>
-      <c r="N59" s="101"/>
-      <c r="O59" s="101"/>
-      <c r="P59" s="101"/>
-      <c r="Q59" s="102"/>
+      <c r="M59" s="102" t="s">
+        <v>136</v>
+      </c>
+      <c r="N59" s="103"/>
+      <c r="O59" s="103"/>
+      <c r="P59" s="103"/>
+      <c r="Q59" s="104"/>
       <c r="R59" s="1"/>
       <c r="S59" s="2"/>
       <c r="T59" s="3"/>
@@ -4731,18 +4995,18 @@
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
       <c r="M60" s="8" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N60" s="39" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="O60" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="P60" s="98" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q60" s="99"/>
+        <v>122</v>
+      </c>
+      <c r="P60" s="100" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q60" s="101"/>
       <c r="R60" s="1"/>
       <c r="S60" s="2"/>
       <c r="T60" s="3"/>
@@ -4762,18 +5026,18 @@
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
       <c r="M61" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="N61" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="O61" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="N61" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="O61" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="P61" s="98" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q61" s="99"/>
+      <c r="P61" s="100" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q61" s="101"/>
       <c r="R61" s="1"/>
       <c r="S61" s="2"/>
       <c r="T61" s="3"/>
@@ -4793,18 +5057,18 @@
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="N62" s="45" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="O62" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="P62" s="98" t="s">
+      <c r="P62" s="100" t="s">
         <v>22</v>
       </c>
-      <c r="Q62" s="99"/>
+      <c r="Q62" s="101"/>
       <c r="R62" s="1"/>
       <c r="S62" s="2"/>
       <c r="T62" s="3"/>
@@ -4824,7 +5088,7 @@
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
       <c r="M63" s="8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="N63" s="9" t="s">
         <v>0</v>
@@ -4832,10 +5096,10 @@
       <c r="O63" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P63" s="96" t="s">
+      <c r="P63" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="Q63" s="97"/>
+      <c r="Q63" s="99"/>
       <c r="R63" s="1"/>
       <c r="S63" s="2"/>
       <c r="T63" s="3"/>
@@ -4855,18 +5119,18 @@
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
       <c r="M64" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="N64" s="6" t="s">
         <v>0</v>
       </c>
       <c r="O64" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="P64" s="98" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q64" s="99"/>
+        <v>72</v>
+      </c>
+      <c r="P64" s="100" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q64" s="101"/>
       <c r="R64" s="1"/>
       <c r="S64" s="2"/>
       <c r="T64" s="3"/>
@@ -4886,7 +5150,7 @@
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
       <c r="M65" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="N65" s="6" t="s">
         <v>32</v>
@@ -4894,10 +5158,10 @@
       <c r="O65" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="P65" s="98" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q65" s="99"/>
+      <c r="P65" s="100" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q65" s="101"/>
       <c r="R65" s="1"/>
       <c r="S65" s="2"/>
       <c r="T65" s="3"/>
@@ -4917,18 +5181,18 @@
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
       <c r="M66" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="N66" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="N66" s="6" t="s">
-        <v>217</v>
-      </c>
       <c r="O66" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="P66" s="98" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q66" s="99"/>
+        <v>72</v>
+      </c>
+      <c r="P66" s="100" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q66" s="101"/>
       <c r="R66" s="1"/>
       <c r="S66" s="2"/>
       <c r="T66" s="3"/>
@@ -4948,18 +5212,18 @@
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
       <c r="M67" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="N67" s="6" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="O67" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="P67" s="98" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q67" s="99"/>
+        <v>72</v>
+      </c>
+      <c r="P67" s="100" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q67" s="101"/>
       <c r="R67" s="1"/>
       <c r="S67" s="1"/>
       <c r="T67" s="3"/>
@@ -5001,13 +5265,13 @@
       <c r="J69" s="4"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
-      <c r="M69" s="100" t="s">
-        <v>179</v>
-      </c>
-      <c r="N69" s="101"/>
-      <c r="O69" s="101"/>
-      <c r="P69" s="101"/>
-      <c r="Q69" s="102"/>
+      <c r="M69" s="102" t="s">
+        <v>176</v>
+      </c>
+      <c r="N69" s="103"/>
+      <c r="O69" s="103"/>
+      <c r="P69" s="103"/>
+      <c r="Q69" s="104"/>
       <c r="R69" s="1"/>
       <c r="S69" s="1"/>
       <c r="T69" s="3"/>
@@ -5026,13 +5290,13 @@
       <c r="J70" s="4"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
-      <c r="M70" s="100" t="s">
-        <v>180</v>
-      </c>
-      <c r="N70" s="101"/>
-      <c r="O70" s="101"/>
-      <c r="P70" s="101"/>
-      <c r="Q70" s="102"/>
+      <c r="M70" s="102" t="s">
+        <v>177</v>
+      </c>
+      <c r="N70" s="103"/>
+      <c r="O70" s="103"/>
+      <c r="P70" s="103"/>
+      <c r="Q70" s="104"/>
       <c r="R70" s="1"/>
       <c r="S70" s="1"/>
       <c r="T70" s="3"/>
@@ -5052,18 +5316,18 @@
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
       <c r="M71" s="8" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="N71" s="45" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="O71" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="P71" s="96" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q71" s="97"/>
+      <c r="P71" s="98" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q71" s="99"/>
       <c r="R71" s="1"/>
       <c r="S71" s="1"/>
       <c r="T71" s="3"/>
@@ -5083,18 +5347,18 @@
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
       <c r="M72" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="N72" s="48" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O72" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="P72" s="96" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q72" s="97"/>
+      <c r="P72" s="98" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q72" s="99"/>
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
       <c r="T72" s="3"/>
@@ -5114,18 +5378,18 @@
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
       <c r="M73" s="8" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="N73" s="47" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="O73" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="P73" s="96" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q73" s="97"/>
+      <c r="P73" s="98" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q73" s="99"/>
       <c r="R73" s="1"/>
       <c r="S73" s="1"/>
       <c r="T73" s="3"/>
@@ -5145,14 +5409,14 @@
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
       <c r="M74" s="8" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="N74" s="54" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="O74" s="54"/>
       <c r="P74" s="52" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="Q74" s="53"/>
       <c r="R74" s="1"/>
@@ -5174,18 +5438,18 @@
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
       <c r="M75" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="N75" s="6" t="s">
         <v>0</v>
       </c>
       <c r="O75" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="P75" s="98" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q75" s="99"/>
+        <v>72</v>
+      </c>
+      <c r="P75" s="100" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q75" s="101"/>
       <c r="R75" s="1"/>
       <c r="S75" s="1"/>
       <c r="T75" s="3"/>
@@ -5205,18 +5469,18 @@
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
       <c r="M76" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="N76" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="N76" s="6" t="s">
-        <v>217</v>
-      </c>
       <c r="O76" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="P76" s="98" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q76" s="99"/>
+        <v>72</v>
+      </c>
+      <c r="P76" s="100" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q76" s="101"/>
       <c r="R76" s="1"/>
       <c r="S76" s="1"/>
       <c r="T76" s="3"/>
@@ -5258,11 +5522,11 @@
       <c r="J78" s="4"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
-      <c r="M78" s="93" t="s">
-        <v>194</v>
-      </c>
-      <c r="N78" s="94"/>
-      <c r="O78" s="95"/>
+      <c r="M78" s="105" t="s">
+        <v>191</v>
+      </c>
+      <c r="N78" s="106"/>
+      <c r="O78" s="107"/>
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
       <c r="R78" s="1"/>
@@ -5284,13 +5548,13 @@
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
       <c r="M79" s="5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="N79" s="6" t="s">
         <v>32</v>
       </c>
       <c r="O79" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="P79" s="1"/>
       <c r="Q79" s="1"/>
@@ -5313,13 +5577,13 @@
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
       <c r="M80" s="5" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="N80" s="6" t="s">
         <v>32</v>
       </c>
       <c r="O80" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="P80" s="1"/>
       <c r="Q80" s="1"/>
@@ -5364,11 +5628,11 @@
       <c r="J82" s="4"/>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
-      <c r="M82" s="93" t="s">
-        <v>186</v>
-      </c>
-      <c r="N82" s="94"/>
-      <c r="O82" s="95"/>
+      <c r="M82" s="105" t="s">
+        <v>183</v>
+      </c>
+      <c r="N82" s="106"/>
+      <c r="O82" s="107"/>
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
       <c r="R82" s="1"/>
@@ -5390,13 +5654,13 @@
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
       <c r="M83" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N83" s="6" t="s">
         <v>32</v>
       </c>
       <c r="O83" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="P83" s="1"/>
       <c r="Q83" s="1"/>
@@ -5419,13 +5683,13 @@
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
       <c r="M84" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="N84" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O84" s="51" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="P84" s="1"/>
       <c r="Q84" s="1"/>
@@ -5448,13 +5712,13 @@
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
       <c r="M85" s="5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="N85" s="6" t="s">
         <v>32</v>
       </c>
       <c r="O85" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="P85" s="1"/>
       <c r="Q85" s="1"/>
@@ -5477,13 +5741,13 @@
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
       <c r="M86" s="5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="N86" s="6" t="s">
         <v>32</v>
       </c>
       <c r="O86" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="P86" s="1"/>
       <c r="Q86" s="1"/>
@@ -5506,13 +5770,13 @@
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
       <c r="M87" s="57" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="N87" s="50" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="O87" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="P87" s="1"/>
       <c r="Q87" s="1"/>
@@ -5535,13 +5799,13 @@
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
       <c r="M88" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="N88" s="50" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="O88" s="51" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="P88" s="1"/>
       <c r="Q88" s="1"/>
@@ -5564,13 +5828,13 @@
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
       <c r="M89" s="5" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="N89" s="6" t="s">
         <v>32</v>
       </c>
       <c r="O89" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="P89" s="1"/>
       <c r="Q89" s="1"/>
@@ -5593,13 +5857,13 @@
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
       <c r="M90" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="N90" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="N90" s="6" t="s">
-        <v>185</v>
-      </c>
       <c r="O90" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="P90" s="1"/>
       <c r="Q90" s="1"/>
@@ -5622,13 +5886,13 @@
       <c r="K91" s="13"/>
       <c r="L91" s="13"/>
       <c r="M91" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="N91" s="50" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="O91" s="51" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P91" s="13"/>
       <c r="Q91" s="13"/>
@@ -5932,16 +6196,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T45"/>
+  <dimension ref="A1:T66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="5" max="5" width="33.875" customWidth="1"/>
+    <col min="1" max="1" width="12.375" customWidth="1"/>
+    <col min="2" max="2" width="19.625" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="44.125" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="28.875" customWidth="1"/>
     <col min="8" max="8" width="109.875" customWidth="1"/>
@@ -5949,450 +6215,718 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="E1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="E5" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="F5" s="21" t="s">
         <v>232</v>
       </c>
-      <c r="F5" s="21" t="s">
-        <v>235</v>
-      </c>
       <c r="G5" s="21" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="24" customHeight="1">
-      <c r="A6" s="91" t="s">
-        <v>261</v>
-      </c>
-      <c r="B6" s="92"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="61">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="33.75" customHeight="1">
+      <c r="A6" s="93" t="s">
+        <v>258</v>
+      </c>
+      <c r="B6" s="94"/>
+      <c r="E6" s="61" t="s">
+        <v>285</v>
+      </c>
+      <c r="F6" s="60">
         <v>1</v>
       </c>
       <c r="G6" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="H6" s="33" t="s">
         <v>237</v>
       </c>
-      <c r="H6" s="33" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
+    </row>
+    <row r="7" spans="1:20" ht="28.5" customHeight="1">
       <c r="A7" s="22">
         <v>0</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="62"/>
-      <c r="F7" s="61">
+        <v>55</v>
+      </c>
+      <c r="E7" s="61"/>
+      <c r="F7" s="60">
         <v>2</v>
       </c>
       <c r="G7" s="32" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H7" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="L7" s="69" t="s">
-        <v>280</v>
-      </c>
-      <c r="M7" s="70"/>
-      <c r="N7" s="70"/>
-      <c r="O7" s="70"/>
-      <c r="P7" s="70"/>
-      <c r="Q7" s="70"/>
-      <c r="R7" s="70"/>
-      <c r="S7" s="70"/>
-      <c r="T7" s="71"/>
+        <v>237</v>
+      </c>
+      <c r="L7" s="68" t="s">
+        <v>272</v>
+      </c>
+      <c r="M7" s="69"/>
+      <c r="N7" s="69"/>
+      <c r="O7" s="69"/>
+      <c r="P7" s="69"/>
+      <c r="Q7" s="69"/>
+      <c r="R7" s="69"/>
+      <c r="S7" s="69"/>
+      <c r="T7" s="70"/>
     </row>
     <row r="8" spans="1:20" ht="40.5">
       <c r="A8" s="22">
         <v>1</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>236</v>
-      </c>
-      <c r="E8" s="60"/>
-      <c r="F8" s="61">
+        <v>233</v>
+      </c>
+      <c r="E8" s="59"/>
+      <c r="F8" s="60">
         <v>3</v>
       </c>
       <c r="G8" s="32" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H8" s="33" t="s">
-        <v>257</v>
-      </c>
-      <c r="L8" s="72"/>
-      <c r="M8" s="73"/>
-      <c r="N8" s="73"/>
-      <c r="O8" s="78"/>
-      <c r="P8" s="79">
+        <v>254</v>
+      </c>
+      <c r="L8" s="71"/>
+      <c r="M8" s="72"/>
+      <c r="N8" s="72"/>
+      <c r="O8" s="77"/>
+      <c r="P8" s="78">
         <v>2</v>
       </c>
-      <c r="Q8" s="79"/>
-      <c r="R8" s="80"/>
-      <c r="S8" s="81">
+      <c r="Q8" s="78"/>
+      <c r="R8" s="79"/>
+      <c r="S8" s="80">
         <v>3</v>
       </c>
-      <c r="T8" s="74"/>
-    </row>
-    <row r="9" spans="1:20" ht="67.5">
+      <c r="T8" s="73"/>
+    </row>
+    <row r="9" spans="1:20" ht="54">
       <c r="A9" s="22">
         <v>2</v>
       </c>
       <c r="B9" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="E9" s="59"/>
+      <c r="F9" s="60">
+        <v>4</v>
+      </c>
+      <c r="G9" s="32" t="s">
+        <v>236</v>
+      </c>
+      <c r="H9" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="L9" s="71"/>
+      <c r="M9" s="72"/>
+      <c r="N9" s="72"/>
+      <c r="O9" s="80">
+        <v>4</v>
+      </c>
+      <c r="P9" s="72"/>
+      <c r="Q9" s="72"/>
+      <c r="R9" s="72"/>
+      <c r="S9" s="72"/>
+      <c r="T9" s="73"/>
+    </row>
+    <row r="10" spans="1:20" ht="40.5">
+      <c r="E10" s="61"/>
+      <c r="F10" s="60">
+        <v>5</v>
+      </c>
+      <c r="G10" s="32" t="s">
+        <v>291</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>293</v>
+      </c>
+      <c r="L10" s="71"/>
+      <c r="M10" s="72"/>
+      <c r="N10" s="72"/>
+      <c r="O10" s="65"/>
+      <c r="P10" s="72"/>
+      <c r="Q10" s="72"/>
+      <c r="R10" s="72"/>
+      <c r="S10" s="72"/>
+      <c r="T10" s="73"/>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="E11" s="61"/>
+      <c r="F11" s="60">
+        <v>6</v>
+      </c>
+      <c r="G11" s="32" t="s">
+        <v>287</v>
+      </c>
+      <c r="H11" s="33" t="s">
+        <v>290</v>
+      </c>
+      <c r="L11" s="71"/>
+      <c r="M11" s="72"/>
+      <c r="N11" s="72"/>
+      <c r="O11" s="65"/>
+      <c r="P11" s="72"/>
+      <c r="Q11" s="72"/>
+      <c r="R11" s="72"/>
+      <c r="S11" s="72"/>
+      <c r="T11" s="73"/>
+    </row>
+    <row r="12" spans="1:20" ht="27">
+      <c r="E12" s="59"/>
+      <c r="F12" s="60">
+        <v>7</v>
+      </c>
+      <c r="G12" s="32" t="s">
+        <v>289</v>
+      </c>
+      <c r="H12" s="33" t="s">
+        <v>288</v>
+      </c>
+      <c r="L12" s="71"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="72"/>
+      <c r="O12" s="65"/>
+      <c r="P12" s="72"/>
+      <c r="Q12" s="72"/>
+      <c r="R12" s="72"/>
+      <c r="S12" s="72"/>
+      <c r="T12" s="73"/>
+    </row>
+    <row r="13" spans="1:20" ht="27">
+      <c r="E13" s="61"/>
+      <c r="F13" s="60">
+        <v>10</v>
+      </c>
+      <c r="G13" s="32" t="s">
+        <v>252</v>
+      </c>
+      <c r="H13" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="L13" s="71"/>
+      <c r="M13" s="72"/>
+      <c r="N13" s="72"/>
+      <c r="O13" s="65"/>
+      <c r="P13" s="62"/>
+      <c r="Q13" s="64"/>
+      <c r="R13" s="72"/>
+      <c r="S13" s="72"/>
+      <c r="T13" s="73"/>
+    </row>
+    <row r="14" spans="1:20" ht="27">
+      <c r="E14" s="59"/>
+      <c r="F14" s="60">
+        <v>201</v>
+      </c>
+      <c r="G14" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="H14" s="33" t="s">
         <v>259</v>
       </c>
-      <c r="E9" s="60"/>
-      <c r="F9" s="61">
+      <c r="L14" s="71"/>
+      <c r="M14" s="72"/>
+      <c r="N14" s="72"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="72"/>
+      <c r="Q14" s="63"/>
+      <c r="R14" s="72"/>
+      <c r="S14" s="72"/>
+      <c r="T14" s="73"/>
+    </row>
+    <row r="15" spans="1:20" ht="27">
+      <c r="E15" s="61" t="s">
+        <v>270</v>
+      </c>
+      <c r="F15" s="60">
+        <v>202</v>
+      </c>
+      <c r="G15" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="H15" s="59" t="s">
+        <v>261</v>
+      </c>
+      <c r="L15" s="71"/>
+      <c r="M15" s="72"/>
+      <c r="N15" s="72"/>
+      <c r="O15" s="66"/>
+      <c r="P15" s="62">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="67"/>
+      <c r="R15" s="72"/>
+      <c r="S15" s="72"/>
+      <c r="T15" s="73"/>
+    </row>
+    <row r="16" spans="1:20" ht="27">
+      <c r="E16" s="61" t="s">
+        <v>271</v>
+      </c>
+      <c r="F16" s="60">
+        <v>203</v>
+      </c>
+      <c r="G16" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="H16" s="59" t="s">
+        <v>264</v>
+      </c>
+      <c r="L16" s="71"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="72"/>
+      <c r="O16" s="72"/>
+      <c r="P16" s="72"/>
+      <c r="Q16" s="72"/>
+      <c r="R16" s="80">
         <v>4</v>
       </c>
-      <c r="G9" s="32" t="s">
-        <v>239</v>
-      </c>
-      <c r="H9" s="33" t="s">
-        <v>279</v>
-      </c>
-      <c r="L9" s="72"/>
-      <c r="M9" s="73"/>
-      <c r="N9" s="73"/>
-      <c r="O9" s="81">
-        <v>4</v>
-      </c>
-      <c r="P9" s="73"/>
-      <c r="Q9" s="73"/>
-      <c r="R9" s="73"/>
-      <c r="S9" s="73"/>
-      <c r="T9" s="74"/>
-    </row>
-    <row r="10" spans="1:20" ht="27">
-      <c r="E10" s="62"/>
-      <c r="F10" s="61">
-        <v>10</v>
-      </c>
-      <c r="G10" s="32" t="s">
-        <v>255</v>
-      </c>
-      <c r="H10" s="33" t="s">
-        <v>260</v>
-      </c>
-      <c r="L10" s="72"/>
-      <c r="M10" s="73"/>
-      <c r="N10" s="73"/>
-      <c r="O10" s="66"/>
-      <c r="P10" s="63"/>
-      <c r="Q10" s="65"/>
-      <c r="R10" s="73"/>
-      <c r="S10" s="73"/>
-      <c r="T10" s="74"/>
-    </row>
-    <row r="11" spans="1:20" ht="27">
-      <c r="E11" s="62"/>
-      <c r="F11" s="61">
-        <v>201</v>
-      </c>
-      <c r="G11" s="32" t="s">
-        <v>256</v>
-      </c>
-      <c r="H11" s="33" t="s">
-        <v>262</v>
-      </c>
-      <c r="L11" s="72"/>
-      <c r="M11" s="73"/>
-      <c r="N11" s="73"/>
-      <c r="O11" s="64"/>
-      <c r="P11" s="73"/>
-      <c r="Q11" s="64"/>
-      <c r="R11" s="73"/>
-      <c r="S11" s="73"/>
-      <c r="T11" s="74"/>
-    </row>
-    <row r="12" spans="1:20" ht="27">
-      <c r="E12" s="62" t="s">
-        <v>274</v>
-      </c>
-      <c r="F12" s="61">
-        <v>202</v>
-      </c>
-      <c r="G12" s="32" t="s">
+      <c r="S16" s="72"/>
+      <c r="T16" s="73"/>
+    </row>
+    <row r="17" spans="5:20" ht="27">
+      <c r="E17" s="59"/>
+      <c r="F17" s="60">
+        <v>204</v>
+      </c>
+      <c r="G17" s="32" t="s">
         <v>263</v>
       </c>
-      <c r="H12" s="60" t="s">
-        <v>264</v>
-      </c>
-      <c r="L12" s="72"/>
-      <c r="M12" s="73"/>
-      <c r="N12" s="73"/>
-      <c r="O12" s="67"/>
-      <c r="P12" s="63">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="68"/>
-      <c r="R12" s="73"/>
-      <c r="S12" s="73"/>
-      <c r="T12" s="74"/>
-    </row>
-    <row r="13" spans="1:20" ht="27">
-      <c r="E13" s="62" t="s">
-        <v>275</v>
-      </c>
-      <c r="F13" s="61">
-        <v>203</v>
-      </c>
-      <c r="G13" s="32" t="s">
+      <c r="H17" s="59" t="s">
         <v>265</v>
       </c>
-      <c r="H13" s="60" t="s">
-        <v>267</v>
-      </c>
-      <c r="L13" s="72"/>
-      <c r="M13" s="73"/>
-      <c r="N13" s="73"/>
-      <c r="O13" s="73"/>
-      <c r="P13" s="73"/>
-      <c r="Q13" s="73"/>
-      <c r="R13" s="81">
-        <v>4</v>
-      </c>
-      <c r="S13" s="73"/>
-      <c r="T13" s="74"/>
-    </row>
-    <row r="14" spans="1:20" ht="27">
-      <c r="E14" s="60"/>
-      <c r="F14" s="61">
-        <v>204</v>
-      </c>
-      <c r="G14" s="32" t="s">
+      <c r="L17" s="71"/>
+      <c r="M17" s="80">
+        <v>3</v>
+      </c>
+      <c r="N17" s="72"/>
+      <c r="O17" s="77"/>
+      <c r="P17" s="78">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="78"/>
+      <c r="R17" s="79"/>
+      <c r="S17" s="72"/>
+      <c r="T17" s="73"/>
+    </row>
+    <row r="18" spans="5:20" ht="27">
+      <c r="E18" s="59"/>
+      <c r="F18" s="60">
+        <v>211</v>
+      </c>
+      <c r="G18" s="32" t="s">
         <v>266</v>
       </c>
-      <c r="H14" s="60" t="s">
-        <v>268</v>
-      </c>
-      <c r="L14" s="72"/>
-      <c r="M14" s="81">
-        <v>3</v>
-      </c>
-      <c r="N14" s="73"/>
-      <c r="O14" s="78"/>
-      <c r="P14" s="79">
-        <v>2</v>
-      </c>
-      <c r="Q14" s="79"/>
-      <c r="R14" s="80"/>
-      <c r="S14" s="73"/>
-      <c r="T14" s="74"/>
-    </row>
-    <row r="15" spans="1:20" ht="27">
-      <c r="E15" s="60"/>
-      <c r="F15" s="61">
-        <v>211</v>
-      </c>
-      <c r="G15" s="32" t="s">
+      <c r="H18" s="59" t="s">
         <v>269</v>
       </c>
-      <c r="H15" s="60" t="s">
-        <v>272</v>
-      </c>
-      <c r="L15" s="75"/>
-      <c r="M15" s="76"/>
-      <c r="N15" s="76"/>
-      <c r="O15" s="76"/>
-      <c r="P15" s="76"/>
-      <c r="Q15" s="76"/>
-      <c r="R15" s="76"/>
-      <c r="S15" s="76"/>
-      <c r="T15" s="77"/>
-    </row>
-    <row r="16" spans="1:20" ht="40.5">
-      <c r="E16" s="60"/>
-      <c r="F16" s="61">
+      <c r="L18" s="74"/>
+      <c r="M18" s="75"/>
+      <c r="N18" s="75"/>
+      <c r="O18" s="75"/>
+      <c r="P18" s="75"/>
+      <c r="Q18" s="75"/>
+      <c r="R18" s="75"/>
+      <c r="S18" s="75"/>
+      <c r="T18" s="76"/>
+    </row>
+    <row r="19" spans="5:20">
+      <c r="E19" s="59"/>
+      <c r="F19" s="60">
         <v>212</v>
       </c>
-      <c r="G16" s="32" t="s">
-        <v>277</v>
-      </c>
-      <c r="H16" s="60" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="60" customHeight="1">
-      <c r="E17" s="62" t="s">
-        <v>276</v>
-      </c>
-      <c r="F17" s="61">
+      <c r="G19" s="32" t="s">
+        <v>309</v>
+      </c>
+      <c r="H19" s="59" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="20" spans="5:20" ht="27">
+      <c r="E20" s="61"/>
+      <c r="F20" s="60">
         <v>213</v>
       </c>
-      <c r="G17" s="32" t="s">
+      <c r="G20" s="32" t="s">
+        <v>308</v>
+      </c>
+      <c r="H20" s="59" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="21" spans="5:20" ht="27">
+      <c r="E21" s="61"/>
+      <c r="F21" s="60">
+        <v>214</v>
+      </c>
+      <c r="G21" s="32" t="s">
+        <v>310</v>
+      </c>
+      <c r="H21" s="59" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="22" spans="5:20" ht="27">
+      <c r="E22" s="61" t="s">
+        <v>326</v>
+      </c>
+      <c r="F22" s="60">
+        <v>215</v>
+      </c>
+      <c r="G22" s="32" t="s">
+        <v>311</v>
+      </c>
+      <c r="H22" s="59" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="23" spans="5:20" ht="40.5">
+      <c r="E23" s="61" t="s">
+        <v>324</v>
+      </c>
+      <c r="F23" s="60">
+        <v>216</v>
+      </c>
+      <c r="G23" s="32" t="s">
+        <v>312</v>
+      </c>
+      <c r="H23" s="59" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="24" spans="5:20" ht="40.5">
+      <c r="E24" s="61"/>
+      <c r="F24" s="60">
+        <v>217</v>
+      </c>
+      <c r="G24" s="32" t="s">
+        <v>313</v>
+      </c>
+      <c r="H24" s="59" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="25" spans="5:20">
+      <c r="E25" s="61"/>
+      <c r="F25" s="60">
+        <v>218</v>
+      </c>
+      <c r="G25" s="59" t="s">
+        <v>314</v>
+      </c>
+      <c r="H25" s="59" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="26" spans="5:20" ht="40.5">
+      <c r="E26" s="61" t="s">
+        <v>327</v>
+      </c>
+      <c r="F26" s="60">
+        <v>219</v>
+      </c>
+      <c r="G26" s="59" t="s">
+        <v>315</v>
+      </c>
+      <c r="H26" s="59" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="27" spans="5:20">
+      <c r="E27" s="59"/>
+      <c r="F27" s="60">
+        <v>220</v>
+      </c>
+      <c r="G27" s="32"/>
+      <c r="H27" s="59"/>
+    </row>
+    <row r="28" spans="5:20">
+      <c r="E28" s="59"/>
+      <c r="F28" s="60">
+        <v>220</v>
+      </c>
+      <c r="G28" s="32"/>
+      <c r="H28" s="59"/>
+    </row>
+    <row r="29" spans="5:20">
+      <c r="E29" s="59"/>
+      <c r="F29" s="60">
+        <v>220</v>
+      </c>
+      <c r="G29" s="32"/>
+      <c r="H29" s="59"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" thickBot="1"/>
+    <row r="36" spans="1:6">
+      <c r="A36" s="102" t="s">
         <v>273</v>
       </c>
-      <c r="H17" s="60" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="E18" s="60"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="60"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="E19" s="60"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="60"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="E20" s="60"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="60"/>
-    </row>
-    <row r="31" spans="1:8" ht="14.25" thickBot="1"/>
-    <row r="32" spans="1:8">
-      <c r="A32" s="100" t="s">
-        <v>283</v>
-      </c>
-      <c r="B32" s="101"/>
-      <c r="C32" s="101"/>
-      <c r="D32" s="101"/>
-      <c r="E32" s="101"/>
-      <c r="F32" s="102"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="93" t="s">
-        <v>282</v>
-      </c>
-      <c r="B33" s="94"/>
-      <c r="C33" s="94"/>
-      <c r="D33" s="94"/>
-      <c r="E33" s="94"/>
-      <c r="F33" s="95"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="B34" s="58" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34" s="58" t="s">
-        <v>74</v>
-      </c>
-      <c r="D34" s="103" t="s">
-        <v>285</v>
-      </c>
-      <c r="E34" s="103"/>
-      <c r="F34" s="104"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="8"/>
-      <c r="B35" s="58"/>
-      <c r="C35" s="58"/>
-      <c r="D35" s="103"/>
-      <c r="E35" s="103"/>
-      <c r="F35" s="104"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="8"/>
-      <c r="B36" s="58"/>
-      <c r="C36" s="58"/>
+      <c r="B36" s="103"/>
+      <c r="C36" s="103"/>
       <c r="D36" s="103"/>
       <c r="E36" s="103"/>
       <c r="F36" s="104"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="8"/>
-      <c r="B37" s="58"/>
-      <c r="C37" s="58"/>
-      <c r="D37" s="58"/>
-      <c r="E37" s="58"/>
-      <c r="F37" s="59"/>
+      <c r="A37" s="105" t="s">
+        <v>279</v>
+      </c>
+      <c r="B37" s="106"/>
+      <c r="C37" s="106"/>
+      <c r="D37" s="106"/>
+      <c r="E37" s="106"/>
+      <c r="F37" s="107"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="8"/>
-      <c r="B38" s="58"/>
-      <c r="C38" s="58"/>
-      <c r="D38" s="103"/>
-      <c r="E38" s="103"/>
-      <c r="F38" s="104"/>
+      <c r="A38" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="B38" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38" s="108" t="s">
+        <v>275</v>
+      </c>
+      <c r="E38" s="108"/>
+      <c r="F38" s="109"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="8"/>
-      <c r="B39" s="58"/>
-      <c r="C39" s="58"/>
-      <c r="D39" s="103"/>
-      <c r="E39" s="103"/>
-      <c r="F39" s="104"/>
+      <c r="A39" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="B39" s="81" t="s">
+        <v>295</v>
+      </c>
+      <c r="C39" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="D39" s="110" t="s">
+        <v>281</v>
+      </c>
+      <c r="E39" s="111"/>
+      <c r="F39" s="112"/>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="8"/>
       <c r="B40" s="58"/>
       <c r="C40" s="58"/>
-      <c r="D40" s="58"/>
-      <c r="E40" s="58"/>
-      <c r="F40" s="59"/>
+      <c r="D40" s="108"/>
+      <c r="E40" s="108"/>
+      <c r="F40" s="109"/>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="8"/>
-      <c r="B41" s="58"/>
-      <c r="C41" s="58"/>
-      <c r="D41" s="103"/>
-      <c r="E41" s="103"/>
-      <c r="F41" s="104"/>
+      <c r="B41" s="81"/>
+      <c r="C41" s="81"/>
+      <c r="D41" s="108"/>
+      <c r="E41" s="108"/>
+      <c r="F41" s="109"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="42"/>
-      <c r="B42" s="43"/>
+      <c r="A42" s="8"/>
+      <c r="B42" s="81"/>
       <c r="C42" s="58"/>
-      <c r="D42" s="43"/>
-      <c r="E42" s="43"/>
-      <c r="F42" s="44"/>
-    </row>
-    <row r="43" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A43" s="42"/>
-      <c r="B43" s="43"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="43"/>
-      <c r="F43" s="44"/>
-    </row>
-    <row r="44" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A44" s="28"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-    </row>
-    <row r="45" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A45" s="28"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
+      <c r="D42" s="108"/>
+      <c r="E42" s="108"/>
+      <c r="F42" s="109"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="81"/>
+      <c r="B43" s="81"/>
+      <c r="C43" s="81"/>
+      <c r="D43" s="108"/>
+      <c r="E43" s="108"/>
+      <c r="F43" s="109"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="81"/>
+      <c r="B44" s="81"/>
+      <c r="C44" s="81"/>
+      <c r="D44" s="108"/>
+      <c r="E44" s="108"/>
+      <c r="F44" s="109"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="81"/>
+      <c r="B45" s="81"/>
+      <c r="C45" s="81"/>
+      <c r="D45" s="108"/>
+      <c r="E45" s="108"/>
+      <c r="F45" s="109"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="105" t="s">
+        <v>278</v>
+      </c>
+      <c r="B51" s="106"/>
+      <c r="C51" s="106"/>
+      <c r="D51" s="106"/>
+      <c r="E51" s="106"/>
+      <c r="F51" s="107"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="B52" s="81" t="s">
+        <v>276</v>
+      </c>
+      <c r="C52" s="81" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" s="108" t="s">
+        <v>284</v>
+      </c>
+      <c r="E52" s="108"/>
+      <c r="F52" s="109"/>
+    </row>
+    <row r="53" spans="1:6" ht="14.25" thickBot="1">
+      <c r="A53" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="B53" s="81" t="s">
+        <v>306</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D53" s="108" t="s">
+        <v>307</v>
+      </c>
+      <c r="E53" s="108"/>
+      <c r="F53" s="109"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="8"/>
+      <c r="B54" s="81"/>
+      <c r="C54" s="81"/>
+      <c r="D54" s="108"/>
+      <c r="E54" s="108"/>
+      <c r="F54" s="109"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="95" t="s">
+        <v>296</v>
+      </c>
+      <c r="B57" s="96"/>
+      <c r="C57" s="96"/>
+      <c r="D57" s="97"/>
+    </row>
+    <row r="58" spans="1:6" ht="14.25" thickBot="1">
+      <c r="A58" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="D58" s="82" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="14.25" thickBot="1">
+      <c r="A59" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="14.25" thickBot="1">
+      <c r="A60" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="95" t="s">
+        <v>299</v>
+      </c>
+      <c r="B64" s="96"/>
+      <c r="C64" s="96"/>
+      <c r="D64" s="97"/>
+    </row>
+    <row r="65" spans="1:4" ht="14.25" thickBot="1">
+      <c r="A65" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D65" s="82" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="14.25" thickBot="1">
+      <c r="A66" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>71</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="D36:F36"/>
+  <mergeCells count="17">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A37:F37"/>
     <mergeCell ref="D38:F38"/>
     <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="D45:F45"/>
     <mergeCell ref="D41:F41"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="D54:F54"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/doc/最新接口_拟定.xlsx
+++ b/doc/最新接口_拟定.xlsx
@@ -9,10 +9,11 @@
   <sheets>
     <sheet name="首标签" sheetId="1" r:id="rId1"/>
     <sheet name="接口" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="麻将" sheetId="3" r:id="rId3"/>
+    <sheet name="参数说明" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -59,7 +60,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="A58" authorId="0">
+    <comment ref="C7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -70,7 +71,189 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>作者:</t>
+          <t>作者</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:
+0:</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">局数
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1:</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">最大番数
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2:</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>玩法位集合</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:
+0:</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">局数
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1:</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">最大番数
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2:</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>玩法位集合</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+list:0:</t>
         </r>
         <r>
           <rPr>
@@ -80,8 +263,474 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
+          <t>房主</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>id,1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>：定时指向玩家</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>id;2:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>剩余时间；</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C32" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t xml:space="preserve">
-参考右图</t>
+1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">位：是否离线
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">位：是否托管
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>3</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>位</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>是否准备</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H39" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">位：是否离线
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">位：是否托管
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>3</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>位：是否准备</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C50" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>位：是否是总结算</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H50" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+k:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">得失分子类
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>v:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>详细数值</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H65" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+如果和本地的相等则不处理；相差1，则直接覆盖更新；大于1曾需要同步，数据不一致
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G85" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+251</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">：平胡
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>252:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">七对
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>253:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">一色
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>254:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">点杠胡
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>255</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>：刚上开花</t>
         </r>
       </text>
     </comment>
@@ -90,7 +739,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="387">
   <si>
     <t>int</t>
   </si>
@@ -961,10 +1610,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>rate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>加倍结果0,1,2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1013,22 +1658,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>创建房间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加入房间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家位置信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回otype：3,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>客户端-&gt;服务器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1085,30 +1714,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ready</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>定庄</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>uid:uid
-dval:roomId
-dlist:玩家选项配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>玩家userStatus</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>游戏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uid:uid
-dval:playerStatus</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1152,10 +1766,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>step</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>操作数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1175,41 +1785,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>区域</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重新进入房间（开始游戏之后）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bankId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>庄家索引id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NetOprateData</t>
-  </si>
-  <si>
     <t>NetKVData</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NetchairInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NeMiddleEnter_room</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chairs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>玩家信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1218,48 +1797,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>chairInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>位置信息otype=4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dval:roomId
-dlist:玩家选项配置(0：最大番数,1:按位合并)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>List&lt;NetKVData&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>退出房间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uid:uid
-dval:1位:是否离线,2位:是否托管</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>离线托管状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回otype：6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>发牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uid:uid
-dval:playerStatus
-flag:玩家索引位置
-kvData：1附加状态-&gt;（1位:是否离线,2位:是否托管）;2-&gt;东西南北；3:分数;4:定缺信息（0:等待定缺，大于0定缺内容）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1269,62 +1811,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cards</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>List&lt;NetchairInfo&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NetCardGroup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>position</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NetGroupUnit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>List&lt;NetGroupUnit&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>units</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>详细数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>牌内容详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>List&lt;NetCardGroup&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>各区域牌的情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>丢弃牌（打牌）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1337,23 +1823,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>吃牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>听牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>胡牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杠</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1416,6 +1886,430 @@
   </si>
   <si>
     <t>操作人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>step</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入房间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPEnterRoom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建房间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPCreateRoom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roomId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQCreateRoom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NetUserData</t>
+  </si>
+  <si>
+    <t>NetUserData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bytes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imageId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头像Id(自定义为0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;NetUserData&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>users</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;kvData&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出房间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPEixtRoom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gameId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>托管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPAuto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQUserStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态位(与NetUserData的status一样)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPReady</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repeated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;int&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NetExtraData</t>
+  </si>
+  <si>
+    <t>NetExtraData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list&lt;int&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extra</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kvDatas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>operates</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ownerId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>required</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curRount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前局数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房主id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gameStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项附加值1：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:局数
+1:最大番数
+2:玩法位集合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项附加值1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list:0:房主id,1：定时指向玩家id;2:剩余时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NetExtraData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏数据附加值2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态位3</t>
+  </si>
+  <si>
+    <t>状态位3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1位：是否离线
+2位：是否托管
+3位:是否准备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外值4</t>
+  </si>
+  <si>
+    <t>额外值4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃牌5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杠6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>听牌7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡牌8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡牌8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杠6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>听牌7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子类如下
+221:前
+222:中
+223:后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>231：明杠/点杠
+232:暗杠
+233:捡杠
+234:四风杠(东西南北)
+235:三剑客(中发白)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>241：一色听
+242：豪七听牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>251：平胡
+252:七对
+253:一色
+254:点杠胡
+255：刚上开花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏数据附加值2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extra数据为：kvDatas:(k-v)如下：
+1-&gt;出牌详情(dlist)
+2-&gt;手牌信息（v/dlist）
+4-&gt;胡牌列表
+碰吃杠子类（大于200）-dlist
+list:0-&gt;分数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQREsult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算标记9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家输赢详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>results</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200-400为麻将</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算标记9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1位：是否是总结算，0单局，1总结算
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NetMjUserResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;NetMjUserResult&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scores</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>winType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡牌类型（最大番）/叫嘴（最大番）/点炮类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>showType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:胡牌类型，2：叫嘴类型，3：扣分类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;NetKvData&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本次总得分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得分详情10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">k:得失分子类
+v:详细数值
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得分详情10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算（服务器-&gt;客户端）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1423,7 +2317,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1489,6 +2383,45 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1540,7 +2473,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1949,37 +2882,6 @@
       </right>
       <top style="thin">
         <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -2007,12 +2909,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2096,8 +3002,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2110,28 +3014,16 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="38" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="36" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="35" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="32" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="37" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="34" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
@@ -2143,7 +3035,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
@@ -2165,16 +3057,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2194,12 +3085,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2209,16 +3094,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2230,23 +3127,29 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="30" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2540,8 +3443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:P51"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2561,32 +3464,32 @@
   <sheetData>
     <row r="3" spans="2:16" ht="14.25" thickBot="1"/>
     <row r="4" spans="2:16">
-      <c r="B4" s="87" t="s">
-        <v>238</v>
-      </c>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="89"/>
-      <c r="I4" s="87" t="s">
-        <v>240</v>
-      </c>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="89"/>
+      <c r="B4" s="82" t="s">
+        <v>233</v>
+      </c>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="84"/>
+      <c r="I4" s="82" t="s">
+        <v>235</v>
+      </c>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="84"/>
     </row>
     <row r="5" spans="2:16">
-      <c r="B5" s="90" t="s">
-        <v>239</v>
-      </c>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="92"/>
-      <c r="I5" s="90" t="s">
-        <v>241</v>
-      </c>
-      <c r="J5" s="91"/>
-      <c r="K5" s="91"/>
-      <c r="L5" s="92"/>
+      <c r="B5" s="85" t="s">
+        <v>234</v>
+      </c>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="87"/>
+      <c r="I5" s="85" t="s">
+        <v>236</v>
+      </c>
+      <c r="J5" s="86"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="87"/>
     </row>
     <row r="6" spans="2:16">
       <c r="B6" s="8"/>
@@ -2594,77 +3497,77 @@
       <c r="D6" s="15"/>
       <c r="E6" s="56"/>
       <c r="I6" s="8" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="J6" s="55" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="K6" s="55" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="L6" s="56" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="2:16">
       <c r="I7" s="8" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="J7" s="55" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="K7" s="55" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="L7" s="56" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="2:16">
       <c r="I8" s="8" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="J8" s="55" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="K8" s="55" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="L8" s="56" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="2:16">
       <c r="I9" s="8" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="J9" s="55" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="K9" s="55" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="L9" s="56" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="2:16" ht="14.25" customHeight="1"/>
     <row r="14" spans="2:16" ht="14.25" thickBot="1">
-      <c r="I14" s="84" t="s">
+      <c r="I14" s="91" t="s">
         <v>54</v>
       </c>
-      <c r="J14" s="85"/>
-      <c r="K14" s="85"/>
-      <c r="L14" s="85"/>
-      <c r="M14" s="86"/>
+      <c r="J14" s="92"/>
+      <c r="K14" s="92"/>
+      <c r="L14" s="92"/>
+      <c r="M14" s="93"/>
     </row>
     <row r="15" spans="2:16">
-      <c r="B15" s="87" t="s">
+      <c r="B15" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="88"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="89"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="84"/>
       <c r="I15" s="21" t="s">
         <v>34</v>
       </c>
@@ -2679,18 +3582,18 @@
         <v>34</v>
       </c>
       <c r="N15" s="3"/>
-      <c r="O15" s="93" t="s">
+      <c r="O15" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="P15" s="94"/>
+      <c r="P15" s="81"/>
     </row>
     <row r="16" spans="2:16">
-      <c r="B16" s="90" t="s">
-        <v>239</v>
-      </c>
-      <c r="C16" s="91"/>
-      <c r="D16" s="91"/>
-      <c r="E16" s="92"/>
+      <c r="B16" s="85" t="s">
+        <v>234</v>
+      </c>
+      <c r="C16" s="86"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="87"/>
       <c r="I16" s="33"/>
       <c r="J16" s="30"/>
       <c r="K16" s="31">
@@ -2717,8 +3620,8 @@
       <c r="C17" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D17" s="83" t="s">
-        <v>282</v>
+      <c r="D17" s="75" t="s">
+        <v>265</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>14</v>
@@ -2732,7 +3635,7 @@
         <v>60</v>
       </c>
       <c r="M17" s="33" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N17" s="3"/>
       <c r="O17" s="22">
@@ -2749,8 +3652,8 @@
       <c r="C18" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="83" t="s">
-        <v>328</v>
+      <c r="D18" s="75" t="s">
+        <v>285</v>
       </c>
       <c r="E18" s="20" t="s">
         <v>13</v>
@@ -2800,7 +3703,7 @@
         <v>163</v>
       </c>
       <c r="M19" s="33" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N19" s="3"/>
       <c r="O19" s="22">
@@ -2812,7 +3715,7 @@
     </row>
     <row r="20" spans="2:16" ht="27.75" thickBot="1">
       <c r="B20" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>32</v>
@@ -2879,10 +3782,10 @@
     </row>
     <row r="22" spans="2:16" ht="27.75" thickBot="1">
       <c r="B22" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>34</v>
@@ -3188,12 +4091,12 @@
       <c r="P37" s="23"/>
     </row>
     <row r="38" spans="2:16">
-      <c r="B38" s="95" t="s">
-        <v>277</v>
-      </c>
-      <c r="C38" s="96"/>
-      <c r="D38" s="96"/>
-      <c r="E38" s="97"/>
+      <c r="B38" s="88" t="s">
+        <v>263</v>
+      </c>
+      <c r="C38" s="89"/>
+      <c r="D38" s="89"/>
+      <c r="E38" s="90"/>
       <c r="I38" s="33" t="s">
         <v>117</v>
       </c>
@@ -3275,18 +4178,18 @@
     <row r="42" spans="2:16" ht="22.5" customHeight="1"/>
     <row r="43" spans="2:16" ht="31.5" customHeight="1"/>
     <row r="44" spans="2:16">
-      <c r="H44" s="93" t="s">
-        <v>255</v>
-      </c>
-      <c r="I44" s="94"/>
-      <c r="J44" s="93" t="s">
+      <c r="H44" s="80" t="s">
+        <v>248</v>
+      </c>
+      <c r="I44" s="81"/>
+      <c r="J44" s="80" t="s">
         <v>116</v>
       </c>
-      <c r="K44" s="94"/>
-      <c r="L44" s="93" t="s">
+      <c r="K44" s="81"/>
+      <c r="L44" s="80" t="s">
         <v>77</v>
       </c>
-      <c r="M44" s="94"/>
+      <c r="M44" s="81"/>
     </row>
     <row r="45" spans="2:16">
       <c r="H45" s="22">
@@ -3313,7 +4216,7 @@
         <v>1</v>
       </c>
       <c r="I46" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J46" s="22">
         <v>1</v>
@@ -3333,7 +4236,7 @@
         <v>2</v>
       </c>
       <c r="I47" s="25" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="J47" s="22">
         <v>2</v>
@@ -3402,6 +4305,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="I14:M14"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="I5:L5"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="J44:K44"/>
     <mergeCell ref="L44:M44"/>
@@ -3409,11 +4317,6 @@
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="H44:I44"/>
     <mergeCell ref="B38:E38"/>
-    <mergeCell ref="I14:M14"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="I5:L5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3426,8 +4329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:U103"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M45" sqref="M45:R49"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3607,11 +4510,11 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="4"/>
-      <c r="B10" s="102" t="s">
+      <c r="B10" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="103"/>
-      <c r="D10" s="104"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="101"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -3620,11 +4523,11 @@
       <c r="J10" s="4"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="102" t="s">
+      <c r="M10" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="N10" s="103"/>
-      <c r="O10" s="104"/>
+      <c r="N10" s="100"/>
+      <c r="O10" s="101"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -3634,11 +4537,11 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="4"/>
-      <c r="B11" s="105" t="s">
+      <c r="B11" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="106"/>
-      <c r="D11" s="107"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="98"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -3647,11 +4550,11 @@
       <c r="J11" s="4"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="105" t="s">
+      <c r="M11" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="N11" s="106"/>
-      <c r="O11" s="107"/>
+      <c r="N11" s="97"/>
+      <c r="O11" s="98"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -3772,11 +4675,11 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="4"/>
-      <c r="B17" s="102" t="s">
+      <c r="B17" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="103"/>
-      <c r="D17" s="104"/>
+      <c r="C17" s="100"/>
+      <c r="D17" s="101"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -3785,11 +4688,11 @@
       <c r="J17" s="4"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="102" t="s">
+      <c r="M17" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="N17" s="103"/>
-      <c r="O17" s="104"/>
+      <c r="N17" s="100"/>
+      <c r="O17" s="101"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -3798,11 +4701,11 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="4"/>
-      <c r="B18" s="105" t="s">
+      <c r="B18" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="106"/>
-      <c r="D18" s="107"/>
+      <c r="C18" s="97"/>
+      <c r="D18" s="98"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -3811,11 +4714,11 @@
       <c r="J18" s="4"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="105" t="s">
+      <c r="M18" s="96" t="s">
         <v>129</v>
       </c>
-      <c r="N18" s="106"/>
-      <c r="O18" s="107"/>
+      <c r="N18" s="97"/>
+      <c r="O18" s="98"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -3836,7 +4739,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="26" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="N19" s="7" t="s">
         <v>128</v>
@@ -3855,9 +4758,9 @@
     </row>
     <row r="20" spans="1:21" ht="41.25" thickBot="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="102"/>
-      <c r="C20" s="103"/>
-      <c r="D20" s="104"/>
+      <c r="B20" s="99"/>
+      <c r="C20" s="100"/>
+      <c r="D20" s="101"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -3886,11 +4789,11 @@
     </row>
     <row r="21" spans="1:21" ht="14.25" thickBot="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="105" t="s">
+      <c r="B21" s="96" t="s">
         <v>129</v>
       </c>
-      <c r="C21" s="106"/>
-      <c r="D21" s="107"/>
+      <c r="C21" s="97"/>
+      <c r="D21" s="98"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -3957,11 +4860,11 @@
       <c r="J23" s="4"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="102" t="s">
+      <c r="M23" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="N23" s="103"/>
-      <c r="O23" s="104"/>
+      <c r="N23" s="100"/>
+      <c r="O23" s="101"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
@@ -3982,11 +4885,11 @@
       <c r="J24" s="4"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-      <c r="M24" s="105" t="s">
+      <c r="M24" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="N24" s="106"/>
-      <c r="O24" s="107"/>
+      <c r="N24" s="97"/>
+      <c r="O24" s="98"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
@@ -4119,11 +5022,11 @@
       <c r="J29" s="4"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
-      <c r="M29" s="102" t="s">
+      <c r="M29" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="N29" s="103"/>
-      <c r="O29" s="104"/>
+      <c r="N29" s="100"/>
+      <c r="O29" s="101"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
@@ -4144,11 +5047,11 @@
       <c r="J30" s="4"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="105" t="s">
+      <c r="M30" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="N30" s="106"/>
-      <c r="O30" s="107"/>
+      <c r="N30" s="97"/>
+      <c r="O30" s="98"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
@@ -4304,11 +5207,11 @@
       <c r="J36" s="4"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
-      <c r="M36" s="102" t="s">
+      <c r="M36" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="N36" s="103"/>
-      <c r="O36" s="104"/>
+      <c r="N36" s="100"/>
+      <c r="O36" s="101"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
@@ -4329,11 +5232,11 @@
       <c r="J37" s="4"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
-      <c r="M37" s="105" t="s">
+      <c r="M37" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="N37" s="106"/>
-      <c r="O37" s="107"/>
+      <c r="N37" s="97"/>
+      <c r="O37" s="98"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
@@ -4512,14 +5415,14 @@
       <c r="J44" s="4"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
-      <c r="M44" s="102" t="s">
+      <c r="M44" s="99" t="s">
         <v>16</v>
       </c>
-      <c r="N44" s="103"/>
-      <c r="O44" s="103"/>
-      <c r="P44" s="103"/>
-      <c r="Q44" s="103"/>
-      <c r="R44" s="104"/>
+      <c r="N44" s="100"/>
+      <c r="O44" s="100"/>
+      <c r="P44" s="100"/>
+      <c r="Q44" s="100"/>
+      <c r="R44" s="101"/>
       <c r="S44" s="2"/>
       <c r="T44" s="3"/>
       <c r="U44" s="3"/>
@@ -4537,14 +5440,14 @@
       <c r="J45" s="4"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
-      <c r="M45" s="105" t="s">
-        <v>323</v>
-      </c>
-      <c r="N45" s="106"/>
-      <c r="O45" s="106"/>
-      <c r="P45" s="106"/>
-      <c r="Q45" s="106"/>
-      <c r="R45" s="107"/>
+      <c r="M45" s="96" t="s">
+        <v>280</v>
+      </c>
+      <c r="N45" s="97"/>
+      <c r="O45" s="97"/>
+      <c r="P45" s="97"/>
+      <c r="Q45" s="97"/>
+      <c r="R45" s="98"/>
       <c r="S45" s="2"/>
       <c r="T45" s="3"/>
       <c r="U45" s="3"/>
@@ -4571,11 +5474,11 @@
       <c r="O46" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="P46" s="108" t="s">
+      <c r="P46" s="102" t="s">
         <v>130</v>
       </c>
-      <c r="Q46" s="108"/>
-      <c r="R46" s="109"/>
+      <c r="Q46" s="102"/>
+      <c r="R46" s="103"/>
       <c r="S46" s="2"/>
       <c r="T46" s="3"/>
       <c r="U46" s="3"/>
@@ -4602,22 +5505,22 @@
       <c r="O47" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="P47" s="108" t="s">
+      <c r="P47" s="102" t="s">
         <v>149</v>
       </c>
-      <c r="Q47" s="108"/>
-      <c r="R47" s="109"/>
+      <c r="Q47" s="102"/>
+      <c r="R47" s="103"/>
       <c r="S47" s="2"/>
       <c r="T47" s="3"/>
       <c r="U47" s="3"/>
     </row>
     <row r="48" spans="1:21">
       <c r="A48" s="1"/>
-      <c r="B48" s="102" t="s">
+      <c r="B48" s="99" t="s">
         <v>114</v>
       </c>
-      <c r="C48" s="103"/>
-      <c r="D48" s="104"/>
+      <c r="C48" s="100"/>
+      <c r="D48" s="101"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -4635,22 +5538,22 @@
       <c r="O48" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P48" s="108" t="s">
+      <c r="P48" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="Q48" s="108"/>
-      <c r="R48" s="109"/>
+      <c r="Q48" s="102"/>
+      <c r="R48" s="103"/>
       <c r="S48" s="2"/>
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
     </row>
     <row r="49" spans="1:21">
       <c r="A49" s="1"/>
-      <c r="B49" s="105" t="s">
+      <c r="B49" s="96" t="s">
         <v>112</v>
       </c>
-      <c r="C49" s="106"/>
-      <c r="D49" s="107"/>
+      <c r="C49" s="97"/>
+      <c r="D49" s="98"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -4707,11 +5610,11 @@
       <c r="O50" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P50" s="108" t="s">
+      <c r="P50" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="Q50" s="108"/>
-      <c r="R50" s="109"/>
+      <c r="Q50" s="102"/>
+      <c r="R50" s="103"/>
       <c r="S50" s="2"/>
       <c r="T50" s="3"/>
       <c r="U50" s="3"/>
@@ -4738,11 +5641,11 @@
       <c r="O51" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="P51" s="108" t="s">
+      <c r="P51" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="Q51" s="108"/>
-      <c r="R51" s="109"/>
+      <c r="Q51" s="102"/>
+      <c r="R51" s="103"/>
       <c r="S51" s="2"/>
       <c r="T51" s="3"/>
       <c r="U51" s="3"/>
@@ -4800,11 +5703,11 @@
       <c r="O53" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="P53" s="108" t="s">
+      <c r="P53" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="Q53" s="108"/>
-      <c r="R53" s="109"/>
+      <c r="Q53" s="102"/>
+      <c r="R53" s="103"/>
       <c r="S53" s="2"/>
       <c r="T53" s="3"/>
       <c r="U53" s="3"/>
@@ -4969,13 +5872,13 @@
       <c r="J59" s="4"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
-      <c r="M59" s="102" t="s">
+      <c r="M59" s="99" t="s">
         <v>136</v>
       </c>
-      <c r="N59" s="103"/>
-      <c r="O59" s="103"/>
-      <c r="P59" s="103"/>
-      <c r="Q59" s="104"/>
+      <c r="N59" s="100"/>
+      <c r="O59" s="100"/>
+      <c r="P59" s="100"/>
+      <c r="Q59" s="101"/>
       <c r="R59" s="1"/>
       <c r="S59" s="2"/>
       <c r="T59" s="3"/>
@@ -5003,10 +5906,10 @@
       <c r="O60" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="P60" s="100" t="s">
+      <c r="P60" s="94" t="s">
         <v>137</v>
       </c>
-      <c r="Q60" s="101"/>
+      <c r="Q60" s="95"/>
       <c r="R60" s="1"/>
       <c r="S60" s="2"/>
       <c r="T60" s="3"/>
@@ -5034,10 +5937,10 @@
       <c r="O61" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="P61" s="100" t="s">
+      <c r="P61" s="94" t="s">
         <v>140</v>
       </c>
-      <c r="Q61" s="101"/>
+      <c r="Q61" s="95"/>
       <c r="R61" s="1"/>
       <c r="S61" s="2"/>
       <c r="T61" s="3"/>
@@ -5065,10 +5968,10 @@
       <c r="O62" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="P62" s="100" t="s">
+      <c r="P62" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="Q62" s="101"/>
+      <c r="Q62" s="95"/>
       <c r="R62" s="1"/>
       <c r="S62" s="2"/>
       <c r="T62" s="3"/>
@@ -5096,10 +5999,10 @@
       <c r="O63" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P63" s="98" t="s">
+      <c r="P63" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="Q63" s="99"/>
+      <c r="Q63" s="105"/>
       <c r="R63" s="1"/>
       <c r="S63" s="2"/>
       <c r="T63" s="3"/>
@@ -5127,10 +6030,10 @@
       <c r="O64" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P64" s="100" t="s">
+      <c r="P64" s="94" t="s">
         <v>161</v>
       </c>
-      <c r="Q64" s="101"/>
+      <c r="Q64" s="95"/>
       <c r="R64" s="1"/>
       <c r="S64" s="2"/>
       <c r="T64" s="3"/>
@@ -5158,10 +6061,10 @@
       <c r="O65" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="P65" s="100" t="s">
+      <c r="P65" s="94" t="s">
         <v>60</v>
       </c>
-      <c r="Q65" s="101"/>
+      <c r="Q65" s="95"/>
       <c r="R65" s="1"/>
       <c r="S65" s="2"/>
       <c r="T65" s="3"/>
@@ -5189,10 +6092,10 @@
       <c r="O66" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P66" s="100" t="s">
+      <c r="P66" s="94" t="s">
         <v>218</v>
       </c>
-      <c r="Q66" s="101"/>
+      <c r="Q66" s="95"/>
       <c r="R66" s="1"/>
       <c r="S66" s="2"/>
       <c r="T66" s="3"/>
@@ -5220,10 +6123,10 @@
       <c r="O67" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P67" s="100" t="s">
+      <c r="P67" s="94" t="s">
         <v>217</v>
       </c>
-      <c r="Q67" s="101"/>
+      <c r="Q67" s="95"/>
       <c r="R67" s="1"/>
       <c r="S67" s="1"/>
       <c r="T67" s="3"/>
@@ -5265,13 +6168,13 @@
       <c r="J69" s="4"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
-      <c r="M69" s="102" t="s">
+      <c r="M69" s="99" t="s">
         <v>176</v>
       </c>
-      <c r="N69" s="103"/>
-      <c r="O69" s="103"/>
-      <c r="P69" s="103"/>
-      <c r="Q69" s="104"/>
+      <c r="N69" s="100"/>
+      <c r="O69" s="100"/>
+      <c r="P69" s="100"/>
+      <c r="Q69" s="101"/>
       <c r="R69" s="1"/>
       <c r="S69" s="1"/>
       <c r="T69" s="3"/>
@@ -5290,13 +6193,13 @@
       <c r="J70" s="4"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
-      <c r="M70" s="102" t="s">
+      <c r="M70" s="99" t="s">
         <v>177</v>
       </c>
-      <c r="N70" s="103"/>
-      <c r="O70" s="103"/>
-      <c r="P70" s="103"/>
-      <c r="Q70" s="104"/>
+      <c r="N70" s="100"/>
+      <c r="O70" s="100"/>
+      <c r="P70" s="100"/>
+      <c r="Q70" s="101"/>
       <c r="R70" s="1"/>
       <c r="S70" s="1"/>
       <c r="T70" s="3"/>
@@ -5324,10 +6227,10 @@
       <c r="O71" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="P71" s="98" t="s">
+      <c r="P71" s="104" t="s">
         <v>201</v>
       </c>
-      <c r="Q71" s="99"/>
+      <c r="Q71" s="105"/>
       <c r="R71" s="1"/>
       <c r="S71" s="1"/>
       <c r="T71" s="3"/>
@@ -5355,10 +6258,10 @@
       <c r="O72" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="P72" s="98" t="s">
+      <c r="P72" s="104" t="s">
         <v>193</v>
       </c>
-      <c r="Q72" s="99"/>
+      <c r="Q72" s="105"/>
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
       <c r="T72" s="3"/>
@@ -5386,10 +6289,10 @@
       <c r="O73" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="P73" s="98" t="s">
+      <c r="P73" s="104" t="s">
         <v>190</v>
       </c>
-      <c r="Q73" s="99"/>
+      <c r="Q73" s="105"/>
       <c r="R73" s="1"/>
       <c r="S73" s="1"/>
       <c r="T73" s="3"/>
@@ -5438,7 +6341,7 @@
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
       <c r="M75" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N75" s="6" t="s">
         <v>0</v>
@@ -5446,10 +6349,10 @@
       <c r="O75" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P75" s="100" t="s">
+      <c r="P75" s="94" t="s">
         <v>219</v>
       </c>
-      <c r="Q75" s="101"/>
+      <c r="Q75" s="95"/>
       <c r="R75" s="1"/>
       <c r="S75" s="1"/>
       <c r="T75" s="3"/>
@@ -5477,10 +6380,10 @@
       <c r="O76" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P76" s="100" t="s">
+      <c r="P76" s="94" t="s">
         <v>220</v>
       </c>
-      <c r="Q76" s="101"/>
+      <c r="Q76" s="95"/>
       <c r="R76" s="1"/>
       <c r="S76" s="1"/>
       <c r="T76" s="3"/>
@@ -5522,11 +6425,11 @@
       <c r="J78" s="4"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
-      <c r="M78" s="105" t="s">
+      <c r="M78" s="96" t="s">
         <v>191</v>
       </c>
-      <c r="N78" s="106"/>
-      <c r="O78" s="107"/>
+      <c r="N78" s="97"/>
+      <c r="O78" s="98"/>
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
       <c r="R78" s="1"/>
@@ -5628,11 +6531,11 @@
       <c r="J82" s="4"/>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
-      <c r="M82" s="105" t="s">
+      <c r="M82" s="96" t="s">
         <v>183</v>
       </c>
-      <c r="N82" s="106"/>
-      <c r="O82" s="107"/>
+      <c r="N82" s="97"/>
+      <c r="O82" s="98"/>
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
       <c r="R82" s="1"/>
@@ -5769,14 +6672,14 @@
       <c r="J87" s="4"/>
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
-      <c r="M87" s="57" t="s">
-        <v>221</v>
+      <c r="M87" s="5" t="s">
+        <v>211</v>
       </c>
       <c r="N87" s="50" t="s">
         <v>214</v>
       </c>
       <c r="O87" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P87" s="1"/>
       <c r="Q87" s="1"/>
@@ -5798,7 +6701,7 @@
       <c r="J88" s="4"/>
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
-      <c r="M88" s="7" t="s">
+      <c r="M88" s="5" t="s">
         <v>205</v>
       </c>
       <c r="N88" s="50" t="s">
@@ -5885,7 +6788,7 @@
       <c r="J91" s="13"/>
       <c r="K91" s="13"/>
       <c r="L91" s="13"/>
-      <c r="M91" s="7" t="s">
+      <c r="M91" s="5" t="s">
         <v>198</v>
       </c>
       <c r="N91" s="50" t="s">
@@ -6143,6 +7046,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="M69:Q69"/>
+    <mergeCell ref="M70:Q70"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="M45:R45"/>
+    <mergeCell ref="P46:R46"/>
+    <mergeCell ref="P47:R47"/>
+    <mergeCell ref="P48:R48"/>
+    <mergeCell ref="P50:R50"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="M44:R44"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
     <mergeCell ref="P76:Q76"/>
     <mergeCell ref="M78:O78"/>
     <mergeCell ref="M82:O82"/>
@@ -6159,34 +7090,6 @@
     <mergeCell ref="M11:O11"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="M29:O29"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="M44:R44"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="M45:R45"/>
-    <mergeCell ref="P46:R46"/>
-    <mergeCell ref="P47:R47"/>
-    <mergeCell ref="P48:R48"/>
-    <mergeCell ref="P50:R50"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="M69:Q69"/>
-    <mergeCell ref="M70:Q70"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="P67:Q67"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6196,734 +7099,1133 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T66"/>
+  <dimension ref="A2:T88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.375" customWidth="1"/>
     <col min="2" max="2" width="19.625" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
     <col min="5" max="5" width="44.125" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="6" max="6" width="22.125" customWidth="1"/>
     <col min="7" max="7" width="28.875" customWidth="1"/>
     <col min="8" max="8" width="109.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
-      <c r="E1" t="s">
+    <row r="2" spans="1:10" ht="14.25" thickBot="1"/>
+    <row r="3" spans="1:10">
+      <c r="A3" s="82" t="s">
+        <v>289</v>
+      </c>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="84"/>
+      <c r="F3" s="82" t="s">
+        <v>304</v>
+      </c>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="84"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="85" t="s">
+        <v>290</v>
+      </c>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="87"/>
+      <c r="F4" s="85" t="s">
+        <v>293</v>
+      </c>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="87"/>
+    </row>
+    <row r="5" spans="1:10" ht="14.25" thickBot="1">
+      <c r="A5" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="B5" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="76" t="s">
+        <v>291</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5">
+        <v>1001</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="G5" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="76" t="s">
+        <v>291</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="14.25" thickBot="1">
+      <c r="A6" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="B6" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="76" t="s">
+        <v>314</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="G6" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="76" t="s">
+        <v>314</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="14.25" thickBot="1">
+      <c r="A7" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="B7" s="76" t="s">
+        <v>325</v>
+      </c>
+      <c r="C7" s="109" t="s">
+        <v>344</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="G7" s="76" t="s">
+        <v>305</v>
+      </c>
+      <c r="H7" s="76" t="s">
+        <v>264</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="14.25" thickBot="1">
+      <c r="F8" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="G8" s="76" t="s">
+        <v>325</v>
+      </c>
+      <c r="H8" s="109" t="s">
+        <v>344</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="14.25" thickBot="1">
+      <c r="F9" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="G9" s="78" t="s">
+        <v>335</v>
+      </c>
+      <c r="H9" s="78" t="s">
+        <v>338</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="14.25" thickBot="1">
+      <c r="F10" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="G10" s="78" t="s">
+        <v>335</v>
+      </c>
+      <c r="H10" s="78" t="s">
+        <v>341</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="14.25" thickBot="1">
+      <c r="F11" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="G11" s="78" t="s">
+        <v>335</v>
+      </c>
+      <c r="H11" s="78" t="s">
+        <v>339</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="14.25" thickBot="1">
+      <c r="F12" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="G12" s="78" t="s">
+        <v>346</v>
+      </c>
+      <c r="H12" s="110" t="s">
+        <v>364</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="14.25" thickBot="1"/>
+    <row r="16" spans="1:10">
+      <c r="A16" s="82" t="s">
+        <v>287</v>
+      </c>
+      <c r="B16" s="83"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="84"/>
+      <c r="F16" s="82" t="s">
+        <v>287</v>
+      </c>
+      <c r="G16" s="83"/>
+      <c r="H16" s="83"/>
+      <c r="I16" s="84"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="85" t="s">
+        <v>288</v>
+      </c>
+      <c r="B17" s="86"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="87"/>
+      <c r="F17" s="85" t="s">
+        <v>288</v>
+      </c>
+      <c r="G17" s="86"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="87"/>
+      <c r="J17">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="B18" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="76" t="s">
+        <v>291</v>
+      </c>
+      <c r="D18" s="76" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18">
+        <v>1002</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="G18" s="76" t="s">
+        <v>295</v>
+      </c>
+      <c r="H18" s="76" t="s">
+        <v>265</v>
+      </c>
+      <c r="I18" s="77" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="14.25" thickBot="1">
+      <c r="A19" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="B19" s="76" t="s">
+        <v>307</v>
+      </c>
+      <c r="C19" s="76" t="s">
+        <v>309</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="14.25" thickBot="1"/>
+    <row r="26" spans="1:10">
+      <c r="A26" s="82" t="s">
+        <v>294</v>
+      </c>
+      <c r="B26" s="83"/>
+      <c r="C26" s="83"/>
+      <c r="D26" s="84"/>
+      <c r="F26" s="82" t="s">
+        <v>326</v>
+      </c>
+      <c r="G26" s="83"/>
+      <c r="H26" s="83"/>
+      <c r="I26" s="84"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="85" t="s">
+        <v>296</v>
+      </c>
+      <c r="B27" s="86"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="87"/>
+      <c r="E27" s="106"/>
+      <c r="F27" s="85" t="s">
+        <v>328</v>
+      </c>
+      <c r="G27" s="86"/>
+      <c r="H27" s="86"/>
+      <c r="I27" s="87"/>
+    </row>
+    <row r="28" spans="1:10" ht="14.25" thickBot="1">
+      <c r="A28" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B28" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="76" t="s">
+        <v>285</v>
+      </c>
+      <c r="D28" s="76" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" s="106"/>
+      <c r="F28" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="G28" s="76" t="s">
+        <v>330</v>
+      </c>
+      <c r="H28" s="76" t="s">
+        <v>292</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="14.25" thickBot="1">
+      <c r="A29" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="B29" s="76" t="s">
+        <v>298</v>
+      </c>
+      <c r="C29" s="76" t="s">
+        <v>299</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="G29" s="76" t="s">
+        <v>310</v>
+      </c>
+      <c r="H29" s="76" t="s">
+        <v>292</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="14.25" thickBot="1">
+      <c r="A30" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="B30" s="76" t="s">
+        <v>301</v>
+      </c>
+      <c r="C30" s="76" t="s">
+        <v>302</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="G30" s="76" t="s">
+        <v>243</v>
+      </c>
+      <c r="H30" s="76" t="s">
+        <v>292</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="14.25" thickBot="1">
+      <c r="A31" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="B31" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="76" t="s">
+        <v>141</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="B32" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="110" t="s">
+        <v>349</v>
+      </c>
+      <c r="D32" s="76" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="14.25" thickBot="1">
+      <c r="A33" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="B33" s="76" t="s">
+        <v>327</v>
+      </c>
+      <c r="C33" s="110" t="s">
+        <v>352</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="14.25" thickBot="1"/>
+    <row r="37" spans="1:10">
+      <c r="A37" s="82" t="s">
+        <v>311</v>
+      </c>
+      <c r="B37" s="83"/>
+      <c r="C37" s="83"/>
+      <c r="D37" s="84"/>
+      <c r="F37" s="82" t="s">
+        <v>317</v>
+      </c>
+      <c r="G37" s="83"/>
+      <c r="H37" s="83"/>
+      <c r="I37" s="84"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="85" t="s">
+        <v>312</v>
+      </c>
+      <c r="B38" s="86"/>
+      <c r="C38" s="86"/>
+      <c r="D38" s="87"/>
+      <c r="E38">
+        <v>1003</v>
+      </c>
+      <c r="F38" s="85" t="s">
+        <v>318</v>
+      </c>
+      <c r="G38" s="86"/>
+      <c r="H38" s="86"/>
+      <c r="I38" s="87"/>
+    </row>
+    <row r="39" spans="1:10" ht="14.25" thickBot="1">
+      <c r="F39" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="G39" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="H39" s="76" t="s">
+        <v>319</v>
+      </c>
+      <c r="I39" s="76" t="s">
+        <v>72</v>
+      </c>
+      <c r="J39">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="82" t="s">
+        <v>315</v>
+      </c>
+      <c r="B40" s="83"/>
+      <c r="C40" s="83"/>
+      <c r="D40" s="84"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="85" t="s">
+        <v>316</v>
+      </c>
+      <c r="B41" s="86"/>
+      <c r="C41" s="86"/>
+      <c r="D41" s="87"/>
+      <c r="E41">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="14.25" thickBot="1"/>
+    <row r="43" spans="1:10">
+      <c r="A43" s="99" t="s">
+        <v>320</v>
+      </c>
+      <c r="B43" s="100"/>
+      <c r="C43" s="100"/>
+      <c r="D43" s="101"/>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="96" t="s">
+        <v>321</v>
+      </c>
+      <c r="B44" s="97"/>
+      <c r="C44" s="97"/>
+      <c r="D44" s="98"/>
+      <c r="E44">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="46" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="47" spans="1:10" ht="12.75" customHeight="1" thickBot="1"/>
+    <row r="48" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A48" s="82" t="s">
+        <v>386</v>
+      </c>
+      <c r="B48" s="83"/>
+      <c r="C48" s="83"/>
+      <c r="D48" s="84"/>
+      <c r="F48" s="82" t="s">
+        <v>368</v>
+      </c>
+      <c r="G48" s="83"/>
+      <c r="H48" s="83"/>
+      <c r="I48" s="84"/>
+    </row>
+    <row r="49" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A49" s="85" t="s">
+        <v>366</v>
+      </c>
+      <c r="B49" s="86"/>
+      <c r="C49" s="86"/>
+      <c r="D49" s="87"/>
+      <c r="F49" s="96" t="s">
+        <v>373</v>
+      </c>
+      <c r="G49" s="97"/>
+      <c r="H49" s="97"/>
+      <c r="I49" s="98"/>
+    </row>
+    <row r="50" spans="1:10" ht="12.75" customHeight="1" thickBot="1">
+      <c r="A50" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="B50" s="78" t="s">
+        <v>32</v>
+      </c>
+      <c r="C50" s="79" t="s">
+        <v>367</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50">
+        <v>2002</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="G50" s="78" t="s">
+        <v>380</v>
+      </c>
+      <c r="H50" s="108" t="s">
+        <v>385</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="14.25" thickBot="1">
+      <c r="A51" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="B51" s="78" t="s">
+        <v>374</v>
+      </c>
+      <c r="C51" s="78" t="s">
+        <v>368</v>
+      </c>
+      <c r="D51" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="G51" s="78" t="s">
+        <v>335</v>
+      </c>
+      <c r="H51" s="78" t="s">
+        <v>377</v>
+      </c>
+      <c r="I51" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="14.25" thickBot="1">
+      <c r="A52" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="B52" s="78" t="s">
+        <v>32</v>
+      </c>
+      <c r="C52" s="78" t="s">
+        <v>382</v>
+      </c>
+      <c r="D52" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="G52" s="78" t="s">
+        <v>335</v>
+      </c>
+      <c r="H52" s="78" t="s">
+        <v>379</v>
+      </c>
+      <c r="I52" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="14.25" thickBot="1">
+      <c r="F53" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="G53" s="78" t="s">
+        <v>32</v>
+      </c>
+      <c r="H53" s="78" t="s">
+        <v>382</v>
+      </c>
+      <c r="I53" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="14.25" thickBot="1">
+      <c r="F54" s="8"/>
+      <c r="G54" s="78"/>
+      <c r="H54" s="78"/>
+      <c r="I54" s="20"/>
+    </row>
+    <row r="59" spans="1:10" ht="14.25" thickBot="1"/>
+    <row r="60" spans="1:10" ht="14.25" thickBot="1">
+      <c r="A60" s="99" t="s">
+        <v>322</v>
+      </c>
+      <c r="B60" s="100"/>
+      <c r="C60" s="100"/>
+      <c r="D60" s="101"/>
+      <c r="F60" s="82" t="s">
+        <v>235</v>
+      </c>
+      <c r="G60" s="83"/>
+      <c r="H60" s="83"/>
+      <c r="I60" s="84"/>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="82" t="s">
+        <v>233</v>
+      </c>
+      <c r="B61" s="83"/>
+      <c r="C61" s="83"/>
+      <c r="D61" s="84"/>
+      <c r="E61">
+        <v>2001</v>
+      </c>
+      <c r="F61" s="85" t="s">
+        <v>236</v>
+      </c>
+      <c r="G61" s="86"/>
+      <c r="H61" s="86"/>
+      <c r="I61" s="87"/>
+      <c r="J61">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="85" t="s">
+        <v>234</v>
+      </c>
+      <c r="B62" s="86"/>
+      <c r="C62" s="86"/>
+      <c r="D62" s="87"/>
+      <c r="F62" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="G62" s="76" t="s">
+        <v>32</v>
+      </c>
+      <c r="H62" s="76" t="s">
+        <v>240</v>
+      </c>
+      <c r="I62" s="77" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="8"/>
+      <c r="B63" s="76"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="77"/>
+      <c r="F63" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="G63" s="76" t="s">
+        <v>243</v>
+      </c>
+      <c r="H63" s="76" t="s">
+        <v>244</v>
+      </c>
+      <c r="I63" s="77" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="F64" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="G64" s="76" t="s">
+        <v>32</v>
+      </c>
+      <c r="H64" s="76" t="s">
+        <v>77</v>
+      </c>
+      <c r="I64" s="77" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20">
+      <c r="F65" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="G65" s="76" t="s">
+        <v>32</v>
+      </c>
+      <c r="H65" s="76" t="s">
+        <v>259</v>
+      </c>
+      <c r="I65" s="77" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20">
+      <c r="E68" t="s">
+        <v>230</v>
+      </c>
+      <c r="F68" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20">
+      <c r="A69" s="80" t="s">
+        <v>250</v>
+      </c>
+      <c r="B69" s="81"/>
+      <c r="E69" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="F69" s="21" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="E5" s="21" t="s">
+      <c r="G69" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="H69" s="21" t="s">
         <v>229</v>
       </c>
-      <c r="F5" s="21" t="s">
+    </row>
+    <row r="70" spans="1:20" ht="40.5">
+      <c r="A70" s="22">
+        <v>0</v>
+      </c>
+      <c r="B70" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="E70" s="59"/>
+      <c r="F70" s="58">
+        <v>5</v>
+      </c>
+      <c r="G70" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="H70" s="33" t="s">
+        <v>268</v>
+      </c>
+      <c r="L70" s="65"/>
+      <c r="M70" s="66"/>
+      <c r="N70" s="66"/>
+      <c r="O70" s="62"/>
+      <c r="P70" s="66"/>
+      <c r="Q70" s="66"/>
+      <c r="R70" s="66"/>
+      <c r="S70" s="66"/>
+      <c r="T70" s="67"/>
+    </row>
+    <row r="71" spans="1:20">
+      <c r="A71" s="22">
+        <v>1</v>
+      </c>
+      <c r="B71" s="25" t="s">
         <v>232</v>
       </c>
-      <c r="G5" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="H5" s="21" t="s">
+      <c r="E71" s="59"/>
+      <c r="F71" s="58"/>
+      <c r="G71" s="32"/>
+      <c r="H71" s="33"/>
+      <c r="L71" s="65"/>
+      <c r="M71" s="66"/>
+      <c r="N71" s="66"/>
+      <c r="O71" s="62"/>
+      <c r="P71" s="66"/>
+      <c r="Q71" s="66"/>
+      <c r="R71" s="66"/>
+      <c r="S71" s="66"/>
+      <c r="T71" s="67"/>
+    </row>
+    <row r="72" spans="1:20">
+      <c r="A72" s="22">
+        <v>2</v>
+      </c>
+      <c r="B72" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="E72" s="57"/>
+      <c r="F72" s="58"/>
+      <c r="G72" s="32"/>
+      <c r="H72" s="33"/>
+      <c r="L72" s="65"/>
+      <c r="M72" s="66"/>
+      <c r="N72" s="66"/>
+      <c r="O72" s="62"/>
+      <c r="P72" s="66"/>
+      <c r="Q72" s="66"/>
+      <c r="R72" s="66"/>
+      <c r="S72" s="66"/>
+      <c r="T72" s="67"/>
+    </row>
+    <row r="73" spans="1:20" ht="27">
+      <c r="E73" s="57"/>
+      <c r="F73" s="58">
+        <v>201</v>
+      </c>
+      <c r="G73" s="32" t="s">
+        <v>247</v>
+      </c>
+      <c r="H73" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="L73" s="65"/>
+      <c r="M73" s="66"/>
+      <c r="N73" s="66"/>
+      <c r="O73" s="61"/>
+      <c r="P73" s="66"/>
+      <c r="Q73" s="61"/>
+      <c r="R73" s="66"/>
+      <c r="S73" s="66"/>
+      <c r="T73" s="67"/>
+    </row>
+    <row r="74" spans="1:20" ht="27">
+      <c r="E74" s="59" t="s">
+        <v>261</v>
+      </c>
+      <c r="F74" s="58">
+        <v>202</v>
+      </c>
+      <c r="G74" s="32" t="s">
+        <v>252</v>
+      </c>
+      <c r="H74" s="57" t="s">
+        <v>253</v>
+      </c>
+      <c r="L74" s="65"/>
+      <c r="M74" s="66"/>
+      <c r="N74" s="66"/>
+      <c r="O74" s="63"/>
+      <c r="P74" s="60">
+        <v>1</v>
+      </c>
+      <c r="Q74" s="64"/>
+      <c r="R74" s="66"/>
+      <c r="S74" s="66"/>
+      <c r="T74" s="67"/>
+    </row>
+    <row r="75" spans="1:20" ht="27">
+      <c r="E75" s="59" t="s">
+        <v>262</v>
+      </c>
+      <c r="F75" s="58">
+        <v>203</v>
+      </c>
+      <c r="G75" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="H75" s="57" t="s">
+        <v>256</v>
+      </c>
+      <c r="L75" s="65"/>
+      <c r="M75" s="66"/>
+      <c r="N75" s="66"/>
+      <c r="O75" s="66"/>
+      <c r="P75" s="66"/>
+      <c r="Q75" s="66"/>
+      <c r="R75" s="74">
+        <v>4</v>
+      </c>
+      <c r="S75" s="66"/>
+      <c r="T75" s="67"/>
+    </row>
+    <row r="76" spans="1:20" ht="27">
+      <c r="E76" s="57"/>
+      <c r="F76" s="58">
+        <v>204</v>
+      </c>
+      <c r="G76" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="H76" s="57" t="s">
+        <v>257</v>
+      </c>
+      <c r="L76" s="65"/>
+      <c r="M76" s="74">
+        <v>3</v>
+      </c>
+      <c r="N76" s="66"/>
+      <c r="O76" s="71"/>
+      <c r="P76" s="72">
+        <v>2</v>
+      </c>
+      <c r="Q76" s="72"/>
+      <c r="R76" s="73"/>
+      <c r="S76" s="66"/>
+      <c r="T76" s="67"/>
+    </row>
+    <row r="77" spans="1:20" ht="27">
+      <c r="E77" s="57"/>
+      <c r="F77" s="58">
+        <v>211</v>
+      </c>
+      <c r="G77" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="H77" s="57" t="s">
+        <v>260</v>
+      </c>
+      <c r="L77" s="68"/>
+      <c r="M77" s="69"/>
+      <c r="N77" s="69"/>
+      <c r="O77" s="69"/>
+      <c r="P77" s="69"/>
+      <c r="Q77" s="69"/>
+      <c r="R77" s="69"/>
+      <c r="S77" s="69"/>
+      <c r="T77" s="70"/>
+    </row>
+    <row r="78" spans="1:20">
+      <c r="E78" s="57"/>
+      <c r="F78" s="58">
+        <v>212</v>
+      </c>
+      <c r="G78" s="32" t="s">
+        <v>270</v>
+      </c>
+      <c r="H78" s="57" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" ht="27">
+      <c r="E79" s="59"/>
+      <c r="F79" s="58">
+        <v>213</v>
+      </c>
+      <c r="G79" s="32" t="s">
+        <v>269</v>
+      </c>
+      <c r="H79" s="57" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" ht="27">
+      <c r="E80" s="59"/>
+      <c r="F80" s="58">
+        <v>214</v>
+      </c>
+      <c r="G80" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="H80" s="57" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="81" spans="5:8">
+      <c r="E81" s="59"/>
+      <c r="F81" s="58">
+        <v>215</v>
+      </c>
+      <c r="G81" s="57" t="s">
+        <v>272</v>
+      </c>
+      <c r="H81" s="57" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="82" spans="5:8" ht="27">
+      <c r="E82" s="59" t="s">
+        <v>283</v>
+      </c>
+      <c r="F82" s="58">
+        <v>220</v>
+      </c>
+      <c r="G82" s="110" t="s">
+        <v>353</v>
+      </c>
+      <c r="H82" s="57" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="83" spans="5:8" ht="40.5">
+      <c r="E83" s="59" t="s">
+        <v>284</v>
+      </c>
+      <c r="F83" s="58">
         <v>230</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" ht="33.75" customHeight="1">
-      <c r="A6" s="93" t="s">
-        <v>258</v>
-      </c>
-      <c r="B6" s="94"/>
-      <c r="E6" s="61" t="s">
-        <v>285</v>
-      </c>
-      <c r="F6" s="60">
-        <v>1</v>
-      </c>
-      <c r="G6" s="32" t="s">
-        <v>234</v>
-      </c>
-      <c r="H6" s="33" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="28.5" customHeight="1">
-      <c r="A7" s="22">
-        <v>0</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="61"/>
-      <c r="F7" s="60">
-        <v>2</v>
-      </c>
-      <c r="G7" s="32" t="s">
-        <v>235</v>
-      </c>
-      <c r="H7" s="33" t="s">
-        <v>237</v>
-      </c>
-      <c r="L7" s="68" t="s">
-        <v>272</v>
-      </c>
-      <c r="M7" s="69"/>
-      <c r="N7" s="69"/>
-      <c r="O7" s="69"/>
-      <c r="P7" s="69"/>
-      <c r="Q7" s="69"/>
-      <c r="R7" s="69"/>
-      <c r="S7" s="69"/>
-      <c r="T7" s="70"/>
-    </row>
-    <row r="8" spans="1:20" ht="40.5">
-      <c r="A8" s="22">
-        <v>1</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>233</v>
-      </c>
-      <c r="E8" s="59"/>
-      <c r="F8" s="60">
-        <v>3</v>
-      </c>
-      <c r="G8" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="H8" s="33" t="s">
-        <v>254</v>
-      </c>
-      <c r="L8" s="71"/>
-      <c r="M8" s="72"/>
-      <c r="N8" s="72"/>
-      <c r="O8" s="77"/>
-      <c r="P8" s="78">
-        <v>2</v>
-      </c>
-      <c r="Q8" s="78"/>
-      <c r="R8" s="79"/>
-      <c r="S8" s="80">
-        <v>3</v>
-      </c>
-      <c r="T8" s="73"/>
-    </row>
-    <row r="9" spans="1:20" ht="54">
-      <c r="A9" s="22">
-        <v>2</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>256</v>
-      </c>
-      <c r="E9" s="59"/>
-      <c r="F9" s="60">
-        <v>4</v>
-      </c>
-      <c r="G9" s="32" t="s">
-        <v>236</v>
-      </c>
-      <c r="H9" s="33" t="s">
-        <v>292</v>
-      </c>
-      <c r="L9" s="71"/>
-      <c r="M9" s="72"/>
-      <c r="N9" s="72"/>
-      <c r="O9" s="80">
-        <v>4</v>
-      </c>
-      <c r="P9" s="72"/>
-      <c r="Q9" s="72"/>
-      <c r="R9" s="72"/>
-      <c r="S9" s="72"/>
-      <c r="T9" s="73"/>
-    </row>
-    <row r="10" spans="1:20" ht="40.5">
-      <c r="E10" s="61"/>
-      <c r="F10" s="60">
-        <v>5</v>
-      </c>
-      <c r="G10" s="32" t="s">
-        <v>291</v>
-      </c>
-      <c r="H10" s="33" t="s">
-        <v>293</v>
-      </c>
-      <c r="L10" s="71"/>
-      <c r="M10" s="72"/>
-      <c r="N10" s="72"/>
-      <c r="O10" s="65"/>
-      <c r="P10" s="72"/>
-      <c r="Q10" s="72"/>
-      <c r="R10" s="72"/>
-      <c r="S10" s="72"/>
-      <c r="T10" s="73"/>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="E11" s="61"/>
-      <c r="F11" s="60">
-        <v>6</v>
-      </c>
-      <c r="G11" s="32" t="s">
-        <v>287</v>
-      </c>
-      <c r="H11" s="33" t="s">
-        <v>290</v>
-      </c>
-      <c r="L11" s="71"/>
-      <c r="M11" s="72"/>
-      <c r="N11" s="72"/>
-      <c r="O11" s="65"/>
-      <c r="P11" s="72"/>
-      <c r="Q11" s="72"/>
-      <c r="R11" s="72"/>
-      <c r="S11" s="72"/>
-      <c r="T11" s="73"/>
-    </row>
-    <row r="12" spans="1:20" ht="27">
-      <c r="E12" s="59"/>
-      <c r="F12" s="60">
-        <v>7</v>
-      </c>
-      <c r="G12" s="32" t="s">
-        <v>289</v>
-      </c>
-      <c r="H12" s="33" t="s">
-        <v>288</v>
-      </c>
-      <c r="L12" s="71"/>
-      <c r="M12" s="72"/>
-      <c r="N12" s="72"/>
-      <c r="O12" s="65"/>
-      <c r="P12" s="72"/>
-      <c r="Q12" s="72"/>
-      <c r="R12" s="72"/>
-      <c r="S12" s="72"/>
-      <c r="T12" s="73"/>
-    </row>
-    <row r="13" spans="1:20" ht="27">
-      <c r="E13" s="61"/>
-      <c r="F13" s="60">
-        <v>10</v>
-      </c>
-      <c r="G13" s="32" t="s">
-        <v>252</v>
-      </c>
-      <c r="H13" s="33" t="s">
-        <v>257</v>
-      </c>
-      <c r="L13" s="71"/>
-      <c r="M13" s="72"/>
-      <c r="N13" s="72"/>
-      <c r="O13" s="65"/>
-      <c r="P13" s="62"/>
-      <c r="Q13" s="64"/>
-      <c r="R13" s="72"/>
-      <c r="S13" s="72"/>
-      <c r="T13" s="73"/>
-    </row>
-    <row r="14" spans="1:20" ht="27">
-      <c r="E14" s="59"/>
-      <c r="F14" s="60">
-        <v>201</v>
-      </c>
-      <c r="G14" s="32" t="s">
-        <v>253</v>
-      </c>
-      <c r="H14" s="33" t="s">
-        <v>259</v>
-      </c>
-      <c r="L14" s="71"/>
-      <c r="M14" s="72"/>
-      <c r="N14" s="72"/>
-      <c r="O14" s="63"/>
-      <c r="P14" s="72"/>
-      <c r="Q14" s="63"/>
-      <c r="R14" s="72"/>
-      <c r="S14" s="72"/>
-      <c r="T14" s="73"/>
-    </row>
-    <row r="15" spans="1:20" ht="27">
-      <c r="E15" s="61" t="s">
-        <v>270</v>
-      </c>
-      <c r="F15" s="60">
-        <v>202</v>
-      </c>
-      <c r="G15" s="32" t="s">
-        <v>260</v>
-      </c>
-      <c r="H15" s="59" t="s">
-        <v>261</v>
-      </c>
-      <c r="L15" s="71"/>
-      <c r="M15" s="72"/>
-      <c r="N15" s="72"/>
-      <c r="O15" s="66"/>
-      <c r="P15" s="62">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="67"/>
-      <c r="R15" s="72"/>
-      <c r="S15" s="72"/>
-      <c r="T15" s="73"/>
-    </row>
-    <row r="16" spans="1:20" ht="27">
-      <c r="E16" s="61" t="s">
-        <v>271</v>
-      </c>
-      <c r="F16" s="60">
-        <v>203</v>
-      </c>
-      <c r="G16" s="32" t="s">
-        <v>262</v>
-      </c>
-      <c r="H16" s="59" t="s">
-        <v>264</v>
-      </c>
-      <c r="L16" s="71"/>
-      <c r="M16" s="72"/>
-      <c r="N16" s="72"/>
-      <c r="O16" s="72"/>
-      <c r="P16" s="72"/>
-      <c r="Q16" s="72"/>
-      <c r="R16" s="80">
-        <v>4</v>
-      </c>
-      <c r="S16" s="72"/>
-      <c r="T16" s="73"/>
-    </row>
-    <row r="17" spans="5:20" ht="27">
-      <c r="E17" s="59"/>
-      <c r="F17" s="60">
-        <v>204</v>
-      </c>
-      <c r="G17" s="32" t="s">
-        <v>263</v>
-      </c>
-      <c r="H17" s="59" t="s">
-        <v>265</v>
-      </c>
-      <c r="L17" s="71"/>
-      <c r="M17" s="80">
-        <v>3</v>
-      </c>
-      <c r="N17" s="72"/>
-      <c r="O17" s="77"/>
-      <c r="P17" s="78">
-        <v>2</v>
-      </c>
-      <c r="Q17" s="78"/>
-      <c r="R17" s="79"/>
-      <c r="S17" s="72"/>
-      <c r="T17" s="73"/>
-    </row>
-    <row r="18" spans="5:20" ht="27">
-      <c r="E18" s="59"/>
-      <c r="F18" s="60">
-        <v>211</v>
-      </c>
-      <c r="G18" s="32" t="s">
-        <v>266</v>
-      </c>
-      <c r="H18" s="59" t="s">
-        <v>269</v>
-      </c>
-      <c r="L18" s="74"/>
-      <c r="M18" s="75"/>
-      <c r="N18" s="75"/>
-      <c r="O18" s="75"/>
-      <c r="P18" s="75"/>
-      <c r="Q18" s="75"/>
-      <c r="R18" s="75"/>
-      <c r="S18" s="75"/>
-      <c r="T18" s="76"/>
-    </row>
-    <row r="19" spans="5:20">
-      <c r="E19" s="59"/>
-      <c r="F19" s="60">
-        <v>212</v>
-      </c>
-      <c r="G19" s="32" t="s">
-        <v>309</v>
-      </c>
-      <c r="H19" s="59" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="20" spans="5:20" ht="27">
-      <c r="E20" s="61"/>
-      <c r="F20" s="60">
-        <v>213</v>
-      </c>
-      <c r="G20" s="32" t="s">
-        <v>308</v>
-      </c>
-      <c r="H20" s="59" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="21" spans="5:20" ht="27">
-      <c r="E21" s="61"/>
-      <c r="F21" s="60">
-        <v>214</v>
-      </c>
-      <c r="G21" s="32" t="s">
-        <v>310</v>
-      </c>
-      <c r="H21" s="59" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="22" spans="5:20" ht="27">
-      <c r="E22" s="61" t="s">
-        <v>326</v>
-      </c>
-      <c r="F22" s="60">
-        <v>215</v>
-      </c>
-      <c r="G22" s="32" t="s">
-        <v>311</v>
-      </c>
-      <c r="H22" s="59" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="23" spans="5:20" ht="40.5">
-      <c r="E23" s="61" t="s">
-        <v>324</v>
-      </c>
-      <c r="F23" s="60">
-        <v>216</v>
-      </c>
-      <c r="G23" s="32" t="s">
-        <v>312</v>
-      </c>
-      <c r="H23" s="59" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="24" spans="5:20" ht="40.5">
-      <c r="E24" s="61"/>
-      <c r="F24" s="60">
-        <v>217</v>
-      </c>
-      <c r="G24" s="32" t="s">
-        <v>313</v>
-      </c>
-      <c r="H24" s="59" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="25" spans="5:20">
-      <c r="E25" s="61"/>
-      <c r="F25" s="60">
-        <v>218</v>
-      </c>
-      <c r="G25" s="59" t="s">
-        <v>314</v>
-      </c>
-      <c r="H25" s="59" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="26" spans="5:20" ht="40.5">
-      <c r="E26" s="61" t="s">
-        <v>327</v>
-      </c>
-      <c r="F26" s="60">
-        <v>219</v>
-      </c>
-      <c r="G26" s="59" t="s">
-        <v>315</v>
-      </c>
-      <c r="H26" s="59" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="27" spans="5:20">
-      <c r="E27" s="59"/>
-      <c r="F27" s="60">
-        <v>220</v>
-      </c>
-      <c r="G27" s="32"/>
-      <c r="H27" s="59"/>
-    </row>
-    <row r="28" spans="5:20">
-      <c r="E28" s="59"/>
-      <c r="F28" s="60">
-        <v>220</v>
-      </c>
-      <c r="G28" s="32"/>
-      <c r="H28" s="59"/>
-    </row>
-    <row r="29" spans="5:20">
-      <c r="E29" s="59"/>
-      <c r="F29" s="60">
-        <v>220</v>
-      </c>
-      <c r="G29" s="32"/>
-      <c r="H29" s="59"/>
-    </row>
-    <row r="35" spans="1:6" ht="14.25" thickBot="1"/>
-    <row r="36" spans="1:6">
-      <c r="A36" s="102" t="s">
-        <v>273</v>
-      </c>
-      <c r="B36" s="103"/>
-      <c r="C36" s="103"/>
-      <c r="D36" s="103"/>
-      <c r="E36" s="103"/>
-      <c r="F36" s="104"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="105" t="s">
+      <c r="G83" s="110" t="s">
+        <v>358</v>
+      </c>
+      <c r="H83" s="57" t="s">
         <v>279</v>
       </c>
-      <c r="B37" s="106"/>
-      <c r="C37" s="106"/>
-      <c r="D37" s="106"/>
-      <c r="E37" s="106"/>
-      <c r="F37" s="107"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="B38" s="58" t="s">
-        <v>32</v>
-      </c>
-      <c r="C38" s="58" t="s">
-        <v>72</v>
-      </c>
-      <c r="D38" s="108" t="s">
-        <v>275</v>
-      </c>
-      <c r="E38" s="108"/>
-      <c r="F38" s="109"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="8" t="s">
+    </row>
+    <row r="84" spans="5:8" ht="40.5">
+      <c r="E84" s="59" t="s">
+        <v>281</v>
+      </c>
+      <c r="F84" s="58">
+        <v>240</v>
+      </c>
+      <c r="G84" s="110" t="s">
+        <v>359</v>
+      </c>
+      <c r="H84" s="57" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="85" spans="5:8" ht="40.5">
+      <c r="E85" s="59"/>
+      <c r="F85" s="58">
+        <v>250</v>
+      </c>
+      <c r="G85" s="110" t="s">
+        <v>357</v>
+      </c>
+      <c r="H85" s="57" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="86" spans="5:8">
+      <c r="E86" s="57"/>
+      <c r="F86" s="58">
         <v>280</v>
       </c>
-      <c r="B39" s="81" t="s">
-        <v>295</v>
-      </c>
-      <c r="C39" s="81" t="s">
-        <v>71</v>
-      </c>
-      <c r="D39" s="110" t="s">
-        <v>281</v>
-      </c>
-      <c r="E39" s="111"/>
-      <c r="F39" s="112"/>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="8"/>
-      <c r="B40" s="58"/>
-      <c r="C40" s="58"/>
-      <c r="D40" s="108"/>
-      <c r="E40" s="108"/>
-      <c r="F40" s="109"/>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="8"/>
-      <c r="B41" s="81"/>
-      <c r="C41" s="81"/>
-      <c r="D41" s="108"/>
-      <c r="E41" s="108"/>
-      <c r="F41" s="109"/>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="8"/>
-      <c r="B42" s="81"/>
-      <c r="C42" s="58"/>
-      <c r="D42" s="108"/>
-      <c r="E42" s="108"/>
-      <c r="F42" s="109"/>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="81"/>
-      <c r="B43" s="81"/>
-      <c r="C43" s="81"/>
-      <c r="D43" s="108"/>
-      <c r="E43" s="108"/>
-      <c r="F43" s="109"/>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="81"/>
-      <c r="B44" s="81"/>
-      <c r="C44" s="81"/>
-      <c r="D44" s="108"/>
-      <c r="E44" s="108"/>
-      <c r="F44" s="109"/>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="81"/>
-      <c r="B45" s="81"/>
-      <c r="C45" s="81"/>
-      <c r="D45" s="108"/>
-      <c r="E45" s="108"/>
-      <c r="F45" s="109"/>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="105" t="s">
-        <v>278</v>
-      </c>
-      <c r="B51" s="106"/>
-      <c r="C51" s="106"/>
-      <c r="D51" s="106"/>
-      <c r="E51" s="106"/>
-      <c r="F51" s="107"/>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="B52" s="81" t="s">
-        <v>276</v>
-      </c>
-      <c r="C52" s="81" t="s">
-        <v>13</v>
-      </c>
-      <c r="D52" s="108" t="s">
-        <v>284</v>
-      </c>
-      <c r="E52" s="108"/>
-      <c r="F52" s="109"/>
-    </row>
-    <row r="53" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A53" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="B53" s="81" t="s">
-        <v>306</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D53" s="108" t="s">
-        <v>307</v>
-      </c>
-      <c r="E53" s="108"/>
-      <c r="F53" s="109"/>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="8"/>
-      <c r="B54" s="81"/>
-      <c r="C54" s="81"/>
-      <c r="D54" s="108"/>
-      <c r="E54" s="108"/>
-      <c r="F54" s="109"/>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="95" t="s">
-        <v>296</v>
-      </c>
-      <c r="B57" s="96"/>
-      <c r="C57" s="96"/>
-      <c r="D57" s="97"/>
-    </row>
-    <row r="58" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A58" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="D58" s="82" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A59" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A60" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="95" t="s">
-        <v>299</v>
-      </c>
-      <c r="B64" s="96"/>
-      <c r="C64" s="96"/>
-      <c r="D64" s="97"/>
-    </row>
-    <row r="65" spans="1:4" ht="14.25" thickBot="1">
-      <c r="A65" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D65" s="82" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="14.25" thickBot="1">
-      <c r="A66" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>71</v>
-      </c>
+      <c r="G86" s="32"/>
+      <c r="H86" s="57"/>
+    </row>
+    <row r="87" spans="5:8">
+      <c r="E87" s="57"/>
+      <c r="F87" s="58"/>
+      <c r="G87" s="32"/>
+      <c r="H87" s="57"/>
+    </row>
+    <row r="88" spans="5:8">
+      <c r="E88" s="57"/>
+      <c r="F88" s="58"/>
+      <c r="G88" s="32"/>
+      <c r="H88" s="57"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="D54:F54"/>
+  <mergeCells count="30">
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="F49:I49"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A60:D60"/>
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="F60:I60"/>
+    <mergeCell ref="F61:I61"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C7" location="参数说明!A1" display="选项附加值1"/>
+    <hyperlink ref="H8" location="参数说明!A1" display="选项附加值1"/>
+    <hyperlink ref="G85" location="参数说明!A1" display="胡牌8"/>
+    <hyperlink ref="C32" location="参数说明!A1" display="状态位3"/>
+    <hyperlink ref="C33" location="参数说明!A1" display="额外值4"/>
+    <hyperlink ref="G82" location="参数说明!A1" display="吃牌5"/>
+    <hyperlink ref="G83" location="参数说明!A1" display="杠6"/>
+    <hyperlink ref="G84" location="参数说明!A1" display="听牌7"/>
+    <hyperlink ref="H12" location="参数说明!A1" display="游戏数据附加值2"/>
+    <hyperlink ref="H50" location="参数说明!A1" display="得分详情10"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -6932,14 +8234,97 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.375" style="106" customWidth="1"/>
+    <col min="2" max="2" width="77.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="40.5">
+      <c r="A1" s="106" t="s">
+        <v>342</v>
+      </c>
+      <c r="B1" s="107" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="106" t="s">
+        <v>347</v>
+      </c>
+      <c r="B2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="40.5">
+      <c r="A3" s="106" t="s">
+        <v>348</v>
+      </c>
+      <c r="B3" s="107" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="81">
+      <c r="A4" s="106" t="s">
+        <v>351</v>
+      </c>
+      <c r="B4" s="107" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="54">
+      <c r="A5" s="106" t="s">
+        <v>353</v>
+      </c>
+      <c r="B5" s="107" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="67.5">
+      <c r="A6" s="106" t="s">
+        <v>354</v>
+      </c>
+      <c r="B6" s="107" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="27">
+      <c r="A7" s="106" t="s">
+        <v>355</v>
+      </c>
+      <c r="B7" s="107" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="67.5">
+      <c r="A8" s="106" t="s">
+        <v>356</v>
+      </c>
+      <c r="B8" s="107" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="27">
+      <c r="A9" s="106" t="s">
+        <v>371</v>
+      </c>
+      <c r="B9" s="107" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="40.5">
+      <c r="A10" s="106" t="s">
+        <v>383</v>
+      </c>
+      <c r="B10" s="107" t="s">
+        <v>384</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/最新接口_拟定.xlsx
+++ b/doc/最新接口_拟定.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="首标签" sheetId="1" r:id="rId1"/>
@@ -304,7 +304,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C32" authorId="0">
+    <comment ref="C31" authorId="0">
       <text>
         <r>
           <rPr>
@@ -738,7 +738,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="387">
   <si>
     <t>int</t>
   </si>
@@ -1929,22 +1929,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bytes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>头像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>imageId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>头像Id(自定义为0)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2043,9 +2027,6 @@
   <si>
     <t>附加数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NetExtraData</t>
   </si>
   <si>
     <t>NetExtraData</t>
@@ -2115,10 +2096,6 @@
   </si>
   <si>
     <t>选项附加值1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NetExtraData</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2317,8 +2294,24 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>extra</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NetExtraData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;NetOprateData&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>list:
-0:房主id
+0:庄家id
 1.桌面剩余未使用的牌数量
 2.整副牌数量
 operates：
@@ -2931,7 +2924,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3085,14 +3078,12 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="30" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3112,12 +3103,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3127,16 +3112,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3148,17 +3145,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3457,7 +3451,7 @@
   <dimension ref="B3:P51"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3566,13 +3560,13 @@
     </row>
     <row r="11" spans="2:16" ht="14.25" customHeight="1"/>
     <row r="14" spans="2:16" ht="14.25" thickBot="1">
-      <c r="I14" s="85" t="s">
+      <c r="I14" s="97" t="s">
         <v>54</v>
       </c>
-      <c r="J14" s="86"/>
-      <c r="K14" s="86"/>
-      <c r="L14" s="86"/>
-      <c r="M14" s="87"/>
+      <c r="J14" s="98"/>
+      <c r="K14" s="98"/>
+      <c r="L14" s="98"/>
+      <c r="M14" s="99"/>
     </row>
     <row r="15" spans="2:16">
       <c r="B15" s="88" t="s">
@@ -3595,10 +3589,10 @@
         <v>34</v>
       </c>
       <c r="N15" s="3"/>
-      <c r="O15" s="94" t="s">
+      <c r="O15" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="P15" s="95"/>
+      <c r="P15" s="87"/>
     </row>
     <row r="16" spans="2:16">
       <c r="B16" s="91" t="s">
@@ -3633,7 +3627,7 @@
       <c r="C17" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D17" s="75" t="s">
+      <c r="D17" s="85" t="s">
         <v>265</v>
       </c>
       <c r="E17" s="10" t="s">
@@ -4104,12 +4098,12 @@
       <c r="P37" s="23"/>
     </row>
     <row r="38" spans="2:16">
-      <c r="B38" s="96" t="s">
+      <c r="B38" s="94" t="s">
         <v>263</v>
       </c>
-      <c r="C38" s="97"/>
-      <c r="D38" s="97"/>
-      <c r="E38" s="98"/>
+      <c r="C38" s="95"/>
+      <c r="D38" s="95"/>
+      <c r="E38" s="96"/>
       <c r="I38" s="33" t="s">
         <v>117</v>
       </c>
@@ -4191,18 +4185,18 @@
     <row r="42" spans="2:16" ht="22.5" customHeight="1"/>
     <row r="43" spans="2:16" ht="31.5" customHeight="1"/>
     <row r="44" spans="2:16">
-      <c r="H44" s="94" t="s">
+      <c r="H44" s="86" t="s">
         <v>248</v>
       </c>
-      <c r="I44" s="95"/>
-      <c r="J44" s="94" t="s">
+      <c r="I44" s="87"/>
+      <c r="J44" s="86" t="s">
         <v>116</v>
       </c>
-      <c r="K44" s="95"/>
-      <c r="L44" s="94" t="s">
+      <c r="K44" s="87"/>
+      <c r="L44" s="86" t="s">
         <v>77</v>
       </c>
-      <c r="M44" s="95"/>
+      <c r="M44" s="87"/>
     </row>
     <row r="45" spans="2:16">
       <c r="H45" s="22">
@@ -4318,6 +4312,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="I14:M14"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="I5:L5"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="J44:K44"/>
     <mergeCell ref="L44:M44"/>
@@ -4325,11 +4324,6 @@
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="H44:I44"/>
     <mergeCell ref="B38:E38"/>
-    <mergeCell ref="I14:M14"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="I5:L5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4342,7 +4336,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:U103"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
@@ -4523,11 +4517,11 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="4"/>
-      <c r="B10" s="103" t="s">
+      <c r="B10" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="104"/>
-      <c r="D10" s="105"/>
+      <c r="C10" s="106"/>
+      <c r="D10" s="107"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -4536,11 +4530,11 @@
       <c r="J10" s="4"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="103" t="s">
+      <c r="M10" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="N10" s="104"/>
-      <c r="O10" s="105"/>
+      <c r="N10" s="106"/>
+      <c r="O10" s="107"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -4550,11 +4544,11 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="4"/>
-      <c r="B11" s="106" t="s">
+      <c r="B11" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="107"/>
-      <c r="D11" s="108"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="104"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -4563,11 +4557,11 @@
       <c r="J11" s="4"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="106" t="s">
+      <c r="M11" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="N11" s="107"/>
-      <c r="O11" s="108"/>
+      <c r="N11" s="103"/>
+      <c r="O11" s="104"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -4688,11 +4682,11 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="4"/>
-      <c r="B17" s="103" t="s">
+      <c r="B17" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="104"/>
-      <c r="D17" s="105"/>
+      <c r="C17" s="106"/>
+      <c r="D17" s="107"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -4701,11 +4695,11 @@
       <c r="J17" s="4"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="103" t="s">
+      <c r="M17" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="N17" s="104"/>
-      <c r="O17" s="105"/>
+      <c r="N17" s="106"/>
+      <c r="O17" s="107"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -4714,11 +4708,11 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="4"/>
-      <c r="B18" s="106" t="s">
+      <c r="B18" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="107"/>
-      <c r="D18" s="108"/>
+      <c r="C18" s="103"/>
+      <c r="D18" s="104"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -4727,11 +4721,11 @@
       <c r="J18" s="4"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="106" t="s">
+      <c r="M18" s="102" t="s">
         <v>129</v>
       </c>
-      <c r="N18" s="107"/>
-      <c r="O18" s="108"/>
+      <c r="N18" s="103"/>
+      <c r="O18" s="104"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -4771,9 +4765,9 @@
     </row>
     <row r="20" spans="1:21" ht="41.25" thickBot="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="103"/>
-      <c r="C20" s="104"/>
-      <c r="D20" s="105"/>
+      <c r="B20" s="105"/>
+      <c r="C20" s="106"/>
+      <c r="D20" s="107"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -4802,11 +4796,11 @@
     </row>
     <row r="21" spans="1:21" ht="14.25" thickBot="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="106" t="s">
+      <c r="B21" s="102" t="s">
         <v>129</v>
       </c>
-      <c r="C21" s="107"/>
-      <c r="D21" s="108"/>
+      <c r="C21" s="103"/>
+      <c r="D21" s="104"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -4873,11 +4867,11 @@
       <c r="J23" s="4"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="103" t="s">
+      <c r="M23" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="N23" s="104"/>
-      <c r="O23" s="105"/>
+      <c r="N23" s="106"/>
+      <c r="O23" s="107"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
@@ -4898,11 +4892,11 @@
       <c r="J24" s="4"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-      <c r="M24" s="106" t="s">
+      <c r="M24" s="102" t="s">
         <v>69</v>
       </c>
-      <c r="N24" s="107"/>
-      <c r="O24" s="108"/>
+      <c r="N24" s="103"/>
+      <c r="O24" s="104"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
@@ -5035,11 +5029,11 @@
       <c r="J29" s="4"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
-      <c r="M29" s="103" t="s">
+      <c r="M29" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="N29" s="104"/>
-      <c r="O29" s="105"/>
+      <c r="N29" s="106"/>
+      <c r="O29" s="107"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
@@ -5060,11 +5054,11 @@
       <c r="J30" s="4"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="106" t="s">
+      <c r="M30" s="102" t="s">
         <v>69</v>
       </c>
-      <c r="N30" s="107"/>
-      <c r="O30" s="108"/>
+      <c r="N30" s="103"/>
+      <c r="O30" s="104"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
@@ -5220,11 +5214,11 @@
       <c r="J36" s="4"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
-      <c r="M36" s="103" t="s">
+      <c r="M36" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="N36" s="104"/>
-      <c r="O36" s="105"/>
+      <c r="N36" s="106"/>
+      <c r="O36" s="107"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
@@ -5245,11 +5239,11 @@
       <c r="J37" s="4"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
-      <c r="M37" s="106" t="s">
+      <c r="M37" s="102" t="s">
         <v>69</v>
       </c>
-      <c r="N37" s="107"/>
-      <c r="O37" s="108"/>
+      <c r="N37" s="103"/>
+      <c r="O37" s="104"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
@@ -5428,14 +5422,14 @@
       <c r="J44" s="4"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
-      <c r="M44" s="103" t="s">
+      <c r="M44" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="N44" s="104"/>
-      <c r="O44" s="104"/>
-      <c r="P44" s="104"/>
-      <c r="Q44" s="104"/>
-      <c r="R44" s="105"/>
+      <c r="N44" s="106"/>
+      <c r="O44" s="106"/>
+      <c r="P44" s="106"/>
+      <c r="Q44" s="106"/>
+      <c r="R44" s="107"/>
       <c r="S44" s="2"/>
       <c r="T44" s="3"/>
       <c r="U44" s="3"/>
@@ -5453,14 +5447,14 @@
       <c r="J45" s="4"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
-      <c r="M45" s="106" t="s">
+      <c r="M45" s="102" t="s">
         <v>279</v>
       </c>
-      <c r="N45" s="107"/>
-      <c r="O45" s="107"/>
-      <c r="P45" s="107"/>
-      <c r="Q45" s="107"/>
-      <c r="R45" s="108"/>
+      <c r="N45" s="103"/>
+      <c r="O45" s="103"/>
+      <c r="P45" s="103"/>
+      <c r="Q45" s="103"/>
+      <c r="R45" s="104"/>
       <c r="S45" s="2"/>
       <c r="T45" s="3"/>
       <c r="U45" s="3"/>
@@ -5487,11 +5481,11 @@
       <c r="O46" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="P46" s="109" t="s">
+      <c r="P46" s="108" t="s">
         <v>130</v>
       </c>
-      <c r="Q46" s="109"/>
-      <c r="R46" s="110"/>
+      <c r="Q46" s="108"/>
+      <c r="R46" s="109"/>
       <c r="S46" s="2"/>
       <c r="T46" s="3"/>
       <c r="U46" s="3"/>
@@ -5518,22 +5512,22 @@
       <c r="O47" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="P47" s="109" t="s">
+      <c r="P47" s="108" t="s">
         <v>149</v>
       </c>
-      <c r="Q47" s="109"/>
-      <c r="R47" s="110"/>
+      <c r="Q47" s="108"/>
+      <c r="R47" s="109"/>
       <c r="S47" s="2"/>
       <c r="T47" s="3"/>
       <c r="U47" s="3"/>
     </row>
     <row r="48" spans="1:21">
       <c r="A48" s="1"/>
-      <c r="B48" s="103" t="s">
+      <c r="B48" s="105" t="s">
         <v>114</v>
       </c>
-      <c r="C48" s="104"/>
-      <c r="D48" s="105"/>
+      <c r="C48" s="106"/>
+      <c r="D48" s="107"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -5551,22 +5545,22 @@
       <c r="O48" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P48" s="109" t="s">
+      <c r="P48" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="Q48" s="109"/>
-      <c r="R48" s="110"/>
+      <c r="Q48" s="108"/>
+      <c r="R48" s="109"/>
       <c r="S48" s="2"/>
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
     </row>
     <row r="49" spans="1:21">
       <c r="A49" s="1"/>
-      <c r="B49" s="106" t="s">
+      <c r="B49" s="102" t="s">
         <v>112</v>
       </c>
-      <c r="C49" s="107"/>
-      <c r="D49" s="108"/>
+      <c r="C49" s="103"/>
+      <c r="D49" s="104"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -5623,11 +5617,11 @@
       <c r="O50" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P50" s="109" t="s">
+      <c r="P50" s="108" t="s">
         <v>18</v>
       </c>
-      <c r="Q50" s="109"/>
-      <c r="R50" s="110"/>
+      <c r="Q50" s="108"/>
+      <c r="R50" s="109"/>
       <c r="S50" s="2"/>
       <c r="T50" s="3"/>
       <c r="U50" s="3"/>
@@ -5654,11 +5648,11 @@
       <c r="O51" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="P51" s="109" t="s">
+      <c r="P51" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="Q51" s="109"/>
-      <c r="R51" s="110"/>
+      <c r="Q51" s="108"/>
+      <c r="R51" s="109"/>
       <c r="S51" s="2"/>
       <c r="T51" s="3"/>
       <c r="U51" s="3"/>
@@ -5716,11 +5710,11 @@
       <c r="O53" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="P53" s="109" t="s">
+      <c r="P53" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="Q53" s="109"/>
-      <c r="R53" s="110"/>
+      <c r="Q53" s="108"/>
+      <c r="R53" s="109"/>
       <c r="S53" s="2"/>
       <c r="T53" s="3"/>
       <c r="U53" s="3"/>
@@ -5885,13 +5879,13 @@
       <c r="J59" s="4"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
-      <c r="M59" s="103" t="s">
+      <c r="M59" s="105" t="s">
         <v>136</v>
       </c>
-      <c r="N59" s="104"/>
-      <c r="O59" s="104"/>
-      <c r="P59" s="104"/>
-      <c r="Q59" s="105"/>
+      <c r="N59" s="106"/>
+      <c r="O59" s="106"/>
+      <c r="P59" s="106"/>
+      <c r="Q59" s="107"/>
       <c r="R59" s="1"/>
       <c r="S59" s="2"/>
       <c r="T59" s="3"/>
@@ -5919,10 +5913,10 @@
       <c r="O60" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="P60" s="101" t="s">
+      <c r="P60" s="100" t="s">
         <v>137</v>
       </c>
-      <c r="Q60" s="102"/>
+      <c r="Q60" s="101"/>
       <c r="R60" s="1"/>
       <c r="S60" s="2"/>
       <c r="T60" s="3"/>
@@ -5950,10 +5944,10 @@
       <c r="O61" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="P61" s="101" t="s">
+      <c r="P61" s="100" t="s">
         <v>140</v>
       </c>
-      <c r="Q61" s="102"/>
+      <c r="Q61" s="101"/>
       <c r="R61" s="1"/>
       <c r="S61" s="2"/>
       <c r="T61" s="3"/>
@@ -5981,10 +5975,10 @@
       <c r="O62" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="P62" s="101" t="s">
+      <c r="P62" s="100" t="s">
         <v>22</v>
       </c>
-      <c r="Q62" s="102"/>
+      <c r="Q62" s="101"/>
       <c r="R62" s="1"/>
       <c r="S62" s="2"/>
       <c r="T62" s="3"/>
@@ -6012,10 +6006,10 @@
       <c r="O63" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P63" s="99" t="s">
+      <c r="P63" s="110" t="s">
         <v>23</v>
       </c>
-      <c r="Q63" s="100"/>
+      <c r="Q63" s="111"/>
       <c r="R63" s="1"/>
       <c r="S63" s="2"/>
       <c r="T63" s="3"/>
@@ -6043,10 +6037,10 @@
       <c r="O64" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P64" s="101" t="s">
+      <c r="P64" s="100" t="s">
         <v>161</v>
       </c>
-      <c r="Q64" s="102"/>
+      <c r="Q64" s="101"/>
       <c r="R64" s="1"/>
       <c r="S64" s="2"/>
       <c r="T64" s="3"/>
@@ -6074,10 +6068,10 @@
       <c r="O65" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="P65" s="101" t="s">
+      <c r="P65" s="100" t="s">
         <v>60</v>
       </c>
-      <c r="Q65" s="102"/>
+      <c r="Q65" s="101"/>
       <c r="R65" s="1"/>
       <c r="S65" s="2"/>
       <c r="T65" s="3"/>
@@ -6105,10 +6099,10 @@
       <c r="O66" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P66" s="101" t="s">
+      <c r="P66" s="100" t="s">
         <v>218</v>
       </c>
-      <c r="Q66" s="102"/>
+      <c r="Q66" s="101"/>
       <c r="R66" s="1"/>
       <c r="S66" s="2"/>
       <c r="T66" s="3"/>
@@ -6136,10 +6130,10 @@
       <c r="O67" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P67" s="101" t="s">
+      <c r="P67" s="100" t="s">
         <v>217</v>
       </c>
-      <c r="Q67" s="102"/>
+      <c r="Q67" s="101"/>
       <c r="R67" s="1"/>
       <c r="S67" s="1"/>
       <c r="T67" s="3"/>
@@ -6181,13 +6175,13 @@
       <c r="J69" s="4"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
-      <c r="M69" s="103" t="s">
+      <c r="M69" s="105" t="s">
         <v>176</v>
       </c>
-      <c r="N69" s="104"/>
-      <c r="O69" s="104"/>
-      <c r="P69" s="104"/>
-      <c r="Q69" s="105"/>
+      <c r="N69" s="106"/>
+      <c r="O69" s="106"/>
+      <c r="P69" s="106"/>
+      <c r="Q69" s="107"/>
       <c r="R69" s="1"/>
       <c r="S69" s="1"/>
       <c r="T69" s="3"/>
@@ -6206,13 +6200,13 @@
       <c r="J70" s="4"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
-      <c r="M70" s="103" t="s">
+      <c r="M70" s="105" t="s">
         <v>177</v>
       </c>
-      <c r="N70" s="104"/>
-      <c r="O70" s="104"/>
-      <c r="P70" s="104"/>
-      <c r="Q70" s="105"/>
+      <c r="N70" s="106"/>
+      <c r="O70" s="106"/>
+      <c r="P70" s="106"/>
+      <c r="Q70" s="107"/>
       <c r="R70" s="1"/>
       <c r="S70" s="1"/>
       <c r="T70" s="3"/>
@@ -6240,10 +6234,10 @@
       <c r="O71" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="P71" s="99" t="s">
+      <c r="P71" s="110" t="s">
         <v>201</v>
       </c>
-      <c r="Q71" s="100"/>
+      <c r="Q71" s="111"/>
       <c r="R71" s="1"/>
       <c r="S71" s="1"/>
       <c r="T71" s="3"/>
@@ -6271,10 +6265,10 @@
       <c r="O72" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="P72" s="99" t="s">
+      <c r="P72" s="110" t="s">
         <v>193</v>
       </c>
-      <c r="Q72" s="100"/>
+      <c r="Q72" s="111"/>
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
       <c r="T72" s="3"/>
@@ -6302,10 +6296,10 @@
       <c r="O73" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="P73" s="99" t="s">
+      <c r="P73" s="110" t="s">
         <v>190</v>
       </c>
-      <c r="Q73" s="100"/>
+      <c r="Q73" s="111"/>
       <c r="R73" s="1"/>
       <c r="S73" s="1"/>
       <c r="T73" s="3"/>
@@ -6362,10 +6356,10 @@
       <c r="O75" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P75" s="101" t="s">
+      <c r="P75" s="100" t="s">
         <v>219</v>
       </c>
-      <c r="Q75" s="102"/>
+      <c r="Q75" s="101"/>
       <c r="R75" s="1"/>
       <c r="S75" s="1"/>
       <c r="T75" s="3"/>
@@ -6393,10 +6387,10 @@
       <c r="O76" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P76" s="101" t="s">
+      <c r="P76" s="100" t="s">
         <v>220</v>
       </c>
-      <c r="Q76" s="102"/>
+      <c r="Q76" s="101"/>
       <c r="R76" s="1"/>
       <c r="S76" s="1"/>
       <c r="T76" s="3"/>
@@ -6438,11 +6432,11 @@
       <c r="J78" s="4"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
-      <c r="M78" s="106" t="s">
+      <c r="M78" s="102" t="s">
         <v>191</v>
       </c>
-      <c r="N78" s="107"/>
-      <c r="O78" s="108"/>
+      <c r="N78" s="103"/>
+      <c r="O78" s="104"/>
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
       <c r="R78" s="1"/>
@@ -6544,11 +6538,11 @@
       <c r="J82" s="4"/>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
-      <c r="M82" s="106" t="s">
+      <c r="M82" s="102" t="s">
         <v>183</v>
       </c>
-      <c r="N82" s="107"/>
-      <c r="O82" s="108"/>
+      <c r="N82" s="103"/>
+      <c r="O82" s="104"/>
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
       <c r="R82" s="1"/>
@@ -7059,6 +7053,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="M69:Q69"/>
+    <mergeCell ref="M70:Q70"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="M45:R45"/>
+    <mergeCell ref="P46:R46"/>
+    <mergeCell ref="P47:R47"/>
+    <mergeCell ref="P48:R48"/>
+    <mergeCell ref="P50:R50"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="M44:R44"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
     <mergeCell ref="P76:Q76"/>
     <mergeCell ref="M78:O78"/>
     <mergeCell ref="M82:O82"/>
@@ -7075,34 +7097,6 @@
     <mergeCell ref="M11:O11"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="M29:O29"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="M44:R44"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="M45:R45"/>
-    <mergeCell ref="P46:R46"/>
-    <mergeCell ref="P47:R47"/>
-    <mergeCell ref="P48:R48"/>
-    <mergeCell ref="P50:R50"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="M69:Q69"/>
-    <mergeCell ref="M70:Q70"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="P67:Q67"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7114,8 +7108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:T88"/>
   <sheetViews>
-    <sheetView topLeftCell="C58" workbookViewId="0">
-      <selection activeCell="F71" sqref="F71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7138,7 +7132,7 @@
       <c r="C3" s="89"/>
       <c r="D3" s="90"/>
       <c r="F3" s="88" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="G3" s="89"/>
       <c r="H3" s="89"/>
@@ -7192,25 +7186,25 @@
     </row>
     <row r="6" spans="1:10" ht="14.25" thickBot="1">
       <c r="A6" s="8" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B6" s="76" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="76" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G6" s="76" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="76" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="I6" s="20" t="s">
         <v>13</v>
@@ -7218,39 +7212,39 @@
     </row>
     <row r="7" spans="1:10" ht="14.25" thickBot="1">
       <c r="A7" s="8" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B7" s="76" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C7" s="83" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="G7" s="76" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="H7" s="76" t="s">
         <v>264</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.25" thickBot="1">
       <c r="F8" s="8" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G8" s="76" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="H8" s="83" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="I8" s="20" t="s">
         <v>13</v>
@@ -7258,55 +7252,55 @@
     </row>
     <row r="9" spans="1:10" ht="14.25" thickBot="1">
       <c r="F9" s="8" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="G9" s="78" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="H9" s="78" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="14.25" thickBot="1">
       <c r="F10" s="8" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="G10" s="78" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="H10" s="78" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.25" thickBot="1">
       <c r="F11" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="G11" s="78" t="s">
+        <v>329</v>
+      </c>
+      <c r="H11" s="78" t="s">
         <v>333</v>
       </c>
-      <c r="G11" s="78" t="s">
-        <v>334</v>
-      </c>
-      <c r="H11" s="78" t="s">
-        <v>338</v>
-      </c>
       <c r="I11" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="14.25" thickBot="1">
       <c r="F12" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="G12" s="78" t="s">
-        <v>344</v>
+        <v>382</v>
+      </c>
+      <c r="G12" s="85" t="s">
+        <v>322</v>
       </c>
       <c r="H12" s="84" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="I12" s="20" t="s">
         <v>13</v>
@@ -7375,13 +7369,13 @@
     </row>
     <row r="19" spans="1:10" ht="14.25" thickBot="1">
       <c r="A19" s="8" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B19" s="76" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C19" s="76" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D19" s="20" t="s">
         <v>13</v>
@@ -7396,7 +7390,7 @@
       <c r="C26" s="89"/>
       <c r="D26" s="90"/>
       <c r="F26" s="88" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="G26" s="89"/>
       <c r="H26" s="89"/>
@@ -7411,7 +7405,7 @@
       <c r="D27" s="93"/>
       <c r="E27" s="80"/>
       <c r="F27" s="91" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="G27" s="92"/>
       <c r="H27" s="92"/>
@@ -7424,130 +7418,116 @@
       <c r="B28" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="76" t="s">
-        <v>284</v>
+      <c r="C28" s="85" t="s">
+        <v>385</v>
       </c>
       <c r="D28" s="76" t="s">
         <v>72</v>
       </c>
       <c r="E28" s="80"/>
       <c r="F28" s="8" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="G28" s="76" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="H28" s="76" t="s">
         <v>291</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="14.25" thickBot="1">
       <c r="A29" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="B29" s="76" t="s">
+      <c r="B29" s="85" t="s">
+        <v>142</v>
+      </c>
+      <c r="C29" s="85" t="s">
         <v>297</v>
-      </c>
-      <c r="C29" s="76" t="s">
-        <v>298</v>
       </c>
       <c r="D29" s="20" t="s">
         <v>13</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="G29" s="76" t="s">
-        <v>309</v>
+        <v>326</v>
+      </c>
+      <c r="G29" s="85" t="s">
+        <v>305</v>
       </c>
       <c r="H29" s="76" t="s">
         <v>291</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="14.25" thickBot="1">
       <c r="A30" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B30" s="76" t="s">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="C30" s="76" t="s">
-        <v>301</v>
+        <v>141</v>
       </c>
       <c r="D30" s="20" t="s">
         <v>13</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="G30" s="76" t="s">
-        <v>243</v>
+        <v>327</v>
+      </c>
+      <c r="G30" s="85" t="s">
+        <v>384</v>
       </c>
       <c r="H30" s="76" t="s">
         <v>291</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="14.25" thickBot="1">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="8" t="s">
-        <v>302</v>
+        <v>238</v>
       </c>
       <c r="B31" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="C31" s="76" t="s">
-        <v>141</v>
-      </c>
-      <c r="D31" s="20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="C31" s="84" t="s">
+        <v>341</v>
+      </c>
+      <c r="D31" s="76" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="14.25" thickBot="1">
       <c r="A32" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="B32" s="76" t="s">
-        <v>0</v>
+        <v>325</v>
+      </c>
+      <c r="B32" s="85" t="s">
+        <v>383</v>
       </c>
       <c r="C32" s="84" t="s">
-        <v>347</v>
-      </c>
-      <c r="D32" s="76" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A33" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="B33" s="76" t="s">
-        <v>326</v>
-      </c>
-      <c r="C33" s="84" t="s">
-        <v>350</v>
-      </c>
-      <c r="D33" s="20" t="s">
+        <v>344</v>
+      </c>
+      <c r="D32" s="20" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="37" spans="1:10">
       <c r="A37" s="88" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B37" s="89"/>
       <c r="C37" s="89"/>
       <c r="D37" s="90"/>
       <c r="F37" s="88" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G37" s="89"/>
       <c r="H37" s="89"/>
@@ -7555,7 +7535,7 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="91" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B38" s="92"/>
       <c r="C38" s="92"/>
@@ -7564,7 +7544,7 @@
         <v>1003</v>
       </c>
       <c r="F38" s="91" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="G38" s="92"/>
       <c r="H38" s="92"/>
@@ -7577,8 +7557,8 @@
       <c r="G39" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="H39" s="76" t="s">
-        <v>318</v>
+      <c r="H39" s="85" t="s">
+        <v>314</v>
       </c>
       <c r="I39" s="76" t="s">
         <v>72</v>
@@ -7589,7 +7569,7 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="88" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B40" s="89"/>
       <c r="C40" s="89"/>
@@ -7597,7 +7577,7 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="91" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B41" s="92"/>
       <c r="C41" s="92"/>
@@ -7608,20 +7588,20 @@
     </row>
     <row r="42" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="43" spans="1:10">
-      <c r="A43" s="103" t="s">
-        <v>319</v>
-      </c>
-      <c r="B43" s="104"/>
-      <c r="C43" s="104"/>
-      <c r="D43" s="105"/>
+      <c r="A43" s="105" t="s">
+        <v>315</v>
+      </c>
+      <c r="B43" s="106"/>
+      <c r="C43" s="106"/>
+      <c r="D43" s="107"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="106" t="s">
-        <v>320</v>
-      </c>
-      <c r="B44" s="107"/>
-      <c r="C44" s="107"/>
-      <c r="D44" s="108"/>
+      <c r="A44" s="102" t="s">
+        <v>316</v>
+      </c>
+      <c r="B44" s="103"/>
+      <c r="C44" s="103"/>
+      <c r="D44" s="104"/>
       <c r="E44">
         <v>1005</v>
       </c>
@@ -7631,13 +7611,13 @@
     <row r="47" spans="1:10" ht="12.75" customHeight="1" thickBot="1"/>
     <row r="48" spans="1:10" ht="12.75" customHeight="1">
       <c r="A48" s="88" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="B48" s="89"/>
       <c r="C48" s="89"/>
       <c r="D48" s="90"/>
       <c r="F48" s="88" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="G48" s="89"/>
       <c r="H48" s="89"/>
@@ -7645,17 +7625,17 @@
     </row>
     <row r="49" spans="1:10" ht="12.75" customHeight="1">
       <c r="A49" s="91" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="B49" s="92"/>
       <c r="C49" s="92"/>
       <c r="D49" s="93"/>
-      <c r="F49" s="106" t="s">
-        <v>371</v>
-      </c>
-      <c r="G49" s="107"/>
-      <c r="H49" s="107"/>
-      <c r="I49" s="108"/>
+      <c r="F49" s="102" t="s">
+        <v>365</v>
+      </c>
+      <c r="G49" s="103"/>
+      <c r="H49" s="103"/>
+      <c r="I49" s="104"/>
     </row>
     <row r="50" spans="1:10" ht="12.75" customHeight="1" thickBot="1">
       <c r="A50" s="8" t="s">
@@ -7665,7 +7645,7 @@
         <v>32</v>
       </c>
       <c r="C50" s="79" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="D50" s="20" t="s">
         <v>13</v>
@@ -7674,39 +7654,39 @@
         <v>2002</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="G50" s="78" t="s">
-        <v>378</v>
+        <v>367</v>
+      </c>
+      <c r="G50" s="85" t="s">
+        <v>372</v>
       </c>
       <c r="H50" s="82" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="14.25" thickBot="1">
       <c r="A51" s="8" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="B51" s="78" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="C51" s="78" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="D51" s="20" t="s">
         <v>13</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="G51" s="78" t="s">
-        <v>334</v>
-      </c>
-      <c r="H51" s="78" t="s">
-        <v>375</v>
+        <v>329</v>
+      </c>
+      <c r="H51" s="85" t="s">
+        <v>369</v>
       </c>
       <c r="I51" s="20" t="s">
         <v>13</v>
@@ -7714,25 +7694,25 @@
     </row>
     <row r="52" spans="1:10" ht="14.25" thickBot="1">
       <c r="A52" s="8" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="B52" s="78" t="s">
         <v>32</v>
       </c>
       <c r="C52" s="78" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="D52" s="20" t="s">
         <v>13</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="G52" s="78" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="H52" s="78" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="I52" s="20" t="s">
         <v>13</v>
@@ -7740,13 +7720,13 @@
     </row>
     <row r="53" spans="1:10" ht="14.25" thickBot="1">
       <c r="F53" s="8" t="s">
-        <v>379</v>
+        <v>134</v>
       </c>
       <c r="G53" s="78" t="s">
         <v>32</v>
       </c>
       <c r="H53" s="78" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="I53" s="20" t="s">
         <v>13</v>
@@ -7760,12 +7740,12 @@
     </row>
     <row r="59" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="60" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A60" s="103" t="s">
-        <v>321</v>
-      </c>
-      <c r="B60" s="104"/>
-      <c r="C60" s="104"/>
-      <c r="D60" s="105"/>
+      <c r="A60" s="105" t="s">
+        <v>317</v>
+      </c>
+      <c r="B60" s="106"/>
+      <c r="C60" s="106"/>
+      <c r="D60" s="107"/>
       <c r="F60" s="88" t="s">
         <v>235</v>
       </c>
@@ -7864,14 +7844,14 @@
         <v>230</v>
       </c>
       <c r="F68" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="69" spans="1:20">
-      <c r="A69" s="94" t="s">
+      <c r="A69" s="86" t="s">
         <v>250</v>
       </c>
-      <c r="B69" s="95"/>
+      <c r="B69" s="87"/>
       <c r="E69" s="21" t="s">
         <v>228</v>
       </c>
@@ -7900,7 +7880,7 @@
         <v>267</v>
       </c>
       <c r="H70" s="33" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="L70" s="65"/>
       <c r="M70" s="66"/>
@@ -7924,10 +7904,10 @@
         <v>6</v>
       </c>
       <c r="G71" s="32" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="H71" s="33" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="L71" s="65"/>
       <c r="M71" s="66"/>
@@ -8133,7 +8113,7 @@
         <v>220</v>
       </c>
       <c r="G82" s="84" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="H82" s="57" t="s">
         <v>275</v>
@@ -8147,7 +8127,7 @@
         <v>230</v>
       </c>
       <c r="G83" s="84" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="H83" s="57" t="s">
         <v>278</v>
@@ -8161,7 +8141,7 @@
         <v>240</v>
       </c>
       <c r="G84" s="84" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="H84" s="57" t="s">
         <v>276</v>
@@ -8173,7 +8153,7 @@
         <v>250</v>
       </c>
       <c r="G85" s="84" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="H85" s="57" t="s">
         <v>277</v>
@@ -8201,26 +8181,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="F16:I16"/>
     <mergeCell ref="A48:D48"/>
     <mergeCell ref="A49:D49"/>
     <mergeCell ref="F48:I48"/>
@@ -8231,14 +8191,34 @@
     <mergeCell ref="A62:D62"/>
     <mergeCell ref="F60:I60"/>
     <mergeCell ref="F61:I61"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A41:D41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C7" location="参数说明!A1" display="选项附加值1"/>
     <hyperlink ref="H8" location="参数说明!A1" display="选项附加值1"/>
     <hyperlink ref="G85" location="参数说明!A1" display="胡牌8"/>
-    <hyperlink ref="C32" location="参数说明!A1" display="状态位3"/>
-    <hyperlink ref="C33" location="参数说明!A1" display="额外值4"/>
+    <hyperlink ref="C31" location="参数说明!A1" display="状态位3"/>
+    <hyperlink ref="C32" location="参数说明!A1" display="额外值4"/>
     <hyperlink ref="G82" location="参数说明!A1" display="吃牌5"/>
     <hyperlink ref="G83" location="参数说明!A1" display="杠6"/>
     <hyperlink ref="G84" location="参数说明!A1" display="听牌7"/>
@@ -8255,8 +8235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8267,82 +8247,82 @@
   <sheetData>
     <row r="1" spans="1:2" ht="40.5">
       <c r="A1" s="80" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B1" s="81" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="81">
       <c r="A2" s="80" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B2" s="81" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="40.5">
       <c r="A3" s="80" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="B3" s="81" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="81">
       <c r="A4" s="80" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B4" s="81" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="54">
       <c r="A5" s="80" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="B5" s="81" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="67.5">
       <c r="A6" s="80" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="B6" s="81" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="27">
       <c r="A7" s="80" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B7" s="81" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="67.5">
       <c r="A8" s="80" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="B8" s="81" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="27">
       <c r="A9" s="80" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="B9" s="81" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="40.5">
       <c r="A10" s="80" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="B10" s="81" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>

--- a/doc/最新接口_拟定.xlsx
+++ b/doc/最新接口_拟定.xlsx
@@ -11,6 +11,7 @@
     <sheet name="接口" sheetId="2" r:id="rId2"/>
     <sheet name="麻将" sheetId="3" r:id="rId3"/>
     <sheet name="参数说明" sheetId="4" r:id="rId4"/>
+    <sheet name="登录" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -304,7 +305,92 @@
         </r>
       </text>
     </comment>
-    <comment ref="C31" authorId="0">
+    <comment ref="H23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">位：是否离线
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">位：是否托管
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>3</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>位：是否准备</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C37" authorId="0">
       <text>
         <r>
           <rPr>
@@ -408,7 +494,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H39" authorId="0">
+    <comment ref="H45" authorId="0">
       <text>
         <r>
           <rPr>
@@ -493,7 +579,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C50" authorId="0">
+    <comment ref="C56" authorId="0">
       <text>
         <r>
           <rPr>
@@ -527,7 +613,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H50" authorId="0">
+    <comment ref="H56" authorId="0">
       <text>
         <r>
           <rPr>
@@ -581,7 +667,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H65" authorId="0">
+    <comment ref="H71" authorId="0">
       <text>
         <r>
           <rPr>
@@ -608,7 +694,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G85" authorId="0">
+    <comment ref="G91" authorId="0">
       <text>
         <r>
           <rPr>
@@ -738,7 +824,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="392">
   <si>
     <t>int</t>
   </si>
@@ -2316,6 +2402,26 @@
 2.整副牌数量
 operates：
 6：轮到谁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQConnect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心跳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一个链接返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中途加入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQEnterRoom</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2924,7 +3030,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3079,6 +3185,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3471,32 +3578,32 @@
   <sheetData>
     <row r="3" spans="2:16" ht="14.25" thickBot="1"/>
     <row r="4" spans="2:16">
-      <c r="B4" s="88" t="s">
+      <c r="B4" s="89" t="s">
         <v>233</v>
       </c>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="90"/>
-      <c r="I4" s="88" t="s">
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="91"/>
+      <c r="I4" s="89" t="s">
         <v>235</v>
       </c>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="91"/>
     </row>
     <row r="5" spans="2:16">
-      <c r="B5" s="91" t="s">
+      <c r="B5" s="92" t="s">
         <v>234</v>
       </c>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="93"/>
-      <c r="I5" s="91" t="s">
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="94"/>
+      <c r="I5" s="92" t="s">
         <v>236</v>
       </c>
-      <c r="J5" s="92"/>
-      <c r="K5" s="92"/>
-      <c r="L5" s="93"/>
+      <c r="J5" s="93"/>
+      <c r="K5" s="93"/>
+      <c r="L5" s="94"/>
     </row>
     <row r="6" spans="2:16">
       <c r="B6" s="8"/>
@@ -3560,21 +3667,21 @@
     </row>
     <row r="11" spans="2:16" ht="14.25" customHeight="1"/>
     <row r="14" spans="2:16" ht="14.25" thickBot="1">
-      <c r="I14" s="97" t="s">
+      <c r="I14" s="98" t="s">
         <v>54</v>
       </c>
-      <c r="J14" s="98"/>
-      <c r="K14" s="98"/>
-      <c r="L14" s="98"/>
-      <c r="M14" s="99"/>
+      <c r="J14" s="99"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="99"/>
+      <c r="M14" s="100"/>
     </row>
     <row r="15" spans="2:16">
-      <c r="B15" s="88" t="s">
+      <c r="B15" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="89"/>
-      <c r="D15" s="89"/>
-      <c r="E15" s="90"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="91"/>
       <c r="I15" s="21" t="s">
         <v>34</v>
       </c>
@@ -3589,18 +3696,18 @@
         <v>34</v>
       </c>
       <c r="N15" s="3"/>
-      <c r="O15" s="86" t="s">
+      <c r="O15" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="P15" s="87"/>
+      <c r="P15" s="88"/>
     </row>
     <row r="16" spans="2:16">
-      <c r="B16" s="91" t="s">
+      <c r="B16" s="92" t="s">
         <v>234</v>
       </c>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="93"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="94"/>
       <c r="I16" s="33"/>
       <c r="J16" s="30"/>
       <c r="K16" s="31">
@@ -4098,12 +4205,12 @@
       <c r="P37" s="23"/>
     </row>
     <row r="38" spans="2:16">
-      <c r="B38" s="94" t="s">
+      <c r="B38" s="95" t="s">
         <v>263</v>
       </c>
-      <c r="C38" s="95"/>
-      <c r="D38" s="95"/>
-      <c r="E38" s="96"/>
+      <c r="C38" s="96"/>
+      <c r="D38" s="96"/>
+      <c r="E38" s="97"/>
       <c r="I38" s="33" t="s">
         <v>117</v>
       </c>
@@ -4185,18 +4292,18 @@
     <row r="42" spans="2:16" ht="22.5" customHeight="1"/>
     <row r="43" spans="2:16" ht="31.5" customHeight="1"/>
     <row r="44" spans="2:16">
-      <c r="H44" s="86" t="s">
+      <c r="H44" s="87" t="s">
         <v>248</v>
       </c>
-      <c r="I44" s="87"/>
-      <c r="J44" s="86" t="s">
+      <c r="I44" s="88"/>
+      <c r="J44" s="87" t="s">
         <v>116</v>
       </c>
-      <c r="K44" s="87"/>
-      <c r="L44" s="86" t="s">
+      <c r="K44" s="88"/>
+      <c r="L44" s="87" t="s">
         <v>77</v>
       </c>
-      <c r="M44" s="87"/>
+      <c r="M44" s="88"/>
     </row>
     <row r="45" spans="2:16">
       <c r="H45" s="22">
@@ -4517,11 +4624,11 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="4"/>
-      <c r="B10" s="105" t="s">
+      <c r="B10" s="106" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="106"/>
-      <c r="D10" s="107"/>
+      <c r="C10" s="107"/>
+      <c r="D10" s="108"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -4530,11 +4637,11 @@
       <c r="J10" s="4"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="105" t="s">
+      <c r="M10" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="N10" s="106"/>
-      <c r="O10" s="107"/>
+      <c r="N10" s="107"/>
+      <c r="O10" s="108"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -4544,11 +4651,11 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="4"/>
-      <c r="B11" s="102" t="s">
+      <c r="B11" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="103"/>
-      <c r="D11" s="104"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="105"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -4557,11 +4664,11 @@
       <c r="J11" s="4"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="102" t="s">
+      <c r="M11" s="103" t="s">
         <v>27</v>
       </c>
-      <c r="N11" s="103"/>
-      <c r="O11" s="104"/>
+      <c r="N11" s="104"/>
+      <c r="O11" s="105"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -4682,11 +4789,11 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="4"/>
-      <c r="B17" s="105" t="s">
+      <c r="B17" s="106" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="106"/>
-      <c r="D17" s="107"/>
+      <c r="C17" s="107"/>
+      <c r="D17" s="108"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -4695,11 +4802,11 @@
       <c r="J17" s="4"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="105" t="s">
+      <c r="M17" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="N17" s="106"/>
-      <c r="O17" s="107"/>
+      <c r="N17" s="107"/>
+      <c r="O17" s="108"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -4708,11 +4815,11 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="4"/>
-      <c r="B18" s="102" t="s">
+      <c r="B18" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="103"/>
-      <c r="D18" s="104"/>
+      <c r="C18" s="104"/>
+      <c r="D18" s="105"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -4721,11 +4828,11 @@
       <c r="J18" s="4"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="102" t="s">
+      <c r="M18" s="103" t="s">
         <v>129</v>
       </c>
-      <c r="N18" s="103"/>
-      <c r="O18" s="104"/>
+      <c r="N18" s="104"/>
+      <c r="O18" s="105"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -4765,9 +4872,9 @@
     </row>
     <row r="20" spans="1:21" ht="41.25" thickBot="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="105"/>
-      <c r="C20" s="106"/>
-      <c r="D20" s="107"/>
+      <c r="B20" s="106"/>
+      <c r="C20" s="107"/>
+      <c r="D20" s="108"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -4796,11 +4903,11 @@
     </row>
     <row r="21" spans="1:21" ht="14.25" thickBot="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="102" t="s">
+      <c r="B21" s="103" t="s">
         <v>129</v>
       </c>
-      <c r="C21" s="103"/>
-      <c r="D21" s="104"/>
+      <c r="C21" s="104"/>
+      <c r="D21" s="105"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -4867,11 +4974,11 @@
       <c r="J23" s="4"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="105" t="s">
+      <c r="M23" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="N23" s="106"/>
-      <c r="O23" s="107"/>
+      <c r="N23" s="107"/>
+      <c r="O23" s="108"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
@@ -4892,11 +4999,11 @@
       <c r="J24" s="4"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-      <c r="M24" s="102" t="s">
+      <c r="M24" s="103" t="s">
         <v>69</v>
       </c>
-      <c r="N24" s="103"/>
-      <c r="O24" s="104"/>
+      <c r="N24" s="104"/>
+      <c r="O24" s="105"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
@@ -5029,11 +5136,11 @@
       <c r="J29" s="4"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
-      <c r="M29" s="105" t="s">
+      <c r="M29" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="N29" s="106"/>
-      <c r="O29" s="107"/>
+      <c r="N29" s="107"/>
+      <c r="O29" s="108"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
@@ -5054,11 +5161,11 @@
       <c r="J30" s="4"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="102" t="s">
+      <c r="M30" s="103" t="s">
         <v>69</v>
       </c>
-      <c r="N30" s="103"/>
-      <c r="O30" s="104"/>
+      <c r="N30" s="104"/>
+      <c r="O30" s="105"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
@@ -5214,11 +5321,11 @@
       <c r="J36" s="4"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
-      <c r="M36" s="105" t="s">
+      <c r="M36" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="N36" s="106"/>
-      <c r="O36" s="107"/>
+      <c r="N36" s="107"/>
+      <c r="O36" s="108"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
@@ -5239,11 +5346,11 @@
       <c r="J37" s="4"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
-      <c r="M37" s="102" t="s">
+      <c r="M37" s="103" t="s">
         <v>69</v>
       </c>
-      <c r="N37" s="103"/>
-      <c r="O37" s="104"/>
+      <c r="N37" s="104"/>
+      <c r="O37" s="105"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
@@ -5422,14 +5529,14 @@
       <c r="J44" s="4"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
-      <c r="M44" s="105" t="s">
+      <c r="M44" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="N44" s="106"/>
-      <c r="O44" s="106"/>
-      <c r="P44" s="106"/>
-      <c r="Q44" s="106"/>
-      <c r="R44" s="107"/>
+      <c r="N44" s="107"/>
+      <c r="O44" s="107"/>
+      <c r="P44" s="107"/>
+      <c r="Q44" s="107"/>
+      <c r="R44" s="108"/>
       <c r="S44" s="2"/>
       <c r="T44" s="3"/>
       <c r="U44" s="3"/>
@@ -5447,14 +5554,14 @@
       <c r="J45" s="4"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
-      <c r="M45" s="102" t="s">
+      <c r="M45" s="103" t="s">
         <v>279</v>
       </c>
-      <c r="N45" s="103"/>
-      <c r="O45" s="103"/>
-      <c r="P45" s="103"/>
-      <c r="Q45" s="103"/>
-      <c r="R45" s="104"/>
+      <c r="N45" s="104"/>
+      <c r="O45" s="104"/>
+      <c r="P45" s="104"/>
+      <c r="Q45" s="104"/>
+      <c r="R45" s="105"/>
       <c r="S45" s="2"/>
       <c r="T45" s="3"/>
       <c r="U45" s="3"/>
@@ -5481,11 +5588,11 @@
       <c r="O46" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="P46" s="108" t="s">
+      <c r="P46" s="109" t="s">
         <v>130</v>
       </c>
-      <c r="Q46" s="108"/>
-      <c r="R46" s="109"/>
+      <c r="Q46" s="109"/>
+      <c r="R46" s="110"/>
       <c r="S46" s="2"/>
       <c r="T46" s="3"/>
       <c r="U46" s="3"/>
@@ -5512,22 +5619,22 @@
       <c r="O47" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="P47" s="108" t="s">
+      <c r="P47" s="109" t="s">
         <v>149</v>
       </c>
-      <c r="Q47" s="108"/>
-      <c r="R47" s="109"/>
+      <c r="Q47" s="109"/>
+      <c r="R47" s="110"/>
       <c r="S47" s="2"/>
       <c r="T47" s="3"/>
       <c r="U47" s="3"/>
     </row>
     <row r="48" spans="1:21">
       <c r="A48" s="1"/>
-      <c r="B48" s="105" t="s">
+      <c r="B48" s="106" t="s">
         <v>114</v>
       </c>
-      <c r="C48" s="106"/>
-      <c r="D48" s="107"/>
+      <c r="C48" s="107"/>
+      <c r="D48" s="108"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -5545,22 +5652,22 @@
       <c r="O48" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P48" s="108" t="s">
+      <c r="P48" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="Q48" s="108"/>
-      <c r="R48" s="109"/>
+      <c r="Q48" s="109"/>
+      <c r="R48" s="110"/>
       <c r="S48" s="2"/>
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
     </row>
     <row r="49" spans="1:21">
       <c r="A49" s="1"/>
-      <c r="B49" s="102" t="s">
+      <c r="B49" s="103" t="s">
         <v>112</v>
       </c>
-      <c r="C49" s="103"/>
-      <c r="D49" s="104"/>
+      <c r="C49" s="104"/>
+      <c r="D49" s="105"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -5617,11 +5724,11 @@
       <c r="O50" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P50" s="108" t="s">
+      <c r="P50" s="109" t="s">
         <v>18</v>
       </c>
-      <c r="Q50" s="108"/>
-      <c r="R50" s="109"/>
+      <c r="Q50" s="109"/>
+      <c r="R50" s="110"/>
       <c r="S50" s="2"/>
       <c r="T50" s="3"/>
       <c r="U50" s="3"/>
@@ -5648,11 +5755,11 @@
       <c r="O51" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="P51" s="108" t="s">
+      <c r="P51" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="Q51" s="108"/>
-      <c r="R51" s="109"/>
+      <c r="Q51" s="109"/>
+      <c r="R51" s="110"/>
       <c r="S51" s="2"/>
       <c r="T51" s="3"/>
       <c r="U51" s="3"/>
@@ -5710,11 +5817,11 @@
       <c r="O53" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="P53" s="108" t="s">
+      <c r="P53" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="Q53" s="108"/>
-      <c r="R53" s="109"/>
+      <c r="Q53" s="109"/>
+      <c r="R53" s="110"/>
       <c r="S53" s="2"/>
       <c r="T53" s="3"/>
       <c r="U53" s="3"/>
@@ -5879,13 +5986,13 @@
       <c r="J59" s="4"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
-      <c r="M59" s="105" t="s">
+      <c r="M59" s="106" t="s">
         <v>136</v>
       </c>
-      <c r="N59" s="106"/>
-      <c r="O59" s="106"/>
-      <c r="P59" s="106"/>
-      <c r="Q59" s="107"/>
+      <c r="N59" s="107"/>
+      <c r="O59" s="107"/>
+      <c r="P59" s="107"/>
+      <c r="Q59" s="108"/>
       <c r="R59" s="1"/>
       <c r="S59" s="2"/>
       <c r="T59" s="3"/>
@@ -5913,10 +6020,10 @@
       <c r="O60" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="P60" s="100" t="s">
+      <c r="P60" s="101" t="s">
         <v>137</v>
       </c>
-      <c r="Q60" s="101"/>
+      <c r="Q60" s="102"/>
       <c r="R60" s="1"/>
       <c r="S60" s="2"/>
       <c r="T60" s="3"/>
@@ -5944,10 +6051,10 @@
       <c r="O61" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="P61" s="100" t="s">
+      <c r="P61" s="101" t="s">
         <v>140</v>
       </c>
-      <c r="Q61" s="101"/>
+      <c r="Q61" s="102"/>
       <c r="R61" s="1"/>
       <c r="S61" s="2"/>
       <c r="T61" s="3"/>
@@ -5975,10 +6082,10 @@
       <c r="O62" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="P62" s="100" t="s">
+      <c r="P62" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="Q62" s="101"/>
+      <c r="Q62" s="102"/>
       <c r="R62" s="1"/>
       <c r="S62" s="2"/>
       <c r="T62" s="3"/>
@@ -6006,10 +6113,10 @@
       <c r="O63" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P63" s="110" t="s">
+      <c r="P63" s="111" t="s">
         <v>23</v>
       </c>
-      <c r="Q63" s="111"/>
+      <c r="Q63" s="112"/>
       <c r="R63" s="1"/>
       <c r="S63" s="2"/>
       <c r="T63" s="3"/>
@@ -6037,10 +6144,10 @@
       <c r="O64" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P64" s="100" t="s">
+      <c r="P64" s="101" t="s">
         <v>161</v>
       </c>
-      <c r="Q64" s="101"/>
+      <c r="Q64" s="102"/>
       <c r="R64" s="1"/>
       <c r="S64" s="2"/>
       <c r="T64" s="3"/>
@@ -6068,10 +6175,10 @@
       <c r="O65" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="P65" s="100" t="s">
+      <c r="P65" s="101" t="s">
         <v>60</v>
       </c>
-      <c r="Q65" s="101"/>
+      <c r="Q65" s="102"/>
       <c r="R65" s="1"/>
       <c r="S65" s="2"/>
       <c r="T65" s="3"/>
@@ -6099,10 +6206,10 @@
       <c r="O66" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P66" s="100" t="s">
+      <c r="P66" s="101" t="s">
         <v>218</v>
       </c>
-      <c r="Q66" s="101"/>
+      <c r="Q66" s="102"/>
       <c r="R66" s="1"/>
       <c r="S66" s="2"/>
       <c r="T66" s="3"/>
@@ -6130,10 +6237,10 @@
       <c r="O67" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P67" s="100" t="s">
+      <c r="P67" s="101" t="s">
         <v>217</v>
       </c>
-      <c r="Q67" s="101"/>
+      <c r="Q67" s="102"/>
       <c r="R67" s="1"/>
       <c r="S67" s="1"/>
       <c r="T67" s="3"/>
@@ -6175,13 +6282,13 @@
       <c r="J69" s="4"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
-      <c r="M69" s="105" t="s">
+      <c r="M69" s="106" t="s">
         <v>176</v>
       </c>
-      <c r="N69" s="106"/>
-      <c r="O69" s="106"/>
-      <c r="P69" s="106"/>
-      <c r="Q69" s="107"/>
+      <c r="N69" s="107"/>
+      <c r="O69" s="107"/>
+      <c r="P69" s="107"/>
+      <c r="Q69" s="108"/>
       <c r="R69" s="1"/>
       <c r="S69" s="1"/>
       <c r="T69" s="3"/>
@@ -6200,13 +6307,13 @@
       <c r="J70" s="4"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
-      <c r="M70" s="105" t="s">
+      <c r="M70" s="106" t="s">
         <v>177</v>
       </c>
-      <c r="N70" s="106"/>
-      <c r="O70" s="106"/>
-      <c r="P70" s="106"/>
-      <c r="Q70" s="107"/>
+      <c r="N70" s="107"/>
+      <c r="O70" s="107"/>
+      <c r="P70" s="107"/>
+      <c r="Q70" s="108"/>
       <c r="R70" s="1"/>
       <c r="S70" s="1"/>
       <c r="T70" s="3"/>
@@ -6234,10 +6341,10 @@
       <c r="O71" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="P71" s="110" t="s">
+      <c r="P71" s="111" t="s">
         <v>201</v>
       </c>
-      <c r="Q71" s="111"/>
+      <c r="Q71" s="112"/>
       <c r="R71" s="1"/>
       <c r="S71" s="1"/>
       <c r="T71" s="3"/>
@@ -6265,10 +6372,10 @@
       <c r="O72" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="P72" s="110" t="s">
+      <c r="P72" s="111" t="s">
         <v>193</v>
       </c>
-      <c r="Q72" s="111"/>
+      <c r="Q72" s="112"/>
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
       <c r="T72" s="3"/>
@@ -6296,10 +6403,10 @@
       <c r="O73" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="P73" s="110" t="s">
+      <c r="P73" s="111" t="s">
         <v>190</v>
       </c>
-      <c r="Q73" s="111"/>
+      <c r="Q73" s="112"/>
       <c r="R73" s="1"/>
       <c r="S73" s="1"/>
       <c r="T73" s="3"/>
@@ -6356,10 +6463,10 @@
       <c r="O75" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P75" s="100" t="s">
+      <c r="P75" s="101" t="s">
         <v>219</v>
       </c>
-      <c r="Q75" s="101"/>
+      <c r="Q75" s="102"/>
       <c r="R75" s="1"/>
       <c r="S75" s="1"/>
       <c r="T75" s="3"/>
@@ -6387,10 +6494,10 @@
       <c r="O76" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P76" s="100" t="s">
+      <c r="P76" s="101" t="s">
         <v>220</v>
       </c>
-      <c r="Q76" s="101"/>
+      <c r="Q76" s="102"/>
       <c r="R76" s="1"/>
       <c r="S76" s="1"/>
       <c r="T76" s="3"/>
@@ -6432,11 +6539,11 @@
       <c r="J78" s="4"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
-      <c r="M78" s="102" t="s">
+      <c r="M78" s="103" t="s">
         <v>191</v>
       </c>
-      <c r="N78" s="103"/>
-      <c r="O78" s="104"/>
+      <c r="N78" s="104"/>
+      <c r="O78" s="105"/>
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
       <c r="R78" s="1"/>
@@ -6538,11 +6645,11 @@
       <c r="J82" s="4"/>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
-      <c r="M82" s="102" t="s">
+      <c r="M82" s="103" t="s">
         <v>183</v>
       </c>
-      <c r="N82" s="103"/>
-      <c r="O82" s="104"/>
+      <c r="N82" s="104"/>
+      <c r="O82" s="105"/>
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
       <c r="R82" s="1"/>
@@ -7106,10 +7213,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:T88"/>
+  <dimension ref="A2:T94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7125,32 +7232,32 @@
   <sheetData>
     <row r="2" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="3" spans="1:10">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="89" t="s">
         <v>288</v>
       </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="90"/>
-      <c r="F3" s="88" t="s">
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="91"/>
+      <c r="F3" s="89" t="s">
         <v>299</v>
       </c>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="91"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="92" t="s">
         <v>289</v>
       </c>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="93"/>
-      <c r="F4" s="91" t="s">
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="94"/>
+      <c r="F4" s="92" t="s">
         <v>292</v>
       </c>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="94"/>
     </row>
     <row r="5" spans="1:10" ht="14.25" thickBot="1">
       <c r="A5" s="8" t="s">
@@ -7308,32 +7415,32 @@
     </row>
     <row r="15" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="16" spans="1:10">
-      <c r="A16" s="88" t="s">
+      <c r="A16" s="89" t="s">
         <v>286</v>
       </c>
-      <c r="B16" s="89"/>
-      <c r="C16" s="89"/>
-      <c r="D16" s="90"/>
-      <c r="F16" s="88" t="s">
+      <c r="B16" s="90"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="91"/>
+      <c r="F16" s="89" t="s">
         <v>286</v>
       </c>
-      <c r="G16" s="89"/>
-      <c r="H16" s="89"/>
-      <c r="I16" s="90"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="91"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="91" t="s">
+      <c r="A17" s="92" t="s">
         <v>287</v>
       </c>
-      <c r="B17" s="92"/>
-      <c r="C17" s="92"/>
-      <c r="D17" s="93"/>
-      <c r="F17" s="91" t="s">
-        <v>287</v>
-      </c>
-      <c r="G17" s="92"/>
-      <c r="H17" s="92"/>
-      <c r="I17" s="93"/>
+      <c r="B17" s="93"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="94"/>
+      <c r="F17" s="92" t="s">
+        <v>391</v>
+      </c>
+      <c r="G17" s="93"/>
+      <c r="H17" s="93"/>
+      <c r="I17" s="94"/>
       <c r="J17">
         <v>1002</v>
       </c>
@@ -7381,816 +7488,847 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="14.25" thickBot="1"/>
-    <row r="26" spans="1:10">
-      <c r="A26" s="88" t="s">
+    <row r="20" spans="1:10" ht="14.25" thickBot="1"/>
+    <row r="21" spans="1:10">
+      <c r="F21" s="89" t="s">
+        <v>390</v>
+      </c>
+      <c r="G21" s="90"/>
+      <c r="H21" s="90"/>
+      <c r="I21" s="91"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="F22" s="92" t="s">
+        <v>391</v>
+      </c>
+      <c r="G22" s="93"/>
+      <c r="H22" s="93"/>
+      <c r="I22" s="94"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="F23" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="G23" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" s="85" t="s">
+        <v>314</v>
+      </c>
+      <c r="I23" s="86" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="14.25" thickBot="1"/>
+    <row r="32" spans="1:10">
+      <c r="A32" s="89" t="s">
         <v>293</v>
       </c>
-      <c r="B26" s="89"/>
-      <c r="C26" s="89"/>
-      <c r="D26" s="90"/>
-      <c r="F26" s="88" t="s">
+      <c r="B32" s="90"/>
+      <c r="C32" s="90"/>
+      <c r="D32" s="91"/>
+      <c r="F32" s="89" t="s">
         <v>321</v>
       </c>
-      <c r="G26" s="89"/>
-      <c r="H26" s="89"/>
-      <c r="I26" s="90"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="91" t="s">
+      <c r="G32" s="90"/>
+      <c r="H32" s="90"/>
+      <c r="I32" s="91"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="92" t="s">
         <v>295</v>
       </c>
-      <c r="B27" s="92"/>
-      <c r="C27" s="92"/>
-      <c r="D27" s="93"/>
-      <c r="E27" s="80"/>
-      <c r="F27" s="91" t="s">
+      <c r="B33" s="93"/>
+      <c r="C33" s="93"/>
+      <c r="D33" s="94"/>
+      <c r="E33" s="80"/>
+      <c r="F33" s="92" t="s">
         <v>322</v>
       </c>
-      <c r="G27" s="92"/>
-      <c r="H27" s="92"/>
-      <c r="I27" s="93"/>
-    </row>
-    <row r="28" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A28" s="8" t="s">
+      <c r="G33" s="93"/>
+      <c r="H33" s="93"/>
+      <c r="I33" s="94"/>
+    </row>
+    <row r="34" spans="1:10" ht="14.25" thickBot="1">
+      <c r="A34" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="B28" s="76" t="s">
+      <c r="B34" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="85" t="s">
+      <c r="C34" s="85" t="s">
         <v>385</v>
       </c>
-      <c r="D28" s="76" t="s">
+      <c r="D34" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="E28" s="80"/>
-      <c r="F28" s="8" t="s">
+      <c r="E34" s="80"/>
+      <c r="F34" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="G28" s="76" t="s">
+      <c r="G34" s="76" t="s">
         <v>324</v>
       </c>
-      <c r="H28" s="76" t="s">
+      <c r="H34" s="76" t="s">
         <v>291</v>
       </c>
-      <c r="I28" s="7" t="s">
+      <c r="I34" s="7" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A29" s="8" t="s">
+    <row r="35" spans="1:10" ht="14.25" thickBot="1">
+      <c r="A35" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="B29" s="85" t="s">
+      <c r="B35" s="85" t="s">
         <v>142</v>
       </c>
-      <c r="C29" s="85" t="s">
+      <c r="C35" s="85" t="s">
         <v>297</v>
       </c>
-      <c r="D29" s="20" t="s">
+      <c r="D35" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="F35" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="G29" s="85" t="s">
+      <c r="G35" s="85" t="s">
         <v>305</v>
       </c>
-      <c r="H29" s="76" t="s">
+      <c r="H35" s="76" t="s">
         <v>291</v>
       </c>
-      <c r="I29" s="7" t="s">
+      <c r="I35" s="7" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A30" s="8" t="s">
+    <row r="36" spans="1:10" ht="14.25" thickBot="1">
+      <c r="A36" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="B30" s="76" t="s">
+      <c r="B36" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="76" t="s">
+      <c r="C36" s="76" t="s">
         <v>141</v>
       </c>
-      <c r="D30" s="20" t="s">
+      <c r="D36" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="F36" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="G30" s="85" t="s">
+      <c r="G36" s="85" t="s">
         <v>384</v>
       </c>
-      <c r="H30" s="76" t="s">
+      <c r="H36" s="76" t="s">
         <v>291</v>
       </c>
-      <c r="I30" s="7" t="s">
+      <c r="I36" s="7" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="8" t="s">
+    <row r="37" spans="1:10">
+      <c r="A37" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="B31" s="76" t="s">
+      <c r="B37" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="C31" s="84" t="s">
+      <c r="C37" s="84" t="s">
         <v>341</v>
       </c>
-      <c r="D31" s="76" t="s">
+      <c r="D37" s="76" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A32" s="8" t="s">
+    <row r="38" spans="1:10" ht="14.25" thickBot="1">
+      <c r="A38" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="B32" s="85" t="s">
+      <c r="B38" s="85" t="s">
         <v>383</v>
       </c>
-      <c r="C32" s="84" t="s">
+      <c r="C38" s="84" t="s">
         <v>344</v>
       </c>
-      <c r="D32" s="20" t="s">
+      <c r="D38" s="20" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="14.25" thickBot="1"/>
-    <row r="37" spans="1:10">
-      <c r="A37" s="88" t="s">
-        <v>306</v>
-      </c>
-      <c r="B37" s="89"/>
-      <c r="C37" s="89"/>
-      <c r="D37" s="90"/>
-      <c r="F37" s="88" t="s">
-        <v>312</v>
-      </c>
-      <c r="G37" s="89"/>
-      <c r="H37" s="89"/>
-      <c r="I37" s="90"/>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="91" t="s">
-        <v>307</v>
-      </c>
-      <c r="B38" s="92"/>
-      <c r="C38" s="92"/>
-      <c r="D38" s="93"/>
-      <c r="E38">
-        <v>1003</v>
-      </c>
-      <c r="F38" s="91" t="s">
-        <v>313</v>
-      </c>
-      <c r="G38" s="92"/>
-      <c r="H38" s="92"/>
-      <c r="I38" s="93"/>
-    </row>
-    <row r="39" spans="1:10" ht="14.25" thickBot="1">
-      <c r="F39" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="G39" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="H39" s="85" t="s">
-        <v>314</v>
-      </c>
-      <c r="I39" s="76" t="s">
-        <v>72</v>
-      </c>
-      <c r="J39">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="88" t="s">
-        <v>310</v>
-      </c>
-      <c r="B40" s="89"/>
-      <c r="C40" s="89"/>
-      <c r="D40" s="90"/>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="91" t="s">
-        <v>311</v>
-      </c>
-      <c r="B41" s="92"/>
-      <c r="C41" s="92"/>
-      <c r="D41" s="93"/>
-      <c r="E41">
-        <v>1004</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="43" spans="1:10">
-      <c r="A43" s="105" t="s">
+      <c r="A43" s="89" t="s">
+        <v>306</v>
+      </c>
+      <c r="B43" s="90"/>
+      <c r="C43" s="90"/>
+      <c r="D43" s="91"/>
+      <c r="F43" s="89" t="s">
+        <v>312</v>
+      </c>
+      <c r="G43" s="90"/>
+      <c r="H43" s="90"/>
+      <c r="I43" s="91"/>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="92" t="s">
+        <v>307</v>
+      </c>
+      <c r="B44" s="93"/>
+      <c r="C44" s="93"/>
+      <c r="D44" s="94"/>
+      <c r="E44">
+        <v>1003</v>
+      </c>
+      <c r="F44" s="92" t="s">
+        <v>313</v>
+      </c>
+      <c r="G44" s="93"/>
+      <c r="H44" s="93"/>
+      <c r="I44" s="94"/>
+    </row>
+    <row r="45" spans="1:10" ht="14.25" thickBot="1">
+      <c r="F45" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="G45" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="H45" s="85" t="s">
+        <v>314</v>
+      </c>
+      <c r="I45" s="76" t="s">
+        <v>72</v>
+      </c>
+      <c r="J45">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="89" t="s">
+        <v>310</v>
+      </c>
+      <c r="B46" s="90"/>
+      <c r="C46" s="90"/>
+      <c r="D46" s="91"/>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="92" t="s">
+        <v>311</v>
+      </c>
+      <c r="B47" s="93"/>
+      <c r="C47" s="93"/>
+      <c r="D47" s="94"/>
+      <c r="E47">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="14.25" thickBot="1"/>
+    <row r="49" spans="1:9">
+      <c r="A49" s="106" t="s">
         <v>315</v>
       </c>
-      <c r="B43" s="106"/>
-      <c r="C43" s="106"/>
-      <c r="D43" s="107"/>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="102" t="s">
+      <c r="B49" s="107"/>
+      <c r="C49" s="107"/>
+      <c r="D49" s="108"/>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="103" t="s">
         <v>316</v>
       </c>
-      <c r="B44" s="103"/>
-      <c r="C44" s="103"/>
-      <c r="D44" s="104"/>
-      <c r="E44">
+      <c r="B50" s="104"/>
+      <c r="C50" s="104"/>
+      <c r="D50" s="105"/>
+      <c r="E50">
         <v>1005</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="46" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="47" spans="1:10" ht="12.75" customHeight="1" thickBot="1"/>
-    <row r="48" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A48" s="88" t="s">
+    <row r="51" spans="1:9" ht="12.75" customHeight="1"/>
+    <row r="52" spans="1:9" ht="12.75" customHeight="1"/>
+    <row r="53" spans="1:9" ht="12.75" customHeight="1" thickBot="1"/>
+    <row r="54" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A54" s="89" t="s">
         <v>378</v>
       </c>
-      <c r="B48" s="89"/>
-      <c r="C48" s="89"/>
-      <c r="D48" s="90"/>
-      <c r="F48" s="88" t="s">
+      <c r="B54" s="90"/>
+      <c r="C54" s="90"/>
+      <c r="D54" s="91"/>
+      <c r="F54" s="89" t="s">
         <v>360</v>
       </c>
-      <c r="G48" s="89"/>
-      <c r="H48" s="89"/>
-      <c r="I48" s="90"/>
-    </row>
-    <row r="49" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A49" s="91" t="s">
+      <c r="G54" s="90"/>
+      <c r="H54" s="90"/>
+      <c r="I54" s="91"/>
+    </row>
+    <row r="55" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A55" s="92" t="s">
         <v>358</v>
       </c>
-      <c r="B49" s="92"/>
-      <c r="C49" s="92"/>
-      <c r="D49" s="93"/>
-      <c r="F49" s="102" t="s">
+      <c r="B55" s="93"/>
+      <c r="C55" s="93"/>
+      <c r="D55" s="94"/>
+      <c r="F55" s="103" t="s">
         <v>365</v>
       </c>
-      <c r="G49" s="103"/>
-      <c r="H49" s="103"/>
-      <c r="I49" s="104"/>
-    </row>
-    <row r="50" spans="1:10" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A50" s="8" t="s">
+      <c r="G55" s="104"/>
+      <c r="H55" s="104"/>
+      <c r="I55" s="105"/>
+    </row>
+    <row r="56" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
+      <c r="A56" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="B50" s="78" t="s">
+      <c r="B56" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="C50" s="79" t="s">
+      <c r="C56" s="79" t="s">
         <v>359</v>
       </c>
-      <c r="D50" s="20" t="s">
+      <c r="D56" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E50">
+      <c r="E56">
         <v>2002</v>
       </c>
-      <c r="F50" s="8" t="s">
+      <c r="F56" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="G50" s="85" t="s">
+      <c r="G56" s="85" t="s">
         <v>372</v>
       </c>
-      <c r="H50" s="82" t="s">
+      <c r="H56" s="82" t="s">
         <v>377</v>
       </c>
-      <c r="I50" s="7" t="s">
+      <c r="I56" s="7" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A51" s="8" t="s">
+    <row r="57" spans="1:9" ht="14.25" thickBot="1">
+      <c r="A57" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="B51" s="78" t="s">
+      <c r="B57" s="78" t="s">
         <v>366</v>
       </c>
-      <c r="C51" s="78" t="s">
+      <c r="C57" s="78" t="s">
         <v>360</v>
       </c>
-      <c r="D51" s="20" t="s">
+      <c r="D57" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F51" s="8" t="s">
+      <c r="F57" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="G51" s="78" t="s">
+      <c r="G57" s="78" t="s">
         <v>329</v>
       </c>
-      <c r="H51" s="85" t="s">
+      <c r="H57" s="85" t="s">
         <v>369</v>
       </c>
-      <c r="I51" s="20" t="s">
+      <c r="I57" s="20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A52" s="8" t="s">
+    <row r="58" spans="1:9" ht="14.25" thickBot="1">
+      <c r="A58" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="B52" s="78" t="s">
+      <c r="B58" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="C52" s="78" t="s">
+      <c r="C58" s="78" t="s">
         <v>374</v>
       </c>
-      <c r="D52" s="20" t="s">
+      <c r="D58" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F52" s="8" t="s">
+      <c r="F58" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="G52" s="78" t="s">
+      <c r="G58" s="78" t="s">
         <v>329</v>
       </c>
-      <c r="H52" s="78" t="s">
+      <c r="H58" s="78" t="s">
         <v>371</v>
       </c>
-      <c r="I52" s="20" t="s">
+      <c r="I58" s="20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="14.25" thickBot="1">
-      <c r="F53" s="8" t="s">
+    <row r="59" spans="1:9" ht="14.25" thickBot="1">
+      <c r="F59" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="G53" s="78" t="s">
+      <c r="G59" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="H53" s="78" t="s">
+      <c r="H59" s="78" t="s">
         <v>374</v>
       </c>
-      <c r="I53" s="20" t="s">
+      <c r="I59" s="20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="14.25" thickBot="1">
-      <c r="F54" s="8"/>
-      <c r="G54" s="78"/>
-      <c r="H54" s="78"/>
-      <c r="I54" s="20"/>
-    </row>
-    <row r="59" spans="1:10" ht="14.25" thickBot="1"/>
-    <row r="60" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A60" s="105" t="s">
+    <row r="60" spans="1:9" ht="14.25" thickBot="1">
+      <c r="F60" s="8"/>
+      <c r="G60" s="78"/>
+      <c r="H60" s="78"/>
+      <c r="I60" s="20"/>
+    </row>
+    <row r="65" spans="1:20" ht="14.25" thickBot="1"/>
+    <row r="66" spans="1:20" ht="14.25" thickBot="1">
+      <c r="A66" s="106" t="s">
         <v>317</v>
       </c>
-      <c r="B60" s="106"/>
-      <c r="C60" s="106"/>
-      <c r="D60" s="107"/>
-      <c r="F60" s="88" t="s">
+      <c r="B66" s="107"/>
+      <c r="C66" s="107"/>
+      <c r="D66" s="108"/>
+      <c r="F66" s="89" t="s">
         <v>235</v>
       </c>
-      <c r="G60" s="89"/>
-      <c r="H60" s="89"/>
-      <c r="I60" s="90"/>
-    </row>
-    <row r="61" spans="1:10">
-      <c r="A61" s="88" t="s">
+      <c r="G66" s="90"/>
+      <c r="H66" s="90"/>
+      <c r="I66" s="91"/>
+    </row>
+    <row r="67" spans="1:20">
+      <c r="A67" s="89" t="s">
         <v>233</v>
       </c>
-      <c r="B61" s="89"/>
-      <c r="C61" s="89"/>
-      <c r="D61" s="90"/>
-      <c r="E61">
+      <c r="B67" s="90"/>
+      <c r="C67" s="90"/>
+      <c r="D67" s="91"/>
+      <c r="E67">
         <v>2001</v>
       </c>
-      <c r="F61" s="91" t="s">
+      <c r="F67" s="92" t="s">
         <v>236</v>
       </c>
-      <c r="G61" s="92"/>
-      <c r="H61" s="92"/>
-      <c r="I61" s="93"/>
-      <c r="J61">
+      <c r="G67" s="93"/>
+      <c r="H67" s="93"/>
+      <c r="I67" s="94"/>
+      <c r="J67">
         <v>2001</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
-      <c r="A62" s="91" t="s">
+    <row r="68" spans="1:20">
+      <c r="A68" s="92" t="s">
         <v>234</v>
       </c>
-      <c r="B62" s="92"/>
-      <c r="C62" s="92"/>
-      <c r="D62" s="93"/>
-      <c r="F62" s="8" t="s">
+      <c r="B68" s="93"/>
+      <c r="C68" s="93"/>
+      <c r="D68" s="94"/>
+      <c r="F68" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="G62" s="76" t="s">
+      <c r="G68" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="H62" s="76" t="s">
+      <c r="H68" s="76" t="s">
         <v>240</v>
       </c>
-      <c r="I62" s="77" t="s">
+      <c r="I68" s="77" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
-      <c r="A63" s="8"/>
-      <c r="B63" s="76"/>
-      <c r="C63" s="15"/>
-      <c r="D63" s="77"/>
-      <c r="F63" s="8" t="s">
+    <row r="69" spans="1:20">
+      <c r="A69" s="8"/>
+      <c r="B69" s="76"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="77"/>
+      <c r="F69" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="G63" s="76" t="s">
+      <c r="G69" s="76" t="s">
         <v>243</v>
       </c>
-      <c r="H63" s="76" t="s">
+      <c r="H69" s="76" t="s">
         <v>244</v>
       </c>
-      <c r="I63" s="77" t="s">
+      <c r="I69" s="77" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
-      <c r="F64" s="8" t="s">
+    <row r="70" spans="1:20">
+      <c r="F70" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="G64" s="76" t="s">
+      <c r="G70" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="H64" s="76" t="s">
+      <c r="H70" s="76" t="s">
         <v>77</v>
       </c>
-      <c r="I64" s="77" t="s">
+      <c r="I70" s="77" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="65" spans="1:20">
-      <c r="F65" s="8" t="s">
+    <row r="71" spans="1:20">
+      <c r="F71" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="G65" s="76" t="s">
+      <c r="G71" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="H65" s="76" t="s">
+      <c r="H71" s="76" t="s">
         <v>259</v>
       </c>
-      <c r="I65" s="77" t="s">
+      <c r="I71" s="77" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="68" spans="1:20">
-      <c r="E68" t="s">
+    <row r="74" spans="1:20">
+      <c r="E74" t="s">
         <v>230</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F74" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="69" spans="1:20">
-      <c r="A69" s="86" t="s">
+    <row r="75" spans="1:20">
+      <c r="A75" s="87" t="s">
         <v>250</v>
       </c>
-      <c r="B69" s="87"/>
-      <c r="E69" s="21" t="s">
+      <c r="B75" s="88"/>
+      <c r="E75" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="F69" s="21" t="s">
+      <c r="F75" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="G69" s="21" t="s">
+      <c r="G75" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="H69" s="21" t="s">
+      <c r="H75" s="21" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="40.5">
-      <c r="A70" s="22">
+    <row r="76" spans="1:20" ht="40.5">
+      <c r="A76" s="22">
         <v>0</v>
       </c>
-      <c r="B70" s="25" t="s">
+      <c r="B76" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="E70" s="59"/>
-      <c r="F70" s="58">
+      <c r="E76" s="59"/>
+      <c r="F76" s="58">
         <v>5</v>
       </c>
-      <c r="G70" s="32" t="s">
+      <c r="G76" s="32" t="s">
         <v>267</v>
       </c>
-      <c r="H70" s="33" t="s">
+      <c r="H76" s="33" t="s">
         <v>380</v>
       </c>
-      <c r="L70" s="65"/>
-      <c r="M70" s="66"/>
-      <c r="N70" s="66"/>
-      <c r="O70" s="62"/>
-      <c r="P70" s="66"/>
-      <c r="Q70" s="66"/>
-      <c r="R70" s="66"/>
-      <c r="S70" s="66"/>
-      <c r="T70" s="67"/>
-    </row>
-    <row r="71" spans="1:20" ht="27">
-      <c r="A71" s="22">
-        <v>1</v>
-      </c>
-      <c r="B71" s="25" t="s">
-        <v>232</v>
-      </c>
-      <c r="E71" s="57"/>
-      <c r="F71" s="58">
-        <v>6</v>
-      </c>
-      <c r="G71" s="32" t="s">
-        <v>379</v>
-      </c>
-      <c r="H71" s="33" t="s">
-        <v>381</v>
-      </c>
-      <c r="L71" s="65"/>
-      <c r="M71" s="66"/>
-      <c r="N71" s="66"/>
-      <c r="O71" s="62"/>
-      <c r="P71" s="66"/>
-      <c r="Q71" s="66"/>
-      <c r="R71" s="66"/>
-      <c r="S71" s="66"/>
-      <c r="T71" s="67"/>
-    </row>
-    <row r="72" spans="1:20">
-      <c r="A72" s="22">
-        <v>2</v>
-      </c>
-      <c r="B72" s="25" t="s">
-        <v>249</v>
-      </c>
-      <c r="E72" s="57"/>
-      <c r="F72" s="58"/>
-      <c r="G72" s="32"/>
-      <c r="H72" s="33"/>
-      <c r="L72" s="65"/>
-      <c r="M72" s="66"/>
-      <c r="N72" s="66"/>
-      <c r="O72" s="62"/>
-      <c r="P72" s="66"/>
-      <c r="Q72" s="66"/>
-      <c r="R72" s="66"/>
-      <c r="S72" s="66"/>
-      <c r="T72" s="67"/>
-    </row>
-    <row r="73" spans="1:20" ht="27">
-      <c r="E73" s="57"/>
-      <c r="F73" s="58">
-        <v>201</v>
-      </c>
-      <c r="G73" s="32" t="s">
-        <v>247</v>
-      </c>
-      <c r="H73" s="33" t="s">
-        <v>251</v>
-      </c>
-      <c r="L73" s="65"/>
-      <c r="M73" s="66"/>
-      <c r="N73" s="66"/>
-      <c r="O73" s="61"/>
-      <c r="P73" s="66"/>
-      <c r="Q73" s="61"/>
-      <c r="R73" s="66"/>
-      <c r="S73" s="66"/>
-      <c r="T73" s="67"/>
-    </row>
-    <row r="74" spans="1:20" ht="27">
-      <c r="E74" s="59" t="s">
-        <v>261</v>
-      </c>
-      <c r="F74" s="58">
-        <v>202</v>
-      </c>
-      <c r="G74" s="32" t="s">
-        <v>252</v>
-      </c>
-      <c r="H74" s="57" t="s">
-        <v>253</v>
-      </c>
-      <c r="L74" s="65"/>
-      <c r="M74" s="66"/>
-      <c r="N74" s="66"/>
-      <c r="O74" s="63"/>
-      <c r="P74" s="60">
-        <v>1</v>
-      </c>
-      <c r="Q74" s="64"/>
-      <c r="R74" s="66"/>
-      <c r="S74" s="66"/>
-      <c r="T74" s="67"/>
-    </row>
-    <row r="75" spans="1:20" ht="27">
-      <c r="E75" s="59" t="s">
-        <v>262</v>
-      </c>
-      <c r="F75" s="58">
-        <v>203</v>
-      </c>
-      <c r="G75" s="32" t="s">
-        <v>254</v>
-      </c>
-      <c r="H75" s="57" t="s">
-        <v>256</v>
-      </c>
-      <c r="L75" s="65"/>
-      <c r="M75" s="66"/>
-      <c r="N75" s="66"/>
-      <c r="O75" s="66"/>
-      <c r="P75" s="66"/>
-      <c r="Q75" s="66"/>
-      <c r="R75" s="74">
-        <v>4</v>
-      </c>
-      <c r="S75" s="66"/>
-      <c r="T75" s="67"/>
-    </row>
-    <row r="76" spans="1:20" ht="27">
-      <c r="E76" s="57"/>
-      <c r="F76" s="58">
-        <v>204</v>
-      </c>
-      <c r="G76" s="32" t="s">
-        <v>255</v>
-      </c>
-      <c r="H76" s="57" t="s">
-        <v>257</v>
-      </c>
       <c r="L76" s="65"/>
-      <c r="M76" s="74">
-        <v>3</v>
-      </c>
+      <c r="M76" s="66"/>
       <c r="N76" s="66"/>
-      <c r="O76" s="71"/>
-      <c r="P76" s="72">
-        <v>2</v>
-      </c>
-      <c r="Q76" s="72"/>
-      <c r="R76" s="73"/>
+      <c r="O76" s="62"/>
+      <c r="P76" s="66"/>
+      <c r="Q76" s="66"/>
+      <c r="R76" s="66"/>
       <c r="S76" s="66"/>
       <c r="T76" s="67"/>
     </row>
     <row r="77" spans="1:20" ht="27">
+      <c r="A77" s="22">
+        <v>1</v>
+      </c>
+      <c r="B77" s="25" t="s">
+        <v>232</v>
+      </c>
       <c r="E77" s="57"/>
       <c r="F77" s="58">
+        <v>6</v>
+      </c>
+      <c r="G77" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="H77" s="33" t="s">
+        <v>381</v>
+      </c>
+      <c r="L77" s="65"/>
+      <c r="M77" s="66"/>
+      <c r="N77" s="66"/>
+      <c r="O77" s="62"/>
+      <c r="P77" s="66"/>
+      <c r="Q77" s="66"/>
+      <c r="R77" s="66"/>
+      <c r="S77" s="66"/>
+      <c r="T77" s="67"/>
+    </row>
+    <row r="78" spans="1:20">
+      <c r="A78" s="22">
+        <v>2</v>
+      </c>
+      <c r="B78" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="E78" s="57"/>
+      <c r="F78" s="58"/>
+      <c r="G78" s="32"/>
+      <c r="H78" s="33"/>
+      <c r="L78" s="65"/>
+      <c r="M78" s="66"/>
+      <c r="N78" s="66"/>
+      <c r="O78" s="62"/>
+      <c r="P78" s="66"/>
+      <c r="Q78" s="66"/>
+      <c r="R78" s="66"/>
+      <c r="S78" s="66"/>
+      <c r="T78" s="67"/>
+    </row>
+    <row r="79" spans="1:20" ht="27">
+      <c r="E79" s="57"/>
+      <c r="F79" s="58">
+        <v>201</v>
+      </c>
+      <c r="G79" s="32" t="s">
+        <v>247</v>
+      </c>
+      <c r="H79" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="L79" s="65"/>
+      <c r="M79" s="66"/>
+      <c r="N79" s="66"/>
+      <c r="O79" s="61"/>
+      <c r="P79" s="66"/>
+      <c r="Q79" s="61"/>
+      <c r="R79" s="66"/>
+      <c r="S79" s="66"/>
+      <c r="T79" s="67"/>
+    </row>
+    <row r="80" spans="1:20" ht="27">
+      <c r="E80" s="59" t="s">
+        <v>261</v>
+      </c>
+      <c r="F80" s="58">
+        <v>202</v>
+      </c>
+      <c r="G80" s="32" t="s">
+        <v>252</v>
+      </c>
+      <c r="H80" s="57" t="s">
+        <v>253</v>
+      </c>
+      <c r="L80" s="65"/>
+      <c r="M80" s="66"/>
+      <c r="N80" s="66"/>
+      <c r="O80" s="63"/>
+      <c r="P80" s="60">
+        <v>1</v>
+      </c>
+      <c r="Q80" s="64"/>
+      <c r="R80" s="66"/>
+      <c r="S80" s="66"/>
+      <c r="T80" s="67"/>
+    </row>
+    <row r="81" spans="5:20" ht="27">
+      <c r="E81" s="59" t="s">
+        <v>262</v>
+      </c>
+      <c r="F81" s="58">
+        <v>203</v>
+      </c>
+      <c r="G81" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="H81" s="57" t="s">
+        <v>256</v>
+      </c>
+      <c r="L81" s="65"/>
+      <c r="M81" s="66"/>
+      <c r="N81" s="66"/>
+      <c r="O81" s="66"/>
+      <c r="P81" s="66"/>
+      <c r="Q81" s="66"/>
+      <c r="R81" s="74">
+        <v>4</v>
+      </c>
+      <c r="S81" s="66"/>
+      <c r="T81" s="67"/>
+    </row>
+    <row r="82" spans="5:20" ht="27">
+      <c r="E82" s="57"/>
+      <c r="F82" s="58">
+        <v>204</v>
+      </c>
+      <c r="G82" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="H82" s="57" t="s">
+        <v>257</v>
+      </c>
+      <c r="L82" s="65"/>
+      <c r="M82" s="74">
+        <v>3</v>
+      </c>
+      <c r="N82" s="66"/>
+      <c r="O82" s="71"/>
+      <c r="P82" s="72">
+        <v>2</v>
+      </c>
+      <c r="Q82" s="72"/>
+      <c r="R82" s="73"/>
+      <c r="S82" s="66"/>
+      <c r="T82" s="67"/>
+    </row>
+    <row r="83" spans="5:20" ht="27">
+      <c r="E83" s="57"/>
+      <c r="F83" s="58">
         <v>211</v>
       </c>
-      <c r="G77" s="32" t="s">
+      <c r="G83" s="32" t="s">
         <v>258</v>
       </c>
-      <c r="H77" s="57" t="s">
+      <c r="H83" s="57" t="s">
         <v>260</v>
       </c>
-      <c r="L77" s="68"/>
-      <c r="M77" s="69"/>
-      <c r="N77" s="69"/>
-      <c r="O77" s="69"/>
-      <c r="P77" s="69"/>
-      <c r="Q77" s="69"/>
-      <c r="R77" s="69"/>
-      <c r="S77" s="69"/>
-      <c r="T77" s="70"/>
-    </row>
-    <row r="78" spans="1:20">
-      <c r="E78" s="57"/>
-      <c r="F78" s="58">
+      <c r="L83" s="68"/>
+      <c r="M83" s="69"/>
+      <c r="N83" s="69"/>
+      <c r="O83" s="69"/>
+      <c r="P83" s="69"/>
+      <c r="Q83" s="69"/>
+      <c r="R83" s="69"/>
+      <c r="S83" s="69"/>
+      <c r="T83" s="70"/>
+    </row>
+    <row r="84" spans="5:20">
+      <c r="E84" s="57"/>
+      <c r="F84" s="58">
         <v>212</v>
       </c>
-      <c r="G78" s="32" t="s">
+      <c r="G84" s="32" t="s">
         <v>269</v>
       </c>
-      <c r="H78" s="57" t="s">
+      <c r="H84" s="57" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="79" spans="1:20" ht="27">
-      <c r="E79" s="59"/>
-      <c r="F79" s="58">
-        <v>213</v>
-      </c>
-      <c r="G79" s="32" t="s">
-        <v>268</v>
-      </c>
-      <c r="H79" s="57" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="80" spans="1:20" ht="27">
-      <c r="E80" s="59"/>
-      <c r="F80" s="58">
-        <v>214</v>
-      </c>
-      <c r="G80" s="32" t="s">
-        <v>270</v>
-      </c>
-      <c r="H80" s="57" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="81" spans="5:8">
-      <c r="E81" s="59"/>
-      <c r="F81" s="58">
-        <v>215</v>
-      </c>
-      <c r="G81" s="57" t="s">
-        <v>271</v>
-      </c>
-      <c r="H81" s="57" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="82" spans="5:8" ht="27">
-      <c r="E82" s="59" t="s">
-        <v>282</v>
-      </c>
-      <c r="F82" s="58">
-        <v>220</v>
-      </c>
-      <c r="G82" s="84" t="s">
-        <v>345</v>
-      </c>
-      <c r="H82" s="57" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="83" spans="5:8" ht="40.5">
-      <c r="E83" s="59" t="s">
-        <v>283</v>
-      </c>
-      <c r="F83" s="58">
-        <v>230</v>
-      </c>
-      <c r="G83" s="84" t="s">
-        <v>350</v>
-      </c>
-      <c r="H83" s="57" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="84" spans="5:8" ht="40.5">
-      <c r="E84" s="59" t="s">
-        <v>280</v>
-      </c>
-      <c r="F84" s="58">
-        <v>240</v>
-      </c>
-      <c r="G84" s="84" t="s">
-        <v>351</v>
-      </c>
-      <c r="H84" s="57" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="85" spans="5:8" ht="40.5">
+    <row r="85" spans="5:20" ht="27">
       <c r="E85" s="59"/>
       <c r="F85" s="58">
+        <v>213</v>
+      </c>
+      <c r="G85" s="32" t="s">
+        <v>268</v>
+      </c>
+      <c r="H85" s="57" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="86" spans="5:20" ht="27">
+      <c r="E86" s="59"/>
+      <c r="F86" s="58">
+        <v>214</v>
+      </c>
+      <c r="G86" s="32" t="s">
+        <v>270</v>
+      </c>
+      <c r="H86" s="57" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="87" spans="5:20">
+      <c r="E87" s="59"/>
+      <c r="F87" s="58">
+        <v>215</v>
+      </c>
+      <c r="G87" s="57" t="s">
+        <v>271</v>
+      </c>
+      <c r="H87" s="57" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="88" spans="5:20" ht="27">
+      <c r="E88" s="59" t="s">
+        <v>282</v>
+      </c>
+      <c r="F88" s="58">
+        <v>220</v>
+      </c>
+      <c r="G88" s="84" t="s">
+        <v>345</v>
+      </c>
+      <c r="H88" s="57" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="89" spans="5:20" ht="40.5">
+      <c r="E89" s="59" t="s">
+        <v>283</v>
+      </c>
+      <c r="F89" s="58">
+        <v>230</v>
+      </c>
+      <c r="G89" s="84" t="s">
+        <v>350</v>
+      </c>
+      <c r="H89" s="57" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="90" spans="5:20" ht="40.5">
+      <c r="E90" s="59" t="s">
+        <v>280</v>
+      </c>
+      <c r="F90" s="58">
+        <v>240</v>
+      </c>
+      <c r="G90" s="84" t="s">
+        <v>351</v>
+      </c>
+      <c r="H90" s="57" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="91" spans="5:20" ht="40.5">
+      <c r="E91" s="59"/>
+      <c r="F91" s="58">
         <v>250</v>
       </c>
-      <c r="G85" s="84" t="s">
+      <c r="G91" s="84" t="s">
         <v>349</v>
       </c>
-      <c r="H85" s="57" t="s">
+      <c r="H91" s="57" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="86" spans="5:8">
-      <c r="E86" s="57"/>
-      <c r="F86" s="58">
+    <row r="92" spans="5:20">
+      <c r="E92" s="57"/>
+      <c r="F92" s="58">
         <v>280</v>
       </c>
-      <c r="G86" s="32"/>
-      <c r="H86" s="57"/>
-    </row>
-    <row r="87" spans="5:8">
-      <c r="E87" s="57"/>
-      <c r="F87" s="58"/>
-      <c r="G87" s="32"/>
-      <c r="H87" s="57"/>
-    </row>
-    <row r="88" spans="5:8">
-      <c r="E88" s="57"/>
-      <c r="F88" s="58"/>
-      <c r="G88" s="32"/>
-      <c r="H88" s="57"/>
+      <c r="G92" s="32"/>
+      <c r="H92" s="57"/>
+    </row>
+    <row r="93" spans="5:20">
+      <c r="E93" s="57"/>
+      <c r="F93" s="58"/>
+      <c r="G93" s="32"/>
+      <c r="H93" s="57"/>
+    </row>
+    <row r="94" spans="5:20">
+      <c r="E94" s="57"/>
+      <c r="F94" s="58"/>
+      <c r="G94" s="32"/>
+      <c r="H94" s="57"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="F48:I48"/>
-    <mergeCell ref="F49:I49"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A60:D60"/>
-    <mergeCell ref="A61:D61"/>
-    <mergeCell ref="A62:D62"/>
-    <mergeCell ref="F60:I60"/>
-    <mergeCell ref="F61:I61"/>
+  <mergeCells count="32">
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="F54:I54"/>
+    <mergeCell ref="F55:I55"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="F67:I67"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="F3:I3"/>
@@ -8199,31 +8337,33 @@
     <mergeCell ref="F16:I16"/>
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="F17:I17"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="F33:I33"/>
     <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:D47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C7" location="参数说明!A1" display="选项附加值1"/>
     <hyperlink ref="H8" location="参数说明!A1" display="选项附加值1"/>
-    <hyperlink ref="G85" location="参数说明!A1" display="胡牌8"/>
-    <hyperlink ref="C31" location="参数说明!A1" display="状态位3"/>
-    <hyperlink ref="C32" location="参数说明!A1" display="额外值4"/>
-    <hyperlink ref="G82" location="参数说明!A1" display="吃牌5"/>
-    <hyperlink ref="G83" location="参数说明!A1" display="杠6"/>
-    <hyperlink ref="G84" location="参数说明!A1" display="听牌7"/>
+    <hyperlink ref="G91" location="参数说明!A1" display="胡牌8"/>
+    <hyperlink ref="C37" location="参数说明!A1" display="状态位3"/>
+    <hyperlink ref="C38" location="参数说明!A1" display="额外值4"/>
+    <hyperlink ref="G88" location="参数说明!A1" display="吃牌5"/>
+    <hyperlink ref="G89" location="参数说明!A1" display="杠6"/>
+    <hyperlink ref="G90" location="参数说明!A1" display="听牌7"/>
     <hyperlink ref="H12" location="参数说明!A1" display="游戏数据附加值2"/>
-    <hyperlink ref="H50" location="参数说明!A1" display="得分详情10"/>
+    <hyperlink ref="H56" location="参数说明!A1" display="得分详情10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -8235,9 +8375,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -8329,4 +8467,85 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B10:F16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="10" spans="2:6" ht="14.25" thickBot="1"/>
+    <row r="11" spans="2:6">
+      <c r="B11" s="89" t="s">
+        <v>388</v>
+      </c>
+      <c r="C11" s="90"/>
+      <c r="D11" s="90"/>
+      <c r="E11" s="91"/>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="14.25" thickBot="1"/>
+    <row r="13" spans="2:6">
+      <c r="B13" s="89" t="s">
+        <v>389</v>
+      </c>
+      <c r="C13" s="90"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="91"/>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="92" t="s">
+        <v>387</v>
+      </c>
+      <c r="C14" s="93"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="94"/>
+    </row>
+    <row r="15" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B15" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="C15" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="85" t="s">
+        <v>290</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B16" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="C16" s="85" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B11:E11"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/最新接口_拟定.xlsx
+++ b/doc/最新接口_拟定.xlsx
@@ -305,7 +305,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H23" authorId="0">
+    <comment ref="H26" authorId="0">
       <text>
         <r>
           <rPr>
@@ -579,37 +579,173 @@
         </r>
       </text>
     </comment>
-    <comment ref="C56" authorId="0">
+    <comment ref="C55" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-1</t>
-        </r>
-        <r>
-          <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>位：是否是总结算</t>
+          <t>作者</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">位：是否离线
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">位：是否托管
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>3</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>位：是否准备</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H55" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">位：是否离线
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">位：是否托管
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>3</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>位：是否准备</t>
         </r>
       </text>
     </comment>
@@ -620,40 +756,31 @@
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-k:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">得失分子类
-</t>
-        </r>
-        <r>
-          <rPr>
+          <t>作者</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>v:</t>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1</t>
         </r>
         <r>
           <rPr>
@@ -663,11 +790,139 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>详细数值</t>
+          <t xml:space="preserve">位：是否离线
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">位：是否托管
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>3</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>位：是否准备</t>
         </r>
       </text>
     </comment>
-    <comment ref="H71" authorId="0">
+    <comment ref="C68" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>位：是否是总结算</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H68" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+k:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">得失分子类
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>v:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>详细数值</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H83" authorId="0">
       <text>
         <r>
           <rPr>
@@ -694,7 +949,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G91" authorId="0">
+    <comment ref="G103" authorId="0">
       <text>
         <r>
           <rPr>
@@ -824,7 +1079,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="401">
   <si>
     <t>int</t>
   </si>
@@ -2417,11 +2672,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中途加入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RQEnterRoom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQExit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投票解散</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isAgree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否同意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出游戏（如果为0表示解散房间，否则为退出玩家的玩家id）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPVote</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQVote</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家id：如果为0表示发起投票，显示同意/拒绝按钮,否则为该玩家的选择</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3030,7 +3321,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3185,7 +3476,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3578,32 +3870,32 @@
   <sheetData>
     <row r="3" spans="2:16" ht="14.25" thickBot="1"/>
     <row r="4" spans="2:16">
-      <c r="B4" s="89" t="s">
+      <c r="B4" s="90" t="s">
         <v>233</v>
       </c>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="91"/>
-      <c r="I4" s="89" t="s">
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="92"/>
+      <c r="I4" s="90" t="s">
         <v>235</v>
       </c>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="91"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="91"/>
+      <c r="L4" s="92"/>
     </row>
     <row r="5" spans="2:16">
-      <c r="B5" s="92" t="s">
+      <c r="B5" s="93" t="s">
         <v>234</v>
       </c>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="94"/>
-      <c r="I5" s="92" t="s">
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="95"/>
+      <c r="I5" s="93" t="s">
         <v>236</v>
       </c>
-      <c r="J5" s="93"/>
-      <c r="K5" s="93"/>
-      <c r="L5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="94"/>
+      <c r="L5" s="95"/>
     </row>
     <row r="6" spans="2:16">
       <c r="B6" s="8"/>
@@ -3667,21 +3959,21 @@
     </row>
     <row r="11" spans="2:16" ht="14.25" customHeight="1"/>
     <row r="14" spans="2:16" ht="14.25" thickBot="1">
-      <c r="I14" s="98" t="s">
+      <c r="I14" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="J14" s="99"/>
-      <c r="K14" s="99"/>
-      <c r="L14" s="99"/>
-      <c r="M14" s="100"/>
+      <c r="J14" s="100"/>
+      <c r="K14" s="100"/>
+      <c r="L14" s="100"/>
+      <c r="M14" s="101"/>
     </row>
     <row r="15" spans="2:16">
-      <c r="B15" s="89" t="s">
+      <c r="B15" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="90"/>
-      <c r="D15" s="90"/>
-      <c r="E15" s="91"/>
+      <c r="C15" s="91"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="92"/>
       <c r="I15" s="21" t="s">
         <v>34</v>
       </c>
@@ -3696,18 +3988,18 @@
         <v>34</v>
       </c>
       <c r="N15" s="3"/>
-      <c r="O15" s="87" t="s">
+      <c r="O15" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="P15" s="88"/>
+      <c r="P15" s="89"/>
     </row>
     <row r="16" spans="2:16">
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="93" t="s">
         <v>234</v>
       </c>
-      <c r="C16" s="93"/>
-      <c r="D16" s="93"/>
-      <c r="E16" s="94"/>
+      <c r="C16" s="94"/>
+      <c r="D16" s="94"/>
+      <c r="E16" s="95"/>
       <c r="I16" s="33"/>
       <c r="J16" s="30"/>
       <c r="K16" s="31">
@@ -4205,12 +4497,12 @@
       <c r="P37" s="23"/>
     </row>
     <row r="38" spans="2:16">
-      <c r="B38" s="95" t="s">
+      <c r="B38" s="96" t="s">
         <v>263</v>
       </c>
-      <c r="C38" s="96"/>
-      <c r="D38" s="96"/>
-      <c r="E38" s="97"/>
+      <c r="C38" s="97"/>
+      <c r="D38" s="97"/>
+      <c r="E38" s="98"/>
       <c r="I38" s="33" t="s">
         <v>117</v>
       </c>
@@ -4292,18 +4584,18 @@
     <row r="42" spans="2:16" ht="22.5" customHeight="1"/>
     <row r="43" spans="2:16" ht="31.5" customHeight="1"/>
     <row r="44" spans="2:16">
-      <c r="H44" s="87" t="s">
+      <c r="H44" s="88" t="s">
         <v>248</v>
       </c>
-      <c r="I44" s="88"/>
-      <c r="J44" s="87" t="s">
+      <c r="I44" s="89"/>
+      <c r="J44" s="88" t="s">
         <v>116</v>
       </c>
-      <c r="K44" s="88"/>
-      <c r="L44" s="87" t="s">
+      <c r="K44" s="89"/>
+      <c r="L44" s="88" t="s">
         <v>77</v>
       </c>
-      <c r="M44" s="88"/>
+      <c r="M44" s="89"/>
     </row>
     <row r="45" spans="2:16">
       <c r="H45" s="22">
@@ -4624,11 +4916,11 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="4"/>
-      <c r="B10" s="106" t="s">
+      <c r="B10" s="107" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="107"/>
-      <c r="D10" s="108"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="109"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -4637,11 +4929,11 @@
       <c r="J10" s="4"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="106" t="s">
+      <c r="M10" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="N10" s="107"/>
-      <c r="O10" s="108"/>
+      <c r="N10" s="108"/>
+      <c r="O10" s="109"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -4651,11 +4943,11 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="4"/>
-      <c r="B11" s="103" t="s">
+      <c r="B11" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="104"/>
-      <c r="D11" s="105"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="106"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -4664,11 +4956,11 @@
       <c r="J11" s="4"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="103" t="s">
+      <c r="M11" s="104" t="s">
         <v>27</v>
       </c>
-      <c r="N11" s="104"/>
-      <c r="O11" s="105"/>
+      <c r="N11" s="105"/>
+      <c r="O11" s="106"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -4789,11 +5081,11 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="4"/>
-      <c r="B17" s="106" t="s">
+      <c r="B17" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="107"/>
-      <c r="D17" s="108"/>
+      <c r="C17" s="108"/>
+      <c r="D17" s="109"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -4802,11 +5094,11 @@
       <c r="J17" s="4"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="106" t="s">
+      <c r="M17" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="N17" s="107"/>
-      <c r="O17" s="108"/>
+      <c r="N17" s="108"/>
+      <c r="O17" s="109"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -4815,11 +5107,11 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="4"/>
-      <c r="B18" s="103" t="s">
+      <c r="B18" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="104"/>
-      <c r="D18" s="105"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="106"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -4828,11 +5120,11 @@
       <c r="J18" s="4"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="103" t="s">
+      <c r="M18" s="104" t="s">
         <v>129</v>
       </c>
-      <c r="N18" s="104"/>
-      <c r="O18" s="105"/>
+      <c r="N18" s="105"/>
+      <c r="O18" s="106"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -4872,9 +5164,9 @@
     </row>
     <row r="20" spans="1:21" ht="41.25" thickBot="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="106"/>
-      <c r="C20" s="107"/>
-      <c r="D20" s="108"/>
+      <c r="B20" s="107"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="109"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -4903,11 +5195,11 @@
     </row>
     <row r="21" spans="1:21" ht="14.25" thickBot="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="103" t="s">
+      <c r="B21" s="104" t="s">
         <v>129</v>
       </c>
-      <c r="C21" s="104"/>
-      <c r="D21" s="105"/>
+      <c r="C21" s="105"/>
+      <c r="D21" s="106"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -4974,11 +5266,11 @@
       <c r="J23" s="4"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="106" t="s">
+      <c r="M23" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="N23" s="107"/>
-      <c r="O23" s="108"/>
+      <c r="N23" s="108"/>
+      <c r="O23" s="109"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
@@ -4999,11 +5291,11 @@
       <c r="J24" s="4"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-      <c r="M24" s="103" t="s">
+      <c r="M24" s="104" t="s">
         <v>69</v>
       </c>
-      <c r="N24" s="104"/>
-      <c r="O24" s="105"/>
+      <c r="N24" s="105"/>
+      <c r="O24" s="106"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
@@ -5136,11 +5428,11 @@
       <c r="J29" s="4"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
-      <c r="M29" s="106" t="s">
+      <c r="M29" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="N29" s="107"/>
-      <c r="O29" s="108"/>
+      <c r="N29" s="108"/>
+      <c r="O29" s="109"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
@@ -5161,11 +5453,11 @@
       <c r="J30" s="4"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="103" t="s">
+      <c r="M30" s="104" t="s">
         <v>69</v>
       </c>
-      <c r="N30" s="104"/>
-      <c r="O30" s="105"/>
+      <c r="N30" s="105"/>
+      <c r="O30" s="106"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
@@ -5321,11 +5613,11 @@
       <c r="J36" s="4"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
-      <c r="M36" s="106" t="s">
+      <c r="M36" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="N36" s="107"/>
-      <c r="O36" s="108"/>
+      <c r="N36" s="108"/>
+      <c r="O36" s="109"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
@@ -5346,11 +5638,11 @@
       <c r="J37" s="4"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
-      <c r="M37" s="103" t="s">
+      <c r="M37" s="104" t="s">
         <v>69</v>
       </c>
-      <c r="N37" s="104"/>
-      <c r="O37" s="105"/>
+      <c r="N37" s="105"/>
+      <c r="O37" s="106"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
@@ -5529,14 +5821,14 @@
       <c r="J44" s="4"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
-      <c r="M44" s="106" t="s">
+      <c r="M44" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="N44" s="107"/>
-      <c r="O44" s="107"/>
-      <c r="P44" s="107"/>
-      <c r="Q44" s="107"/>
-      <c r="R44" s="108"/>
+      <c r="N44" s="108"/>
+      <c r="O44" s="108"/>
+      <c r="P44" s="108"/>
+      <c r="Q44" s="108"/>
+      <c r="R44" s="109"/>
       <c r="S44" s="2"/>
       <c r="T44" s="3"/>
       <c r="U44" s="3"/>
@@ -5554,14 +5846,14 @@
       <c r="J45" s="4"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
-      <c r="M45" s="103" t="s">
+      <c r="M45" s="104" t="s">
         <v>279</v>
       </c>
-      <c r="N45" s="104"/>
-      <c r="O45" s="104"/>
-      <c r="P45" s="104"/>
-      <c r="Q45" s="104"/>
-      <c r="R45" s="105"/>
+      <c r="N45" s="105"/>
+      <c r="O45" s="105"/>
+      <c r="P45" s="105"/>
+      <c r="Q45" s="105"/>
+      <c r="R45" s="106"/>
       <c r="S45" s="2"/>
       <c r="T45" s="3"/>
       <c r="U45" s="3"/>
@@ -5588,11 +5880,11 @@
       <c r="O46" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="P46" s="109" t="s">
+      <c r="P46" s="110" t="s">
         <v>130</v>
       </c>
-      <c r="Q46" s="109"/>
-      <c r="R46" s="110"/>
+      <c r="Q46" s="110"/>
+      <c r="R46" s="111"/>
       <c r="S46" s="2"/>
       <c r="T46" s="3"/>
       <c r="U46" s="3"/>
@@ -5619,22 +5911,22 @@
       <c r="O47" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="P47" s="109" t="s">
+      <c r="P47" s="110" t="s">
         <v>149</v>
       </c>
-      <c r="Q47" s="109"/>
-      <c r="R47" s="110"/>
+      <c r="Q47" s="110"/>
+      <c r="R47" s="111"/>
       <c r="S47" s="2"/>
       <c r="T47" s="3"/>
       <c r="U47" s="3"/>
     </row>
     <row r="48" spans="1:21">
       <c r="A48" s="1"/>
-      <c r="B48" s="106" t="s">
+      <c r="B48" s="107" t="s">
         <v>114</v>
       </c>
-      <c r="C48" s="107"/>
-      <c r="D48" s="108"/>
+      <c r="C48" s="108"/>
+      <c r="D48" s="109"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -5652,22 +5944,22 @@
       <c r="O48" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P48" s="109" t="s">
+      <c r="P48" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="Q48" s="109"/>
-      <c r="R48" s="110"/>
+      <c r="Q48" s="110"/>
+      <c r="R48" s="111"/>
       <c r="S48" s="2"/>
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
     </row>
     <row r="49" spans="1:21">
       <c r="A49" s="1"/>
-      <c r="B49" s="103" t="s">
+      <c r="B49" s="104" t="s">
         <v>112</v>
       </c>
-      <c r="C49" s="104"/>
-      <c r="D49" s="105"/>
+      <c r="C49" s="105"/>
+      <c r="D49" s="106"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -5724,11 +6016,11 @@
       <c r="O50" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P50" s="109" t="s">
+      <c r="P50" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="Q50" s="109"/>
-      <c r="R50" s="110"/>
+      <c r="Q50" s="110"/>
+      <c r="R50" s="111"/>
       <c r="S50" s="2"/>
       <c r="T50" s="3"/>
       <c r="U50" s="3"/>
@@ -5755,11 +6047,11 @@
       <c r="O51" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="P51" s="109" t="s">
+      <c r="P51" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="Q51" s="109"/>
-      <c r="R51" s="110"/>
+      <c r="Q51" s="110"/>
+      <c r="R51" s="111"/>
       <c r="S51" s="2"/>
       <c r="T51" s="3"/>
       <c r="U51" s="3"/>
@@ -5817,11 +6109,11 @@
       <c r="O53" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="P53" s="109" t="s">
+      <c r="P53" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="Q53" s="109"/>
-      <c r="R53" s="110"/>
+      <c r="Q53" s="110"/>
+      <c r="R53" s="111"/>
       <c r="S53" s="2"/>
       <c r="T53" s="3"/>
       <c r="U53" s="3"/>
@@ -5986,13 +6278,13 @@
       <c r="J59" s="4"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
-      <c r="M59" s="106" t="s">
+      <c r="M59" s="107" t="s">
         <v>136</v>
       </c>
-      <c r="N59" s="107"/>
-      <c r="O59" s="107"/>
-      <c r="P59" s="107"/>
-      <c r="Q59" s="108"/>
+      <c r="N59" s="108"/>
+      <c r="O59" s="108"/>
+      <c r="P59" s="108"/>
+      <c r="Q59" s="109"/>
       <c r="R59" s="1"/>
       <c r="S59" s="2"/>
       <c r="T59" s="3"/>
@@ -6020,10 +6312,10 @@
       <c r="O60" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="P60" s="101" t="s">
+      <c r="P60" s="102" t="s">
         <v>137</v>
       </c>
-      <c r="Q60" s="102"/>
+      <c r="Q60" s="103"/>
       <c r="R60" s="1"/>
       <c r="S60" s="2"/>
       <c r="T60" s="3"/>
@@ -6051,10 +6343,10 @@
       <c r="O61" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="P61" s="101" t="s">
+      <c r="P61" s="102" t="s">
         <v>140</v>
       </c>
-      <c r="Q61" s="102"/>
+      <c r="Q61" s="103"/>
       <c r="R61" s="1"/>
       <c r="S61" s="2"/>
       <c r="T61" s="3"/>
@@ -6082,10 +6374,10 @@
       <c r="O62" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="P62" s="101" t="s">
+      <c r="P62" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="Q62" s="102"/>
+      <c r="Q62" s="103"/>
       <c r="R62" s="1"/>
       <c r="S62" s="2"/>
       <c r="T62" s="3"/>
@@ -6113,10 +6405,10 @@
       <c r="O63" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P63" s="111" t="s">
+      <c r="P63" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="Q63" s="112"/>
+      <c r="Q63" s="113"/>
       <c r="R63" s="1"/>
       <c r="S63" s="2"/>
       <c r="T63" s="3"/>
@@ -6144,10 +6436,10 @@
       <c r="O64" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P64" s="101" t="s">
+      <c r="P64" s="102" t="s">
         <v>161</v>
       </c>
-      <c r="Q64" s="102"/>
+      <c r="Q64" s="103"/>
       <c r="R64" s="1"/>
       <c r="S64" s="2"/>
       <c r="T64" s="3"/>
@@ -6175,10 +6467,10 @@
       <c r="O65" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="P65" s="101" t="s">
+      <c r="P65" s="102" t="s">
         <v>60</v>
       </c>
-      <c r="Q65" s="102"/>
+      <c r="Q65" s="103"/>
       <c r="R65" s="1"/>
       <c r="S65" s="2"/>
       <c r="T65" s="3"/>
@@ -6206,10 +6498,10 @@
       <c r="O66" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P66" s="101" t="s">
+      <c r="P66" s="102" t="s">
         <v>218</v>
       </c>
-      <c r="Q66" s="102"/>
+      <c r="Q66" s="103"/>
       <c r="R66" s="1"/>
       <c r="S66" s="2"/>
       <c r="T66" s="3"/>
@@ -6237,10 +6529,10 @@
       <c r="O67" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P67" s="101" t="s">
+      <c r="P67" s="102" t="s">
         <v>217</v>
       </c>
-      <c r="Q67" s="102"/>
+      <c r="Q67" s="103"/>
       <c r="R67" s="1"/>
       <c r="S67" s="1"/>
       <c r="T67" s="3"/>
@@ -6282,13 +6574,13 @@
       <c r="J69" s="4"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
-      <c r="M69" s="106" t="s">
+      <c r="M69" s="107" t="s">
         <v>176</v>
       </c>
-      <c r="N69" s="107"/>
-      <c r="O69" s="107"/>
-      <c r="P69" s="107"/>
-      <c r="Q69" s="108"/>
+      <c r="N69" s="108"/>
+      <c r="O69" s="108"/>
+      <c r="P69" s="108"/>
+      <c r="Q69" s="109"/>
       <c r="R69" s="1"/>
       <c r="S69" s="1"/>
       <c r="T69" s="3"/>
@@ -6307,13 +6599,13 @@
       <c r="J70" s="4"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
-      <c r="M70" s="106" t="s">
+      <c r="M70" s="107" t="s">
         <v>177</v>
       </c>
-      <c r="N70" s="107"/>
-      <c r="O70" s="107"/>
-      <c r="P70" s="107"/>
-      <c r="Q70" s="108"/>
+      <c r="N70" s="108"/>
+      <c r="O70" s="108"/>
+      <c r="P70" s="108"/>
+      <c r="Q70" s="109"/>
       <c r="R70" s="1"/>
       <c r="S70" s="1"/>
       <c r="T70" s="3"/>
@@ -6341,10 +6633,10 @@
       <c r="O71" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="P71" s="111" t="s">
+      <c r="P71" s="112" t="s">
         <v>201</v>
       </c>
-      <c r="Q71" s="112"/>
+      <c r="Q71" s="113"/>
       <c r="R71" s="1"/>
       <c r="S71" s="1"/>
       <c r="T71" s="3"/>
@@ -6372,10 +6664,10 @@
       <c r="O72" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="P72" s="111" t="s">
+      <c r="P72" s="112" t="s">
         <v>193</v>
       </c>
-      <c r="Q72" s="112"/>
+      <c r="Q72" s="113"/>
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
       <c r="T72" s="3"/>
@@ -6403,10 +6695,10 @@
       <c r="O73" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="P73" s="111" t="s">
+      <c r="P73" s="112" t="s">
         <v>190</v>
       </c>
-      <c r="Q73" s="112"/>
+      <c r="Q73" s="113"/>
       <c r="R73" s="1"/>
       <c r="S73" s="1"/>
       <c r="T73" s="3"/>
@@ -6463,10 +6755,10 @@
       <c r="O75" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P75" s="101" t="s">
+      <c r="P75" s="102" t="s">
         <v>219</v>
       </c>
-      <c r="Q75" s="102"/>
+      <c r="Q75" s="103"/>
       <c r="R75" s="1"/>
       <c r="S75" s="1"/>
       <c r="T75" s="3"/>
@@ -6494,10 +6786,10 @@
       <c r="O76" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P76" s="101" t="s">
+      <c r="P76" s="102" t="s">
         <v>220</v>
       </c>
-      <c r="Q76" s="102"/>
+      <c r="Q76" s="103"/>
       <c r="R76" s="1"/>
       <c r="S76" s="1"/>
       <c r="T76" s="3"/>
@@ -6539,11 +6831,11 @@
       <c r="J78" s="4"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
-      <c r="M78" s="103" t="s">
+      <c r="M78" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="N78" s="104"/>
-      <c r="O78" s="105"/>
+      <c r="N78" s="105"/>
+      <c r="O78" s="106"/>
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
       <c r="R78" s="1"/>
@@ -6645,11 +6937,11 @@
       <c r="J82" s="4"/>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
-      <c r="M82" s="103" t="s">
+      <c r="M82" s="104" t="s">
         <v>183</v>
       </c>
-      <c r="N82" s="104"/>
-      <c r="O82" s="105"/>
+      <c r="N82" s="105"/>
+      <c r="O82" s="106"/>
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
       <c r="R82" s="1"/>
@@ -7213,10 +7505,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:T94"/>
+  <dimension ref="A2:T106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7232,32 +7524,32 @@
   <sheetData>
     <row r="2" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="3" spans="1:10">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="90" t="s">
         <v>288</v>
       </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="91"/>
-      <c r="F3" s="89" t="s">
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="92"/>
+      <c r="F3" s="90" t="s">
         <v>299</v>
       </c>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="92"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="92" t="s">
+      <c r="A4" s="93" t="s">
         <v>289</v>
       </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="94"/>
-      <c r="F4" s="92" t="s">
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="95"/>
+      <c r="F4" s="93" t="s">
         <v>292</v>
       </c>
-      <c r="G4" s="93"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="95"/>
     </row>
     <row r="5" spans="1:10" ht="14.25" thickBot="1">
       <c r="A5" s="8" t="s">
@@ -7415,32 +7707,32 @@
     </row>
     <row r="15" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="16" spans="1:10">
-      <c r="A16" s="89" t="s">
+      <c r="A16" s="90" t="s">
         <v>286</v>
       </c>
-      <c r="B16" s="90"/>
-      <c r="C16" s="90"/>
-      <c r="D16" s="91"/>
-      <c r="F16" s="89" t="s">
+      <c r="B16" s="91"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="92"/>
+      <c r="F16" s="90" t="s">
         <v>286</v>
       </c>
-      <c r="G16" s="90"/>
-      <c r="H16" s="90"/>
-      <c r="I16" s="91"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="91"/>
+      <c r="I16" s="92"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="92" t="s">
+      <c r="A17" s="93" t="s">
         <v>287</v>
       </c>
-      <c r="B17" s="93"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="94"/>
-      <c r="F17" s="92" t="s">
-        <v>391</v>
-      </c>
-      <c r="G17" s="93"/>
-      <c r="H17" s="93"/>
-      <c r="I17" s="94"/>
+      <c r="B17" s="94"/>
+      <c r="C17" s="94"/>
+      <c r="D17" s="95"/>
+      <c r="F17" s="93" t="s">
+        <v>390</v>
+      </c>
+      <c r="G17" s="94"/>
+      <c r="H17" s="94"/>
+      <c r="I17" s="95"/>
       <c r="J17">
         <v>1002</v>
       </c>
@@ -7488,66 +7780,69 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="14.25" thickBot="1"/>
-    <row r="21" spans="1:10">
-      <c r="F21" s="89" t="s">
-        <v>390</v>
-      </c>
-      <c r="G21" s="90"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="91"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="F22" s="92" t="s">
-        <v>391</v>
-      </c>
-      <c r="G22" s="93"/>
-      <c r="H22" s="93"/>
-      <c r="I22" s="94"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="F23" s="8" t="s">
+    <row r="23" spans="1:10" ht="14.25" thickBot="1"/>
+    <row r="24" spans="1:10">
+      <c r="F24" s="90" t="s">
+        <v>312</v>
+      </c>
+      <c r="G24" s="91"/>
+      <c r="H24" s="91"/>
+      <c r="I24" s="92"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="F25" s="93" t="s">
+        <v>313</v>
+      </c>
+      <c r="G25" s="94"/>
+      <c r="H25" s="94"/>
+      <c r="I25" s="95"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="F26" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="G23" s="85" t="s">
+      <c r="G26" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="H23" s="85" t="s">
+      <c r="H26" s="85" t="s">
         <v>314</v>
       </c>
-      <c r="I23" s="86" t="s">
-        <v>14</v>
+      <c r="I26" s="76" t="s">
+        <v>72</v>
+      </c>
+      <c r="J26">
+        <v>1006</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="32" spans="1:10">
-      <c r="A32" s="89" t="s">
+      <c r="A32" s="90" t="s">
         <v>293</v>
       </c>
-      <c r="B32" s="90"/>
-      <c r="C32" s="90"/>
-      <c r="D32" s="91"/>
-      <c r="F32" s="89" t="s">
+      <c r="B32" s="91"/>
+      <c r="C32" s="91"/>
+      <c r="D32" s="92"/>
+      <c r="F32" s="90" t="s">
         <v>321</v>
       </c>
-      <c r="G32" s="90"/>
-      <c r="H32" s="90"/>
-      <c r="I32" s="91"/>
+      <c r="G32" s="91"/>
+      <c r="H32" s="91"/>
+      <c r="I32" s="92"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="92" t="s">
+      <c r="A33" s="93" t="s">
         <v>295</v>
       </c>
-      <c r="B33" s="93"/>
-      <c r="C33" s="93"/>
-      <c r="D33" s="94"/>
+      <c r="B33" s="94"/>
+      <c r="C33" s="94"/>
+      <c r="D33" s="95"/>
       <c r="E33" s="80"/>
-      <c r="F33" s="92" t="s">
+      <c r="F33" s="93" t="s">
         <v>322</v>
       </c>
-      <c r="G33" s="93"/>
-      <c r="H33" s="93"/>
-      <c r="I33" s="94"/>
+      <c r="G33" s="94"/>
+      <c r="H33" s="94"/>
+      <c r="I33" s="95"/>
     </row>
     <row r="34" spans="1:10" ht="14.25" thickBot="1">
       <c r="A34" s="8" t="s">
@@ -7658,692 +7953,773 @@
     </row>
     <row r="42" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="43" spans="1:10">
-      <c r="A43" s="89" t="s">
+      <c r="A43" s="90" t="s">
         <v>306</v>
       </c>
-      <c r="B43" s="90"/>
-      <c r="C43" s="90"/>
-      <c r="D43" s="91"/>
-      <c r="F43" s="89" t="s">
-        <v>312</v>
-      </c>
-      <c r="G43" s="90"/>
-      <c r="H43" s="90"/>
-      <c r="I43" s="91"/>
+      <c r="B43" s="91"/>
+      <c r="C43" s="91"/>
+      <c r="D43" s="92"/>
+      <c r="F43" s="90" t="s">
+        <v>392</v>
+      </c>
+      <c r="G43" s="91"/>
+      <c r="H43" s="91"/>
+      <c r="I43" s="92"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="92" t="s">
+      <c r="A44" s="93" t="s">
         <v>307</v>
       </c>
-      <c r="B44" s="93"/>
-      <c r="C44" s="93"/>
-      <c r="D44" s="94"/>
+      <c r="B44" s="94"/>
+      <c r="C44" s="94"/>
+      <c r="D44" s="95"/>
       <c r="E44">
         <v>1003</v>
       </c>
-      <c r="F44" s="92" t="s">
-        <v>313</v>
-      </c>
-      <c r="G44" s="93"/>
-      <c r="H44" s="93"/>
-      <c r="I44" s="94"/>
+      <c r="F44" s="93" t="s">
+        <v>391</v>
+      </c>
+      <c r="G44" s="94"/>
+      <c r="H44" s="94"/>
+      <c r="I44" s="95"/>
+      <c r="J44">
+        <v>1003</v>
+      </c>
     </row>
     <row r="45" spans="1:10" ht="14.25" thickBot="1">
       <c r="F45" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="G45" s="76" t="s">
+        <v>122</v>
+      </c>
+      <c r="G45" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="H45" s="85" t="s">
-        <v>314</v>
-      </c>
-      <c r="I45" s="76" t="s">
+      <c r="H45" s="87" t="s">
+        <v>397</v>
+      </c>
+      <c r="I45" s="86" t="s">
         <v>72</v>
       </c>
-      <c r="J45">
-        <v>1006</v>
-      </c>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="89" t="s">
+      <c r="A46" s="90" t="s">
         <v>310</v>
       </c>
-      <c r="B46" s="90"/>
-      <c r="C46" s="90"/>
-      <c r="D46" s="91"/>
+      <c r="B46" s="91"/>
+      <c r="C46" s="91"/>
+      <c r="D46" s="92"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="92" t="s">
+      <c r="A47" s="93" t="s">
         <v>311</v>
       </c>
-      <c r="B47" s="93"/>
-      <c r="C47" s="93"/>
-      <c r="D47" s="94"/>
+      <c r="B47" s="94"/>
+      <c r="C47" s="94"/>
+      <c r="D47" s="95"/>
       <c r="E47">
         <v>1004</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="49" spans="1:9">
-      <c r="A49" s="106" t="s">
+      <c r="A49" s="107" t="s">
         <v>315</v>
       </c>
-      <c r="B49" s="107"/>
-      <c r="C49" s="107"/>
-      <c r="D49" s="108"/>
+      <c r="B49" s="108"/>
+      <c r="C49" s="108"/>
+      <c r="D49" s="109"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="103" t="s">
+      <c r="A50" s="104" t="s">
         <v>316</v>
       </c>
-      <c r="B50" s="104"/>
-      <c r="C50" s="104"/>
-      <c r="D50" s="105"/>
+      <c r="B50" s="105"/>
+      <c r="C50" s="105"/>
+      <c r="D50" s="106"/>
       <c r="E50">
         <v>1005</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="12.75" customHeight="1"/>
-    <row r="52" spans="1:9" ht="12.75" customHeight="1"/>
-    <row r="53" spans="1:9" ht="12.75" customHeight="1" thickBot="1"/>
-    <row r="54" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A54" s="89" t="s">
+    <row r="52" spans="1:9" ht="13.5" customHeight="1" thickBot="1"/>
+    <row r="53" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A53" s="90" t="s">
+        <v>393</v>
+      </c>
+      <c r="B53" s="91"/>
+      <c r="C53" s="91"/>
+      <c r="D53" s="92"/>
+      <c r="F53" s="90" t="s">
+        <v>393</v>
+      </c>
+      <c r="G53" s="91"/>
+      <c r="H53" s="91"/>
+      <c r="I53" s="92"/>
+    </row>
+    <row r="54" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A54" s="93" t="s">
+        <v>398</v>
+      </c>
+      <c r="B54" s="94"/>
+      <c r="C54" s="94"/>
+      <c r="D54" s="95"/>
+      <c r="F54" s="93" t="s">
+        <v>399</v>
+      </c>
+      <c r="G54" s="94"/>
+      <c r="H54" s="94"/>
+      <c r="I54" s="95"/>
+    </row>
+    <row r="55" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A55" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="B55" s="86" t="s">
+        <v>394</v>
+      </c>
+      <c r="C55" s="86" t="s">
+        <v>396</v>
+      </c>
+      <c r="D55" s="86" t="s">
+        <v>72</v>
+      </c>
+      <c r="E55">
+        <v>1007</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="G55" s="87" t="s">
+        <v>394</v>
+      </c>
+      <c r="H55" s="87" t="s">
+        <v>396</v>
+      </c>
+      <c r="I55" s="87" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="13.5" customHeight="1" thickBot="1">
+      <c r="F56" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="G56" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="H56" s="87" t="s">
+        <v>400</v>
+      </c>
+      <c r="I56" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="13.5" customHeight="1"/>
+    <row r="58" spans="1:9" ht="13.5" customHeight="1"/>
+    <row r="59" spans="1:9" ht="13.5" customHeight="1"/>
+    <row r="60" spans="1:9" ht="13.5" customHeight="1"/>
+    <row r="61" spans="1:9" ht="13.5" customHeight="1"/>
+    <row r="62" spans="1:9" ht="12.75" customHeight="1"/>
+    <row r="63" spans="1:9" ht="12.75" customHeight="1"/>
+    <row r="64" spans="1:9" ht="12.75" customHeight="1"/>
+    <row r="65" spans="1:10" ht="12.75" customHeight="1" thickBot="1"/>
+    <row r="66" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A66" s="90" t="s">
         <v>378</v>
       </c>
-      <c r="B54" s="90"/>
-      <c r="C54" s="90"/>
-      <c r="D54" s="91"/>
-      <c r="F54" s="89" t="s">
+      <c r="B66" s="91"/>
+      <c r="C66" s="91"/>
+      <c r="D66" s="92"/>
+      <c r="F66" s="90" t="s">
         <v>360</v>
       </c>
-      <c r="G54" s="90"/>
-      <c r="H54" s="90"/>
-      <c r="I54" s="91"/>
-    </row>
-    <row r="55" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A55" s="92" t="s">
+      <c r="G66" s="91"/>
+      <c r="H66" s="91"/>
+      <c r="I66" s="92"/>
+    </row>
+    <row r="67" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A67" s="93" t="s">
         <v>358</v>
       </c>
-      <c r="B55" s="93"/>
-      <c r="C55" s="93"/>
-      <c r="D55" s="94"/>
-      <c r="F55" s="103" t="s">
+      <c r="B67" s="94"/>
+      <c r="C67" s="94"/>
+      <c r="D67" s="95"/>
+      <c r="F67" s="104" t="s">
         <v>365</v>
       </c>
-      <c r="G55" s="104"/>
-      <c r="H55" s="104"/>
-      <c r="I55" s="105"/>
-    </row>
-    <row r="56" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A56" s="8" t="s">
+      <c r="G67" s="105"/>
+      <c r="H67" s="105"/>
+      <c r="I67" s="106"/>
+    </row>
+    <row r="68" spans="1:10" ht="12.75" customHeight="1" thickBot="1">
+      <c r="A68" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="B56" s="78" t="s">
+      <c r="B68" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="C56" s="79" t="s">
+      <c r="C68" s="79" t="s">
         <v>359</v>
       </c>
-      <c r="D56" s="20" t="s">
+      <c r="D68" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E56">
+      <c r="E68">
         <v>2002</v>
       </c>
-      <c r="F56" s="8" t="s">
+      <c r="F68" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="G56" s="85" t="s">
+      <c r="G68" s="85" t="s">
         <v>372</v>
       </c>
-      <c r="H56" s="82" t="s">
+      <c r="H68" s="82" t="s">
         <v>377</v>
       </c>
-      <c r="I56" s="7" t="s">
+      <c r="I68" s="7" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A57" s="8" t="s">
+    <row r="69" spans="1:10" ht="14.25" thickBot="1">
+      <c r="A69" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="B57" s="78" t="s">
+      <c r="B69" s="78" t="s">
         <v>366</v>
       </c>
-      <c r="C57" s="78" t="s">
+      <c r="C69" s="78" t="s">
         <v>360</v>
       </c>
-      <c r="D57" s="20" t="s">
+      <c r="D69" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F57" s="8" t="s">
+      <c r="F69" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="G57" s="78" t="s">
+      <c r="G69" s="78" t="s">
         <v>329</v>
       </c>
-      <c r="H57" s="85" t="s">
+      <c r="H69" s="85" t="s">
         <v>369</v>
       </c>
-      <c r="I57" s="20" t="s">
+      <c r="I69" s="20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A58" s="8" t="s">
+    <row r="70" spans="1:10" ht="14.25" thickBot="1">
+      <c r="A70" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="B58" s="78" t="s">
+      <c r="B70" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="C58" s="78" t="s">
+      <c r="C70" s="78" t="s">
         <v>374</v>
       </c>
-      <c r="D58" s="20" t="s">
+      <c r="D70" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F58" s="8" t="s">
+      <c r="F70" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="G58" s="78" t="s">
+      <c r="G70" s="78" t="s">
         <v>329</v>
       </c>
-      <c r="H58" s="78" t="s">
+      <c r="H70" s="78" t="s">
         <v>371</v>
       </c>
-      <c r="I58" s="20" t="s">
+      <c r="I70" s="20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="14.25" thickBot="1">
-      <c r="F59" s="8" t="s">
+    <row r="71" spans="1:10" ht="14.25" thickBot="1">
+      <c r="F71" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="G59" s="78" t="s">
+      <c r="G71" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="H59" s="78" t="s">
+      <c r="H71" s="78" t="s">
         <v>374</v>
       </c>
-      <c r="I59" s="20" t="s">
+      <c r="I71" s="20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="14.25" thickBot="1">
-      <c r="F60" s="8"/>
-      <c r="G60" s="78"/>
-      <c r="H60" s="78"/>
-      <c r="I60" s="20"/>
-    </row>
-    <row r="65" spans="1:20" ht="14.25" thickBot="1"/>
-    <row r="66" spans="1:20" ht="14.25" thickBot="1">
-      <c r="A66" s="106" t="s">
+    <row r="72" spans="1:10" ht="14.25" thickBot="1">
+      <c r="F72" s="8"/>
+      <c r="G72" s="78"/>
+      <c r="H72" s="78"/>
+      <c r="I72" s="20"/>
+    </row>
+    <row r="77" spans="1:10" ht="14.25" thickBot="1"/>
+    <row r="78" spans="1:10" ht="14.25" thickBot="1">
+      <c r="A78" s="107" t="s">
         <v>317</v>
       </c>
-      <c r="B66" s="107"/>
-      <c r="C66" s="107"/>
-      <c r="D66" s="108"/>
-      <c r="F66" s="89" t="s">
+      <c r="B78" s="108"/>
+      <c r="C78" s="108"/>
+      <c r="D78" s="109"/>
+      <c r="F78" s="90" t="s">
         <v>235</v>
       </c>
-      <c r="G66" s="90"/>
-      <c r="H66" s="90"/>
-      <c r="I66" s="91"/>
-    </row>
-    <row r="67" spans="1:20">
-      <c r="A67" s="89" t="s">
+      <c r="G78" s="91"/>
+      <c r="H78" s="91"/>
+      <c r="I78" s="92"/>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" s="90" t="s">
         <v>233</v>
       </c>
-      <c r="B67" s="90"/>
-      <c r="C67" s="90"/>
-      <c r="D67" s="91"/>
-      <c r="E67">
+      <c r="B79" s="91"/>
+      <c r="C79" s="91"/>
+      <c r="D79" s="92"/>
+      <c r="E79">
         <v>2001</v>
       </c>
-      <c r="F67" s="92" t="s">
+      <c r="F79" s="93" t="s">
         <v>236</v>
       </c>
-      <c r="G67" s="93"/>
-      <c r="H67" s="93"/>
-      <c r="I67" s="94"/>
-      <c r="J67">
+      <c r="G79" s="94"/>
+      <c r="H79" s="94"/>
+      <c r="I79" s="95"/>
+      <c r="J79">
         <v>2001</v>
       </c>
     </row>
-    <row r="68" spans="1:20">
-      <c r="A68" s="92" t="s">
+    <row r="80" spans="1:10">
+      <c r="A80" s="93" t="s">
         <v>234</v>
       </c>
-      <c r="B68" s="93"/>
-      <c r="C68" s="93"/>
-      <c r="D68" s="94"/>
-      <c r="F68" s="8" t="s">
+      <c r="B80" s="94"/>
+      <c r="C80" s="94"/>
+      <c r="D80" s="95"/>
+      <c r="F80" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="G68" s="76" t="s">
+      <c r="G80" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="H68" s="76" t="s">
+      <c r="H80" s="76" t="s">
         <v>240</v>
       </c>
-      <c r="I68" s="77" t="s">
+      <c r="I80" s="77" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="69" spans="1:20">
-      <c r="A69" s="8"/>
-      <c r="B69" s="76"/>
-      <c r="C69" s="15"/>
-      <c r="D69" s="77"/>
-      <c r="F69" s="8" t="s">
+    <row r="81" spans="1:20">
+      <c r="A81" s="8"/>
+      <c r="B81" s="76"/>
+      <c r="C81" s="15"/>
+      <c r="D81" s="77"/>
+      <c r="F81" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="G69" s="76" t="s">
+      <c r="G81" s="76" t="s">
         <v>243</v>
       </c>
-      <c r="H69" s="76" t="s">
+      <c r="H81" s="76" t="s">
         <v>244</v>
       </c>
-      <c r="I69" s="77" t="s">
+      <c r="I81" s="77" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="70" spans="1:20">
-      <c r="F70" s="8" t="s">
+    <row r="82" spans="1:20">
+      <c r="F82" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="G70" s="76" t="s">
+      <c r="G82" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="H70" s="76" t="s">
+      <c r="H82" s="76" t="s">
         <v>77</v>
       </c>
-      <c r="I70" s="77" t="s">
+      <c r="I82" s="77" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="71" spans="1:20">
-      <c r="F71" s="8" t="s">
+    <row r="83" spans="1:20">
+      <c r="F83" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="G71" s="76" t="s">
+      <c r="G83" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="H71" s="76" t="s">
+      <c r="H83" s="76" t="s">
         <v>259</v>
       </c>
-      <c r="I71" s="77" t="s">
+      <c r="I83" s="77" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:20">
-      <c r="E74" t="s">
+    <row r="86" spans="1:20">
+      <c r="E86" t="s">
         <v>230</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F86" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="75" spans="1:20">
-      <c r="A75" s="87" t="s">
+    <row r="87" spans="1:20">
+      <c r="A87" s="88" t="s">
         <v>250</v>
       </c>
-      <c r="B75" s="88"/>
-      <c r="E75" s="21" t="s">
+      <c r="B87" s="89"/>
+      <c r="E87" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="F75" s="21" t="s">
+      <c r="F87" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="G75" s="21" t="s">
+      <c r="G87" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="H75" s="21" t="s">
+      <c r="H87" s="21" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="76" spans="1:20" ht="40.5">
-      <c r="A76" s="22">
+    <row r="88" spans="1:20" ht="40.5">
+      <c r="A88" s="22">
         <v>0</v>
       </c>
-      <c r="B76" s="25" t="s">
+      <c r="B88" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="E76" s="59"/>
-      <c r="F76" s="58">
+      <c r="E88" s="59"/>
+      <c r="F88" s="58">
         <v>5</v>
       </c>
-      <c r="G76" s="32" t="s">
+      <c r="G88" s="32" t="s">
         <v>267</v>
       </c>
-      <c r="H76" s="33" t="s">
+      <c r="H88" s="33" t="s">
         <v>380</v>
       </c>
-      <c r="L76" s="65"/>
-      <c r="M76" s="66"/>
-      <c r="N76" s="66"/>
-      <c r="O76" s="62"/>
-      <c r="P76" s="66"/>
-      <c r="Q76" s="66"/>
-      <c r="R76" s="66"/>
-      <c r="S76" s="66"/>
-      <c r="T76" s="67"/>
-    </row>
-    <row r="77" spans="1:20" ht="27">
-      <c r="A77" s="22">
+      <c r="L88" s="65"/>
+      <c r="M88" s="66"/>
+      <c r="N88" s="66"/>
+      <c r="O88" s="62"/>
+      <c r="P88" s="66"/>
+      <c r="Q88" s="66"/>
+      <c r="R88" s="66"/>
+      <c r="S88" s="66"/>
+      <c r="T88" s="67"/>
+    </row>
+    <row r="89" spans="1:20" ht="27">
+      <c r="A89" s="22">
         <v>1</v>
       </c>
-      <c r="B77" s="25" t="s">
+      <c r="B89" s="25" t="s">
         <v>232</v>
       </c>
-      <c r="E77" s="57"/>
-      <c r="F77" s="58">
+      <c r="E89" s="57"/>
+      <c r="F89" s="58">
         <v>6</v>
       </c>
-      <c r="G77" s="32" t="s">
+      <c r="G89" s="32" t="s">
         <v>379</v>
       </c>
-      <c r="H77" s="33" t="s">
+      <c r="H89" s="33" t="s">
         <v>381</v>
       </c>
-      <c r="L77" s="65"/>
-      <c r="M77" s="66"/>
-      <c r="N77" s="66"/>
-      <c r="O77" s="62"/>
-      <c r="P77" s="66"/>
-      <c r="Q77" s="66"/>
-      <c r="R77" s="66"/>
-      <c r="S77" s="66"/>
-      <c r="T77" s="67"/>
-    </row>
-    <row r="78" spans="1:20">
-      <c r="A78" s="22">
+      <c r="L89" s="65"/>
+      <c r="M89" s="66"/>
+      <c r="N89" s="66"/>
+      <c r="O89" s="62"/>
+      <c r="P89" s="66"/>
+      <c r="Q89" s="66"/>
+      <c r="R89" s="66"/>
+      <c r="S89" s="66"/>
+      <c r="T89" s="67"/>
+    </row>
+    <row r="90" spans="1:20">
+      <c r="A90" s="22">
         <v>2</v>
       </c>
-      <c r="B78" s="25" t="s">
+      <c r="B90" s="25" t="s">
         <v>249</v>
       </c>
-      <c r="E78" s="57"/>
-      <c r="F78" s="58"/>
-      <c r="G78" s="32"/>
-      <c r="H78" s="33"/>
-      <c r="L78" s="65"/>
-      <c r="M78" s="66"/>
-      <c r="N78" s="66"/>
-      <c r="O78" s="62"/>
-      <c r="P78" s="66"/>
-      <c r="Q78" s="66"/>
-      <c r="R78" s="66"/>
-      <c r="S78" s="66"/>
-      <c r="T78" s="67"/>
-    </row>
-    <row r="79" spans="1:20" ht="27">
-      <c r="E79" s="57"/>
-      <c r="F79" s="58">
+      <c r="E90" s="57"/>
+      <c r="F90" s="58"/>
+      <c r="G90" s="32"/>
+      <c r="H90" s="33"/>
+      <c r="L90" s="65"/>
+      <c r="M90" s="66"/>
+      <c r="N90" s="66"/>
+      <c r="O90" s="62"/>
+      <c r="P90" s="66"/>
+      <c r="Q90" s="66"/>
+      <c r="R90" s="66"/>
+      <c r="S90" s="66"/>
+      <c r="T90" s="67"/>
+    </row>
+    <row r="91" spans="1:20" ht="27">
+      <c r="E91" s="57"/>
+      <c r="F91" s="58">
         <v>201</v>
       </c>
-      <c r="G79" s="32" t="s">
+      <c r="G91" s="32" t="s">
         <v>247</v>
       </c>
-      <c r="H79" s="33" t="s">
+      <c r="H91" s="33" t="s">
         <v>251</v>
       </c>
-      <c r="L79" s="65"/>
-      <c r="M79" s="66"/>
-      <c r="N79" s="66"/>
-      <c r="O79" s="61"/>
-      <c r="P79" s="66"/>
-      <c r="Q79" s="61"/>
-      <c r="R79" s="66"/>
-      <c r="S79" s="66"/>
-      <c r="T79" s="67"/>
-    </row>
-    <row r="80" spans="1:20" ht="27">
-      <c r="E80" s="59" t="s">
+      <c r="L91" s="65"/>
+      <c r="M91" s="66"/>
+      <c r="N91" s="66"/>
+      <c r="O91" s="61"/>
+      <c r="P91" s="66"/>
+      <c r="Q91" s="61"/>
+      <c r="R91" s="66"/>
+      <c r="S91" s="66"/>
+      <c r="T91" s="67"/>
+    </row>
+    <row r="92" spans="1:20" ht="27">
+      <c r="E92" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="F80" s="58">
+      <c r="F92" s="58">
         <v>202</v>
       </c>
-      <c r="G80" s="32" t="s">
+      <c r="G92" s="32" t="s">
         <v>252</v>
       </c>
-      <c r="H80" s="57" t="s">
+      <c r="H92" s="57" t="s">
         <v>253</v>
       </c>
-      <c r="L80" s="65"/>
-      <c r="M80" s="66"/>
-      <c r="N80" s="66"/>
-      <c r="O80" s="63"/>
-      <c r="P80" s="60">
+      <c r="L92" s="65"/>
+      <c r="M92" s="66"/>
+      <c r="N92" s="66"/>
+      <c r="O92" s="63"/>
+      <c r="P92" s="60">
         <v>1</v>
       </c>
-      <c r="Q80" s="64"/>
-      <c r="R80" s="66"/>
-      <c r="S80" s="66"/>
-      <c r="T80" s="67"/>
-    </row>
-    <row r="81" spans="5:20" ht="27">
-      <c r="E81" s="59" t="s">
+      <c r="Q92" s="64"/>
+      <c r="R92" s="66"/>
+      <c r="S92" s="66"/>
+      <c r="T92" s="67"/>
+    </row>
+    <row r="93" spans="1:20" ht="27">
+      <c r="E93" s="59" t="s">
         <v>262</v>
       </c>
-      <c r="F81" s="58">
+      <c r="F93" s="58">
         <v>203</v>
       </c>
-      <c r="G81" s="32" t="s">
+      <c r="G93" s="32" t="s">
         <v>254</v>
       </c>
-      <c r="H81" s="57" t="s">
+      <c r="H93" s="57" t="s">
         <v>256</v>
       </c>
-      <c r="L81" s="65"/>
-      <c r="M81" s="66"/>
-      <c r="N81" s="66"/>
-      <c r="O81" s="66"/>
-      <c r="P81" s="66"/>
-      <c r="Q81" s="66"/>
-      <c r="R81" s="74">
+      <c r="L93" s="65"/>
+      <c r="M93" s="66"/>
+      <c r="N93" s="66"/>
+      <c r="O93" s="66"/>
+      <c r="P93" s="66"/>
+      <c r="Q93" s="66"/>
+      <c r="R93" s="74">
         <v>4</v>
       </c>
-      <c r="S81" s="66"/>
-      <c r="T81" s="67"/>
-    </row>
-    <row r="82" spans="5:20" ht="27">
-      <c r="E82" s="57"/>
-      <c r="F82" s="58">
+      <c r="S93" s="66"/>
+      <c r="T93" s="67"/>
+    </row>
+    <row r="94" spans="1:20" ht="27">
+      <c r="E94" s="57"/>
+      <c r="F94" s="58">
         <v>204</v>
       </c>
-      <c r="G82" s="32" t="s">
+      <c r="G94" s="32" t="s">
         <v>255</v>
       </c>
-      <c r="H82" s="57" t="s">
+      <c r="H94" s="57" t="s">
         <v>257</v>
       </c>
-      <c r="L82" s="65"/>
-      <c r="M82" s="74">
+      <c r="L94" s="65"/>
+      <c r="M94" s="74">
         <v>3</v>
       </c>
-      <c r="N82" s="66"/>
-      <c r="O82" s="71"/>
-      <c r="P82" s="72">
+      <c r="N94" s="66"/>
+      <c r="O94" s="71"/>
+      <c r="P94" s="72">
         <v>2</v>
       </c>
-      <c r="Q82" s="72"/>
-      <c r="R82" s="73"/>
-      <c r="S82" s="66"/>
-      <c r="T82" s="67"/>
-    </row>
-    <row r="83" spans="5:20" ht="27">
-      <c r="E83" s="57"/>
-      <c r="F83" s="58">
+      <c r="Q94" s="72"/>
+      <c r="R94" s="73"/>
+      <c r="S94" s="66"/>
+      <c r="T94" s="67"/>
+    </row>
+    <row r="95" spans="1:20" ht="27">
+      <c r="E95" s="57"/>
+      <c r="F95" s="58">
         <v>211</v>
       </c>
-      <c r="G83" s="32" t="s">
+      <c r="G95" s="32" t="s">
         <v>258</v>
       </c>
-      <c r="H83" s="57" t="s">
+      <c r="H95" s="57" t="s">
         <v>260</v>
       </c>
-      <c r="L83" s="68"/>
-      <c r="M83" s="69"/>
-      <c r="N83" s="69"/>
-      <c r="O83" s="69"/>
-      <c r="P83" s="69"/>
-      <c r="Q83" s="69"/>
-      <c r="R83" s="69"/>
-      <c r="S83" s="69"/>
-      <c r="T83" s="70"/>
-    </row>
-    <row r="84" spans="5:20">
-      <c r="E84" s="57"/>
-      <c r="F84" s="58">
+      <c r="L95" s="68"/>
+      <c r="M95" s="69"/>
+      <c r="N95" s="69"/>
+      <c r="O95" s="69"/>
+      <c r="P95" s="69"/>
+      <c r="Q95" s="69"/>
+      <c r="R95" s="69"/>
+      <c r="S95" s="69"/>
+      <c r="T95" s="70"/>
+    </row>
+    <row r="96" spans="1:20">
+      <c r="E96" s="57"/>
+      <c r="F96" s="58">
         <v>212</v>
       </c>
-      <c r="G84" s="32" t="s">
+      <c r="G96" s="32" t="s">
         <v>269</v>
       </c>
-      <c r="H84" s="57" t="s">
+      <c r="H96" s="57" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="85" spans="5:20" ht="27">
-      <c r="E85" s="59"/>
-      <c r="F85" s="58">
+    <row r="97" spans="5:8" ht="27">
+      <c r="E97" s="59"/>
+      <c r="F97" s="58">
         <v>213</v>
       </c>
-      <c r="G85" s="32" t="s">
+      <c r="G97" s="32" t="s">
         <v>268</v>
       </c>
-      <c r="H85" s="57" t="s">
+      <c r="H97" s="57" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="86" spans="5:20" ht="27">
-      <c r="E86" s="59"/>
-      <c r="F86" s="58">
+    <row r="98" spans="5:8" ht="27">
+      <c r="E98" s="59"/>
+      <c r="F98" s="58">
         <v>214</v>
       </c>
-      <c r="G86" s="32" t="s">
+      <c r="G98" s="32" t="s">
         <v>270</v>
       </c>
-      <c r="H86" s="57" t="s">
+      <c r="H98" s="57" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="87" spans="5:20">
-      <c r="E87" s="59"/>
-      <c r="F87" s="58">
+    <row r="99" spans="5:8">
+      <c r="E99" s="59"/>
+      <c r="F99" s="58">
         <v>215</v>
       </c>
-      <c r="G87" s="57" t="s">
+      <c r="G99" s="57" t="s">
         <v>271</v>
       </c>
-      <c r="H87" s="57" t="s">
+      <c r="H99" s="57" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="88" spans="5:20" ht="27">
-      <c r="E88" s="59" t="s">
+    <row r="100" spans="5:8" ht="27">
+      <c r="E100" s="59" t="s">
         <v>282</v>
       </c>
-      <c r="F88" s="58">
+      <c r="F100" s="58">
         <v>220</v>
       </c>
-      <c r="G88" s="84" t="s">
+      <c r="G100" s="84" t="s">
         <v>345</v>
       </c>
-      <c r="H88" s="57" t="s">
+      <c r="H100" s="57" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="89" spans="5:20" ht="40.5">
-      <c r="E89" s="59" t="s">
+    <row r="101" spans="5:8" ht="40.5">
+      <c r="E101" s="59" t="s">
         <v>283</v>
       </c>
-      <c r="F89" s="58">
+      <c r="F101" s="58">
         <v>230</v>
       </c>
-      <c r="G89" s="84" t="s">
+      <c r="G101" s="84" t="s">
         <v>350</v>
       </c>
-      <c r="H89" s="57" t="s">
+      <c r="H101" s="57" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="90" spans="5:20" ht="40.5">
-      <c r="E90" s="59" t="s">
+    <row r="102" spans="5:8" ht="40.5">
+      <c r="E102" s="59" t="s">
         <v>280</v>
       </c>
-      <c r="F90" s="58">
+      <c r="F102" s="58">
         <v>240</v>
       </c>
-      <c r="G90" s="84" t="s">
+      <c r="G102" s="84" t="s">
         <v>351</v>
       </c>
-      <c r="H90" s="57" t="s">
+      <c r="H102" s="57" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="91" spans="5:20" ht="40.5">
-      <c r="E91" s="59"/>
-      <c r="F91" s="58">
+    <row r="103" spans="5:8" ht="40.5">
+      <c r="E103" s="59"/>
+      <c r="F103" s="58">
         <v>250</v>
       </c>
-      <c r="G91" s="84" t="s">
+      <c r="G103" s="84" t="s">
         <v>349</v>
       </c>
-      <c r="H91" s="57" t="s">
+      <c r="H103" s="57" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="92" spans="5:20">
-      <c r="E92" s="57"/>
-      <c r="F92" s="58">
+    <row r="104" spans="5:8">
+      <c r="E104" s="57"/>
+      <c r="F104" s="58">
         <v>280</v>
       </c>
-      <c r="G92" s="32"/>
-      <c r="H92" s="57"/>
-    </row>
-    <row r="93" spans="5:20">
-      <c r="E93" s="57"/>
-      <c r="F93" s="58"/>
-      <c r="G93" s="32"/>
-      <c r="H93" s="57"/>
-    </row>
-    <row r="94" spans="5:20">
-      <c r="E94" s="57"/>
-      <c r="F94" s="58"/>
-      <c r="G94" s="32"/>
-      <c r="H94" s="57"/>
+      <c r="G104" s="32"/>
+      <c r="H104" s="57"/>
+    </row>
+    <row r="105" spans="5:8">
+      <c r="E105" s="57"/>
+      <c r="F105" s="58"/>
+      <c r="G105" s="32"/>
+      <c r="H105" s="57"/>
+    </row>
+    <row r="106" spans="5:8">
+      <c r="E106" s="57"/>
+      <c r="F106" s="58"/>
+      <c r="G106" s="32"/>
+      <c r="H106" s="57"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="F54:I54"/>
-    <mergeCell ref="F55:I55"/>
-    <mergeCell ref="A75:B75"/>
+  <mergeCells count="36">
     <mergeCell ref="A66:D66"/>
     <mergeCell ref="A67:D67"/>
-    <mergeCell ref="A68:D68"/>
     <mergeCell ref="F66:I66"/>
     <mergeCell ref="F67:I67"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A79:D79"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="F78:I78"/>
+    <mergeCell ref="F79:I79"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="F4:I4"/>
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="F16:I16"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="A54:D54"/>
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="F17:I17"/>
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A43:D43"/>
-    <mergeCell ref="F43:I43"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F53:I53"/>
+    <mergeCell ref="F54:I54"/>
+    <mergeCell ref="F25:I25"/>
     <mergeCell ref="A50:D50"/>
     <mergeCell ref="A49:D49"/>
     <mergeCell ref="F32:I32"/>
@@ -8351,19 +8727,21 @@
     <mergeCell ref="A44:D44"/>
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="A47:D47"/>
+    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="F43:I43"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C7" location="参数说明!A1" display="选项附加值1"/>
     <hyperlink ref="H8" location="参数说明!A1" display="选项附加值1"/>
-    <hyperlink ref="G91" location="参数说明!A1" display="胡牌8"/>
+    <hyperlink ref="G103" location="参数说明!A1" display="胡牌8"/>
     <hyperlink ref="C37" location="参数说明!A1" display="状态位3"/>
     <hyperlink ref="C38" location="参数说明!A1" display="额外值4"/>
-    <hyperlink ref="G88" location="参数说明!A1" display="吃牌5"/>
-    <hyperlink ref="G89" location="参数说明!A1" display="杠6"/>
-    <hyperlink ref="G90" location="参数说明!A1" display="听牌7"/>
+    <hyperlink ref="G100" location="参数说明!A1" display="吃牌5"/>
+    <hyperlink ref="G101" location="参数说明!A1" display="杠6"/>
+    <hyperlink ref="G102" location="参数说明!A1" display="听牌7"/>
     <hyperlink ref="H12" location="参数说明!A1" display="游戏数据附加值2"/>
-    <hyperlink ref="H56" location="参数说明!A1" display="得分详情10"/>
+    <hyperlink ref="H68" location="参数说明!A1" display="得分详情10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -8481,32 +8859,32 @@
   <sheetData>
     <row r="10" spans="2:6" ht="14.25" thickBot="1"/>
     <row r="11" spans="2:6">
-      <c r="B11" s="89" t="s">
+      <c r="B11" s="90" t="s">
         <v>388</v>
       </c>
-      <c r="C11" s="90"/>
-      <c r="D11" s="90"/>
-      <c r="E11" s="91"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="92"/>
       <c r="F11">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="14.25" thickBot="1"/>
     <row r="13" spans="2:6">
-      <c r="B13" s="89" t="s">
+      <c r="B13" s="90" t="s">
         <v>389</v>
       </c>
-      <c r="C13" s="90"/>
-      <c r="D13" s="90"/>
-      <c r="E13" s="91"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="92"/>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="92" t="s">
+      <c r="B14" s="93" t="s">
         <v>387</v>
       </c>
-      <c r="C14" s="93"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="94"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="95"/>
     </row>
     <row r="15" spans="2:6" ht="14.25" thickBot="1">
       <c r="B15" s="8" t="s">

--- a/doc/最新接口_拟定.xlsx
+++ b/doc/最新接口_拟定.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="首标签" sheetId="1" r:id="rId1"/>
@@ -1079,7 +1079,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="401">
   <si>
     <t>int</t>
   </si>
@@ -3478,11 +3478,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3502,6 +3505,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3511,19 +3520,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3535,23 +3550,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3870,32 +3870,32 @@
   <sheetData>
     <row r="3" spans="2:16" ht="14.25" thickBot="1"/>
     <row r="4" spans="2:16">
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="91" t="s">
         <v>233</v>
       </c>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="92"/>
-      <c r="I4" s="90" t="s">
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="93"/>
+      <c r="I4" s="91" t="s">
         <v>235</v>
       </c>
-      <c r="J4" s="91"/>
-      <c r="K4" s="91"/>
-      <c r="L4" s="92"/>
+      <c r="J4" s="92"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="93"/>
     </row>
     <row r="5" spans="2:16">
-      <c r="B5" s="93" t="s">
+      <c r="B5" s="94" t="s">
         <v>234</v>
       </c>
-      <c r="C5" s="94"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="95"/>
-      <c r="I5" s="93" t="s">
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="96"/>
+      <c r="I5" s="94" t="s">
         <v>236</v>
       </c>
-      <c r="J5" s="94"/>
-      <c r="K5" s="94"/>
-      <c r="L5" s="95"/>
+      <c r="J5" s="95"/>
+      <c r="K5" s="95"/>
+      <c r="L5" s="96"/>
     </row>
     <row r="6" spans="2:16">
       <c r="B6" s="8"/>
@@ -3959,21 +3959,21 @@
     </row>
     <row r="11" spans="2:16" ht="14.25" customHeight="1"/>
     <row r="14" spans="2:16" ht="14.25" thickBot="1">
-      <c r="I14" s="99" t="s">
+      <c r="I14" s="88" t="s">
         <v>54</v>
       </c>
-      <c r="J14" s="100"/>
-      <c r="K14" s="100"/>
-      <c r="L14" s="100"/>
-      <c r="M14" s="101"/>
+      <c r="J14" s="89"/>
+      <c r="K14" s="89"/>
+      <c r="L14" s="89"/>
+      <c r="M14" s="90"/>
     </row>
     <row r="15" spans="2:16">
-      <c r="B15" s="90" t="s">
+      <c r="B15" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="91"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="92"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="93"/>
       <c r="I15" s="21" t="s">
         <v>34</v>
       </c>
@@ -3988,18 +3988,18 @@
         <v>34</v>
       </c>
       <c r="N15" s="3"/>
-      <c r="O15" s="88" t="s">
+      <c r="O15" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="P15" s="89"/>
+      <c r="P15" s="98"/>
     </row>
     <row r="16" spans="2:16">
-      <c r="B16" s="93" t="s">
+      <c r="B16" s="94" t="s">
         <v>234</v>
       </c>
-      <c r="C16" s="94"/>
-      <c r="D16" s="94"/>
-      <c r="E16" s="95"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="96"/>
       <c r="I16" s="33"/>
       <c r="J16" s="30"/>
       <c r="K16" s="31">
@@ -4497,12 +4497,12 @@
       <c r="P37" s="23"/>
     </row>
     <row r="38" spans="2:16">
-      <c r="B38" s="96" t="s">
+      <c r="B38" s="99" t="s">
         <v>263</v>
       </c>
-      <c r="C38" s="97"/>
-      <c r="D38" s="97"/>
-      <c r="E38" s="98"/>
+      <c r="C38" s="100"/>
+      <c r="D38" s="100"/>
+      <c r="E38" s="101"/>
       <c r="I38" s="33" t="s">
         <v>117</v>
       </c>
@@ -4584,18 +4584,18 @@
     <row r="42" spans="2:16" ht="22.5" customHeight="1"/>
     <row r="43" spans="2:16" ht="31.5" customHeight="1"/>
     <row r="44" spans="2:16">
-      <c r="H44" s="88" t="s">
+      <c r="H44" s="97" t="s">
         <v>248</v>
       </c>
-      <c r="I44" s="89"/>
-      <c r="J44" s="88" t="s">
+      <c r="I44" s="98"/>
+      <c r="J44" s="97" t="s">
         <v>116</v>
       </c>
-      <c r="K44" s="89"/>
-      <c r="L44" s="88" t="s">
+      <c r="K44" s="98"/>
+      <c r="L44" s="97" t="s">
         <v>77</v>
       </c>
-      <c r="M44" s="89"/>
+      <c r="M44" s="98"/>
     </row>
     <row r="45" spans="2:16">
       <c r="H45" s="22">
@@ -4711,11 +4711,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="I14:M14"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="I5:L5"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="J44:K44"/>
     <mergeCell ref="L44:M44"/>
@@ -4723,6 +4718,11 @@
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="H44:I44"/>
     <mergeCell ref="B38:E38"/>
+    <mergeCell ref="I14:M14"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="I5:L5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4916,11 +4916,11 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="4"/>
-      <c r="B10" s="107" t="s">
+      <c r="B10" s="106" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="108"/>
-      <c r="D10" s="109"/>
+      <c r="C10" s="107"/>
+      <c r="D10" s="108"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -4929,11 +4929,11 @@
       <c r="J10" s="4"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="107" t="s">
+      <c r="M10" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="N10" s="108"/>
-      <c r="O10" s="109"/>
+      <c r="N10" s="107"/>
+      <c r="O10" s="108"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -4943,11 +4943,11 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="4"/>
-      <c r="B11" s="104" t="s">
+      <c r="B11" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="105"/>
-      <c r="D11" s="106"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="111"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -4956,11 +4956,11 @@
       <c r="J11" s="4"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="104" t="s">
+      <c r="M11" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="N11" s="105"/>
-      <c r="O11" s="106"/>
+      <c r="N11" s="110"/>
+      <c r="O11" s="111"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -5081,11 +5081,11 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="4"/>
-      <c r="B17" s="107" t="s">
+      <c r="B17" s="106" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="108"/>
-      <c r="D17" s="109"/>
+      <c r="C17" s="107"/>
+      <c r="D17" s="108"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -5094,11 +5094,11 @@
       <c r="J17" s="4"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="107" t="s">
+      <c r="M17" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="N17" s="108"/>
-      <c r="O17" s="109"/>
+      <c r="N17" s="107"/>
+      <c r="O17" s="108"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -5107,11 +5107,11 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="4"/>
-      <c r="B18" s="104" t="s">
+      <c r="B18" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="105"/>
-      <c r="D18" s="106"/>
+      <c r="C18" s="110"/>
+      <c r="D18" s="111"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -5120,11 +5120,11 @@
       <c r="J18" s="4"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="104" t="s">
+      <c r="M18" s="109" t="s">
         <v>129</v>
       </c>
-      <c r="N18" s="105"/>
-      <c r="O18" s="106"/>
+      <c r="N18" s="110"/>
+      <c r="O18" s="111"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -5164,9 +5164,9 @@
     </row>
     <row r="20" spans="1:21" ht="41.25" thickBot="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="107"/>
-      <c r="C20" s="108"/>
-      <c r="D20" s="109"/>
+      <c r="B20" s="106"/>
+      <c r="C20" s="107"/>
+      <c r="D20" s="108"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -5195,11 +5195,11 @@
     </row>
     <row r="21" spans="1:21" ht="14.25" thickBot="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="104" t="s">
+      <c r="B21" s="109" t="s">
         <v>129</v>
       </c>
-      <c r="C21" s="105"/>
-      <c r="D21" s="106"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="111"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -5266,11 +5266,11 @@
       <c r="J23" s="4"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="107" t="s">
+      <c r="M23" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="N23" s="108"/>
-      <c r="O23" s="109"/>
+      <c r="N23" s="107"/>
+      <c r="O23" s="108"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
@@ -5291,11 +5291,11 @@
       <c r="J24" s="4"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-      <c r="M24" s="104" t="s">
+      <c r="M24" s="109" t="s">
         <v>69</v>
       </c>
-      <c r="N24" s="105"/>
-      <c r="O24" s="106"/>
+      <c r="N24" s="110"/>
+      <c r="O24" s="111"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
@@ -5428,11 +5428,11 @@
       <c r="J29" s="4"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
-      <c r="M29" s="107" t="s">
+      <c r="M29" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="N29" s="108"/>
-      <c r="O29" s="109"/>
+      <c r="N29" s="107"/>
+      <c r="O29" s="108"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
@@ -5453,11 +5453,11 @@
       <c r="J30" s="4"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="104" t="s">
+      <c r="M30" s="109" t="s">
         <v>69</v>
       </c>
-      <c r="N30" s="105"/>
-      <c r="O30" s="106"/>
+      <c r="N30" s="110"/>
+      <c r="O30" s="111"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
@@ -5613,11 +5613,11 @@
       <c r="J36" s="4"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
-      <c r="M36" s="107" t="s">
+      <c r="M36" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="N36" s="108"/>
-      <c r="O36" s="109"/>
+      <c r="N36" s="107"/>
+      <c r="O36" s="108"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
@@ -5638,11 +5638,11 @@
       <c r="J37" s="4"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
-      <c r="M37" s="104" t="s">
+      <c r="M37" s="109" t="s">
         <v>69</v>
       </c>
-      <c r="N37" s="105"/>
-      <c r="O37" s="106"/>
+      <c r="N37" s="110"/>
+      <c r="O37" s="111"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
@@ -5821,14 +5821,14 @@
       <c r="J44" s="4"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
-      <c r="M44" s="107" t="s">
+      <c r="M44" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="N44" s="108"/>
-      <c r="O44" s="108"/>
-      <c r="P44" s="108"/>
-      <c r="Q44" s="108"/>
-      <c r="R44" s="109"/>
+      <c r="N44" s="107"/>
+      <c r="O44" s="107"/>
+      <c r="P44" s="107"/>
+      <c r="Q44" s="107"/>
+      <c r="R44" s="108"/>
       <c r="S44" s="2"/>
       <c r="T44" s="3"/>
       <c r="U44" s="3"/>
@@ -5846,14 +5846,14 @@
       <c r="J45" s="4"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
-      <c r="M45" s="104" t="s">
+      <c r="M45" s="109" t="s">
         <v>279</v>
       </c>
-      <c r="N45" s="105"/>
-      <c r="O45" s="105"/>
-      <c r="P45" s="105"/>
-      <c r="Q45" s="105"/>
-      <c r="R45" s="106"/>
+      <c r="N45" s="110"/>
+      <c r="O45" s="110"/>
+      <c r="P45" s="110"/>
+      <c r="Q45" s="110"/>
+      <c r="R45" s="111"/>
       <c r="S45" s="2"/>
       <c r="T45" s="3"/>
       <c r="U45" s="3"/>
@@ -5880,11 +5880,11 @@
       <c r="O46" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="P46" s="110" t="s">
+      <c r="P46" s="112" t="s">
         <v>130</v>
       </c>
-      <c r="Q46" s="110"/>
-      <c r="R46" s="111"/>
+      <c r="Q46" s="112"/>
+      <c r="R46" s="113"/>
       <c r="S46" s="2"/>
       <c r="T46" s="3"/>
       <c r="U46" s="3"/>
@@ -5911,22 +5911,22 @@
       <c r="O47" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="P47" s="110" t="s">
+      <c r="P47" s="112" t="s">
         <v>149</v>
       </c>
-      <c r="Q47" s="110"/>
-      <c r="R47" s="111"/>
+      <c r="Q47" s="112"/>
+      <c r="R47" s="113"/>
       <c r="S47" s="2"/>
       <c r="T47" s="3"/>
       <c r="U47" s="3"/>
     </row>
     <row r="48" spans="1:21">
       <c r="A48" s="1"/>
-      <c r="B48" s="107" t="s">
+      <c r="B48" s="106" t="s">
         <v>114</v>
       </c>
-      <c r="C48" s="108"/>
-      <c r="D48" s="109"/>
+      <c r="C48" s="107"/>
+      <c r="D48" s="108"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -5944,22 +5944,22 @@
       <c r="O48" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P48" s="110" t="s">
+      <c r="P48" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="Q48" s="110"/>
-      <c r="R48" s="111"/>
+      <c r="Q48" s="112"/>
+      <c r="R48" s="113"/>
       <c r="S48" s="2"/>
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
     </row>
     <row r="49" spans="1:21">
       <c r="A49" s="1"/>
-      <c r="B49" s="104" t="s">
+      <c r="B49" s="109" t="s">
         <v>112</v>
       </c>
-      <c r="C49" s="105"/>
-      <c r="D49" s="106"/>
+      <c r="C49" s="110"/>
+      <c r="D49" s="111"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -6016,11 +6016,11 @@
       <c r="O50" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P50" s="110" t="s">
+      <c r="P50" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="Q50" s="110"/>
-      <c r="R50" s="111"/>
+      <c r="Q50" s="112"/>
+      <c r="R50" s="113"/>
       <c r="S50" s="2"/>
       <c r="T50" s="3"/>
       <c r="U50" s="3"/>
@@ -6047,11 +6047,11 @@
       <c r="O51" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="P51" s="110" t="s">
+      <c r="P51" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="Q51" s="110"/>
-      <c r="R51" s="111"/>
+      <c r="Q51" s="112"/>
+      <c r="R51" s="113"/>
       <c r="S51" s="2"/>
       <c r="T51" s="3"/>
       <c r="U51" s="3"/>
@@ -6109,11 +6109,11 @@
       <c r="O53" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="P53" s="110" t="s">
+      <c r="P53" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="Q53" s="110"/>
-      <c r="R53" s="111"/>
+      <c r="Q53" s="112"/>
+      <c r="R53" s="113"/>
       <c r="S53" s="2"/>
       <c r="T53" s="3"/>
       <c r="U53" s="3"/>
@@ -6278,13 +6278,13 @@
       <c r="J59" s="4"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
-      <c r="M59" s="107" t="s">
+      <c r="M59" s="106" t="s">
         <v>136</v>
       </c>
-      <c r="N59" s="108"/>
-      <c r="O59" s="108"/>
-      <c r="P59" s="108"/>
-      <c r="Q59" s="109"/>
+      <c r="N59" s="107"/>
+      <c r="O59" s="107"/>
+      <c r="P59" s="107"/>
+      <c r="Q59" s="108"/>
       <c r="R59" s="1"/>
       <c r="S59" s="2"/>
       <c r="T59" s="3"/>
@@ -6312,10 +6312,10 @@
       <c r="O60" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="P60" s="102" t="s">
+      <c r="P60" s="104" t="s">
         <v>137</v>
       </c>
-      <c r="Q60" s="103"/>
+      <c r="Q60" s="105"/>
       <c r="R60" s="1"/>
       <c r="S60" s="2"/>
       <c r="T60" s="3"/>
@@ -6343,10 +6343,10 @@
       <c r="O61" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="P61" s="102" t="s">
+      <c r="P61" s="104" t="s">
         <v>140</v>
       </c>
-      <c r="Q61" s="103"/>
+      <c r="Q61" s="105"/>
       <c r="R61" s="1"/>
       <c r="S61" s="2"/>
       <c r="T61" s="3"/>
@@ -6374,10 +6374,10 @@
       <c r="O62" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="P62" s="102" t="s">
+      <c r="P62" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="Q62" s="103"/>
+      <c r="Q62" s="105"/>
       <c r="R62" s="1"/>
       <c r="S62" s="2"/>
       <c r="T62" s="3"/>
@@ -6405,10 +6405,10 @@
       <c r="O63" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P63" s="112" t="s">
+      <c r="P63" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="Q63" s="113"/>
+      <c r="Q63" s="103"/>
       <c r="R63" s="1"/>
       <c r="S63" s="2"/>
       <c r="T63" s="3"/>
@@ -6436,10 +6436,10 @@
       <c r="O64" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P64" s="102" t="s">
+      <c r="P64" s="104" t="s">
         <v>161</v>
       </c>
-      <c r="Q64" s="103"/>
+      <c r="Q64" s="105"/>
       <c r="R64" s="1"/>
       <c r="S64" s="2"/>
       <c r="T64" s="3"/>
@@ -6467,10 +6467,10 @@
       <c r="O65" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="P65" s="102" t="s">
+      <c r="P65" s="104" t="s">
         <v>60</v>
       </c>
-      <c r="Q65" s="103"/>
+      <c r="Q65" s="105"/>
       <c r="R65" s="1"/>
       <c r="S65" s="2"/>
       <c r="T65" s="3"/>
@@ -6498,10 +6498,10 @@
       <c r="O66" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P66" s="102" t="s">
+      <c r="P66" s="104" t="s">
         <v>218</v>
       </c>
-      <c r="Q66" s="103"/>
+      <c r="Q66" s="105"/>
       <c r="R66" s="1"/>
       <c r="S66" s="2"/>
       <c r="T66" s="3"/>
@@ -6529,10 +6529,10 @@
       <c r="O67" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P67" s="102" t="s">
+      <c r="P67" s="104" t="s">
         <v>217</v>
       </c>
-      <c r="Q67" s="103"/>
+      <c r="Q67" s="105"/>
       <c r="R67" s="1"/>
       <c r="S67" s="1"/>
       <c r="T67" s="3"/>
@@ -6574,13 +6574,13 @@
       <c r="J69" s="4"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
-      <c r="M69" s="107" t="s">
+      <c r="M69" s="106" t="s">
         <v>176</v>
       </c>
-      <c r="N69" s="108"/>
-      <c r="O69" s="108"/>
-      <c r="P69" s="108"/>
-      <c r="Q69" s="109"/>
+      <c r="N69" s="107"/>
+      <c r="O69" s="107"/>
+      <c r="P69" s="107"/>
+      <c r="Q69" s="108"/>
       <c r="R69" s="1"/>
       <c r="S69" s="1"/>
       <c r="T69" s="3"/>
@@ -6599,13 +6599,13 @@
       <c r="J70" s="4"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
-      <c r="M70" s="107" t="s">
+      <c r="M70" s="106" t="s">
         <v>177</v>
       </c>
-      <c r="N70" s="108"/>
-      <c r="O70" s="108"/>
-      <c r="P70" s="108"/>
-      <c r="Q70" s="109"/>
+      <c r="N70" s="107"/>
+      <c r="O70" s="107"/>
+      <c r="P70" s="107"/>
+      <c r="Q70" s="108"/>
       <c r="R70" s="1"/>
       <c r="S70" s="1"/>
       <c r="T70" s="3"/>
@@ -6633,10 +6633,10 @@
       <c r="O71" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="P71" s="112" t="s">
+      <c r="P71" s="102" t="s">
         <v>201</v>
       </c>
-      <c r="Q71" s="113"/>
+      <c r="Q71" s="103"/>
       <c r="R71" s="1"/>
       <c r="S71" s="1"/>
       <c r="T71" s="3"/>
@@ -6664,10 +6664,10 @@
       <c r="O72" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="P72" s="112" t="s">
+      <c r="P72" s="102" t="s">
         <v>193</v>
       </c>
-      <c r="Q72" s="113"/>
+      <c r="Q72" s="103"/>
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
       <c r="T72" s="3"/>
@@ -6695,10 +6695,10 @@
       <c r="O73" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="P73" s="112" t="s">
+      <c r="P73" s="102" t="s">
         <v>190</v>
       </c>
-      <c r="Q73" s="113"/>
+      <c r="Q73" s="103"/>
       <c r="R73" s="1"/>
       <c r="S73" s="1"/>
       <c r="T73" s="3"/>
@@ -6755,10 +6755,10 @@
       <c r="O75" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P75" s="102" t="s">
+      <c r="P75" s="104" t="s">
         <v>219</v>
       </c>
-      <c r="Q75" s="103"/>
+      <c r="Q75" s="105"/>
       <c r="R75" s="1"/>
       <c r="S75" s="1"/>
       <c r="T75" s="3"/>
@@ -6786,10 +6786,10 @@
       <c r="O76" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P76" s="102" t="s">
+      <c r="P76" s="104" t="s">
         <v>220</v>
       </c>
-      <c r="Q76" s="103"/>
+      <c r="Q76" s="105"/>
       <c r="R76" s="1"/>
       <c r="S76" s="1"/>
       <c r="T76" s="3"/>
@@ -6831,11 +6831,11 @@
       <c r="J78" s="4"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
-      <c r="M78" s="104" t="s">
+      <c r="M78" s="109" t="s">
         <v>191</v>
       </c>
-      <c r="N78" s="105"/>
-      <c r="O78" s="106"/>
+      <c r="N78" s="110"/>
+      <c r="O78" s="111"/>
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
       <c r="R78" s="1"/>
@@ -6937,11 +6937,11 @@
       <c r="J82" s="4"/>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
-      <c r="M82" s="104" t="s">
+      <c r="M82" s="109" t="s">
         <v>183</v>
       </c>
-      <c r="N82" s="105"/>
-      <c r="O82" s="106"/>
+      <c r="N82" s="110"/>
+      <c r="O82" s="111"/>
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
       <c r="R82" s="1"/>
@@ -7452,6 +7452,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="M78:O78"/>
+    <mergeCell ref="M82:O82"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="M59:Q59"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P51:R51"/>
+    <mergeCell ref="P53:R53"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="M44:R44"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="M45:R45"/>
+    <mergeCell ref="P46:R46"/>
+    <mergeCell ref="P47:R47"/>
+    <mergeCell ref="P48:R48"/>
+    <mergeCell ref="P50:R50"/>
     <mergeCell ref="P63:Q63"/>
     <mergeCell ref="P66:Q66"/>
     <mergeCell ref="B48:D48"/>
@@ -7468,34 +7496,6 @@
     <mergeCell ref="P60:Q60"/>
     <mergeCell ref="P62:Q62"/>
     <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="M45:R45"/>
-    <mergeCell ref="P46:R46"/>
-    <mergeCell ref="P47:R47"/>
-    <mergeCell ref="P48:R48"/>
-    <mergeCell ref="P50:R50"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="M44:R44"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="M78:O78"/>
-    <mergeCell ref="M82:O82"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="M59:Q59"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P51:R51"/>
-    <mergeCell ref="P53:R53"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="M29:O29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7507,8 +7507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:T106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="H60" sqref="H60"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7524,32 +7524,32 @@
   <sheetData>
     <row r="2" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="3" spans="1:10">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="91" t="s">
         <v>288</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="92"/>
-      <c r="F3" s="90" t="s">
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="93"/>
+      <c r="F3" s="91" t="s">
         <v>299</v>
       </c>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="93"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="94" t="s">
         <v>289</v>
       </c>
-      <c r="B4" s="94"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="95"/>
-      <c r="F4" s="93" t="s">
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="96"/>
+      <c r="F4" s="94" t="s">
         <v>292</v>
       </c>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="96"/>
     </row>
     <row r="5" spans="1:10" ht="14.25" thickBot="1">
       <c r="A5" s="8" t="s">
@@ -7707,32 +7707,32 @@
     </row>
     <row r="15" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="16" spans="1:10">
-      <c r="A16" s="90" t="s">
+      <c r="A16" s="91" t="s">
         <v>286</v>
       </c>
-      <c r="B16" s="91"/>
-      <c r="C16" s="91"/>
-      <c r="D16" s="92"/>
-      <c r="F16" s="90" t="s">
+      <c r="B16" s="92"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="93"/>
+      <c r="F16" s="91" t="s">
         <v>286</v>
       </c>
-      <c r="G16" s="91"/>
-      <c r="H16" s="91"/>
-      <c r="I16" s="92"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="93"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="93" t="s">
+      <c r="A17" s="94" t="s">
         <v>287</v>
       </c>
-      <c r="B17" s="94"/>
-      <c r="C17" s="94"/>
-      <c r="D17" s="95"/>
-      <c r="F17" s="93" t="s">
+      <c r="B17" s="95"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="96"/>
+      <c r="F17" s="94" t="s">
         <v>390</v>
       </c>
-      <c r="G17" s="94"/>
-      <c r="H17" s="94"/>
-      <c r="I17" s="95"/>
+      <c r="G17" s="95"/>
+      <c r="H17" s="95"/>
+      <c r="I17" s="96"/>
       <c r="J17">
         <v>1002</v>
       </c>
@@ -7782,20 +7782,20 @@
     </row>
     <row r="23" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="24" spans="1:10">
-      <c r="F24" s="90" t="s">
+      <c r="F24" s="91" t="s">
         <v>312</v>
       </c>
-      <c r="G24" s="91"/>
-      <c r="H24" s="91"/>
-      <c r="I24" s="92"/>
+      <c r="G24" s="92"/>
+      <c r="H24" s="92"/>
+      <c r="I24" s="93"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="F25" s="93" t="s">
+      <c r="F25" s="94" t="s">
         <v>313</v>
       </c>
-      <c r="G25" s="94"/>
-      <c r="H25" s="94"/>
-      <c r="I25" s="95"/>
+      <c r="G25" s="95"/>
+      <c r="H25" s="95"/>
+      <c r="I25" s="96"/>
     </row>
     <row r="26" spans="1:10">
       <c r="F26" s="8" t="s">
@@ -7816,33 +7816,33 @@
     </row>
     <row r="31" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="32" spans="1:10">
-      <c r="A32" s="90" t="s">
+      <c r="A32" s="91" t="s">
         <v>293</v>
       </c>
-      <c r="B32" s="91"/>
-      <c r="C32" s="91"/>
-      <c r="D32" s="92"/>
-      <c r="F32" s="90" t="s">
+      <c r="B32" s="92"/>
+      <c r="C32" s="92"/>
+      <c r="D32" s="93"/>
+      <c r="F32" s="91" t="s">
         <v>321</v>
       </c>
-      <c r="G32" s="91"/>
-      <c r="H32" s="91"/>
-      <c r="I32" s="92"/>
+      <c r="G32" s="92"/>
+      <c r="H32" s="92"/>
+      <c r="I32" s="93"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="93" t="s">
+      <c r="A33" s="94" t="s">
         <v>295</v>
       </c>
-      <c r="B33" s="94"/>
-      <c r="C33" s="94"/>
-      <c r="D33" s="95"/>
+      <c r="B33" s="95"/>
+      <c r="C33" s="95"/>
+      <c r="D33" s="96"/>
       <c r="E33" s="80"/>
-      <c r="F33" s="93" t="s">
+      <c r="F33" s="94" t="s">
         <v>322</v>
       </c>
-      <c r="G33" s="94"/>
-      <c r="H33" s="94"/>
-      <c r="I33" s="95"/>
+      <c r="G33" s="95"/>
+      <c r="H33" s="95"/>
+      <c r="I33" s="96"/>
     </row>
     <row r="34" spans="1:10" ht="14.25" thickBot="1">
       <c r="A34" s="8" t="s">
@@ -7953,35 +7953,35 @@
     </row>
     <row r="42" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="43" spans="1:10">
-      <c r="A43" s="90" t="s">
+      <c r="A43" s="91" t="s">
         <v>306</v>
       </c>
-      <c r="B43" s="91"/>
-      <c r="C43" s="91"/>
-      <c r="D43" s="92"/>
-      <c r="F43" s="90" t="s">
+      <c r="B43" s="92"/>
+      <c r="C43" s="92"/>
+      <c r="D43" s="93"/>
+      <c r="F43" s="91" t="s">
         <v>392</v>
       </c>
-      <c r="G43" s="91"/>
-      <c r="H43" s="91"/>
-      <c r="I43" s="92"/>
+      <c r="G43" s="92"/>
+      <c r="H43" s="92"/>
+      <c r="I43" s="93"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="93" t="s">
+      <c r="A44" s="94" t="s">
         <v>307</v>
       </c>
-      <c r="B44" s="94"/>
-      <c r="C44" s="94"/>
-      <c r="D44" s="95"/>
+      <c r="B44" s="95"/>
+      <c r="C44" s="95"/>
+      <c r="D44" s="96"/>
       <c r="E44">
         <v>1003</v>
       </c>
-      <c r="F44" s="93" t="s">
+      <c r="F44" s="94" t="s">
         <v>391</v>
       </c>
-      <c r="G44" s="94"/>
-      <c r="H44" s="94"/>
-      <c r="I44" s="95"/>
+      <c r="G44" s="95"/>
+      <c r="H44" s="95"/>
+      <c r="I44" s="96"/>
       <c r="J44">
         <v>1003</v>
       </c>
@@ -8001,40 +8001,40 @@
       </c>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="90" t="s">
+      <c r="A46" s="91" t="s">
         <v>310</v>
       </c>
-      <c r="B46" s="91"/>
-      <c r="C46" s="91"/>
-      <c r="D46" s="92"/>
+      <c r="B46" s="92"/>
+      <c r="C46" s="92"/>
+      <c r="D46" s="93"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="93" t="s">
+      <c r="A47" s="94" t="s">
         <v>311</v>
       </c>
-      <c r="B47" s="94"/>
-      <c r="C47" s="94"/>
-      <c r="D47" s="95"/>
+      <c r="B47" s="95"/>
+      <c r="C47" s="95"/>
+      <c r="D47" s="96"/>
       <c r="E47">
         <v>1004</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="49" spans="1:9">
-      <c r="A49" s="107" t="s">
+      <c r="A49" s="106" t="s">
         <v>315</v>
       </c>
-      <c r="B49" s="108"/>
-      <c r="C49" s="108"/>
-      <c r="D49" s="109"/>
+      <c r="B49" s="107"/>
+      <c r="C49" s="107"/>
+      <c r="D49" s="108"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="104" t="s">
+      <c r="A50" s="109" t="s">
         <v>316</v>
       </c>
-      <c r="B50" s="105"/>
-      <c r="C50" s="105"/>
-      <c r="D50" s="106"/>
+      <c r="B50" s="110"/>
+      <c r="C50" s="110"/>
+      <c r="D50" s="111"/>
       <c r="E50">
         <v>1005</v>
       </c>
@@ -8042,32 +8042,32 @@
     <row r="51" spans="1:9" ht="12.75" customHeight="1"/>
     <row r="52" spans="1:9" ht="13.5" customHeight="1" thickBot="1"/>
     <row r="53" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A53" s="90" t="s">
+      <c r="A53" s="91" t="s">
         <v>393</v>
       </c>
-      <c r="B53" s="91"/>
-      <c r="C53" s="91"/>
-      <c r="D53" s="92"/>
-      <c r="F53" s="90" t="s">
+      <c r="B53" s="92"/>
+      <c r="C53" s="92"/>
+      <c r="D53" s="93"/>
+      <c r="F53" s="91" t="s">
         <v>393</v>
       </c>
-      <c r="G53" s="91"/>
-      <c r="H53" s="91"/>
-      <c r="I53" s="92"/>
+      <c r="G53" s="92"/>
+      <c r="H53" s="92"/>
+      <c r="I53" s="93"/>
     </row>
     <row r="54" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A54" s="93" t="s">
+      <c r="A54" s="94" t="s">
         <v>398</v>
       </c>
-      <c r="B54" s="94"/>
-      <c r="C54" s="94"/>
-      <c r="D54" s="95"/>
-      <c r="F54" s="93" t="s">
+      <c r="B54" s="95"/>
+      <c r="C54" s="95"/>
+      <c r="D54" s="96"/>
+      <c r="F54" s="94" t="s">
         <v>399</v>
       </c>
-      <c r="G54" s="94"/>
-      <c r="H54" s="94"/>
-      <c r="I54" s="95"/>
+      <c r="G54" s="95"/>
+      <c r="H54" s="95"/>
+      <c r="I54" s="96"/>
     </row>
     <row r="55" spans="1:9" ht="13.5" customHeight="1">
       <c r="A55" s="8" t="s">
@@ -8122,32 +8122,32 @@
     <row r="64" spans="1:9" ht="12.75" customHeight="1"/>
     <row r="65" spans="1:10" ht="12.75" customHeight="1" thickBot="1"/>
     <row r="66" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A66" s="90" t="s">
+      <c r="A66" s="91" t="s">
         <v>378</v>
       </c>
-      <c r="B66" s="91"/>
-      <c r="C66" s="91"/>
-      <c r="D66" s="92"/>
-      <c r="F66" s="90" t="s">
+      <c r="B66" s="92"/>
+      <c r="C66" s="92"/>
+      <c r="D66" s="93"/>
+      <c r="F66" s="91" t="s">
         <v>360</v>
       </c>
-      <c r="G66" s="91"/>
-      <c r="H66" s="91"/>
-      <c r="I66" s="92"/>
+      <c r="G66" s="92"/>
+      <c r="H66" s="92"/>
+      <c r="I66" s="93"/>
     </row>
     <row r="67" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A67" s="93" t="s">
+      <c r="A67" s="94" t="s">
         <v>358</v>
       </c>
-      <c r="B67" s="94"/>
-      <c r="C67" s="94"/>
-      <c r="D67" s="95"/>
-      <c r="F67" s="104" t="s">
+      <c r="B67" s="95"/>
+      <c r="C67" s="95"/>
+      <c r="D67" s="96"/>
+      <c r="F67" s="109" t="s">
         <v>365</v>
       </c>
-      <c r="G67" s="105"/>
-      <c r="H67" s="105"/>
-      <c r="I67" s="106"/>
+      <c r="G67" s="110"/>
+      <c r="H67" s="110"/>
+      <c r="I67" s="111"/>
     </row>
     <row r="68" spans="1:10" ht="12.75" customHeight="1" thickBot="1">
       <c r="A68" s="8" t="s">
@@ -8252,46 +8252,46 @@
     </row>
     <row r="77" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="78" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A78" s="107" t="s">
+      <c r="A78" s="106" t="s">
         <v>317</v>
       </c>
-      <c r="B78" s="108"/>
-      <c r="C78" s="108"/>
-      <c r="D78" s="109"/>
-      <c r="F78" s="90" t="s">
+      <c r="B78" s="107"/>
+      <c r="C78" s="107"/>
+      <c r="D78" s="108"/>
+      <c r="F78" s="91" t="s">
         <v>235</v>
       </c>
-      <c r="G78" s="91"/>
-      <c r="H78" s="91"/>
-      <c r="I78" s="92"/>
+      <c r="G78" s="92"/>
+      <c r="H78" s="92"/>
+      <c r="I78" s="93"/>
     </row>
     <row r="79" spans="1:10">
-      <c r="A79" s="90" t="s">
+      <c r="A79" s="91" t="s">
         <v>233</v>
       </c>
-      <c r="B79" s="91"/>
-      <c r="C79" s="91"/>
-      <c r="D79" s="92"/>
+      <c r="B79" s="92"/>
+      <c r="C79" s="92"/>
+      <c r="D79" s="93"/>
       <c r="E79">
         <v>2001</v>
       </c>
-      <c r="F79" s="93" t="s">
+      <c r="F79" s="94" t="s">
         <v>236</v>
       </c>
-      <c r="G79" s="94"/>
-      <c r="H79" s="94"/>
-      <c r="I79" s="95"/>
+      <c r="G79" s="95"/>
+      <c r="H79" s="95"/>
+      <c r="I79" s="96"/>
       <c r="J79">
         <v>2001</v>
       </c>
     </row>
     <row r="80" spans="1:10">
-      <c r="A80" s="93" t="s">
+      <c r="A80" s="94" t="s">
         <v>234</v>
       </c>
-      <c r="B80" s="94"/>
-      <c r="C80" s="94"/>
-      <c r="D80" s="95"/>
+      <c r="B80" s="95"/>
+      <c r="C80" s="95"/>
+      <c r="D80" s="96"/>
       <c r="F80" s="8" t="s">
         <v>238</v>
       </c>
@@ -8360,10 +8360,10 @@
       </c>
     </row>
     <row r="87" spans="1:20">
-      <c r="A87" s="88" t="s">
+      <c r="A87" s="97" t="s">
         <v>250</v>
       </c>
-      <c r="B87" s="89"/>
+      <c r="B87" s="98"/>
       <c r="E87" s="21" t="s">
         <v>228</v>
       </c>
@@ -8693,22 +8693,10 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A66:D66"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="F66:I66"/>
-    <mergeCell ref="F67:I67"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="A79:D79"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="F78:I78"/>
-    <mergeCell ref="F79:I79"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="F43:I43"/>
     <mergeCell ref="A53:D53"/>
     <mergeCell ref="A54:D54"/>
     <mergeCell ref="A17:D17"/>
@@ -8725,10 +8713,22 @@
     <mergeCell ref="F32:I32"/>
     <mergeCell ref="F33:I33"/>
     <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="F44:I44"/>
-    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="F67:I67"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A79:D79"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="F78:I78"/>
+    <mergeCell ref="F79:I79"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -8753,7 +8753,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -8849,9 +8851,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B10:F16"/>
+  <dimension ref="B10:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B14" sqref="B14:E14"/>
     </sheetView>
   </sheetViews>
@@ -8859,32 +8861,32 @@
   <sheetData>
     <row r="10" spans="2:6" ht="14.25" thickBot="1"/>
     <row r="11" spans="2:6">
-      <c r="B11" s="90" t="s">
+      <c r="B11" s="91" t="s">
         <v>388</v>
       </c>
-      <c r="C11" s="91"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="92"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="93"/>
       <c r="F11">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="14.25" thickBot="1"/>
     <row r="13" spans="2:6">
-      <c r="B13" s="90" t="s">
+      <c r="B13" s="91" t="s">
         <v>389</v>
       </c>
-      <c r="C13" s="91"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="92"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="93"/>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="93" t="s">
+      <c r="B14" s="94" t="s">
         <v>387</v>
       </c>
-      <c r="C14" s="94"/>
-      <c r="D14" s="94"/>
-      <c r="E14" s="95"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="96"/>
     </row>
     <row r="15" spans="2:6" ht="14.25" thickBot="1">
       <c r="B15" s="8" t="s">
@@ -8899,21 +8901,7 @@
       <c r="E15" s="20" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B16" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="C16" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16">
+      <c r="F15">
         <v>2</v>
       </c>
     </row>

--- a/doc/最新接口_拟定.xlsx
+++ b/doc/最新接口_拟定.xlsx
@@ -949,7 +949,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G103" authorId="0">
+    <comment ref="G104" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1079,7 +1079,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="405">
   <si>
     <t>int</t>
   </si>
@@ -2524,6 +2524,193 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>RQREsult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算标记9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家输赢详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>results</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200-400为麻将</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算标记9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1位：是否是总结算，0单局，1总结算
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NetMjUserResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;NetMjUserResult&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scores</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>winType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡牌类型（最大番）/叫嘴（最大番）/点炮类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>showType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:胡牌类型，2：叫嘴类型，3：扣分类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;NetKvData&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本次总得分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得分详情10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">k:得失分子类
+v:详细数值
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得分详情10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算（服务器-&gt;客户端）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轮到谁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uid:uid
+dval:手牌数量
+dlist：手牌内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uid:uid
+dval:出牌时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extra</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NetExtraData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;NetOprateData&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list:
+0:庄家id
+1.桌面剩余未使用的牌数量
+2.整副牌数量
+operates：
+6：轮到谁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQConnect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心跳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一个链接返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQEnterRoom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQExit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投票解散</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isAgree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否同意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出游戏（如果为0表示解散房间，否则为退出玩家的玩家id）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPVote</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQVote</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家id：如果为0表示发起投票，显示同意/拒绝按钮,否则为该玩家的选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>压跑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>extra数据为：kvDatas:(k-v)如下：
 1-&gt;出牌详情(dlist)
 2-&gt;手牌信息（v/dlist）
@@ -2533,186 +2720,17 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RQREsult</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结算标记9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家输赢详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>results</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200-400为麻将</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结算标记9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1位：是否是总结算，0单局，1总结算
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NetMjUserResult</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>List&lt;NetMjUserResult&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>scores</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>winType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>胡牌类型（最大番）/叫嘴（最大番）/点炮类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>showType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:胡牌类型，2：叫嘴类型，3：扣分类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>List&lt;NetKvData&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>score</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本次总得分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>得分详情10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">k:得失分子类
-v:详细数值
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>得分详情10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结算（服务器-&gt;客户端）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>轮到谁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uid:uid
-dval:手牌数量
-dlist：手牌内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uid:uid
-dval:出牌时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>extra</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NetExtraData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>List&lt;NetOprateData&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>list:
-0:庄家id
-1.桌面剩余未使用的牌数量
-2.整副牌数量
-operates：
-6：轮到谁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RQConnect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>心跳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一个链接返回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RQEnterRoom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RQExit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退出游戏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>投票解散</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isAgree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否同意</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退出游戏（如果为0表示解散房间，否则为退出玩家的玩家id）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPVote</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RQVote</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家id：如果为0表示发起投票，显示同意/拒绝按钮,否则为该玩家的选择</t>
+    <t>dvlue:压跑内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uid:uid（0:所有人的压跑情况，&gt;0某个人的压跑选择）
+dvlue:压跑内容
+KVData:玩家id-已压跑情况（未压跑的不显示）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>optional</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3321,7 +3339,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3478,14 +3496,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3505,12 +3521,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3520,16 +3530,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3541,17 +3563,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="30" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3849,8 +3871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:P51"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5:L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3959,13 +3981,13 @@
     </row>
     <row r="11" spans="2:16" ht="14.25" customHeight="1"/>
     <row r="14" spans="2:16" ht="14.25" thickBot="1">
-      <c r="I14" s="88" t="s">
+      <c r="I14" s="100" t="s">
         <v>54</v>
       </c>
-      <c r="J14" s="89"/>
-      <c r="K14" s="89"/>
-      <c r="L14" s="89"/>
-      <c r="M14" s="90"/>
+      <c r="J14" s="101"/>
+      <c r="K14" s="101"/>
+      <c r="L14" s="101"/>
+      <c r="M14" s="102"/>
     </row>
     <row r="15" spans="2:16">
       <c r="B15" s="91" t="s">
@@ -3988,10 +4010,10 @@
         <v>34</v>
       </c>
       <c r="N15" s="3"/>
-      <c r="O15" s="97" t="s">
+      <c r="O15" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="P15" s="98"/>
+      <c r="P15" s="90"/>
     </row>
     <row r="16" spans="2:16">
       <c r="B16" s="94" t="s">
@@ -4497,12 +4519,12 @@
       <c r="P37" s="23"/>
     </row>
     <row r="38" spans="2:16">
-      <c r="B38" s="99" t="s">
+      <c r="B38" s="97" t="s">
         <v>263</v>
       </c>
-      <c r="C38" s="100"/>
-      <c r="D38" s="100"/>
-      <c r="E38" s="101"/>
+      <c r="C38" s="98"/>
+      <c r="D38" s="98"/>
+      <c r="E38" s="99"/>
       <c r="I38" s="33" t="s">
         <v>117</v>
       </c>
@@ -4584,18 +4606,18 @@
     <row r="42" spans="2:16" ht="22.5" customHeight="1"/>
     <row r="43" spans="2:16" ht="31.5" customHeight="1"/>
     <row r="44" spans="2:16">
-      <c r="H44" s="97" t="s">
+      <c r="H44" s="89" t="s">
         <v>248</v>
       </c>
-      <c r="I44" s="98"/>
-      <c r="J44" s="97" t="s">
+      <c r="I44" s="90"/>
+      <c r="J44" s="89" t="s">
         <v>116</v>
       </c>
-      <c r="K44" s="98"/>
-      <c r="L44" s="97" t="s">
+      <c r="K44" s="90"/>
+      <c r="L44" s="89" t="s">
         <v>77</v>
       </c>
-      <c r="M44" s="98"/>
+      <c r="M44" s="90"/>
     </row>
     <row r="45" spans="2:16">
       <c r="H45" s="22">
@@ -4711,6 +4733,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="I14:M14"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="I5:L5"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="J44:K44"/>
     <mergeCell ref="L44:M44"/>
@@ -4718,11 +4745,6 @@
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="H44:I44"/>
     <mergeCell ref="B38:E38"/>
-    <mergeCell ref="I14:M14"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="I5:L5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4916,11 +4938,11 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="4"/>
-      <c r="B10" s="106" t="s">
+      <c r="B10" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="107"/>
-      <c r="D10" s="108"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="110"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -4929,11 +4951,11 @@
       <c r="J10" s="4"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="106" t="s">
+      <c r="M10" s="108" t="s">
         <v>28</v>
       </c>
-      <c r="N10" s="107"/>
-      <c r="O10" s="108"/>
+      <c r="N10" s="109"/>
+      <c r="O10" s="110"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -4943,11 +4965,11 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="4"/>
-      <c r="B11" s="109" t="s">
+      <c r="B11" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="110"/>
-      <c r="D11" s="111"/>
+      <c r="C11" s="106"/>
+      <c r="D11" s="107"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -4956,11 +4978,11 @@
       <c r="J11" s="4"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="109" t="s">
+      <c r="M11" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="N11" s="110"/>
-      <c r="O11" s="111"/>
+      <c r="N11" s="106"/>
+      <c r="O11" s="107"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -5081,11 +5103,11 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="4"/>
-      <c r="B17" s="106" t="s">
+      <c r="B17" s="108" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="107"/>
-      <c r="D17" s="108"/>
+      <c r="C17" s="109"/>
+      <c r="D17" s="110"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -5094,11 +5116,11 @@
       <c r="J17" s="4"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="106" t="s">
+      <c r="M17" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="N17" s="107"/>
-      <c r="O17" s="108"/>
+      <c r="N17" s="109"/>
+      <c r="O17" s="110"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -5107,11 +5129,11 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="4"/>
-      <c r="B18" s="109" t="s">
+      <c r="B18" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="110"/>
-      <c r="D18" s="111"/>
+      <c r="C18" s="106"/>
+      <c r="D18" s="107"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -5120,11 +5142,11 @@
       <c r="J18" s="4"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="109" t="s">
+      <c r="M18" s="105" t="s">
         <v>129</v>
       </c>
-      <c r="N18" s="110"/>
-      <c r="O18" s="111"/>
+      <c r="N18" s="106"/>
+      <c r="O18" s="107"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -5164,9 +5186,9 @@
     </row>
     <row r="20" spans="1:21" ht="41.25" thickBot="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="106"/>
-      <c r="C20" s="107"/>
-      <c r="D20" s="108"/>
+      <c r="B20" s="108"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="110"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -5195,11 +5217,11 @@
     </row>
     <row r="21" spans="1:21" ht="14.25" thickBot="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="109" t="s">
+      <c r="B21" s="105" t="s">
         <v>129</v>
       </c>
-      <c r="C21" s="110"/>
-      <c r="D21" s="111"/>
+      <c r="C21" s="106"/>
+      <c r="D21" s="107"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -5266,11 +5288,11 @@
       <c r="J23" s="4"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="106" t="s">
+      <c r="M23" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="N23" s="107"/>
-      <c r="O23" s="108"/>
+      <c r="N23" s="109"/>
+      <c r="O23" s="110"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
@@ -5291,11 +5313,11 @@
       <c r="J24" s="4"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-      <c r="M24" s="109" t="s">
+      <c r="M24" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="N24" s="110"/>
-      <c r="O24" s="111"/>
+      <c r="N24" s="106"/>
+      <c r="O24" s="107"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
@@ -5428,11 +5450,11 @@
       <c r="J29" s="4"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
-      <c r="M29" s="106" t="s">
+      <c r="M29" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="N29" s="107"/>
-      <c r="O29" s="108"/>
+      <c r="N29" s="109"/>
+      <c r="O29" s="110"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
@@ -5453,11 +5475,11 @@
       <c r="J30" s="4"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="109" t="s">
+      <c r="M30" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="N30" s="110"/>
-      <c r="O30" s="111"/>
+      <c r="N30" s="106"/>
+      <c r="O30" s="107"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
@@ -5613,11 +5635,11 @@
       <c r="J36" s="4"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
-      <c r="M36" s="106" t="s">
+      <c r="M36" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="N36" s="107"/>
-      <c r="O36" s="108"/>
+      <c r="N36" s="109"/>
+      <c r="O36" s="110"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
@@ -5638,11 +5660,11 @@
       <c r="J37" s="4"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
-      <c r="M37" s="109" t="s">
+      <c r="M37" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="N37" s="110"/>
-      <c r="O37" s="111"/>
+      <c r="N37" s="106"/>
+      <c r="O37" s="107"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
@@ -5821,14 +5843,14 @@
       <c r="J44" s="4"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
-      <c r="M44" s="106" t="s">
+      <c r="M44" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="N44" s="107"/>
-      <c r="O44" s="107"/>
-      <c r="P44" s="107"/>
-      <c r="Q44" s="107"/>
-      <c r="R44" s="108"/>
+      <c r="N44" s="109"/>
+      <c r="O44" s="109"/>
+      <c r="P44" s="109"/>
+      <c r="Q44" s="109"/>
+      <c r="R44" s="110"/>
       <c r="S44" s="2"/>
       <c r="T44" s="3"/>
       <c r="U44" s="3"/>
@@ -5846,14 +5868,14 @@
       <c r="J45" s="4"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
-      <c r="M45" s="109" t="s">
+      <c r="M45" s="105" t="s">
         <v>279</v>
       </c>
-      <c r="N45" s="110"/>
-      <c r="O45" s="110"/>
-      <c r="P45" s="110"/>
-      <c r="Q45" s="110"/>
-      <c r="R45" s="111"/>
+      <c r="N45" s="106"/>
+      <c r="O45" s="106"/>
+      <c r="P45" s="106"/>
+      <c r="Q45" s="106"/>
+      <c r="R45" s="107"/>
       <c r="S45" s="2"/>
       <c r="T45" s="3"/>
       <c r="U45" s="3"/>
@@ -5880,11 +5902,11 @@
       <c r="O46" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="P46" s="112" t="s">
+      <c r="P46" s="111" t="s">
         <v>130</v>
       </c>
-      <c r="Q46" s="112"/>
-      <c r="R46" s="113"/>
+      <c r="Q46" s="111"/>
+      <c r="R46" s="112"/>
       <c r="S46" s="2"/>
       <c r="T46" s="3"/>
       <c r="U46" s="3"/>
@@ -5911,22 +5933,22 @@
       <c r="O47" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="P47" s="112" t="s">
+      <c r="P47" s="111" t="s">
         <v>149</v>
       </c>
-      <c r="Q47" s="112"/>
-      <c r="R47" s="113"/>
+      <c r="Q47" s="111"/>
+      <c r="R47" s="112"/>
       <c r="S47" s="2"/>
       <c r="T47" s="3"/>
       <c r="U47" s="3"/>
     </row>
     <row r="48" spans="1:21">
       <c r="A48" s="1"/>
-      <c r="B48" s="106" t="s">
+      <c r="B48" s="108" t="s">
         <v>114</v>
       </c>
-      <c r="C48" s="107"/>
-      <c r="D48" s="108"/>
+      <c r="C48" s="109"/>
+      <c r="D48" s="110"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -5944,22 +5966,22 @@
       <c r="O48" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P48" s="112" t="s">
+      <c r="P48" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="Q48" s="112"/>
-      <c r="R48" s="113"/>
+      <c r="Q48" s="111"/>
+      <c r="R48" s="112"/>
       <c r="S48" s="2"/>
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
     </row>
     <row r="49" spans="1:21">
       <c r="A49" s="1"/>
-      <c r="B49" s="109" t="s">
+      <c r="B49" s="105" t="s">
         <v>112</v>
       </c>
-      <c r="C49" s="110"/>
-      <c r="D49" s="111"/>
+      <c r="C49" s="106"/>
+      <c r="D49" s="107"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -6016,11 +6038,11 @@
       <c r="O50" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P50" s="112" t="s">
+      <c r="P50" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="Q50" s="112"/>
-      <c r="R50" s="113"/>
+      <c r="Q50" s="111"/>
+      <c r="R50" s="112"/>
       <c r="S50" s="2"/>
       <c r="T50" s="3"/>
       <c r="U50" s="3"/>
@@ -6047,11 +6069,11 @@
       <c r="O51" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="P51" s="112" t="s">
+      <c r="P51" s="111" t="s">
         <v>20</v>
       </c>
-      <c r="Q51" s="112"/>
-      <c r="R51" s="113"/>
+      <c r="Q51" s="111"/>
+      <c r="R51" s="112"/>
       <c r="S51" s="2"/>
       <c r="T51" s="3"/>
       <c r="U51" s="3"/>
@@ -6109,11 +6131,11 @@
       <c r="O53" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="P53" s="112" t="s">
+      <c r="P53" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="Q53" s="112"/>
-      <c r="R53" s="113"/>
+      <c r="Q53" s="111"/>
+      <c r="R53" s="112"/>
       <c r="S53" s="2"/>
       <c r="T53" s="3"/>
       <c r="U53" s="3"/>
@@ -6278,13 +6300,13 @@
       <c r="J59" s="4"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
-      <c r="M59" s="106" t="s">
+      <c r="M59" s="108" t="s">
         <v>136</v>
       </c>
-      <c r="N59" s="107"/>
-      <c r="O59" s="107"/>
-      <c r="P59" s="107"/>
-      <c r="Q59" s="108"/>
+      <c r="N59" s="109"/>
+      <c r="O59" s="109"/>
+      <c r="P59" s="109"/>
+      <c r="Q59" s="110"/>
       <c r="R59" s="1"/>
       <c r="S59" s="2"/>
       <c r="T59" s="3"/>
@@ -6312,10 +6334,10 @@
       <c r="O60" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="P60" s="104" t="s">
+      <c r="P60" s="103" t="s">
         <v>137</v>
       </c>
-      <c r="Q60" s="105"/>
+      <c r="Q60" s="104"/>
       <c r="R60" s="1"/>
       <c r="S60" s="2"/>
       <c r="T60" s="3"/>
@@ -6343,10 +6365,10 @@
       <c r="O61" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="P61" s="104" t="s">
+      <c r="P61" s="103" t="s">
         <v>140</v>
       </c>
-      <c r="Q61" s="105"/>
+      <c r="Q61" s="104"/>
       <c r="R61" s="1"/>
       <c r="S61" s="2"/>
       <c r="T61" s="3"/>
@@ -6374,10 +6396,10 @@
       <c r="O62" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="P62" s="104" t="s">
+      <c r="P62" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="Q62" s="105"/>
+      <c r="Q62" s="104"/>
       <c r="R62" s="1"/>
       <c r="S62" s="2"/>
       <c r="T62" s="3"/>
@@ -6405,10 +6427,10 @@
       <c r="O63" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P63" s="102" t="s">
+      <c r="P63" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="Q63" s="103"/>
+      <c r="Q63" s="114"/>
       <c r="R63" s="1"/>
       <c r="S63" s="2"/>
       <c r="T63" s="3"/>
@@ -6436,10 +6458,10 @@
       <c r="O64" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P64" s="104" t="s">
+      <c r="P64" s="103" t="s">
         <v>161</v>
       </c>
-      <c r="Q64" s="105"/>
+      <c r="Q64" s="104"/>
       <c r="R64" s="1"/>
       <c r="S64" s="2"/>
       <c r="T64" s="3"/>
@@ -6467,10 +6489,10 @@
       <c r="O65" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="P65" s="104" t="s">
+      <c r="P65" s="103" t="s">
         <v>60</v>
       </c>
-      <c r="Q65" s="105"/>
+      <c r="Q65" s="104"/>
       <c r="R65" s="1"/>
       <c r="S65" s="2"/>
       <c r="T65" s="3"/>
@@ -6498,10 +6520,10 @@
       <c r="O66" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P66" s="104" t="s">
+      <c r="P66" s="103" t="s">
         <v>218</v>
       </c>
-      <c r="Q66" s="105"/>
+      <c r="Q66" s="104"/>
       <c r="R66" s="1"/>
       <c r="S66" s="2"/>
       <c r="T66" s="3"/>
@@ -6529,10 +6551,10 @@
       <c r="O67" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P67" s="104" t="s">
+      <c r="P67" s="103" t="s">
         <v>217</v>
       </c>
-      <c r="Q67" s="105"/>
+      <c r="Q67" s="104"/>
       <c r="R67" s="1"/>
       <c r="S67" s="1"/>
       <c r="T67" s="3"/>
@@ -6574,13 +6596,13 @@
       <c r="J69" s="4"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
-      <c r="M69" s="106" t="s">
+      <c r="M69" s="108" t="s">
         <v>176</v>
       </c>
-      <c r="N69" s="107"/>
-      <c r="O69" s="107"/>
-      <c r="P69" s="107"/>
-      <c r="Q69" s="108"/>
+      <c r="N69" s="109"/>
+      <c r="O69" s="109"/>
+      <c r="P69" s="109"/>
+      <c r="Q69" s="110"/>
       <c r="R69" s="1"/>
       <c r="S69" s="1"/>
       <c r="T69" s="3"/>
@@ -6599,13 +6621,13 @@
       <c r="J70" s="4"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
-      <c r="M70" s="106" t="s">
+      <c r="M70" s="108" t="s">
         <v>177</v>
       </c>
-      <c r="N70" s="107"/>
-      <c r="O70" s="107"/>
-      <c r="P70" s="107"/>
-      <c r="Q70" s="108"/>
+      <c r="N70" s="109"/>
+      <c r="O70" s="109"/>
+      <c r="P70" s="109"/>
+      <c r="Q70" s="110"/>
       <c r="R70" s="1"/>
       <c r="S70" s="1"/>
       <c r="T70" s="3"/>
@@ -6633,10 +6655,10 @@
       <c r="O71" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="P71" s="102" t="s">
+      <c r="P71" s="113" t="s">
         <v>201</v>
       </c>
-      <c r="Q71" s="103"/>
+      <c r="Q71" s="114"/>
       <c r="R71" s="1"/>
       <c r="S71" s="1"/>
       <c r="T71" s="3"/>
@@ -6664,10 +6686,10 @@
       <c r="O72" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="P72" s="102" t="s">
+      <c r="P72" s="113" t="s">
         <v>193</v>
       </c>
-      <c r="Q72" s="103"/>
+      <c r="Q72" s="114"/>
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
       <c r="T72" s="3"/>
@@ -6695,10 +6717,10 @@
       <c r="O73" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="P73" s="102" t="s">
+      <c r="P73" s="113" t="s">
         <v>190</v>
       </c>
-      <c r="Q73" s="103"/>
+      <c r="Q73" s="114"/>
       <c r="R73" s="1"/>
       <c r="S73" s="1"/>
       <c r="T73" s="3"/>
@@ -6755,10 +6777,10 @@
       <c r="O75" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P75" s="104" t="s">
+      <c r="P75" s="103" t="s">
         <v>219</v>
       </c>
-      <c r="Q75" s="105"/>
+      <c r="Q75" s="104"/>
       <c r="R75" s="1"/>
       <c r="S75" s="1"/>
       <c r="T75" s="3"/>
@@ -6786,10 +6808,10 @@
       <c r="O76" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P76" s="104" t="s">
+      <c r="P76" s="103" t="s">
         <v>220</v>
       </c>
-      <c r="Q76" s="105"/>
+      <c r="Q76" s="104"/>
       <c r="R76" s="1"/>
       <c r="S76" s="1"/>
       <c r="T76" s="3"/>
@@ -6831,11 +6853,11 @@
       <c r="J78" s="4"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
-      <c r="M78" s="109" t="s">
+      <c r="M78" s="105" t="s">
         <v>191</v>
       </c>
-      <c r="N78" s="110"/>
-      <c r="O78" s="111"/>
+      <c r="N78" s="106"/>
+      <c r="O78" s="107"/>
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
       <c r="R78" s="1"/>
@@ -6937,11 +6959,11 @@
       <c r="J82" s="4"/>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
-      <c r="M82" s="109" t="s">
+      <c r="M82" s="105" t="s">
         <v>183</v>
       </c>
-      <c r="N82" s="110"/>
-      <c r="O82" s="111"/>
+      <c r="N82" s="106"/>
+      <c r="O82" s="107"/>
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
       <c r="R82" s="1"/>
@@ -7452,6 +7474,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="M69:Q69"/>
+    <mergeCell ref="M70:Q70"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="M45:R45"/>
+    <mergeCell ref="P46:R46"/>
+    <mergeCell ref="P47:R47"/>
+    <mergeCell ref="P48:R48"/>
+    <mergeCell ref="P50:R50"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="M44:R44"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
     <mergeCell ref="P76:Q76"/>
     <mergeCell ref="M78:O78"/>
     <mergeCell ref="M82:O82"/>
@@ -7468,34 +7518,6 @@
     <mergeCell ref="M11:O11"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="M29:O29"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="M44:R44"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="M45:R45"/>
-    <mergeCell ref="P46:R46"/>
-    <mergeCell ref="P47:R47"/>
-    <mergeCell ref="P48:R48"/>
-    <mergeCell ref="P50:R50"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="M69:Q69"/>
-    <mergeCell ref="M70:Q70"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="P67:Q67"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7505,10 +7527,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:T106"/>
+  <dimension ref="A2:T107"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView topLeftCell="C67" workbookViewId="0">
+      <selection activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7693,7 +7715,7 @@
     </row>
     <row r="12" spans="1:10" ht="14.25" thickBot="1">
       <c r="F12" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G12" s="85" t="s">
         <v>322</v>
@@ -7728,7 +7750,7 @@
       <c r="C17" s="95"/>
       <c r="D17" s="96"/>
       <c r="F17" s="94" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G17" s="95"/>
       <c r="H17" s="95"/>
@@ -7852,7 +7874,7 @@
         <v>0</v>
       </c>
       <c r="C34" s="85" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D34" s="76" t="s">
         <v>72</v>
@@ -7914,7 +7936,7 @@
         <v>327</v>
       </c>
       <c r="G36" s="85" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H36" s="76" t="s">
         <v>291</v>
@@ -7942,7 +7964,7 @@
         <v>325</v>
       </c>
       <c r="B38" s="85" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C38" s="84" t="s">
         <v>344</v>
@@ -7960,7 +7982,7 @@
       <c r="C43" s="92"/>
       <c r="D43" s="93"/>
       <c r="F43" s="91" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G43" s="92"/>
       <c r="H43" s="92"/>
@@ -7977,7 +7999,7 @@
         <v>1003</v>
       </c>
       <c r="F44" s="94" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G44" s="95"/>
       <c r="H44" s="95"/>
@@ -7994,7 +8016,7 @@
         <v>0</v>
       </c>
       <c r="H45" s="87" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I45" s="86" t="s">
         <v>72</v>
@@ -8021,20 +8043,20 @@
     </row>
     <row r="48" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="49" spans="1:9">
-      <c r="A49" s="106" t="s">
+      <c r="A49" s="108" t="s">
         <v>315</v>
       </c>
-      <c r="B49" s="107"/>
-      <c r="C49" s="107"/>
-      <c r="D49" s="108"/>
+      <c r="B49" s="109"/>
+      <c r="C49" s="109"/>
+      <c r="D49" s="110"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="109" t="s">
+      <c r="A50" s="105" t="s">
         <v>316</v>
       </c>
-      <c r="B50" s="110"/>
-      <c r="C50" s="110"/>
-      <c r="D50" s="111"/>
+      <c r="B50" s="106"/>
+      <c r="C50" s="106"/>
+      <c r="D50" s="107"/>
       <c r="E50">
         <v>1005</v>
       </c>
@@ -8043,13 +8065,13 @@
     <row r="52" spans="1:9" ht="13.5" customHeight="1" thickBot="1"/>
     <row r="53" spans="1:9" ht="13.5" customHeight="1">
       <c r="A53" s="91" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B53" s="92"/>
       <c r="C53" s="92"/>
       <c r="D53" s="93"/>
       <c r="F53" s="91" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G53" s="92"/>
       <c r="H53" s="92"/>
@@ -8057,13 +8079,13 @@
     </row>
     <row r="54" spans="1:9" ht="13.5" customHeight="1">
       <c r="A54" s="94" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B54" s="95"/>
       <c r="C54" s="95"/>
       <c r="D54" s="96"/>
       <c r="F54" s="94" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G54" s="95"/>
       <c r="H54" s="95"/>
@@ -8071,13 +8093,13 @@
     </row>
     <row r="55" spans="1:9" ht="13.5" customHeight="1">
       <c r="A55" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="B55" s="86" t="s">
+        <v>393</v>
+      </c>
+      <c r="C55" s="86" t="s">
         <v>395</v>
-      </c>
-      <c r="B55" s="86" t="s">
-        <v>394</v>
-      </c>
-      <c r="C55" s="86" t="s">
-        <v>396</v>
       </c>
       <c r="D55" s="86" t="s">
         <v>72</v>
@@ -8086,13 +8108,13 @@
         <v>1007</v>
       </c>
       <c r="F55" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="G55" s="87" t="s">
+        <v>393</v>
+      </c>
+      <c r="H55" s="87" t="s">
         <v>395</v>
-      </c>
-      <c r="G55" s="87" t="s">
-        <v>394</v>
-      </c>
-      <c r="H55" s="87" t="s">
-        <v>396</v>
       </c>
       <c r="I55" s="87" t="s">
         <v>72</v>
@@ -8106,7 +8128,7 @@
         <v>0</v>
       </c>
       <c r="H56" s="87" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I56" s="20" t="s">
         <v>13</v>
@@ -8123,13 +8145,13 @@
     <row r="65" spans="1:10" ht="12.75" customHeight="1" thickBot="1"/>
     <row r="66" spans="1:10" ht="12.75" customHeight="1">
       <c r="A66" s="91" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B66" s="92"/>
       <c r="C66" s="92"/>
       <c r="D66" s="93"/>
       <c r="F66" s="91" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G66" s="92"/>
       <c r="H66" s="92"/>
@@ -8137,17 +8159,17 @@
     </row>
     <row r="67" spans="1:10" ht="12.75" customHeight="1">
       <c r="A67" s="94" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B67" s="95"/>
       <c r="C67" s="95"/>
       <c r="D67" s="96"/>
-      <c r="F67" s="109" t="s">
-        <v>365</v>
-      </c>
-      <c r="G67" s="110"/>
-      <c r="H67" s="110"/>
-      <c r="I67" s="111"/>
+      <c r="F67" s="105" t="s">
+        <v>364</v>
+      </c>
+      <c r="G67" s="106"/>
+      <c r="H67" s="106"/>
+      <c r="I67" s="107"/>
     </row>
     <row r="68" spans="1:10" ht="12.75" customHeight="1" thickBot="1">
       <c r="A68" s="8" t="s">
@@ -8157,7 +8179,7 @@
         <v>32</v>
       </c>
       <c r="C68" s="79" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D68" s="20" t="s">
         <v>13</v>
@@ -8166,13 +8188,13 @@
         <v>2002</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G68" s="85" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H68" s="82" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I68" s="7" t="s">
         <v>319</v>
@@ -8180,25 +8202,25 @@
     </row>
     <row r="69" spans="1:10" ht="14.25" thickBot="1">
       <c r="A69" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B69" s="78" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C69" s="78" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D69" s="20" t="s">
         <v>13</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G69" s="78" t="s">
         <v>329</v>
       </c>
       <c r="H69" s="85" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I69" s="20" t="s">
         <v>13</v>
@@ -8206,25 +8228,25 @@
     </row>
     <row r="70" spans="1:10" ht="14.25" thickBot="1">
       <c r="A70" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B70" s="78" t="s">
         <v>32</v>
       </c>
       <c r="C70" s="78" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D70" s="20" t="s">
         <v>13</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G70" s="78" t="s">
         <v>329</v>
       </c>
       <c r="H70" s="78" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I70" s="20" t="s">
         <v>13</v>
@@ -8238,7 +8260,7 @@
         <v>32</v>
       </c>
       <c r="H71" s="78" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I71" s="20" t="s">
         <v>13</v>
@@ -8252,12 +8274,12 @@
     </row>
     <row r="77" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="78" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A78" s="106" t="s">
+      <c r="A78" s="108" t="s">
         <v>317</v>
       </c>
-      <c r="B78" s="107"/>
-      <c r="C78" s="107"/>
-      <c r="D78" s="108"/>
+      <c r="B78" s="109"/>
+      <c r="C78" s="109"/>
+      <c r="D78" s="110"/>
       <c r="F78" s="91" t="s">
         <v>235</v>
       </c>
@@ -8356,14 +8378,14 @@
         <v>230</v>
       </c>
       <c r="F86" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="87" spans="1:20">
-      <c r="A87" s="97" t="s">
+      <c r="A87" s="89" t="s">
         <v>250</v>
       </c>
-      <c r="B87" s="98"/>
+      <c r="B87" s="90"/>
       <c r="E87" s="21" t="s">
         <v>228</v>
       </c>
@@ -8392,7 +8414,7 @@
         <v>267</v>
       </c>
       <c r="H88" s="33" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L88" s="65"/>
       <c r="M88" s="66"/>
@@ -8416,10 +8438,10 @@
         <v>6</v>
       </c>
       <c r="G89" s="32" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H89" s="33" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="L89" s="65"/>
       <c r="M89" s="66"/>
@@ -8524,7 +8546,7 @@
       <c r="T93" s="67"/>
     </row>
     <row r="94" spans="1:20" ht="27">
-      <c r="E94" s="57"/>
+      <c r="E94" s="59"/>
       <c r="F94" s="58">
         <v>204</v>
       </c>
@@ -8535,153 +8557,170 @@
         <v>257</v>
       </c>
       <c r="L94" s="65"/>
-      <c r="M94" s="74">
-        <v>3</v>
-      </c>
+      <c r="M94" s="66"/>
       <c r="N94" s="66"/>
-      <c r="O94" s="71"/>
-      <c r="P94" s="72">
-        <v>2</v>
-      </c>
-      <c r="Q94" s="72"/>
-      <c r="R94" s="73"/>
+      <c r="O94" s="66"/>
+      <c r="P94" s="66"/>
+      <c r="Q94" s="66"/>
+      <c r="R94" s="115"/>
       <c r="S94" s="66"/>
       <c r="T94" s="67"/>
     </row>
-    <row r="95" spans="1:20" ht="27">
-      <c r="E95" s="57"/>
+    <row r="95" spans="1:20" ht="40.5">
+      <c r="E95" s="59" t="s">
+        <v>402</v>
+      </c>
       <c r="F95" s="58">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="G95" s="32" t="s">
-        <v>258</v>
+        <v>400</v>
       </c>
       <c r="H95" s="57" t="s">
-        <v>260</v>
-      </c>
-      <c r="L95" s="68"/>
-      <c r="M95" s="69"/>
-      <c r="N95" s="69"/>
-      <c r="O95" s="69"/>
-      <c r="P95" s="69"/>
-      <c r="Q95" s="69"/>
-      <c r="R95" s="69"/>
-      <c r="S95" s="69"/>
-      <c r="T95" s="70"/>
-    </row>
-    <row r="96" spans="1:20">
+        <v>403</v>
+      </c>
+      <c r="L95" s="65"/>
+      <c r="M95" s="74">
+        <v>3</v>
+      </c>
+      <c r="N95" s="66"/>
+      <c r="O95" s="71"/>
+      <c r="P95" s="72">
+        <v>2</v>
+      </c>
+      <c r="Q95" s="72"/>
+      <c r="R95" s="73"/>
+      <c r="S95" s="66"/>
+      <c r="T95" s="67"/>
+    </row>
+    <row r="96" spans="1:20" ht="27">
       <c r="E96" s="57"/>
       <c r="F96" s="58">
+        <v>211</v>
+      </c>
+      <c r="G96" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="H96" s="57" t="s">
+        <v>260</v>
+      </c>
+      <c r="L96" s="68"/>
+      <c r="M96" s="69"/>
+      <c r="N96" s="69"/>
+      <c r="O96" s="69"/>
+      <c r="P96" s="69"/>
+      <c r="Q96" s="69"/>
+      <c r="R96" s="69"/>
+      <c r="S96" s="69"/>
+      <c r="T96" s="70"/>
+    </row>
+    <row r="97" spans="5:8">
+      <c r="E97" s="57"/>
+      <c r="F97" s="58">
         <v>212</v>
       </c>
-      <c r="G96" s="32" t="s">
+      <c r="G97" s="32" t="s">
         <v>269</v>
       </c>
-      <c r="H96" s="57" t="s">
+      <c r="H97" s="57" t="s">
         <v>281</v>
-      </c>
-    </row>
-    <row r="97" spans="5:8" ht="27">
-      <c r="E97" s="59"/>
-      <c r="F97" s="58">
-        <v>213</v>
-      </c>
-      <c r="G97" s="32" t="s">
-        <v>268</v>
-      </c>
-      <c r="H97" s="57" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="98" spans="5:8" ht="27">
       <c r="E98" s="59"/>
       <c r="F98" s="58">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G98" s="32" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H98" s="57" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="99" spans="5:8">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="99" spans="5:8" ht="27">
       <c r="E99" s="59"/>
       <c r="F99" s="58">
+        <v>214</v>
+      </c>
+      <c r="G99" s="32" t="s">
+        <v>270</v>
+      </c>
+      <c r="H99" s="57" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="100" spans="5:8">
+      <c r="E100" s="59"/>
+      <c r="F100" s="58">
         <v>215</v>
       </c>
-      <c r="G99" s="57" t="s">
+      <c r="G100" s="57" t="s">
         <v>271</v>
       </c>
-      <c r="H99" s="57" t="s">
+      <c r="H100" s="57" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="100" spans="5:8" ht="27">
-      <c r="E100" s="59" t="s">
+    <row r="101" spans="5:8" ht="27">
+      <c r="E101" s="59" t="s">
         <v>282</v>
       </c>
-      <c r="F100" s="58">
+      <c r="F101" s="58">
         <v>220</v>
       </c>
-      <c r="G100" s="84" t="s">
+      <c r="G101" s="84" t="s">
         <v>345</v>
       </c>
-      <c r="H100" s="57" t="s">
+      <c r="H101" s="57" t="s">
         <v>275</v>
-      </c>
-    </row>
-    <row r="101" spans="5:8" ht="40.5">
-      <c r="E101" s="59" t="s">
-        <v>283</v>
-      </c>
-      <c r="F101" s="58">
-        <v>230</v>
-      </c>
-      <c r="G101" s="84" t="s">
-        <v>350</v>
-      </c>
-      <c r="H101" s="57" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="102" spans="5:8" ht="40.5">
       <c r="E102" s="59" t="s">
+        <v>283</v>
+      </c>
+      <c r="F102" s="58">
+        <v>230</v>
+      </c>
+      <c r="G102" s="84" t="s">
+        <v>350</v>
+      </c>
+      <c r="H102" s="57" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="103" spans="5:8" ht="40.5">
+      <c r="E103" s="59" t="s">
         <v>280</v>
       </c>
-      <c r="F102" s="58">
+      <c r="F103" s="58">
         <v>240</v>
       </c>
-      <c r="G102" s="84" t="s">
+      <c r="G103" s="84" t="s">
         <v>351</v>
       </c>
-      <c r="H102" s="57" t="s">
+      <c r="H103" s="57" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="103" spans="5:8" ht="40.5">
-      <c r="E103" s="59"/>
-      <c r="F103" s="58">
+    <row r="104" spans="5:8" ht="40.5">
+      <c r="E104" s="59"/>
+      <c r="F104" s="58">
         <v>250</v>
       </c>
-      <c r="G103" s="84" t="s">
+      <c r="G104" s="84" t="s">
         <v>349</v>
       </c>
-      <c r="H103" s="57" t="s">
+      <c r="H104" s="57" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="104" spans="5:8">
-      <c r="E104" s="57"/>
-      <c r="F104" s="58">
-        <v>280</v>
-      </c>
-      <c r="G104" s="32"/>
-      <c r="H104" s="57"/>
     </row>
     <row r="105" spans="5:8">
       <c r="E105" s="57"/>
-      <c r="F105" s="58"/>
+      <c r="F105" s="58">
+        <v>280</v>
+      </c>
       <c r="G105" s="32"/>
       <c r="H105" s="57"/>
     </row>
@@ -8691,13 +8730,30 @@
       <c r="G106" s="32"/>
       <c r="H106" s="57"/>
     </row>
+    <row r="107" spans="5:8">
+      <c r="E107" s="57"/>
+      <c r="F107" s="58"/>
+      <c r="G107" s="32"/>
+      <c r="H107" s="57"/>
+    </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="F44:I44"/>
-    <mergeCell ref="F43:I43"/>
-    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="F67:I67"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A79:D79"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="F78:I78"/>
+    <mergeCell ref="F79:I79"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="F16:I16"/>
     <mergeCell ref="A54:D54"/>
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="F17:I17"/>
@@ -8713,33 +8769,22 @@
     <mergeCell ref="F32:I32"/>
     <mergeCell ref="F33:I33"/>
     <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="A66:D66"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="F66:I66"/>
-    <mergeCell ref="F67:I67"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="A79:D79"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="F78:I78"/>
-    <mergeCell ref="F79:I79"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="A53:D53"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C7" location="参数说明!A1" display="选项附加值1"/>
     <hyperlink ref="H8" location="参数说明!A1" display="选项附加值1"/>
-    <hyperlink ref="G103" location="参数说明!A1" display="胡牌8"/>
+    <hyperlink ref="G104" location="参数说明!A1" display="胡牌8"/>
     <hyperlink ref="C37" location="参数说明!A1" display="状态位3"/>
     <hyperlink ref="C38" location="参数说明!A1" display="额外值4"/>
-    <hyperlink ref="G100" location="参数说明!A1" display="吃牌5"/>
-    <hyperlink ref="G101" location="参数说明!A1" display="杠6"/>
-    <hyperlink ref="G102" location="参数说明!A1" display="听牌7"/>
+    <hyperlink ref="G101" location="参数说明!A1" display="吃牌5"/>
+    <hyperlink ref="G102" location="参数说明!A1" display="杠6"/>
+    <hyperlink ref="G103" location="参数说明!A1" display="听牌7"/>
     <hyperlink ref="H12" location="参数说明!A1" display="游戏数据附加值2"/>
     <hyperlink ref="H68" location="参数说明!A1" display="得分详情10"/>
   </hyperlinks>
@@ -8754,7 +8799,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8776,7 +8821,7 @@
         <v>339</v>
       </c>
       <c r="B2" s="81" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="40.5">
@@ -8787,12 +8832,12 @@
         <v>342</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="81">
+    <row r="4" spans="1:2" ht="94.5">
       <c r="A4" s="80" t="s">
         <v>343</v>
       </c>
       <c r="B4" s="81" t="s">
-        <v>357</v>
+        <v>401</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="54">
@@ -8829,18 +8874,18 @@
     </row>
     <row r="9" spans="1:2" ht="27">
       <c r="A9" s="80" t="s">
+        <v>362</v>
+      </c>
+      <c r="B9" s="81" t="s">
         <v>363</v>
-      </c>
-      <c r="B9" s="81" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="40.5">
       <c r="A10" s="80" t="s">
+        <v>374</v>
+      </c>
+      <c r="B10" s="81" t="s">
         <v>375</v>
-      </c>
-      <c r="B10" s="81" t="s">
-        <v>376</v>
       </c>
     </row>
   </sheetData>
@@ -8851,18 +8896,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B10:F15"/>
+  <dimension ref="B10:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:E14"/>
+      <selection activeCell="B7" sqref="B7:M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="10" spans="2:6" ht="14.25" thickBot="1"/>
-    <row r="11" spans="2:6">
+    <row r="10" spans="2:14" ht="14.25" thickBot="1"/>
+    <row r="11" spans="2:14">
       <c r="B11" s="91" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C11" s="92"/>
       <c r="D11" s="92"/>
@@ -8871,45 +8916,71 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="14.25" thickBot="1"/>
-    <row r="13" spans="2:6">
+    <row r="12" spans="2:14" ht="14.25" thickBot="1"/>
+    <row r="13" spans="2:14">
       <c r="B13" s="91" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C13" s="92"/>
       <c r="D13" s="92"/>
       <c r="E13" s="93"/>
-    </row>
-    <row r="14" spans="2:6">
+      <c r="J13" s="91" t="s">
+        <v>388</v>
+      </c>
+      <c r="K13" s="92"/>
+      <c r="L13" s="92"/>
+      <c r="M13" s="93"/>
+    </row>
+    <row r="14" spans="2:14">
       <c r="B14" s="94" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C14" s="95"/>
       <c r="D14" s="95"/>
       <c r="E14" s="96"/>
-    </row>
-    <row r="15" spans="2:6" ht="14.25" thickBot="1">
+      <c r="J14" s="94" t="s">
+        <v>386</v>
+      </c>
+      <c r="K14" s="95"/>
+      <c r="L14" s="95"/>
+      <c r="M14" s="96"/>
+    </row>
+    <row r="15" spans="2:14" ht="14.25" thickBot="1">
       <c r="B15" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="88" t="s">
+        <v>122</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="J15" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="C15" s="85" t="s">
+      <c r="K15" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="85" t="s">
+      <c r="L15" s="85" t="s">
         <v>290</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="M15" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F15">
+      <c r="N15">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="B11:E11"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B11:E11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/最新接口_拟定.xlsx
+++ b/doc/最新接口_拟定.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="首标签" sheetId="1" r:id="rId1"/>
@@ -949,7 +949,34 @@
         </r>
       </text>
     </comment>
-    <comment ref="G104" authorId="0">
+    <comment ref="H91" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+如果和本地的相等则不处理；相差1，则直接覆盖更新；大于1曾需要同步，数据不一致
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G113" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1079,7 +1106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="405">
   <si>
     <t>int</t>
   </si>
@@ -3339,7 +3366,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3497,11 +3524,19 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="30" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3521,6 +3556,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3530,19 +3571,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3554,26 +3601,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="30" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3872,7 +3901,7 @@
   <dimension ref="B3:P51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:L5"/>
+      <selection activeCell="M11" sqref="B4:M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3892,32 +3921,32 @@
   <sheetData>
     <row r="3" spans="2:16" ht="14.25" thickBot="1"/>
     <row r="4" spans="2:16">
-      <c r="B4" s="91" t="s">
+      <c r="B4" s="95" t="s">
         <v>233</v>
       </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="93"/>
-      <c r="I4" s="91" t="s">
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="97"/>
+      <c r="I4" s="95" t="s">
         <v>235</v>
       </c>
-      <c r="J4" s="92"/>
-      <c r="K4" s="92"/>
-      <c r="L4" s="93"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="97"/>
     </row>
     <row r="5" spans="2:16">
-      <c r="B5" s="94" t="s">
+      <c r="B5" s="98" t="s">
         <v>234</v>
       </c>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="96"/>
-      <c r="I5" s="94" t="s">
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="100"/>
+      <c r="I5" s="98" t="s">
         <v>236</v>
       </c>
-      <c r="J5" s="95"/>
-      <c r="K5" s="95"/>
-      <c r="L5" s="96"/>
+      <c r="J5" s="99"/>
+      <c r="K5" s="99"/>
+      <c r="L5" s="100"/>
     </row>
     <row r="6" spans="2:16">
       <c r="B6" s="8"/>
@@ -3981,21 +4010,21 @@
     </row>
     <row r="11" spans="2:16" ht="14.25" customHeight="1"/>
     <row r="14" spans="2:16" ht="14.25" thickBot="1">
-      <c r="I14" s="100" t="s">
+      <c r="I14" s="92" t="s">
         <v>54</v>
       </c>
-      <c r="J14" s="101"/>
-      <c r="K14" s="101"/>
-      <c r="L14" s="101"/>
-      <c r="M14" s="102"/>
+      <c r="J14" s="93"/>
+      <c r="K14" s="93"/>
+      <c r="L14" s="93"/>
+      <c r="M14" s="94"/>
     </row>
     <row r="15" spans="2:16">
-      <c r="B15" s="91" t="s">
+      <c r="B15" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="92"/>
-      <c r="D15" s="92"/>
-      <c r="E15" s="93"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="97"/>
       <c r="I15" s="21" t="s">
         <v>34</v>
       </c>
@@ -4010,18 +4039,18 @@
         <v>34</v>
       </c>
       <c r="N15" s="3"/>
-      <c r="O15" s="89" t="s">
+      <c r="O15" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="P15" s="90"/>
+      <c r="P15" s="102"/>
     </row>
     <row r="16" spans="2:16">
-      <c r="B16" s="94" t="s">
+      <c r="B16" s="98" t="s">
         <v>234</v>
       </c>
-      <c r="C16" s="95"/>
-      <c r="D16" s="95"/>
-      <c r="E16" s="96"/>
+      <c r="C16" s="99"/>
+      <c r="D16" s="99"/>
+      <c r="E16" s="100"/>
       <c r="I16" s="33"/>
       <c r="J16" s="30"/>
       <c r="K16" s="31">
@@ -4519,12 +4548,12 @@
       <c r="P37" s="23"/>
     </row>
     <row r="38" spans="2:16">
-      <c r="B38" s="97" t="s">
+      <c r="B38" s="103" t="s">
         <v>263</v>
       </c>
-      <c r="C38" s="98"/>
-      <c r="D38" s="98"/>
-      <c r="E38" s="99"/>
+      <c r="C38" s="104"/>
+      <c r="D38" s="104"/>
+      <c r="E38" s="105"/>
       <c r="I38" s="33" t="s">
         <v>117</v>
       </c>
@@ -4606,18 +4635,18 @@
     <row r="42" spans="2:16" ht="22.5" customHeight="1"/>
     <row r="43" spans="2:16" ht="31.5" customHeight="1"/>
     <row r="44" spans="2:16">
-      <c r="H44" s="89" t="s">
+      <c r="H44" s="101" t="s">
         <v>248</v>
       </c>
-      <c r="I44" s="90"/>
-      <c r="J44" s="89" t="s">
+      <c r="I44" s="102"/>
+      <c r="J44" s="101" t="s">
         <v>116</v>
       </c>
-      <c r="K44" s="90"/>
-      <c r="L44" s="89" t="s">
+      <c r="K44" s="102"/>
+      <c r="L44" s="101" t="s">
         <v>77</v>
       </c>
-      <c r="M44" s="90"/>
+      <c r="M44" s="102"/>
     </row>
     <row r="45" spans="2:16">
       <c r="H45" s="22">
@@ -4733,11 +4762,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="I14:M14"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="I5:L5"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="J44:K44"/>
     <mergeCell ref="L44:M44"/>
@@ -4745,6 +4769,11 @@
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="H44:I44"/>
     <mergeCell ref="B38:E38"/>
+    <mergeCell ref="I14:M14"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="I5:L5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4938,11 +4967,11 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="4"/>
-      <c r="B10" s="108" t="s">
+      <c r="B10" s="110" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="109"/>
-      <c r="D10" s="110"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="112"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -4951,11 +4980,11 @@
       <c r="J10" s="4"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="108" t="s">
+      <c r="M10" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="N10" s="109"/>
-      <c r="O10" s="110"/>
+      <c r="N10" s="111"/>
+      <c r="O10" s="112"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -4965,11 +4994,11 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="4"/>
-      <c r="B11" s="105" t="s">
+      <c r="B11" s="113" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="106"/>
-      <c r="D11" s="107"/>
+      <c r="C11" s="114"/>
+      <c r="D11" s="115"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -4978,11 +5007,11 @@
       <c r="J11" s="4"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="105" t="s">
+      <c r="M11" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="N11" s="106"/>
-      <c r="O11" s="107"/>
+      <c r="N11" s="114"/>
+      <c r="O11" s="115"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -5103,11 +5132,11 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="4"/>
-      <c r="B17" s="108" t="s">
+      <c r="B17" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="109"/>
-      <c r="D17" s="110"/>
+      <c r="C17" s="111"/>
+      <c r="D17" s="112"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -5116,11 +5145,11 @@
       <c r="J17" s="4"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="108" t="s">
+      <c r="M17" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="N17" s="109"/>
-      <c r="O17" s="110"/>
+      <c r="N17" s="111"/>
+      <c r="O17" s="112"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -5129,11 +5158,11 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="4"/>
-      <c r="B18" s="105" t="s">
+      <c r="B18" s="113" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="106"/>
-      <c r="D18" s="107"/>
+      <c r="C18" s="114"/>
+      <c r="D18" s="115"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -5142,11 +5171,11 @@
       <c r="J18" s="4"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="105" t="s">
+      <c r="M18" s="113" t="s">
         <v>129</v>
       </c>
-      <c r="N18" s="106"/>
-      <c r="O18" s="107"/>
+      <c r="N18" s="114"/>
+      <c r="O18" s="115"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -5186,9 +5215,9 @@
     </row>
     <row r="20" spans="1:21" ht="41.25" thickBot="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="108"/>
-      <c r="C20" s="109"/>
-      <c r="D20" s="110"/>
+      <c r="B20" s="110"/>
+      <c r="C20" s="111"/>
+      <c r="D20" s="112"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -5217,11 +5246,11 @@
     </row>
     <row r="21" spans="1:21" ht="14.25" thickBot="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="105" t="s">
+      <c r="B21" s="113" t="s">
         <v>129</v>
       </c>
-      <c r="C21" s="106"/>
-      <c r="D21" s="107"/>
+      <c r="C21" s="114"/>
+      <c r="D21" s="115"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -5288,11 +5317,11 @@
       <c r="J23" s="4"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="108" t="s">
+      <c r="M23" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="N23" s="109"/>
-      <c r="O23" s="110"/>
+      <c r="N23" s="111"/>
+      <c r="O23" s="112"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
@@ -5313,11 +5342,11 @@
       <c r="J24" s="4"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-      <c r="M24" s="105" t="s">
+      <c r="M24" s="113" t="s">
         <v>69</v>
       </c>
-      <c r="N24" s="106"/>
-      <c r="O24" s="107"/>
+      <c r="N24" s="114"/>
+      <c r="O24" s="115"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
@@ -5450,11 +5479,11 @@
       <c r="J29" s="4"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
-      <c r="M29" s="108" t="s">
+      <c r="M29" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="N29" s="109"/>
-      <c r="O29" s="110"/>
+      <c r="N29" s="111"/>
+      <c r="O29" s="112"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
@@ -5475,11 +5504,11 @@
       <c r="J30" s="4"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="105" t="s">
+      <c r="M30" s="113" t="s">
         <v>69</v>
       </c>
-      <c r="N30" s="106"/>
-      <c r="O30" s="107"/>
+      <c r="N30" s="114"/>
+      <c r="O30" s="115"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
@@ -5635,11 +5664,11 @@
       <c r="J36" s="4"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
-      <c r="M36" s="108" t="s">
+      <c r="M36" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="N36" s="109"/>
-      <c r="O36" s="110"/>
+      <c r="N36" s="111"/>
+      <c r="O36" s="112"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
@@ -5660,11 +5689,11 @@
       <c r="J37" s="4"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
-      <c r="M37" s="105" t="s">
+      <c r="M37" s="113" t="s">
         <v>69</v>
       </c>
-      <c r="N37" s="106"/>
-      <c r="O37" s="107"/>
+      <c r="N37" s="114"/>
+      <c r="O37" s="115"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
@@ -5843,14 +5872,14 @@
       <c r="J44" s="4"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
-      <c r="M44" s="108" t="s">
+      <c r="M44" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="N44" s="109"/>
-      <c r="O44" s="109"/>
-      <c r="P44" s="109"/>
-      <c r="Q44" s="109"/>
-      <c r="R44" s="110"/>
+      <c r="N44" s="111"/>
+      <c r="O44" s="111"/>
+      <c r="P44" s="111"/>
+      <c r="Q44" s="111"/>
+      <c r="R44" s="112"/>
       <c r="S44" s="2"/>
       <c r="T44" s="3"/>
       <c r="U44" s="3"/>
@@ -5868,14 +5897,14 @@
       <c r="J45" s="4"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
-      <c r="M45" s="105" t="s">
+      <c r="M45" s="113" t="s">
         <v>279</v>
       </c>
-      <c r="N45" s="106"/>
-      <c r="O45" s="106"/>
-      <c r="P45" s="106"/>
-      <c r="Q45" s="106"/>
-      <c r="R45" s="107"/>
+      <c r="N45" s="114"/>
+      <c r="O45" s="114"/>
+      <c r="P45" s="114"/>
+      <c r="Q45" s="114"/>
+      <c r="R45" s="115"/>
       <c r="S45" s="2"/>
       <c r="T45" s="3"/>
       <c r="U45" s="3"/>
@@ -5902,11 +5931,11 @@
       <c r="O46" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="P46" s="111" t="s">
+      <c r="P46" s="116" t="s">
         <v>130</v>
       </c>
-      <c r="Q46" s="111"/>
-      <c r="R46" s="112"/>
+      <c r="Q46" s="116"/>
+      <c r="R46" s="117"/>
       <c r="S46" s="2"/>
       <c r="T46" s="3"/>
       <c r="U46" s="3"/>
@@ -5933,22 +5962,22 @@
       <c r="O47" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="P47" s="111" t="s">
+      <c r="P47" s="116" t="s">
         <v>149</v>
       </c>
-      <c r="Q47" s="111"/>
-      <c r="R47" s="112"/>
+      <c r="Q47" s="116"/>
+      <c r="R47" s="117"/>
       <c r="S47" s="2"/>
       <c r="T47" s="3"/>
       <c r="U47" s="3"/>
     </row>
     <row r="48" spans="1:21">
       <c r="A48" s="1"/>
-      <c r="B48" s="108" t="s">
+      <c r="B48" s="110" t="s">
         <v>114</v>
       </c>
-      <c r="C48" s="109"/>
-      <c r="D48" s="110"/>
+      <c r="C48" s="111"/>
+      <c r="D48" s="112"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -5966,22 +5995,22 @@
       <c r="O48" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P48" s="111" t="s">
+      <c r="P48" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="Q48" s="111"/>
-      <c r="R48" s="112"/>
+      <c r="Q48" s="116"/>
+      <c r="R48" s="117"/>
       <c r="S48" s="2"/>
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
     </row>
     <row r="49" spans="1:21">
       <c r="A49" s="1"/>
-      <c r="B49" s="105" t="s">
+      <c r="B49" s="113" t="s">
         <v>112</v>
       </c>
-      <c r="C49" s="106"/>
-      <c r="D49" s="107"/>
+      <c r="C49" s="114"/>
+      <c r="D49" s="115"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -6038,11 +6067,11 @@
       <c r="O50" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P50" s="111" t="s">
+      <c r="P50" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="Q50" s="111"/>
-      <c r="R50" s="112"/>
+      <c r="Q50" s="116"/>
+      <c r="R50" s="117"/>
       <c r="S50" s="2"/>
       <c r="T50" s="3"/>
       <c r="U50" s="3"/>
@@ -6069,11 +6098,11 @@
       <c r="O51" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="P51" s="111" t="s">
+      <c r="P51" s="116" t="s">
         <v>20</v>
       </c>
-      <c r="Q51" s="111"/>
-      <c r="R51" s="112"/>
+      <c r="Q51" s="116"/>
+      <c r="R51" s="117"/>
       <c r="S51" s="2"/>
       <c r="T51" s="3"/>
       <c r="U51" s="3"/>
@@ -6131,11 +6160,11 @@
       <c r="O53" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="P53" s="111" t="s">
+      <c r="P53" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="Q53" s="111"/>
-      <c r="R53" s="112"/>
+      <c r="Q53" s="116"/>
+      <c r="R53" s="117"/>
       <c r="S53" s="2"/>
       <c r="T53" s="3"/>
       <c r="U53" s="3"/>
@@ -6300,13 +6329,13 @@
       <c r="J59" s="4"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
-      <c r="M59" s="108" t="s">
+      <c r="M59" s="110" t="s">
         <v>136</v>
       </c>
-      <c r="N59" s="109"/>
-      <c r="O59" s="109"/>
-      <c r="P59" s="109"/>
-      <c r="Q59" s="110"/>
+      <c r="N59" s="111"/>
+      <c r="O59" s="111"/>
+      <c r="P59" s="111"/>
+      <c r="Q59" s="112"/>
       <c r="R59" s="1"/>
       <c r="S59" s="2"/>
       <c r="T59" s="3"/>
@@ -6334,10 +6363,10 @@
       <c r="O60" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="P60" s="103" t="s">
+      <c r="P60" s="108" t="s">
         <v>137</v>
       </c>
-      <c r="Q60" s="104"/>
+      <c r="Q60" s="109"/>
       <c r="R60" s="1"/>
       <c r="S60" s="2"/>
       <c r="T60" s="3"/>
@@ -6365,10 +6394,10 @@
       <c r="O61" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="P61" s="103" t="s">
+      <c r="P61" s="108" t="s">
         <v>140</v>
       </c>
-      <c r="Q61" s="104"/>
+      <c r="Q61" s="109"/>
       <c r="R61" s="1"/>
       <c r="S61" s="2"/>
       <c r="T61" s="3"/>
@@ -6396,10 +6425,10 @@
       <c r="O62" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="P62" s="103" t="s">
+      <c r="P62" s="108" t="s">
         <v>22</v>
       </c>
-      <c r="Q62" s="104"/>
+      <c r="Q62" s="109"/>
       <c r="R62" s="1"/>
       <c r="S62" s="2"/>
       <c r="T62" s="3"/>
@@ -6427,10 +6456,10 @@
       <c r="O63" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P63" s="113" t="s">
+      <c r="P63" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="Q63" s="114"/>
+      <c r="Q63" s="107"/>
       <c r="R63" s="1"/>
       <c r="S63" s="2"/>
       <c r="T63" s="3"/>
@@ -6458,10 +6487,10 @@
       <c r="O64" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P64" s="103" t="s">
+      <c r="P64" s="108" t="s">
         <v>161</v>
       </c>
-      <c r="Q64" s="104"/>
+      <c r="Q64" s="109"/>
       <c r="R64" s="1"/>
       <c r="S64" s="2"/>
       <c r="T64" s="3"/>
@@ -6489,10 +6518,10 @@
       <c r="O65" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="P65" s="103" t="s">
+      <c r="P65" s="108" t="s">
         <v>60</v>
       </c>
-      <c r="Q65" s="104"/>
+      <c r="Q65" s="109"/>
       <c r="R65" s="1"/>
       <c r="S65" s="2"/>
       <c r="T65" s="3"/>
@@ -6520,10 +6549,10 @@
       <c r="O66" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P66" s="103" t="s">
+      <c r="P66" s="108" t="s">
         <v>218</v>
       </c>
-      <c r="Q66" s="104"/>
+      <c r="Q66" s="109"/>
       <c r="R66" s="1"/>
       <c r="S66" s="2"/>
       <c r="T66" s="3"/>
@@ -6551,10 +6580,10 @@
       <c r="O67" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P67" s="103" t="s">
+      <c r="P67" s="108" t="s">
         <v>217</v>
       </c>
-      <c r="Q67" s="104"/>
+      <c r="Q67" s="109"/>
       <c r="R67" s="1"/>
       <c r="S67" s="1"/>
       <c r="T67" s="3"/>
@@ -6596,13 +6625,13 @@
       <c r="J69" s="4"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
-      <c r="M69" s="108" t="s">
+      <c r="M69" s="110" t="s">
         <v>176</v>
       </c>
-      <c r="N69" s="109"/>
-      <c r="O69" s="109"/>
-      <c r="P69" s="109"/>
-      <c r="Q69" s="110"/>
+      <c r="N69" s="111"/>
+      <c r="O69" s="111"/>
+      <c r="P69" s="111"/>
+      <c r="Q69" s="112"/>
       <c r="R69" s="1"/>
       <c r="S69" s="1"/>
       <c r="T69" s="3"/>
@@ -6621,13 +6650,13 @@
       <c r="J70" s="4"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
-      <c r="M70" s="108" t="s">
+      <c r="M70" s="110" t="s">
         <v>177</v>
       </c>
-      <c r="N70" s="109"/>
-      <c r="O70" s="109"/>
-      <c r="P70" s="109"/>
-      <c r="Q70" s="110"/>
+      <c r="N70" s="111"/>
+      <c r="O70" s="111"/>
+      <c r="P70" s="111"/>
+      <c r="Q70" s="112"/>
       <c r="R70" s="1"/>
       <c r="S70" s="1"/>
       <c r="T70" s="3"/>
@@ -6655,10 +6684,10 @@
       <c r="O71" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="P71" s="113" t="s">
+      <c r="P71" s="106" t="s">
         <v>201</v>
       </c>
-      <c r="Q71" s="114"/>
+      <c r="Q71" s="107"/>
       <c r="R71" s="1"/>
       <c r="S71" s="1"/>
       <c r="T71" s="3"/>
@@ -6686,10 +6715,10 @@
       <c r="O72" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="P72" s="113" t="s">
+      <c r="P72" s="106" t="s">
         <v>193</v>
       </c>
-      <c r="Q72" s="114"/>
+      <c r="Q72" s="107"/>
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
       <c r="T72" s="3"/>
@@ -6717,10 +6746,10 @@
       <c r="O73" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="P73" s="113" t="s">
+      <c r="P73" s="106" t="s">
         <v>190</v>
       </c>
-      <c r="Q73" s="114"/>
+      <c r="Q73" s="107"/>
       <c r="R73" s="1"/>
       <c r="S73" s="1"/>
       <c r="T73" s="3"/>
@@ -6777,10 +6806,10 @@
       <c r="O75" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P75" s="103" t="s">
+      <c r="P75" s="108" t="s">
         <v>219</v>
       </c>
-      <c r="Q75" s="104"/>
+      <c r="Q75" s="109"/>
       <c r="R75" s="1"/>
       <c r="S75" s="1"/>
       <c r="T75" s="3"/>
@@ -6808,10 +6837,10 @@
       <c r="O76" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P76" s="103" t="s">
+      <c r="P76" s="108" t="s">
         <v>220</v>
       </c>
-      <c r="Q76" s="104"/>
+      <c r="Q76" s="109"/>
       <c r="R76" s="1"/>
       <c r="S76" s="1"/>
       <c r="T76" s="3"/>
@@ -6853,11 +6882,11 @@
       <c r="J78" s="4"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
-      <c r="M78" s="105" t="s">
+      <c r="M78" s="113" t="s">
         <v>191</v>
       </c>
-      <c r="N78" s="106"/>
-      <c r="O78" s="107"/>
+      <c r="N78" s="114"/>
+      <c r="O78" s="115"/>
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
       <c r="R78" s="1"/>
@@ -6959,11 +6988,11 @@
       <c r="J82" s="4"/>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
-      <c r="M82" s="105" t="s">
+      <c r="M82" s="113" t="s">
         <v>183</v>
       </c>
-      <c r="N82" s="106"/>
-      <c r="O82" s="107"/>
+      <c r="N82" s="114"/>
+      <c r="O82" s="115"/>
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
       <c r="R82" s="1"/>
@@ -7474,6 +7503,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="M78:O78"/>
+    <mergeCell ref="M82:O82"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="M59:Q59"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P51:R51"/>
+    <mergeCell ref="P53:R53"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="M44:R44"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="M45:R45"/>
+    <mergeCell ref="P46:R46"/>
+    <mergeCell ref="P47:R47"/>
+    <mergeCell ref="P48:R48"/>
+    <mergeCell ref="P50:R50"/>
     <mergeCell ref="P63:Q63"/>
     <mergeCell ref="P66:Q66"/>
     <mergeCell ref="B48:D48"/>
@@ -7490,34 +7547,6 @@
     <mergeCell ref="P60:Q60"/>
     <mergeCell ref="P62:Q62"/>
     <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="M45:R45"/>
-    <mergeCell ref="P46:R46"/>
-    <mergeCell ref="P47:R47"/>
-    <mergeCell ref="P48:R48"/>
-    <mergeCell ref="P50:R50"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="M44:R44"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="M78:O78"/>
-    <mergeCell ref="M82:O82"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="M59:Q59"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P51:R51"/>
-    <mergeCell ref="P53:R53"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="M29:O29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7527,10 +7556,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:T107"/>
+  <dimension ref="A2:T116"/>
   <sheetViews>
-    <sheetView topLeftCell="C67" workbookViewId="0">
-      <selection activeCell="E83" sqref="E83"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87:D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7546,32 +7575,32 @@
   <sheetData>
     <row r="2" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="3" spans="1:10">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="95" t="s">
         <v>288</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="93"/>
-      <c r="F3" s="91" t="s">
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="97"/>
+      <c r="F3" s="95" t="s">
         <v>299</v>
       </c>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="93"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="97"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="98" t="s">
         <v>289</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="96"/>
-      <c r="F4" s="94" t="s">
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="100"/>
+      <c r="F4" s="98" t="s">
         <v>292</v>
       </c>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="96"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="100"/>
     </row>
     <row r="5" spans="1:10" ht="14.25" thickBot="1">
       <c r="A5" s="8" t="s">
@@ -7729,32 +7758,32 @@
     </row>
     <row r="15" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="16" spans="1:10">
-      <c r="A16" s="91" t="s">
+      <c r="A16" s="95" t="s">
         <v>286</v>
       </c>
-      <c r="B16" s="92"/>
-      <c r="C16" s="92"/>
-      <c r="D16" s="93"/>
-      <c r="F16" s="91" t="s">
+      <c r="B16" s="96"/>
+      <c r="C16" s="96"/>
+      <c r="D16" s="97"/>
+      <c r="F16" s="95" t="s">
         <v>286</v>
       </c>
-      <c r="G16" s="92"/>
-      <c r="H16" s="92"/>
-      <c r="I16" s="93"/>
+      <c r="G16" s="96"/>
+      <c r="H16" s="96"/>
+      <c r="I16" s="97"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="94" t="s">
+      <c r="A17" s="98" t="s">
         <v>287</v>
       </c>
-      <c r="B17" s="95"/>
-      <c r="C17" s="95"/>
-      <c r="D17" s="96"/>
-      <c r="F17" s="94" t="s">
+      <c r="B17" s="99"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="100"/>
+      <c r="F17" s="98" t="s">
         <v>389</v>
       </c>
-      <c r="G17" s="95"/>
-      <c r="H17" s="95"/>
-      <c r="I17" s="96"/>
+      <c r="G17" s="99"/>
+      <c r="H17" s="99"/>
+      <c r="I17" s="100"/>
       <c r="J17">
         <v>1002</v>
       </c>
@@ -7804,20 +7833,20 @@
     </row>
     <row r="23" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="24" spans="1:10">
-      <c r="F24" s="91" t="s">
+      <c r="F24" s="95" t="s">
         <v>312</v>
       </c>
-      <c r="G24" s="92"/>
-      <c r="H24" s="92"/>
-      <c r="I24" s="93"/>
+      <c r="G24" s="96"/>
+      <c r="H24" s="96"/>
+      <c r="I24" s="97"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="F25" s="94" t="s">
+      <c r="F25" s="98" t="s">
         <v>313</v>
       </c>
-      <c r="G25" s="95"/>
-      <c r="H25" s="95"/>
-      <c r="I25" s="96"/>
+      <c r="G25" s="99"/>
+      <c r="H25" s="99"/>
+      <c r="I25" s="100"/>
     </row>
     <row r="26" spans="1:10">
       <c r="F26" s="8" t="s">
@@ -7838,33 +7867,33 @@
     </row>
     <row r="31" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="32" spans="1:10">
-      <c r="A32" s="91" t="s">
+      <c r="A32" s="95" t="s">
         <v>293</v>
       </c>
-      <c r="B32" s="92"/>
-      <c r="C32" s="92"/>
-      <c r="D32" s="93"/>
-      <c r="F32" s="91" t="s">
+      <c r="B32" s="96"/>
+      <c r="C32" s="96"/>
+      <c r="D32" s="97"/>
+      <c r="F32" s="95" t="s">
         <v>321</v>
       </c>
-      <c r="G32" s="92"/>
-      <c r="H32" s="92"/>
-      <c r="I32" s="93"/>
+      <c r="G32" s="96"/>
+      <c r="H32" s="96"/>
+      <c r="I32" s="97"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="94" t="s">
+      <c r="A33" s="98" t="s">
         <v>295</v>
       </c>
-      <c r="B33" s="95"/>
-      <c r="C33" s="95"/>
-      <c r="D33" s="96"/>
+      <c r="B33" s="99"/>
+      <c r="C33" s="99"/>
+      <c r="D33" s="100"/>
       <c r="E33" s="80"/>
-      <c r="F33" s="94" t="s">
+      <c r="F33" s="98" t="s">
         <v>322</v>
       </c>
-      <c r="G33" s="95"/>
-      <c r="H33" s="95"/>
-      <c r="I33" s="96"/>
+      <c r="G33" s="99"/>
+      <c r="H33" s="99"/>
+      <c r="I33" s="100"/>
     </row>
     <row r="34" spans="1:10" ht="14.25" thickBot="1">
       <c r="A34" s="8" t="s">
@@ -7975,35 +8004,35 @@
     </row>
     <row r="42" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="43" spans="1:10">
-      <c r="A43" s="91" t="s">
+      <c r="A43" s="95" t="s">
         <v>306</v>
       </c>
-      <c r="B43" s="92"/>
-      <c r="C43" s="92"/>
-      <c r="D43" s="93"/>
-      <c r="F43" s="91" t="s">
+      <c r="B43" s="96"/>
+      <c r="C43" s="96"/>
+      <c r="D43" s="97"/>
+      <c r="F43" s="95" t="s">
         <v>391</v>
       </c>
-      <c r="G43" s="92"/>
-      <c r="H43" s="92"/>
-      <c r="I43" s="93"/>
+      <c r="G43" s="96"/>
+      <c r="H43" s="96"/>
+      <c r="I43" s="97"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="94" t="s">
+      <c r="A44" s="98" t="s">
         <v>307</v>
       </c>
-      <c r="B44" s="95"/>
-      <c r="C44" s="95"/>
-      <c r="D44" s="96"/>
+      <c r="B44" s="99"/>
+      <c r="C44" s="99"/>
+      <c r="D44" s="100"/>
       <c r="E44">
         <v>1003</v>
       </c>
-      <c r="F44" s="94" t="s">
+      <c r="F44" s="98" t="s">
         <v>390</v>
       </c>
-      <c r="G44" s="95"/>
-      <c r="H44" s="95"/>
-      <c r="I44" s="96"/>
+      <c r="G44" s="99"/>
+      <c r="H44" s="99"/>
+      <c r="I44" s="100"/>
       <c r="J44">
         <v>1003</v>
       </c>
@@ -8023,40 +8052,40 @@
       </c>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="91" t="s">
+      <c r="A46" s="95" t="s">
         <v>310</v>
       </c>
-      <c r="B46" s="92"/>
-      <c r="C46" s="92"/>
-      <c r="D46" s="93"/>
+      <c r="B46" s="96"/>
+      <c r="C46" s="96"/>
+      <c r="D46" s="97"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="94" t="s">
+      <c r="A47" s="98" t="s">
         <v>311</v>
       </c>
-      <c r="B47" s="95"/>
-      <c r="C47" s="95"/>
-      <c r="D47" s="96"/>
+      <c r="B47" s="99"/>
+      <c r="C47" s="99"/>
+      <c r="D47" s="100"/>
       <c r="E47">
         <v>1004</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="49" spans="1:9">
-      <c r="A49" s="108" t="s">
+      <c r="A49" s="110" t="s">
         <v>315</v>
       </c>
-      <c r="B49" s="109"/>
-      <c r="C49" s="109"/>
-      <c r="D49" s="110"/>
+      <c r="B49" s="111"/>
+      <c r="C49" s="111"/>
+      <c r="D49" s="112"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="105" t="s">
+      <c r="A50" s="113" t="s">
         <v>316</v>
       </c>
-      <c r="B50" s="106"/>
-      <c r="C50" s="106"/>
-      <c r="D50" s="107"/>
+      <c r="B50" s="114"/>
+      <c r="C50" s="114"/>
+      <c r="D50" s="115"/>
       <c r="E50">
         <v>1005</v>
       </c>
@@ -8064,32 +8093,32 @@
     <row r="51" spans="1:9" ht="12.75" customHeight="1"/>
     <row r="52" spans="1:9" ht="13.5" customHeight="1" thickBot="1"/>
     <row r="53" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A53" s="91" t="s">
+      <c r="A53" s="95" t="s">
         <v>392</v>
       </c>
-      <c r="B53" s="92"/>
-      <c r="C53" s="92"/>
-      <c r="D53" s="93"/>
-      <c r="F53" s="91" t="s">
+      <c r="B53" s="96"/>
+      <c r="C53" s="96"/>
+      <c r="D53" s="97"/>
+      <c r="F53" s="95" t="s">
         <v>392</v>
       </c>
-      <c r="G53" s="92"/>
-      <c r="H53" s="92"/>
-      <c r="I53" s="93"/>
+      <c r="G53" s="96"/>
+      <c r="H53" s="96"/>
+      <c r="I53" s="97"/>
     </row>
     <row r="54" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A54" s="94" t="s">
+      <c r="A54" s="98" t="s">
         <v>397</v>
       </c>
-      <c r="B54" s="95"/>
-      <c r="C54" s="95"/>
-      <c r="D54" s="96"/>
-      <c r="F54" s="94" t="s">
+      <c r="B54" s="99"/>
+      <c r="C54" s="99"/>
+      <c r="D54" s="100"/>
+      <c r="F54" s="98" t="s">
         <v>398</v>
       </c>
-      <c r="G54" s="95"/>
-      <c r="H54" s="95"/>
-      <c r="I54" s="96"/>
+      <c r="G54" s="99"/>
+      <c r="H54" s="99"/>
+      <c r="I54" s="100"/>
     </row>
     <row r="55" spans="1:9" ht="13.5" customHeight="1">
       <c r="A55" s="8" t="s">
@@ -8144,32 +8173,32 @@
     <row r="64" spans="1:9" ht="12.75" customHeight="1"/>
     <row r="65" spans="1:10" ht="12.75" customHeight="1" thickBot="1"/>
     <row r="66" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A66" s="91" t="s">
+      <c r="A66" s="95" t="s">
         <v>377</v>
       </c>
-      <c r="B66" s="92"/>
-      <c r="C66" s="92"/>
-      <c r="D66" s="93"/>
-      <c r="F66" s="91" t="s">
+      <c r="B66" s="96"/>
+      <c r="C66" s="96"/>
+      <c r="D66" s="97"/>
+      <c r="F66" s="95" t="s">
         <v>359</v>
       </c>
-      <c r="G66" s="92"/>
-      <c r="H66" s="92"/>
-      <c r="I66" s="93"/>
+      <c r="G66" s="96"/>
+      <c r="H66" s="96"/>
+      <c r="I66" s="97"/>
     </row>
     <row r="67" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A67" s="94" t="s">
+      <c r="A67" s="98" t="s">
         <v>357</v>
       </c>
-      <c r="B67" s="95"/>
-      <c r="C67" s="95"/>
-      <c r="D67" s="96"/>
-      <c r="F67" s="105" t="s">
+      <c r="B67" s="99"/>
+      <c r="C67" s="99"/>
+      <c r="D67" s="100"/>
+      <c r="F67" s="113" t="s">
         <v>364</v>
       </c>
-      <c r="G67" s="106"/>
-      <c r="H67" s="106"/>
-      <c r="I67" s="107"/>
+      <c r="G67" s="114"/>
+      <c r="H67" s="114"/>
+      <c r="I67" s="115"/>
     </row>
     <row r="68" spans="1:10" ht="12.75" customHeight="1" thickBot="1">
       <c r="A68" s="8" t="s">
@@ -8274,46 +8303,46 @@
     </row>
     <row r="77" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="78" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A78" s="108" t="s">
+      <c r="A78" s="110" t="s">
         <v>317</v>
       </c>
-      <c r="B78" s="109"/>
-      <c r="C78" s="109"/>
-      <c r="D78" s="110"/>
-      <c r="F78" s="91" t="s">
+      <c r="B78" s="111"/>
+      <c r="C78" s="111"/>
+      <c r="D78" s="112"/>
+      <c r="F78" s="95" t="s">
         <v>235</v>
       </c>
-      <c r="G78" s="92"/>
-      <c r="H78" s="92"/>
-      <c r="I78" s="93"/>
+      <c r="G78" s="96"/>
+      <c r="H78" s="96"/>
+      <c r="I78" s="97"/>
     </row>
     <row r="79" spans="1:10">
-      <c r="A79" s="91" t="s">
+      <c r="A79" s="95" t="s">
         <v>233</v>
       </c>
-      <c r="B79" s="92"/>
-      <c r="C79" s="92"/>
-      <c r="D79" s="93"/>
+      <c r="B79" s="96"/>
+      <c r="C79" s="96"/>
+      <c r="D79" s="97"/>
       <c r="E79">
         <v>2001</v>
       </c>
-      <c r="F79" s="94" t="s">
+      <c r="F79" s="98" t="s">
         <v>236</v>
       </c>
-      <c r="G79" s="95"/>
-      <c r="H79" s="95"/>
-      <c r="I79" s="96"/>
+      <c r="G79" s="99"/>
+      <c r="H79" s="99"/>
+      <c r="I79" s="100"/>
       <c r="J79">
         <v>2001</v>
       </c>
     </row>
     <row r="80" spans="1:10">
-      <c r="A80" s="94" t="s">
+      <c r="A80" s="98" t="s">
         <v>234</v>
       </c>
-      <c r="B80" s="95"/>
-      <c r="C80" s="95"/>
-      <c r="D80" s="96"/>
+      <c r="B80" s="99"/>
+      <c r="C80" s="99"/>
+      <c r="D80" s="100"/>
       <c r="F80" s="8" t="s">
         <v>238</v>
       </c>
@@ -8327,7 +8356,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="81" spans="1:20">
+    <row r="81" spans="1:10">
       <c r="A81" s="8"/>
       <c r="B81" s="76"/>
       <c r="C81" s="15"/>
@@ -8345,7 +8374,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="82" spans="1:20">
+    <row r="82" spans="1:10">
       <c r="F82" s="8" t="s">
         <v>245</v>
       </c>
@@ -8359,7 +8388,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="83" spans="1:20">
+    <row r="83" spans="1:10">
       <c r="F83" s="8" t="s">
         <v>285</v>
       </c>
@@ -8373,387 +8402,478 @@
         <v>72</v>
       </c>
     </row>
-    <row r="86" spans="1:20">
-      <c r="E86" t="s">
+    <row r="85" spans="1:10" ht="14.25" thickBot="1"/>
+    <row r="86" spans="1:10" ht="14.25" thickBot="1">
+      <c r="A86" s="110" t="s">
+        <v>400</v>
+      </c>
+      <c r="B86" s="111"/>
+      <c r="C86" s="111"/>
+      <c r="D86" s="112"/>
+      <c r="F86" s="110" t="s">
+        <v>400</v>
+      </c>
+      <c r="G86" s="111"/>
+      <c r="H86" s="111"/>
+      <c r="I86" s="112"/>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87" s="95" t="s">
+        <v>233</v>
+      </c>
+      <c r="B87" s="96"/>
+      <c r="C87" s="96"/>
+      <c r="D87" s="97"/>
+      <c r="E87">
+        <v>2003</v>
+      </c>
+      <c r="F87" s="98" t="s">
+        <v>236</v>
+      </c>
+      <c r="G87" s="99"/>
+      <c r="H87" s="99"/>
+      <c r="I87" s="100"/>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88" s="98" t="s">
+        <v>234</v>
+      </c>
+      <c r="B88" s="99"/>
+      <c r="C88" s="99"/>
+      <c r="D88" s="100"/>
+      <c r="F88" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="G88" s="89" t="s">
+        <v>32</v>
+      </c>
+      <c r="H88" s="89" t="s">
+        <v>240</v>
+      </c>
+      <c r="I88" s="90" t="s">
+        <v>72</v>
+      </c>
+      <c r="J88">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89" s="8"/>
+      <c r="B89" s="89"/>
+      <c r="C89" s="15"/>
+      <c r="D89" s="90"/>
+      <c r="F89" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="G89" s="89" t="s">
+        <v>243</v>
+      </c>
+      <c r="H89" s="89" t="s">
+        <v>244</v>
+      </c>
+      <c r="I89" s="90" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="F90" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="G90" s="89" t="s">
+        <v>32</v>
+      </c>
+      <c r="H90" s="89" t="s">
+        <v>77</v>
+      </c>
+      <c r="I90" s="90" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="F91" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="G91" s="89" t="s">
+        <v>32</v>
+      </c>
+      <c r="H91" s="89" t="s">
+        <v>259</v>
+      </c>
+      <c r="I91" s="90" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="E95" t="s">
         <v>230</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F95" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="87" spans="1:20">
-      <c r="A87" s="89" t="s">
+    <row r="96" spans="1:10">
+      <c r="A96" s="101" t="s">
         <v>250</v>
       </c>
-      <c r="B87" s="90"/>
-      <c r="E87" s="21" t="s">
+      <c r="B96" s="102"/>
+      <c r="E96" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="F87" s="21" t="s">
+      <c r="F96" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="G87" s="21" t="s">
+      <c r="G96" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="H87" s="21" t="s">
+      <c r="H96" s="21" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="40.5">
-      <c r="A88" s="22">
+    <row r="97" spans="1:20" ht="40.5">
+      <c r="A97" s="22">
         <v>0</v>
       </c>
-      <c r="B88" s="25" t="s">
+      <c r="B97" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="E88" s="59"/>
-      <c r="F88" s="58">
+      <c r="E97" s="59"/>
+      <c r="F97" s="58">
         <v>5</v>
       </c>
-      <c r="G88" s="32" t="s">
+      <c r="G97" s="32" t="s">
         <v>267</v>
       </c>
-      <c r="H88" s="33" t="s">
+      <c r="H97" s="33" t="s">
         <v>379</v>
       </c>
-      <c r="L88" s="65"/>
-      <c r="M88" s="66"/>
-      <c r="N88" s="66"/>
-      <c r="O88" s="62"/>
-      <c r="P88" s="66"/>
-      <c r="Q88" s="66"/>
-      <c r="R88" s="66"/>
-      <c r="S88" s="66"/>
-      <c r="T88" s="67"/>
-    </row>
-    <row r="89" spans="1:20" ht="27">
-      <c r="A89" s="22">
+      <c r="L97" s="65"/>
+      <c r="M97" s="66"/>
+      <c r="N97" s="66"/>
+      <c r="O97" s="62"/>
+      <c r="P97" s="66"/>
+      <c r="Q97" s="66"/>
+      <c r="R97" s="66"/>
+      <c r="S97" s="66"/>
+      <c r="T97" s="67"/>
+    </row>
+    <row r="98" spans="1:20" ht="27">
+      <c r="A98" s="22">
         <v>1</v>
       </c>
-      <c r="B89" s="25" t="s">
+      <c r="B98" s="25" t="s">
         <v>232</v>
       </c>
-      <c r="E89" s="57"/>
-      <c r="F89" s="58">
+      <c r="E98" s="57"/>
+      <c r="F98" s="58">
         <v>6</v>
       </c>
-      <c r="G89" s="32" t="s">
+      <c r="G98" s="32" t="s">
         <v>378</v>
       </c>
-      <c r="H89" s="33" t="s">
+      <c r="H98" s="33" t="s">
         <v>380</v>
       </c>
-      <c r="L89" s="65"/>
-      <c r="M89" s="66"/>
-      <c r="N89" s="66"/>
-      <c r="O89" s="62"/>
-      <c r="P89" s="66"/>
-      <c r="Q89" s="66"/>
-      <c r="R89" s="66"/>
-      <c r="S89" s="66"/>
-      <c r="T89" s="67"/>
-    </row>
-    <row r="90" spans="1:20">
-      <c r="A90" s="22">
+      <c r="L98" s="65"/>
+      <c r="M98" s="66"/>
+      <c r="N98" s="66"/>
+      <c r="O98" s="62"/>
+      <c r="P98" s="66"/>
+      <c r="Q98" s="66"/>
+      <c r="R98" s="66"/>
+      <c r="S98" s="66"/>
+      <c r="T98" s="67"/>
+    </row>
+    <row r="99" spans="1:20">
+      <c r="A99" s="22">
         <v>2</v>
       </c>
-      <c r="B90" s="25" t="s">
+      <c r="B99" s="25" t="s">
         <v>249</v>
       </c>
-      <c r="E90" s="57"/>
-      <c r="F90" s="58"/>
-      <c r="G90" s="32"/>
-      <c r="H90" s="33"/>
-      <c r="L90" s="65"/>
-      <c r="M90" s="66"/>
-      <c r="N90" s="66"/>
-      <c r="O90" s="62"/>
-      <c r="P90" s="66"/>
-      <c r="Q90" s="66"/>
-      <c r="R90" s="66"/>
-      <c r="S90" s="66"/>
-      <c r="T90" s="67"/>
-    </row>
-    <row r="91" spans="1:20" ht="27">
-      <c r="E91" s="57"/>
-      <c r="F91" s="58">
+      <c r="E99" s="57"/>
+      <c r="F99" s="58"/>
+      <c r="G99" s="32"/>
+      <c r="H99" s="33"/>
+      <c r="L99" s="65"/>
+      <c r="M99" s="66"/>
+      <c r="N99" s="66"/>
+      <c r="O99" s="62"/>
+      <c r="P99" s="66"/>
+      <c r="Q99" s="66"/>
+      <c r="R99" s="66"/>
+      <c r="S99" s="66"/>
+      <c r="T99" s="67"/>
+    </row>
+    <row r="100" spans="1:20" ht="27">
+      <c r="E100" s="57"/>
+      <c r="F100" s="58">
         <v>201</v>
       </c>
-      <c r="G91" s="32" t="s">
+      <c r="G100" s="32" t="s">
         <v>247</v>
       </c>
-      <c r="H91" s="33" t="s">
+      <c r="H100" s="33" t="s">
         <v>251</v>
       </c>
-      <c r="L91" s="65"/>
-      <c r="M91" s="66"/>
-      <c r="N91" s="66"/>
-      <c r="O91" s="61"/>
-      <c r="P91" s="66"/>
-      <c r="Q91" s="61"/>
-      <c r="R91" s="66"/>
-      <c r="S91" s="66"/>
-      <c r="T91" s="67"/>
-    </row>
-    <row r="92" spans="1:20" ht="27">
-      <c r="E92" s="59" t="s">
+      <c r="L100" s="65"/>
+      <c r="M100" s="66"/>
+      <c r="N100" s="66"/>
+      <c r="O100" s="61"/>
+      <c r="P100" s="66"/>
+      <c r="Q100" s="61"/>
+      <c r="R100" s="66"/>
+      <c r="S100" s="66"/>
+      <c r="T100" s="67"/>
+    </row>
+    <row r="101" spans="1:20" ht="27">
+      <c r="E101" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="F92" s="58">
+      <c r="F101" s="58">
         <v>202</v>
       </c>
-      <c r="G92" s="32" t="s">
+      <c r="G101" s="32" t="s">
         <v>252</v>
       </c>
-      <c r="H92" s="57" t="s">
+      <c r="H101" s="57" t="s">
         <v>253</v>
       </c>
-      <c r="L92" s="65"/>
-      <c r="M92" s="66"/>
-      <c r="N92" s="66"/>
-      <c r="O92" s="63"/>
-      <c r="P92" s="60">
+      <c r="L101" s="65"/>
+      <c r="M101" s="66"/>
+      <c r="N101" s="66"/>
+      <c r="O101" s="63"/>
+      <c r="P101" s="60">
         <v>1</v>
       </c>
-      <c r="Q92" s="64"/>
-      <c r="R92" s="66"/>
-      <c r="S92" s="66"/>
-      <c r="T92" s="67"/>
-    </row>
-    <row r="93" spans="1:20" ht="27">
-      <c r="E93" s="59" t="s">
+      <c r="Q101" s="64"/>
+      <c r="R101" s="66"/>
+      <c r="S101" s="66"/>
+      <c r="T101" s="67"/>
+    </row>
+    <row r="102" spans="1:20" ht="27">
+      <c r="E102" s="59" t="s">
         <v>262</v>
       </c>
-      <c r="F93" s="58">
+      <c r="F102" s="58">
         <v>203</v>
       </c>
-      <c r="G93" s="32" t="s">
+      <c r="G102" s="32" t="s">
         <v>254</v>
       </c>
-      <c r="H93" s="57" t="s">
+      <c r="H102" s="57" t="s">
         <v>256</v>
       </c>
-      <c r="L93" s="65"/>
-      <c r="M93" s="66"/>
-      <c r="N93" s="66"/>
-      <c r="O93" s="66"/>
-      <c r="P93" s="66"/>
-      <c r="Q93" s="66"/>
-      <c r="R93" s="74">
+      <c r="L102" s="65"/>
+      <c r="M102" s="66"/>
+      <c r="N102" s="66"/>
+      <c r="O102" s="66"/>
+      <c r="P102" s="66"/>
+      <c r="Q102" s="66"/>
+      <c r="R102" s="74">
         <v>4</v>
       </c>
-      <c r="S93" s="66"/>
-      <c r="T93" s="67"/>
-    </row>
-    <row r="94" spans="1:20" ht="27">
-      <c r="E94" s="59"/>
-      <c r="F94" s="58">
+      <c r="S102" s="66"/>
+      <c r="T102" s="67"/>
+    </row>
+    <row r="103" spans="1:20" ht="27">
+      <c r="E103" s="59"/>
+      <c r="F103" s="58">
         <v>204</v>
       </c>
-      <c r="G94" s="32" t="s">
+      <c r="G103" s="32" t="s">
         <v>255</v>
       </c>
-      <c r="H94" s="57" t="s">
+      <c r="H103" s="57" t="s">
         <v>257</v>
       </c>
-      <c r="L94" s="65"/>
-      <c r="M94" s="66"/>
-      <c r="N94" s="66"/>
-      <c r="O94" s="66"/>
-      <c r="P94" s="66"/>
-      <c r="Q94" s="66"/>
-      <c r="R94" s="115"/>
-      <c r="S94" s="66"/>
-      <c r="T94" s="67"/>
-    </row>
-    <row r="95" spans="1:20" ht="40.5">
-      <c r="E95" s="59" t="s">
+      <c r="L103" s="65"/>
+      <c r="M103" s="66"/>
+      <c r="N103" s="66"/>
+      <c r="O103" s="66"/>
+      <c r="P103" s="66"/>
+      <c r="Q103" s="66"/>
+      <c r="R103" s="91"/>
+      <c r="S103" s="66"/>
+      <c r="T103" s="67"/>
+    </row>
+    <row r="104" spans="1:20" ht="40.5">
+      <c r="E104" s="59" t="s">
         <v>402</v>
       </c>
-      <c r="F95" s="58">
+      <c r="F104" s="58">
         <v>205</v>
       </c>
-      <c r="G95" s="32" t="s">
+      <c r="G104" s="32" t="s">
         <v>400</v>
       </c>
-      <c r="H95" s="57" t="s">
+      <c r="H104" s="57" t="s">
         <v>403</v>
       </c>
-      <c r="L95" s="65"/>
-      <c r="M95" s="74">
+      <c r="L104" s="65"/>
+      <c r="M104" s="74">
         <v>3</v>
       </c>
-      <c r="N95" s="66"/>
-      <c r="O95" s="71"/>
-      <c r="P95" s="72">
+      <c r="N104" s="66"/>
+      <c r="O104" s="71"/>
+      <c r="P104" s="72">
         <v>2</v>
       </c>
-      <c r="Q95" s="72"/>
-      <c r="R95" s="73"/>
-      <c r="S95" s="66"/>
-      <c r="T95" s="67"/>
-    </row>
-    <row r="96" spans="1:20" ht="27">
-      <c r="E96" s="57"/>
-      <c r="F96" s="58">
-        <v>211</v>
-      </c>
-      <c r="G96" s="32" t="s">
-        <v>258</v>
-      </c>
-      <c r="H96" s="57" t="s">
-        <v>260</v>
-      </c>
-      <c r="L96" s="68"/>
-      <c r="M96" s="69"/>
-      <c r="N96" s="69"/>
-      <c r="O96" s="69"/>
-      <c r="P96" s="69"/>
-      <c r="Q96" s="69"/>
-      <c r="R96" s="69"/>
-      <c r="S96" s="69"/>
-      <c r="T96" s="70"/>
-    </row>
-    <row r="97" spans="5:8">
-      <c r="E97" s="57"/>
-      <c r="F97" s="58">
-        <v>212</v>
-      </c>
-      <c r="G97" s="32" t="s">
-        <v>269</v>
-      </c>
-      <c r="H97" s="57" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="98" spans="5:8" ht="27">
-      <c r="E98" s="59"/>
-      <c r="F98" s="58">
-        <v>213</v>
-      </c>
-      <c r="G98" s="32" t="s">
-        <v>268</v>
-      </c>
-      <c r="H98" s="57" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="99" spans="5:8" ht="27">
-      <c r="E99" s="59"/>
-      <c r="F99" s="58">
-        <v>214</v>
-      </c>
-      <c r="G99" s="32" t="s">
-        <v>270</v>
-      </c>
-      <c r="H99" s="57" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="100" spans="5:8">
-      <c r="E100" s="59"/>
-      <c r="F100" s="58">
-        <v>215</v>
-      </c>
-      <c r="G100" s="57" t="s">
-        <v>271</v>
-      </c>
-      <c r="H100" s="57" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="101" spans="5:8" ht="27">
-      <c r="E101" s="59" t="s">
-        <v>282</v>
-      </c>
-      <c r="F101" s="58">
-        <v>220</v>
-      </c>
-      <c r="G101" s="84" t="s">
-        <v>345</v>
-      </c>
-      <c r="H101" s="57" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="102" spans="5:8" ht="40.5">
-      <c r="E102" s="59" t="s">
-        <v>283</v>
-      </c>
-      <c r="F102" s="58">
-        <v>230</v>
-      </c>
-      <c r="G102" s="84" t="s">
-        <v>350</v>
-      </c>
-      <c r="H102" s="57" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="103" spans="5:8" ht="40.5">
-      <c r="E103" s="59" t="s">
-        <v>280</v>
-      </c>
-      <c r="F103" s="58">
-        <v>240</v>
-      </c>
-      <c r="G103" s="84" t="s">
-        <v>351</v>
-      </c>
-      <c r="H103" s="57" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="104" spans="5:8" ht="40.5">
-      <c r="E104" s="59"/>
-      <c r="F104" s="58">
-        <v>250</v>
-      </c>
-      <c r="G104" s="84" t="s">
-        <v>349</v>
-      </c>
-      <c r="H104" s="57" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="105" spans="5:8">
+      <c r="Q104" s="72"/>
+      <c r="R104" s="73"/>
+      <c r="S104" s="66"/>
+      <c r="T104" s="67"/>
+    </row>
+    <row r="105" spans="1:20" ht="27">
       <c r="E105" s="57"/>
       <c r="F105" s="58">
+        <v>211</v>
+      </c>
+      <c r="G105" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="H105" s="57" t="s">
+        <v>260</v>
+      </c>
+      <c r="L105" s="68"/>
+      <c r="M105" s="69"/>
+      <c r="N105" s="69"/>
+      <c r="O105" s="69"/>
+      <c r="P105" s="69"/>
+      <c r="Q105" s="69"/>
+      <c r="R105" s="69"/>
+      <c r="S105" s="69"/>
+      <c r="T105" s="70"/>
+    </row>
+    <row r="106" spans="1:20">
+      <c r="E106" s="57"/>
+      <c r="F106" s="58">
+        <v>212</v>
+      </c>
+      <c r="G106" s="32" t="s">
+        <v>269</v>
+      </c>
+      <c r="H106" s="57" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" ht="27">
+      <c r="E107" s="59"/>
+      <c r="F107" s="58">
+        <v>213</v>
+      </c>
+      <c r="G107" s="32" t="s">
+        <v>268</v>
+      </c>
+      <c r="H107" s="57" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" ht="27">
+      <c r="E108" s="59"/>
+      <c r="F108" s="58">
+        <v>214</v>
+      </c>
+      <c r="G108" s="32" t="s">
+        <v>270</v>
+      </c>
+      <c r="H108" s="57" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20">
+      <c r="E109" s="59"/>
+      <c r="F109" s="58">
+        <v>215</v>
+      </c>
+      <c r="G109" s="57" t="s">
+        <v>271</v>
+      </c>
+      <c r="H109" s="57" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" ht="27">
+      <c r="E110" s="59" t="s">
+        <v>282</v>
+      </c>
+      <c r="F110" s="58">
+        <v>220</v>
+      </c>
+      <c r="G110" s="84" t="s">
+        <v>345</v>
+      </c>
+      <c r="H110" s="57" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" ht="40.5">
+      <c r="E111" s="59" t="s">
+        <v>283</v>
+      </c>
+      <c r="F111" s="58">
+        <v>230</v>
+      </c>
+      <c r="G111" s="84" t="s">
+        <v>350</v>
+      </c>
+      <c r="H111" s="57" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" ht="40.5">
+      <c r="E112" s="59" t="s">
         <v>280</v>
       </c>
-      <c r="G105" s="32"/>
-      <c r="H105" s="57"/>
-    </row>
-    <row r="106" spans="5:8">
-      <c r="E106" s="57"/>
-      <c r="F106" s="58"/>
-      <c r="G106" s="32"/>
-      <c r="H106" s="57"/>
-    </row>
-    <row r="107" spans="5:8">
-      <c r="E107" s="57"/>
-      <c r="F107" s="58"/>
-      <c r="G107" s="32"/>
-      <c r="H107" s="57"/>
+      <c r="F112" s="58">
+        <v>240</v>
+      </c>
+      <c r="G112" s="84" t="s">
+        <v>351</v>
+      </c>
+      <c r="H112" s="57" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="113" spans="5:8" ht="40.5">
+      <c r="E113" s="59"/>
+      <c r="F113" s="58">
+        <v>250</v>
+      </c>
+      <c r="G113" s="84" t="s">
+        <v>349</v>
+      </c>
+      <c r="H113" s="57" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="114" spans="5:8">
+      <c r="E114" s="57"/>
+      <c r="F114" s="58">
+        <v>280</v>
+      </c>
+      <c r="G114" s="32"/>
+      <c r="H114" s="57"/>
+    </row>
+    <row r="115" spans="5:8">
+      <c r="E115" s="57"/>
+      <c r="F115" s="58"/>
+      <c r="G115" s="32"/>
+      <c r="H115" s="57"/>
+    </row>
+    <row r="116" spans="5:8">
+      <c r="E116" s="57"/>
+      <c r="F116" s="58"/>
+      <c r="G116" s="32"/>
+      <c r="H116" s="57"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="A66:D66"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="F66:I66"/>
-    <mergeCell ref="F67:I67"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="A79:D79"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="F78:I78"/>
-    <mergeCell ref="F79:I79"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="F16:I16"/>
+  <mergeCells count="41">
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="A86:D86"/>
+    <mergeCell ref="F86:I86"/>
     <mergeCell ref="A54:D54"/>
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="F17:I17"/>
@@ -8770,21 +8890,36 @@
     <mergeCell ref="F33:I33"/>
     <mergeCell ref="A44:D44"/>
     <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="F44:I44"/>
-    <mergeCell ref="F43:I43"/>
-    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="F67:I67"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A79:D79"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="F78:I78"/>
+    <mergeCell ref="F79:I79"/>
+    <mergeCell ref="A87:D87"/>
+    <mergeCell ref="F87:I87"/>
+    <mergeCell ref="A88:D88"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C7" location="参数说明!A1" display="选项附加值1"/>
     <hyperlink ref="H8" location="参数说明!A1" display="选项附加值1"/>
-    <hyperlink ref="G104" location="参数说明!A1" display="胡牌8"/>
+    <hyperlink ref="G113" location="参数说明!A1" display="胡牌8"/>
     <hyperlink ref="C37" location="参数说明!A1" display="状态位3"/>
     <hyperlink ref="C38" location="参数说明!A1" display="额外值4"/>
-    <hyperlink ref="G101" location="参数说明!A1" display="吃牌5"/>
-    <hyperlink ref="G102" location="参数说明!A1" display="杠6"/>
-    <hyperlink ref="G103" location="参数说明!A1" display="听牌7"/>
+    <hyperlink ref="G110" location="参数说明!A1" display="吃牌5"/>
+    <hyperlink ref="G111" location="参数说明!A1" display="杠6"/>
+    <hyperlink ref="G112" location="参数说明!A1" display="听牌7"/>
     <hyperlink ref="H12" location="参数说明!A1" display="游戏数据附加值2"/>
     <hyperlink ref="H68" location="参数说明!A1" display="得分详情10"/>
   </hyperlinks>
@@ -8799,7 +8934,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8898,7 +9033,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B10:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7:M19"/>
     </sheetView>
   </sheetViews>
@@ -8906,44 +9041,44 @@
   <sheetData>
     <row r="10" spans="2:14" ht="14.25" thickBot="1"/>
     <row r="11" spans="2:14">
-      <c r="B11" s="91" t="s">
+      <c r="B11" s="95" t="s">
         <v>387</v>
       </c>
-      <c r="C11" s="92"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="93"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="97"/>
       <c r="F11">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="14.25" thickBot="1"/>
     <row r="13" spans="2:14">
-      <c r="B13" s="91" t="s">
+      <c r="B13" s="95" t="s">
         <v>388</v>
       </c>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="93"/>
-      <c r="J13" s="91" t="s">
+      <c r="C13" s="96"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="97"/>
+      <c r="J13" s="95" t="s">
         <v>388</v>
       </c>
-      <c r="K13" s="92"/>
-      <c r="L13" s="92"/>
-      <c r="M13" s="93"/>
+      <c r="K13" s="96"/>
+      <c r="L13" s="96"/>
+      <c r="M13" s="97"/>
     </row>
     <row r="14" spans="2:14">
-      <c r="B14" s="94" t="s">
+      <c r="B14" s="98" t="s">
         <v>386</v>
       </c>
-      <c r="C14" s="95"/>
-      <c r="D14" s="95"/>
-      <c r="E14" s="96"/>
-      <c r="J14" s="94" t="s">
+      <c r="C14" s="99"/>
+      <c r="D14" s="99"/>
+      <c r="E14" s="100"/>
+      <c r="J14" s="98" t="s">
         <v>386</v>
       </c>
-      <c r="K14" s="95"/>
-      <c r="L14" s="95"/>
-      <c r="M14" s="96"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="99"/>
+      <c r="M14" s="100"/>
     </row>
     <row r="15" spans="2:14" ht="14.25" thickBot="1">
       <c r="B15" s="8" t="s">

--- a/doc/最新接口_拟定.xlsx
+++ b/doc/最新接口_拟定.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="首标签" sheetId="1" r:id="rId1"/>
@@ -12,8 +12,9 @@
     <sheet name="麻将" sheetId="3" r:id="rId3"/>
     <sheet name="参数说明" sheetId="4" r:id="rId4"/>
     <sheet name="登录" sheetId="5" r:id="rId5"/>
+    <sheet name="http登录" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -1106,7 +1107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="484">
   <si>
     <t>int</t>
   </si>
@@ -2758,6 +2759,322 @@
   </si>
   <si>
     <t>optional</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>noticeVersions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渠道id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goUrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提审服务器服务器（如果有则跳转，否则不跳转）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本地公告缓存id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quzoneStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器状态（0：停机，1空闲，2爆满，3：维护）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;NetNotice&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NetNotice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公告类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>titleName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>titleDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>startTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>downv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>downr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完整包下载地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源更新地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List《NetZone》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zones</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏区列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NetZone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>port</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>udpport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器状态（0：停机，1空闲，2爆满，3：维护）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEVersionCheck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一个版本请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NetDevice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dev</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RELogin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三方登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RELoginThird</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ThirdKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ukey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELogin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ipPort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ip+":"+port(如果为空则按照玩家自选，否则强制跳转)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NetDevice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>udid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mac</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备名子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备简单信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备mac地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备串号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REVersionCheck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oldPwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>newPwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果：error字段不空空表示错误，否则正确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以上接口格式一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>srcId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://47.92.115.60:8080/LGameLogin/gameserver/version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://47.92.115.60:8080/LGameLogin/gameserver/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://47.92.115.60:8080/LGameLogin/gameserver/login_three</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReModifyPwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://47.92.115.60:8080/LGameLogin/gameserver/modifyPwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://47.92.115.60:8080/LGameLogin/gameserver/register</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新密码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3366,7 +3683,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3529,6 +3846,9 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="30" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3603,6 +3923,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3900,8 +4223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:P51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M11" sqref="B4:M11"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3921,32 +4244,32 @@
   <sheetData>
     <row r="3" spans="2:16" ht="14.25" thickBot="1"/>
     <row r="4" spans="2:16">
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="98" t="s">
         <v>233</v>
       </c>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="97"/>
-      <c r="I4" s="95" t="s">
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="100"/>
+      <c r="I4" s="98" t="s">
         <v>235</v>
       </c>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="97"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="100"/>
     </row>
     <row r="5" spans="2:16">
-      <c r="B5" s="98" t="s">
+      <c r="B5" s="101" t="s">
         <v>234</v>
       </c>
-      <c r="C5" s="99"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="100"/>
-      <c r="I5" s="98" t="s">
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="103"/>
+      <c r="I5" s="101" t="s">
         <v>236</v>
       </c>
-      <c r="J5" s="99"/>
-      <c r="K5" s="99"/>
-      <c r="L5" s="100"/>
+      <c r="J5" s="102"/>
+      <c r="K5" s="102"/>
+      <c r="L5" s="103"/>
     </row>
     <row r="6" spans="2:16">
       <c r="B6" s="8"/>
@@ -4010,21 +4333,21 @@
     </row>
     <row r="11" spans="2:16" ht="14.25" customHeight="1"/>
     <row r="14" spans="2:16" ht="14.25" thickBot="1">
-      <c r="I14" s="92" t="s">
+      <c r="I14" s="95" t="s">
         <v>54</v>
       </c>
-      <c r="J14" s="93"/>
-      <c r="K14" s="93"/>
-      <c r="L14" s="93"/>
-      <c r="M14" s="94"/>
+      <c r="J14" s="96"/>
+      <c r="K14" s="96"/>
+      <c r="L14" s="96"/>
+      <c r="M14" s="97"/>
     </row>
     <row r="15" spans="2:16">
-      <c r="B15" s="95" t="s">
+      <c r="B15" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="96"/>
-      <c r="D15" s="96"/>
-      <c r="E15" s="97"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="100"/>
       <c r="I15" s="21" t="s">
         <v>34</v>
       </c>
@@ -4039,18 +4362,18 @@
         <v>34</v>
       </c>
       <c r="N15" s="3"/>
-      <c r="O15" s="101" t="s">
+      <c r="O15" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="P15" s="102"/>
+      <c r="P15" s="105"/>
     </row>
     <row r="16" spans="2:16">
-      <c r="B16" s="98" t="s">
+      <c r="B16" s="101" t="s">
         <v>234</v>
       </c>
-      <c r="C16" s="99"/>
-      <c r="D16" s="99"/>
-      <c r="E16" s="100"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="103"/>
       <c r="I16" s="33"/>
       <c r="J16" s="30"/>
       <c r="K16" s="31">
@@ -4548,12 +4871,12 @@
       <c r="P37" s="23"/>
     </row>
     <row r="38" spans="2:16">
-      <c r="B38" s="103" t="s">
+      <c r="B38" s="106" t="s">
         <v>263</v>
       </c>
-      <c r="C38" s="104"/>
-      <c r="D38" s="104"/>
-      <c r="E38" s="105"/>
+      <c r="C38" s="107"/>
+      <c r="D38" s="107"/>
+      <c r="E38" s="108"/>
       <c r="I38" s="33" t="s">
         <v>117</v>
       </c>
@@ -4635,18 +4958,18 @@
     <row r="42" spans="2:16" ht="22.5" customHeight="1"/>
     <row r="43" spans="2:16" ht="31.5" customHeight="1"/>
     <row r="44" spans="2:16">
-      <c r="H44" s="101" t="s">
+      <c r="H44" s="104" t="s">
         <v>248</v>
       </c>
-      <c r="I44" s="102"/>
-      <c r="J44" s="101" t="s">
+      <c r="I44" s="105"/>
+      <c r="J44" s="104" t="s">
         <v>116</v>
       </c>
-      <c r="K44" s="102"/>
-      <c r="L44" s="101" t="s">
+      <c r="K44" s="105"/>
+      <c r="L44" s="104" t="s">
         <v>77</v>
       </c>
-      <c r="M44" s="102"/>
+      <c r="M44" s="105"/>
     </row>
     <row r="45" spans="2:16">
       <c r="H45" s="22">
@@ -4967,11 +5290,11 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="4"/>
-      <c r="B10" s="110" t="s">
+      <c r="B10" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="111"/>
-      <c r="D10" s="112"/>
+      <c r="C10" s="114"/>
+      <c r="D10" s="115"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -4980,11 +5303,11 @@
       <c r="J10" s="4"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="110" t="s">
+      <c r="M10" s="113" t="s">
         <v>28</v>
       </c>
-      <c r="N10" s="111"/>
-      <c r="O10" s="112"/>
+      <c r="N10" s="114"/>
+      <c r="O10" s="115"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -4994,11 +5317,11 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="4"/>
-      <c r="B11" s="113" t="s">
+      <c r="B11" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="114"/>
-      <c r="D11" s="115"/>
+      <c r="C11" s="117"/>
+      <c r="D11" s="118"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -5007,11 +5330,11 @@
       <c r="J11" s="4"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="113" t="s">
+      <c r="M11" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="N11" s="114"/>
-      <c r="O11" s="115"/>
+      <c r="N11" s="117"/>
+      <c r="O11" s="118"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -5132,11 +5455,11 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="4"/>
-      <c r="B17" s="110" t="s">
+      <c r="B17" s="113" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="111"/>
-      <c r="D17" s="112"/>
+      <c r="C17" s="114"/>
+      <c r="D17" s="115"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -5145,11 +5468,11 @@
       <c r="J17" s="4"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="110" t="s">
+      <c r="M17" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="N17" s="111"/>
-      <c r="O17" s="112"/>
+      <c r="N17" s="114"/>
+      <c r="O17" s="115"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -5158,11 +5481,11 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="4"/>
-      <c r="B18" s="113" t="s">
+      <c r="B18" s="116" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="114"/>
-      <c r="D18" s="115"/>
+      <c r="C18" s="117"/>
+      <c r="D18" s="118"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -5171,11 +5494,11 @@
       <c r="J18" s="4"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="113" t="s">
+      <c r="M18" s="116" t="s">
         <v>129</v>
       </c>
-      <c r="N18" s="114"/>
-      <c r="O18" s="115"/>
+      <c r="N18" s="117"/>
+      <c r="O18" s="118"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -5215,9 +5538,9 @@
     </row>
     <row r="20" spans="1:21" ht="41.25" thickBot="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="110"/>
-      <c r="C20" s="111"/>
-      <c r="D20" s="112"/>
+      <c r="B20" s="113"/>
+      <c r="C20" s="114"/>
+      <c r="D20" s="115"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -5246,11 +5569,11 @@
     </row>
     <row r="21" spans="1:21" ht="14.25" thickBot="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="113" t="s">
+      <c r="B21" s="116" t="s">
         <v>129</v>
       </c>
-      <c r="C21" s="114"/>
-      <c r="D21" s="115"/>
+      <c r="C21" s="117"/>
+      <c r="D21" s="118"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -5317,11 +5640,11 @@
       <c r="J23" s="4"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="110" t="s">
+      <c r="M23" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="N23" s="111"/>
-      <c r="O23" s="112"/>
+      <c r="N23" s="114"/>
+      <c r="O23" s="115"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
@@ -5342,11 +5665,11 @@
       <c r="J24" s="4"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-      <c r="M24" s="113" t="s">
+      <c r="M24" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="N24" s="114"/>
-      <c r="O24" s="115"/>
+      <c r="N24" s="117"/>
+      <c r="O24" s="118"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
@@ -5479,11 +5802,11 @@
       <c r="J29" s="4"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
-      <c r="M29" s="110" t="s">
+      <c r="M29" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="N29" s="111"/>
-      <c r="O29" s="112"/>
+      <c r="N29" s="114"/>
+      <c r="O29" s="115"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
@@ -5504,11 +5827,11 @@
       <c r="J30" s="4"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="113" t="s">
+      <c r="M30" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="N30" s="114"/>
-      <c r="O30" s="115"/>
+      <c r="N30" s="117"/>
+      <c r="O30" s="118"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
@@ -5664,11 +5987,11 @@
       <c r="J36" s="4"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
-      <c r="M36" s="110" t="s">
+      <c r="M36" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="N36" s="111"/>
-      <c r="O36" s="112"/>
+      <c r="N36" s="114"/>
+      <c r="O36" s="115"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
@@ -5689,11 +6012,11 @@
       <c r="J37" s="4"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
-      <c r="M37" s="113" t="s">
+      <c r="M37" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="N37" s="114"/>
-      <c r="O37" s="115"/>
+      <c r="N37" s="117"/>
+      <c r="O37" s="118"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
@@ -5872,14 +6195,14 @@
       <c r="J44" s="4"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
-      <c r="M44" s="110" t="s">
+      <c r="M44" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="N44" s="111"/>
-      <c r="O44" s="111"/>
-      <c r="P44" s="111"/>
-      <c r="Q44" s="111"/>
-      <c r="R44" s="112"/>
+      <c r="N44" s="114"/>
+      <c r="O44" s="114"/>
+      <c r="P44" s="114"/>
+      <c r="Q44" s="114"/>
+      <c r="R44" s="115"/>
       <c r="S44" s="2"/>
       <c r="T44" s="3"/>
       <c r="U44" s="3"/>
@@ -5897,14 +6220,14 @@
       <c r="J45" s="4"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
-      <c r="M45" s="113" t="s">
+      <c r="M45" s="116" t="s">
         <v>279</v>
       </c>
-      <c r="N45" s="114"/>
-      <c r="O45" s="114"/>
-      <c r="P45" s="114"/>
-      <c r="Q45" s="114"/>
-      <c r="R45" s="115"/>
+      <c r="N45" s="117"/>
+      <c r="O45" s="117"/>
+      <c r="P45" s="117"/>
+      <c r="Q45" s="117"/>
+      <c r="R45" s="118"/>
       <c r="S45" s="2"/>
       <c r="T45" s="3"/>
       <c r="U45" s="3"/>
@@ -5931,11 +6254,11 @@
       <c r="O46" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="P46" s="116" t="s">
+      <c r="P46" s="119" t="s">
         <v>130</v>
       </c>
-      <c r="Q46" s="116"/>
-      <c r="R46" s="117"/>
+      <c r="Q46" s="119"/>
+      <c r="R46" s="120"/>
       <c r="S46" s="2"/>
       <c r="T46" s="3"/>
       <c r="U46" s="3"/>
@@ -5962,22 +6285,22 @@
       <c r="O47" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="P47" s="116" t="s">
+      <c r="P47" s="119" t="s">
         <v>149</v>
       </c>
-      <c r="Q47" s="116"/>
-      <c r="R47" s="117"/>
+      <c r="Q47" s="119"/>
+      <c r="R47" s="120"/>
       <c r="S47" s="2"/>
       <c r="T47" s="3"/>
       <c r="U47" s="3"/>
     </row>
     <row r="48" spans="1:21">
       <c r="A48" s="1"/>
-      <c r="B48" s="110" t="s">
+      <c r="B48" s="113" t="s">
         <v>114</v>
       </c>
-      <c r="C48" s="111"/>
-      <c r="D48" s="112"/>
+      <c r="C48" s="114"/>
+      <c r="D48" s="115"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -5995,22 +6318,22 @@
       <c r="O48" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P48" s="116" t="s">
+      <c r="P48" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="Q48" s="116"/>
-      <c r="R48" s="117"/>
+      <c r="Q48" s="119"/>
+      <c r="R48" s="120"/>
       <c r="S48" s="2"/>
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
     </row>
     <row r="49" spans="1:21">
       <c r="A49" s="1"/>
-      <c r="B49" s="113" t="s">
+      <c r="B49" s="116" t="s">
         <v>112</v>
       </c>
-      <c r="C49" s="114"/>
-      <c r="D49" s="115"/>
+      <c r="C49" s="117"/>
+      <c r="D49" s="118"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -6067,11 +6390,11 @@
       <c r="O50" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P50" s="116" t="s">
+      <c r="P50" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="Q50" s="116"/>
-      <c r="R50" s="117"/>
+      <c r="Q50" s="119"/>
+      <c r="R50" s="120"/>
       <c r="S50" s="2"/>
       <c r="T50" s="3"/>
       <c r="U50" s="3"/>
@@ -6098,11 +6421,11 @@
       <c r="O51" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="P51" s="116" t="s">
+      <c r="P51" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="Q51" s="116"/>
-      <c r="R51" s="117"/>
+      <c r="Q51" s="119"/>
+      <c r="R51" s="120"/>
       <c r="S51" s="2"/>
       <c r="T51" s="3"/>
       <c r="U51" s="3"/>
@@ -6160,11 +6483,11 @@
       <c r="O53" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="P53" s="116" t="s">
+      <c r="P53" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="Q53" s="116"/>
-      <c r="R53" s="117"/>
+      <c r="Q53" s="119"/>
+      <c r="R53" s="120"/>
       <c r="S53" s="2"/>
       <c r="T53" s="3"/>
       <c r="U53" s="3"/>
@@ -6329,13 +6652,13 @@
       <c r="J59" s="4"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
-      <c r="M59" s="110" t="s">
+      <c r="M59" s="113" t="s">
         <v>136</v>
       </c>
-      <c r="N59" s="111"/>
-      <c r="O59" s="111"/>
-      <c r="P59" s="111"/>
-      <c r="Q59" s="112"/>
+      <c r="N59" s="114"/>
+      <c r="O59" s="114"/>
+      <c r="P59" s="114"/>
+      <c r="Q59" s="115"/>
       <c r="R59" s="1"/>
       <c r="S59" s="2"/>
       <c r="T59" s="3"/>
@@ -6363,10 +6686,10 @@
       <c r="O60" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="P60" s="108" t="s">
+      <c r="P60" s="111" t="s">
         <v>137</v>
       </c>
-      <c r="Q60" s="109"/>
+      <c r="Q60" s="112"/>
       <c r="R60" s="1"/>
       <c r="S60" s="2"/>
       <c r="T60" s="3"/>
@@ -6394,10 +6717,10 @@
       <c r="O61" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="P61" s="108" t="s">
+      <c r="P61" s="111" t="s">
         <v>140</v>
       </c>
-      <c r="Q61" s="109"/>
+      <c r="Q61" s="112"/>
       <c r="R61" s="1"/>
       <c r="S61" s="2"/>
       <c r="T61" s="3"/>
@@ -6425,10 +6748,10 @@
       <c r="O62" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="P62" s="108" t="s">
+      <c r="P62" s="111" t="s">
         <v>22</v>
       </c>
-      <c r="Q62" s="109"/>
+      <c r="Q62" s="112"/>
       <c r="R62" s="1"/>
       <c r="S62" s="2"/>
       <c r="T62" s="3"/>
@@ -6456,10 +6779,10 @@
       <c r="O63" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P63" s="106" t="s">
+      <c r="P63" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="Q63" s="107"/>
+      <c r="Q63" s="110"/>
       <c r="R63" s="1"/>
       <c r="S63" s="2"/>
       <c r="T63" s="3"/>
@@ -6487,10 +6810,10 @@
       <c r="O64" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P64" s="108" t="s">
+      <c r="P64" s="111" t="s">
         <v>161</v>
       </c>
-      <c r="Q64" s="109"/>
+      <c r="Q64" s="112"/>
       <c r="R64" s="1"/>
       <c r="S64" s="2"/>
       <c r="T64" s="3"/>
@@ -6518,10 +6841,10 @@
       <c r="O65" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="P65" s="108" t="s">
+      <c r="P65" s="111" t="s">
         <v>60</v>
       </c>
-      <c r="Q65" s="109"/>
+      <c r="Q65" s="112"/>
       <c r="R65" s="1"/>
       <c r="S65" s="2"/>
       <c r="T65" s="3"/>
@@ -6549,10 +6872,10 @@
       <c r="O66" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P66" s="108" t="s">
+      <c r="P66" s="111" t="s">
         <v>218</v>
       </c>
-      <c r="Q66" s="109"/>
+      <c r="Q66" s="112"/>
       <c r="R66" s="1"/>
       <c r="S66" s="2"/>
       <c r="T66" s="3"/>
@@ -6580,10 +6903,10 @@
       <c r="O67" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P67" s="108" t="s">
+      <c r="P67" s="111" t="s">
         <v>217</v>
       </c>
-      <c r="Q67" s="109"/>
+      <c r="Q67" s="112"/>
       <c r="R67" s="1"/>
       <c r="S67" s="1"/>
       <c r="T67" s="3"/>
@@ -6625,13 +6948,13 @@
       <c r="J69" s="4"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
-      <c r="M69" s="110" t="s">
+      <c r="M69" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="N69" s="111"/>
-      <c r="O69" s="111"/>
-      <c r="P69" s="111"/>
-      <c r="Q69" s="112"/>
+      <c r="N69" s="114"/>
+      <c r="O69" s="114"/>
+      <c r="P69" s="114"/>
+      <c r="Q69" s="115"/>
       <c r="R69" s="1"/>
       <c r="S69" s="1"/>
       <c r="T69" s="3"/>
@@ -6650,13 +6973,13 @@
       <c r="J70" s="4"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
-      <c r="M70" s="110" t="s">
+      <c r="M70" s="113" t="s">
         <v>177</v>
       </c>
-      <c r="N70" s="111"/>
-      <c r="O70" s="111"/>
-      <c r="P70" s="111"/>
-      <c r="Q70" s="112"/>
+      <c r="N70" s="114"/>
+      <c r="O70" s="114"/>
+      <c r="P70" s="114"/>
+      <c r="Q70" s="115"/>
       <c r="R70" s="1"/>
       <c r="S70" s="1"/>
       <c r="T70" s="3"/>
@@ -6684,10 +7007,10 @@
       <c r="O71" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="P71" s="106" t="s">
+      <c r="P71" s="109" t="s">
         <v>201</v>
       </c>
-      <c r="Q71" s="107"/>
+      <c r="Q71" s="110"/>
       <c r="R71" s="1"/>
       <c r="S71" s="1"/>
       <c r="T71" s="3"/>
@@ -6715,10 +7038,10 @@
       <c r="O72" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="P72" s="106" t="s">
+      <c r="P72" s="109" t="s">
         <v>193</v>
       </c>
-      <c r="Q72" s="107"/>
+      <c r="Q72" s="110"/>
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
       <c r="T72" s="3"/>
@@ -6746,10 +7069,10 @@
       <c r="O73" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="P73" s="106" t="s">
+      <c r="P73" s="109" t="s">
         <v>190</v>
       </c>
-      <c r="Q73" s="107"/>
+      <c r="Q73" s="110"/>
       <c r="R73" s="1"/>
       <c r="S73" s="1"/>
       <c r="T73" s="3"/>
@@ -6806,10 +7129,10 @@
       <c r="O75" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P75" s="108" t="s">
+      <c r="P75" s="111" t="s">
         <v>219</v>
       </c>
-      <c r="Q75" s="109"/>
+      <c r="Q75" s="112"/>
       <c r="R75" s="1"/>
       <c r="S75" s="1"/>
       <c r="T75" s="3"/>
@@ -6837,10 +7160,10 @@
       <c r="O76" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P76" s="108" t="s">
+      <c r="P76" s="111" t="s">
         <v>220</v>
       </c>
-      <c r="Q76" s="109"/>
+      <c r="Q76" s="112"/>
       <c r="R76" s="1"/>
       <c r="S76" s="1"/>
       <c r="T76" s="3"/>
@@ -6882,11 +7205,11 @@
       <c r="J78" s="4"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
-      <c r="M78" s="113" t="s">
+      <c r="M78" s="116" t="s">
         <v>191</v>
       </c>
-      <c r="N78" s="114"/>
-      <c r="O78" s="115"/>
+      <c r="N78" s="117"/>
+      <c r="O78" s="118"/>
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
       <c r="R78" s="1"/>
@@ -6988,11 +7311,11 @@
       <c r="J82" s="4"/>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
-      <c r="M82" s="113" t="s">
+      <c r="M82" s="116" t="s">
         <v>183</v>
       </c>
-      <c r="N82" s="114"/>
-      <c r="O82" s="115"/>
+      <c r="N82" s="117"/>
+      <c r="O82" s="118"/>
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
       <c r="R82" s="1"/>
@@ -7558,7 +7881,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:T116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A97" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A87" sqref="A87:D87"/>
     </sheetView>
   </sheetViews>
@@ -7575,32 +7898,32 @@
   <sheetData>
     <row r="2" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="3" spans="1:10">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="98" t="s">
         <v>288</v>
       </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="97"/>
-      <c r="F3" s="95" t="s">
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="100"/>
+      <c r="F3" s="98" t="s">
         <v>299</v>
       </c>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="97"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="100"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="101" t="s">
         <v>289</v>
       </c>
-      <c r="B4" s="99"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="100"/>
-      <c r="F4" s="98" t="s">
+      <c r="B4" s="102"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="103"/>
+      <c r="F4" s="101" t="s">
         <v>292</v>
       </c>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="100"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="103"/>
     </row>
     <row r="5" spans="1:10" ht="14.25" thickBot="1">
       <c r="A5" s="8" t="s">
@@ -7758,32 +8081,32 @@
     </row>
     <row r="15" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="16" spans="1:10">
-      <c r="A16" s="95" t="s">
+      <c r="A16" s="98" t="s">
         <v>286</v>
       </c>
-      <c r="B16" s="96"/>
-      <c r="C16" s="96"/>
-      <c r="D16" s="97"/>
-      <c r="F16" s="95" t="s">
+      <c r="B16" s="99"/>
+      <c r="C16" s="99"/>
+      <c r="D16" s="100"/>
+      <c r="F16" s="98" t="s">
         <v>286</v>
       </c>
-      <c r="G16" s="96"/>
-      <c r="H16" s="96"/>
-      <c r="I16" s="97"/>
+      <c r="G16" s="99"/>
+      <c r="H16" s="99"/>
+      <c r="I16" s="100"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="98" t="s">
+      <c r="A17" s="101" t="s">
         <v>287</v>
       </c>
-      <c r="B17" s="99"/>
-      <c r="C17" s="99"/>
-      <c r="D17" s="100"/>
-      <c r="F17" s="98" t="s">
+      <c r="B17" s="102"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="103"/>
+      <c r="F17" s="101" t="s">
         <v>389</v>
       </c>
-      <c r="G17" s="99"/>
-      <c r="H17" s="99"/>
-      <c r="I17" s="100"/>
+      <c r="G17" s="102"/>
+      <c r="H17" s="102"/>
+      <c r="I17" s="103"/>
       <c r="J17">
         <v>1002</v>
       </c>
@@ -7833,20 +8156,20 @@
     </row>
     <row r="23" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="24" spans="1:10">
-      <c r="F24" s="95" t="s">
+      <c r="F24" s="98" t="s">
         <v>312</v>
       </c>
-      <c r="G24" s="96"/>
-      <c r="H24" s="96"/>
-      <c r="I24" s="97"/>
+      <c r="G24" s="99"/>
+      <c r="H24" s="99"/>
+      <c r="I24" s="100"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="F25" s="98" t="s">
+      <c r="F25" s="101" t="s">
         <v>313</v>
       </c>
-      <c r="G25" s="99"/>
-      <c r="H25" s="99"/>
-      <c r="I25" s="100"/>
+      <c r="G25" s="102"/>
+      <c r="H25" s="102"/>
+      <c r="I25" s="103"/>
     </row>
     <row r="26" spans="1:10">
       <c r="F26" s="8" t="s">
@@ -7867,33 +8190,33 @@
     </row>
     <row r="31" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="32" spans="1:10">
-      <c r="A32" s="95" t="s">
+      <c r="A32" s="98" t="s">
         <v>293</v>
       </c>
-      <c r="B32" s="96"/>
-      <c r="C32" s="96"/>
-      <c r="D32" s="97"/>
-      <c r="F32" s="95" t="s">
+      <c r="B32" s="99"/>
+      <c r="C32" s="99"/>
+      <c r="D32" s="100"/>
+      <c r="F32" s="98" t="s">
         <v>321</v>
       </c>
-      <c r="G32" s="96"/>
-      <c r="H32" s="96"/>
-      <c r="I32" s="97"/>
+      <c r="G32" s="99"/>
+      <c r="H32" s="99"/>
+      <c r="I32" s="100"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="98" t="s">
+      <c r="A33" s="101" t="s">
         <v>295</v>
       </c>
-      <c r="B33" s="99"/>
-      <c r="C33" s="99"/>
-      <c r="D33" s="100"/>
+      <c r="B33" s="102"/>
+      <c r="C33" s="102"/>
+      <c r="D33" s="103"/>
       <c r="E33" s="80"/>
-      <c r="F33" s="98" t="s">
+      <c r="F33" s="101" t="s">
         <v>322</v>
       </c>
-      <c r="G33" s="99"/>
-      <c r="H33" s="99"/>
-      <c r="I33" s="100"/>
+      <c r="G33" s="102"/>
+      <c r="H33" s="102"/>
+      <c r="I33" s="103"/>
     </row>
     <row r="34" spans="1:10" ht="14.25" thickBot="1">
       <c r="A34" s="8" t="s">
@@ -8004,35 +8327,35 @@
     </row>
     <row r="42" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="43" spans="1:10">
-      <c r="A43" s="95" t="s">
+      <c r="A43" s="98" t="s">
         <v>306</v>
       </c>
-      <c r="B43" s="96"/>
-      <c r="C43" s="96"/>
-      <c r="D43" s="97"/>
-      <c r="F43" s="95" t="s">
+      <c r="B43" s="99"/>
+      <c r="C43" s="99"/>
+      <c r="D43" s="100"/>
+      <c r="F43" s="98" t="s">
         <v>391</v>
       </c>
-      <c r="G43" s="96"/>
-      <c r="H43" s="96"/>
-      <c r="I43" s="97"/>
+      <c r="G43" s="99"/>
+      <c r="H43" s="99"/>
+      <c r="I43" s="100"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="98" t="s">
+      <c r="A44" s="101" t="s">
         <v>307</v>
       </c>
-      <c r="B44" s="99"/>
-      <c r="C44" s="99"/>
-      <c r="D44" s="100"/>
+      <c r="B44" s="102"/>
+      <c r="C44" s="102"/>
+      <c r="D44" s="103"/>
       <c r="E44">
         <v>1003</v>
       </c>
-      <c r="F44" s="98" t="s">
+      <c r="F44" s="101" t="s">
         <v>390</v>
       </c>
-      <c r="G44" s="99"/>
-      <c r="H44" s="99"/>
-      <c r="I44" s="100"/>
+      <c r="G44" s="102"/>
+      <c r="H44" s="102"/>
+      <c r="I44" s="103"/>
       <c r="J44">
         <v>1003</v>
       </c>
@@ -8052,40 +8375,40 @@
       </c>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="95" t="s">
+      <c r="A46" s="98" t="s">
         <v>310</v>
       </c>
-      <c r="B46" s="96"/>
-      <c r="C46" s="96"/>
-      <c r="D46" s="97"/>
+      <c r="B46" s="99"/>
+      <c r="C46" s="99"/>
+      <c r="D46" s="100"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="98" t="s">
+      <c r="A47" s="101" t="s">
         <v>311</v>
       </c>
-      <c r="B47" s="99"/>
-      <c r="C47" s="99"/>
-      <c r="D47" s="100"/>
+      <c r="B47" s="102"/>
+      <c r="C47" s="102"/>
+      <c r="D47" s="103"/>
       <c r="E47">
         <v>1004</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="49" spans="1:9">
-      <c r="A49" s="110" t="s">
+      <c r="A49" s="113" t="s">
         <v>315</v>
       </c>
-      <c r="B49" s="111"/>
-      <c r="C49" s="111"/>
-      <c r="D49" s="112"/>
+      <c r="B49" s="114"/>
+      <c r="C49" s="114"/>
+      <c r="D49" s="115"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="113" t="s">
+      <c r="A50" s="116" t="s">
         <v>316</v>
       </c>
-      <c r="B50" s="114"/>
-      <c r="C50" s="114"/>
-      <c r="D50" s="115"/>
+      <c r="B50" s="117"/>
+      <c r="C50" s="117"/>
+      <c r="D50" s="118"/>
       <c r="E50">
         <v>1005</v>
       </c>
@@ -8093,32 +8416,32 @@
     <row r="51" spans="1:9" ht="12.75" customHeight="1"/>
     <row r="52" spans="1:9" ht="13.5" customHeight="1" thickBot="1"/>
     <row r="53" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A53" s="95" t="s">
+      <c r="A53" s="98" t="s">
         <v>392</v>
       </c>
-      <c r="B53" s="96"/>
-      <c r="C53" s="96"/>
-      <c r="D53" s="97"/>
-      <c r="F53" s="95" t="s">
+      <c r="B53" s="99"/>
+      <c r="C53" s="99"/>
+      <c r="D53" s="100"/>
+      <c r="F53" s="98" t="s">
         <v>392</v>
       </c>
-      <c r="G53" s="96"/>
-      <c r="H53" s="96"/>
-      <c r="I53" s="97"/>
+      <c r="G53" s="99"/>
+      <c r="H53" s="99"/>
+      <c r="I53" s="100"/>
     </row>
     <row r="54" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A54" s="98" t="s">
+      <c r="A54" s="101" t="s">
         <v>397</v>
       </c>
-      <c r="B54" s="99"/>
-      <c r="C54" s="99"/>
-      <c r="D54" s="100"/>
-      <c r="F54" s="98" t="s">
+      <c r="B54" s="102"/>
+      <c r="C54" s="102"/>
+      <c r="D54" s="103"/>
+      <c r="F54" s="101" t="s">
         <v>398</v>
       </c>
-      <c r="G54" s="99"/>
-      <c r="H54" s="99"/>
-      <c r="I54" s="100"/>
+      <c r="G54" s="102"/>
+      <c r="H54" s="102"/>
+      <c r="I54" s="103"/>
     </row>
     <row r="55" spans="1:9" ht="13.5" customHeight="1">
       <c r="A55" s="8" t="s">
@@ -8173,32 +8496,32 @@
     <row r="64" spans="1:9" ht="12.75" customHeight="1"/>
     <row r="65" spans="1:10" ht="12.75" customHeight="1" thickBot="1"/>
     <row r="66" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A66" s="95" t="s">
+      <c r="A66" s="98" t="s">
         <v>377</v>
       </c>
-      <c r="B66" s="96"/>
-      <c r="C66" s="96"/>
-      <c r="D66" s="97"/>
-      <c r="F66" s="95" t="s">
+      <c r="B66" s="99"/>
+      <c r="C66" s="99"/>
+      <c r="D66" s="100"/>
+      <c r="F66" s="98" t="s">
         <v>359</v>
       </c>
-      <c r="G66" s="96"/>
-      <c r="H66" s="96"/>
-      <c r="I66" s="97"/>
+      <c r="G66" s="99"/>
+      <c r="H66" s="99"/>
+      <c r="I66" s="100"/>
     </row>
     <row r="67" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A67" s="98" t="s">
+      <c r="A67" s="101" t="s">
         <v>357</v>
       </c>
-      <c r="B67" s="99"/>
-      <c r="C67" s="99"/>
-      <c r="D67" s="100"/>
-      <c r="F67" s="113" t="s">
+      <c r="B67" s="102"/>
+      <c r="C67" s="102"/>
+      <c r="D67" s="103"/>
+      <c r="F67" s="116" t="s">
         <v>364</v>
       </c>
-      <c r="G67" s="114"/>
-      <c r="H67" s="114"/>
-      <c r="I67" s="115"/>
+      <c r="G67" s="117"/>
+      <c r="H67" s="117"/>
+      <c r="I67" s="118"/>
     </row>
     <row r="68" spans="1:10" ht="12.75" customHeight="1" thickBot="1">
       <c r="A68" s="8" t="s">
@@ -8303,46 +8626,46 @@
     </row>
     <row r="77" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="78" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A78" s="110" t="s">
+      <c r="A78" s="113" t="s">
         <v>317</v>
       </c>
-      <c r="B78" s="111"/>
-      <c r="C78" s="111"/>
-      <c r="D78" s="112"/>
-      <c r="F78" s="95" t="s">
+      <c r="B78" s="114"/>
+      <c r="C78" s="114"/>
+      <c r="D78" s="115"/>
+      <c r="F78" s="98" t="s">
         <v>235</v>
       </c>
-      <c r="G78" s="96"/>
-      <c r="H78" s="96"/>
-      <c r="I78" s="97"/>
+      <c r="G78" s="99"/>
+      <c r="H78" s="99"/>
+      <c r="I78" s="100"/>
     </row>
     <row r="79" spans="1:10">
-      <c r="A79" s="95" t="s">
+      <c r="A79" s="98" t="s">
         <v>233</v>
       </c>
-      <c r="B79" s="96"/>
-      <c r="C79" s="96"/>
-      <c r="D79" s="97"/>
+      <c r="B79" s="99"/>
+      <c r="C79" s="99"/>
+      <c r="D79" s="100"/>
       <c r="E79">
         <v>2001</v>
       </c>
-      <c r="F79" s="98" t="s">
+      <c r="F79" s="101" t="s">
         <v>236</v>
       </c>
-      <c r="G79" s="99"/>
-      <c r="H79" s="99"/>
-      <c r="I79" s="100"/>
+      <c r="G79" s="102"/>
+      <c r="H79" s="102"/>
+      <c r="I79" s="103"/>
       <c r="J79">
         <v>2001</v>
       </c>
     </row>
     <row r="80" spans="1:10">
-      <c r="A80" s="98" t="s">
+      <c r="A80" s="101" t="s">
         <v>234</v>
       </c>
-      <c r="B80" s="99"/>
-      <c r="C80" s="99"/>
-      <c r="D80" s="100"/>
+      <c r="B80" s="102"/>
+      <c r="C80" s="102"/>
+      <c r="D80" s="103"/>
       <c r="F80" s="8" t="s">
         <v>238</v>
       </c>
@@ -8404,43 +8727,43 @@
     </row>
     <row r="85" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="86" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A86" s="110" t="s">
+      <c r="A86" s="113" t="s">
         <v>400</v>
       </c>
-      <c r="B86" s="111"/>
-      <c r="C86" s="111"/>
-      <c r="D86" s="112"/>
-      <c r="F86" s="110" t="s">
+      <c r="B86" s="114"/>
+      <c r="C86" s="114"/>
+      <c r="D86" s="115"/>
+      <c r="F86" s="113" t="s">
         <v>400</v>
       </c>
-      <c r="G86" s="111"/>
-      <c r="H86" s="111"/>
-      <c r="I86" s="112"/>
+      <c r="G86" s="114"/>
+      <c r="H86" s="114"/>
+      <c r="I86" s="115"/>
     </row>
     <row r="87" spans="1:10">
-      <c r="A87" s="95" t="s">
+      <c r="A87" s="98" t="s">
         <v>233</v>
       </c>
-      <c r="B87" s="96"/>
-      <c r="C87" s="96"/>
-      <c r="D87" s="97"/>
+      <c r="B87" s="99"/>
+      <c r="C87" s="99"/>
+      <c r="D87" s="100"/>
       <c r="E87">
         <v>2003</v>
       </c>
-      <c r="F87" s="98" t="s">
+      <c r="F87" s="101" t="s">
         <v>236</v>
       </c>
-      <c r="G87" s="99"/>
-      <c r="H87" s="99"/>
-      <c r="I87" s="100"/>
+      <c r="G87" s="102"/>
+      <c r="H87" s="102"/>
+      <c r="I87" s="103"/>
     </row>
     <row r="88" spans="1:10">
-      <c r="A88" s="98" t="s">
+      <c r="A88" s="101" t="s">
         <v>234</v>
       </c>
-      <c r="B88" s="99"/>
-      <c r="C88" s="99"/>
-      <c r="D88" s="100"/>
+      <c r="B88" s="102"/>
+      <c r="C88" s="102"/>
+      <c r="D88" s="103"/>
       <c r="F88" s="8" t="s">
         <v>238</v>
       </c>
@@ -8512,10 +8835,10 @@
       </c>
     </row>
     <row r="96" spans="1:10">
-      <c r="A96" s="101" t="s">
+      <c r="A96" s="104" t="s">
         <v>250</v>
       </c>
-      <c r="B96" s="102"/>
+      <c r="B96" s="105"/>
       <c r="E96" s="21" t="s">
         <v>228</v>
       </c>
@@ -8875,30 +9198,30 @@
     <mergeCell ref="A86:D86"/>
     <mergeCell ref="F86:I86"/>
     <mergeCell ref="A54:D54"/>
+    <mergeCell ref="F53:I53"/>
+    <mergeCell ref="F54:I54"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="F66:I66"/>
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="F17:I17"/>
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A43:D43"/>
     <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F53:I53"/>
-    <mergeCell ref="F54:I54"/>
     <mergeCell ref="F25:I25"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A49:D49"/>
     <mergeCell ref="F32:I32"/>
     <mergeCell ref="F33:I33"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A46:D46"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="F4:I4"/>
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="F16:I16"/>
-    <mergeCell ref="A66:D66"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="F66:I66"/>
     <mergeCell ref="F67:I67"/>
     <mergeCell ref="A96:B96"/>
     <mergeCell ref="A78:D78"/>
@@ -9033,52 +9356,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B10:N15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:M19"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="10" spans="2:14" ht="14.25" thickBot="1"/>
     <row r="11" spans="2:14">
-      <c r="B11" s="95" t="s">
+      <c r="B11" s="98" t="s">
         <v>387</v>
       </c>
-      <c r="C11" s="96"/>
-      <c r="D11" s="96"/>
-      <c r="E11" s="97"/>
+      <c r="C11" s="99"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="100"/>
       <c r="F11">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="14.25" thickBot="1"/>
     <row r="13" spans="2:14">
-      <c r="B13" s="95" t="s">
+      <c r="B13" s="98" t="s">
         <v>388</v>
       </c>
-      <c r="C13" s="96"/>
-      <c r="D13" s="96"/>
-      <c r="E13" s="97"/>
-      <c r="J13" s="95" t="s">
+      <c r="C13" s="99"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="100"/>
+      <c r="J13" s="98" t="s">
         <v>388</v>
       </c>
-      <c r="K13" s="96"/>
-      <c r="L13" s="96"/>
-      <c r="M13" s="97"/>
+      <c r="K13" s="99"/>
+      <c r="L13" s="99"/>
+      <c r="M13" s="100"/>
     </row>
     <row r="14" spans="2:14">
-      <c r="B14" s="98" t="s">
+      <c r="B14" s="101" t="s">
         <v>386</v>
       </c>
-      <c r="C14" s="99"/>
-      <c r="D14" s="99"/>
-      <c r="E14" s="100"/>
-      <c r="J14" s="98" t="s">
+      <c r="C14" s="102"/>
+      <c r="D14" s="102"/>
+      <c r="E14" s="103"/>
+      <c r="J14" s="101" t="s">
         <v>386</v>
       </c>
-      <c r="K14" s="99"/>
-      <c r="L14" s="99"/>
-      <c r="M14" s="100"/>
+      <c r="K14" s="102"/>
+      <c r="L14" s="102"/>
+      <c r="M14" s="103"/>
     </row>
     <row r="15" spans="2:14" ht="14.25" thickBot="1">
       <c r="B15" s="8" t="s">
@@ -9120,4 +9443,626 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:I63"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F60" sqref="F60"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="17.125" customWidth="1"/>
+    <col min="4" max="4" width="16.875" customWidth="1"/>
+    <col min="5" max="5" width="12.75" customWidth="1"/>
+    <col min="6" max="6" width="32.625" customWidth="1"/>
+    <col min="7" max="7" width="22" customWidth="1"/>
+    <col min="8" max="8" width="24.375" customWidth="1"/>
+    <col min="9" max="9" width="45.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9">
+      <c r="C1" t="s">
+        <v>409</v>
+      </c>
+      <c r="H1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9">
+      <c r="B2" s="121" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="101" t="s">
+        <v>468</v>
+      </c>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="G3" s="101" t="s">
+        <v>440</v>
+      </c>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="C4" s="92" t="s">
+        <v>302</v>
+      </c>
+      <c r="D4" s="92" t="s">
+        <v>407</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="H4" s="92" t="s">
+        <v>302</v>
+      </c>
+      <c r="I4" s="92" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="C5" s="92" t="s">
+        <v>172</v>
+      </c>
+      <c r="D5" s="92" t="s">
+        <v>412</v>
+      </c>
+      <c r="E5" s="94" t="s">
+        <v>442</v>
+      </c>
+      <c r="F5" s="94" t="s">
+        <v>441</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="H5" s="92" t="s">
+        <v>302</v>
+      </c>
+      <c r="I5" s="92" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="C6" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="92" t="s">
+        <v>309</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="H6" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="92" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="C7" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="92" t="s">
+        <v>408</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="H7" s="92" t="s">
+        <v>415</v>
+      </c>
+      <c r="I7" s="92" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="G8" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="H8" s="92" t="s">
+        <v>302</v>
+      </c>
+      <c r="I8" s="92" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="G9" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="H9" s="92" t="s">
+        <v>302</v>
+      </c>
+      <c r="I9" s="92" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="G10" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="H10" s="92" t="s">
+        <v>431</v>
+      </c>
+      <c r="I10" s="92" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="G14" s="101" t="s">
+        <v>417</v>
+      </c>
+      <c r="H14" s="102"/>
+      <c r="I14" s="102"/>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" s="101" t="s">
+        <v>434</v>
+      </c>
+      <c r="C15" s="102"/>
+      <c r="D15" s="102"/>
+      <c r="G15" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="H15" s="92" t="s">
+        <v>424</v>
+      </c>
+      <c r="I15" s="92" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="C16" s="92" t="s">
+        <v>302</v>
+      </c>
+      <c r="D16" s="92" t="s">
+        <v>407</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="H16" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" s="92" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="C17" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="92" t="s">
+        <v>412</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="H17" s="92" t="s">
+        <v>302</v>
+      </c>
+      <c r="I17" s="92" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="C18" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="92" t="s">
+        <v>309</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="H18" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18" s="92" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="C19" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="92" t="s">
+        <v>439</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="H19" s="92" t="s">
+        <v>415</v>
+      </c>
+      <c r="I19" s="92" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="C20" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="92" t="s">
+        <v>408</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="H20" s="92" t="s">
+        <v>415</v>
+      </c>
+      <c r="I20" s="92" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="8"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="92"/>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" s="121" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25" s="101" t="s">
+        <v>450</v>
+      </c>
+      <c r="C25" s="102"/>
+      <c r="D25" s="102"/>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="B26" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="C26" s="92" t="s">
+        <v>302</v>
+      </c>
+      <c r="D26" s="92" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="C27" s="92" t="s">
+        <v>302</v>
+      </c>
+      <c r="D27" s="92" t="s">
+        <v>446</v>
+      </c>
+      <c r="E27" s="94" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="C28" s="92" t="s">
+        <v>447</v>
+      </c>
+      <c r="D28" s="92" t="s">
+        <v>448</v>
+      </c>
+      <c r="G28" s="101" t="s">
+        <v>456</v>
+      </c>
+      <c r="H28" s="102"/>
+      <c r="I28" s="102"/>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29" s="8"/>
+      <c r="C29" s="92"/>
+      <c r="D29" s="92"/>
+      <c r="G29" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="H29" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29" s="92" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="G30" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="H30" s="92" t="s">
+        <v>302</v>
+      </c>
+      <c r="I30" s="92" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="G31" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="H31" s="92" t="s">
+        <v>302</v>
+      </c>
+      <c r="I31" s="92" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="B32" s="121" t="s">
+        <v>478</v>
+      </c>
+      <c r="G32" s="8"/>
+      <c r="H32" s="92"/>
+      <c r="I32" s="92"/>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33" s="101" t="s">
+        <v>453</v>
+      </c>
+      <c r="C33" s="102"/>
+      <c r="D33" s="102"/>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="C34" s="92" t="s">
+        <v>302</v>
+      </c>
+      <c r="D34" s="92"/>
+    </row>
+    <row r="35" spans="2:9">
+      <c r="B35" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="C35" s="92" t="s">
+        <v>302</v>
+      </c>
+      <c r="D35" s="92"/>
+      <c r="E35" s="94" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9">
+      <c r="B36" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="C36" s="92" t="s">
+        <v>447</v>
+      </c>
+      <c r="D36" s="92" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9">
+      <c r="B37" s="8"/>
+      <c r="C37" s="92"/>
+      <c r="D37" s="92"/>
+    </row>
+    <row r="40" spans="2:9">
+      <c r="G40" s="101" t="s">
+        <v>459</v>
+      </c>
+      <c r="H40" s="102"/>
+      <c r="I40" s="102"/>
+    </row>
+    <row r="41" spans="2:9">
+      <c r="G41" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="H41" s="92" t="s">
+        <v>302</v>
+      </c>
+      <c r="I41" s="92" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9">
+      <c r="G42" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="H42" s="92" t="s">
+        <v>302</v>
+      </c>
+      <c r="I42" s="92" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9">
+      <c r="G43" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="H43" s="92" t="s">
+        <v>302</v>
+      </c>
+      <c r="I43" s="92" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9">
+      <c r="G44" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="H44" s="92" t="s">
+        <v>302</v>
+      </c>
+      <c r="I44" s="92" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9">
+      <c r="B48" s="121" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6">
+      <c r="B49" s="101" t="s">
+        <v>479</v>
+      </c>
+      <c r="C49" s="102"/>
+      <c r="D49" s="102"/>
+    </row>
+    <row r="50" spans="2:6">
+      <c r="B50" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="C50" s="92" t="s">
+        <v>302</v>
+      </c>
+      <c r="D50" s="92"/>
+      <c r="F50" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6">
+      <c r="B51" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="C51" s="92" t="s">
+        <v>302</v>
+      </c>
+      <c r="D51" s="92"/>
+      <c r="E51" s="94" t="s">
+        <v>472</v>
+      </c>
+      <c r="F51" s="94" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6">
+      <c r="B52" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="C52" s="92" t="s">
+        <v>302</v>
+      </c>
+      <c r="D52" s="93" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6">
+      <c r="B53" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="C53" s="92" t="s">
+        <v>302</v>
+      </c>
+      <c r="D53" s="92"/>
+    </row>
+    <row r="58" spans="2:6">
+      <c r="B58" s="121" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6">
+      <c r="B59" s="101" t="s">
+        <v>479</v>
+      </c>
+      <c r="C59" s="102"/>
+      <c r="D59" s="102"/>
+    </row>
+    <row r="60" spans="2:6">
+      <c r="B60" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="C60" s="93" t="s">
+        <v>302</v>
+      </c>
+      <c r="D60" s="93"/>
+    </row>
+    <row r="61" spans="2:6">
+      <c r="B61" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="C61" s="93" t="s">
+        <v>302</v>
+      </c>
+      <c r="D61" s="93"/>
+      <c r="E61" s="94" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6">
+      <c r="B62" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="C62" s="93" t="s">
+        <v>447</v>
+      </c>
+      <c r="D62" s="93" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6">
+      <c r="B63" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="C63" s="93" t="s">
+        <v>302</v>
+      </c>
+      <c r="D63" s="93"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="B49:D49"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B24" r:id="rId2"/>
+    <hyperlink ref="B32" r:id="rId3"/>
+    <hyperlink ref="B48" r:id="rId4"/>
+    <hyperlink ref="B58" r:id="rId5"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
 </file>
--- a/doc/最新接口_拟定.xlsx
+++ b/doc/最新接口_拟定.xlsx
@@ -1107,7 +1107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="486">
   <si>
     <t>int</t>
   </si>
@@ -2994,71 +2994,87 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>设备名子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备简单信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备mac地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备串号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REVersionCheck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oldPwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>newPwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果：error字段不空空表示错误，否则正确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以上接口格式一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>srcId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://47.92.115.60:8080/LGameLogin/gameserver/version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://47.92.115.60:8080/LGameLogin/gameserver/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://47.92.115.60:8080/LGameLogin/gameserver/login_three</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReModifyPwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://47.92.115.60:8080/LGameLogin/gameserver/register</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>info</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>设备名子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备简单信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备mac地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备串号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REVersionCheck</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oldPwd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>newPwd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果：error字段不空空表示错误，否则正确</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以上接口格式一致</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>srcId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://47.92.115.60:8080/LGameLogin/gameserver/version</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://47.92.115.60:8080/LGameLogin/gameserver/login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://47.92.115.60:8080/LGameLogin/gameserver/login_three</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReModifyPwd</t>
+    <t>regedist</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3066,15 +3082,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://47.92.115.60:8080/LGameLogin/gameserver/register</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新密码</t>
+    <t>dev</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3683,7 +3691,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3849,14 +3857,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3876,12 +3885,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3891,16 +3894,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3912,19 +3927,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4244,32 +4253,32 @@
   <sheetData>
     <row r="3" spans="2:16" ht="14.25" thickBot="1"/>
     <row r="4" spans="2:16">
-      <c r="B4" s="98" t="s">
+      <c r="B4" s="99" t="s">
         <v>233</v>
       </c>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="100"/>
-      <c r="I4" s="98" t="s">
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="101"/>
+      <c r="I4" s="99" t="s">
         <v>235</v>
       </c>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="101"/>
     </row>
     <row r="5" spans="2:16">
-      <c r="B5" s="101" t="s">
+      <c r="B5" s="102" t="s">
         <v>234</v>
       </c>
-      <c r="C5" s="102"/>
-      <c r="D5" s="102"/>
-      <c r="E5" s="103"/>
-      <c r="I5" s="101" t="s">
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="104"/>
+      <c r="I5" s="102" t="s">
         <v>236</v>
       </c>
-      <c r="J5" s="102"/>
-      <c r="K5" s="102"/>
-      <c r="L5" s="103"/>
+      <c r="J5" s="103"/>
+      <c r="K5" s="103"/>
+      <c r="L5" s="104"/>
     </row>
     <row r="6" spans="2:16">
       <c r="B6" s="8"/>
@@ -4333,21 +4342,21 @@
     </row>
     <row r="11" spans="2:16" ht="14.25" customHeight="1"/>
     <row r="14" spans="2:16" ht="14.25" thickBot="1">
-      <c r="I14" s="95" t="s">
+      <c r="I14" s="108" t="s">
         <v>54</v>
       </c>
-      <c r="J14" s="96"/>
-      <c r="K14" s="96"/>
-      <c r="L14" s="96"/>
-      <c r="M14" s="97"/>
+      <c r="J14" s="109"/>
+      <c r="K14" s="109"/>
+      <c r="L14" s="109"/>
+      <c r="M14" s="110"/>
     </row>
     <row r="15" spans="2:16">
-      <c r="B15" s="98" t="s">
+      <c r="B15" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="99"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="100"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="101"/>
       <c r="I15" s="21" t="s">
         <v>34</v>
       </c>
@@ -4362,18 +4371,18 @@
         <v>34</v>
       </c>
       <c r="N15" s="3"/>
-      <c r="O15" s="104" t="s">
+      <c r="O15" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="P15" s="105"/>
+      <c r="P15" s="98"/>
     </row>
     <row r="16" spans="2:16">
-      <c r="B16" s="101" t="s">
+      <c r="B16" s="102" t="s">
         <v>234</v>
       </c>
-      <c r="C16" s="102"/>
-      <c r="D16" s="102"/>
-      <c r="E16" s="103"/>
+      <c r="C16" s="103"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="104"/>
       <c r="I16" s="33"/>
       <c r="J16" s="30"/>
       <c r="K16" s="31">
@@ -4871,12 +4880,12 @@
       <c r="P37" s="23"/>
     </row>
     <row r="38" spans="2:16">
-      <c r="B38" s="106" t="s">
+      <c r="B38" s="105" t="s">
         <v>263</v>
       </c>
-      <c r="C38" s="107"/>
-      <c r="D38" s="107"/>
-      <c r="E38" s="108"/>
+      <c r="C38" s="106"/>
+      <c r="D38" s="106"/>
+      <c r="E38" s="107"/>
       <c r="I38" s="33" t="s">
         <v>117</v>
       </c>
@@ -4958,18 +4967,18 @@
     <row r="42" spans="2:16" ht="22.5" customHeight="1"/>
     <row r="43" spans="2:16" ht="31.5" customHeight="1"/>
     <row r="44" spans="2:16">
-      <c r="H44" s="104" t="s">
+      <c r="H44" s="97" t="s">
         <v>248</v>
       </c>
-      <c r="I44" s="105"/>
-      <c r="J44" s="104" t="s">
+      <c r="I44" s="98"/>
+      <c r="J44" s="97" t="s">
         <v>116</v>
       </c>
-      <c r="K44" s="105"/>
-      <c r="L44" s="104" t="s">
+      <c r="K44" s="98"/>
+      <c r="L44" s="97" t="s">
         <v>77</v>
       </c>
-      <c r="M44" s="105"/>
+      <c r="M44" s="98"/>
     </row>
     <row r="45" spans="2:16">
       <c r="H45" s="22">
@@ -5085,6 +5094,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="I14:M14"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="I5:L5"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="J44:K44"/>
     <mergeCell ref="L44:M44"/>
@@ -5092,11 +5106,6 @@
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="H44:I44"/>
     <mergeCell ref="B38:E38"/>
-    <mergeCell ref="I14:M14"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="I5:L5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5290,11 +5299,11 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="4"/>
-      <c r="B10" s="113" t="s">
+      <c r="B10" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="114"/>
-      <c r="D10" s="115"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="118"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -5303,11 +5312,11 @@
       <c r="J10" s="4"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="113" t="s">
+      <c r="M10" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="N10" s="114"/>
-      <c r="O10" s="115"/>
+      <c r="N10" s="117"/>
+      <c r="O10" s="118"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -5317,11 +5326,11 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="4"/>
-      <c r="B11" s="116" t="s">
+      <c r="B11" s="113" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="117"/>
-      <c r="D11" s="118"/>
+      <c r="C11" s="114"/>
+      <c r="D11" s="115"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -5330,11 +5339,11 @@
       <c r="J11" s="4"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="116" t="s">
+      <c r="M11" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="N11" s="117"/>
-      <c r="O11" s="118"/>
+      <c r="N11" s="114"/>
+      <c r="O11" s="115"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -5455,11 +5464,11 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="4"/>
-      <c r="B17" s="113" t="s">
+      <c r="B17" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="114"/>
-      <c r="D17" s="115"/>
+      <c r="C17" s="117"/>
+      <c r="D17" s="118"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -5468,11 +5477,11 @@
       <c r="J17" s="4"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="113" t="s">
+      <c r="M17" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="N17" s="114"/>
-      <c r="O17" s="115"/>
+      <c r="N17" s="117"/>
+      <c r="O17" s="118"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -5481,11 +5490,11 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="4"/>
-      <c r="B18" s="116" t="s">
+      <c r="B18" s="113" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="117"/>
-      <c r="D18" s="118"/>
+      <c r="C18" s="114"/>
+      <c r="D18" s="115"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -5494,11 +5503,11 @@
       <c r="J18" s="4"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="116" t="s">
+      <c r="M18" s="113" t="s">
         <v>129</v>
       </c>
-      <c r="N18" s="117"/>
-      <c r="O18" s="118"/>
+      <c r="N18" s="114"/>
+      <c r="O18" s="115"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -5538,9 +5547,9 @@
     </row>
     <row r="20" spans="1:21" ht="41.25" thickBot="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="113"/>
-      <c r="C20" s="114"/>
-      <c r="D20" s="115"/>
+      <c r="B20" s="116"/>
+      <c r="C20" s="117"/>
+      <c r="D20" s="118"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -5569,11 +5578,11 @@
     </row>
     <row r="21" spans="1:21" ht="14.25" thickBot="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="116" t="s">
+      <c r="B21" s="113" t="s">
         <v>129</v>
       </c>
-      <c r="C21" s="117"/>
-      <c r="D21" s="118"/>
+      <c r="C21" s="114"/>
+      <c r="D21" s="115"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -5640,11 +5649,11 @@
       <c r="J23" s="4"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="113" t="s">
+      <c r="M23" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="N23" s="114"/>
-      <c r="O23" s="115"/>
+      <c r="N23" s="117"/>
+      <c r="O23" s="118"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
@@ -5665,11 +5674,11 @@
       <c r="J24" s="4"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-      <c r="M24" s="116" t="s">
+      <c r="M24" s="113" t="s">
         <v>69</v>
       </c>
-      <c r="N24" s="117"/>
-      <c r="O24" s="118"/>
+      <c r="N24" s="114"/>
+      <c r="O24" s="115"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
@@ -5802,11 +5811,11 @@
       <c r="J29" s="4"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
-      <c r="M29" s="113" t="s">
+      <c r="M29" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="N29" s="114"/>
-      <c r="O29" s="115"/>
+      <c r="N29" s="117"/>
+      <c r="O29" s="118"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
@@ -5827,11 +5836,11 @@
       <c r="J30" s="4"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="116" t="s">
+      <c r="M30" s="113" t="s">
         <v>69</v>
       </c>
-      <c r="N30" s="117"/>
-      <c r="O30" s="118"/>
+      <c r="N30" s="114"/>
+      <c r="O30" s="115"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
@@ -5987,11 +5996,11 @@
       <c r="J36" s="4"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
-      <c r="M36" s="113" t="s">
+      <c r="M36" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="N36" s="114"/>
-      <c r="O36" s="115"/>
+      <c r="N36" s="117"/>
+      <c r="O36" s="118"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
@@ -6012,11 +6021,11 @@
       <c r="J37" s="4"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
-      <c r="M37" s="116" t="s">
+      <c r="M37" s="113" t="s">
         <v>69</v>
       </c>
-      <c r="N37" s="117"/>
-      <c r="O37" s="118"/>
+      <c r="N37" s="114"/>
+      <c r="O37" s="115"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
@@ -6195,14 +6204,14 @@
       <c r="J44" s="4"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
-      <c r="M44" s="113" t="s">
+      <c r="M44" s="116" t="s">
         <v>16</v>
       </c>
-      <c r="N44" s="114"/>
-      <c r="O44" s="114"/>
-      <c r="P44" s="114"/>
-      <c r="Q44" s="114"/>
-      <c r="R44" s="115"/>
+      <c r="N44" s="117"/>
+      <c r="O44" s="117"/>
+      <c r="P44" s="117"/>
+      <c r="Q44" s="117"/>
+      <c r="R44" s="118"/>
       <c r="S44" s="2"/>
       <c r="T44" s="3"/>
       <c r="U44" s="3"/>
@@ -6220,14 +6229,14 @@
       <c r="J45" s="4"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
-      <c r="M45" s="116" t="s">
+      <c r="M45" s="113" t="s">
         <v>279</v>
       </c>
-      <c r="N45" s="117"/>
-      <c r="O45" s="117"/>
-      <c r="P45" s="117"/>
-      <c r="Q45" s="117"/>
-      <c r="R45" s="118"/>
+      <c r="N45" s="114"/>
+      <c r="O45" s="114"/>
+      <c r="P45" s="114"/>
+      <c r="Q45" s="114"/>
+      <c r="R45" s="115"/>
       <c r="S45" s="2"/>
       <c r="T45" s="3"/>
       <c r="U45" s="3"/>
@@ -6296,11 +6305,11 @@
     </row>
     <row r="48" spans="1:21">
       <c r="A48" s="1"/>
-      <c r="B48" s="113" t="s">
+      <c r="B48" s="116" t="s">
         <v>114</v>
       </c>
-      <c r="C48" s="114"/>
-      <c r="D48" s="115"/>
+      <c r="C48" s="117"/>
+      <c r="D48" s="118"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -6329,11 +6338,11 @@
     </row>
     <row r="49" spans="1:21">
       <c r="A49" s="1"/>
-      <c r="B49" s="116" t="s">
+      <c r="B49" s="113" t="s">
         <v>112</v>
       </c>
-      <c r="C49" s="117"/>
-      <c r="D49" s="118"/>
+      <c r="C49" s="114"/>
+      <c r="D49" s="115"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -6652,13 +6661,13 @@
       <c r="J59" s="4"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
-      <c r="M59" s="113" t="s">
+      <c r="M59" s="116" t="s">
         <v>136</v>
       </c>
-      <c r="N59" s="114"/>
-      <c r="O59" s="114"/>
-      <c r="P59" s="114"/>
-      <c r="Q59" s="115"/>
+      <c r="N59" s="117"/>
+      <c r="O59" s="117"/>
+      <c r="P59" s="117"/>
+      <c r="Q59" s="118"/>
       <c r="R59" s="1"/>
       <c r="S59" s="2"/>
       <c r="T59" s="3"/>
@@ -6779,10 +6788,10 @@
       <c r="O63" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P63" s="109" t="s">
+      <c r="P63" s="121" t="s">
         <v>23</v>
       </c>
-      <c r="Q63" s="110"/>
+      <c r="Q63" s="122"/>
       <c r="R63" s="1"/>
       <c r="S63" s="2"/>
       <c r="T63" s="3"/>
@@ -6948,13 +6957,13 @@
       <c r="J69" s="4"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
-      <c r="M69" s="113" t="s">
+      <c r="M69" s="116" t="s">
         <v>176</v>
       </c>
-      <c r="N69" s="114"/>
-      <c r="O69" s="114"/>
-      <c r="P69" s="114"/>
-      <c r="Q69" s="115"/>
+      <c r="N69" s="117"/>
+      <c r="O69" s="117"/>
+      <c r="P69" s="117"/>
+      <c r="Q69" s="118"/>
       <c r="R69" s="1"/>
       <c r="S69" s="1"/>
       <c r="T69" s="3"/>
@@ -6973,13 +6982,13 @@
       <c r="J70" s="4"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
-      <c r="M70" s="113" t="s">
+      <c r="M70" s="116" t="s">
         <v>177</v>
       </c>
-      <c r="N70" s="114"/>
-      <c r="O70" s="114"/>
-      <c r="P70" s="114"/>
-      <c r="Q70" s="115"/>
+      <c r="N70" s="117"/>
+      <c r="O70" s="117"/>
+      <c r="P70" s="117"/>
+      <c r="Q70" s="118"/>
       <c r="R70" s="1"/>
       <c r="S70" s="1"/>
       <c r="T70" s="3"/>
@@ -7007,10 +7016,10 @@
       <c r="O71" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="P71" s="109" t="s">
+      <c r="P71" s="121" t="s">
         <v>201</v>
       </c>
-      <c r="Q71" s="110"/>
+      <c r="Q71" s="122"/>
       <c r="R71" s="1"/>
       <c r="S71" s="1"/>
       <c r="T71" s="3"/>
@@ -7038,10 +7047,10 @@
       <c r="O72" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="P72" s="109" t="s">
+      <c r="P72" s="121" t="s">
         <v>193</v>
       </c>
-      <c r="Q72" s="110"/>
+      <c r="Q72" s="122"/>
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
       <c r="T72" s="3"/>
@@ -7069,10 +7078,10 @@
       <c r="O73" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="P73" s="109" t="s">
+      <c r="P73" s="121" t="s">
         <v>190</v>
       </c>
-      <c r="Q73" s="110"/>
+      <c r="Q73" s="122"/>
       <c r="R73" s="1"/>
       <c r="S73" s="1"/>
       <c r="T73" s="3"/>
@@ -7205,11 +7214,11 @@
       <c r="J78" s="4"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
-      <c r="M78" s="116" t="s">
+      <c r="M78" s="113" t="s">
         <v>191</v>
       </c>
-      <c r="N78" s="117"/>
-      <c r="O78" s="118"/>
+      <c r="N78" s="114"/>
+      <c r="O78" s="115"/>
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
       <c r="R78" s="1"/>
@@ -7311,11 +7320,11 @@
       <c r="J82" s="4"/>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
-      <c r="M82" s="116" t="s">
+      <c r="M82" s="113" t="s">
         <v>183</v>
       </c>
-      <c r="N82" s="117"/>
-      <c r="O82" s="118"/>
+      <c r="N82" s="114"/>
+      <c r="O82" s="115"/>
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
       <c r="R82" s="1"/>
@@ -7826,6 +7835,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="M69:Q69"/>
+    <mergeCell ref="M70:Q70"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="M45:R45"/>
+    <mergeCell ref="P46:R46"/>
+    <mergeCell ref="P47:R47"/>
+    <mergeCell ref="P48:R48"/>
+    <mergeCell ref="P50:R50"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="M44:R44"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
     <mergeCell ref="P76:Q76"/>
     <mergeCell ref="M78:O78"/>
     <mergeCell ref="M82:O82"/>
@@ -7842,34 +7879,6 @@
     <mergeCell ref="M11:O11"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="M29:O29"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="M44:R44"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="M45:R45"/>
-    <mergeCell ref="P46:R46"/>
-    <mergeCell ref="P47:R47"/>
-    <mergeCell ref="P48:R48"/>
-    <mergeCell ref="P50:R50"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="M69:Q69"/>
-    <mergeCell ref="M70:Q70"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="P67:Q67"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7898,32 +7907,32 @@
   <sheetData>
     <row r="2" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="3" spans="1:10">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="99" t="s">
         <v>288</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="100"/>
-      <c r="F3" s="98" t="s">
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="101"/>
+      <c r="F3" s="99" t="s">
         <v>299</v>
       </c>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="101"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="101" t="s">
+      <c r="A4" s="102" t="s">
         <v>289</v>
       </c>
-      <c r="B4" s="102"/>
-      <c r="C4" s="102"/>
-      <c r="D4" s="103"/>
-      <c r="F4" s="101" t="s">
+      <c r="B4" s="103"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="104"/>
+      <c r="F4" s="102" t="s">
         <v>292</v>
       </c>
-      <c r="G4" s="102"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="104"/>
     </row>
     <row r="5" spans="1:10" ht="14.25" thickBot="1">
       <c r="A5" s="8" t="s">
@@ -8081,32 +8090,32 @@
     </row>
     <row r="15" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="16" spans="1:10">
-      <c r="A16" s="98" t="s">
+      <c r="A16" s="99" t="s">
         <v>286</v>
       </c>
-      <c r="B16" s="99"/>
-      <c r="C16" s="99"/>
-      <c r="D16" s="100"/>
-      <c r="F16" s="98" t="s">
+      <c r="B16" s="100"/>
+      <c r="C16" s="100"/>
+      <c r="D16" s="101"/>
+      <c r="F16" s="99" t="s">
         <v>286</v>
       </c>
-      <c r="G16" s="99"/>
-      <c r="H16" s="99"/>
-      <c r="I16" s="100"/>
+      <c r="G16" s="100"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="101"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="101" t="s">
+      <c r="A17" s="102" t="s">
         <v>287</v>
       </c>
-      <c r="B17" s="102"/>
-      <c r="C17" s="102"/>
-      <c r="D17" s="103"/>
-      <c r="F17" s="101" t="s">
+      <c r="B17" s="103"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="104"/>
+      <c r="F17" s="102" t="s">
         <v>389</v>
       </c>
-      <c r="G17" s="102"/>
-      <c r="H17" s="102"/>
-      <c r="I17" s="103"/>
+      <c r="G17" s="103"/>
+      <c r="H17" s="103"/>
+      <c r="I17" s="104"/>
       <c r="J17">
         <v>1002</v>
       </c>
@@ -8156,20 +8165,20 @@
     </row>
     <row r="23" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="24" spans="1:10">
-      <c r="F24" s="98" t="s">
+      <c r="F24" s="99" t="s">
         <v>312</v>
       </c>
-      <c r="G24" s="99"/>
-      <c r="H24" s="99"/>
-      <c r="I24" s="100"/>
+      <c r="G24" s="100"/>
+      <c r="H24" s="100"/>
+      <c r="I24" s="101"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="F25" s="101" t="s">
+      <c r="F25" s="102" t="s">
         <v>313</v>
       </c>
-      <c r="G25" s="102"/>
-      <c r="H25" s="102"/>
-      <c r="I25" s="103"/>
+      <c r="G25" s="103"/>
+      <c r="H25" s="103"/>
+      <c r="I25" s="104"/>
     </row>
     <row r="26" spans="1:10">
       <c r="F26" s="8" t="s">
@@ -8190,33 +8199,33 @@
     </row>
     <row r="31" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="32" spans="1:10">
-      <c r="A32" s="98" t="s">
+      <c r="A32" s="99" t="s">
         <v>293</v>
       </c>
-      <c r="B32" s="99"/>
-      <c r="C32" s="99"/>
-      <c r="D32" s="100"/>
-      <c r="F32" s="98" t="s">
+      <c r="B32" s="100"/>
+      <c r="C32" s="100"/>
+      <c r="D32" s="101"/>
+      <c r="F32" s="99" t="s">
         <v>321</v>
       </c>
-      <c r="G32" s="99"/>
-      <c r="H32" s="99"/>
-      <c r="I32" s="100"/>
+      <c r="G32" s="100"/>
+      <c r="H32" s="100"/>
+      <c r="I32" s="101"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="101" t="s">
+      <c r="A33" s="102" t="s">
         <v>295</v>
       </c>
-      <c r="B33" s="102"/>
-      <c r="C33" s="102"/>
-      <c r="D33" s="103"/>
+      <c r="B33" s="103"/>
+      <c r="C33" s="103"/>
+      <c r="D33" s="104"/>
       <c r="E33" s="80"/>
-      <c r="F33" s="101" t="s">
+      <c r="F33" s="102" t="s">
         <v>322</v>
       </c>
-      <c r="G33" s="102"/>
-      <c r="H33" s="102"/>
-      <c r="I33" s="103"/>
+      <c r="G33" s="103"/>
+      <c r="H33" s="103"/>
+      <c r="I33" s="104"/>
     </row>
     <row r="34" spans="1:10" ht="14.25" thickBot="1">
       <c r="A34" s="8" t="s">
@@ -8327,35 +8336,35 @@
     </row>
     <row r="42" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="43" spans="1:10">
-      <c r="A43" s="98" t="s">
+      <c r="A43" s="99" t="s">
         <v>306</v>
       </c>
-      <c r="B43" s="99"/>
-      <c r="C43" s="99"/>
-      <c r="D43" s="100"/>
-      <c r="F43" s="98" t="s">
+      <c r="B43" s="100"/>
+      <c r="C43" s="100"/>
+      <c r="D43" s="101"/>
+      <c r="F43" s="99" t="s">
         <v>391</v>
       </c>
-      <c r="G43" s="99"/>
-      <c r="H43" s="99"/>
-      <c r="I43" s="100"/>
+      <c r="G43" s="100"/>
+      <c r="H43" s="100"/>
+      <c r="I43" s="101"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="101" t="s">
+      <c r="A44" s="102" t="s">
         <v>307</v>
       </c>
-      <c r="B44" s="102"/>
-      <c r="C44" s="102"/>
-      <c r="D44" s="103"/>
+      <c r="B44" s="103"/>
+      <c r="C44" s="103"/>
+      <c r="D44" s="104"/>
       <c r="E44">
         <v>1003</v>
       </c>
-      <c r="F44" s="101" t="s">
+      <c r="F44" s="102" t="s">
         <v>390</v>
       </c>
-      <c r="G44" s="102"/>
-      <c r="H44" s="102"/>
-      <c r="I44" s="103"/>
+      <c r="G44" s="103"/>
+      <c r="H44" s="103"/>
+      <c r="I44" s="104"/>
       <c r="J44">
         <v>1003</v>
       </c>
@@ -8375,40 +8384,40 @@
       </c>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="98" t="s">
+      <c r="A46" s="99" t="s">
         <v>310</v>
       </c>
-      <c r="B46" s="99"/>
-      <c r="C46" s="99"/>
-      <c r="D46" s="100"/>
+      <c r="B46" s="100"/>
+      <c r="C46" s="100"/>
+      <c r="D46" s="101"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="101" t="s">
+      <c r="A47" s="102" t="s">
         <v>311</v>
       </c>
-      <c r="B47" s="102"/>
-      <c r="C47" s="102"/>
-      <c r="D47" s="103"/>
+      <c r="B47" s="103"/>
+      <c r="C47" s="103"/>
+      <c r="D47" s="104"/>
       <c r="E47">
         <v>1004</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="49" spans="1:9">
-      <c r="A49" s="113" t="s">
+      <c r="A49" s="116" t="s">
         <v>315</v>
       </c>
-      <c r="B49" s="114"/>
-      <c r="C49" s="114"/>
-      <c r="D49" s="115"/>
+      <c r="B49" s="117"/>
+      <c r="C49" s="117"/>
+      <c r="D49" s="118"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="116" t="s">
+      <c r="A50" s="113" t="s">
         <v>316</v>
       </c>
-      <c r="B50" s="117"/>
-      <c r="C50" s="117"/>
-      <c r="D50" s="118"/>
+      <c r="B50" s="114"/>
+      <c r="C50" s="114"/>
+      <c r="D50" s="115"/>
       <c r="E50">
         <v>1005</v>
       </c>
@@ -8416,32 +8425,32 @@
     <row r="51" spans="1:9" ht="12.75" customHeight="1"/>
     <row r="52" spans="1:9" ht="13.5" customHeight="1" thickBot="1"/>
     <row r="53" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A53" s="98" t="s">
+      <c r="A53" s="99" t="s">
         <v>392</v>
       </c>
-      <c r="B53" s="99"/>
-      <c r="C53" s="99"/>
-      <c r="D53" s="100"/>
-      <c r="F53" s="98" t="s">
+      <c r="B53" s="100"/>
+      <c r="C53" s="100"/>
+      <c r="D53" s="101"/>
+      <c r="F53" s="99" t="s">
         <v>392</v>
       </c>
-      <c r="G53" s="99"/>
-      <c r="H53" s="99"/>
-      <c r="I53" s="100"/>
+      <c r="G53" s="100"/>
+      <c r="H53" s="100"/>
+      <c r="I53" s="101"/>
     </row>
     <row r="54" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A54" s="101" t="s">
+      <c r="A54" s="102" t="s">
         <v>397</v>
       </c>
-      <c r="B54" s="102"/>
-      <c r="C54" s="102"/>
-      <c r="D54" s="103"/>
-      <c r="F54" s="101" t="s">
+      <c r="B54" s="103"/>
+      <c r="C54" s="103"/>
+      <c r="D54" s="104"/>
+      <c r="F54" s="102" t="s">
         <v>398</v>
       </c>
-      <c r="G54" s="102"/>
-      <c r="H54" s="102"/>
-      <c r="I54" s="103"/>
+      <c r="G54" s="103"/>
+      <c r="H54" s="103"/>
+      <c r="I54" s="104"/>
     </row>
     <row r="55" spans="1:9" ht="13.5" customHeight="1">
       <c r="A55" s="8" t="s">
@@ -8496,32 +8505,32 @@
     <row r="64" spans="1:9" ht="12.75" customHeight="1"/>
     <row r="65" spans="1:10" ht="12.75" customHeight="1" thickBot="1"/>
     <row r="66" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A66" s="98" t="s">
+      <c r="A66" s="99" t="s">
         <v>377</v>
       </c>
-      <c r="B66" s="99"/>
-      <c r="C66" s="99"/>
-      <c r="D66" s="100"/>
-      <c r="F66" s="98" t="s">
+      <c r="B66" s="100"/>
+      <c r="C66" s="100"/>
+      <c r="D66" s="101"/>
+      <c r="F66" s="99" t="s">
         <v>359</v>
       </c>
-      <c r="G66" s="99"/>
-      <c r="H66" s="99"/>
-      <c r="I66" s="100"/>
+      <c r="G66" s="100"/>
+      <c r="H66" s="100"/>
+      <c r="I66" s="101"/>
     </row>
     <row r="67" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A67" s="101" t="s">
+      <c r="A67" s="102" t="s">
         <v>357</v>
       </c>
-      <c r="B67" s="102"/>
-      <c r="C67" s="102"/>
-      <c r="D67" s="103"/>
-      <c r="F67" s="116" t="s">
+      <c r="B67" s="103"/>
+      <c r="C67" s="103"/>
+      <c r="D67" s="104"/>
+      <c r="F67" s="113" t="s">
         <v>364</v>
       </c>
-      <c r="G67" s="117"/>
-      <c r="H67" s="117"/>
-      <c r="I67" s="118"/>
+      <c r="G67" s="114"/>
+      <c r="H67" s="114"/>
+      <c r="I67" s="115"/>
     </row>
     <row r="68" spans="1:10" ht="12.75" customHeight="1" thickBot="1">
       <c r="A68" s="8" t="s">
@@ -8626,46 +8635,46 @@
     </row>
     <row r="77" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="78" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A78" s="113" t="s">
+      <c r="A78" s="116" t="s">
         <v>317</v>
       </c>
-      <c r="B78" s="114"/>
-      <c r="C78" s="114"/>
-      <c r="D78" s="115"/>
-      <c r="F78" s="98" t="s">
+      <c r="B78" s="117"/>
+      <c r="C78" s="117"/>
+      <c r="D78" s="118"/>
+      <c r="F78" s="99" t="s">
         <v>235</v>
       </c>
-      <c r="G78" s="99"/>
-      <c r="H78" s="99"/>
-      <c r="I78" s="100"/>
+      <c r="G78" s="100"/>
+      <c r="H78" s="100"/>
+      <c r="I78" s="101"/>
     </row>
     <row r="79" spans="1:10">
-      <c r="A79" s="98" t="s">
+      <c r="A79" s="99" t="s">
         <v>233</v>
       </c>
-      <c r="B79" s="99"/>
-      <c r="C79" s="99"/>
-      <c r="D79" s="100"/>
+      <c r="B79" s="100"/>
+      <c r="C79" s="100"/>
+      <c r="D79" s="101"/>
       <c r="E79">
         <v>2001</v>
       </c>
-      <c r="F79" s="101" t="s">
+      <c r="F79" s="102" t="s">
         <v>236</v>
       </c>
-      <c r="G79" s="102"/>
-      <c r="H79" s="102"/>
-      <c r="I79" s="103"/>
+      <c r="G79" s="103"/>
+      <c r="H79" s="103"/>
+      <c r="I79" s="104"/>
       <c r="J79">
         <v>2001</v>
       </c>
     </row>
     <row r="80" spans="1:10">
-      <c r="A80" s="101" t="s">
+      <c r="A80" s="102" t="s">
         <v>234</v>
       </c>
-      <c r="B80" s="102"/>
-      <c r="C80" s="102"/>
-      <c r="D80" s="103"/>
+      <c r="B80" s="103"/>
+      <c r="C80" s="103"/>
+      <c r="D80" s="104"/>
       <c r="F80" s="8" t="s">
         <v>238</v>
       </c>
@@ -8727,43 +8736,43 @@
     </row>
     <row r="85" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="86" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A86" s="113" t="s">
+      <c r="A86" s="116" t="s">
         <v>400</v>
       </c>
-      <c r="B86" s="114"/>
-      <c r="C86" s="114"/>
-      <c r="D86" s="115"/>
-      <c r="F86" s="113" t="s">
+      <c r="B86" s="117"/>
+      <c r="C86" s="117"/>
+      <c r="D86" s="118"/>
+      <c r="F86" s="116" t="s">
         <v>400</v>
       </c>
-      <c r="G86" s="114"/>
-      <c r="H86" s="114"/>
-      <c r="I86" s="115"/>
+      <c r="G86" s="117"/>
+      <c r="H86" s="117"/>
+      <c r="I86" s="118"/>
     </row>
     <row r="87" spans="1:10">
-      <c r="A87" s="98" t="s">
+      <c r="A87" s="99" t="s">
         <v>233</v>
       </c>
-      <c r="B87" s="99"/>
-      <c r="C87" s="99"/>
-      <c r="D87" s="100"/>
+      <c r="B87" s="100"/>
+      <c r="C87" s="100"/>
+      <c r="D87" s="101"/>
       <c r="E87">
         <v>2003</v>
       </c>
-      <c r="F87" s="101" t="s">
+      <c r="F87" s="102" t="s">
         <v>236</v>
       </c>
-      <c r="G87" s="102"/>
-      <c r="H87" s="102"/>
-      <c r="I87" s="103"/>
+      <c r="G87" s="103"/>
+      <c r="H87" s="103"/>
+      <c r="I87" s="104"/>
     </row>
     <row r="88" spans="1:10">
-      <c r="A88" s="101" t="s">
+      <c r="A88" s="102" t="s">
         <v>234</v>
       </c>
-      <c r="B88" s="102"/>
-      <c r="C88" s="102"/>
-      <c r="D88" s="103"/>
+      <c r="B88" s="103"/>
+      <c r="C88" s="103"/>
+      <c r="D88" s="104"/>
       <c r="F88" s="8" t="s">
         <v>238</v>
       </c>
@@ -8835,10 +8844,10 @@
       </c>
     </row>
     <row r="96" spans="1:10">
-      <c r="A96" s="104" t="s">
+      <c r="A96" s="97" t="s">
         <v>250</v>
       </c>
-      <c r="B96" s="105"/>
+      <c r="B96" s="98"/>
       <c r="E96" s="21" t="s">
         <v>228</v>
       </c>
@@ -9191,6 +9200,31 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="F67:I67"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A79:D79"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="F78:I78"/>
+    <mergeCell ref="F79:I79"/>
+    <mergeCell ref="A87:D87"/>
+    <mergeCell ref="F87:I87"/>
+    <mergeCell ref="A88:D88"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="F33:I33"/>
     <mergeCell ref="A47:D47"/>
     <mergeCell ref="F44:I44"/>
     <mergeCell ref="F43:I43"/>
@@ -9207,31 +9241,6 @@
     <mergeCell ref="A66:D66"/>
     <mergeCell ref="A67:D67"/>
     <mergeCell ref="F66:I66"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F67:I67"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="A79:D79"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="F78:I78"/>
-    <mergeCell ref="F79:I79"/>
-    <mergeCell ref="A87:D87"/>
-    <mergeCell ref="F87:I87"/>
-    <mergeCell ref="A88:D88"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -9364,44 +9373,44 @@
   <sheetData>
     <row r="10" spans="2:14" ht="14.25" thickBot="1"/>
     <row r="11" spans="2:14">
-      <c r="B11" s="98" t="s">
+      <c r="B11" s="99" t="s">
         <v>387</v>
       </c>
-      <c r="C11" s="99"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="100"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="101"/>
       <c r="F11">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="14.25" thickBot="1"/>
     <row r="13" spans="2:14">
-      <c r="B13" s="98" t="s">
+      <c r="B13" s="99" t="s">
         <v>388</v>
       </c>
-      <c r="C13" s="99"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="100"/>
-      <c r="J13" s="98" t="s">
+      <c r="C13" s="100"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="101"/>
+      <c r="J13" s="99" t="s">
         <v>388</v>
       </c>
-      <c r="K13" s="99"/>
-      <c r="L13" s="99"/>
-      <c r="M13" s="100"/>
+      <c r="K13" s="100"/>
+      <c r="L13" s="100"/>
+      <c r="M13" s="101"/>
     </row>
     <row r="14" spans="2:14">
-      <c r="B14" s="101" t="s">
+      <c r="B14" s="102" t="s">
         <v>386</v>
       </c>
-      <c r="C14" s="102"/>
-      <c r="D14" s="102"/>
-      <c r="E14" s="103"/>
-      <c r="J14" s="101" t="s">
+      <c r="C14" s="103"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="104"/>
+      <c r="J14" s="102" t="s">
         <v>386</v>
       </c>
-      <c r="K14" s="102"/>
-      <c r="L14" s="102"/>
-      <c r="M14" s="103"/>
+      <c r="K14" s="103"/>
+      <c r="L14" s="103"/>
+      <c r="M14" s="104"/>
     </row>
     <row r="15" spans="2:14" ht="14.25" thickBot="1">
       <c r="B15" s="8" t="s">
@@ -9449,8 +9458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9474,21 +9483,21 @@
       </c>
     </row>
     <row r="2" spans="2:9">
-      <c r="B2" s="121" t="s">
-        <v>476</v>
+      <c r="B2" s="96" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="3" spans="2:9">
-      <c r="B3" s="101" t="s">
-        <v>468</v>
-      </c>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="G3" s="101" t="s">
+      <c r="B3" s="102" t="s">
+        <v>467</v>
+      </c>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="G3" s="102" t="s">
         <v>440</v>
       </c>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="8" t="s">
@@ -9558,7 +9567,7 @@
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C7" s="92" t="s">
         <v>32</v>
@@ -9610,18 +9619,18 @@
       </c>
     </row>
     <row r="14" spans="2:9">
-      <c r="G14" s="101" t="s">
+      <c r="G14" s="102" t="s">
         <v>417</v>
       </c>
-      <c r="H14" s="102"/>
-      <c r="I14" s="102"/>
+      <c r="H14" s="103"/>
+      <c r="I14" s="103"/>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="101" t="s">
+      <c r="B15" s="102" t="s">
         <v>434</v>
       </c>
-      <c r="C15" s="102"/>
-      <c r="D15" s="102"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="103"/>
       <c r="G15" s="8" t="s">
         <v>423</v>
       </c>
@@ -9738,16 +9747,16 @@
       <c r="D21" s="92"/>
     </row>
     <row r="24" spans="2:9">
-      <c r="B24" s="121" t="s">
-        <v>477</v>
+      <c r="B24" s="96" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="101" t="s">
+      <c r="B25" s="102" t="s">
         <v>450</v>
       </c>
-      <c r="C25" s="102"/>
-      <c r="D25" s="102"/>
+      <c r="C25" s="103"/>
+      <c r="D25" s="103"/>
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="8" t="s">
@@ -9776,7 +9785,7 @@
     </row>
     <row r="28" spans="2:9">
       <c r="B28" s="8" t="s">
-        <v>449</v>
+        <v>485</v>
       </c>
       <c r="C28" s="92" t="s">
         <v>447</v>
@@ -9784,11 +9793,11 @@
       <c r="D28" s="92" t="s">
         <v>448</v>
       </c>
-      <c r="G28" s="101" t="s">
+      <c r="G28" s="102" t="s">
         <v>456</v>
       </c>
-      <c r="H28" s="102"/>
-      <c r="I28" s="102"/>
+      <c r="H28" s="103"/>
+      <c r="I28" s="103"/>
     </row>
     <row r="29" spans="2:9">
       <c r="B29" s="8"/>
@@ -9827,19 +9836,19 @@
       </c>
     </row>
     <row r="32" spans="2:9">
-      <c r="B32" s="121" t="s">
-        <v>478</v>
+      <c r="B32" s="96" t="s">
+        <v>477</v>
       </c>
       <c r="G32" s="8"/>
       <c r="H32" s="92"/>
       <c r="I32" s="92"/>
     </row>
     <row r="33" spans="2:9">
-      <c r="B33" s="101" t="s">
+      <c r="B33" s="102" t="s">
         <v>453</v>
       </c>
-      <c r="C33" s="102"/>
-      <c r="D33" s="102"/>
+      <c r="C33" s="103"/>
+      <c r="D33" s="103"/>
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="8" t="s">
@@ -9879,11 +9888,11 @@
       <c r="D37" s="92"/>
     </row>
     <row r="40" spans="2:9">
-      <c r="G40" s="101" t="s">
+      <c r="G40" s="102" t="s">
         <v>459</v>
       </c>
-      <c r="H40" s="102"/>
-      <c r="I40" s="102"/>
+      <c r="H40" s="103"/>
+      <c r="I40" s="103"/>
     </row>
     <row r="41" spans="2:9">
       <c r="G41" s="8" t="s">
@@ -9892,8 +9901,8 @@
       <c r="H41" s="92" t="s">
         <v>302</v>
       </c>
-      <c r="I41" s="92" t="s">
-        <v>464</v>
+      <c r="I41" s="95" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="42" spans="2:9">
@@ -9904,7 +9913,7 @@
         <v>302</v>
       </c>
       <c r="I42" s="92" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="43" spans="2:9">
@@ -9915,31 +9924,31 @@
         <v>302</v>
       </c>
       <c r="I43" s="92" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="44" spans="2:9">
       <c r="G44" s="8" t="s">
-        <v>463</v>
+        <v>482</v>
       </c>
       <c r="H44" s="92" t="s">
         <v>302</v>
       </c>
       <c r="I44" s="92" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="48" spans="2:9">
-      <c r="B48" s="121" t="s">
-        <v>480</v>
+      <c r="B48" s="96" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="49" spans="2:6">
-      <c r="B49" s="101" t="s">
-        <v>479</v>
-      </c>
-      <c r="C49" s="102"/>
-      <c r="D49" s="102"/>
+      <c r="B49" s="102" t="s">
+        <v>478</v>
+      </c>
+      <c r="C49" s="103"/>
+      <c r="D49" s="103"/>
     </row>
     <row r="50" spans="2:6">
       <c r="B50" s="8" t="s">
@@ -9950,38 +9959,38 @@
       </c>
       <c r="D50" s="92"/>
       <c r="F50" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="51" spans="2:6">
       <c r="B51" s="8" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C51" s="92" t="s">
         <v>302</v>
       </c>
       <c r="D51" s="92"/>
       <c r="E51" s="94" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F51" s="94" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="52" spans="2:6">
       <c r="B52" s="8" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C52" s="92" t="s">
         <v>302</v>
       </c>
       <c r="D52" s="93" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="53" spans="2:6">
       <c r="B53" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C53" s="92" t="s">
         <v>302</v>
@@ -9989,16 +9998,16 @@
       <c r="D53" s="92"/>
     </row>
     <row r="58" spans="2:6">
-      <c r="B58" s="121" t="s">
-        <v>482</v>
+      <c r="B58" s="96" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="59" spans="2:6">
-      <c r="B59" s="101" t="s">
-        <v>479</v>
-      </c>
-      <c r="C59" s="102"/>
-      <c r="D59" s="102"/>
+      <c r="B59" s="102" t="s">
+        <v>483</v>
+      </c>
+      <c r="C59" s="103"/>
+      <c r="D59" s="103"/>
     </row>
     <row r="60" spans="2:6">
       <c r="B60" s="8" t="s">
@@ -10018,7 +10027,7 @@
       </c>
       <c r="D61" s="93"/>
       <c r="E61" s="94" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="62" spans="2:6">
@@ -10034,7 +10043,7 @@
     </row>
     <row r="63" spans="2:6">
       <c r="B63" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C63" s="93" t="s">
         <v>302</v>

--- a/doc/最新接口_拟定.xlsx
+++ b/doc/最新接口_拟定.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="首标签" sheetId="1" r:id="rId1"/>
@@ -3861,11 +3861,14 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3885,6 +3888,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3894,19 +3903,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3918,23 +3933,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4253,32 +4253,32 @@
   <sheetData>
     <row r="3" spans="2:16" ht="14.25" thickBot="1"/>
     <row r="4" spans="2:16">
-      <c r="B4" s="99" t="s">
+      <c r="B4" s="100" t="s">
         <v>233</v>
       </c>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="101"/>
-      <c r="I4" s="99" t="s">
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="102"/>
+      <c r="I4" s="100" t="s">
         <v>235</v>
       </c>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="102"/>
     </row>
     <row r="5" spans="2:16">
-      <c r="B5" s="102" t="s">
+      <c r="B5" s="103" t="s">
         <v>234</v>
       </c>
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="104"/>
-      <c r="I5" s="102" t="s">
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="105"/>
+      <c r="I5" s="103" t="s">
         <v>236</v>
       </c>
-      <c r="J5" s="103"/>
-      <c r="K5" s="103"/>
-      <c r="L5" s="104"/>
+      <c r="J5" s="104"/>
+      <c r="K5" s="104"/>
+      <c r="L5" s="105"/>
     </row>
     <row r="6" spans="2:16">
       <c r="B6" s="8"/>
@@ -4342,21 +4342,21 @@
     </row>
     <row r="11" spans="2:16" ht="14.25" customHeight="1"/>
     <row r="14" spans="2:16" ht="14.25" thickBot="1">
-      <c r="I14" s="108" t="s">
+      <c r="I14" s="97" t="s">
         <v>54</v>
       </c>
-      <c r="J14" s="109"/>
-      <c r="K14" s="109"/>
-      <c r="L14" s="109"/>
-      <c r="M14" s="110"/>
+      <c r="J14" s="98"/>
+      <c r="K14" s="98"/>
+      <c r="L14" s="98"/>
+      <c r="M14" s="99"/>
     </row>
     <row r="15" spans="2:16">
-      <c r="B15" s="99" t="s">
+      <c r="B15" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="100"/>
-      <c r="D15" s="100"/>
-      <c r="E15" s="101"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="102"/>
       <c r="I15" s="21" t="s">
         <v>34</v>
       </c>
@@ -4371,18 +4371,18 @@
         <v>34</v>
       </c>
       <c r="N15" s="3"/>
-      <c r="O15" s="97" t="s">
+      <c r="O15" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="P15" s="98"/>
+      <c r="P15" s="107"/>
     </row>
     <row r="16" spans="2:16">
-      <c r="B16" s="102" t="s">
+      <c r="B16" s="103" t="s">
         <v>234</v>
       </c>
-      <c r="C16" s="103"/>
-      <c r="D16" s="103"/>
-      <c r="E16" s="104"/>
+      <c r="C16" s="104"/>
+      <c r="D16" s="104"/>
+      <c r="E16" s="105"/>
       <c r="I16" s="33"/>
       <c r="J16" s="30"/>
       <c r="K16" s="31">
@@ -4880,12 +4880,12 @@
       <c r="P37" s="23"/>
     </row>
     <row r="38" spans="2:16">
-      <c r="B38" s="105" t="s">
+      <c r="B38" s="108" t="s">
         <v>263</v>
       </c>
-      <c r="C38" s="106"/>
-      <c r="D38" s="106"/>
-      <c r="E38" s="107"/>
+      <c r="C38" s="109"/>
+      <c r="D38" s="109"/>
+      <c r="E38" s="110"/>
       <c r="I38" s="33" t="s">
         <v>117</v>
       </c>
@@ -4967,18 +4967,18 @@
     <row r="42" spans="2:16" ht="22.5" customHeight="1"/>
     <row r="43" spans="2:16" ht="31.5" customHeight="1"/>
     <row r="44" spans="2:16">
-      <c r="H44" s="97" t="s">
+      <c r="H44" s="106" t="s">
         <v>248</v>
       </c>
-      <c r="I44" s="98"/>
-      <c r="J44" s="97" t="s">
+      <c r="I44" s="107"/>
+      <c r="J44" s="106" t="s">
         <v>116</v>
       </c>
-      <c r="K44" s="98"/>
-      <c r="L44" s="97" t="s">
+      <c r="K44" s="107"/>
+      <c r="L44" s="106" t="s">
         <v>77</v>
       </c>
-      <c r="M44" s="98"/>
+      <c r="M44" s="107"/>
     </row>
     <row r="45" spans="2:16">
       <c r="H45" s="22">
@@ -5094,11 +5094,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="I14:M14"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="I5:L5"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="J44:K44"/>
     <mergeCell ref="L44:M44"/>
@@ -5106,6 +5101,11 @@
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="H44:I44"/>
     <mergeCell ref="B38:E38"/>
+    <mergeCell ref="I14:M14"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="I5:L5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5299,11 +5299,11 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="4"/>
-      <c r="B10" s="116" t="s">
+      <c r="B10" s="115" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="117"/>
-      <c r="D10" s="118"/>
+      <c r="C10" s="116"/>
+      <c r="D10" s="117"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -5312,11 +5312,11 @@
       <c r="J10" s="4"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="116" t="s">
+      <c r="M10" s="115" t="s">
         <v>28</v>
       </c>
-      <c r="N10" s="117"/>
-      <c r="O10" s="118"/>
+      <c r="N10" s="116"/>
+      <c r="O10" s="117"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -5326,11 +5326,11 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="4"/>
-      <c r="B11" s="113" t="s">
+      <c r="B11" s="118" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="114"/>
-      <c r="D11" s="115"/>
+      <c r="C11" s="119"/>
+      <c r="D11" s="120"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -5339,11 +5339,11 @@
       <c r="J11" s="4"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="113" t="s">
+      <c r="M11" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="N11" s="114"/>
-      <c r="O11" s="115"/>
+      <c r="N11" s="119"/>
+      <c r="O11" s="120"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -5464,11 +5464,11 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="4"/>
-      <c r="B17" s="116" t="s">
+      <c r="B17" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="117"/>
-      <c r="D17" s="118"/>
+      <c r="C17" s="116"/>
+      <c r="D17" s="117"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -5477,11 +5477,11 @@
       <c r="J17" s="4"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="116" t="s">
+      <c r="M17" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="N17" s="117"/>
-      <c r="O17" s="118"/>
+      <c r="N17" s="116"/>
+      <c r="O17" s="117"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -5490,11 +5490,11 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="4"/>
-      <c r="B18" s="113" t="s">
+      <c r="B18" s="118" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="114"/>
-      <c r="D18" s="115"/>
+      <c r="C18" s="119"/>
+      <c r="D18" s="120"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -5503,11 +5503,11 @@
       <c r="J18" s="4"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="113" t="s">
+      <c r="M18" s="118" t="s">
         <v>129</v>
       </c>
-      <c r="N18" s="114"/>
-      <c r="O18" s="115"/>
+      <c r="N18" s="119"/>
+      <c r="O18" s="120"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -5547,9 +5547,9 @@
     </row>
     <row r="20" spans="1:21" ht="41.25" thickBot="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="116"/>
-      <c r="C20" s="117"/>
-      <c r="D20" s="118"/>
+      <c r="B20" s="115"/>
+      <c r="C20" s="116"/>
+      <c r="D20" s="117"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -5578,11 +5578,11 @@
     </row>
     <row r="21" spans="1:21" ht="14.25" thickBot="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="113" t="s">
+      <c r="B21" s="118" t="s">
         <v>129</v>
       </c>
-      <c r="C21" s="114"/>
-      <c r="D21" s="115"/>
+      <c r="C21" s="119"/>
+      <c r="D21" s="120"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -5649,11 +5649,11 @@
       <c r="J23" s="4"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="116" t="s">
+      <c r="M23" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="N23" s="117"/>
-      <c r="O23" s="118"/>
+      <c r="N23" s="116"/>
+      <c r="O23" s="117"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
@@ -5674,11 +5674,11 @@
       <c r="J24" s="4"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-      <c r="M24" s="113" t="s">
+      <c r="M24" s="118" t="s">
         <v>69</v>
       </c>
-      <c r="N24" s="114"/>
-      <c r="O24" s="115"/>
+      <c r="N24" s="119"/>
+      <c r="O24" s="120"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
@@ -5811,11 +5811,11 @@
       <c r="J29" s="4"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
-      <c r="M29" s="116" t="s">
+      <c r="M29" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="N29" s="117"/>
-      <c r="O29" s="118"/>
+      <c r="N29" s="116"/>
+      <c r="O29" s="117"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
@@ -5836,11 +5836,11 @@
       <c r="J30" s="4"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="113" t="s">
+      <c r="M30" s="118" t="s">
         <v>69</v>
       </c>
-      <c r="N30" s="114"/>
-      <c r="O30" s="115"/>
+      <c r="N30" s="119"/>
+      <c r="O30" s="120"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
@@ -5996,11 +5996,11 @@
       <c r="J36" s="4"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
-      <c r="M36" s="116" t="s">
+      <c r="M36" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="N36" s="117"/>
-      <c r="O36" s="118"/>
+      <c r="N36" s="116"/>
+      <c r="O36" s="117"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
@@ -6021,11 +6021,11 @@
       <c r="J37" s="4"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
-      <c r="M37" s="113" t="s">
+      <c r="M37" s="118" t="s">
         <v>69</v>
       </c>
-      <c r="N37" s="114"/>
-      <c r="O37" s="115"/>
+      <c r="N37" s="119"/>
+      <c r="O37" s="120"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
@@ -6204,14 +6204,14 @@
       <c r="J44" s="4"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
-      <c r="M44" s="116" t="s">
+      <c r="M44" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="N44" s="117"/>
-      <c r="O44" s="117"/>
-      <c r="P44" s="117"/>
-      <c r="Q44" s="117"/>
-      <c r="R44" s="118"/>
+      <c r="N44" s="116"/>
+      <c r="O44" s="116"/>
+      <c r="P44" s="116"/>
+      <c r="Q44" s="116"/>
+      <c r="R44" s="117"/>
       <c r="S44" s="2"/>
       <c r="T44" s="3"/>
       <c r="U44" s="3"/>
@@ -6229,14 +6229,14 @@
       <c r="J45" s="4"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
-      <c r="M45" s="113" t="s">
+      <c r="M45" s="118" t="s">
         <v>279</v>
       </c>
-      <c r="N45" s="114"/>
-      <c r="O45" s="114"/>
-      <c r="P45" s="114"/>
-      <c r="Q45" s="114"/>
-      <c r="R45" s="115"/>
+      <c r="N45" s="119"/>
+      <c r="O45" s="119"/>
+      <c r="P45" s="119"/>
+      <c r="Q45" s="119"/>
+      <c r="R45" s="120"/>
       <c r="S45" s="2"/>
       <c r="T45" s="3"/>
       <c r="U45" s="3"/>
@@ -6263,11 +6263,11 @@
       <c r="O46" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="P46" s="119" t="s">
+      <c r="P46" s="121" t="s">
         <v>130</v>
       </c>
-      <c r="Q46" s="119"/>
-      <c r="R46" s="120"/>
+      <c r="Q46" s="121"/>
+      <c r="R46" s="122"/>
       <c r="S46" s="2"/>
       <c r="T46" s="3"/>
       <c r="U46" s="3"/>
@@ -6294,22 +6294,22 @@
       <c r="O47" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="P47" s="119" t="s">
+      <c r="P47" s="121" t="s">
         <v>149</v>
       </c>
-      <c r="Q47" s="119"/>
-      <c r="R47" s="120"/>
+      <c r="Q47" s="121"/>
+      <c r="R47" s="122"/>
       <c r="S47" s="2"/>
       <c r="T47" s="3"/>
       <c r="U47" s="3"/>
     </row>
     <row r="48" spans="1:21">
       <c r="A48" s="1"/>
-      <c r="B48" s="116" t="s">
+      <c r="B48" s="115" t="s">
         <v>114</v>
       </c>
-      <c r="C48" s="117"/>
-      <c r="D48" s="118"/>
+      <c r="C48" s="116"/>
+      <c r="D48" s="117"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -6327,22 +6327,22 @@
       <c r="O48" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P48" s="119" t="s">
+      <c r="P48" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="Q48" s="119"/>
-      <c r="R48" s="120"/>
+      <c r="Q48" s="121"/>
+      <c r="R48" s="122"/>
       <c r="S48" s="2"/>
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
     </row>
     <row r="49" spans="1:21">
       <c r="A49" s="1"/>
-      <c r="B49" s="113" t="s">
+      <c r="B49" s="118" t="s">
         <v>112</v>
       </c>
-      <c r="C49" s="114"/>
-      <c r="D49" s="115"/>
+      <c r="C49" s="119"/>
+      <c r="D49" s="120"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -6399,11 +6399,11 @@
       <c r="O50" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P50" s="119" t="s">
+      <c r="P50" s="121" t="s">
         <v>18</v>
       </c>
-      <c r="Q50" s="119"/>
-      <c r="R50" s="120"/>
+      <c r="Q50" s="121"/>
+      <c r="R50" s="122"/>
       <c r="S50" s="2"/>
       <c r="T50" s="3"/>
       <c r="U50" s="3"/>
@@ -6430,11 +6430,11 @@
       <c r="O51" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="P51" s="119" t="s">
+      <c r="P51" s="121" t="s">
         <v>20</v>
       </c>
-      <c r="Q51" s="119"/>
-      <c r="R51" s="120"/>
+      <c r="Q51" s="121"/>
+      <c r="R51" s="122"/>
       <c r="S51" s="2"/>
       <c r="T51" s="3"/>
       <c r="U51" s="3"/>
@@ -6492,11 +6492,11 @@
       <c r="O53" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="P53" s="119" t="s">
+      <c r="P53" s="121" t="s">
         <v>21</v>
       </c>
-      <c r="Q53" s="119"/>
-      <c r="R53" s="120"/>
+      <c r="Q53" s="121"/>
+      <c r="R53" s="122"/>
       <c r="S53" s="2"/>
       <c r="T53" s="3"/>
       <c r="U53" s="3"/>
@@ -6661,13 +6661,13 @@
       <c r="J59" s="4"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
-      <c r="M59" s="116" t="s">
+      <c r="M59" s="115" t="s">
         <v>136</v>
       </c>
-      <c r="N59" s="117"/>
-      <c r="O59" s="117"/>
-      <c r="P59" s="117"/>
-      <c r="Q59" s="118"/>
+      <c r="N59" s="116"/>
+      <c r="O59" s="116"/>
+      <c r="P59" s="116"/>
+      <c r="Q59" s="117"/>
       <c r="R59" s="1"/>
       <c r="S59" s="2"/>
       <c r="T59" s="3"/>
@@ -6695,10 +6695,10 @@
       <c r="O60" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="P60" s="111" t="s">
+      <c r="P60" s="113" t="s">
         <v>137</v>
       </c>
-      <c r="Q60" s="112"/>
+      <c r="Q60" s="114"/>
       <c r="R60" s="1"/>
       <c r="S60" s="2"/>
       <c r="T60" s="3"/>
@@ -6726,10 +6726,10 @@
       <c r="O61" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="P61" s="111" t="s">
+      <c r="P61" s="113" t="s">
         <v>140</v>
       </c>
-      <c r="Q61" s="112"/>
+      <c r="Q61" s="114"/>
       <c r="R61" s="1"/>
       <c r="S61" s="2"/>
       <c r="T61" s="3"/>
@@ -6757,10 +6757,10 @@
       <c r="O62" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="P62" s="111" t="s">
+      <c r="P62" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="Q62" s="112"/>
+      <c r="Q62" s="114"/>
       <c r="R62" s="1"/>
       <c r="S62" s="2"/>
       <c r="T62" s="3"/>
@@ -6788,10 +6788,10 @@
       <c r="O63" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P63" s="121" t="s">
+      <c r="P63" s="111" t="s">
         <v>23</v>
       </c>
-      <c r="Q63" s="122"/>
+      <c r="Q63" s="112"/>
       <c r="R63" s="1"/>
       <c r="S63" s="2"/>
       <c r="T63" s="3"/>
@@ -6819,10 +6819,10 @@
       <c r="O64" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P64" s="111" t="s">
+      <c r="P64" s="113" t="s">
         <v>161</v>
       </c>
-      <c r="Q64" s="112"/>
+      <c r="Q64" s="114"/>
       <c r="R64" s="1"/>
       <c r="S64" s="2"/>
       <c r="T64" s="3"/>
@@ -6850,10 +6850,10 @@
       <c r="O65" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="P65" s="111" t="s">
+      <c r="P65" s="113" t="s">
         <v>60</v>
       </c>
-      <c r="Q65" s="112"/>
+      <c r="Q65" s="114"/>
       <c r="R65" s="1"/>
       <c r="S65" s="2"/>
       <c r="T65" s="3"/>
@@ -6881,10 +6881,10 @@
       <c r="O66" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P66" s="111" t="s">
+      <c r="P66" s="113" t="s">
         <v>218</v>
       </c>
-      <c r="Q66" s="112"/>
+      <c r="Q66" s="114"/>
       <c r="R66" s="1"/>
       <c r="S66" s="2"/>
       <c r="T66" s="3"/>
@@ -6912,10 +6912,10 @@
       <c r="O67" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P67" s="111" t="s">
+      <c r="P67" s="113" t="s">
         <v>217</v>
       </c>
-      <c r="Q67" s="112"/>
+      <c r="Q67" s="114"/>
       <c r="R67" s="1"/>
       <c r="S67" s="1"/>
       <c r="T67" s="3"/>
@@ -6957,13 +6957,13 @@
       <c r="J69" s="4"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
-      <c r="M69" s="116" t="s">
+      <c r="M69" s="115" t="s">
         <v>176</v>
       </c>
-      <c r="N69" s="117"/>
-      <c r="O69" s="117"/>
-      <c r="P69" s="117"/>
-      <c r="Q69" s="118"/>
+      <c r="N69" s="116"/>
+      <c r="O69" s="116"/>
+      <c r="P69" s="116"/>
+      <c r="Q69" s="117"/>
       <c r="R69" s="1"/>
       <c r="S69" s="1"/>
       <c r="T69" s="3"/>
@@ -6982,13 +6982,13 @@
       <c r="J70" s="4"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
-      <c r="M70" s="116" t="s">
+      <c r="M70" s="115" t="s">
         <v>177</v>
       </c>
-      <c r="N70" s="117"/>
-      <c r="O70" s="117"/>
-      <c r="P70" s="117"/>
-      <c r="Q70" s="118"/>
+      <c r="N70" s="116"/>
+      <c r="O70" s="116"/>
+      <c r="P70" s="116"/>
+      <c r="Q70" s="117"/>
       <c r="R70" s="1"/>
       <c r="S70" s="1"/>
       <c r="T70" s="3"/>
@@ -7016,10 +7016,10 @@
       <c r="O71" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="P71" s="121" t="s">
+      <c r="P71" s="111" t="s">
         <v>201</v>
       </c>
-      <c r="Q71" s="122"/>
+      <c r="Q71" s="112"/>
       <c r="R71" s="1"/>
       <c r="S71" s="1"/>
       <c r="T71" s="3"/>
@@ -7047,10 +7047,10 @@
       <c r="O72" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="P72" s="121" t="s">
+      <c r="P72" s="111" t="s">
         <v>193</v>
       </c>
-      <c r="Q72" s="122"/>
+      <c r="Q72" s="112"/>
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
       <c r="T72" s="3"/>
@@ -7078,10 +7078,10 @@
       <c r="O73" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="P73" s="121" t="s">
+      <c r="P73" s="111" t="s">
         <v>190</v>
       </c>
-      <c r="Q73" s="122"/>
+      <c r="Q73" s="112"/>
       <c r="R73" s="1"/>
       <c r="S73" s="1"/>
       <c r="T73" s="3"/>
@@ -7138,10 +7138,10 @@
       <c r="O75" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P75" s="111" t="s">
+      <c r="P75" s="113" t="s">
         <v>219</v>
       </c>
-      <c r="Q75" s="112"/>
+      <c r="Q75" s="114"/>
       <c r="R75" s="1"/>
       <c r="S75" s="1"/>
       <c r="T75" s="3"/>
@@ -7169,10 +7169,10 @@
       <c r="O76" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P76" s="111" t="s">
+      <c r="P76" s="113" t="s">
         <v>220</v>
       </c>
-      <c r="Q76" s="112"/>
+      <c r="Q76" s="114"/>
       <c r="R76" s="1"/>
       <c r="S76" s="1"/>
       <c r="T76" s="3"/>
@@ -7214,11 +7214,11 @@
       <c r="J78" s="4"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
-      <c r="M78" s="113" t="s">
+      <c r="M78" s="118" t="s">
         <v>191</v>
       </c>
-      <c r="N78" s="114"/>
-      <c r="O78" s="115"/>
+      <c r="N78" s="119"/>
+      <c r="O78" s="120"/>
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
       <c r="R78" s="1"/>
@@ -7320,11 +7320,11 @@
       <c r="J82" s="4"/>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
-      <c r="M82" s="113" t="s">
+      <c r="M82" s="118" t="s">
         <v>183</v>
       </c>
-      <c r="N82" s="114"/>
-      <c r="O82" s="115"/>
+      <c r="N82" s="119"/>
+      <c r="O82" s="120"/>
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
       <c r="R82" s="1"/>
@@ -7835,6 +7835,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="M78:O78"/>
+    <mergeCell ref="M82:O82"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="M59:Q59"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P51:R51"/>
+    <mergeCell ref="P53:R53"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="M44:R44"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="M45:R45"/>
+    <mergeCell ref="P46:R46"/>
+    <mergeCell ref="P47:R47"/>
+    <mergeCell ref="P48:R48"/>
+    <mergeCell ref="P50:R50"/>
     <mergeCell ref="P63:Q63"/>
     <mergeCell ref="P66:Q66"/>
     <mergeCell ref="B48:D48"/>
@@ -7851,34 +7879,6 @@
     <mergeCell ref="P60:Q60"/>
     <mergeCell ref="P62:Q62"/>
     <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="M45:R45"/>
-    <mergeCell ref="P46:R46"/>
-    <mergeCell ref="P47:R47"/>
-    <mergeCell ref="P48:R48"/>
-    <mergeCell ref="P50:R50"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="M44:R44"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="M78:O78"/>
-    <mergeCell ref="M82:O82"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="M59:Q59"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P51:R51"/>
-    <mergeCell ref="P53:R53"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="M29:O29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7890,8 +7890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:T116"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87:D87"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7907,32 +7907,32 @@
   <sheetData>
     <row r="2" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="3" spans="1:10">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="100" t="s">
         <v>288</v>
       </c>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="101"/>
-      <c r="F3" s="99" t="s">
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="102"/>
+      <c r="F3" s="100" t="s">
         <v>299</v>
       </c>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="102"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="103" t="s">
         <v>289</v>
       </c>
-      <c r="B4" s="103"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="104"/>
-      <c r="F4" s="102" t="s">
+      <c r="B4" s="104"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="105"/>
+      <c r="F4" s="103" t="s">
         <v>292</v>
       </c>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="104"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="105"/>
     </row>
     <row r="5" spans="1:10" ht="14.25" thickBot="1">
       <c r="A5" s="8" t="s">
@@ -8090,32 +8090,32 @@
     </row>
     <row r="15" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="16" spans="1:10">
-      <c r="A16" s="99" t="s">
+      <c r="A16" s="100" t="s">
         <v>286</v>
       </c>
-      <c r="B16" s="100"/>
-      <c r="C16" s="100"/>
-      <c r="D16" s="101"/>
-      <c r="F16" s="99" t="s">
+      <c r="B16" s="101"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="102"/>
+      <c r="F16" s="100" t="s">
         <v>286</v>
       </c>
-      <c r="G16" s="100"/>
-      <c r="H16" s="100"/>
-      <c r="I16" s="101"/>
+      <c r="G16" s="101"/>
+      <c r="H16" s="101"/>
+      <c r="I16" s="102"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="102" t="s">
+      <c r="A17" s="103" t="s">
         <v>287</v>
       </c>
-      <c r="B17" s="103"/>
-      <c r="C17" s="103"/>
-      <c r="D17" s="104"/>
-      <c r="F17" s="102" t="s">
+      <c r="B17" s="104"/>
+      <c r="C17" s="104"/>
+      <c r="D17" s="105"/>
+      <c r="F17" s="103" t="s">
         <v>389</v>
       </c>
-      <c r="G17" s="103"/>
-      <c r="H17" s="103"/>
-      <c r="I17" s="104"/>
+      <c r="G17" s="104"/>
+      <c r="H17" s="104"/>
+      <c r="I17" s="105"/>
       <c r="J17">
         <v>1002</v>
       </c>
@@ -8165,20 +8165,20 @@
     </row>
     <row r="23" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="24" spans="1:10">
-      <c r="F24" s="99" t="s">
+      <c r="F24" s="100" t="s">
         <v>312</v>
       </c>
-      <c r="G24" s="100"/>
-      <c r="H24" s="100"/>
-      <c r="I24" s="101"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="102"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="F25" s="102" t="s">
+      <c r="F25" s="103" t="s">
         <v>313</v>
       </c>
-      <c r="G25" s="103"/>
-      <c r="H25" s="103"/>
-      <c r="I25" s="104"/>
+      <c r="G25" s="104"/>
+      <c r="H25" s="104"/>
+      <c r="I25" s="105"/>
     </row>
     <row r="26" spans="1:10">
       <c r="F26" s="8" t="s">
@@ -8199,33 +8199,33 @@
     </row>
     <row r="31" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="32" spans="1:10">
-      <c r="A32" s="99" t="s">
+      <c r="A32" s="100" t="s">
         <v>293</v>
       </c>
-      <c r="B32" s="100"/>
-      <c r="C32" s="100"/>
-      <c r="D32" s="101"/>
-      <c r="F32" s="99" t="s">
+      <c r="B32" s="101"/>
+      <c r="C32" s="101"/>
+      <c r="D32" s="102"/>
+      <c r="F32" s="100" t="s">
         <v>321</v>
       </c>
-      <c r="G32" s="100"/>
-      <c r="H32" s="100"/>
-      <c r="I32" s="101"/>
+      <c r="G32" s="101"/>
+      <c r="H32" s="101"/>
+      <c r="I32" s="102"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="102" t="s">
+      <c r="A33" s="103" t="s">
         <v>295</v>
       </c>
-      <c r="B33" s="103"/>
-      <c r="C33" s="103"/>
-      <c r="D33" s="104"/>
+      <c r="B33" s="104"/>
+      <c r="C33" s="104"/>
+      <c r="D33" s="105"/>
       <c r="E33" s="80"/>
-      <c r="F33" s="102" t="s">
+      <c r="F33" s="103" t="s">
         <v>322</v>
       </c>
-      <c r="G33" s="103"/>
-      <c r="H33" s="103"/>
-      <c r="I33" s="104"/>
+      <c r="G33" s="104"/>
+      <c r="H33" s="104"/>
+      <c r="I33" s="105"/>
     </row>
     <row r="34" spans="1:10" ht="14.25" thickBot="1">
       <c r="A34" s="8" t="s">
@@ -8336,35 +8336,35 @@
     </row>
     <row r="42" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="43" spans="1:10">
-      <c r="A43" s="99" t="s">
+      <c r="A43" s="100" t="s">
         <v>306</v>
       </c>
-      <c r="B43" s="100"/>
-      <c r="C43" s="100"/>
-      <c r="D43" s="101"/>
-      <c r="F43" s="99" t="s">
+      <c r="B43" s="101"/>
+      <c r="C43" s="101"/>
+      <c r="D43" s="102"/>
+      <c r="F43" s="100" t="s">
         <v>391</v>
       </c>
-      <c r="G43" s="100"/>
-      <c r="H43" s="100"/>
-      <c r="I43" s="101"/>
+      <c r="G43" s="101"/>
+      <c r="H43" s="101"/>
+      <c r="I43" s="102"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="102" t="s">
+      <c r="A44" s="103" t="s">
         <v>307</v>
       </c>
-      <c r="B44" s="103"/>
-      <c r="C44" s="103"/>
-      <c r="D44" s="104"/>
+      <c r="B44" s="104"/>
+      <c r="C44" s="104"/>
+      <c r="D44" s="105"/>
       <c r="E44">
         <v>1003</v>
       </c>
-      <c r="F44" s="102" t="s">
+      <c r="F44" s="103" t="s">
         <v>390</v>
       </c>
-      <c r="G44" s="103"/>
-      <c r="H44" s="103"/>
-      <c r="I44" s="104"/>
+      <c r="G44" s="104"/>
+      <c r="H44" s="104"/>
+      <c r="I44" s="105"/>
       <c r="J44">
         <v>1003</v>
       </c>
@@ -8384,40 +8384,40 @@
       </c>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="99" t="s">
+      <c r="A46" s="100" t="s">
         <v>310</v>
       </c>
-      <c r="B46" s="100"/>
-      <c r="C46" s="100"/>
-      <c r="D46" s="101"/>
+      <c r="B46" s="101"/>
+      <c r="C46" s="101"/>
+      <c r="D46" s="102"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="102" t="s">
+      <c r="A47" s="103" t="s">
         <v>311</v>
       </c>
-      <c r="B47" s="103"/>
-      <c r="C47" s="103"/>
-      <c r="D47" s="104"/>
+      <c r="B47" s="104"/>
+      <c r="C47" s="104"/>
+      <c r="D47" s="105"/>
       <c r="E47">
         <v>1004</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="49" spans="1:9">
-      <c r="A49" s="116" t="s">
+      <c r="A49" s="115" t="s">
         <v>315</v>
       </c>
-      <c r="B49" s="117"/>
-      <c r="C49" s="117"/>
-      <c r="D49" s="118"/>
+      <c r="B49" s="116"/>
+      <c r="C49" s="116"/>
+      <c r="D49" s="117"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="113" t="s">
+      <c r="A50" s="118" t="s">
         <v>316</v>
       </c>
-      <c r="B50" s="114"/>
-      <c r="C50" s="114"/>
-      <c r="D50" s="115"/>
+      <c r="B50" s="119"/>
+      <c r="C50" s="119"/>
+      <c r="D50" s="120"/>
       <c r="E50">
         <v>1005</v>
       </c>
@@ -8425,32 +8425,32 @@
     <row r="51" spans="1:9" ht="12.75" customHeight="1"/>
     <row r="52" spans="1:9" ht="13.5" customHeight="1" thickBot="1"/>
     <row r="53" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A53" s="99" t="s">
+      <c r="A53" s="100" t="s">
         <v>392</v>
       </c>
-      <c r="B53" s="100"/>
-      <c r="C53" s="100"/>
-      <c r="D53" s="101"/>
-      <c r="F53" s="99" t="s">
+      <c r="B53" s="101"/>
+      <c r="C53" s="101"/>
+      <c r="D53" s="102"/>
+      <c r="F53" s="100" t="s">
         <v>392</v>
       </c>
-      <c r="G53" s="100"/>
-      <c r="H53" s="100"/>
-      <c r="I53" s="101"/>
+      <c r="G53" s="101"/>
+      <c r="H53" s="101"/>
+      <c r="I53" s="102"/>
     </row>
     <row r="54" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A54" s="102" t="s">
+      <c r="A54" s="103" t="s">
         <v>397</v>
       </c>
-      <c r="B54" s="103"/>
-      <c r="C54" s="103"/>
-      <c r="D54" s="104"/>
-      <c r="F54" s="102" t="s">
+      <c r="B54" s="104"/>
+      <c r="C54" s="104"/>
+      <c r="D54" s="105"/>
+      <c r="F54" s="103" t="s">
         <v>398</v>
       </c>
-      <c r="G54" s="103"/>
-      <c r="H54" s="103"/>
-      <c r="I54" s="104"/>
+      <c r="G54" s="104"/>
+      <c r="H54" s="104"/>
+      <c r="I54" s="105"/>
     </row>
     <row r="55" spans="1:9" ht="13.5" customHeight="1">
       <c r="A55" s="8" t="s">
@@ -8505,32 +8505,32 @@
     <row r="64" spans="1:9" ht="12.75" customHeight="1"/>
     <row r="65" spans="1:10" ht="12.75" customHeight="1" thickBot="1"/>
     <row r="66" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A66" s="99" t="s">
+      <c r="A66" s="100" t="s">
         <v>377</v>
       </c>
-      <c r="B66" s="100"/>
-      <c r="C66" s="100"/>
-      <c r="D66" s="101"/>
-      <c r="F66" s="99" t="s">
+      <c r="B66" s="101"/>
+      <c r="C66" s="101"/>
+      <c r="D66" s="102"/>
+      <c r="F66" s="100" t="s">
         <v>359</v>
       </c>
-      <c r="G66" s="100"/>
-      <c r="H66" s="100"/>
-      <c r="I66" s="101"/>
+      <c r="G66" s="101"/>
+      <c r="H66" s="101"/>
+      <c r="I66" s="102"/>
     </row>
     <row r="67" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A67" s="102" t="s">
+      <c r="A67" s="103" t="s">
         <v>357</v>
       </c>
-      <c r="B67" s="103"/>
-      <c r="C67" s="103"/>
-      <c r="D67" s="104"/>
-      <c r="F67" s="113" t="s">
+      <c r="B67" s="104"/>
+      <c r="C67" s="104"/>
+      <c r="D67" s="105"/>
+      <c r="F67" s="118" t="s">
         <v>364</v>
       </c>
-      <c r="G67" s="114"/>
-      <c r="H67" s="114"/>
-      <c r="I67" s="115"/>
+      <c r="G67" s="119"/>
+      <c r="H67" s="119"/>
+      <c r="I67" s="120"/>
     </row>
     <row r="68" spans="1:10" ht="12.75" customHeight="1" thickBot="1">
       <c r="A68" s="8" t="s">
@@ -8635,46 +8635,46 @@
     </row>
     <row r="77" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="78" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A78" s="116" t="s">
+      <c r="A78" s="115" t="s">
         <v>317</v>
       </c>
-      <c r="B78" s="117"/>
-      <c r="C78" s="117"/>
-      <c r="D78" s="118"/>
-      <c r="F78" s="99" t="s">
+      <c r="B78" s="116"/>
+      <c r="C78" s="116"/>
+      <c r="D78" s="117"/>
+      <c r="F78" s="100" t="s">
         <v>235</v>
       </c>
-      <c r="G78" s="100"/>
-      <c r="H78" s="100"/>
-      <c r="I78" s="101"/>
+      <c r="G78" s="101"/>
+      <c r="H78" s="101"/>
+      <c r="I78" s="102"/>
     </row>
     <row r="79" spans="1:10">
-      <c r="A79" s="99" t="s">
+      <c r="A79" s="100" t="s">
         <v>233</v>
       </c>
-      <c r="B79" s="100"/>
-      <c r="C79" s="100"/>
-      <c r="D79" s="101"/>
+      <c r="B79" s="101"/>
+      <c r="C79" s="101"/>
+      <c r="D79" s="102"/>
       <c r="E79">
         <v>2001</v>
       </c>
-      <c r="F79" s="102" t="s">
+      <c r="F79" s="103" t="s">
         <v>236</v>
       </c>
-      <c r="G79" s="103"/>
-      <c r="H79" s="103"/>
-      <c r="I79" s="104"/>
+      <c r="G79" s="104"/>
+      <c r="H79" s="104"/>
+      <c r="I79" s="105"/>
       <c r="J79">
         <v>2001</v>
       </c>
     </row>
     <row r="80" spans="1:10">
-      <c r="A80" s="102" t="s">
+      <c r="A80" s="103" t="s">
         <v>234</v>
       </c>
-      <c r="B80" s="103"/>
-      <c r="C80" s="103"/>
-      <c r="D80" s="104"/>
+      <c r="B80" s="104"/>
+      <c r="C80" s="104"/>
+      <c r="D80" s="105"/>
       <c r="F80" s="8" t="s">
         <v>238</v>
       </c>
@@ -8736,43 +8736,43 @@
     </row>
     <row r="85" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="86" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A86" s="116" t="s">
+      <c r="A86" s="115" t="s">
         <v>400</v>
       </c>
-      <c r="B86" s="117"/>
-      <c r="C86" s="117"/>
-      <c r="D86" s="118"/>
-      <c r="F86" s="116" t="s">
+      <c r="B86" s="116"/>
+      <c r="C86" s="116"/>
+      <c r="D86" s="117"/>
+      <c r="F86" s="115" t="s">
         <v>400</v>
       </c>
-      <c r="G86" s="117"/>
-      <c r="H86" s="117"/>
-      <c r="I86" s="118"/>
+      <c r="G86" s="116"/>
+      <c r="H86" s="116"/>
+      <c r="I86" s="117"/>
     </row>
     <row r="87" spans="1:10">
-      <c r="A87" s="99" t="s">
+      <c r="A87" s="100" t="s">
         <v>233</v>
       </c>
-      <c r="B87" s="100"/>
-      <c r="C87" s="100"/>
-      <c r="D87" s="101"/>
+      <c r="B87" s="101"/>
+      <c r="C87" s="101"/>
+      <c r="D87" s="102"/>
       <c r="E87">
         <v>2003</v>
       </c>
-      <c r="F87" s="102" t="s">
+      <c r="F87" s="103" t="s">
         <v>236</v>
       </c>
-      <c r="G87" s="103"/>
-      <c r="H87" s="103"/>
-      <c r="I87" s="104"/>
+      <c r="G87" s="104"/>
+      <c r="H87" s="104"/>
+      <c r="I87" s="105"/>
     </row>
     <row r="88" spans="1:10">
-      <c r="A88" s="102" t="s">
+      <c r="A88" s="103" t="s">
         <v>234</v>
       </c>
-      <c r="B88" s="103"/>
-      <c r="C88" s="103"/>
-      <c r="D88" s="104"/>
+      <c r="B88" s="104"/>
+      <c r="C88" s="104"/>
+      <c r="D88" s="105"/>
       <c r="F88" s="8" t="s">
         <v>238</v>
       </c>
@@ -8844,10 +8844,10 @@
       </c>
     </row>
     <row r="96" spans="1:10">
-      <c r="A96" s="97" t="s">
+      <c r="A96" s="106" t="s">
         <v>250</v>
       </c>
-      <c r="B96" s="98"/>
+      <c r="B96" s="107"/>
       <c r="E96" s="21" t="s">
         <v>228</v>
       </c>
@@ -9200,31 +9200,6 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="F67:I67"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="A79:D79"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="F78:I78"/>
-    <mergeCell ref="F79:I79"/>
-    <mergeCell ref="A87:D87"/>
-    <mergeCell ref="F87:I87"/>
-    <mergeCell ref="A88:D88"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="F33:I33"/>
     <mergeCell ref="A47:D47"/>
     <mergeCell ref="F44:I44"/>
     <mergeCell ref="F43:I43"/>
@@ -9241,6 +9216,31 @@
     <mergeCell ref="A66:D66"/>
     <mergeCell ref="A67:D67"/>
     <mergeCell ref="F66:I66"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F67:I67"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A79:D79"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="F78:I78"/>
+    <mergeCell ref="F79:I79"/>
+    <mergeCell ref="A87:D87"/>
+    <mergeCell ref="F87:I87"/>
+    <mergeCell ref="A88:D88"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -9373,44 +9373,44 @@
   <sheetData>
     <row r="10" spans="2:14" ht="14.25" thickBot="1"/>
     <row r="11" spans="2:14">
-      <c r="B11" s="99" t="s">
+      <c r="B11" s="100" t="s">
         <v>387</v>
       </c>
-      <c r="C11" s="100"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="101"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="102"/>
       <c r="F11">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="14.25" thickBot="1"/>
     <row r="13" spans="2:14">
-      <c r="B13" s="99" t="s">
+      <c r="B13" s="100" t="s">
         <v>388</v>
       </c>
-      <c r="C13" s="100"/>
-      <c r="D13" s="100"/>
-      <c r="E13" s="101"/>
-      <c r="J13" s="99" t="s">
+      <c r="C13" s="101"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="102"/>
+      <c r="J13" s="100" t="s">
         <v>388</v>
       </c>
-      <c r="K13" s="100"/>
-      <c r="L13" s="100"/>
-      <c r="M13" s="101"/>
+      <c r="K13" s="101"/>
+      <c r="L13" s="101"/>
+      <c r="M13" s="102"/>
     </row>
     <row r="14" spans="2:14">
-      <c r="B14" s="102" t="s">
+      <c r="B14" s="103" t="s">
         <v>386</v>
       </c>
-      <c r="C14" s="103"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="104"/>
-      <c r="J14" s="102" t="s">
+      <c r="C14" s="104"/>
+      <c r="D14" s="104"/>
+      <c r="E14" s="105"/>
+      <c r="J14" s="103" t="s">
         <v>386</v>
       </c>
-      <c r="K14" s="103"/>
-      <c r="L14" s="103"/>
-      <c r="M14" s="104"/>
+      <c r="K14" s="104"/>
+      <c r="L14" s="104"/>
+      <c r="M14" s="105"/>
     </row>
     <row r="15" spans="2:14" ht="14.25" thickBot="1">
       <c r="B15" s="8" t="s">
@@ -9458,8 +9458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9488,16 +9488,16 @@
       </c>
     </row>
     <row r="3" spans="2:9">
-      <c r="B3" s="102" t="s">
+      <c r="B3" s="103" t="s">
         <v>467</v>
       </c>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="G3" s="102" t="s">
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="G3" s="103" t="s">
         <v>440</v>
       </c>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="8" t="s">
@@ -9619,18 +9619,18 @@
       </c>
     </row>
     <row r="14" spans="2:9">
-      <c r="G14" s="102" t="s">
+      <c r="G14" s="103" t="s">
         <v>417</v>
       </c>
-      <c r="H14" s="103"/>
-      <c r="I14" s="103"/>
+      <c r="H14" s="104"/>
+      <c r="I14" s="104"/>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="102" t="s">
+      <c r="B15" s="103" t="s">
         <v>434</v>
       </c>
-      <c r="C15" s="103"/>
-      <c r="D15" s="103"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="104"/>
       <c r="G15" s="8" t="s">
         <v>423</v>
       </c>
@@ -9752,11 +9752,11 @@
       </c>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="102" t="s">
+      <c r="B25" s="103" t="s">
         <v>450</v>
       </c>
-      <c r="C25" s="103"/>
-      <c r="D25" s="103"/>
+      <c r="C25" s="104"/>
+      <c r="D25" s="104"/>
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="8" t="s">
@@ -9793,11 +9793,11 @@
       <c r="D28" s="92" t="s">
         <v>448</v>
       </c>
-      <c r="G28" s="102" t="s">
+      <c r="G28" s="103" t="s">
         <v>456</v>
       </c>
-      <c r="H28" s="103"/>
-      <c r="I28" s="103"/>
+      <c r="H28" s="104"/>
+      <c r="I28" s="104"/>
     </row>
     <row r="29" spans="2:9">
       <c r="B29" s="8"/>
@@ -9844,11 +9844,11 @@
       <c r="I32" s="92"/>
     </row>
     <row r="33" spans="2:9">
-      <c r="B33" s="102" t="s">
+      <c r="B33" s="103" t="s">
         <v>453</v>
       </c>
-      <c r="C33" s="103"/>
-      <c r="D33" s="103"/>
+      <c r="C33" s="104"/>
+      <c r="D33" s="104"/>
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="8" t="s">
@@ -9888,11 +9888,11 @@
       <c r="D37" s="92"/>
     </row>
     <row r="40" spans="2:9">
-      <c r="G40" s="102" t="s">
+      <c r="G40" s="103" t="s">
         <v>459</v>
       </c>
-      <c r="H40" s="103"/>
-      <c r="I40" s="103"/>
+      <c r="H40" s="104"/>
+      <c r="I40" s="104"/>
     </row>
     <row r="41" spans="2:9">
       <c r="G41" s="8" t="s">
@@ -9944,11 +9944,11 @@
       </c>
     </row>
     <row r="49" spans="2:6">
-      <c r="B49" s="102" t="s">
+      <c r="B49" s="103" t="s">
         <v>478</v>
       </c>
-      <c r="C49" s="103"/>
-      <c r="D49" s="103"/>
+      <c r="C49" s="104"/>
+      <c r="D49" s="104"/>
     </row>
     <row r="50" spans="2:6">
       <c r="B50" s="8" t="s">
@@ -10003,11 +10003,11 @@
       </c>
     </row>
     <row r="59" spans="2:6">
-      <c r="B59" s="102" t="s">
+      <c r="B59" s="103" t="s">
         <v>483</v>
       </c>
-      <c r="C59" s="103"/>
-      <c r="D59" s="103"/>
+      <c r="C59" s="104"/>
+      <c r="D59" s="104"/>
     </row>
     <row r="60" spans="2:6">
       <c r="B60" s="8" t="s">

--- a/doc/最新接口_拟定.xlsx
+++ b/doc/最新接口_拟定.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="首标签" sheetId="1" r:id="rId1"/>
@@ -1107,7 +1107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="501">
   <si>
     <t>int</t>
   </si>
@@ -3083,6 +3083,65 @@
   </si>
   <si>
     <t>dev</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,2</t>
+  </si>
+  <si>
+    <t>11,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3691,7 +3750,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3861,14 +3920,11 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3888,12 +3944,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3903,16 +3953,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3924,17 +3986,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4253,32 +4313,32 @@
   <sheetData>
     <row r="3" spans="2:16" ht="14.25" thickBot="1"/>
     <row r="4" spans="2:16">
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="99" t="s">
         <v>233</v>
       </c>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="102"/>
-      <c r="I4" s="100" t="s">
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="101"/>
+      <c r="I4" s="99" t="s">
         <v>235</v>
       </c>
-      <c r="J4" s="101"/>
-      <c r="K4" s="101"/>
-      <c r="L4" s="102"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="101"/>
     </row>
     <row r="5" spans="2:16">
-      <c r="B5" s="103" t="s">
+      <c r="B5" s="102" t="s">
         <v>234</v>
       </c>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="105"/>
-      <c r="I5" s="103" t="s">
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="104"/>
+      <c r="I5" s="102" t="s">
         <v>236</v>
       </c>
-      <c r="J5" s="104"/>
-      <c r="K5" s="104"/>
-      <c r="L5" s="105"/>
+      <c r="J5" s="103"/>
+      <c r="K5" s="103"/>
+      <c r="L5" s="104"/>
     </row>
     <row r="6" spans="2:16">
       <c r="B6" s="8"/>
@@ -4342,21 +4402,21 @@
     </row>
     <row r="11" spans="2:16" ht="14.25" customHeight="1"/>
     <row r="14" spans="2:16" ht="14.25" thickBot="1">
-      <c r="I14" s="97" t="s">
+      <c r="I14" s="108" t="s">
         <v>54</v>
       </c>
-      <c r="J14" s="98"/>
-      <c r="K14" s="98"/>
-      <c r="L14" s="98"/>
-      <c r="M14" s="99"/>
+      <c r="J14" s="109"/>
+      <c r="K14" s="109"/>
+      <c r="L14" s="109"/>
+      <c r="M14" s="110"/>
     </row>
     <row r="15" spans="2:16">
-      <c r="B15" s="100" t="s">
+      <c r="B15" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="101"/>
-      <c r="D15" s="101"/>
-      <c r="E15" s="102"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="101"/>
       <c r="I15" s="21" t="s">
         <v>34</v>
       </c>
@@ -4371,18 +4431,18 @@
         <v>34</v>
       </c>
       <c r="N15" s="3"/>
-      <c r="O15" s="106" t="s">
+      <c r="O15" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="P15" s="107"/>
+      <c r="P15" s="98"/>
     </row>
     <row r="16" spans="2:16">
-      <c r="B16" s="103" t="s">
+      <c r="B16" s="102" t="s">
         <v>234</v>
       </c>
-      <c r="C16" s="104"/>
-      <c r="D16" s="104"/>
-      <c r="E16" s="105"/>
+      <c r="C16" s="103"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="104"/>
       <c r="I16" s="33"/>
       <c r="J16" s="30"/>
       <c r="K16" s="31">
@@ -4880,12 +4940,12 @@
       <c r="P37" s="23"/>
     </row>
     <row r="38" spans="2:16">
-      <c r="B38" s="108" t="s">
+      <c r="B38" s="105" t="s">
         <v>263</v>
       </c>
-      <c r="C38" s="109"/>
-      <c r="D38" s="109"/>
-      <c r="E38" s="110"/>
+      <c r="C38" s="106"/>
+      <c r="D38" s="106"/>
+      <c r="E38" s="107"/>
       <c r="I38" s="33" t="s">
         <v>117</v>
       </c>
@@ -4967,18 +5027,18 @@
     <row r="42" spans="2:16" ht="22.5" customHeight="1"/>
     <row r="43" spans="2:16" ht="31.5" customHeight="1"/>
     <row r="44" spans="2:16">
-      <c r="H44" s="106" t="s">
+      <c r="H44" s="97" t="s">
         <v>248</v>
       </c>
-      <c r="I44" s="107"/>
-      <c r="J44" s="106" t="s">
+      <c r="I44" s="98"/>
+      <c r="J44" s="97" t="s">
         <v>116</v>
       </c>
-      <c r="K44" s="107"/>
-      <c r="L44" s="106" t="s">
+      <c r="K44" s="98"/>
+      <c r="L44" s="97" t="s">
         <v>77</v>
       </c>
-      <c r="M44" s="107"/>
+      <c r="M44" s="98"/>
     </row>
     <row r="45" spans="2:16">
       <c r="H45" s="22">
@@ -5094,6 +5154,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="I14:M14"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="I5:L5"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="J44:K44"/>
     <mergeCell ref="L44:M44"/>
@@ -5101,11 +5166,6 @@
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="H44:I44"/>
     <mergeCell ref="B38:E38"/>
-    <mergeCell ref="I14:M14"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="I5:L5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5299,11 +5359,11 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="4"/>
-      <c r="B10" s="115" t="s">
+      <c r="B10" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="116"/>
-      <c r="D10" s="117"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="118"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -5312,11 +5372,11 @@
       <c r="J10" s="4"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="115" t="s">
+      <c r="M10" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="N10" s="116"/>
-      <c r="O10" s="117"/>
+      <c r="N10" s="117"/>
+      <c r="O10" s="118"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -5326,11 +5386,11 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="4"/>
-      <c r="B11" s="118" t="s">
+      <c r="B11" s="113" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="119"/>
-      <c r="D11" s="120"/>
+      <c r="C11" s="114"/>
+      <c r="D11" s="115"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -5339,11 +5399,11 @@
       <c r="J11" s="4"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="118" t="s">
+      <c r="M11" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="N11" s="119"/>
-      <c r="O11" s="120"/>
+      <c r="N11" s="114"/>
+      <c r="O11" s="115"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -5464,11 +5524,11 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="4"/>
-      <c r="B17" s="115" t="s">
+      <c r="B17" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="116"/>
-      <c r="D17" s="117"/>
+      <c r="C17" s="117"/>
+      <c r="D17" s="118"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -5477,11 +5537,11 @@
       <c r="J17" s="4"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="115" t="s">
+      <c r="M17" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="N17" s="116"/>
-      <c r="O17" s="117"/>
+      <c r="N17" s="117"/>
+      <c r="O17" s="118"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -5490,11 +5550,11 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="4"/>
-      <c r="B18" s="118" t="s">
+      <c r="B18" s="113" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="119"/>
-      <c r="D18" s="120"/>
+      <c r="C18" s="114"/>
+      <c r="D18" s="115"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -5503,11 +5563,11 @@
       <c r="J18" s="4"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="118" t="s">
+      <c r="M18" s="113" t="s">
         <v>129</v>
       </c>
-      <c r="N18" s="119"/>
-      <c r="O18" s="120"/>
+      <c r="N18" s="114"/>
+      <c r="O18" s="115"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -5547,9 +5607,9 @@
     </row>
     <row r="20" spans="1:21" ht="41.25" thickBot="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="115"/>
-      <c r="C20" s="116"/>
-      <c r="D20" s="117"/>
+      <c r="B20" s="116"/>
+      <c r="C20" s="117"/>
+      <c r="D20" s="118"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -5578,11 +5638,11 @@
     </row>
     <row r="21" spans="1:21" ht="14.25" thickBot="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="118" t="s">
+      <c r="B21" s="113" t="s">
         <v>129</v>
       </c>
-      <c r="C21" s="119"/>
-      <c r="D21" s="120"/>
+      <c r="C21" s="114"/>
+      <c r="D21" s="115"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -5649,11 +5709,11 @@
       <c r="J23" s="4"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="115" t="s">
+      <c r="M23" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="N23" s="116"/>
-      <c r="O23" s="117"/>
+      <c r="N23" s="117"/>
+      <c r="O23" s="118"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
@@ -5674,11 +5734,11 @@
       <c r="J24" s="4"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-      <c r="M24" s="118" t="s">
+      <c r="M24" s="113" t="s">
         <v>69</v>
       </c>
-      <c r="N24" s="119"/>
-      <c r="O24" s="120"/>
+      <c r="N24" s="114"/>
+      <c r="O24" s="115"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
@@ -5811,11 +5871,11 @@
       <c r="J29" s="4"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
-      <c r="M29" s="115" t="s">
+      <c r="M29" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="N29" s="116"/>
-      <c r="O29" s="117"/>
+      <c r="N29" s="117"/>
+      <c r="O29" s="118"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
@@ -5836,11 +5896,11 @@
       <c r="J30" s="4"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="118" t="s">
+      <c r="M30" s="113" t="s">
         <v>69</v>
       </c>
-      <c r="N30" s="119"/>
-      <c r="O30" s="120"/>
+      <c r="N30" s="114"/>
+      <c r="O30" s="115"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
@@ -5996,11 +6056,11 @@
       <c r="J36" s="4"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
-      <c r="M36" s="115" t="s">
+      <c r="M36" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="N36" s="116"/>
-      <c r="O36" s="117"/>
+      <c r="N36" s="117"/>
+      <c r="O36" s="118"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
@@ -6021,11 +6081,11 @@
       <c r="J37" s="4"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
-      <c r="M37" s="118" t="s">
+      <c r="M37" s="113" t="s">
         <v>69</v>
       </c>
-      <c r="N37" s="119"/>
-      <c r="O37" s="120"/>
+      <c r="N37" s="114"/>
+      <c r="O37" s="115"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
@@ -6204,14 +6264,14 @@
       <c r="J44" s="4"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
-      <c r="M44" s="115" t="s">
+      <c r="M44" s="116" t="s">
         <v>16</v>
       </c>
-      <c r="N44" s="116"/>
-      <c r="O44" s="116"/>
-      <c r="P44" s="116"/>
-      <c r="Q44" s="116"/>
-      <c r="R44" s="117"/>
+      <c r="N44" s="117"/>
+      <c r="O44" s="117"/>
+      <c r="P44" s="117"/>
+      <c r="Q44" s="117"/>
+      <c r="R44" s="118"/>
       <c r="S44" s="2"/>
       <c r="T44" s="3"/>
       <c r="U44" s="3"/>
@@ -6229,14 +6289,14 @@
       <c r="J45" s="4"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
-      <c r="M45" s="118" t="s">
+      <c r="M45" s="113" t="s">
         <v>279</v>
       </c>
-      <c r="N45" s="119"/>
-      <c r="O45" s="119"/>
-      <c r="P45" s="119"/>
-      <c r="Q45" s="119"/>
-      <c r="R45" s="120"/>
+      <c r="N45" s="114"/>
+      <c r="O45" s="114"/>
+      <c r="P45" s="114"/>
+      <c r="Q45" s="114"/>
+      <c r="R45" s="115"/>
       <c r="S45" s="2"/>
       <c r="T45" s="3"/>
       <c r="U45" s="3"/>
@@ -6263,11 +6323,11 @@
       <c r="O46" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="P46" s="121" t="s">
+      <c r="P46" s="119" t="s">
         <v>130</v>
       </c>
-      <c r="Q46" s="121"/>
-      <c r="R46" s="122"/>
+      <c r="Q46" s="119"/>
+      <c r="R46" s="120"/>
       <c r="S46" s="2"/>
       <c r="T46" s="3"/>
       <c r="U46" s="3"/>
@@ -6294,22 +6354,22 @@
       <c r="O47" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="P47" s="121" t="s">
+      <c r="P47" s="119" t="s">
         <v>149</v>
       </c>
-      <c r="Q47" s="121"/>
-      <c r="R47" s="122"/>
+      <c r="Q47" s="119"/>
+      <c r="R47" s="120"/>
       <c r="S47" s="2"/>
       <c r="T47" s="3"/>
       <c r="U47" s="3"/>
     </row>
     <row r="48" spans="1:21">
       <c r="A48" s="1"/>
-      <c r="B48" s="115" t="s">
+      <c r="B48" s="116" t="s">
         <v>114</v>
       </c>
-      <c r="C48" s="116"/>
-      <c r="D48" s="117"/>
+      <c r="C48" s="117"/>
+      <c r="D48" s="118"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -6327,22 +6387,22 @@
       <c r="O48" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P48" s="121" t="s">
+      <c r="P48" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="Q48" s="121"/>
-      <c r="R48" s="122"/>
+      <c r="Q48" s="119"/>
+      <c r="R48" s="120"/>
       <c r="S48" s="2"/>
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
     </row>
     <row r="49" spans="1:21">
       <c r="A49" s="1"/>
-      <c r="B49" s="118" t="s">
+      <c r="B49" s="113" t="s">
         <v>112</v>
       </c>
-      <c r="C49" s="119"/>
-      <c r="D49" s="120"/>
+      <c r="C49" s="114"/>
+      <c r="D49" s="115"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -6399,11 +6459,11 @@
       <c r="O50" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P50" s="121" t="s">
+      <c r="P50" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="Q50" s="121"/>
-      <c r="R50" s="122"/>
+      <c r="Q50" s="119"/>
+      <c r="R50" s="120"/>
       <c r="S50" s="2"/>
       <c r="T50" s="3"/>
       <c r="U50" s="3"/>
@@ -6430,11 +6490,11 @@
       <c r="O51" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="P51" s="121" t="s">
+      <c r="P51" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="Q51" s="121"/>
-      <c r="R51" s="122"/>
+      <c r="Q51" s="119"/>
+      <c r="R51" s="120"/>
       <c r="S51" s="2"/>
       <c r="T51" s="3"/>
       <c r="U51" s="3"/>
@@ -6492,11 +6552,11 @@
       <c r="O53" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="P53" s="121" t="s">
+      <c r="P53" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="Q53" s="121"/>
-      <c r="R53" s="122"/>
+      <c r="Q53" s="119"/>
+      <c r="R53" s="120"/>
       <c r="S53" s="2"/>
       <c r="T53" s="3"/>
       <c r="U53" s="3"/>
@@ -6661,13 +6721,13 @@
       <c r="J59" s="4"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
-      <c r="M59" s="115" t="s">
+      <c r="M59" s="116" t="s">
         <v>136</v>
       </c>
-      <c r="N59" s="116"/>
-      <c r="O59" s="116"/>
-      <c r="P59" s="116"/>
-      <c r="Q59" s="117"/>
+      <c r="N59" s="117"/>
+      <c r="O59" s="117"/>
+      <c r="P59" s="117"/>
+      <c r="Q59" s="118"/>
       <c r="R59" s="1"/>
       <c r="S59" s="2"/>
       <c r="T59" s="3"/>
@@ -6695,10 +6755,10 @@
       <c r="O60" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="P60" s="113" t="s">
+      <c r="P60" s="111" t="s">
         <v>137</v>
       </c>
-      <c r="Q60" s="114"/>
+      <c r="Q60" s="112"/>
       <c r="R60" s="1"/>
       <c r="S60" s="2"/>
       <c r="T60" s="3"/>
@@ -6726,10 +6786,10 @@
       <c r="O61" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="P61" s="113" t="s">
+      <c r="P61" s="111" t="s">
         <v>140</v>
       </c>
-      <c r="Q61" s="114"/>
+      <c r="Q61" s="112"/>
       <c r="R61" s="1"/>
       <c r="S61" s="2"/>
       <c r="T61" s="3"/>
@@ -6757,10 +6817,10 @@
       <c r="O62" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="P62" s="113" t="s">
+      <c r="P62" s="111" t="s">
         <v>22</v>
       </c>
-      <c r="Q62" s="114"/>
+      <c r="Q62" s="112"/>
       <c r="R62" s="1"/>
       <c r="S62" s="2"/>
       <c r="T62" s="3"/>
@@ -6788,10 +6848,10 @@
       <c r="O63" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P63" s="111" t="s">
+      <c r="P63" s="121" t="s">
         <v>23</v>
       </c>
-      <c r="Q63" s="112"/>
+      <c r="Q63" s="122"/>
       <c r="R63" s="1"/>
       <c r="S63" s="2"/>
       <c r="T63" s="3"/>
@@ -6819,10 +6879,10 @@
       <c r="O64" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P64" s="113" t="s">
+      <c r="P64" s="111" t="s">
         <v>161</v>
       </c>
-      <c r="Q64" s="114"/>
+      <c r="Q64" s="112"/>
       <c r="R64" s="1"/>
       <c r="S64" s="2"/>
       <c r="T64" s="3"/>
@@ -6850,10 +6910,10 @@
       <c r="O65" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="P65" s="113" t="s">
+      <c r="P65" s="111" t="s">
         <v>60</v>
       </c>
-      <c r="Q65" s="114"/>
+      <c r="Q65" s="112"/>
       <c r="R65" s="1"/>
       <c r="S65" s="2"/>
       <c r="T65" s="3"/>
@@ -6881,10 +6941,10 @@
       <c r="O66" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P66" s="113" t="s">
+      <c r="P66" s="111" t="s">
         <v>218</v>
       </c>
-      <c r="Q66" s="114"/>
+      <c r="Q66" s="112"/>
       <c r="R66" s="1"/>
       <c r="S66" s="2"/>
       <c r="T66" s="3"/>
@@ -6912,10 +6972,10 @@
       <c r="O67" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P67" s="113" t="s">
+      <c r="P67" s="111" t="s">
         <v>217</v>
       </c>
-      <c r="Q67" s="114"/>
+      <c r="Q67" s="112"/>
       <c r="R67" s="1"/>
       <c r="S67" s="1"/>
       <c r="T67" s="3"/>
@@ -6957,13 +7017,13 @@
       <c r="J69" s="4"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
-      <c r="M69" s="115" t="s">
+      <c r="M69" s="116" t="s">
         <v>176</v>
       </c>
-      <c r="N69" s="116"/>
-      <c r="O69" s="116"/>
-      <c r="P69" s="116"/>
-      <c r="Q69" s="117"/>
+      <c r="N69" s="117"/>
+      <c r="O69" s="117"/>
+      <c r="P69" s="117"/>
+      <c r="Q69" s="118"/>
       <c r="R69" s="1"/>
       <c r="S69" s="1"/>
       <c r="T69" s="3"/>
@@ -6982,13 +7042,13 @@
       <c r="J70" s="4"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
-      <c r="M70" s="115" t="s">
+      <c r="M70" s="116" t="s">
         <v>177</v>
       </c>
-      <c r="N70" s="116"/>
-      <c r="O70" s="116"/>
-      <c r="P70" s="116"/>
-      <c r="Q70" s="117"/>
+      <c r="N70" s="117"/>
+      <c r="O70" s="117"/>
+      <c r="P70" s="117"/>
+      <c r="Q70" s="118"/>
       <c r="R70" s="1"/>
       <c r="S70" s="1"/>
       <c r="T70" s="3"/>
@@ -7016,10 +7076,10 @@
       <c r="O71" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="P71" s="111" t="s">
+      <c r="P71" s="121" t="s">
         <v>201</v>
       </c>
-      <c r="Q71" s="112"/>
+      <c r="Q71" s="122"/>
       <c r="R71" s="1"/>
       <c r="S71" s="1"/>
       <c r="T71" s="3"/>
@@ -7047,10 +7107,10 @@
       <c r="O72" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="P72" s="111" t="s">
+      <c r="P72" s="121" t="s">
         <v>193</v>
       </c>
-      <c r="Q72" s="112"/>
+      <c r="Q72" s="122"/>
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
       <c r="T72" s="3"/>
@@ -7078,10 +7138,10 @@
       <c r="O73" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="P73" s="111" t="s">
+      <c r="P73" s="121" t="s">
         <v>190</v>
       </c>
-      <c r="Q73" s="112"/>
+      <c r="Q73" s="122"/>
       <c r="R73" s="1"/>
       <c r="S73" s="1"/>
       <c r="T73" s="3"/>
@@ -7138,10 +7198,10 @@
       <c r="O75" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P75" s="113" t="s">
+      <c r="P75" s="111" t="s">
         <v>219</v>
       </c>
-      <c r="Q75" s="114"/>
+      <c r="Q75" s="112"/>
       <c r="R75" s="1"/>
       <c r="S75" s="1"/>
       <c r="T75" s="3"/>
@@ -7169,10 +7229,10 @@
       <c r="O76" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P76" s="113" t="s">
+      <c r="P76" s="111" t="s">
         <v>220</v>
       </c>
-      <c r="Q76" s="114"/>
+      <c r="Q76" s="112"/>
       <c r="R76" s="1"/>
       <c r="S76" s="1"/>
       <c r="T76" s="3"/>
@@ -7214,11 +7274,11 @@
       <c r="J78" s="4"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
-      <c r="M78" s="118" t="s">
+      <c r="M78" s="113" t="s">
         <v>191</v>
       </c>
-      <c r="N78" s="119"/>
-      <c r="O78" s="120"/>
+      <c r="N78" s="114"/>
+      <c r="O78" s="115"/>
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
       <c r="R78" s="1"/>
@@ -7320,11 +7380,11 @@
       <c r="J82" s="4"/>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
-      <c r="M82" s="118" t="s">
+      <c r="M82" s="113" t="s">
         <v>183</v>
       </c>
-      <c r="N82" s="119"/>
-      <c r="O82" s="120"/>
+      <c r="N82" s="114"/>
+      <c r="O82" s="115"/>
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
       <c r="R82" s="1"/>
@@ -7835,6 +7895,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="M69:Q69"/>
+    <mergeCell ref="M70:Q70"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="M45:R45"/>
+    <mergeCell ref="P46:R46"/>
+    <mergeCell ref="P47:R47"/>
+    <mergeCell ref="P48:R48"/>
+    <mergeCell ref="P50:R50"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="M44:R44"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
     <mergeCell ref="P76:Q76"/>
     <mergeCell ref="M78:O78"/>
     <mergeCell ref="M82:O82"/>
@@ -7851,34 +7939,6 @@
     <mergeCell ref="M11:O11"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="M29:O29"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="M44:R44"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="M45:R45"/>
-    <mergeCell ref="P46:R46"/>
-    <mergeCell ref="P47:R47"/>
-    <mergeCell ref="P48:R48"/>
-    <mergeCell ref="P50:R50"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="M69:Q69"/>
-    <mergeCell ref="M70:Q70"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="P67:Q67"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7890,8 +7950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:T116"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="A85" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K85" sqref="K85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7907,32 +7967,32 @@
   <sheetData>
     <row r="2" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="3" spans="1:10">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="99" t="s">
         <v>288</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="102"/>
-      <c r="F3" s="100" t="s">
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="101"/>
+      <c r="F3" s="99" t="s">
         <v>299</v>
       </c>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="102"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="101"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="103" t="s">
+      <c r="A4" s="102" t="s">
         <v>289</v>
       </c>
-      <c r="B4" s="104"/>
-      <c r="C4" s="104"/>
-      <c r="D4" s="105"/>
-      <c r="F4" s="103" t="s">
+      <c r="B4" s="103"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="104"/>
+      <c r="F4" s="102" t="s">
         <v>292</v>
       </c>
-      <c r="G4" s="104"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="105"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="104"/>
     </row>
     <row r="5" spans="1:10" ht="14.25" thickBot="1">
       <c r="A5" s="8" t="s">
@@ -7947,8 +8007,8 @@
       <c r="D5" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E5">
-        <v>1001</v>
+      <c r="E5" t="s">
+        <v>486</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>290</v>
@@ -7962,8 +8022,8 @@
       <c r="I5" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="J5">
-        <v>1001</v>
+      <c r="J5" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="14.25" thickBot="1">
@@ -8090,34 +8150,34 @@
     </row>
     <row r="15" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="16" spans="1:10">
-      <c r="A16" s="100" t="s">
+      <c r="A16" s="99" t="s">
         <v>286</v>
       </c>
-      <c r="B16" s="101"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="102"/>
-      <c r="F16" s="100" t="s">
+      <c r="B16" s="100"/>
+      <c r="C16" s="100"/>
+      <c r="D16" s="101"/>
+      <c r="F16" s="99" t="s">
         <v>286</v>
       </c>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="102"/>
+      <c r="G16" s="100"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="101"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="103" t="s">
+      <c r="A17" s="102" t="s">
         <v>287</v>
       </c>
-      <c r="B17" s="104"/>
-      <c r="C17" s="104"/>
-      <c r="D17" s="105"/>
-      <c r="F17" s="103" t="s">
+      <c r="B17" s="103"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="104"/>
+      <c r="F17" s="102" t="s">
         <v>389</v>
       </c>
-      <c r="G17" s="104"/>
-      <c r="H17" s="104"/>
-      <c r="I17" s="105"/>
-      <c r="J17">
-        <v>1002</v>
+      <c r="G17" s="103"/>
+      <c r="H17" s="103"/>
+      <c r="I17" s="104"/>
+      <c r="J17" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -8133,8 +8193,8 @@
       <c r="D18" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="E18">
-        <v>1002</v>
+      <c r="E18" t="s">
+        <v>487</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>132</v>
@@ -8165,20 +8225,20 @@
     </row>
     <row r="23" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="24" spans="1:10">
-      <c r="F24" s="100" t="s">
+      <c r="F24" s="99" t="s">
         <v>312</v>
       </c>
-      <c r="G24" s="101"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="102"/>
+      <c r="G24" s="100"/>
+      <c r="H24" s="100"/>
+      <c r="I24" s="101"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="F25" s="103" t="s">
+      <c r="F25" s="102" t="s">
         <v>313</v>
       </c>
-      <c r="G25" s="104"/>
-      <c r="H25" s="104"/>
-      <c r="I25" s="105"/>
+      <c r="G25" s="103"/>
+      <c r="H25" s="103"/>
+      <c r="I25" s="104"/>
     </row>
     <row r="26" spans="1:10">
       <c r="F26" s="8" t="s">
@@ -8199,33 +8259,33 @@
     </row>
     <row r="31" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="32" spans="1:10">
-      <c r="A32" s="100" t="s">
+      <c r="A32" s="99" t="s">
         <v>293</v>
       </c>
-      <c r="B32" s="101"/>
-      <c r="C32" s="101"/>
-      <c r="D32" s="102"/>
-      <c r="F32" s="100" t="s">
+      <c r="B32" s="100"/>
+      <c r="C32" s="100"/>
+      <c r="D32" s="101"/>
+      <c r="F32" s="99" t="s">
         <v>321</v>
       </c>
-      <c r="G32" s="101"/>
-      <c r="H32" s="101"/>
-      <c r="I32" s="102"/>
+      <c r="G32" s="100"/>
+      <c r="H32" s="100"/>
+      <c r="I32" s="101"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="103" t="s">
+      <c r="A33" s="102" t="s">
         <v>295</v>
       </c>
-      <c r="B33" s="104"/>
-      <c r="C33" s="104"/>
-      <c r="D33" s="105"/>
+      <c r="B33" s="103"/>
+      <c r="C33" s="103"/>
+      <c r="D33" s="104"/>
       <c r="E33" s="80"/>
-      <c r="F33" s="103" t="s">
+      <c r="F33" s="102" t="s">
         <v>322</v>
       </c>
-      <c r="G33" s="104"/>
-      <c r="H33" s="104"/>
-      <c r="I33" s="105"/>
+      <c r="G33" s="103"/>
+      <c r="H33" s="103"/>
+      <c r="I33" s="104"/>
     </row>
     <row r="34" spans="1:10" ht="14.25" thickBot="1">
       <c r="A34" s="8" t="s">
@@ -8336,37 +8396,37 @@
     </row>
     <row r="42" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="43" spans="1:10">
-      <c r="A43" s="100" t="s">
+      <c r="A43" s="99" t="s">
         <v>306</v>
       </c>
-      <c r="B43" s="101"/>
-      <c r="C43" s="101"/>
-      <c r="D43" s="102"/>
-      <c r="F43" s="100" t="s">
+      <c r="B43" s="100"/>
+      <c r="C43" s="100"/>
+      <c r="D43" s="101"/>
+      <c r="F43" s="99" t="s">
         <v>391</v>
       </c>
-      <c r="G43" s="101"/>
-      <c r="H43" s="101"/>
-      <c r="I43" s="102"/>
+      <c r="G43" s="100"/>
+      <c r="H43" s="100"/>
+      <c r="I43" s="101"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="103" t="s">
+      <c r="A44" s="102" t="s">
         <v>307</v>
       </c>
-      <c r="B44" s="104"/>
-      <c r="C44" s="104"/>
-      <c r="D44" s="105"/>
-      <c r="E44">
-        <v>1003</v>
-      </c>
-      <c r="F44" s="103" t="s">
+      <c r="B44" s="103"/>
+      <c r="C44" s="103"/>
+      <c r="D44" s="104"/>
+      <c r="E44" t="s">
+        <v>489</v>
+      </c>
+      <c r="F44" s="102" t="s">
         <v>390</v>
       </c>
-      <c r="G44" s="104"/>
-      <c r="H44" s="104"/>
-      <c r="I44" s="105"/>
-      <c r="J44">
-        <v>1003</v>
+      <c r="G44" s="103"/>
+      <c r="H44" s="103"/>
+      <c r="I44" s="104"/>
+      <c r="J44" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="14.25" thickBot="1">
@@ -8384,75 +8444,75 @@
       </c>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="100" t="s">
+      <c r="A46" s="99" t="s">
         <v>310</v>
       </c>
-      <c r="B46" s="101"/>
-      <c r="C46" s="101"/>
-      <c r="D46" s="102"/>
+      <c r="B46" s="100"/>
+      <c r="C46" s="100"/>
+      <c r="D46" s="101"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="103" t="s">
+      <c r="A47" s="102" t="s">
         <v>311</v>
       </c>
-      <c r="B47" s="104"/>
-      <c r="C47" s="104"/>
-      <c r="D47" s="105"/>
-      <c r="E47">
-        <v>1004</v>
+      <c r="B47" s="103"/>
+      <c r="C47" s="103"/>
+      <c r="D47" s="104"/>
+      <c r="E47" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="14.25" thickBot="1"/>
-    <row r="49" spans="1:9">
-      <c r="A49" s="115" t="s">
+    <row r="49" spans="1:10">
+      <c r="A49" s="116" t="s">
         <v>315</v>
       </c>
-      <c r="B49" s="116"/>
-      <c r="C49" s="116"/>
-      <c r="D49" s="117"/>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="118" t="s">
+      <c r="B49" s="117"/>
+      <c r="C49" s="117"/>
+      <c r="D49" s="118"/>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="113" t="s">
         <v>316</v>
       </c>
-      <c r="B50" s="119"/>
-      <c r="C50" s="119"/>
-      <c r="D50" s="120"/>
-      <c r="E50">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="12.75" customHeight="1"/>
-    <row r="52" spans="1:9" ht="13.5" customHeight="1" thickBot="1"/>
-    <row r="53" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A53" s="100" t="s">
+      <c r="B50" s="114"/>
+      <c r="C50" s="114"/>
+      <c r="D50" s="115"/>
+      <c r="E50" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="52" spans="1:10" ht="13.5" customHeight="1" thickBot="1"/>
+    <row r="53" spans="1:10" ht="13.5" customHeight="1">
+      <c r="A53" s="99" t="s">
         <v>392</v>
       </c>
-      <c r="B53" s="101"/>
-      <c r="C53" s="101"/>
-      <c r="D53" s="102"/>
-      <c r="F53" s="100" t="s">
+      <c r="B53" s="100"/>
+      <c r="C53" s="100"/>
+      <c r="D53" s="101"/>
+      <c r="F53" s="99" t="s">
         <v>392</v>
       </c>
-      <c r="G53" s="101"/>
-      <c r="H53" s="101"/>
-      <c r="I53" s="102"/>
-    </row>
-    <row r="54" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A54" s="103" t="s">
+      <c r="G53" s="100"/>
+      <c r="H53" s="100"/>
+      <c r="I53" s="101"/>
+    </row>
+    <row r="54" spans="1:10" ht="13.5" customHeight="1">
+      <c r="A54" s="102" t="s">
         <v>397</v>
       </c>
-      <c r="B54" s="104"/>
-      <c r="C54" s="104"/>
-      <c r="D54" s="105"/>
-      <c r="F54" s="103" t="s">
+      <c r="B54" s="103"/>
+      <c r="C54" s="103"/>
+      <c r="D54" s="104"/>
+      <c r="F54" s="102" t="s">
         <v>398</v>
       </c>
-      <c r="G54" s="104"/>
-      <c r="H54" s="104"/>
-      <c r="I54" s="105"/>
-    </row>
-    <row r="55" spans="1:9" ht="13.5" customHeight="1">
+      <c r="G54" s="103"/>
+      <c r="H54" s="103"/>
+      <c r="I54" s="104"/>
+    </row>
+    <row r="55" spans="1:10" ht="13.5" customHeight="1">
       <c r="A55" s="8" t="s">
         <v>394</v>
       </c>
@@ -8465,8 +8525,8 @@
       <c r="D55" s="86" t="s">
         <v>72</v>
       </c>
-      <c r="E55">
-        <v>1007</v>
+      <c r="E55" t="s">
+        <v>492</v>
       </c>
       <c r="F55" s="8" t="s">
         <v>394</v>
@@ -8481,7 +8541,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="13.5" customHeight="1" thickBot="1">
+    <row r="56" spans="1:10" ht="13.5" customHeight="1" thickBot="1">
       <c r="F56" s="8" t="s">
         <v>122</v>
       </c>
@@ -8494,43 +8554,46 @@
       <c r="I56" s="20" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" ht="13.5" customHeight="1"/>
-    <row r="58" spans="1:9" ht="13.5" customHeight="1"/>
-    <row r="59" spans="1:9" ht="13.5" customHeight="1"/>
-    <row r="60" spans="1:9" ht="13.5" customHeight="1"/>
-    <row r="61" spans="1:9" ht="13.5" customHeight="1"/>
-    <row r="62" spans="1:9" ht="12.75" customHeight="1"/>
-    <row r="63" spans="1:9" ht="12.75" customHeight="1"/>
-    <row r="64" spans="1:9" ht="12.75" customHeight="1"/>
+      <c r="J56" s="123" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="13.5" customHeight="1"/>
+    <row r="58" spans="1:10" ht="13.5" customHeight="1"/>
+    <row r="59" spans="1:10" ht="13.5" customHeight="1"/>
+    <row r="60" spans="1:10" ht="13.5" customHeight="1"/>
+    <row r="61" spans="1:10" ht="13.5" customHeight="1"/>
+    <row r="62" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="63" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="64" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="65" spans="1:10" ht="12.75" customHeight="1" thickBot="1"/>
     <row r="66" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A66" s="100" t="s">
+      <c r="A66" s="99" t="s">
         <v>377</v>
       </c>
-      <c r="B66" s="101"/>
-      <c r="C66" s="101"/>
-      <c r="D66" s="102"/>
-      <c r="F66" s="100" t="s">
+      <c r="B66" s="100"/>
+      <c r="C66" s="100"/>
+      <c r="D66" s="101"/>
+      <c r="F66" s="99" t="s">
         <v>359</v>
       </c>
-      <c r="G66" s="101"/>
-      <c r="H66" s="101"/>
-      <c r="I66" s="102"/>
+      <c r="G66" s="100"/>
+      <c r="H66" s="100"/>
+      <c r="I66" s="101"/>
     </row>
     <row r="67" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A67" s="103" t="s">
+      <c r="A67" s="102" t="s">
         <v>357</v>
       </c>
-      <c r="B67" s="104"/>
-      <c r="C67" s="104"/>
-      <c r="D67" s="105"/>
-      <c r="F67" s="118" t="s">
+      <c r="B67" s="103"/>
+      <c r="C67" s="103"/>
+      <c r="D67" s="104"/>
+      <c r="F67" s="113" t="s">
         <v>364</v>
       </c>
-      <c r="G67" s="119"/>
-      <c r="H67" s="119"/>
-      <c r="I67" s="120"/>
+      <c r="G67" s="114"/>
+      <c r="H67" s="114"/>
+      <c r="I67" s="115"/>
     </row>
     <row r="68" spans="1:10" ht="12.75" customHeight="1" thickBot="1">
       <c r="A68" s="8" t="s">
@@ -8545,8 +8608,8 @@
       <c r="D68" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E68">
-        <v>2002</v>
+      <c r="E68" t="s">
+        <v>495</v>
       </c>
       <c r="F68" s="8" t="s">
         <v>366</v>
@@ -8559,6 +8622,9 @@
       </c>
       <c r="I68" s="7" t="s">
         <v>319</v>
+      </c>
+      <c r="J68" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="14.25" thickBot="1">
@@ -8635,46 +8701,46 @@
     </row>
     <row r="77" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="78" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A78" s="115" t="s">
+      <c r="A78" s="116" t="s">
         <v>317</v>
       </c>
-      <c r="B78" s="116"/>
-      <c r="C78" s="116"/>
-      <c r="D78" s="117"/>
-      <c r="F78" s="100" t="s">
+      <c r="B78" s="117"/>
+      <c r="C78" s="117"/>
+      <c r="D78" s="118"/>
+      <c r="F78" s="99" t="s">
         <v>235</v>
       </c>
-      <c r="G78" s="101"/>
-      <c r="H78" s="101"/>
-      <c r="I78" s="102"/>
+      <c r="G78" s="100"/>
+      <c r="H78" s="100"/>
+      <c r="I78" s="101"/>
     </row>
     <row r="79" spans="1:10">
-      <c r="A79" s="100" t="s">
+      <c r="A79" s="99" t="s">
         <v>233</v>
       </c>
-      <c r="B79" s="101"/>
-      <c r="C79" s="101"/>
-      <c r="D79" s="102"/>
-      <c r="E79">
-        <v>2001</v>
-      </c>
-      <c r="F79" s="103" t="s">
+      <c r="B79" s="100"/>
+      <c r="C79" s="100"/>
+      <c r="D79" s="101"/>
+      <c r="E79" t="s">
+        <v>496</v>
+      </c>
+      <c r="F79" s="102" t="s">
         <v>236</v>
       </c>
-      <c r="G79" s="104"/>
-      <c r="H79" s="104"/>
-      <c r="I79" s="105"/>
-      <c r="J79">
-        <v>2001</v>
+      <c r="G79" s="103"/>
+      <c r="H79" s="103"/>
+      <c r="I79" s="104"/>
+      <c r="J79" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="80" spans="1:10">
-      <c r="A80" s="103" t="s">
+      <c r="A80" s="102" t="s">
         <v>234</v>
       </c>
-      <c r="B80" s="104"/>
-      <c r="C80" s="104"/>
-      <c r="D80" s="105"/>
+      <c r="B80" s="103"/>
+      <c r="C80" s="103"/>
+      <c r="D80" s="104"/>
       <c r="F80" s="8" t="s">
         <v>238</v>
       </c>
@@ -8736,43 +8802,43 @@
     </row>
     <row r="85" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="86" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A86" s="115" t="s">
+      <c r="A86" s="116" t="s">
         <v>400</v>
       </c>
-      <c r="B86" s="116"/>
-      <c r="C86" s="116"/>
-      <c r="D86" s="117"/>
-      <c r="F86" s="115" t="s">
+      <c r="B86" s="117"/>
+      <c r="C86" s="117"/>
+      <c r="D86" s="118"/>
+      <c r="F86" s="116" t="s">
         <v>400</v>
       </c>
-      <c r="G86" s="116"/>
-      <c r="H86" s="116"/>
-      <c r="I86" s="117"/>
+      <c r="G86" s="117"/>
+      <c r="H86" s="117"/>
+      <c r="I86" s="118"/>
     </row>
     <row r="87" spans="1:10">
-      <c r="A87" s="100" t="s">
+      <c r="A87" s="99" t="s">
         <v>233</v>
       </c>
-      <c r="B87" s="101"/>
-      <c r="C87" s="101"/>
-      <c r="D87" s="102"/>
-      <c r="E87">
-        <v>2003</v>
-      </c>
-      <c r="F87" s="103" t="s">
+      <c r="B87" s="100"/>
+      <c r="C87" s="100"/>
+      <c r="D87" s="101"/>
+      <c r="E87" t="s">
+        <v>498</v>
+      </c>
+      <c r="F87" s="102" t="s">
         <v>236</v>
       </c>
-      <c r="G87" s="104"/>
-      <c r="H87" s="104"/>
-      <c r="I87" s="105"/>
+      <c r="G87" s="103"/>
+      <c r="H87" s="103"/>
+      <c r="I87" s="104"/>
     </row>
     <row r="88" spans="1:10">
-      <c r="A88" s="103" t="s">
+      <c r="A88" s="102" t="s">
         <v>234</v>
       </c>
-      <c r="B88" s="104"/>
-      <c r="C88" s="104"/>
-      <c r="D88" s="105"/>
+      <c r="B88" s="103"/>
+      <c r="C88" s="103"/>
+      <c r="D88" s="104"/>
       <c r="F88" s="8" t="s">
         <v>238</v>
       </c>
@@ -8785,8 +8851,8 @@
       <c r="I88" s="90" t="s">
         <v>72</v>
       </c>
-      <c r="J88">
-        <v>2003</v>
+      <c r="J88" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -8844,10 +8910,10 @@
       </c>
     </row>
     <row r="96" spans="1:10">
-      <c r="A96" s="106" t="s">
+      <c r="A96" s="97" t="s">
         <v>250</v>
       </c>
-      <c r="B96" s="107"/>
+      <c r="B96" s="98"/>
       <c r="E96" s="21" t="s">
         <v>228</v>
       </c>
@@ -9200,6 +9266,31 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="F67:I67"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A79:D79"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="F78:I78"/>
+    <mergeCell ref="F79:I79"/>
+    <mergeCell ref="A87:D87"/>
+    <mergeCell ref="F87:I87"/>
+    <mergeCell ref="A88:D88"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="F33:I33"/>
     <mergeCell ref="A47:D47"/>
     <mergeCell ref="F44:I44"/>
     <mergeCell ref="F43:I43"/>
@@ -9216,31 +9307,6 @@
     <mergeCell ref="A66:D66"/>
     <mergeCell ref="A67:D67"/>
     <mergeCell ref="F66:I66"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F67:I67"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="A79:D79"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="F78:I78"/>
-    <mergeCell ref="F79:I79"/>
-    <mergeCell ref="A87:D87"/>
-    <mergeCell ref="F87:I87"/>
-    <mergeCell ref="A88:D88"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -9365,52 +9431,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B10:N15"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="10" spans="2:14" ht="14.25" thickBot="1"/>
     <row r="11" spans="2:14">
-      <c r="B11" s="100" t="s">
+      <c r="B11" s="99" t="s">
         <v>387</v>
       </c>
-      <c r="C11" s="101"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="102"/>
-      <c r="F11">
-        <v>1</v>
+      <c r="C11" s="100"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="101"/>
+      <c r="F11" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="14.25" thickBot="1"/>
     <row r="13" spans="2:14">
-      <c r="B13" s="100" t="s">
+      <c r="B13" s="99" t="s">
         <v>388</v>
       </c>
-      <c r="C13" s="101"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="102"/>
-      <c r="J13" s="100" t="s">
+      <c r="C13" s="100"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="101"/>
+      <c r="J13" s="99" t="s">
         <v>388</v>
       </c>
-      <c r="K13" s="101"/>
-      <c r="L13" s="101"/>
-      <c r="M13" s="102"/>
+      <c r="K13" s="100"/>
+      <c r="L13" s="100"/>
+      <c r="M13" s="101"/>
     </row>
     <row r="14" spans="2:14">
-      <c r="B14" s="103" t="s">
+      <c r="B14" s="102" t="s">
         <v>386</v>
       </c>
-      <c r="C14" s="104"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="105"/>
-      <c r="J14" s="103" t="s">
+      <c r="C14" s="103"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="104"/>
+      <c r="J14" s="102" t="s">
         <v>386</v>
       </c>
-      <c r="K14" s="104"/>
-      <c r="L14" s="104"/>
-      <c r="M14" s="105"/>
+      <c r="K14" s="103"/>
+      <c r="L14" s="103"/>
+      <c r="M14" s="104"/>
     </row>
     <row r="15" spans="2:14" ht="14.25" thickBot="1">
       <c r="B15" s="8" t="s">
@@ -9425,6 +9491,9 @@
       <c r="E15" s="7" t="s">
         <v>404</v>
       </c>
+      <c r="F15" s="94" t="s">
+        <v>500</v>
+      </c>
       <c r="J15" s="8" t="s">
         <v>290</v>
       </c>
@@ -9437,8 +9506,8 @@
       <c r="M15" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="N15">
-        <v>2</v>
+      <c r="N15" t="s">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -9488,16 +9557,16 @@
       </c>
     </row>
     <row r="3" spans="2:9">
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="102" t="s">
         <v>467</v>
       </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="G3" s="103" t="s">
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="G3" s="102" t="s">
         <v>440</v>
       </c>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="8" t="s">
@@ -9619,18 +9688,18 @@
       </c>
     </row>
     <row r="14" spans="2:9">
-      <c r="G14" s="103" t="s">
+      <c r="G14" s="102" t="s">
         <v>417</v>
       </c>
-      <c r="H14" s="104"/>
-      <c r="I14" s="104"/>
+      <c r="H14" s="103"/>
+      <c r="I14" s="103"/>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="103" t="s">
+      <c r="B15" s="102" t="s">
         <v>434</v>
       </c>
-      <c r="C15" s="104"/>
-      <c r="D15" s="104"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="103"/>
       <c r="G15" s="8" t="s">
         <v>423</v>
       </c>
@@ -9752,11 +9821,11 @@
       </c>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="103" t="s">
+      <c r="B25" s="102" t="s">
         <v>450</v>
       </c>
-      <c r="C25" s="104"/>
-      <c r="D25" s="104"/>
+      <c r="C25" s="103"/>
+      <c r="D25" s="103"/>
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="8" t="s">
@@ -9793,11 +9862,11 @@
       <c r="D28" s="92" t="s">
         <v>448</v>
       </c>
-      <c r="G28" s="103" t="s">
+      <c r="G28" s="102" t="s">
         <v>456</v>
       </c>
-      <c r="H28" s="104"/>
-      <c r="I28" s="104"/>
+      <c r="H28" s="103"/>
+      <c r="I28" s="103"/>
     </row>
     <row r="29" spans="2:9">
       <c r="B29" s="8"/>
@@ -9844,11 +9913,11 @@
       <c r="I32" s="92"/>
     </row>
     <row r="33" spans="2:9">
-      <c r="B33" s="103" t="s">
+      <c r="B33" s="102" t="s">
         <v>453</v>
       </c>
-      <c r="C33" s="104"/>
-      <c r="D33" s="104"/>
+      <c r="C33" s="103"/>
+      <c r="D33" s="103"/>
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="8" t="s">
@@ -9888,11 +9957,11 @@
       <c r="D37" s="92"/>
     </row>
     <row r="40" spans="2:9">
-      <c r="G40" s="103" t="s">
+      <c r="G40" s="102" t="s">
         <v>459</v>
       </c>
-      <c r="H40" s="104"/>
-      <c r="I40" s="104"/>
+      <c r="H40" s="103"/>
+      <c r="I40" s="103"/>
     </row>
     <row r="41" spans="2:9">
       <c r="G41" s="8" t="s">
@@ -9944,11 +10013,11 @@
       </c>
     </row>
     <row r="49" spans="2:6">
-      <c r="B49" s="103" t="s">
+      <c r="B49" s="102" t="s">
         <v>478</v>
       </c>
-      <c r="C49" s="104"/>
-      <c r="D49" s="104"/>
+      <c r="C49" s="103"/>
+      <c r="D49" s="103"/>
     </row>
     <row r="50" spans="2:6">
       <c r="B50" s="8" t="s">
@@ -10003,11 +10072,11 @@
       </c>
     </row>
     <row r="59" spans="2:6">
-      <c r="B59" s="103" t="s">
+      <c r="B59" s="102" t="s">
         <v>483</v>
       </c>
-      <c r="C59" s="104"/>
-      <c r="D59" s="104"/>
+      <c r="C59" s="103"/>
+      <c r="D59" s="103"/>
     </row>
     <row r="60" spans="2:6">
       <c r="B60" s="8" t="s">

--- a/doc/最新接口_拟定.xlsx
+++ b/doc/最新接口_拟定.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="首标签" sheetId="1" r:id="rId1"/>
@@ -977,7 +977,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G113" authorId="0">
+    <comment ref="G114" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1107,7 +1107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="505">
   <si>
     <t>int</t>
   </si>
@@ -1986,10 +1986,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>kvData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>放入KVData</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2640,17 +2636,6 @@
   </si>
   <si>
     <t>轮到谁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uid:uid
-dval:手牌数量
-dlist：手牌内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uid:uid
-dval:出牌时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2752,12 +2737,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>uid:uid（0:所有人的压跑情况，&gt;0某个人的压跑选择）
-dvlue:压跑内容
-KVData:玩家id-已压跑情况（未压跑的不显示）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>optional</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3142,6 +3121,42 @@
   </si>
   <si>
     <t>0,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NetResponse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kvData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uid:uid
+kvData:uid-手牌数量
+dlist：手牌内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>压跑状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uid:uid
+dvlue:压跑内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KVData:玩家id-已压跑情况（未压跑的不显示）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uid:uid
+dval:出牌时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3750,7 +3765,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3920,11 +3935,15 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3944,6 +3963,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3953,19 +3978,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3977,24 +4008,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4292,8 +4310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:P51"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4313,32 +4331,32 @@
   <sheetData>
     <row r="3" spans="2:16" ht="14.25" thickBot="1"/>
     <row r="4" spans="2:16">
-      <c r="B4" s="99" t="s">
+      <c r="B4" s="101" t="s">
+        <v>232</v>
+      </c>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="103"/>
+      <c r="I4" s="101" t="s">
+        <v>234</v>
+      </c>
+      <c r="J4" s="102"/>
+      <c r="K4" s="102"/>
+      <c r="L4" s="103"/>
+    </row>
+    <row r="5" spans="2:16">
+      <c r="B5" s="104" t="s">
         <v>233</v>
       </c>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="101"/>
-      <c r="I4" s="99" t="s">
-        <v>235</v>
-      </c>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="101"/>
-    </row>
-    <row r="5" spans="2:16">
-      <c r="B5" s="102" t="s">
-        <v>234</v>
-      </c>
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="104"/>
-      <c r="I5" s="102" t="s">
-        <v>236</v>
-      </c>
-      <c r="J5" s="103"/>
-      <c r="K5" s="103"/>
-      <c r="L5" s="104"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="106"/>
+      <c r="I5" s="104" t="s">
+        <v>497</v>
+      </c>
+      <c r="J5" s="105"/>
+      <c r="K5" s="105"/>
+      <c r="L5" s="106"/>
     </row>
     <row r="6" spans="2:16">
       <c r="B6" s="8"/>
@@ -4346,77 +4364,77 @@
       <c r="D6" s="15"/>
       <c r="E6" s="56"/>
       <c r="I6" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="J6" s="55" t="s">
         <v>238</v>
       </c>
-      <c r="J6" s="55" t="s">
+      <c r="K6" s="55" t="s">
         <v>239</v>
       </c>
-      <c r="K6" s="55" t="s">
+      <c r="L6" s="56" t="s">
         <v>240</v>
-      </c>
-      <c r="L6" s="56" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="7" spans="2:16">
       <c r="I7" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="J7" s="55" t="s">
         <v>242</v>
       </c>
-      <c r="J7" s="55" t="s">
+      <c r="K7" s="55" t="s">
         <v>243</v>
       </c>
-      <c r="K7" s="55" t="s">
-        <v>244</v>
-      </c>
       <c r="L7" s="56" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="2:16">
       <c r="I8" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="J8" s="55" t="s">
+        <v>238</v>
+      </c>
+      <c r="K8" s="55" t="s">
         <v>245</v>
       </c>
-      <c r="J8" s="55" t="s">
-        <v>239</v>
-      </c>
-      <c r="K8" s="55" t="s">
-        <v>246</v>
-      </c>
       <c r="L8" s="56" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="2:16">
       <c r="I9" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J9" s="55" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K9" s="55" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L9" s="56" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="2:16" ht="14.25" customHeight="1"/>
     <row r="14" spans="2:16" ht="14.25" thickBot="1">
-      <c r="I14" s="108" t="s">
+      <c r="I14" s="98" t="s">
         <v>54</v>
       </c>
-      <c r="J14" s="109"/>
-      <c r="K14" s="109"/>
-      <c r="L14" s="109"/>
-      <c r="M14" s="110"/>
+      <c r="J14" s="99"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="99"/>
+      <c r="M14" s="100"/>
     </row>
     <row r="15" spans="2:16">
-      <c r="B15" s="99" t="s">
+      <c r="B15" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="100"/>
-      <c r="D15" s="100"/>
-      <c r="E15" s="101"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="103"/>
       <c r="I15" s="21" t="s">
         <v>34</v>
       </c>
@@ -4431,18 +4449,18 @@
         <v>34</v>
       </c>
       <c r="N15" s="3"/>
-      <c r="O15" s="97" t="s">
+      <c r="O15" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="P15" s="98"/>
+      <c r="P15" s="108"/>
     </row>
     <row r="16" spans="2:16">
-      <c r="B16" s="102" t="s">
-        <v>234</v>
-      </c>
-      <c r="C16" s="103"/>
-      <c r="D16" s="103"/>
-      <c r="E16" s="104"/>
+      <c r="B16" s="104" t="s">
+        <v>233</v>
+      </c>
+      <c r="C16" s="105"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="106"/>
       <c r="I16" s="33"/>
       <c r="J16" s="30"/>
       <c r="K16" s="31">
@@ -4470,7 +4488,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="85" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>14</v>
@@ -4484,7 +4502,7 @@
         <v>60</v>
       </c>
       <c r="M17" s="33" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N17" s="3"/>
       <c r="O17" s="22">
@@ -4502,7 +4520,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="75" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E18" s="20" t="s">
         <v>13</v>
@@ -4552,7 +4570,7 @@
         <v>163</v>
       </c>
       <c r="M19" s="33" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N19" s="3"/>
       <c r="O19" s="22">
@@ -4564,7 +4582,7 @@
     </row>
     <row r="20" spans="2:16" ht="27.75" thickBot="1">
       <c r="B20" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>32</v>
@@ -4631,10 +4649,10 @@
     </row>
     <row r="22" spans="2:16" ht="27.75" thickBot="1">
       <c r="B22" s="5" t="s">
-        <v>223</v>
+        <v>499</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>34</v>
@@ -4940,12 +4958,12 @@
       <c r="P37" s="23"/>
     </row>
     <row r="38" spans="2:16">
-      <c r="B38" s="105" t="s">
-        <v>263</v>
-      </c>
-      <c r="C38" s="106"/>
-      <c r="D38" s="106"/>
-      <c r="E38" s="107"/>
+      <c r="B38" s="109" t="s">
+        <v>262</v>
+      </c>
+      <c r="C38" s="110"/>
+      <c r="D38" s="110"/>
+      <c r="E38" s="111"/>
       <c r="I38" s="33" t="s">
         <v>117</v>
       </c>
@@ -5027,18 +5045,18 @@
     <row r="42" spans="2:16" ht="22.5" customHeight="1"/>
     <row r="43" spans="2:16" ht="31.5" customHeight="1"/>
     <row r="44" spans="2:16">
-      <c r="H44" s="97" t="s">
-        <v>248</v>
-      </c>
-      <c r="I44" s="98"/>
-      <c r="J44" s="97" t="s">
+      <c r="H44" s="107" t="s">
+        <v>247</v>
+      </c>
+      <c r="I44" s="108"/>
+      <c r="J44" s="107" t="s">
         <v>116</v>
       </c>
-      <c r="K44" s="98"/>
-      <c r="L44" s="97" t="s">
+      <c r="K44" s="108"/>
+      <c r="L44" s="107" t="s">
         <v>77</v>
       </c>
-      <c r="M44" s="98"/>
+      <c r="M44" s="108"/>
     </row>
     <row r="45" spans="2:16">
       <c r="H45" s="22">
@@ -5065,7 +5083,7 @@
         <v>1</v>
       </c>
       <c r="I46" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J46" s="22">
         <v>1</v>
@@ -5085,7 +5103,7 @@
         <v>2</v>
       </c>
       <c r="I47" s="25" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J47" s="22">
         <v>2</v>
@@ -5154,11 +5172,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="I14:M14"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="I5:L5"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="J44:K44"/>
     <mergeCell ref="L44:M44"/>
@@ -5166,6 +5179,11 @@
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="H44:I44"/>
     <mergeCell ref="B38:E38"/>
+    <mergeCell ref="I14:M14"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="I5:L5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5386,11 +5404,11 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="4"/>
-      <c r="B11" s="113" t="s">
+      <c r="B11" s="119" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="114"/>
-      <c r="D11" s="115"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="121"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -5399,11 +5417,11 @@
       <c r="J11" s="4"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="113" t="s">
+      <c r="M11" s="119" t="s">
         <v>27</v>
       </c>
-      <c r="N11" s="114"/>
-      <c r="O11" s="115"/>
+      <c r="N11" s="120"/>
+      <c r="O11" s="121"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -5550,11 +5568,11 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="4"/>
-      <c r="B18" s="113" t="s">
+      <c r="B18" s="119" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="114"/>
-      <c r="D18" s="115"/>
+      <c r="C18" s="120"/>
+      <c r="D18" s="121"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -5563,11 +5581,11 @@
       <c r="J18" s="4"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="113" t="s">
+      <c r="M18" s="119" t="s">
         <v>129</v>
       </c>
-      <c r="N18" s="114"/>
-      <c r="O18" s="115"/>
+      <c r="N18" s="120"/>
+      <c r="O18" s="121"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -5588,7 +5606,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="N19" s="7" t="s">
         <v>128</v>
@@ -5638,11 +5656,11 @@
     </row>
     <row r="21" spans="1:21" ht="14.25" thickBot="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="113" t="s">
+      <c r="B21" s="119" t="s">
         <v>129</v>
       </c>
-      <c r="C21" s="114"/>
-      <c r="D21" s="115"/>
+      <c r="C21" s="120"/>
+      <c r="D21" s="121"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -5734,11 +5752,11 @@
       <c r="J24" s="4"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-      <c r="M24" s="113" t="s">
+      <c r="M24" s="119" t="s">
         <v>69</v>
       </c>
-      <c r="N24" s="114"/>
-      <c r="O24" s="115"/>
+      <c r="N24" s="120"/>
+      <c r="O24" s="121"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
@@ -5896,11 +5914,11 @@
       <c r="J30" s="4"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="113" t="s">
+      <c r="M30" s="119" t="s">
         <v>69</v>
       </c>
-      <c r="N30" s="114"/>
-      <c r="O30" s="115"/>
+      <c r="N30" s="120"/>
+      <c r="O30" s="121"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
@@ -6081,11 +6099,11 @@
       <c r="J37" s="4"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
-      <c r="M37" s="113" t="s">
+      <c r="M37" s="119" t="s">
         <v>69</v>
       </c>
-      <c r="N37" s="114"/>
-      <c r="O37" s="115"/>
+      <c r="N37" s="120"/>
+      <c r="O37" s="121"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
@@ -6289,14 +6307,14 @@
       <c r="J45" s="4"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
-      <c r="M45" s="113" t="s">
-        <v>279</v>
-      </c>
-      <c r="N45" s="114"/>
-      <c r="O45" s="114"/>
-      <c r="P45" s="114"/>
-      <c r="Q45" s="114"/>
-      <c r="R45" s="115"/>
+      <c r="M45" s="119" t="s">
+        <v>278</v>
+      </c>
+      <c r="N45" s="120"/>
+      <c r="O45" s="120"/>
+      <c r="P45" s="120"/>
+      <c r="Q45" s="120"/>
+      <c r="R45" s="121"/>
       <c r="S45" s="2"/>
       <c r="T45" s="3"/>
       <c r="U45" s="3"/>
@@ -6323,11 +6341,11 @@
       <c r="O46" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="P46" s="119" t="s">
+      <c r="P46" s="122" t="s">
         <v>130</v>
       </c>
-      <c r="Q46" s="119"/>
-      <c r="R46" s="120"/>
+      <c r="Q46" s="122"/>
+      <c r="R46" s="123"/>
       <c r="S46" s="2"/>
       <c r="T46" s="3"/>
       <c r="U46" s="3"/>
@@ -6354,11 +6372,11 @@
       <c r="O47" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="P47" s="119" t="s">
+      <c r="P47" s="122" t="s">
         <v>149</v>
       </c>
-      <c r="Q47" s="119"/>
-      <c r="R47" s="120"/>
+      <c r="Q47" s="122"/>
+      <c r="R47" s="123"/>
       <c r="S47" s="2"/>
       <c r="T47" s="3"/>
       <c r="U47" s="3"/>
@@ -6387,22 +6405,22 @@
       <c r="O48" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P48" s="119" t="s">
+      <c r="P48" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="Q48" s="119"/>
-      <c r="R48" s="120"/>
+      <c r="Q48" s="122"/>
+      <c r="R48" s="123"/>
       <c r="S48" s="2"/>
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
     </row>
     <row r="49" spans="1:21">
       <c r="A49" s="1"/>
-      <c r="B49" s="113" t="s">
+      <c r="B49" s="119" t="s">
         <v>112</v>
       </c>
-      <c r="C49" s="114"/>
-      <c r="D49" s="115"/>
+      <c r="C49" s="120"/>
+      <c r="D49" s="121"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -6459,11 +6477,11 @@
       <c r="O50" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P50" s="119" t="s">
+      <c r="P50" s="122" t="s">
         <v>18</v>
       </c>
-      <c r="Q50" s="119"/>
-      <c r="R50" s="120"/>
+      <c r="Q50" s="122"/>
+      <c r="R50" s="123"/>
       <c r="S50" s="2"/>
       <c r="T50" s="3"/>
       <c r="U50" s="3"/>
@@ -6490,11 +6508,11 @@
       <c r="O51" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="P51" s="119" t="s">
+      <c r="P51" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="Q51" s="119"/>
-      <c r="R51" s="120"/>
+      <c r="Q51" s="122"/>
+      <c r="R51" s="123"/>
       <c r="S51" s="2"/>
       <c r="T51" s="3"/>
       <c r="U51" s="3"/>
@@ -6552,11 +6570,11 @@
       <c r="O53" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="P53" s="119" t="s">
+      <c r="P53" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="Q53" s="119"/>
-      <c r="R53" s="120"/>
+      <c r="Q53" s="122"/>
+      <c r="R53" s="123"/>
       <c r="S53" s="2"/>
       <c r="T53" s="3"/>
       <c r="U53" s="3"/>
@@ -6755,10 +6773,10 @@
       <c r="O60" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="P60" s="111" t="s">
+      <c r="P60" s="114" t="s">
         <v>137</v>
       </c>
-      <c r="Q60" s="112"/>
+      <c r="Q60" s="115"/>
       <c r="R60" s="1"/>
       <c r="S60" s="2"/>
       <c r="T60" s="3"/>
@@ -6786,10 +6804,10 @@
       <c r="O61" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="P61" s="111" t="s">
+      <c r="P61" s="114" t="s">
         <v>140</v>
       </c>
-      <c r="Q61" s="112"/>
+      <c r="Q61" s="115"/>
       <c r="R61" s="1"/>
       <c r="S61" s="2"/>
       <c r="T61" s="3"/>
@@ -6817,10 +6835,10 @@
       <c r="O62" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="P62" s="111" t="s">
+      <c r="P62" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="Q62" s="112"/>
+      <c r="Q62" s="115"/>
       <c r="R62" s="1"/>
       <c r="S62" s="2"/>
       <c r="T62" s="3"/>
@@ -6848,10 +6866,10 @@
       <c r="O63" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P63" s="121" t="s">
+      <c r="P63" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="Q63" s="122"/>
+      <c r="Q63" s="113"/>
       <c r="R63" s="1"/>
       <c r="S63" s="2"/>
       <c r="T63" s="3"/>
@@ -6879,10 +6897,10 @@
       <c r="O64" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P64" s="111" t="s">
+      <c r="P64" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="Q64" s="112"/>
+      <c r="Q64" s="115"/>
       <c r="R64" s="1"/>
       <c r="S64" s="2"/>
       <c r="T64" s="3"/>
@@ -6910,10 +6928,10 @@
       <c r="O65" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="P65" s="111" t="s">
+      <c r="P65" s="114" t="s">
         <v>60</v>
       </c>
-      <c r="Q65" s="112"/>
+      <c r="Q65" s="115"/>
       <c r="R65" s="1"/>
       <c r="S65" s="2"/>
       <c r="T65" s="3"/>
@@ -6941,10 +6959,10 @@
       <c r="O66" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P66" s="111" t="s">
+      <c r="P66" s="114" t="s">
         <v>218</v>
       </c>
-      <c r="Q66" s="112"/>
+      <c r="Q66" s="115"/>
       <c r="R66" s="1"/>
       <c r="S66" s="2"/>
       <c r="T66" s="3"/>
@@ -6972,10 +6990,10 @@
       <c r="O67" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P67" s="111" t="s">
+      <c r="P67" s="114" t="s">
         <v>217</v>
       </c>
-      <c r="Q67" s="112"/>
+      <c r="Q67" s="115"/>
       <c r="R67" s="1"/>
       <c r="S67" s="1"/>
       <c r="T67" s="3"/>
@@ -7076,10 +7094,10 @@
       <c r="O71" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="P71" s="121" t="s">
+      <c r="P71" s="112" t="s">
         <v>201</v>
       </c>
-      <c r="Q71" s="122"/>
+      <c r="Q71" s="113"/>
       <c r="R71" s="1"/>
       <c r="S71" s="1"/>
       <c r="T71" s="3"/>
@@ -7107,10 +7125,10 @@
       <c r="O72" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="P72" s="121" t="s">
+      <c r="P72" s="112" t="s">
         <v>193</v>
       </c>
-      <c r="Q72" s="122"/>
+      <c r="Q72" s="113"/>
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
       <c r="T72" s="3"/>
@@ -7138,10 +7156,10 @@
       <c r="O73" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="P73" s="121" t="s">
+      <c r="P73" s="112" t="s">
         <v>190</v>
       </c>
-      <c r="Q73" s="122"/>
+      <c r="Q73" s="113"/>
       <c r="R73" s="1"/>
       <c r="S73" s="1"/>
       <c r="T73" s="3"/>
@@ -7198,10 +7216,10 @@
       <c r="O75" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P75" s="111" t="s">
+      <c r="P75" s="114" t="s">
         <v>219</v>
       </c>
-      <c r="Q75" s="112"/>
+      <c r="Q75" s="115"/>
       <c r="R75" s="1"/>
       <c r="S75" s="1"/>
       <c r="T75" s="3"/>
@@ -7229,10 +7247,10 @@
       <c r="O76" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P76" s="111" t="s">
+      <c r="P76" s="114" t="s">
         <v>220</v>
       </c>
-      <c r="Q76" s="112"/>
+      <c r="Q76" s="115"/>
       <c r="R76" s="1"/>
       <c r="S76" s="1"/>
       <c r="T76" s="3"/>
@@ -7274,11 +7292,11 @@
       <c r="J78" s="4"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
-      <c r="M78" s="113" t="s">
+      <c r="M78" s="119" t="s">
         <v>191</v>
       </c>
-      <c r="N78" s="114"/>
-      <c r="O78" s="115"/>
+      <c r="N78" s="120"/>
+      <c r="O78" s="121"/>
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
       <c r="R78" s="1"/>
@@ -7380,11 +7398,11 @@
       <c r="J82" s="4"/>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
-      <c r="M82" s="113" t="s">
+      <c r="M82" s="119" t="s">
         <v>183</v>
       </c>
-      <c r="N82" s="114"/>
-      <c r="O82" s="115"/>
+      <c r="N82" s="120"/>
+      <c r="O82" s="121"/>
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
       <c r="R82" s="1"/>
@@ -7895,6 +7913,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="M78:O78"/>
+    <mergeCell ref="M82:O82"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="M59:Q59"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P51:R51"/>
+    <mergeCell ref="P53:R53"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="M44:R44"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="M45:R45"/>
+    <mergeCell ref="P46:R46"/>
+    <mergeCell ref="P47:R47"/>
+    <mergeCell ref="P48:R48"/>
+    <mergeCell ref="P50:R50"/>
     <mergeCell ref="P63:Q63"/>
     <mergeCell ref="P66:Q66"/>
     <mergeCell ref="B48:D48"/>
@@ -7911,34 +7957,6 @@
     <mergeCell ref="P60:Q60"/>
     <mergeCell ref="P62:Q62"/>
     <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="M45:R45"/>
-    <mergeCell ref="P46:R46"/>
-    <mergeCell ref="P47:R47"/>
-    <mergeCell ref="P48:R48"/>
-    <mergeCell ref="P50:R50"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="M44:R44"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="M78:O78"/>
-    <mergeCell ref="M82:O82"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="M59:Q59"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P51:R51"/>
-    <mergeCell ref="P53:R53"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="M29:O29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7948,10 +7966,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:T116"/>
+  <dimension ref="A2:T117"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K85" sqref="K85"/>
+    <sheetView tabSelected="1" topLeftCell="F93" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G100" sqref="G100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7967,86 +7985,86 @@
   <sheetData>
     <row r="2" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="3" spans="1:10">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="101" t="s">
+        <v>287</v>
+      </c>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="103"/>
+      <c r="F3" s="101" t="s">
+        <v>298</v>
+      </c>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="103"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="104" t="s">
         <v>288</v>
       </c>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="101"/>
-      <c r="F3" s="99" t="s">
-        <v>299</v>
-      </c>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="101"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="102" t="s">
-        <v>289</v>
-      </c>
-      <c r="B4" s="103"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="104"/>
-      <c r="F4" s="102" t="s">
-        <v>292</v>
-      </c>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="104"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="106"/>
+      <c r="F4" s="104" t="s">
+        <v>291</v>
+      </c>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="106"/>
     </row>
     <row r="5" spans="1:10" ht="14.25" thickBot="1">
       <c r="A5" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B5" s="76" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="76" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G5" s="76" t="s">
         <v>0</v>
       </c>
       <c r="H5" s="76" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I5" s="20" t="s">
         <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="14.25" thickBot="1">
       <c r="A6" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B6" s="76" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="76" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G6" s="76" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="76" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I6" s="20" t="s">
         <v>13</v>
@@ -8054,39 +8072,39 @@
     </row>
     <row r="7" spans="1:10" ht="14.25" thickBot="1">
       <c r="A7" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="B7" s="76" t="s">
+        <v>319</v>
+      </c>
+      <c r="C7" s="83" t="s">
+        <v>337</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="B7" s="76" t="s">
-        <v>320</v>
-      </c>
-      <c r="C7" s="83" t="s">
-        <v>338</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>319</v>
-      </c>
       <c r="F7" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G7" s="76" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H7" s="76" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.25" thickBot="1">
       <c r="F8" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G8" s="76" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H8" s="83" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I8" s="20" t="s">
         <v>13</v>
@@ -8094,55 +8112,55 @@
     </row>
     <row r="9" spans="1:10" ht="14.25" thickBot="1">
       <c r="F9" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="G9" s="78" t="s">
+        <v>328</v>
+      </c>
+      <c r="H9" s="78" t="s">
         <v>331</v>
       </c>
-      <c r="G9" s="78" t="s">
+      <c r="I9" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="H9" s="78" t="s">
-        <v>332</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="14.25" thickBot="1">
       <c r="F10" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="G10" s="78" t="s">
+        <v>328</v>
+      </c>
+      <c r="H10" s="78" t="s">
         <v>334</v>
       </c>
-      <c r="G10" s="78" t="s">
+      <c r="I10" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="H10" s="78" t="s">
-        <v>335</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.25" thickBot="1">
       <c r="F11" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="G11" s="78" t="s">
         <v>328</v>
       </c>
-      <c r="G11" s="78" t="s">
+      <c r="H11" s="78" t="s">
+        <v>332</v>
+      </c>
+      <c r="I11" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="H11" s="78" t="s">
-        <v>333</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="14.25" thickBot="1">
       <c r="F12" s="8" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="G12" s="85" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H12" s="84" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I12" s="20" t="s">
         <v>13</v>
@@ -8150,60 +8168,60 @@
     </row>
     <row r="15" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="16" spans="1:10">
-      <c r="A16" s="99" t="s">
+      <c r="A16" s="101" t="s">
+        <v>285</v>
+      </c>
+      <c r="B16" s="102"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="103"/>
+      <c r="F16" s="101" t="s">
+        <v>285</v>
+      </c>
+      <c r="G16" s="102"/>
+      <c r="H16" s="102"/>
+      <c r="I16" s="103"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="104" t="s">
         <v>286</v>
       </c>
-      <c r="B16" s="100"/>
-      <c r="C16" s="100"/>
-      <c r="D16" s="101"/>
-      <c r="F16" s="99" t="s">
-        <v>286</v>
-      </c>
-      <c r="G16" s="100"/>
-      <c r="H16" s="100"/>
-      <c r="I16" s="101"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="102" t="s">
-        <v>287</v>
-      </c>
-      <c r="B17" s="103"/>
-      <c r="C17" s="103"/>
-      <c r="D17" s="104"/>
-      <c r="F17" s="102" t="s">
-        <v>389</v>
-      </c>
-      <c r="G17" s="103"/>
-      <c r="H17" s="103"/>
-      <c r="I17" s="104"/>
+      <c r="B17" s="105"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="106"/>
+      <c r="F17" s="104" t="s">
+        <v>386</v>
+      </c>
+      <c r="G17" s="105"/>
+      <c r="H17" s="105"/>
+      <c r="I17" s="106"/>
       <c r="J17" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B18" s="76" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="76" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D18" s="76" t="s">
         <v>72</v>
       </c>
       <c r="E18" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>132</v>
       </c>
       <c r="G18" s="76" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H18" s="76" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I18" s="77" t="s">
         <v>14</v>
@@ -8211,13 +8229,13 @@
     </row>
     <row r="19" spans="1:10" ht="14.25" thickBot="1">
       <c r="A19" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="B19" s="76" t="s">
+        <v>301</v>
+      </c>
+      <c r="C19" s="76" t="s">
         <v>303</v>
-      </c>
-      <c r="B19" s="76" t="s">
-        <v>302</v>
-      </c>
-      <c r="C19" s="76" t="s">
-        <v>304</v>
       </c>
       <c r="D19" s="20" t="s">
         <v>13</v>
@@ -8225,30 +8243,30 @@
     </row>
     <row r="23" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="24" spans="1:10">
-      <c r="F24" s="99" t="s">
+      <c r="F24" s="101" t="s">
+        <v>311</v>
+      </c>
+      <c r="G24" s="102"/>
+      <c r="H24" s="102"/>
+      <c r="I24" s="103"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="F25" s="104" t="s">
         <v>312</v>
       </c>
-      <c r="G24" s="100"/>
-      <c r="H24" s="100"/>
-      <c r="I24" s="101"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="F25" s="102" t="s">
-        <v>313</v>
-      </c>
-      <c r="G25" s="103"/>
-      <c r="H25" s="103"/>
-      <c r="I25" s="104"/>
+      <c r="G25" s="105"/>
+      <c r="H25" s="105"/>
+      <c r="I25" s="106"/>
     </row>
     <row r="26" spans="1:10">
       <c r="F26" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G26" s="76" t="s">
         <v>0</v>
       </c>
       <c r="H26" s="85" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I26" s="76" t="s">
         <v>72</v>
@@ -8259,33 +8277,33 @@
     </row>
     <row r="31" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="32" spans="1:10">
-      <c r="A32" s="99" t="s">
-        <v>293</v>
-      </c>
-      <c r="B32" s="100"/>
-      <c r="C32" s="100"/>
-      <c r="D32" s="101"/>
-      <c r="F32" s="99" t="s">
+      <c r="A32" s="101" t="s">
+        <v>292</v>
+      </c>
+      <c r="B32" s="102"/>
+      <c r="C32" s="102"/>
+      <c r="D32" s="103"/>
+      <c r="F32" s="101" t="s">
+        <v>320</v>
+      </c>
+      <c r="G32" s="102"/>
+      <c r="H32" s="102"/>
+      <c r="I32" s="103"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="104" t="s">
+        <v>294</v>
+      </c>
+      <c r="B33" s="105"/>
+      <c r="C33" s="105"/>
+      <c r="D33" s="106"/>
+      <c r="E33" s="80"/>
+      <c r="F33" s="104" t="s">
         <v>321</v>
       </c>
-      <c r="G32" s="100"/>
-      <c r="H32" s="100"/>
-      <c r="I32" s="101"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="102" t="s">
-        <v>295</v>
-      </c>
-      <c r="B33" s="103"/>
-      <c r="C33" s="103"/>
-      <c r="D33" s="104"/>
-      <c r="E33" s="80"/>
-      <c r="F33" s="102" t="s">
-        <v>322</v>
-      </c>
-      <c r="G33" s="103"/>
-      <c r="H33" s="103"/>
-      <c r="I33" s="104"/>
+      <c r="G33" s="105"/>
+      <c r="H33" s="105"/>
+      <c r="I33" s="106"/>
     </row>
     <row r="34" spans="1:10" ht="14.25" thickBot="1">
       <c r="A34" s="8" t="s">
@@ -8295,54 +8313,54 @@
         <v>0</v>
       </c>
       <c r="C34" s="85" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D34" s="76" t="s">
         <v>72</v>
       </c>
       <c r="E34" s="80"/>
       <c r="F34" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="G34" s="76" t="s">
         <v>323</v>
       </c>
-      <c r="G34" s="76" t="s">
-        <v>324</v>
-      </c>
       <c r="H34" s="76" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="14.25" thickBot="1">
       <c r="A35" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B35" s="85" t="s">
         <v>142</v>
       </c>
       <c r="C35" s="85" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D35" s="20" t="s">
         <v>13</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G35" s="85" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H35" s="76" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="14.25" thickBot="1">
       <c r="A36" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B36" s="76" t="s">
         <v>0</v>
@@ -8354,27 +8372,27 @@
         <v>13</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G36" s="85" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H36" s="76" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B37" s="76" t="s">
         <v>0</v>
       </c>
       <c r="C37" s="84" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D37" s="76" t="s">
         <v>72</v>
@@ -8382,13 +8400,13 @@
     </row>
     <row r="38" spans="1:10" ht="14.25" thickBot="1">
       <c r="A38" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B38" s="85" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C38" s="84" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D38" s="20" t="s">
         <v>13</v>
@@ -8396,37 +8414,37 @@
     </row>
     <row r="42" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="43" spans="1:10">
-      <c r="A43" s="99" t="s">
+      <c r="A43" s="101" t="s">
+        <v>305</v>
+      </c>
+      <c r="B43" s="102"/>
+      <c r="C43" s="102"/>
+      <c r="D43" s="103"/>
+      <c r="F43" s="101" t="s">
+        <v>388</v>
+      </c>
+      <c r="G43" s="102"/>
+      <c r="H43" s="102"/>
+      <c r="I43" s="103"/>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="104" t="s">
         <v>306</v>
       </c>
-      <c r="B43" s="100"/>
-      <c r="C43" s="100"/>
-      <c r="D43" s="101"/>
-      <c r="F43" s="99" t="s">
-        <v>391</v>
-      </c>
-      <c r="G43" s="100"/>
-      <c r="H43" s="100"/>
-      <c r="I43" s="101"/>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="102" t="s">
-        <v>307</v>
-      </c>
-      <c r="B44" s="103"/>
-      <c r="C44" s="103"/>
-      <c r="D44" s="104"/>
+      <c r="B44" s="105"/>
+      <c r="C44" s="105"/>
+      <c r="D44" s="106"/>
       <c r="E44" t="s">
-        <v>489</v>
-      </c>
-      <c r="F44" s="102" t="s">
-        <v>390</v>
-      </c>
-      <c r="G44" s="103"/>
-      <c r="H44" s="103"/>
-      <c r="I44" s="104"/>
+        <v>485</v>
+      </c>
+      <c r="F44" s="104" t="s">
+        <v>387</v>
+      </c>
+      <c r="G44" s="105"/>
+      <c r="H44" s="105"/>
+      <c r="I44" s="106"/>
       <c r="J44" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="14.25" thickBot="1">
@@ -8437,105 +8455,105 @@
         <v>0</v>
       </c>
       <c r="H45" s="87" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="I45" s="86" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="99" t="s">
+      <c r="A46" s="101" t="s">
+        <v>309</v>
+      </c>
+      <c r="B46" s="102"/>
+      <c r="C46" s="102"/>
+      <c r="D46" s="103"/>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="104" t="s">
         <v>310</v>
       </c>
-      <c r="B46" s="100"/>
-      <c r="C46" s="100"/>
-      <c r="D46" s="101"/>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="102" t="s">
-        <v>311</v>
-      </c>
-      <c r="B47" s="103"/>
-      <c r="C47" s="103"/>
-      <c r="D47" s="104"/>
+      <c r="B47" s="105"/>
+      <c r="C47" s="105"/>
+      <c r="D47" s="106"/>
       <c r="E47" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="49" spans="1:10">
       <c r="A49" s="116" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B49" s="117"/>
       <c r="C49" s="117"/>
       <c r="D49" s="118"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="113" t="s">
-        <v>316</v>
-      </c>
-      <c r="B50" s="114"/>
-      <c r="C50" s="114"/>
-      <c r="D50" s="115"/>
+      <c r="A50" s="119" t="s">
+        <v>315</v>
+      </c>
+      <c r="B50" s="120"/>
+      <c r="C50" s="120"/>
+      <c r="D50" s="121"/>
       <c r="E50" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="52" spans="1:10" ht="13.5" customHeight="1" thickBot="1"/>
     <row r="53" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A53" s="99" t="s">
-        <v>392</v>
-      </c>
-      <c r="B53" s="100"/>
-      <c r="C53" s="100"/>
-      <c r="D53" s="101"/>
-      <c r="F53" s="99" t="s">
-        <v>392</v>
-      </c>
-      <c r="G53" s="100"/>
-      <c r="H53" s="100"/>
-      <c r="I53" s="101"/>
+      <c r="A53" s="101" t="s">
+        <v>389</v>
+      </c>
+      <c r="B53" s="102"/>
+      <c r="C53" s="102"/>
+      <c r="D53" s="103"/>
+      <c r="F53" s="101" t="s">
+        <v>389</v>
+      </c>
+      <c r="G53" s="102"/>
+      <c r="H53" s="102"/>
+      <c r="I53" s="103"/>
     </row>
     <row r="54" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A54" s="102" t="s">
-        <v>397</v>
-      </c>
-      <c r="B54" s="103"/>
-      <c r="C54" s="103"/>
-      <c r="D54" s="104"/>
-      <c r="F54" s="102" t="s">
-        <v>398</v>
-      </c>
-      <c r="G54" s="103"/>
-      <c r="H54" s="103"/>
-      <c r="I54" s="104"/>
+      <c r="A54" s="104" t="s">
+        <v>394</v>
+      </c>
+      <c r="B54" s="105"/>
+      <c r="C54" s="105"/>
+      <c r="D54" s="106"/>
+      <c r="F54" s="104" t="s">
+        <v>395</v>
+      </c>
+      <c r="G54" s="105"/>
+      <c r="H54" s="105"/>
+      <c r="I54" s="106"/>
     </row>
     <row r="55" spans="1:10" ht="13.5" customHeight="1">
       <c r="A55" s="8" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B55" s="86" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C55" s="86" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D55" s="86" t="s">
         <v>72</v>
       </c>
       <c r="E55" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G55" s="87" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H55" s="87" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="I55" s="87" t="s">
         <v>72</v>
@@ -8549,13 +8567,13 @@
         <v>0</v>
       </c>
       <c r="H56" s="87" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="I56" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="J56" s="123" t="s">
-        <v>493</v>
+      <c r="J56" s="97" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="13.5" customHeight="1"/>
@@ -8568,86 +8586,86 @@
     <row r="64" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="65" spans="1:10" ht="12.75" customHeight="1" thickBot="1"/>
     <row r="66" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A66" s="99" t="s">
-        <v>377</v>
-      </c>
-      <c r="B66" s="100"/>
-      <c r="C66" s="100"/>
-      <c r="D66" s="101"/>
-      <c r="F66" s="99" t="s">
-        <v>359</v>
-      </c>
-      <c r="G66" s="100"/>
-      <c r="H66" s="100"/>
-      <c r="I66" s="101"/>
+      <c r="A66" s="101" t="s">
+        <v>376</v>
+      </c>
+      <c r="B66" s="102"/>
+      <c r="C66" s="102"/>
+      <c r="D66" s="103"/>
+      <c r="F66" s="101" t="s">
+        <v>358</v>
+      </c>
+      <c r="G66" s="102"/>
+      <c r="H66" s="102"/>
+      <c r="I66" s="103"/>
     </row>
     <row r="67" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A67" s="102" t="s">
-        <v>357</v>
-      </c>
-      <c r="B67" s="103"/>
-      <c r="C67" s="103"/>
-      <c r="D67" s="104"/>
-      <c r="F67" s="113" t="s">
-        <v>364</v>
-      </c>
-      <c r="G67" s="114"/>
-      <c r="H67" s="114"/>
-      <c r="I67" s="115"/>
+      <c r="A67" s="104" t="s">
+        <v>356</v>
+      </c>
+      <c r="B67" s="105"/>
+      <c r="C67" s="105"/>
+      <c r="D67" s="106"/>
+      <c r="F67" s="119" t="s">
+        <v>363</v>
+      </c>
+      <c r="G67" s="120"/>
+      <c r="H67" s="120"/>
+      <c r="I67" s="121"/>
     </row>
     <row r="68" spans="1:10" ht="12.75" customHeight="1" thickBot="1">
       <c r="A68" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B68" s="78" t="s">
         <v>32</v>
       </c>
       <c r="C68" s="79" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D68" s="20" t="s">
         <v>13</v>
       </c>
       <c r="E68" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G68" s="85" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H68" s="82" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J68" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="14.25" thickBot="1">
       <c r="A69" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B69" s="78" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C69" s="78" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D69" s="20" t="s">
         <v>13</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G69" s="78" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H69" s="85" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I69" s="20" t="s">
         <v>13</v>
@@ -8655,25 +8673,25 @@
     </row>
     <row r="70" spans="1:10" ht="14.25" thickBot="1">
       <c r="A70" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B70" s="78" t="s">
         <v>32</v>
       </c>
       <c r="C70" s="78" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D70" s="20" t="s">
         <v>13</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G70" s="78" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H70" s="78" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I70" s="20" t="s">
         <v>13</v>
@@ -8687,7 +8705,7 @@
         <v>32</v>
       </c>
       <c r="H71" s="78" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I71" s="20" t="s">
         <v>13</v>
@@ -8702,53 +8720,53 @@
     <row r="77" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="78" spans="1:10" ht="14.25" thickBot="1">
       <c r="A78" s="116" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B78" s="117"/>
       <c r="C78" s="117"/>
       <c r="D78" s="118"/>
-      <c r="F78" s="99" t="s">
+      <c r="F78" s="101" t="s">
+        <v>234</v>
+      </c>
+      <c r="G78" s="102"/>
+      <c r="H78" s="102"/>
+      <c r="I78" s="103"/>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" s="101" t="s">
+        <v>232</v>
+      </c>
+      <c r="B79" s="102"/>
+      <c r="C79" s="102"/>
+      <c r="D79" s="103"/>
+      <c r="E79" t="s">
+        <v>492</v>
+      </c>
+      <c r="F79" s="104" t="s">
         <v>235</v>
       </c>
-      <c r="G78" s="100"/>
-      <c r="H78" s="100"/>
-      <c r="I78" s="101"/>
-    </row>
-    <row r="79" spans="1:10">
-      <c r="A79" s="99" t="s">
+      <c r="G79" s="105"/>
+      <c r="H79" s="105"/>
+      <c r="I79" s="106"/>
+      <c r="J79" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" s="104" t="s">
         <v>233</v>
       </c>
-      <c r="B79" s="100"/>
-      <c r="C79" s="100"/>
-      <c r="D79" s="101"/>
-      <c r="E79" t="s">
-        <v>496</v>
-      </c>
-      <c r="F79" s="102" t="s">
-        <v>236</v>
-      </c>
-      <c r="G79" s="103"/>
-      <c r="H79" s="103"/>
-      <c r="I79" s="104"/>
-      <c r="J79" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10">
-      <c r="A80" s="102" t="s">
-        <v>234</v>
-      </c>
-      <c r="B80" s="103"/>
-      <c r="C80" s="103"/>
-      <c r="D80" s="104"/>
+      <c r="B80" s="105"/>
+      <c r="C80" s="105"/>
+      <c r="D80" s="106"/>
       <c r="F80" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G80" s="76" t="s">
         <v>32</v>
       </c>
       <c r="H80" s="76" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I80" s="77" t="s">
         <v>72</v>
@@ -8760,13 +8778,13 @@
       <c r="C81" s="15"/>
       <c r="D81" s="77"/>
       <c r="F81" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="G81" s="76" t="s">
         <v>242</v>
       </c>
-      <c r="G81" s="76" t="s">
+      <c r="H81" s="76" t="s">
         <v>243</v>
-      </c>
-      <c r="H81" s="76" t="s">
-        <v>244</v>
       </c>
       <c r="I81" s="77" t="s">
         <v>72</v>
@@ -8774,7 +8792,7 @@
     </row>
     <row r="82" spans="1:10">
       <c r="F82" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G82" s="76" t="s">
         <v>32</v>
@@ -8788,13 +8806,13 @@
     </row>
     <row r="83" spans="1:10">
       <c r="F83" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G83" s="76" t="s">
         <v>32</v>
       </c>
       <c r="H83" s="76" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I83" s="77" t="s">
         <v>72</v>
@@ -8803,50 +8821,50 @@
     <row r="85" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="86" spans="1:10" ht="14.25" thickBot="1">
       <c r="A86" s="116" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B86" s="117"/>
       <c r="C86" s="117"/>
       <c r="D86" s="118"/>
       <c r="F86" s="116" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G86" s="117"/>
       <c r="H86" s="117"/>
       <c r="I86" s="118"/>
     </row>
     <row r="87" spans="1:10">
-      <c r="A87" s="99" t="s">
+      <c r="A87" s="101" t="s">
+        <v>232</v>
+      </c>
+      <c r="B87" s="102"/>
+      <c r="C87" s="102"/>
+      <c r="D87" s="103"/>
+      <c r="E87" t="s">
+        <v>494</v>
+      </c>
+      <c r="F87" s="104" t="s">
+        <v>235</v>
+      </c>
+      <c r="G87" s="105"/>
+      <c r="H87" s="105"/>
+      <c r="I87" s="106"/>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88" s="104" t="s">
         <v>233</v>
       </c>
-      <c r="B87" s="100"/>
-      <c r="C87" s="100"/>
-      <c r="D87" s="101"/>
-      <c r="E87" t="s">
-        <v>498</v>
-      </c>
-      <c r="F87" s="102" t="s">
-        <v>236</v>
-      </c>
-      <c r="G87" s="103"/>
-      <c r="H87" s="103"/>
-      <c r="I87" s="104"/>
-    </row>
-    <row r="88" spans="1:10">
-      <c r="A88" s="102" t="s">
-        <v>234</v>
-      </c>
-      <c r="B88" s="103"/>
-      <c r="C88" s="103"/>
-      <c r="D88" s="104"/>
+      <c r="B88" s="105"/>
+      <c r="C88" s="105"/>
+      <c r="D88" s="106"/>
       <c r="F88" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G88" s="89" t="s">
         <v>32</v>
       </c>
       <c r="H88" s="89" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I88" s="90" t="s">
         <v>72</v>
@@ -8861,13 +8879,13 @@
       <c r="C89" s="15"/>
       <c r="D89" s="90"/>
       <c r="F89" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="G89" s="89" t="s">
         <v>242</v>
       </c>
-      <c r="G89" s="89" t="s">
+      <c r="H89" s="89" t="s">
         <v>243</v>
-      </c>
-      <c r="H89" s="89" t="s">
-        <v>244</v>
       </c>
       <c r="I89" s="90" t="s">
         <v>72</v>
@@ -8875,7 +8893,7 @@
     </row>
     <row r="90" spans="1:10">
       <c r="F90" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G90" s="89" t="s">
         <v>32</v>
@@ -8889,13 +8907,13 @@
     </row>
     <row r="91" spans="1:10">
       <c r="F91" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G91" s="89" t="s">
         <v>32</v>
       </c>
       <c r="H91" s="89" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I91" s="90" t="s">
         <v>72</v>
@@ -8903,28 +8921,28 @@
     </row>
     <row r="95" spans="1:10">
       <c r="E95" t="s">
+        <v>229</v>
+      </c>
+      <c r="F95" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96" s="107" t="s">
+        <v>249</v>
+      </c>
+      <c r="B96" s="108"/>
+      <c r="E96" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="F96" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="F95" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10">
-      <c r="A96" s="97" t="s">
-        <v>250</v>
-      </c>
-      <c r="B96" s="98"/>
-      <c r="E96" s="21" t="s">
+      <c r="G96" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="H96" s="21" t="s">
         <v>228</v>
-      </c>
-      <c r="F96" s="21" t="s">
-        <v>231</v>
-      </c>
-      <c r="G96" s="21" t="s">
-        <v>227</v>
-      </c>
-      <c r="H96" s="21" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="97" spans="1:20" ht="40.5">
@@ -8939,10 +8957,10 @@
         <v>5</v>
       </c>
       <c r="G97" s="32" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H97" s="33" t="s">
-        <v>379</v>
+        <v>500</v>
       </c>
       <c r="L97" s="65"/>
       <c r="M97" s="66"/>
@@ -8959,17 +8977,17 @@
         <v>1</v>
       </c>
       <c r="B98" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E98" s="57"/>
-      <c r="F98" s="58">
+      <c r="F98" s="124">
         <v>6</v>
       </c>
-      <c r="G98" s="32" t="s">
-        <v>378</v>
-      </c>
-      <c r="H98" s="33" t="s">
-        <v>380</v>
+      <c r="G98" s="37" t="s">
+        <v>377</v>
+      </c>
+      <c r="H98" s="38" t="s">
+        <v>504</v>
       </c>
       <c r="L98" s="65"/>
       <c r="M98" s="66"/>
@@ -8986,7 +9004,7 @@
         <v>2</v>
       </c>
       <c r="B99" s="25" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E99" s="57"/>
       <c r="F99" s="58"/>
@@ -9008,10 +9026,10 @@
         <v>201</v>
       </c>
       <c r="G100" s="32" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H100" s="33" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L100" s="65"/>
       <c r="M100" s="66"/>
@@ -9025,16 +9043,16 @@
     </row>
     <row r="101" spans="1:20" ht="27">
       <c r="E101" s="59" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F101" s="58">
         <v>202</v>
       </c>
       <c r="G101" s="32" t="s">
+        <v>251</v>
+      </c>
+      <c r="H101" s="57" t="s">
         <v>252</v>
-      </c>
-      <c r="H101" s="57" t="s">
-        <v>253</v>
       </c>
       <c r="L101" s="65"/>
       <c r="M101" s="66"/>
@@ -9050,16 +9068,16 @@
     </row>
     <row r="102" spans="1:20" ht="27">
       <c r="E102" s="59" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F102" s="58">
         <v>203</v>
       </c>
       <c r="G102" s="32" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H102" s="57" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L102" s="65"/>
       <c r="M102" s="66"/>
@@ -9079,10 +9097,10 @@
         <v>204</v>
       </c>
       <c r="G103" s="32" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H103" s="57" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L103" s="65"/>
       <c r="M103" s="66"/>
@@ -9094,167 +9112,182 @@
       <c r="S103" s="66"/>
       <c r="T103" s="67"/>
     </row>
-    <row r="104" spans="1:20" ht="40.5">
-      <c r="E104" s="59" t="s">
-        <v>402</v>
-      </c>
+    <row r="104" spans="1:20" ht="27">
+      <c r="E104" s="59"/>
       <c r="F104" s="58">
         <v>205</v>
       </c>
       <c r="G104" s="32" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="H104" s="57" t="s">
-        <v>403</v>
+        <v>502</v>
       </c>
       <c r="L104" s="65"/>
-      <c r="M104" s="74">
-        <v>3</v>
-      </c>
+      <c r="M104" s="66"/>
       <c r="N104" s="66"/>
-      <c r="O104" s="71"/>
-      <c r="P104" s="72">
-        <v>2</v>
-      </c>
-      <c r="Q104" s="72"/>
-      <c r="R104" s="73"/>
+      <c r="O104" s="66"/>
+      <c r="P104" s="66"/>
+      <c r="Q104" s="66"/>
+      <c r="R104" s="91"/>
       <c r="S104" s="66"/>
       <c r="T104" s="67"/>
     </row>
-    <row r="105" spans="1:20" ht="27">
-      <c r="E105" s="57"/>
+    <row r="105" spans="1:20">
+      <c r="E105" s="59" t="s">
+        <v>399</v>
+      </c>
       <c r="F105" s="58">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G105" s="32" t="s">
-        <v>258</v>
+        <v>501</v>
       </c>
       <c r="H105" s="57" t="s">
-        <v>260</v>
-      </c>
-      <c r="L105" s="68"/>
-      <c r="M105" s="69"/>
-      <c r="N105" s="69"/>
-      <c r="O105" s="69"/>
-      <c r="P105" s="69"/>
-      <c r="Q105" s="69"/>
-      <c r="R105" s="69"/>
-      <c r="S105" s="69"/>
-      <c r="T105" s="70"/>
-    </row>
-    <row r="106" spans="1:20">
+        <v>503</v>
+      </c>
+      <c r="L105" s="65"/>
+      <c r="M105" s="74">
+        <v>3</v>
+      </c>
+      <c r="N105" s="66"/>
+      <c r="O105" s="71"/>
+      <c r="P105" s="72">
+        <v>2</v>
+      </c>
+      <c r="Q105" s="72"/>
+      <c r="R105" s="73"/>
+      <c r="S105" s="66"/>
+      <c r="T105" s="67"/>
+    </row>
+    <row r="106" spans="1:20" ht="27">
       <c r="E106" s="57"/>
       <c r="F106" s="58">
+        <v>211</v>
+      </c>
+      <c r="G106" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="H106" s="57" t="s">
+        <v>259</v>
+      </c>
+      <c r="L106" s="68"/>
+      <c r="M106" s="69"/>
+      <c r="N106" s="69"/>
+      <c r="O106" s="69"/>
+      <c r="P106" s="69"/>
+      <c r="Q106" s="69"/>
+      <c r="R106" s="69"/>
+      <c r="S106" s="69"/>
+      <c r="T106" s="70"/>
+    </row>
+    <row r="107" spans="1:20">
+      <c r="E107" s="57"/>
+      <c r="F107" s="58">
         <v>212</v>
-      </c>
-      <c r="G106" s="32" t="s">
-        <v>269</v>
-      </c>
-      <c r="H106" s="57" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="107" spans="1:20" ht="27">
-      <c r="E107" s="59"/>
-      <c r="F107" s="58">
-        <v>213</v>
       </c>
       <c r="G107" s="32" t="s">
         <v>268</v>
       </c>
       <c r="H107" s="57" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
     </row>
     <row r="108" spans="1:20" ht="27">
       <c r="E108" s="59"/>
       <c r="F108" s="58">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G108" s="32" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H108" s="57" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="109" spans="1:20">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" ht="27">
       <c r="E109" s="59"/>
       <c r="F109" s="58">
+        <v>214</v>
+      </c>
+      <c r="G109" s="32" t="s">
+        <v>269</v>
+      </c>
+      <c r="H109" s="57" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20">
+      <c r="E110" s="59"/>
+      <c r="F110" s="58">
         <v>215</v>
       </c>
-      <c r="G109" s="57" t="s">
+      <c r="G110" s="57" t="s">
+        <v>270</v>
+      </c>
+      <c r="H110" s="57" t="s">
         <v>271</v>
       </c>
-      <c r="H109" s="57" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="110" spans="1:20" ht="27">
-      <c r="E110" s="59" t="s">
-        <v>282</v>
-      </c>
-      <c r="F110" s="58">
+    </row>
+    <row r="111" spans="1:20" ht="27">
+      <c r="E111" s="59" t="s">
+        <v>281</v>
+      </c>
+      <c r="F111" s="58">
         <v>220</v>
       </c>
-      <c r="G110" s="84" t="s">
-        <v>345</v>
-      </c>
-      <c r="H110" s="57" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="111" spans="1:20" ht="40.5">
-      <c r="E111" s="59" t="s">
-        <v>283</v>
-      </c>
-      <c r="F111" s="58">
-        <v>230</v>
-      </c>
       <c r="G111" s="84" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="H111" s="57" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="112" spans="1:20" ht="40.5">
       <c r="E112" s="59" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F112" s="58">
+        <v>230</v>
+      </c>
+      <c r="G112" s="84" t="s">
+        <v>349</v>
+      </c>
+      <c r="H112" s="57" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="113" spans="5:8" ht="40.5">
+      <c r="E113" s="59" t="s">
+        <v>279</v>
+      </c>
+      <c r="F113" s="58">
         <v>240</v>
       </c>
-      <c r="G112" s="84" t="s">
-        <v>351</v>
-      </c>
-      <c r="H112" s="57" t="s">
+      <c r="G113" s="84" t="s">
+        <v>350</v>
+      </c>
+      <c r="H113" s="57" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="114" spans="5:8" ht="40.5">
+      <c r="E114" s="59"/>
+      <c r="F114" s="58">
+        <v>250</v>
+      </c>
+      <c r="G114" s="84" t="s">
+        <v>348</v>
+      </c>
+      <c r="H114" s="57" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="113" spans="5:8" ht="40.5">
-      <c r="E113" s="59"/>
-      <c r="F113" s="58">
-        <v>250</v>
-      </c>
-      <c r="G113" s="84" t="s">
-        <v>349</v>
-      </c>
-      <c r="H113" s="57" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="114" spans="5:8">
-      <c r="E114" s="57"/>
-      <c r="F114" s="58">
-        <v>280</v>
-      </c>
-      <c r="G114" s="32"/>
-      <c r="H114" s="57"/>
     </row>
     <row r="115" spans="5:8">
       <c r="E115" s="57"/>
-      <c r="F115" s="58"/>
+      <c r="F115" s="58">
+        <v>280</v>
+      </c>
       <c r="G115" s="32"/>
       <c r="H115" s="57"/>
     </row>
@@ -9264,33 +9297,14 @@
       <c r="G116" s="32"/>
       <c r="H116" s="57"/>
     </row>
+    <row r="117" spans="5:8">
+      <c r="E117" s="57"/>
+      <c r="F117" s="58"/>
+      <c r="G117" s="32"/>
+      <c r="H117" s="57"/>
+    </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="F67:I67"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="A79:D79"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="F78:I78"/>
-    <mergeCell ref="F79:I79"/>
-    <mergeCell ref="A87:D87"/>
-    <mergeCell ref="F87:I87"/>
-    <mergeCell ref="A88:D88"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="F33:I33"/>
     <mergeCell ref="A47:D47"/>
     <mergeCell ref="F44:I44"/>
     <mergeCell ref="F43:I43"/>
@@ -9307,17 +9321,42 @@
     <mergeCell ref="A66:D66"/>
     <mergeCell ref="A67:D67"/>
     <mergeCell ref="F66:I66"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F67:I67"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A79:D79"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="F78:I78"/>
+    <mergeCell ref="F79:I79"/>
+    <mergeCell ref="A87:D87"/>
+    <mergeCell ref="F87:I87"/>
+    <mergeCell ref="A88:D88"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C7" location="参数说明!A1" display="选项附加值1"/>
     <hyperlink ref="H8" location="参数说明!A1" display="选项附加值1"/>
-    <hyperlink ref="G113" location="参数说明!A1" display="胡牌8"/>
+    <hyperlink ref="G114" location="参数说明!A1" display="胡牌8"/>
     <hyperlink ref="C37" location="参数说明!A1" display="状态位3"/>
     <hyperlink ref="C38" location="参数说明!A1" display="额外值4"/>
-    <hyperlink ref="G110" location="参数说明!A1" display="吃牌5"/>
-    <hyperlink ref="G111" location="参数说明!A1" display="杠6"/>
-    <hyperlink ref="G112" location="参数说明!A1" display="听牌7"/>
+    <hyperlink ref="G111" location="参数说明!A1" display="吃牌5"/>
+    <hyperlink ref="G112" location="参数说明!A1" display="杠6"/>
+    <hyperlink ref="G113" location="参数说明!A1" display="听牌7"/>
     <hyperlink ref="H12" location="参数说明!A1" display="游戏数据附加值2"/>
     <hyperlink ref="H68" location="参数说明!A1" display="得分详情10"/>
   </hyperlinks>
@@ -9343,82 +9382,82 @@
   <sheetData>
     <row r="1" spans="1:2" ht="40.5">
       <c r="A1" s="80" t="s">
+        <v>335</v>
+      </c>
+      <c r="B1" s="81" t="s">
         <v>336</v>
-      </c>
-      <c r="B1" s="81" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="81">
       <c r="A2" s="80" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B2" s="81" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="40.5">
       <c r="A3" s="80" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B3" s="81" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="94.5">
       <c r="A4" s="80" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B4" s="81" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="54">
       <c r="A5" s="80" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B5" s="81" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="67.5">
       <c r="A6" s="80" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B6" s="81" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="27">
       <c r="A7" s="80" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B7" s="81" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="67.5">
       <c r="A8" s="80" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B8" s="81" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="27">
       <c r="A9" s="80" t="s">
+        <v>361</v>
+      </c>
+      <c r="B9" s="81" t="s">
         <v>362</v>
-      </c>
-      <c r="B9" s="81" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="40.5">
       <c r="A10" s="80" t="s">
+        <v>373</v>
+      </c>
+      <c r="B10" s="81" t="s">
         <v>374</v>
-      </c>
-      <c r="B10" s="81" t="s">
-        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -9431,7 +9470,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B10:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
@@ -9439,44 +9478,44 @@
   <sheetData>
     <row r="10" spans="2:14" ht="14.25" thickBot="1"/>
     <row r="11" spans="2:14">
-      <c r="B11" s="99" t="s">
-        <v>387</v>
-      </c>
-      <c r="C11" s="100"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="101"/>
+      <c r="B11" s="101" t="s">
+        <v>384</v>
+      </c>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="103"/>
       <c r="F11" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="14.25" thickBot="1"/>
     <row r="13" spans="2:14">
-      <c r="B13" s="99" t="s">
-        <v>388</v>
-      </c>
-      <c r="C13" s="100"/>
-      <c r="D13" s="100"/>
-      <c r="E13" s="101"/>
-      <c r="J13" s="99" t="s">
-        <v>388</v>
-      </c>
-      <c r="K13" s="100"/>
-      <c r="L13" s="100"/>
-      <c r="M13" s="101"/>
+      <c r="B13" s="101" t="s">
+        <v>385</v>
+      </c>
+      <c r="C13" s="102"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="103"/>
+      <c r="J13" s="101" t="s">
+        <v>385</v>
+      </c>
+      <c r="K13" s="102"/>
+      <c r="L13" s="102"/>
+      <c r="M13" s="103"/>
     </row>
     <row r="14" spans="2:14">
-      <c r="B14" s="102" t="s">
-        <v>386</v>
-      </c>
-      <c r="C14" s="103"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="104"/>
-      <c r="J14" s="102" t="s">
-        <v>386</v>
-      </c>
-      <c r="K14" s="103"/>
-      <c r="L14" s="103"/>
-      <c r="M14" s="104"/>
+      <c r="B14" s="104" t="s">
+        <v>383</v>
+      </c>
+      <c r="C14" s="105"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="106"/>
+      <c r="J14" s="104" t="s">
+        <v>383</v>
+      </c>
+      <c r="K14" s="105"/>
+      <c r="L14" s="105"/>
+      <c r="M14" s="106"/>
     </row>
     <row r="15" spans="2:14" ht="14.25" thickBot="1">
       <c r="B15" s="8" t="s">
@@ -9489,25 +9528,25 @@
         <v>122</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="F15" s="94" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K15" s="85" t="s">
         <v>0</v>
       </c>
       <c r="L15" s="85" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M15" s="20" t="s">
         <v>13</v>
       </c>
       <c r="N15" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
   </sheetData>
@@ -9545,269 +9584,269 @@
   <sheetData>
     <row r="1" spans="2:9">
       <c r="C1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="H1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="2" spans="2:9">
       <c r="B2" s="96" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="3" spans="2:9">
-      <c r="B3" s="102" t="s">
-        <v>467</v>
-      </c>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="G3" s="102" t="s">
-        <v>440</v>
-      </c>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
+      <c r="B3" s="104" t="s">
+        <v>463</v>
+      </c>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="G3" s="104" t="s">
+        <v>436</v>
+      </c>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="8" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C4" s="92" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D4" s="92" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="H4" s="92" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I4" s="92" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="8" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C5" s="92" t="s">
         <v>172</v>
       </c>
       <c r="D5" s="92" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="E5" s="94" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="F5" s="94" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="H5" s="92" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I5" s="92" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C6" s="92" t="s">
         <v>32</v>
       </c>
       <c r="D6" s="92" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H6" s="92" t="s">
         <v>32</v>
       </c>
       <c r="I6" s="92" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="8" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C7" s="92" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="92" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="H7" s="92" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="I7" s="92" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="8" spans="2:9">
       <c r="G8" s="8" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="H8" s="92" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I8" s="92" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="9" spans="2:9">
       <c r="G9" s="8" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="H9" s="92" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I9" s="92" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="10" spans="2:9">
       <c r="G10" s="8" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H10" s="92" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="I10" s="92" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="14" spans="2:9">
-      <c r="G14" s="102" t="s">
-        <v>417</v>
-      </c>
-      <c r="H14" s="103"/>
-      <c r="I14" s="103"/>
+      <c r="G14" s="104" t="s">
+        <v>413</v>
+      </c>
+      <c r="H14" s="105"/>
+      <c r="I14" s="105"/>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="102" t="s">
-        <v>434</v>
-      </c>
-      <c r="C15" s="103"/>
-      <c r="D15" s="103"/>
+      <c r="B15" s="104" t="s">
+        <v>430</v>
+      </c>
+      <c r="C15" s="105"/>
+      <c r="D15" s="105"/>
       <c r="G15" s="8" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="H15" s="92" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="I15" s="92" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="16" spans="2:9">
       <c r="B16" s="8" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C16" s="92" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D16" s="92" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H16" s="92" t="s">
         <v>32</v>
       </c>
       <c r="I16" s="92" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="8" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C17" s="92" t="s">
         <v>32</v>
       </c>
       <c r="D17" s="92" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="H17" s="92" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I17" s="92" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="8" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C18" s="92" t="s">
         <v>32</v>
       </c>
       <c r="D18" s="92" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="H18" s="92" t="s">
         <v>32</v>
       </c>
       <c r="I18" s="92" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="19" spans="2:9">
       <c r="B19" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C19" s="92" t="s">
         <v>32</v>
       </c>
       <c r="D19" s="92" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="H19" s="92" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="I19" s="92" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="20" spans="2:9">
       <c r="B20" s="8" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C20" s="92" t="s">
         <v>32</v>
       </c>
       <c r="D20" s="92" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="H20" s="92" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="I20" s="92" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="21" spans="2:9">
@@ -9817,56 +9856,56 @@
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="96" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="102" t="s">
-        <v>450</v>
-      </c>
-      <c r="C25" s="103"/>
-      <c r="D25" s="103"/>
+      <c r="B25" s="104" t="s">
+        <v>446</v>
+      </c>
+      <c r="C25" s="105"/>
+      <c r="D25" s="105"/>
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="8" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C26" s="92" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D26" s="92" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="27" spans="2:9">
       <c r="B27" s="8" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C27" s="92" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D27" s="92" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E27" s="94" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="28" spans="2:9">
       <c r="B28" s="8" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C28" s="92" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="D28" s="92" t="s">
-        <v>448</v>
-      </c>
-      <c r="G28" s="102" t="s">
-        <v>456</v>
-      </c>
-      <c r="H28" s="103"/>
-      <c r="I28" s="103"/>
+        <v>444</v>
+      </c>
+      <c r="G28" s="104" t="s">
+        <v>452</v>
+      </c>
+      <c r="H28" s="105"/>
+      <c r="I28" s="105"/>
     </row>
     <row r="29" spans="2:9">
       <c r="B29" s="8"/>
@@ -9879,76 +9918,76 @@
         <v>32</v>
       </c>
       <c r="I29" s="92" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="30" spans="2:9">
       <c r="G30" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H30" s="92" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I30" s="92" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="31" spans="2:9">
       <c r="G31" s="8" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="H31" s="92" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I31" s="92" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="32" spans="2:9">
       <c r="B32" s="96" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="G32" s="8"/>
       <c r="H32" s="92"/>
       <c r="I32" s="92"/>
     </row>
     <row r="33" spans="2:9">
-      <c r="B33" s="102" t="s">
-        <v>453</v>
-      </c>
-      <c r="C33" s="103"/>
-      <c r="D33" s="103"/>
+      <c r="B33" s="104" t="s">
+        <v>449</v>
+      </c>
+      <c r="C33" s="105"/>
+      <c r="D33" s="105"/>
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="8" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C34" s="92" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D34" s="92"/>
     </row>
     <row r="35" spans="2:9">
       <c r="B35" s="8" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C35" s="92" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D35" s="92"/>
       <c r="E35" s="94" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="36" spans="2:9">
       <c r="B36" s="8" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C36" s="92" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="D36" s="92" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="37" spans="2:9">
@@ -9957,165 +9996,165 @@
       <c r="D37" s="92"/>
     </row>
     <row r="40" spans="2:9">
-      <c r="G40" s="102" t="s">
-        <v>459</v>
-      </c>
-      <c r="H40" s="103"/>
-      <c r="I40" s="103"/>
+      <c r="G40" s="104" t="s">
+        <v>455</v>
+      </c>
+      <c r="H40" s="105"/>
+      <c r="I40" s="105"/>
     </row>
     <row r="41" spans="2:9">
       <c r="G41" s="8" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="H41" s="92" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I41" s="95" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="42" spans="2:9">
       <c r="G42" s="8" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="H42" s="92" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I42" s="92" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="43" spans="2:9">
       <c r="G43" s="8" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="H43" s="92" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I43" s="92" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="44" spans="2:9">
       <c r="G44" s="8" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="H44" s="92" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I44" s="92" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="48" spans="2:9">
       <c r="B48" s="96" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="49" spans="2:6">
-      <c r="B49" s="102" t="s">
-        <v>478</v>
-      </c>
-      <c r="C49" s="103"/>
-      <c r="D49" s="103"/>
+      <c r="B49" s="104" t="s">
+        <v>474</v>
+      </c>
+      <c r="C49" s="105"/>
+      <c r="D49" s="105"/>
     </row>
     <row r="50" spans="2:6">
       <c r="B50" s="8" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C50" s="92" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D50" s="92"/>
       <c r="F50" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="51" spans="2:6">
       <c r="B51" s="8" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C51" s="92" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D51" s="92"/>
       <c r="E51" s="94" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="F51" s="94" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="52" spans="2:6">
       <c r="B52" s="8" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C52" s="92" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D52" s="93" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="53" spans="2:6">
       <c r="B53" s="8" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C53" s="92" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D53" s="92"/>
     </row>
     <row r="58" spans="2:6">
       <c r="B58" s="96" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="59" spans="2:6">
-      <c r="B59" s="102" t="s">
-        <v>483</v>
-      </c>
-      <c r="C59" s="103"/>
-      <c r="D59" s="103"/>
+      <c r="B59" s="104" t="s">
+        <v>479</v>
+      </c>
+      <c r="C59" s="105"/>
+      <c r="D59" s="105"/>
     </row>
     <row r="60" spans="2:6">
       <c r="B60" s="8" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C60" s="93" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D60" s="93"/>
     </row>
     <row r="61" spans="2:6">
       <c r="B61" s="8" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C61" s="93" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D61" s="93"/>
       <c r="E61" s="94" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="62" spans="2:6">
       <c r="B62" s="8" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C62" s="93" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="D62" s="93" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="63" spans="2:6">
       <c r="B63" s="8" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C63" s="93" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D63" s="93"/>
     </row>

--- a/doc/最新接口_拟定.xlsx
+++ b/doc/最新接口_拟定.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="首标签" sheetId="1" r:id="rId1"/>
@@ -2334,10 +2334,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RPEixtRoom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>gameId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2451,12 +2447,6 @@
   </si>
   <si>
     <t>选项附加值1：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:局数
-1:最大番数
-2:玩法位集合</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3157,6 +3147,16 @@
   <si>
     <t>uid:uid
 dval:出牌时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPEixtRoom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:局数
+1:最大番数
+2:玩法位集合</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3765,7 +3765,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4010,9 +4010,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4310,8 +4307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:P51"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G42" sqref="B37:G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4352,7 +4349,7 @@
       <c r="D5" s="105"/>
       <c r="E5" s="106"/>
       <c r="I5" s="104" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="J5" s="105"/>
       <c r="K5" s="105"/>
@@ -4649,7 +4646,7 @@
     </row>
     <row r="22" spans="2:16" ht="27.75" thickBot="1">
       <c r="B22" s="5" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>265</v>
@@ -7968,8 +7965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:T117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F93" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G100" sqref="G100"/>
+    <sheetView topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D19" sqref="A19:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8026,7 +8023,7 @@
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>289</v>
@@ -8041,30 +8038,30 @@
         <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="14.25" thickBot="1">
       <c r="A6" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B6" s="76" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="76" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G6" s="76" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="76" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I6" s="20" t="s">
         <v>13</v>
@@ -8072,16 +8069,16 @@
     </row>
     <row r="7" spans="1:10" ht="14.25" thickBot="1">
       <c r="A7" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="B7" s="76" t="s">
+        <v>318</v>
+      </c>
+      <c r="C7" s="83" t="s">
+        <v>335</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="B7" s="76" t="s">
-        <v>319</v>
-      </c>
-      <c r="C7" s="83" t="s">
-        <v>337</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>318</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>300</v>
@@ -8093,18 +8090,18 @@
         <v>263</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.25" thickBot="1">
       <c r="F8" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G8" s="76" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H8" s="83" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I8" s="20" t="s">
         <v>13</v>
@@ -8112,55 +8109,55 @@
     </row>
     <row r="9" spans="1:10" ht="14.25" thickBot="1">
       <c r="F9" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="G9" s="78" t="s">
+        <v>327</v>
+      </c>
+      <c r="H9" s="78" t="s">
         <v>330</v>
       </c>
-      <c r="G9" s="78" t="s">
+      <c r="I9" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="H9" s="78" t="s">
-        <v>331</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="14.25" thickBot="1">
       <c r="F10" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="G10" s="78" t="s">
+        <v>327</v>
+      </c>
+      <c r="H10" s="78" t="s">
         <v>333</v>
       </c>
-      <c r="G10" s="78" t="s">
+      <c r="I10" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="H10" s="78" t="s">
-        <v>334</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.25" thickBot="1">
       <c r="F11" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="G11" s="78" t="s">
         <v>327</v>
       </c>
-      <c r="G11" s="78" t="s">
+      <c r="H11" s="78" t="s">
+        <v>331</v>
+      </c>
+      <c r="I11" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="H11" s="78" t="s">
-        <v>332</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="14.25" thickBot="1">
       <c r="F12" s="8" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G12" s="85" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H12" s="84" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="I12" s="20" t="s">
         <v>13</v>
@@ -8189,13 +8186,13 @@
       <c r="C17" s="105"/>
       <c r="D17" s="106"/>
       <c r="F17" s="104" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G17" s="105"/>
       <c r="H17" s="105"/>
       <c r="I17" s="106"/>
       <c r="J17" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -8212,7 +8209,7 @@
         <v>72</v>
       </c>
       <c r="E18" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>132</v>
@@ -8244,7 +8241,7 @@
     <row r="23" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="24" spans="1:10">
       <c r="F24" s="101" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G24" s="102"/>
       <c r="H24" s="102"/>
@@ -8252,7 +8249,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="F25" s="104" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G25" s="105"/>
       <c r="H25" s="105"/>
@@ -8266,7 +8263,7 @@
         <v>0</v>
       </c>
       <c r="H26" s="85" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I26" s="76" t="s">
         <v>72</v>
@@ -8284,7 +8281,7 @@
       <c r="C32" s="102"/>
       <c r="D32" s="103"/>
       <c r="F32" s="101" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G32" s="102"/>
       <c r="H32" s="102"/>
@@ -8299,7 +8296,7 @@
       <c r="D33" s="106"/>
       <c r="E33" s="80"/>
       <c r="F33" s="104" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G33" s="105"/>
       <c r="H33" s="105"/>
@@ -8313,23 +8310,23 @@
         <v>0</v>
       </c>
       <c r="C34" s="85" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D34" s="76" t="s">
         <v>72</v>
       </c>
       <c r="E34" s="80"/>
       <c r="F34" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="G34" s="76" t="s">
         <v>322</v>
-      </c>
-      <c r="G34" s="76" t="s">
-        <v>323</v>
       </c>
       <c r="H34" s="76" t="s">
         <v>290</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="14.25" thickBot="1">
@@ -8346,7 +8343,7 @@
         <v>13</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G35" s="85" t="s">
         <v>304</v>
@@ -8355,7 +8352,7 @@
         <v>290</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="14.25" thickBot="1">
@@ -8372,16 +8369,16 @@
         <v>13</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G36" s="85" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H36" s="76" t="s">
         <v>290</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -8392,7 +8389,7 @@
         <v>0</v>
       </c>
       <c r="C37" s="84" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D37" s="76" t="s">
         <v>72</v>
@@ -8400,13 +8397,13 @@
     </row>
     <row r="38" spans="1:10" ht="14.25" thickBot="1">
       <c r="A38" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B38" s="85" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C38" s="84" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D38" s="20" t="s">
         <v>13</v>
@@ -8421,7 +8418,7 @@
       <c r="C43" s="102"/>
       <c r="D43" s="103"/>
       <c r="F43" s="101" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G43" s="102"/>
       <c r="H43" s="102"/>
@@ -8429,22 +8426,22 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="104" t="s">
-        <v>306</v>
+        <v>503</v>
       </c>
       <c r="B44" s="105"/>
       <c r="C44" s="105"/>
       <c r="D44" s="106"/>
       <c r="E44" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F44" s="104" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="G44" s="105"/>
       <c r="H44" s="105"/>
       <c r="I44" s="106"/>
       <c r="J44" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="14.25" thickBot="1">
@@ -8455,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="H45" s="87" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="I45" s="86" t="s">
         <v>72</v>
@@ -8463,7 +8460,7 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="101" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B46" s="102"/>
       <c r="C46" s="102"/>
@@ -8471,19 +8468,19 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="104" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B47" s="105"/>
       <c r="C47" s="105"/>
       <c r="D47" s="106"/>
       <c r="E47" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="49" spans="1:10">
       <c r="A49" s="116" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B49" s="117"/>
       <c r="C49" s="117"/>
@@ -8491,26 +8488,26 @@
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="119" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B50" s="120"/>
       <c r="C50" s="120"/>
       <c r="D50" s="121"/>
       <c r="E50" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="52" spans="1:10" ht="13.5" customHeight="1" thickBot="1"/>
     <row r="53" spans="1:10" ht="13.5" customHeight="1">
       <c r="A53" s="101" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B53" s="102"/>
       <c r="C53" s="102"/>
       <c r="D53" s="103"/>
       <c r="F53" s="101" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="G53" s="102"/>
       <c r="H53" s="102"/>
@@ -8518,13 +8515,13 @@
     </row>
     <row r="54" spans="1:10" ht="13.5" customHeight="1">
       <c r="A54" s="104" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B54" s="105"/>
       <c r="C54" s="105"/>
       <c r="D54" s="106"/>
       <c r="F54" s="104" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G54" s="105"/>
       <c r="H54" s="105"/>
@@ -8532,28 +8529,28 @@
     </row>
     <row r="55" spans="1:10" ht="13.5" customHeight="1">
       <c r="A55" s="8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B55" s="86" t="s">
+        <v>388</v>
+      </c>
+      <c r="C55" s="86" t="s">
         <v>390</v>
-      </c>
-      <c r="C55" s="86" t="s">
-        <v>392</v>
       </c>
       <c r="D55" s="86" t="s">
         <v>72</v>
       </c>
       <c r="E55" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G55" s="87" t="s">
+        <v>388</v>
+      </c>
+      <c r="H55" s="87" t="s">
         <v>390</v>
-      </c>
-      <c r="H55" s="87" t="s">
-        <v>392</v>
       </c>
       <c r="I55" s="87" t="s">
         <v>72</v>
@@ -8567,13 +8564,13 @@
         <v>0</v>
       </c>
       <c r="H56" s="87" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="I56" s="20" t="s">
         <v>13</v>
       </c>
       <c r="J56" s="97" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="13.5" customHeight="1"/>
@@ -8587,13 +8584,13 @@
     <row r="65" spans="1:10" ht="12.75" customHeight="1" thickBot="1"/>
     <row r="66" spans="1:10" ht="12.75" customHeight="1">
       <c r="A66" s="101" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B66" s="102"/>
       <c r="C66" s="102"/>
       <c r="D66" s="103"/>
       <c r="F66" s="101" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G66" s="102"/>
       <c r="H66" s="102"/>
@@ -8601,13 +8598,13 @@
     </row>
     <row r="67" spans="1:10" ht="12.75" customHeight="1">
       <c r="A67" s="104" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B67" s="105"/>
       <c r="C67" s="105"/>
       <c r="D67" s="106"/>
       <c r="F67" s="119" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G67" s="120"/>
       <c r="H67" s="120"/>
@@ -8621,51 +8618,51 @@
         <v>32</v>
       </c>
       <c r="C68" s="79" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D68" s="20" t="s">
         <v>13</v>
       </c>
       <c r="E68" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G68" s="85" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="H68" s="82" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J68" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="14.25" thickBot="1">
       <c r="A69" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B69" s="78" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C69" s="78" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D69" s="20" t="s">
         <v>13</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G69" s="78" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H69" s="85" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="I69" s="20" t="s">
         <v>13</v>
@@ -8673,25 +8670,25 @@
     </row>
     <row r="70" spans="1:10" ht="14.25" thickBot="1">
       <c r="A70" s="8" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B70" s="78" t="s">
         <v>32</v>
       </c>
       <c r="C70" s="78" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D70" s="20" t="s">
         <v>13</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G70" s="78" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H70" s="78" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I70" s="20" t="s">
         <v>13</v>
@@ -8705,7 +8702,7 @@
         <v>32</v>
       </c>
       <c r="H71" s="78" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I71" s="20" t="s">
         <v>13</v>
@@ -8720,7 +8717,7 @@
     <row r="77" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="78" spans="1:10" ht="14.25" thickBot="1">
       <c r="A78" s="116" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B78" s="117"/>
       <c r="C78" s="117"/>
@@ -8740,7 +8737,7 @@
       <c r="C79" s="102"/>
       <c r="D79" s="103"/>
       <c r="E79" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="F79" s="104" t="s">
         <v>235</v>
@@ -8749,7 +8746,7 @@
       <c r="H79" s="105"/>
       <c r="I79" s="106"/>
       <c r="J79" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -8821,13 +8818,13 @@
     <row r="85" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="86" spans="1:10" ht="14.25" thickBot="1">
       <c r="A86" s="116" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B86" s="117"/>
       <c r="C86" s="117"/>
       <c r="D86" s="118"/>
       <c r="F86" s="116" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G86" s="117"/>
       <c r="H86" s="117"/>
@@ -8841,7 +8838,7 @@
       <c r="C87" s="102"/>
       <c r="D87" s="103"/>
       <c r="E87" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="F87" s="104" t="s">
         <v>235</v>
@@ -8870,7 +8867,7 @@
         <v>72</v>
       </c>
       <c r="J88" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -8924,7 +8921,7 @@
         <v>229</v>
       </c>
       <c r="F95" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -8960,7 +8957,7 @@
         <v>266</v>
       </c>
       <c r="H97" s="33" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="L97" s="65"/>
       <c r="M97" s="66"/>
@@ -8980,14 +8977,14 @@
         <v>231</v>
       </c>
       <c r="E98" s="57"/>
-      <c r="F98" s="124">
+      <c r="F98" s="58">
         <v>6</v>
       </c>
-      <c r="G98" s="37" t="s">
-        <v>377</v>
-      </c>
-      <c r="H98" s="38" t="s">
-        <v>504</v>
+      <c r="G98" s="32" t="s">
+        <v>375</v>
+      </c>
+      <c r="H98" s="33" t="s">
+        <v>502</v>
       </c>
       <c r="L98" s="65"/>
       <c r="M98" s="66"/>
@@ -9118,10 +9115,10 @@
         <v>205</v>
       </c>
       <c r="G104" s="32" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H104" s="57" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="L104" s="65"/>
       <c r="M104" s="66"/>
@@ -9135,16 +9132,16 @@
     </row>
     <row r="105" spans="1:20">
       <c r="E105" s="59" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F105" s="58">
         <v>206</v>
       </c>
       <c r="G105" s="32" t="s">
+        <v>499</v>
+      </c>
+      <c r="H105" s="57" t="s">
         <v>501</v>
-      </c>
-      <c r="H105" s="57" t="s">
-        <v>503</v>
       </c>
       <c r="L105" s="65"/>
       <c r="M105" s="74">
@@ -9237,7 +9234,7 @@
         <v>220</v>
       </c>
       <c r="G111" s="84" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="H111" s="57" t="s">
         <v>274</v>
@@ -9251,7 +9248,7 @@
         <v>230</v>
       </c>
       <c r="G112" s="84" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="H112" s="57" t="s">
         <v>277</v>
@@ -9265,7 +9262,7 @@
         <v>240</v>
       </c>
       <c r="G113" s="84" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="H113" s="57" t="s">
         <v>275</v>
@@ -9277,7 +9274,7 @@
         <v>250</v>
       </c>
       <c r="G114" s="84" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="H114" s="57" t="s">
         <v>276</v>
@@ -9370,8 +9367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9382,82 +9379,82 @@
   <sheetData>
     <row r="1" spans="1:2" ht="40.5">
       <c r="A1" s="80" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B1" s="81" t="s">
-        <v>336</v>
+        <v>504</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="81">
       <c r="A2" s="80" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B2" s="81" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="40.5">
       <c r="A3" s="80" t="s">
+        <v>337</v>
+      </c>
+      <c r="B3" s="81" t="s">
         <v>339</v>
-      </c>
-      <c r="B3" s="81" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="94.5">
       <c r="A4" s="80" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B4" s="81" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="54">
       <c r="A5" s="80" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B5" s="81" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="67.5">
       <c r="A6" s="80" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B6" s="81" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="27">
       <c r="A7" s="80" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B7" s="81" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="67.5">
       <c r="A8" s="80" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B8" s="81" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="27">
       <c r="A9" s="80" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B9" s="81" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="40.5">
       <c r="A10" s="80" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B10" s="81" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
   </sheetData>
@@ -9471,7 +9468,7 @@
   <dimension ref="B10:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9479,25 +9476,25 @@
     <row r="10" spans="2:14" ht="14.25" thickBot="1"/>
     <row r="11" spans="2:14">
       <c r="B11" s="101" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C11" s="102"/>
       <c r="D11" s="102"/>
       <c r="E11" s="103"/>
       <c r="F11" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="14.25" thickBot="1"/>
     <row r="13" spans="2:14">
       <c r="B13" s="101" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C13" s="102"/>
       <c r="D13" s="102"/>
       <c r="E13" s="103"/>
       <c r="J13" s="101" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="K13" s="102"/>
       <c r="L13" s="102"/>
@@ -9505,13 +9502,13 @@
     </row>
     <row r="14" spans="2:14">
       <c r="B14" s="104" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C14" s="105"/>
       <c r="D14" s="105"/>
       <c r="E14" s="106"/>
       <c r="J14" s="104" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="K14" s="105"/>
       <c r="L14" s="105"/>
@@ -9528,10 +9525,10 @@
         <v>122</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F15" s="94" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="J15" s="8" t="s">
         <v>289</v>
@@ -9546,7 +9543,7 @@
         <v>13</v>
       </c>
       <c r="N15" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
   </sheetData>
@@ -9566,8 +9563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:I63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9584,229 +9581,229 @@
   <sheetData>
     <row r="1" spans="2:9">
       <c r="C1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="2" spans="2:9">
       <c r="B2" s="96" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="3" spans="2:9">
       <c r="B3" s="104" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C3" s="105"/>
       <c r="D3" s="105"/>
       <c r="G3" s="104" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H3" s="105"/>
       <c r="I3" s="105"/>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="8" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C4" s="92" t="s">
         <v>301</v>
       </c>
       <c r="D4" s="92" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H4" s="92" t="s">
         <v>301</v>
       </c>
       <c r="I4" s="92" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="8" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C5" s="92" t="s">
         <v>172</v>
       </c>
       <c r="D5" s="92" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E5" s="94" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F5" s="94" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="H5" s="92" t="s">
         <v>301</v>
       </c>
       <c r="I5" s="92" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C6" s="92" t="s">
         <v>32</v>
       </c>
       <c r="D6" s="92" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="H6" s="92" t="s">
         <v>32</v>
       </c>
       <c r="I6" s="92" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="8" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C7" s="92" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="92" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="H7" s="92" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="I7" s="92" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="8" spans="2:9">
       <c r="G8" s="8" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H8" s="92" t="s">
         <v>301</v>
       </c>
       <c r="I8" s="92" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="9" spans="2:9">
       <c r="G9" s="8" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="H9" s="92" t="s">
         <v>301</v>
       </c>
       <c r="I9" s="92" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="10" spans="2:9">
       <c r="G10" s="8" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H10" s="92" t="s">
+        <v>425</v>
+      </c>
+      <c r="I10" s="92" t="s">
         <v>427</v>
-      </c>
-      <c r="I10" s="92" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="14" spans="2:9">
       <c r="G14" s="104" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="H14" s="105"/>
       <c r="I14" s="105"/>
     </row>
     <row r="15" spans="2:9">
       <c r="B15" s="104" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C15" s="105"/>
       <c r="D15" s="105"/>
       <c r="G15" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="H15" s="92" t="s">
+        <v>418</v>
+      </c>
+      <c r="I15" s="92" t="s">
         <v>419</v>
-      </c>
-      <c r="H15" s="92" t="s">
-        <v>420</v>
-      </c>
-      <c r="I15" s="92" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="16" spans="2:9">
       <c r="B16" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C16" s="92" t="s">
         <v>301</v>
       </c>
       <c r="D16" s="92" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H16" s="92" t="s">
         <v>32</v>
       </c>
       <c r="I16" s="92" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C17" s="92" t="s">
         <v>32</v>
       </c>
       <c r="D17" s="92" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="H17" s="92" t="s">
         <v>301</v>
       </c>
       <c r="I17" s="92" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="8" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C18" s="92" t="s">
         <v>32</v>
       </c>
       <c r="D18" s="92" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H18" s="92" t="s">
         <v>32</v>
       </c>
       <c r="I18" s="92" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="19" spans="2:9">
@@ -9817,36 +9814,36 @@
         <v>32</v>
       </c>
       <c r="D19" s="92" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="H19" s="92" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="I19" s="92" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="20" spans="2:9">
       <c r="B20" s="8" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C20" s="92" t="s">
         <v>32</v>
       </c>
       <c r="D20" s="92" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H20" s="92" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="I20" s="92" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="21" spans="2:9">
@@ -9856,53 +9853,53 @@
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="96" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="25" spans="2:9">
       <c r="B25" s="104" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C25" s="105"/>
       <c r="D25" s="105"/>
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="8" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C26" s="92" t="s">
         <v>301</v>
       </c>
       <c r="D26" s="92" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="27" spans="2:9">
       <c r="B27" s="8" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C27" s="92" t="s">
         <v>301</v>
       </c>
       <c r="D27" s="92" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E27" s="94" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="28" spans="2:9">
       <c r="B28" s="8" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C28" s="92" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D28" s="92" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G28" s="104" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H28" s="105"/>
       <c r="I28" s="105"/>
@@ -9918,7 +9915,7 @@
         <v>32</v>
       </c>
       <c r="I29" s="92" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="30" spans="2:9">
@@ -9929,23 +9926,23 @@
         <v>301</v>
       </c>
       <c r="I30" s="92" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="31" spans="2:9">
       <c r="G31" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H31" s="92" t="s">
         <v>301</v>
       </c>
       <c r="I31" s="92" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="32" spans="2:9">
       <c r="B32" s="96" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="G32" s="8"/>
       <c r="H32" s="92"/>
@@ -9953,14 +9950,14 @@
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="104" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C33" s="105"/>
       <c r="D33" s="105"/>
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="8" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C34" s="92" t="s">
         <v>301</v>
@@ -9969,25 +9966,25 @@
     </row>
     <row r="35" spans="2:9">
       <c r="B35" s="8" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C35" s="92" t="s">
         <v>301</v>
       </c>
       <c r="D35" s="92"/>
       <c r="E35" s="94" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="36" spans="2:9">
       <c r="B36" s="8" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C36" s="92" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D36" s="92" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="37" spans="2:9">
@@ -9997,108 +9994,108 @@
     </row>
     <row r="40" spans="2:9">
       <c r="G40" s="104" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="H40" s="105"/>
       <c r="I40" s="105"/>
     </row>
     <row r="41" spans="2:9">
       <c r="G41" s="8" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="H41" s="92" t="s">
         <v>301</v>
       </c>
       <c r="I41" s="95" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="42" spans="2:9">
       <c r="G42" s="8" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H42" s="92" t="s">
         <v>301</v>
       </c>
       <c r="I42" s="92" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="43" spans="2:9">
       <c r="G43" s="8" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="H43" s="92" t="s">
         <v>301</v>
       </c>
       <c r="I43" s="92" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="44" spans="2:9">
       <c r="G44" s="8" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="H44" s="92" t="s">
         <v>301</v>
       </c>
       <c r="I44" s="92" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="48" spans="2:9">
       <c r="B48" s="96" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="49" spans="2:6">
       <c r="B49" s="104" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C49" s="105"/>
       <c r="D49" s="105"/>
     </row>
     <row r="50" spans="2:6">
       <c r="B50" s="8" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C50" s="92" t="s">
         <v>301</v>
       </c>
       <c r="D50" s="92"/>
       <c r="F50" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="51" spans="2:6">
       <c r="B51" s="8" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C51" s="92" t="s">
         <v>301</v>
       </c>
       <c r="D51" s="92"/>
       <c r="E51" s="94" t="s">
+        <v>465</v>
+      </c>
+      <c r="F51" s="94" t="s">
         <v>467</v>
-      </c>
-      <c r="F51" s="94" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="52" spans="2:6">
       <c r="B52" s="8" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C52" s="92" t="s">
         <v>301</v>
       </c>
       <c r="D52" s="93" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="53" spans="2:6">
       <c r="B53" s="8" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C53" s="92" t="s">
         <v>301</v>
@@ -10107,19 +10104,19 @@
     </row>
     <row r="58" spans="2:6">
       <c r="B58" s="96" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="59" spans="2:6">
       <c r="B59" s="104" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C59" s="105"/>
       <c r="D59" s="105"/>
     </row>
     <row r="60" spans="2:6">
       <c r="B60" s="8" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C60" s="93" t="s">
         <v>301</v>
@@ -10128,30 +10125,30 @@
     </row>
     <row r="61" spans="2:6">
       <c r="B61" s="8" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C61" s="93" t="s">
         <v>301</v>
       </c>
       <c r="D61" s="93"/>
       <c r="E61" s="94" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="62" spans="2:6">
       <c r="B62" s="8" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C62" s="93" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D62" s="93" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="63" spans="2:6">
       <c r="B63" s="8" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C63" s="93" t="s">
         <v>301</v>

--- a/doc/最新接口_拟定.xlsx
+++ b/doc/最新接口_拟定.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="首标签" sheetId="1" r:id="rId1"/>
@@ -1107,7 +1107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="507">
   <si>
     <t>int</t>
   </si>
@@ -2234,10 +2234,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dVal:吃的子类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>dVal:杠的子类型
 dlist:杠的内容（明杠，暗杠，捡杠，四风都不需要传，三剑客只需要传多余的哪一个牌即可）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3157,6 +3153,18 @@
     <t>0:局数
 1:最大番数
 2:玩法位集合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dVal:吃的子类型;dlist：吃牌的内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dval:0;Dlist:打牌的内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dval:0;Dlist:碰的内容（可以不穿）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3936,14 +3944,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3963,12 +3968,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3978,16 +3977,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3999,17 +4010,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4328,32 +4336,32 @@
   <sheetData>
     <row r="3" spans="2:16" ht="14.25" thickBot="1"/>
     <row r="4" spans="2:16">
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="100" t="s">
         <v>232</v>
       </c>
-      <c r="C4" s="102"/>
-      <c r="D4" s="102"/>
-      <c r="E4" s="103"/>
-      <c r="I4" s="101" t="s">
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="102"/>
+      <c r="I4" s="100" t="s">
         <v>234</v>
       </c>
-      <c r="J4" s="102"/>
-      <c r="K4" s="102"/>
-      <c r="L4" s="103"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="102"/>
     </row>
     <row r="5" spans="2:16">
-      <c r="B5" s="104" t="s">
+      <c r="B5" s="103" t="s">
         <v>233</v>
       </c>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="106"/>
-      <c r="I5" s="104" t="s">
-        <v>495</v>
-      </c>
-      <c r="J5" s="105"/>
-      <c r="K5" s="105"/>
-      <c r="L5" s="106"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="105"/>
+      <c r="I5" s="103" t="s">
+        <v>494</v>
+      </c>
+      <c r="J5" s="104"/>
+      <c r="K5" s="104"/>
+      <c r="L5" s="105"/>
     </row>
     <row r="6" spans="2:16">
       <c r="B6" s="8"/>
@@ -4403,7 +4411,7 @@
     </row>
     <row r="9" spans="2:16">
       <c r="I9" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J9" s="55" t="s">
         <v>238</v>
@@ -4417,21 +4425,21 @@
     </row>
     <row r="11" spans="2:16" ht="14.25" customHeight="1"/>
     <row r="14" spans="2:16" ht="14.25" thickBot="1">
-      <c r="I14" s="98" t="s">
+      <c r="I14" s="109" t="s">
         <v>54</v>
       </c>
-      <c r="J14" s="99"/>
-      <c r="K14" s="99"/>
-      <c r="L14" s="99"/>
-      <c r="M14" s="100"/>
+      <c r="J14" s="110"/>
+      <c r="K14" s="110"/>
+      <c r="L14" s="110"/>
+      <c r="M14" s="111"/>
     </row>
     <row r="15" spans="2:16">
-      <c r="B15" s="101" t="s">
+      <c r="B15" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="102"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="103"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="102"/>
       <c r="I15" s="21" t="s">
         <v>34</v>
       </c>
@@ -4446,18 +4454,18 @@
         <v>34</v>
       </c>
       <c r="N15" s="3"/>
-      <c r="O15" s="107" t="s">
+      <c r="O15" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="P15" s="108"/>
+      <c r="P15" s="99"/>
     </row>
     <row r="16" spans="2:16">
-      <c r="B16" s="104" t="s">
+      <c r="B16" s="103" t="s">
         <v>233</v>
       </c>
-      <c r="C16" s="105"/>
-      <c r="D16" s="105"/>
-      <c r="E16" s="106"/>
+      <c r="C16" s="104"/>
+      <c r="D16" s="104"/>
+      <c r="E16" s="105"/>
       <c r="I16" s="33"/>
       <c r="J16" s="30"/>
       <c r="K16" s="31">
@@ -4517,7 +4525,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="75" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E18" s="20" t="s">
         <v>13</v>
@@ -4646,7 +4654,7 @@
     </row>
     <row r="22" spans="2:16" ht="27.75" thickBot="1">
       <c r="B22" s="5" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>265</v>
@@ -4955,12 +4963,12 @@
       <c r="P37" s="23"/>
     </row>
     <row r="38" spans="2:16">
-      <c r="B38" s="109" t="s">
+      <c r="B38" s="106" t="s">
         <v>262</v>
       </c>
-      <c r="C38" s="110"/>
-      <c r="D38" s="110"/>
-      <c r="E38" s="111"/>
+      <c r="C38" s="107"/>
+      <c r="D38" s="107"/>
+      <c r="E38" s="108"/>
       <c r="I38" s="33" t="s">
         <v>117</v>
       </c>
@@ -5042,18 +5050,18 @@
     <row r="42" spans="2:16" ht="22.5" customHeight="1"/>
     <row r="43" spans="2:16" ht="31.5" customHeight="1"/>
     <row r="44" spans="2:16">
-      <c r="H44" s="107" t="s">
+      <c r="H44" s="98" t="s">
         <v>247</v>
       </c>
-      <c r="I44" s="108"/>
-      <c r="J44" s="107" t="s">
+      <c r="I44" s="99"/>
+      <c r="J44" s="98" t="s">
         <v>116</v>
       </c>
-      <c r="K44" s="108"/>
-      <c r="L44" s="107" t="s">
+      <c r="K44" s="99"/>
+      <c r="L44" s="98" t="s">
         <v>77</v>
       </c>
-      <c r="M44" s="108"/>
+      <c r="M44" s="99"/>
     </row>
     <row r="45" spans="2:16">
       <c r="H45" s="22">
@@ -5169,6 +5177,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="I14:M14"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="I5:L5"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="J44:K44"/>
     <mergeCell ref="L44:M44"/>
@@ -5176,11 +5189,6 @@
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="H44:I44"/>
     <mergeCell ref="B38:E38"/>
-    <mergeCell ref="I14:M14"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="I5:L5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5374,11 +5382,11 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="4"/>
-      <c r="B10" s="116" t="s">
+      <c r="B10" s="117" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="117"/>
-      <c r="D10" s="118"/>
+      <c r="C10" s="118"/>
+      <c r="D10" s="119"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -5387,11 +5395,11 @@
       <c r="J10" s="4"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="116" t="s">
+      <c r="M10" s="117" t="s">
         <v>28</v>
       </c>
-      <c r="N10" s="117"/>
-      <c r="O10" s="118"/>
+      <c r="N10" s="118"/>
+      <c r="O10" s="119"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -5401,11 +5409,11 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="4"/>
-      <c r="B11" s="119" t="s">
+      <c r="B11" s="114" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="120"/>
-      <c r="D11" s="121"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="116"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -5414,11 +5422,11 @@
       <c r="J11" s="4"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="119" t="s">
+      <c r="M11" s="114" t="s">
         <v>27</v>
       </c>
-      <c r="N11" s="120"/>
-      <c r="O11" s="121"/>
+      <c r="N11" s="115"/>
+      <c r="O11" s="116"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -5539,11 +5547,11 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="4"/>
-      <c r="B17" s="116" t="s">
+      <c r="B17" s="117" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="117"/>
-      <c r="D17" s="118"/>
+      <c r="C17" s="118"/>
+      <c r="D17" s="119"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -5552,11 +5560,11 @@
       <c r="J17" s="4"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="116" t="s">
+      <c r="M17" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="N17" s="117"/>
-      <c r="O17" s="118"/>
+      <c r="N17" s="118"/>
+      <c r="O17" s="119"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -5565,11 +5573,11 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="4"/>
-      <c r="B18" s="119" t="s">
+      <c r="B18" s="114" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="120"/>
-      <c r="D18" s="121"/>
+      <c r="C18" s="115"/>
+      <c r="D18" s="116"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -5578,11 +5586,11 @@
       <c r="J18" s="4"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="119" t="s">
+      <c r="M18" s="114" t="s">
         <v>129</v>
       </c>
-      <c r="N18" s="120"/>
-      <c r="O18" s="121"/>
+      <c r="N18" s="115"/>
+      <c r="O18" s="116"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -5622,9 +5630,9 @@
     </row>
     <row r="20" spans="1:21" ht="41.25" thickBot="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="116"/>
-      <c r="C20" s="117"/>
-      <c r="D20" s="118"/>
+      <c r="B20" s="117"/>
+      <c r="C20" s="118"/>
+      <c r="D20" s="119"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -5653,11 +5661,11 @@
     </row>
     <row r="21" spans="1:21" ht="14.25" thickBot="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="119" t="s">
+      <c r="B21" s="114" t="s">
         <v>129</v>
       </c>
-      <c r="C21" s="120"/>
-      <c r="D21" s="121"/>
+      <c r="C21" s="115"/>
+      <c r="D21" s="116"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -5724,11 +5732,11 @@
       <c r="J23" s="4"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="116" t="s">
+      <c r="M23" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="N23" s="117"/>
-      <c r="O23" s="118"/>
+      <c r="N23" s="118"/>
+      <c r="O23" s="119"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
@@ -5749,11 +5757,11 @@
       <c r="J24" s="4"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-      <c r="M24" s="119" t="s">
+      <c r="M24" s="114" t="s">
         <v>69</v>
       </c>
-      <c r="N24" s="120"/>
-      <c r="O24" s="121"/>
+      <c r="N24" s="115"/>
+      <c r="O24" s="116"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
@@ -5886,11 +5894,11 @@
       <c r="J29" s="4"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
-      <c r="M29" s="116" t="s">
+      <c r="M29" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="N29" s="117"/>
-      <c r="O29" s="118"/>
+      <c r="N29" s="118"/>
+      <c r="O29" s="119"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
@@ -5911,11 +5919,11 @@
       <c r="J30" s="4"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="119" t="s">
+      <c r="M30" s="114" t="s">
         <v>69</v>
       </c>
-      <c r="N30" s="120"/>
-      <c r="O30" s="121"/>
+      <c r="N30" s="115"/>
+      <c r="O30" s="116"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
@@ -6071,11 +6079,11 @@
       <c r="J36" s="4"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
-      <c r="M36" s="116" t="s">
+      <c r="M36" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="N36" s="117"/>
-      <c r="O36" s="118"/>
+      <c r="N36" s="118"/>
+      <c r="O36" s="119"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
@@ -6096,11 +6104,11 @@
       <c r="J37" s="4"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
-      <c r="M37" s="119" t="s">
+      <c r="M37" s="114" t="s">
         <v>69</v>
       </c>
-      <c r="N37" s="120"/>
-      <c r="O37" s="121"/>
+      <c r="N37" s="115"/>
+      <c r="O37" s="116"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
@@ -6279,14 +6287,14 @@
       <c r="J44" s="4"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
-      <c r="M44" s="116" t="s">
+      <c r="M44" s="117" t="s">
         <v>16</v>
       </c>
-      <c r="N44" s="117"/>
-      <c r="O44" s="117"/>
-      <c r="P44" s="117"/>
-      <c r="Q44" s="117"/>
-      <c r="R44" s="118"/>
+      <c r="N44" s="118"/>
+      <c r="O44" s="118"/>
+      <c r="P44" s="118"/>
+      <c r="Q44" s="118"/>
+      <c r="R44" s="119"/>
       <c r="S44" s="2"/>
       <c r="T44" s="3"/>
       <c r="U44" s="3"/>
@@ -6304,14 +6312,14 @@
       <c r="J45" s="4"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
-      <c r="M45" s="119" t="s">
+      <c r="M45" s="114" t="s">
         <v>278</v>
       </c>
-      <c r="N45" s="120"/>
-      <c r="O45" s="120"/>
-      <c r="P45" s="120"/>
-      <c r="Q45" s="120"/>
-      <c r="R45" s="121"/>
+      <c r="N45" s="115"/>
+      <c r="O45" s="115"/>
+      <c r="P45" s="115"/>
+      <c r="Q45" s="115"/>
+      <c r="R45" s="116"/>
       <c r="S45" s="2"/>
       <c r="T45" s="3"/>
       <c r="U45" s="3"/>
@@ -6338,11 +6346,11 @@
       <c r="O46" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="P46" s="122" t="s">
+      <c r="P46" s="120" t="s">
         <v>130</v>
       </c>
-      <c r="Q46" s="122"/>
-      <c r="R46" s="123"/>
+      <c r="Q46" s="120"/>
+      <c r="R46" s="121"/>
       <c r="S46" s="2"/>
       <c r="T46" s="3"/>
       <c r="U46" s="3"/>
@@ -6369,22 +6377,22 @@
       <c r="O47" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="P47" s="122" t="s">
+      <c r="P47" s="120" t="s">
         <v>149</v>
       </c>
-      <c r="Q47" s="122"/>
-      <c r="R47" s="123"/>
+      <c r="Q47" s="120"/>
+      <c r="R47" s="121"/>
       <c r="S47" s="2"/>
       <c r="T47" s="3"/>
       <c r="U47" s="3"/>
     </row>
     <row r="48" spans="1:21">
       <c r="A48" s="1"/>
-      <c r="B48" s="116" t="s">
+      <c r="B48" s="117" t="s">
         <v>114</v>
       </c>
-      <c r="C48" s="117"/>
-      <c r="D48" s="118"/>
+      <c r="C48" s="118"/>
+      <c r="D48" s="119"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -6402,22 +6410,22 @@
       <c r="O48" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P48" s="122" t="s">
+      <c r="P48" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="Q48" s="122"/>
-      <c r="R48" s="123"/>
+      <c r="Q48" s="120"/>
+      <c r="R48" s="121"/>
       <c r="S48" s="2"/>
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
     </row>
     <row r="49" spans="1:21">
       <c r="A49" s="1"/>
-      <c r="B49" s="119" t="s">
+      <c r="B49" s="114" t="s">
         <v>112</v>
       </c>
-      <c r="C49" s="120"/>
-      <c r="D49" s="121"/>
+      <c r="C49" s="115"/>
+      <c r="D49" s="116"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -6474,11 +6482,11 @@
       <c r="O50" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P50" s="122" t="s">
+      <c r="P50" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="Q50" s="122"/>
-      <c r="R50" s="123"/>
+      <c r="Q50" s="120"/>
+      <c r="R50" s="121"/>
       <c r="S50" s="2"/>
       <c r="T50" s="3"/>
       <c r="U50" s="3"/>
@@ -6505,11 +6513,11 @@
       <c r="O51" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="P51" s="122" t="s">
+      <c r="P51" s="120" t="s">
         <v>20</v>
       </c>
-      <c r="Q51" s="122"/>
-      <c r="R51" s="123"/>
+      <c r="Q51" s="120"/>
+      <c r="R51" s="121"/>
       <c r="S51" s="2"/>
       <c r="T51" s="3"/>
       <c r="U51" s="3"/>
@@ -6567,11 +6575,11 @@
       <c r="O53" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="P53" s="122" t="s">
+      <c r="P53" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="Q53" s="122"/>
-      <c r="R53" s="123"/>
+      <c r="Q53" s="120"/>
+      <c r="R53" s="121"/>
       <c r="S53" s="2"/>
       <c r="T53" s="3"/>
       <c r="U53" s="3"/>
@@ -6736,13 +6744,13 @@
       <c r="J59" s="4"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
-      <c r="M59" s="116" t="s">
+      <c r="M59" s="117" t="s">
         <v>136</v>
       </c>
-      <c r="N59" s="117"/>
-      <c r="O59" s="117"/>
-      <c r="P59" s="117"/>
-      <c r="Q59" s="118"/>
+      <c r="N59" s="118"/>
+      <c r="O59" s="118"/>
+      <c r="P59" s="118"/>
+      <c r="Q59" s="119"/>
       <c r="R59" s="1"/>
       <c r="S59" s="2"/>
       <c r="T59" s="3"/>
@@ -6770,10 +6778,10 @@
       <c r="O60" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="P60" s="114" t="s">
+      <c r="P60" s="112" t="s">
         <v>137</v>
       </c>
-      <c r="Q60" s="115"/>
+      <c r="Q60" s="113"/>
       <c r="R60" s="1"/>
       <c r="S60" s="2"/>
       <c r="T60" s="3"/>
@@ -6801,10 +6809,10 @@
       <c r="O61" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="P61" s="114" t="s">
+      <c r="P61" s="112" t="s">
         <v>140</v>
       </c>
-      <c r="Q61" s="115"/>
+      <c r="Q61" s="113"/>
       <c r="R61" s="1"/>
       <c r="S61" s="2"/>
       <c r="T61" s="3"/>
@@ -6832,10 +6840,10 @@
       <c r="O62" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="P62" s="114" t="s">
+      <c r="P62" s="112" t="s">
         <v>22</v>
       </c>
-      <c r="Q62" s="115"/>
+      <c r="Q62" s="113"/>
       <c r="R62" s="1"/>
       <c r="S62" s="2"/>
       <c r="T62" s="3"/>
@@ -6863,10 +6871,10 @@
       <c r="O63" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P63" s="112" t="s">
+      <c r="P63" s="122" t="s">
         <v>23</v>
       </c>
-      <c r="Q63" s="113"/>
+      <c r="Q63" s="123"/>
       <c r="R63" s="1"/>
       <c r="S63" s="2"/>
       <c r="T63" s="3"/>
@@ -6894,10 +6902,10 @@
       <c r="O64" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P64" s="114" t="s">
+      <c r="P64" s="112" t="s">
         <v>161</v>
       </c>
-      <c r="Q64" s="115"/>
+      <c r="Q64" s="113"/>
       <c r="R64" s="1"/>
       <c r="S64" s="2"/>
       <c r="T64" s="3"/>
@@ -6925,10 +6933,10 @@
       <c r="O65" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="P65" s="114" t="s">
+      <c r="P65" s="112" t="s">
         <v>60</v>
       </c>
-      <c r="Q65" s="115"/>
+      <c r="Q65" s="113"/>
       <c r="R65" s="1"/>
       <c r="S65" s="2"/>
       <c r="T65" s="3"/>
@@ -6956,10 +6964,10 @@
       <c r="O66" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P66" s="114" t="s">
+      <c r="P66" s="112" t="s">
         <v>218</v>
       </c>
-      <c r="Q66" s="115"/>
+      <c r="Q66" s="113"/>
       <c r="R66" s="1"/>
       <c r="S66" s="2"/>
       <c r="T66" s="3"/>
@@ -6987,10 +6995,10 @@
       <c r="O67" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P67" s="114" t="s">
+      <c r="P67" s="112" t="s">
         <v>217</v>
       </c>
-      <c r="Q67" s="115"/>
+      <c r="Q67" s="113"/>
       <c r="R67" s="1"/>
       <c r="S67" s="1"/>
       <c r="T67" s="3"/>
@@ -7032,13 +7040,13 @@
       <c r="J69" s="4"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
-      <c r="M69" s="116" t="s">
+      <c r="M69" s="117" t="s">
         <v>176</v>
       </c>
-      <c r="N69" s="117"/>
-      <c r="O69" s="117"/>
-      <c r="P69" s="117"/>
-      <c r="Q69" s="118"/>
+      <c r="N69" s="118"/>
+      <c r="O69" s="118"/>
+      <c r="P69" s="118"/>
+      <c r="Q69" s="119"/>
       <c r="R69" s="1"/>
       <c r="S69" s="1"/>
       <c r="T69" s="3"/>
@@ -7057,13 +7065,13 @@
       <c r="J70" s="4"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
-      <c r="M70" s="116" t="s">
+      <c r="M70" s="117" t="s">
         <v>177</v>
       </c>
-      <c r="N70" s="117"/>
-      <c r="O70" s="117"/>
-      <c r="P70" s="117"/>
-      <c r="Q70" s="118"/>
+      <c r="N70" s="118"/>
+      <c r="O70" s="118"/>
+      <c r="P70" s="118"/>
+      <c r="Q70" s="119"/>
       <c r="R70" s="1"/>
       <c r="S70" s="1"/>
       <c r="T70" s="3"/>
@@ -7091,10 +7099,10 @@
       <c r="O71" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="P71" s="112" t="s">
+      <c r="P71" s="122" t="s">
         <v>201</v>
       </c>
-      <c r="Q71" s="113"/>
+      <c r="Q71" s="123"/>
       <c r="R71" s="1"/>
       <c r="S71" s="1"/>
       <c r="T71" s="3"/>
@@ -7122,10 +7130,10 @@
       <c r="O72" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="P72" s="112" t="s">
+      <c r="P72" s="122" t="s">
         <v>193</v>
       </c>
-      <c r="Q72" s="113"/>
+      <c r="Q72" s="123"/>
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
       <c r="T72" s="3"/>
@@ -7153,10 +7161,10 @@
       <c r="O73" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="P73" s="112" t="s">
+      <c r="P73" s="122" t="s">
         <v>190</v>
       </c>
-      <c r="Q73" s="113"/>
+      <c r="Q73" s="123"/>
       <c r="R73" s="1"/>
       <c r="S73" s="1"/>
       <c r="T73" s="3"/>
@@ -7213,10 +7221,10 @@
       <c r="O75" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P75" s="114" t="s">
+      <c r="P75" s="112" t="s">
         <v>219</v>
       </c>
-      <c r="Q75" s="115"/>
+      <c r="Q75" s="113"/>
       <c r="R75" s="1"/>
       <c r="S75" s="1"/>
       <c r="T75" s="3"/>
@@ -7244,10 +7252,10 @@
       <c r="O76" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P76" s="114" t="s">
+      <c r="P76" s="112" t="s">
         <v>220</v>
       </c>
-      <c r="Q76" s="115"/>
+      <c r="Q76" s="113"/>
       <c r="R76" s="1"/>
       <c r="S76" s="1"/>
       <c r="T76" s="3"/>
@@ -7289,11 +7297,11 @@
       <c r="J78" s="4"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
-      <c r="M78" s="119" t="s">
+      <c r="M78" s="114" t="s">
         <v>191</v>
       </c>
-      <c r="N78" s="120"/>
-      <c r="O78" s="121"/>
+      <c r="N78" s="115"/>
+      <c r="O78" s="116"/>
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
       <c r="R78" s="1"/>
@@ -7395,11 +7403,11 @@
       <c r="J82" s="4"/>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
-      <c r="M82" s="119" t="s">
+      <c r="M82" s="114" t="s">
         <v>183</v>
       </c>
-      <c r="N82" s="120"/>
-      <c r="O82" s="121"/>
+      <c r="N82" s="115"/>
+      <c r="O82" s="116"/>
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
       <c r="R82" s="1"/>
@@ -7910,6 +7918,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="M69:Q69"/>
+    <mergeCell ref="M70:Q70"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="M45:R45"/>
+    <mergeCell ref="P46:R46"/>
+    <mergeCell ref="P47:R47"/>
+    <mergeCell ref="P48:R48"/>
+    <mergeCell ref="P50:R50"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="M44:R44"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
     <mergeCell ref="P76:Q76"/>
     <mergeCell ref="M78:O78"/>
     <mergeCell ref="M82:O82"/>
@@ -7926,34 +7962,6 @@
     <mergeCell ref="M11:O11"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="M29:O29"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="M44:R44"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="M45:R45"/>
-    <mergeCell ref="P46:R46"/>
-    <mergeCell ref="P47:R47"/>
-    <mergeCell ref="P48:R48"/>
-    <mergeCell ref="P50:R50"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="M69:Q69"/>
-    <mergeCell ref="M70:Q70"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="P67:Q67"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7965,8 +7973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:T117"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="A19:D19"/>
+    <sheetView tabSelected="1" topLeftCell="D103" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E109" sqref="E109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7982,86 +7990,86 @@
   <sheetData>
     <row r="2" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="3" spans="1:10">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="100" t="s">
+        <v>286</v>
+      </c>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="102"/>
+      <c r="F3" s="100" t="s">
+        <v>297</v>
+      </c>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="102"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="103" t="s">
         <v>287</v>
       </c>
-      <c r="B3" s="102"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="103"/>
-      <c r="F3" s="101" t="s">
-        <v>298</v>
-      </c>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="103"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="104" t="s">
-        <v>288</v>
-      </c>
-      <c r="B4" s="105"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="106"/>
-      <c r="F4" s="104" t="s">
-        <v>291</v>
-      </c>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="106"/>
+      <c r="B4" s="104"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="105"/>
+      <c r="F4" s="103" t="s">
+        <v>290</v>
+      </c>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="105"/>
     </row>
     <row r="5" spans="1:10" ht="14.25" thickBot="1">
       <c r="A5" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B5" s="76" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="76" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G5" s="76" t="s">
         <v>0</v>
       </c>
       <c r="H5" s="76" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I5" s="20" t="s">
         <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="14.25" thickBot="1">
       <c r="A6" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B6" s="76" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="76" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G6" s="76" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="76" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I6" s="20" t="s">
         <v>13</v>
@@ -8069,39 +8077,39 @@
     </row>
     <row r="7" spans="1:10" ht="14.25" thickBot="1">
       <c r="A7" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="B7" s="76" t="s">
+        <v>317</v>
+      </c>
+      <c r="C7" s="83" t="s">
+        <v>334</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="B7" s="76" t="s">
-        <v>318</v>
-      </c>
-      <c r="C7" s="83" t="s">
-        <v>335</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>317</v>
-      </c>
       <c r="F7" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G7" s="76" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H7" s="76" t="s">
         <v>263</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.25" thickBot="1">
       <c r="F8" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G8" s="76" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H8" s="83" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I8" s="20" t="s">
         <v>13</v>
@@ -8109,55 +8117,55 @@
     </row>
     <row r="9" spans="1:10" ht="14.25" thickBot="1">
       <c r="F9" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="G9" s="78" t="s">
+        <v>326</v>
+      </c>
+      <c r="H9" s="78" t="s">
         <v>329</v>
       </c>
-      <c r="G9" s="78" t="s">
+      <c r="I9" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="H9" s="78" t="s">
-        <v>330</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="14.25" thickBot="1">
       <c r="F10" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="G10" s="78" t="s">
+        <v>326</v>
+      </c>
+      <c r="H10" s="78" t="s">
         <v>332</v>
       </c>
-      <c r="G10" s="78" t="s">
+      <c r="I10" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="H10" s="78" t="s">
-        <v>333</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.25" thickBot="1">
       <c r="F11" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="G11" s="78" t="s">
         <v>326</v>
       </c>
-      <c r="G11" s="78" t="s">
+      <c r="H11" s="78" t="s">
+        <v>330</v>
+      </c>
+      <c r="I11" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="H11" s="78" t="s">
-        <v>331</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="14.25" thickBot="1">
       <c r="F12" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G12" s="85" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H12" s="84" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I12" s="20" t="s">
         <v>13</v>
@@ -8165,57 +8173,57 @@
     </row>
     <row r="15" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="16" spans="1:10">
-      <c r="A16" s="101" t="s">
+      <c r="A16" s="100" t="s">
+        <v>284</v>
+      </c>
+      <c r="B16" s="101"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="102"/>
+      <c r="F16" s="100" t="s">
+        <v>284</v>
+      </c>
+      <c r="G16" s="101"/>
+      <c r="H16" s="101"/>
+      <c r="I16" s="102"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="103" t="s">
         <v>285</v>
       </c>
-      <c r="B16" s="102"/>
-      <c r="C16" s="102"/>
-      <c r="D16" s="103"/>
-      <c r="F16" s="101" t="s">
-        <v>285</v>
-      </c>
-      <c r="G16" s="102"/>
-      <c r="H16" s="102"/>
-      <c r="I16" s="103"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="104" t="s">
-        <v>286</v>
-      </c>
-      <c r="B17" s="105"/>
-      <c r="C17" s="105"/>
-      <c r="D17" s="106"/>
-      <c r="F17" s="104" t="s">
-        <v>384</v>
-      </c>
-      <c r="G17" s="105"/>
-      <c r="H17" s="105"/>
-      <c r="I17" s="106"/>
+      <c r="B17" s="104"/>
+      <c r="C17" s="104"/>
+      <c r="D17" s="105"/>
+      <c r="F17" s="103" t="s">
+        <v>383</v>
+      </c>
+      <c r="G17" s="104"/>
+      <c r="H17" s="104"/>
+      <c r="I17" s="105"/>
       <c r="J17" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B18" s="76" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="76" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D18" s="76" t="s">
         <v>72</v>
       </c>
       <c r="E18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>132</v>
       </c>
       <c r="G18" s="76" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H18" s="76" t="s">
         <v>264</v>
@@ -8226,13 +8234,13 @@
     </row>
     <row r="19" spans="1:10" ht="14.25" thickBot="1">
       <c r="A19" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="B19" s="76" t="s">
+        <v>300</v>
+      </c>
+      <c r="C19" s="76" t="s">
         <v>302</v>
-      </c>
-      <c r="B19" s="76" t="s">
-        <v>301</v>
-      </c>
-      <c r="C19" s="76" t="s">
-        <v>303</v>
       </c>
       <c r="D19" s="20" t="s">
         <v>13</v>
@@ -8240,20 +8248,20 @@
     </row>
     <row r="23" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="24" spans="1:10">
-      <c r="F24" s="101" t="s">
+      <c r="F24" s="100" t="s">
+        <v>309</v>
+      </c>
+      <c r="G24" s="101"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="102"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="F25" s="103" t="s">
         <v>310</v>
       </c>
-      <c r="G24" s="102"/>
-      <c r="H24" s="102"/>
-      <c r="I24" s="103"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="F25" s="104" t="s">
-        <v>311</v>
-      </c>
-      <c r="G25" s="105"/>
-      <c r="H25" s="105"/>
-      <c r="I25" s="106"/>
+      <c r="G25" s="104"/>
+      <c r="H25" s="104"/>
+      <c r="I25" s="105"/>
     </row>
     <row r="26" spans="1:10">
       <c r="F26" s="8" t="s">
@@ -8263,7 +8271,7 @@
         <v>0</v>
       </c>
       <c r="H26" s="85" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I26" s="76" t="s">
         <v>72</v>
@@ -8274,33 +8282,33 @@
     </row>
     <row r="31" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="32" spans="1:10">
-      <c r="A32" s="101" t="s">
-        <v>292</v>
-      </c>
-      <c r="B32" s="102"/>
-      <c r="C32" s="102"/>
-      <c r="D32" s="103"/>
-      <c r="F32" s="101" t="s">
+      <c r="A32" s="100" t="s">
+        <v>291</v>
+      </c>
+      <c r="B32" s="101"/>
+      <c r="C32" s="101"/>
+      <c r="D32" s="102"/>
+      <c r="F32" s="100" t="s">
+        <v>318</v>
+      </c>
+      <c r="G32" s="101"/>
+      <c r="H32" s="101"/>
+      <c r="I32" s="102"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="103" t="s">
+        <v>293</v>
+      </c>
+      <c r="B33" s="104"/>
+      <c r="C33" s="104"/>
+      <c r="D33" s="105"/>
+      <c r="E33" s="80"/>
+      <c r="F33" s="103" t="s">
         <v>319</v>
       </c>
-      <c r="G32" s="102"/>
-      <c r="H32" s="102"/>
-      <c r="I32" s="103"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="104" t="s">
-        <v>294</v>
-      </c>
-      <c r="B33" s="105"/>
-      <c r="C33" s="105"/>
-      <c r="D33" s="106"/>
-      <c r="E33" s="80"/>
-      <c r="F33" s="104" t="s">
-        <v>320</v>
-      </c>
-      <c r="G33" s="105"/>
-      <c r="H33" s="105"/>
-      <c r="I33" s="106"/>
+      <c r="G33" s="104"/>
+      <c r="H33" s="104"/>
+      <c r="I33" s="105"/>
     </row>
     <row r="34" spans="1:10" ht="14.25" thickBot="1">
       <c r="A34" s="8" t="s">
@@ -8310,54 +8318,54 @@
         <v>0</v>
       </c>
       <c r="C34" s="85" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D34" s="76" t="s">
         <v>72</v>
       </c>
       <c r="E34" s="80"/>
       <c r="F34" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="G34" s="76" t="s">
         <v>321</v>
       </c>
-      <c r="G34" s="76" t="s">
-        <v>322</v>
-      </c>
       <c r="H34" s="76" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="14.25" thickBot="1">
       <c r="A35" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B35" s="85" t="s">
         <v>142</v>
       </c>
       <c r="C35" s="85" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D35" s="20" t="s">
         <v>13</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G35" s="85" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H35" s="76" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="14.25" thickBot="1">
       <c r="A36" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B36" s="76" t="s">
         <v>0</v>
@@ -8369,16 +8377,16 @@
         <v>13</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G36" s="85" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H36" s="76" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -8389,7 +8397,7 @@
         <v>0</v>
       </c>
       <c r="C37" s="84" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D37" s="76" t="s">
         <v>72</v>
@@ -8397,13 +8405,13 @@
     </row>
     <row r="38" spans="1:10" ht="14.25" thickBot="1">
       <c r="A38" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B38" s="85" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C38" s="84" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D38" s="20" t="s">
         <v>13</v>
@@ -8411,37 +8419,37 @@
     </row>
     <row r="42" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="43" spans="1:10">
-      <c r="A43" s="101" t="s">
-        <v>305</v>
-      </c>
-      <c r="B43" s="102"/>
-      <c r="C43" s="102"/>
-      <c r="D43" s="103"/>
-      <c r="F43" s="101" t="s">
-        <v>386</v>
-      </c>
-      <c r="G43" s="102"/>
-      <c r="H43" s="102"/>
-      <c r="I43" s="103"/>
+      <c r="A43" s="100" t="s">
+        <v>304</v>
+      </c>
+      <c r="B43" s="101"/>
+      <c r="C43" s="101"/>
+      <c r="D43" s="102"/>
+      <c r="F43" s="100" t="s">
+        <v>385</v>
+      </c>
+      <c r="G43" s="101"/>
+      <c r="H43" s="101"/>
+      <c r="I43" s="102"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="104" t="s">
-        <v>503</v>
-      </c>
-      <c r="B44" s="105"/>
-      <c r="C44" s="105"/>
-      <c r="D44" s="106"/>
+      <c r="A44" s="103" t="s">
+        <v>502</v>
+      </c>
+      <c r="B44" s="104"/>
+      <c r="C44" s="104"/>
+      <c r="D44" s="105"/>
       <c r="E44" t="s">
-        <v>483</v>
-      </c>
-      <c r="F44" s="104" t="s">
-        <v>385</v>
-      </c>
-      <c r="G44" s="105"/>
-      <c r="H44" s="105"/>
-      <c r="I44" s="106"/>
+        <v>482</v>
+      </c>
+      <c r="F44" s="103" t="s">
+        <v>384</v>
+      </c>
+      <c r="G44" s="104"/>
+      <c r="H44" s="104"/>
+      <c r="I44" s="105"/>
       <c r="J44" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="14.25" thickBot="1">
@@ -8452,105 +8460,105 @@
         <v>0</v>
       </c>
       <c r="H45" s="87" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I45" s="86" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="101" t="s">
+      <c r="A46" s="100" t="s">
+        <v>307</v>
+      </c>
+      <c r="B46" s="101"/>
+      <c r="C46" s="101"/>
+      <c r="D46" s="102"/>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="103" t="s">
         <v>308</v>
       </c>
-      <c r="B46" s="102"/>
-      <c r="C46" s="102"/>
-      <c r="D46" s="103"/>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="104" t="s">
-        <v>309</v>
-      </c>
-      <c r="B47" s="105"/>
-      <c r="C47" s="105"/>
-      <c r="D47" s="106"/>
+      <c r="B47" s="104"/>
+      <c r="C47" s="104"/>
+      <c r="D47" s="105"/>
       <c r="E47" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="49" spans="1:10">
-      <c r="A49" s="116" t="s">
+      <c r="A49" s="117" t="s">
+        <v>312</v>
+      </c>
+      <c r="B49" s="118"/>
+      <c r="C49" s="118"/>
+      <c r="D49" s="119"/>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="114" t="s">
         <v>313</v>
       </c>
-      <c r="B49" s="117"/>
-      <c r="C49" s="117"/>
-      <c r="D49" s="118"/>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="119" t="s">
-        <v>314</v>
-      </c>
-      <c r="B50" s="120"/>
-      <c r="C50" s="120"/>
-      <c r="D50" s="121"/>
+      <c r="B50" s="115"/>
+      <c r="C50" s="115"/>
+      <c r="D50" s="116"/>
       <c r="E50" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="52" spans="1:10" ht="13.5" customHeight="1" thickBot="1"/>
     <row r="53" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A53" s="101" t="s">
-        <v>387</v>
-      </c>
-      <c r="B53" s="102"/>
-      <c r="C53" s="102"/>
-      <c r="D53" s="103"/>
-      <c r="F53" s="101" t="s">
-        <v>387</v>
-      </c>
-      <c r="G53" s="102"/>
-      <c r="H53" s="102"/>
-      <c r="I53" s="103"/>
+      <c r="A53" s="100" t="s">
+        <v>386</v>
+      </c>
+      <c r="B53" s="101"/>
+      <c r="C53" s="101"/>
+      <c r="D53" s="102"/>
+      <c r="F53" s="100" t="s">
+        <v>386</v>
+      </c>
+      <c r="G53" s="101"/>
+      <c r="H53" s="101"/>
+      <c r="I53" s="102"/>
     </row>
     <row r="54" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A54" s="104" t="s">
+      <c r="A54" s="103" t="s">
+        <v>391</v>
+      </c>
+      <c r="B54" s="104"/>
+      <c r="C54" s="104"/>
+      <c r="D54" s="105"/>
+      <c r="F54" s="103" t="s">
         <v>392</v>
       </c>
-      <c r="B54" s="105"/>
-      <c r="C54" s="105"/>
-      <c r="D54" s="106"/>
-      <c r="F54" s="104" t="s">
-        <v>393</v>
-      </c>
-      <c r="G54" s="105"/>
-      <c r="H54" s="105"/>
-      <c r="I54" s="106"/>
+      <c r="G54" s="104"/>
+      <c r="H54" s="104"/>
+      <c r="I54" s="105"/>
     </row>
     <row r="55" spans="1:10" ht="13.5" customHeight="1">
       <c r="A55" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="B55" s="86" t="s">
+        <v>387</v>
+      </c>
+      <c r="C55" s="86" t="s">
         <v>389</v>
-      </c>
-      <c r="B55" s="86" t="s">
-        <v>388</v>
-      </c>
-      <c r="C55" s="86" t="s">
-        <v>390</v>
       </c>
       <c r="D55" s="86" t="s">
         <v>72</v>
       </c>
       <c r="E55" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F55" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="G55" s="87" t="s">
+        <v>387</v>
+      </c>
+      <c r="H55" s="87" t="s">
         <v>389</v>
-      </c>
-      <c r="G55" s="87" t="s">
-        <v>388</v>
-      </c>
-      <c r="H55" s="87" t="s">
-        <v>390</v>
       </c>
       <c r="I55" s="87" t="s">
         <v>72</v>
@@ -8564,13 +8572,13 @@
         <v>0</v>
       </c>
       <c r="H56" s="87" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I56" s="20" t="s">
         <v>13</v>
       </c>
       <c r="J56" s="97" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="13.5" customHeight="1"/>
@@ -8583,32 +8591,32 @@
     <row r="64" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="65" spans="1:10" ht="12.75" customHeight="1" thickBot="1"/>
     <row r="66" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A66" s="101" t="s">
-        <v>374</v>
-      </c>
-      <c r="B66" s="102"/>
-      <c r="C66" s="102"/>
-      <c r="D66" s="103"/>
-      <c r="F66" s="101" t="s">
-        <v>356</v>
-      </c>
-      <c r="G66" s="102"/>
-      <c r="H66" s="102"/>
-      <c r="I66" s="103"/>
+      <c r="A66" s="100" t="s">
+        <v>373</v>
+      </c>
+      <c r="B66" s="101"/>
+      <c r="C66" s="101"/>
+      <c r="D66" s="102"/>
+      <c r="F66" s="100" t="s">
+        <v>355</v>
+      </c>
+      <c r="G66" s="101"/>
+      <c r="H66" s="101"/>
+      <c r="I66" s="102"/>
     </row>
     <row r="67" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A67" s="104" t="s">
-        <v>354</v>
-      </c>
-      <c r="B67" s="105"/>
-      <c r="C67" s="105"/>
-      <c r="D67" s="106"/>
-      <c r="F67" s="119" t="s">
-        <v>361</v>
-      </c>
-      <c r="G67" s="120"/>
-      <c r="H67" s="120"/>
-      <c r="I67" s="121"/>
+      <c r="A67" s="103" t="s">
+        <v>353</v>
+      </c>
+      <c r="B67" s="104"/>
+      <c r="C67" s="104"/>
+      <c r="D67" s="105"/>
+      <c r="F67" s="114" t="s">
+        <v>360</v>
+      </c>
+      <c r="G67" s="115"/>
+      <c r="H67" s="115"/>
+      <c r="I67" s="116"/>
     </row>
     <row r="68" spans="1:10" ht="12.75" customHeight="1" thickBot="1">
       <c r="A68" s="8" t="s">
@@ -8618,51 +8626,51 @@
         <v>32</v>
       </c>
       <c r="C68" s="79" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D68" s="20" t="s">
         <v>13</v>
       </c>
       <c r="E68" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G68" s="85" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H68" s="82" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J68" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="14.25" thickBot="1">
       <c r="A69" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B69" s="78" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C69" s="78" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D69" s="20" t="s">
         <v>13</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G69" s="78" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H69" s="85" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I69" s="20" t="s">
         <v>13</v>
@@ -8670,25 +8678,25 @@
     </row>
     <row r="70" spans="1:10" ht="14.25" thickBot="1">
       <c r="A70" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B70" s="78" t="s">
         <v>32</v>
       </c>
       <c r="C70" s="78" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D70" s="20" t="s">
         <v>13</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G70" s="78" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H70" s="78" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I70" s="20" t="s">
         <v>13</v>
@@ -8702,7 +8710,7 @@
         <v>32</v>
       </c>
       <c r="H71" s="78" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I71" s="20" t="s">
         <v>13</v>
@@ -8716,46 +8724,46 @@
     </row>
     <row r="77" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="78" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A78" s="116" t="s">
-        <v>315</v>
-      </c>
-      <c r="B78" s="117"/>
-      <c r="C78" s="117"/>
-      <c r="D78" s="118"/>
-      <c r="F78" s="101" t="s">
+      <c r="A78" s="117" t="s">
+        <v>314</v>
+      </c>
+      <c r="B78" s="118"/>
+      <c r="C78" s="118"/>
+      <c r="D78" s="119"/>
+      <c r="F78" s="100" t="s">
         <v>234</v>
       </c>
-      <c r="G78" s="102"/>
-      <c r="H78" s="102"/>
-      <c r="I78" s="103"/>
+      <c r="G78" s="101"/>
+      <c r="H78" s="101"/>
+      <c r="I78" s="102"/>
     </row>
     <row r="79" spans="1:10">
-      <c r="A79" s="101" t="s">
+      <c r="A79" s="100" t="s">
         <v>232</v>
       </c>
-      <c r="B79" s="102"/>
-      <c r="C79" s="102"/>
-      <c r="D79" s="103"/>
+      <c r="B79" s="101"/>
+      <c r="C79" s="101"/>
+      <c r="D79" s="102"/>
       <c r="E79" t="s">
+        <v>489</v>
+      </c>
+      <c r="F79" s="103" t="s">
+        <v>235</v>
+      </c>
+      <c r="G79" s="104"/>
+      <c r="H79" s="104"/>
+      <c r="I79" s="105"/>
+      <c r="J79" t="s">
         <v>490</v>
       </c>
-      <c r="F79" s="104" t="s">
-        <v>235</v>
-      </c>
-      <c r="G79" s="105"/>
-      <c r="H79" s="105"/>
-      <c r="I79" s="106"/>
-      <c r="J79" t="s">
-        <v>491</v>
-      </c>
     </row>
     <row r="80" spans="1:10">
-      <c r="A80" s="104" t="s">
+      <c r="A80" s="103" t="s">
         <v>233</v>
       </c>
-      <c r="B80" s="105"/>
-      <c r="C80" s="105"/>
-      <c r="D80" s="106"/>
+      <c r="B80" s="104"/>
+      <c r="C80" s="104"/>
+      <c r="D80" s="105"/>
       <c r="F80" s="8" t="s">
         <v>237</v>
       </c>
@@ -8803,7 +8811,7 @@
     </row>
     <row r="83" spans="1:10">
       <c r="F83" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G83" s="76" t="s">
         <v>32</v>
@@ -8817,43 +8825,43 @@
     </row>
     <row r="85" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="86" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A86" s="116" t="s">
-        <v>395</v>
-      </c>
-      <c r="B86" s="117"/>
-      <c r="C86" s="117"/>
-      <c r="D86" s="118"/>
-      <c r="F86" s="116" t="s">
-        <v>395</v>
-      </c>
-      <c r="G86" s="117"/>
-      <c r="H86" s="117"/>
-      <c r="I86" s="118"/>
+      <c r="A86" s="117" t="s">
+        <v>394</v>
+      </c>
+      <c r="B86" s="118"/>
+      <c r="C86" s="118"/>
+      <c r="D86" s="119"/>
+      <c r="F86" s="117" t="s">
+        <v>394</v>
+      </c>
+      <c r="G86" s="118"/>
+      <c r="H86" s="118"/>
+      <c r="I86" s="119"/>
     </row>
     <row r="87" spans="1:10">
-      <c r="A87" s="101" t="s">
+      <c r="A87" s="100" t="s">
         <v>232</v>
       </c>
-      <c r="B87" s="102"/>
-      <c r="C87" s="102"/>
-      <c r="D87" s="103"/>
+      <c r="B87" s="101"/>
+      <c r="C87" s="101"/>
+      <c r="D87" s="102"/>
       <c r="E87" t="s">
-        <v>492</v>
-      </c>
-      <c r="F87" s="104" t="s">
+        <v>491</v>
+      </c>
+      <c r="F87" s="103" t="s">
         <v>235</v>
       </c>
-      <c r="G87" s="105"/>
-      <c r="H87" s="105"/>
-      <c r="I87" s="106"/>
+      <c r="G87" s="104"/>
+      <c r="H87" s="104"/>
+      <c r="I87" s="105"/>
     </row>
     <row r="88" spans="1:10">
-      <c r="A88" s="104" t="s">
+      <c r="A88" s="103" t="s">
         <v>233</v>
       </c>
-      <c r="B88" s="105"/>
-      <c r="C88" s="105"/>
-      <c r="D88" s="106"/>
+      <c r="B88" s="104"/>
+      <c r="C88" s="104"/>
+      <c r="D88" s="105"/>
       <c r="F88" s="8" t="s">
         <v>237</v>
       </c>
@@ -8867,7 +8875,7 @@
         <v>72</v>
       </c>
       <c r="J88" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -8904,7 +8912,7 @@
     </row>
     <row r="91" spans="1:10">
       <c r="F91" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G91" s="89" t="s">
         <v>32</v>
@@ -8921,14 +8929,14 @@
         <v>229</v>
       </c>
       <c r="F95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="96" spans="1:10">
-      <c r="A96" s="107" t="s">
+      <c r="A96" s="98" t="s">
         <v>249</v>
       </c>
-      <c r="B96" s="108"/>
+      <c r="B96" s="99"/>
       <c r="E96" s="21" t="s">
         <v>227</v>
       </c>
@@ -8957,7 +8965,7 @@
         <v>266</v>
       </c>
       <c r="H97" s="33" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="L97" s="65"/>
       <c r="M97" s="66"/>
@@ -8981,10 +8989,10 @@
         <v>6</v>
       </c>
       <c r="G98" s="32" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H98" s="33" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="L98" s="65"/>
       <c r="M98" s="66"/>
@@ -9115,10 +9123,10 @@
         <v>205</v>
       </c>
       <c r="G104" s="32" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H104" s="57" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="L104" s="65"/>
       <c r="M104" s="66"/>
@@ -9132,16 +9140,16 @@
     </row>
     <row r="105" spans="1:20">
       <c r="E105" s="59" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F105" s="58">
         <v>206</v>
       </c>
       <c r="G105" s="32" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H105" s="57" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="L105" s="65"/>
       <c r="M105" s="74">
@@ -9191,7 +9199,9 @@
       </c>
     </row>
     <row r="108" spans="1:20" ht="27">
-      <c r="E108" s="59"/>
+      <c r="E108" s="59" t="s">
+        <v>505</v>
+      </c>
       <c r="F108" s="58">
         <v>213</v>
       </c>
@@ -9203,7 +9213,9 @@
       </c>
     </row>
     <row r="109" spans="1:20" ht="27">
-      <c r="E109" s="59"/>
+      <c r="E109" s="59" t="s">
+        <v>506</v>
+      </c>
       <c r="F109" s="58">
         <v>214</v>
       </c>
@@ -9228,13 +9240,13 @@
     </row>
     <row r="111" spans="1:20" ht="27">
       <c r="E111" s="59" t="s">
-        <v>281</v>
+        <v>504</v>
       </c>
       <c r="F111" s="58">
         <v>220</v>
       </c>
       <c r="G111" s="84" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H111" s="57" t="s">
         <v>274</v>
@@ -9242,13 +9254,13 @@
     </row>
     <row r="112" spans="1:20" ht="40.5">
       <c r="E112" s="59" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F112" s="58">
         <v>230</v>
       </c>
       <c r="G112" s="84" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H112" s="57" t="s">
         <v>277</v>
@@ -9262,7 +9274,7 @@
         <v>240</v>
       </c>
       <c r="G113" s="84" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H113" s="57" t="s">
         <v>275</v>
@@ -9274,7 +9286,7 @@
         <v>250</v>
       </c>
       <c r="G114" s="84" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H114" s="57" t="s">
         <v>276</v>
@@ -9302,6 +9314,31 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="F67:I67"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A79:D79"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="F78:I78"/>
+    <mergeCell ref="F79:I79"/>
+    <mergeCell ref="A87:D87"/>
+    <mergeCell ref="F87:I87"/>
+    <mergeCell ref="A88:D88"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="F33:I33"/>
     <mergeCell ref="A47:D47"/>
     <mergeCell ref="F44:I44"/>
     <mergeCell ref="F43:I43"/>
@@ -9318,31 +9355,6 @@
     <mergeCell ref="A66:D66"/>
     <mergeCell ref="A67:D67"/>
     <mergeCell ref="F66:I66"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F67:I67"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="A79:D79"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="F78:I78"/>
-    <mergeCell ref="F79:I79"/>
-    <mergeCell ref="A87:D87"/>
-    <mergeCell ref="F87:I87"/>
-    <mergeCell ref="A88:D88"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -9367,8 +9379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9379,82 +9391,82 @@
   <sheetData>
     <row r="1" spans="1:2" ht="40.5">
       <c r="A1" s="80" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B1" s="81" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="81">
       <c r="A2" s="80" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B2" s="81" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="40.5">
       <c r="A3" s="80" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B3" s="81" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="94.5">
       <c r="A4" s="80" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B4" s="81" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="54">
       <c r="A5" s="80" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B5" s="81" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="67.5">
       <c r="A6" s="80" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B6" s="81" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="27">
       <c r="A7" s="80" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B7" s="81" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="67.5">
       <c r="A8" s="80" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B8" s="81" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="27">
       <c r="A9" s="80" t="s">
+        <v>358</v>
+      </c>
+      <c r="B9" s="81" t="s">
         <v>359</v>
-      </c>
-      <c r="B9" s="81" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="40.5">
       <c r="A10" s="80" t="s">
+        <v>370</v>
+      </c>
+      <c r="B10" s="81" t="s">
         <v>371</v>
-      </c>
-      <c r="B10" s="81" t="s">
-        <v>372</v>
       </c>
     </row>
   </sheetData>
@@ -9475,44 +9487,44 @@
   <sheetData>
     <row r="10" spans="2:14" ht="14.25" thickBot="1"/>
     <row r="11" spans="2:14">
-      <c r="B11" s="101" t="s">
-        <v>382</v>
-      </c>
-      <c r="C11" s="102"/>
-      <c r="D11" s="102"/>
-      <c r="E11" s="103"/>
+      <c r="B11" s="100" t="s">
+        <v>381</v>
+      </c>
+      <c r="C11" s="101"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="102"/>
       <c r="F11" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="14.25" thickBot="1"/>
     <row r="13" spans="2:14">
-      <c r="B13" s="101" t="s">
-        <v>383</v>
-      </c>
-      <c r="C13" s="102"/>
-      <c r="D13" s="102"/>
-      <c r="E13" s="103"/>
-      <c r="J13" s="101" t="s">
-        <v>383</v>
-      </c>
-      <c r="K13" s="102"/>
-      <c r="L13" s="102"/>
-      <c r="M13" s="103"/>
+      <c r="B13" s="100" t="s">
+        <v>382</v>
+      </c>
+      <c r="C13" s="101"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="102"/>
+      <c r="J13" s="100" t="s">
+        <v>382</v>
+      </c>
+      <c r="K13" s="101"/>
+      <c r="L13" s="101"/>
+      <c r="M13" s="102"/>
     </row>
     <row r="14" spans="2:14">
-      <c r="B14" s="104" t="s">
-        <v>381</v>
-      </c>
-      <c r="C14" s="105"/>
-      <c r="D14" s="105"/>
-      <c r="E14" s="106"/>
-      <c r="J14" s="104" t="s">
-        <v>381</v>
-      </c>
-      <c r="K14" s="105"/>
-      <c r="L14" s="105"/>
-      <c r="M14" s="106"/>
+      <c r="B14" s="103" t="s">
+        <v>380</v>
+      </c>
+      <c r="C14" s="104"/>
+      <c r="D14" s="104"/>
+      <c r="E14" s="105"/>
+      <c r="J14" s="103" t="s">
+        <v>380</v>
+      </c>
+      <c r="K14" s="104"/>
+      <c r="L14" s="104"/>
+      <c r="M14" s="105"/>
     </row>
     <row r="15" spans="2:14" ht="14.25" thickBot="1">
       <c r="B15" s="8" t="s">
@@ -9525,25 +9537,25 @@
         <v>122</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F15" s="94" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K15" s="85" t="s">
         <v>0</v>
       </c>
       <c r="L15" s="85" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="M15" s="20" t="s">
         <v>13</v>
       </c>
       <c r="N15" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
   </sheetData>
@@ -9563,8 +9575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:I63"/>
   <sheetViews>
-    <sheetView topLeftCell="D13" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView topLeftCell="B70" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9581,229 +9593,229 @@
   <sheetData>
     <row r="1" spans="2:9">
       <c r="C1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="2" spans="2:9">
       <c r="B2" s="96" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="3" spans="2:9">
-      <c r="B3" s="104" t="s">
-        <v>461</v>
-      </c>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="G3" s="104" t="s">
-        <v>434</v>
-      </c>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
+      <c r="B3" s="103" t="s">
+        <v>460</v>
+      </c>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="G3" s="103" t="s">
+        <v>433</v>
+      </c>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="8" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C4" s="92" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D4" s="92" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H4" s="92" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I4" s="92" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C5" s="92" t="s">
         <v>172</v>
       </c>
       <c r="D5" s="92" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E5" s="94" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F5" s="94" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G5" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="H5" s="92" t="s">
+        <v>300</v>
+      </c>
+      <c r="I5" s="92" t="s">
         <v>404</v>
-      </c>
-      <c r="H5" s="92" t="s">
-        <v>301</v>
-      </c>
-      <c r="I5" s="92" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C6" s="92" t="s">
         <v>32</v>
       </c>
       <c r="D6" s="92" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H6" s="92" t="s">
         <v>32</v>
       </c>
       <c r="I6" s="92" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="8" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C7" s="92" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="92" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H7" s="92" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I7" s="92" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="8" spans="2:9">
       <c r="G8" s="8" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H8" s="92" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I8" s="92" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="9" spans="2:9">
       <c r="G9" s="8" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H9" s="92" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I9" s="92" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="10" spans="2:9">
       <c r="G10" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="H10" s="92" t="s">
+        <v>424</v>
+      </c>
+      <c r="I10" s="92" t="s">
         <v>426</v>
       </c>
-      <c r="H10" s="92" t="s">
-        <v>425</v>
-      </c>
-      <c r="I10" s="92" t="s">
+    </row>
+    <row r="14" spans="2:9">
+      <c r="G14" s="103" t="s">
+        <v>410</v>
+      </c>
+      <c r="H14" s="104"/>
+      <c r="I14" s="104"/>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" s="103" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="14" spans="2:9">
-      <c r="G14" s="104" t="s">
-        <v>411</v>
-      </c>
-      <c r="H14" s="105"/>
-      <c r="I14" s="105"/>
-    </row>
-    <row r="15" spans="2:9">
-      <c r="B15" s="104" t="s">
-        <v>428</v>
-      </c>
-      <c r="C15" s="105"/>
-      <c r="D15" s="105"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="104"/>
       <c r="G15" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="H15" s="92" t="s">
         <v>417</v>
       </c>
-      <c r="H15" s="92" t="s">
+      <c r="I15" s="92" t="s">
         <v>418</v>
-      </c>
-      <c r="I15" s="92" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="16" spans="2:9">
       <c r="B16" s="8" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C16" s="92" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D16" s="92" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H16" s="92" t="s">
         <v>32</v>
       </c>
       <c r="I16" s="92" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="8" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C17" s="92" t="s">
         <v>32</v>
       </c>
       <c r="D17" s="92" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H17" s="92" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I17" s="92" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="8" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C18" s="92" t="s">
         <v>32</v>
       </c>
       <c r="D18" s="92" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H18" s="92" t="s">
         <v>32</v>
       </c>
       <c r="I18" s="92" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="19" spans="2:9">
@@ -9814,36 +9826,36 @@
         <v>32</v>
       </c>
       <c r="D19" s="92" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H19" s="92" t="s">
+        <v>408</v>
+      </c>
+      <c r="I19" s="92" t="s">
         <v>409</v>
-      </c>
-      <c r="I19" s="92" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="20" spans="2:9">
       <c r="B20" s="8" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C20" s="92" t="s">
         <v>32</v>
       </c>
       <c r="D20" s="92" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H20" s="92" t="s">
+        <v>408</v>
+      </c>
+      <c r="I20" s="92" t="s">
         <v>409</v>
-      </c>
-      <c r="I20" s="92" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="21" spans="2:9">
@@ -9853,56 +9865,56 @@
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="96" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="104" t="s">
-        <v>444</v>
-      </c>
-      <c r="C25" s="105"/>
-      <c r="D25" s="105"/>
+      <c r="B25" s="103" t="s">
+        <v>443</v>
+      </c>
+      <c r="C25" s="104"/>
+      <c r="D25" s="104"/>
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="8" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C26" s="92" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D26" s="92" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="27" spans="2:9">
       <c r="B27" s="8" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C27" s="92" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D27" s="92" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E27" s="94" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="28" spans="2:9">
       <c r="B28" s="8" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C28" s="92" t="s">
+        <v>440</v>
+      </c>
+      <c r="D28" s="92" t="s">
         <v>441</v>
       </c>
-      <c r="D28" s="92" t="s">
-        <v>442</v>
-      </c>
-      <c r="G28" s="104" t="s">
-        <v>450</v>
-      </c>
-      <c r="H28" s="105"/>
-      <c r="I28" s="105"/>
+      <c r="G28" s="103" t="s">
+        <v>449</v>
+      </c>
+      <c r="H28" s="104"/>
+      <c r="I28" s="104"/>
     </row>
     <row r="29" spans="2:9">
       <c r="B29" s="8"/>
@@ -9915,76 +9927,76 @@
         <v>32</v>
       </c>
       <c r="I29" s="92" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="30" spans="2:9">
       <c r="G30" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H30" s="92" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I30" s="92" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="31" spans="2:9">
       <c r="G31" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="H31" s="92" t="s">
+        <v>300</v>
+      </c>
+      <c r="I31" s="92" t="s">
         <v>451</v>
-      </c>
-      <c r="H31" s="92" t="s">
-        <v>301</v>
-      </c>
-      <c r="I31" s="92" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="32" spans="2:9">
       <c r="B32" s="96" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G32" s="8"/>
       <c r="H32" s="92"/>
       <c r="I32" s="92"/>
     </row>
     <row r="33" spans="2:9">
-      <c r="B33" s="104" t="s">
-        <v>447</v>
-      </c>
-      <c r="C33" s="105"/>
-      <c r="D33" s="105"/>
+      <c r="B33" s="103" t="s">
+        <v>446</v>
+      </c>
+      <c r="C33" s="104"/>
+      <c r="D33" s="104"/>
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="8" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C34" s="92" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D34" s="92"/>
     </row>
     <row r="35" spans="2:9">
       <c r="B35" s="8" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C35" s="92" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D35" s="92"/>
       <c r="E35" s="94" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="36" spans="2:9">
       <c r="B36" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C36" s="92" t="s">
+        <v>440</v>
+      </c>
+      <c r="D36" s="92" t="s">
         <v>441</v>
-      </c>
-      <c r="D36" s="92" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="37" spans="2:9">
@@ -9993,165 +10005,165 @@
       <c r="D37" s="92"/>
     </row>
     <row r="40" spans="2:9">
-      <c r="G40" s="104" t="s">
-        <v>453</v>
-      </c>
-      <c r="H40" s="105"/>
-      <c r="I40" s="105"/>
+      <c r="G40" s="103" t="s">
+        <v>452</v>
+      </c>
+      <c r="H40" s="104"/>
+      <c r="I40" s="104"/>
     </row>
     <row r="41" spans="2:9">
       <c r="G41" s="8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H41" s="92" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I41" s="95" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="42" spans="2:9">
       <c r="G42" s="8" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H42" s="92" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I42" s="92" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="43" spans="2:9">
       <c r="G43" s="8" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H43" s="92" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I43" s="92" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="44" spans="2:9">
       <c r="G44" s="8" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H44" s="92" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I44" s="92" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="48" spans="2:9">
       <c r="B48" s="96" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="49" spans="2:6">
-      <c r="B49" s="104" t="s">
-        <v>472</v>
-      </c>
-      <c r="C49" s="105"/>
-      <c r="D49" s="105"/>
+      <c r="B49" s="103" t="s">
+        <v>471</v>
+      </c>
+      <c r="C49" s="104"/>
+      <c r="D49" s="104"/>
     </row>
     <row r="50" spans="2:6">
       <c r="B50" s="8" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C50" s="92" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D50" s="92"/>
       <c r="F50" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="51" spans="2:6">
       <c r="B51" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C51" s="92" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D51" s="92"/>
       <c r="E51" s="94" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F51" s="94" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="52" spans="2:6">
       <c r="B52" s="8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C52" s="92" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D52" s="93" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="53" spans="2:6">
       <c r="B53" s="8" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C53" s="92" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D53" s="92"/>
     </row>
     <row r="58" spans="2:6">
       <c r="B58" s="96" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="59" spans="2:6">
-      <c r="B59" s="104" t="s">
-        <v>477</v>
-      </c>
-      <c r="C59" s="105"/>
-      <c r="D59" s="105"/>
+      <c r="B59" s="103" t="s">
+        <v>476</v>
+      </c>
+      <c r="C59" s="104"/>
+      <c r="D59" s="104"/>
     </row>
     <row r="60" spans="2:6">
       <c r="B60" s="8" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C60" s="93" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D60" s="93"/>
     </row>
     <row r="61" spans="2:6">
       <c r="B61" s="8" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C61" s="93" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D61" s="93"/>
       <c r="E61" s="94" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="62" spans="2:6">
       <c r="B62" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C62" s="93" t="s">
+        <v>440</v>
+      </c>
+      <c r="D62" s="93" t="s">
         <v>441</v>
-      </c>
-      <c r="D62" s="93" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="63" spans="2:6">
       <c r="B63" s="8" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C63" s="93" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D63" s="93"/>
     </row>

--- a/doc/最新接口_拟定.xlsx
+++ b/doc/最新接口_拟定.xlsx
@@ -1107,7 +1107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="508">
   <si>
     <t>int</t>
   </si>
@@ -3165,6 +3165,10 @@
   </si>
   <si>
     <t>dval:0;Dlist:碰的内容（可以不穿）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NetLoginConfirm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7973,8 +7977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:T117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D103" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E109" sqref="E109"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E22" sqref="A16:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9379,8 +9383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9480,7 +9484,7 @@
   <dimension ref="B10:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="N20" sqref="B9:N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9514,7 +9518,7 @@
     </row>
     <row r="14" spans="2:14">
       <c r="B14" s="103" t="s">
-        <v>380</v>
+        <v>507</v>
       </c>
       <c r="C14" s="104"/>
       <c r="D14" s="104"/>

--- a/doc/最新接口_拟定.xlsx
+++ b/doc/最新接口_拟定.xlsx
@@ -3948,11 +3948,14 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3972,6 +3975,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3981,19 +3990,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4005,23 +4020,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4340,32 +4340,32 @@
   <sheetData>
     <row r="3" spans="2:16" ht="14.25" thickBot="1"/>
     <row r="4" spans="2:16">
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="101" t="s">
         <v>232</v>
       </c>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="102"/>
-      <c r="I4" s="100" t="s">
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="103"/>
+      <c r="I4" s="101" t="s">
         <v>234</v>
       </c>
-      <c r="J4" s="101"/>
-      <c r="K4" s="101"/>
-      <c r="L4" s="102"/>
+      <c r="J4" s="102"/>
+      <c r="K4" s="102"/>
+      <c r="L4" s="103"/>
     </row>
     <row r="5" spans="2:16">
-      <c r="B5" s="103" t="s">
+      <c r="B5" s="104" t="s">
         <v>233</v>
       </c>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="105"/>
-      <c r="I5" s="103" t="s">
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="106"/>
+      <c r="I5" s="104" t="s">
         <v>494</v>
       </c>
-      <c r="J5" s="104"/>
-      <c r="K5" s="104"/>
-      <c r="L5" s="105"/>
+      <c r="J5" s="105"/>
+      <c r="K5" s="105"/>
+      <c r="L5" s="106"/>
     </row>
     <row r="6" spans="2:16">
       <c r="B6" s="8"/>
@@ -4429,21 +4429,21 @@
     </row>
     <row r="11" spans="2:16" ht="14.25" customHeight="1"/>
     <row r="14" spans="2:16" ht="14.25" thickBot="1">
-      <c r="I14" s="109" t="s">
+      <c r="I14" s="98" t="s">
         <v>54</v>
       </c>
-      <c r="J14" s="110"/>
-      <c r="K14" s="110"/>
-      <c r="L14" s="110"/>
-      <c r="M14" s="111"/>
+      <c r="J14" s="99"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="99"/>
+      <c r="M14" s="100"/>
     </row>
     <row r="15" spans="2:16">
-      <c r="B15" s="100" t="s">
+      <c r="B15" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="101"/>
-      <c r="D15" s="101"/>
-      <c r="E15" s="102"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="103"/>
       <c r="I15" s="21" t="s">
         <v>34</v>
       </c>
@@ -4458,18 +4458,18 @@
         <v>34</v>
       </c>
       <c r="N15" s="3"/>
-      <c r="O15" s="98" t="s">
+      <c r="O15" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="P15" s="99"/>
+      <c r="P15" s="108"/>
     </row>
     <row r="16" spans="2:16">
-      <c r="B16" s="103" t="s">
+      <c r="B16" s="104" t="s">
         <v>233</v>
       </c>
-      <c r="C16" s="104"/>
-      <c r="D16" s="104"/>
-      <c r="E16" s="105"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="106"/>
       <c r="I16" s="33"/>
       <c r="J16" s="30"/>
       <c r="K16" s="31">
@@ -4967,12 +4967,12 @@
       <c r="P37" s="23"/>
     </row>
     <row r="38" spans="2:16">
-      <c r="B38" s="106" t="s">
+      <c r="B38" s="109" t="s">
         <v>262</v>
       </c>
-      <c r="C38" s="107"/>
-      <c r="D38" s="107"/>
-      <c r="E38" s="108"/>
+      <c r="C38" s="110"/>
+      <c r="D38" s="110"/>
+      <c r="E38" s="111"/>
       <c r="I38" s="33" t="s">
         <v>117</v>
       </c>
@@ -5054,18 +5054,18 @@
     <row r="42" spans="2:16" ht="22.5" customHeight="1"/>
     <row r="43" spans="2:16" ht="31.5" customHeight="1"/>
     <row r="44" spans="2:16">
-      <c r="H44" s="98" t="s">
+      <c r="H44" s="107" t="s">
         <v>247</v>
       </c>
-      <c r="I44" s="99"/>
-      <c r="J44" s="98" t="s">
+      <c r="I44" s="108"/>
+      <c r="J44" s="107" t="s">
         <v>116</v>
       </c>
-      <c r="K44" s="99"/>
-      <c r="L44" s="98" t="s">
+      <c r="K44" s="108"/>
+      <c r="L44" s="107" t="s">
         <v>77</v>
       </c>
-      <c r="M44" s="99"/>
+      <c r="M44" s="108"/>
     </row>
     <row r="45" spans="2:16">
       <c r="H45" s="22">
@@ -5181,11 +5181,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="I14:M14"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="I5:L5"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="J44:K44"/>
     <mergeCell ref="L44:M44"/>
@@ -5193,6 +5188,11 @@
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="H44:I44"/>
     <mergeCell ref="B38:E38"/>
+    <mergeCell ref="I14:M14"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="I5:L5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5386,11 +5386,11 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="4"/>
-      <c r="B10" s="117" t="s">
+      <c r="B10" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="118"/>
-      <c r="D10" s="119"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="118"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -5399,11 +5399,11 @@
       <c r="J10" s="4"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="117" t="s">
+      <c r="M10" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="N10" s="118"/>
-      <c r="O10" s="119"/>
+      <c r="N10" s="117"/>
+      <c r="O10" s="118"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -5413,11 +5413,11 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="4"/>
-      <c r="B11" s="114" t="s">
+      <c r="B11" s="119" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="115"/>
-      <c r="D11" s="116"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="121"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -5426,11 +5426,11 @@
       <c r="J11" s="4"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="114" t="s">
+      <c r="M11" s="119" t="s">
         <v>27</v>
       </c>
-      <c r="N11" s="115"/>
-      <c r="O11" s="116"/>
+      <c r="N11" s="120"/>
+      <c r="O11" s="121"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -5551,11 +5551,11 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="4"/>
-      <c r="B17" s="117" t="s">
+      <c r="B17" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="118"/>
-      <c r="D17" s="119"/>
+      <c r="C17" s="117"/>
+      <c r="D17" s="118"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -5564,11 +5564,11 @@
       <c r="J17" s="4"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="117" t="s">
+      <c r="M17" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="N17" s="118"/>
-      <c r="O17" s="119"/>
+      <c r="N17" s="117"/>
+      <c r="O17" s="118"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -5577,11 +5577,11 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="4"/>
-      <c r="B18" s="114" t="s">
+      <c r="B18" s="119" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="115"/>
-      <c r="D18" s="116"/>
+      <c r="C18" s="120"/>
+      <c r="D18" s="121"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -5590,11 +5590,11 @@
       <c r="J18" s="4"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="114" t="s">
+      <c r="M18" s="119" t="s">
         <v>129</v>
       </c>
-      <c r="N18" s="115"/>
-      <c r="O18" s="116"/>
+      <c r="N18" s="120"/>
+      <c r="O18" s="121"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -5634,9 +5634,9 @@
     </row>
     <row r="20" spans="1:21" ht="41.25" thickBot="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="117"/>
-      <c r="C20" s="118"/>
-      <c r="D20" s="119"/>
+      <c r="B20" s="116"/>
+      <c r="C20" s="117"/>
+      <c r="D20" s="118"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -5665,11 +5665,11 @@
     </row>
     <row r="21" spans="1:21" ht="14.25" thickBot="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="114" t="s">
+      <c r="B21" s="119" t="s">
         <v>129</v>
       </c>
-      <c r="C21" s="115"/>
-      <c r="D21" s="116"/>
+      <c r="C21" s="120"/>
+      <c r="D21" s="121"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -5736,11 +5736,11 @@
       <c r="J23" s="4"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="117" t="s">
+      <c r="M23" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="N23" s="118"/>
-      <c r="O23" s="119"/>
+      <c r="N23" s="117"/>
+      <c r="O23" s="118"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
@@ -5761,11 +5761,11 @@
       <c r="J24" s="4"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-      <c r="M24" s="114" t="s">
+      <c r="M24" s="119" t="s">
         <v>69</v>
       </c>
-      <c r="N24" s="115"/>
-      <c r="O24" s="116"/>
+      <c r="N24" s="120"/>
+      <c r="O24" s="121"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
@@ -5898,11 +5898,11 @@
       <c r="J29" s="4"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
-      <c r="M29" s="117" t="s">
+      <c r="M29" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="N29" s="118"/>
-      <c r="O29" s="119"/>
+      <c r="N29" s="117"/>
+      <c r="O29" s="118"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
@@ -5923,11 +5923,11 @@
       <c r="J30" s="4"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="114" t="s">
+      <c r="M30" s="119" t="s">
         <v>69</v>
       </c>
-      <c r="N30" s="115"/>
-      <c r="O30" s="116"/>
+      <c r="N30" s="120"/>
+      <c r="O30" s="121"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
@@ -6083,11 +6083,11 @@
       <c r="J36" s="4"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
-      <c r="M36" s="117" t="s">
+      <c r="M36" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="N36" s="118"/>
-      <c r="O36" s="119"/>
+      <c r="N36" s="117"/>
+      <c r="O36" s="118"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
@@ -6108,11 +6108,11 @@
       <c r="J37" s="4"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
-      <c r="M37" s="114" t="s">
+      <c r="M37" s="119" t="s">
         <v>69</v>
       </c>
-      <c r="N37" s="115"/>
-      <c r="O37" s="116"/>
+      <c r="N37" s="120"/>
+      <c r="O37" s="121"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
@@ -6291,14 +6291,14 @@
       <c r="J44" s="4"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
-      <c r="M44" s="117" t="s">
+      <c r="M44" s="116" t="s">
         <v>16</v>
       </c>
-      <c r="N44" s="118"/>
-      <c r="O44" s="118"/>
-      <c r="P44" s="118"/>
-      <c r="Q44" s="118"/>
-      <c r="R44" s="119"/>
+      <c r="N44" s="117"/>
+      <c r="O44" s="117"/>
+      <c r="P44" s="117"/>
+      <c r="Q44" s="117"/>
+      <c r="R44" s="118"/>
       <c r="S44" s="2"/>
       <c r="T44" s="3"/>
       <c r="U44" s="3"/>
@@ -6316,14 +6316,14 @@
       <c r="J45" s="4"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
-      <c r="M45" s="114" t="s">
+      <c r="M45" s="119" t="s">
         <v>278</v>
       </c>
-      <c r="N45" s="115"/>
-      <c r="O45" s="115"/>
-      <c r="P45" s="115"/>
-      <c r="Q45" s="115"/>
-      <c r="R45" s="116"/>
+      <c r="N45" s="120"/>
+      <c r="O45" s="120"/>
+      <c r="P45" s="120"/>
+      <c r="Q45" s="120"/>
+      <c r="R45" s="121"/>
       <c r="S45" s="2"/>
       <c r="T45" s="3"/>
       <c r="U45" s="3"/>
@@ -6350,11 +6350,11 @@
       <c r="O46" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="P46" s="120" t="s">
+      <c r="P46" s="122" t="s">
         <v>130</v>
       </c>
-      <c r="Q46" s="120"/>
-      <c r="R46" s="121"/>
+      <c r="Q46" s="122"/>
+      <c r="R46" s="123"/>
       <c r="S46" s="2"/>
       <c r="T46" s="3"/>
       <c r="U46" s="3"/>
@@ -6381,22 +6381,22 @@
       <c r="O47" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="P47" s="120" t="s">
+      <c r="P47" s="122" t="s">
         <v>149</v>
       </c>
-      <c r="Q47" s="120"/>
-      <c r="R47" s="121"/>
+      <c r="Q47" s="122"/>
+      <c r="R47" s="123"/>
       <c r="S47" s="2"/>
       <c r="T47" s="3"/>
       <c r="U47" s="3"/>
     </row>
     <row r="48" spans="1:21">
       <c r="A48" s="1"/>
-      <c r="B48" s="117" t="s">
+      <c r="B48" s="116" t="s">
         <v>114</v>
       </c>
-      <c r="C48" s="118"/>
-      <c r="D48" s="119"/>
+      <c r="C48" s="117"/>
+      <c r="D48" s="118"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -6414,22 +6414,22 @@
       <c r="O48" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P48" s="120" t="s">
+      <c r="P48" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="Q48" s="120"/>
-      <c r="R48" s="121"/>
+      <c r="Q48" s="122"/>
+      <c r="R48" s="123"/>
       <c r="S48" s="2"/>
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
     </row>
     <row r="49" spans="1:21">
       <c r="A49" s="1"/>
-      <c r="B49" s="114" t="s">
+      <c r="B49" s="119" t="s">
         <v>112</v>
       </c>
-      <c r="C49" s="115"/>
-      <c r="D49" s="116"/>
+      <c r="C49" s="120"/>
+      <c r="D49" s="121"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -6486,11 +6486,11 @@
       <c r="O50" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P50" s="120" t="s">
+      <c r="P50" s="122" t="s">
         <v>18</v>
       </c>
-      <c r="Q50" s="120"/>
-      <c r="R50" s="121"/>
+      <c r="Q50" s="122"/>
+      <c r="R50" s="123"/>
       <c r="S50" s="2"/>
       <c r="T50" s="3"/>
       <c r="U50" s="3"/>
@@ -6517,11 +6517,11 @@
       <c r="O51" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="P51" s="120" t="s">
+      <c r="P51" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="Q51" s="120"/>
-      <c r="R51" s="121"/>
+      <c r="Q51" s="122"/>
+      <c r="R51" s="123"/>
       <c r="S51" s="2"/>
       <c r="T51" s="3"/>
       <c r="U51" s="3"/>
@@ -6579,11 +6579,11 @@
       <c r="O53" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="P53" s="120" t="s">
+      <c r="P53" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="Q53" s="120"/>
-      <c r="R53" s="121"/>
+      <c r="Q53" s="122"/>
+      <c r="R53" s="123"/>
       <c r="S53" s="2"/>
       <c r="T53" s="3"/>
       <c r="U53" s="3"/>
@@ -6748,13 +6748,13 @@
       <c r="J59" s="4"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
-      <c r="M59" s="117" t="s">
+      <c r="M59" s="116" t="s">
         <v>136</v>
       </c>
-      <c r="N59" s="118"/>
-      <c r="O59" s="118"/>
-      <c r="P59" s="118"/>
-      <c r="Q59" s="119"/>
+      <c r="N59" s="117"/>
+      <c r="O59" s="117"/>
+      <c r="P59" s="117"/>
+      <c r="Q59" s="118"/>
       <c r="R59" s="1"/>
       <c r="S59" s="2"/>
       <c r="T59" s="3"/>
@@ -6782,10 +6782,10 @@
       <c r="O60" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="P60" s="112" t="s">
+      <c r="P60" s="114" t="s">
         <v>137</v>
       </c>
-      <c r="Q60" s="113"/>
+      <c r="Q60" s="115"/>
       <c r="R60" s="1"/>
       <c r="S60" s="2"/>
       <c r="T60" s="3"/>
@@ -6813,10 +6813,10 @@
       <c r="O61" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="P61" s="112" t="s">
+      <c r="P61" s="114" t="s">
         <v>140</v>
       </c>
-      <c r="Q61" s="113"/>
+      <c r="Q61" s="115"/>
       <c r="R61" s="1"/>
       <c r="S61" s="2"/>
       <c r="T61" s="3"/>
@@ -6844,10 +6844,10 @@
       <c r="O62" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="P62" s="112" t="s">
+      <c r="P62" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="Q62" s="113"/>
+      <c r="Q62" s="115"/>
       <c r="R62" s="1"/>
       <c r="S62" s="2"/>
       <c r="T62" s="3"/>
@@ -6875,10 +6875,10 @@
       <c r="O63" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P63" s="122" t="s">
+      <c r="P63" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="Q63" s="123"/>
+      <c r="Q63" s="113"/>
       <c r="R63" s="1"/>
       <c r="S63" s="2"/>
       <c r="T63" s="3"/>
@@ -6906,10 +6906,10 @@
       <c r="O64" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P64" s="112" t="s">
+      <c r="P64" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="Q64" s="113"/>
+      <c r="Q64" s="115"/>
       <c r="R64" s="1"/>
       <c r="S64" s="2"/>
       <c r="T64" s="3"/>
@@ -6937,10 +6937,10 @@
       <c r="O65" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="P65" s="112" t="s">
+      <c r="P65" s="114" t="s">
         <v>60</v>
       </c>
-      <c r="Q65" s="113"/>
+      <c r="Q65" s="115"/>
       <c r="R65" s="1"/>
       <c r="S65" s="2"/>
       <c r="T65" s="3"/>
@@ -6968,10 +6968,10 @@
       <c r="O66" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P66" s="112" t="s">
+      <c r="P66" s="114" t="s">
         <v>218</v>
       </c>
-      <c r="Q66" s="113"/>
+      <c r="Q66" s="115"/>
       <c r="R66" s="1"/>
       <c r="S66" s="2"/>
       <c r="T66" s="3"/>
@@ -6999,10 +6999,10 @@
       <c r="O67" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P67" s="112" t="s">
+      <c r="P67" s="114" t="s">
         <v>217</v>
       </c>
-      <c r="Q67" s="113"/>
+      <c r="Q67" s="115"/>
       <c r="R67" s="1"/>
       <c r="S67" s="1"/>
       <c r="T67" s="3"/>
@@ -7044,13 +7044,13 @@
       <c r="J69" s="4"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
-      <c r="M69" s="117" t="s">
+      <c r="M69" s="116" t="s">
         <v>176</v>
       </c>
-      <c r="N69" s="118"/>
-      <c r="O69" s="118"/>
-      <c r="P69" s="118"/>
-      <c r="Q69" s="119"/>
+      <c r="N69" s="117"/>
+      <c r="O69" s="117"/>
+      <c r="P69" s="117"/>
+      <c r="Q69" s="118"/>
       <c r="R69" s="1"/>
       <c r="S69" s="1"/>
       <c r="T69" s="3"/>
@@ -7069,13 +7069,13 @@
       <c r="J70" s="4"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
-      <c r="M70" s="117" t="s">
+      <c r="M70" s="116" t="s">
         <v>177</v>
       </c>
-      <c r="N70" s="118"/>
-      <c r="O70" s="118"/>
-      <c r="P70" s="118"/>
-      <c r="Q70" s="119"/>
+      <c r="N70" s="117"/>
+      <c r="O70" s="117"/>
+      <c r="P70" s="117"/>
+      <c r="Q70" s="118"/>
       <c r="R70" s="1"/>
       <c r="S70" s="1"/>
       <c r="T70" s="3"/>
@@ -7103,10 +7103,10 @@
       <c r="O71" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="P71" s="122" t="s">
+      <c r="P71" s="112" t="s">
         <v>201</v>
       </c>
-      <c r="Q71" s="123"/>
+      <c r="Q71" s="113"/>
       <c r="R71" s="1"/>
       <c r="S71" s="1"/>
       <c r="T71" s="3"/>
@@ -7134,10 +7134,10 @@
       <c r="O72" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="P72" s="122" t="s">
+      <c r="P72" s="112" t="s">
         <v>193</v>
       </c>
-      <c r="Q72" s="123"/>
+      <c r="Q72" s="113"/>
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
       <c r="T72" s="3"/>
@@ -7165,10 +7165,10 @@
       <c r="O73" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="P73" s="122" t="s">
+      <c r="P73" s="112" t="s">
         <v>190</v>
       </c>
-      <c r="Q73" s="123"/>
+      <c r="Q73" s="113"/>
       <c r="R73" s="1"/>
       <c r="S73" s="1"/>
       <c r="T73" s="3"/>
@@ -7225,10 +7225,10 @@
       <c r="O75" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P75" s="112" t="s">
+      <c r="P75" s="114" t="s">
         <v>219</v>
       </c>
-      <c r="Q75" s="113"/>
+      <c r="Q75" s="115"/>
       <c r="R75" s="1"/>
       <c r="S75" s="1"/>
       <c r="T75" s="3"/>
@@ -7256,10 +7256,10 @@
       <c r="O76" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P76" s="112" t="s">
+      <c r="P76" s="114" t="s">
         <v>220</v>
       </c>
-      <c r="Q76" s="113"/>
+      <c r="Q76" s="115"/>
       <c r="R76" s="1"/>
       <c r="S76" s="1"/>
       <c r="T76" s="3"/>
@@ -7301,11 +7301,11 @@
       <c r="J78" s="4"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
-      <c r="M78" s="114" t="s">
+      <c r="M78" s="119" t="s">
         <v>191</v>
       </c>
-      <c r="N78" s="115"/>
-      <c r="O78" s="116"/>
+      <c r="N78" s="120"/>
+      <c r="O78" s="121"/>
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
       <c r="R78" s="1"/>
@@ -7407,11 +7407,11 @@
       <c r="J82" s="4"/>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
-      <c r="M82" s="114" t="s">
+      <c r="M82" s="119" t="s">
         <v>183</v>
       </c>
-      <c r="N82" s="115"/>
-      <c r="O82" s="116"/>
+      <c r="N82" s="120"/>
+      <c r="O82" s="121"/>
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
       <c r="R82" s="1"/>
@@ -7922,6 +7922,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="M78:O78"/>
+    <mergeCell ref="M82:O82"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="M59:Q59"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P51:R51"/>
+    <mergeCell ref="P53:R53"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="M44:R44"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="M45:R45"/>
+    <mergeCell ref="P46:R46"/>
+    <mergeCell ref="P47:R47"/>
+    <mergeCell ref="P48:R48"/>
+    <mergeCell ref="P50:R50"/>
     <mergeCell ref="P63:Q63"/>
     <mergeCell ref="P66:Q66"/>
     <mergeCell ref="B48:D48"/>
@@ -7938,34 +7966,6 @@
     <mergeCell ref="P60:Q60"/>
     <mergeCell ref="P62:Q62"/>
     <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="M45:R45"/>
-    <mergeCell ref="P46:R46"/>
-    <mergeCell ref="P47:R47"/>
-    <mergeCell ref="P48:R48"/>
-    <mergeCell ref="P50:R50"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="M44:R44"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="M78:O78"/>
-    <mergeCell ref="M82:O82"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="M59:Q59"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P51:R51"/>
-    <mergeCell ref="P53:R53"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="M29:O29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7977,8 +7977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:T117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="A16:E22"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H107" sqref="H107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7994,32 +7994,32 @@
   <sheetData>
     <row r="2" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="3" spans="1:10">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="101" t="s">
         <v>286</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="102"/>
-      <c r="F3" s="100" t="s">
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="103"/>
+      <c r="F3" s="101" t="s">
         <v>297</v>
       </c>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="103"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="103" t="s">
+      <c r="A4" s="104" t="s">
         <v>287</v>
       </c>
-      <c r="B4" s="104"/>
-      <c r="C4" s="104"/>
-      <c r="D4" s="105"/>
-      <c r="F4" s="103" t="s">
+      <c r="B4" s="105"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="106"/>
+      <c r="F4" s="104" t="s">
         <v>290</v>
       </c>
-      <c r="G4" s="104"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="105"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="106"/>
     </row>
     <row r="5" spans="1:10" ht="14.25" thickBot="1">
       <c r="A5" s="8" t="s">
@@ -8177,32 +8177,32 @@
     </row>
     <row r="15" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="16" spans="1:10">
-      <c r="A16" s="100" t="s">
+      <c r="A16" s="101" t="s">
         <v>284</v>
       </c>
-      <c r="B16" s="101"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="102"/>
-      <c r="F16" s="100" t="s">
+      <c r="B16" s="102"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="103"/>
+      <c r="F16" s="101" t="s">
         <v>284</v>
       </c>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="102"/>
+      <c r="G16" s="102"/>
+      <c r="H16" s="102"/>
+      <c r="I16" s="103"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="103" t="s">
+      <c r="A17" s="104" t="s">
         <v>285</v>
       </c>
-      <c r="B17" s="104"/>
-      <c r="C17" s="104"/>
-      <c r="D17" s="105"/>
-      <c r="F17" s="103" t="s">
+      <c r="B17" s="105"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="106"/>
+      <c r="F17" s="104" t="s">
         <v>383</v>
       </c>
-      <c r="G17" s="104"/>
-      <c r="H17" s="104"/>
-      <c r="I17" s="105"/>
+      <c r="G17" s="105"/>
+      <c r="H17" s="105"/>
+      <c r="I17" s="106"/>
       <c r="J17" t="s">
         <v>481</v>
       </c>
@@ -8252,20 +8252,20 @@
     </row>
     <row r="23" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="24" spans="1:10">
-      <c r="F24" s="100" t="s">
+      <c r="F24" s="101" t="s">
         <v>309</v>
       </c>
-      <c r="G24" s="101"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="102"/>
+      <c r="G24" s="102"/>
+      <c r="H24" s="102"/>
+      <c r="I24" s="103"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="F25" s="103" t="s">
+      <c r="F25" s="104" t="s">
         <v>310</v>
       </c>
-      <c r="G25" s="104"/>
-      <c r="H25" s="104"/>
-      <c r="I25" s="105"/>
+      <c r="G25" s="105"/>
+      <c r="H25" s="105"/>
+      <c r="I25" s="106"/>
     </row>
     <row r="26" spans="1:10">
       <c r="F26" s="8" t="s">
@@ -8286,33 +8286,33 @@
     </row>
     <row r="31" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="32" spans="1:10">
-      <c r="A32" s="100" t="s">
+      <c r="A32" s="101" t="s">
         <v>291</v>
       </c>
-      <c r="B32" s="101"/>
-      <c r="C32" s="101"/>
-      <c r="D32" s="102"/>
-      <c r="F32" s="100" t="s">
+      <c r="B32" s="102"/>
+      <c r="C32" s="102"/>
+      <c r="D32" s="103"/>
+      <c r="F32" s="101" t="s">
         <v>318</v>
       </c>
-      <c r="G32" s="101"/>
-      <c r="H32" s="101"/>
-      <c r="I32" s="102"/>
+      <c r="G32" s="102"/>
+      <c r="H32" s="102"/>
+      <c r="I32" s="103"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="103" t="s">
+      <c r="A33" s="104" t="s">
         <v>293</v>
       </c>
-      <c r="B33" s="104"/>
-      <c r="C33" s="104"/>
-      <c r="D33" s="105"/>
+      <c r="B33" s="105"/>
+      <c r="C33" s="105"/>
+      <c r="D33" s="106"/>
       <c r="E33" s="80"/>
-      <c r="F33" s="103" t="s">
+      <c r="F33" s="104" t="s">
         <v>319</v>
       </c>
-      <c r="G33" s="104"/>
-      <c r="H33" s="104"/>
-      <c r="I33" s="105"/>
+      <c r="G33" s="105"/>
+      <c r="H33" s="105"/>
+      <c r="I33" s="106"/>
     </row>
     <row r="34" spans="1:10" ht="14.25" thickBot="1">
       <c r="A34" s="8" t="s">
@@ -8423,35 +8423,35 @@
     </row>
     <row r="42" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="43" spans="1:10">
-      <c r="A43" s="100" t="s">
+      <c r="A43" s="101" t="s">
         <v>304</v>
       </c>
-      <c r="B43" s="101"/>
-      <c r="C43" s="101"/>
-      <c r="D43" s="102"/>
-      <c r="F43" s="100" t="s">
+      <c r="B43" s="102"/>
+      <c r="C43" s="102"/>
+      <c r="D43" s="103"/>
+      <c r="F43" s="101" t="s">
         <v>385</v>
       </c>
-      <c r="G43" s="101"/>
-      <c r="H43" s="101"/>
-      <c r="I43" s="102"/>
+      <c r="G43" s="102"/>
+      <c r="H43" s="102"/>
+      <c r="I43" s="103"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="103" t="s">
+      <c r="A44" s="104" t="s">
         <v>502</v>
       </c>
-      <c r="B44" s="104"/>
-      <c r="C44" s="104"/>
-      <c r="D44" s="105"/>
+      <c r="B44" s="105"/>
+      <c r="C44" s="105"/>
+      <c r="D44" s="106"/>
       <c r="E44" t="s">
         <v>482</v>
       </c>
-      <c r="F44" s="103" t="s">
+      <c r="F44" s="104" t="s">
         <v>384</v>
       </c>
-      <c r="G44" s="104"/>
-      <c r="H44" s="104"/>
-      <c r="I44" s="105"/>
+      <c r="G44" s="105"/>
+      <c r="H44" s="105"/>
+      <c r="I44" s="106"/>
       <c r="J44" t="s">
         <v>482</v>
       </c>
@@ -8471,40 +8471,40 @@
       </c>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="100" t="s">
+      <c r="A46" s="101" t="s">
         <v>307</v>
       </c>
-      <c r="B46" s="101"/>
-      <c r="C46" s="101"/>
-      <c r="D46" s="102"/>
+      <c r="B46" s="102"/>
+      <c r="C46" s="102"/>
+      <c r="D46" s="103"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="103" t="s">
+      <c r="A47" s="104" t="s">
         <v>308</v>
       </c>
-      <c r="B47" s="104"/>
-      <c r="C47" s="104"/>
-      <c r="D47" s="105"/>
+      <c r="B47" s="105"/>
+      <c r="C47" s="105"/>
+      <c r="D47" s="106"/>
       <c r="E47" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="49" spans="1:10">
-      <c r="A49" s="117" t="s">
+      <c r="A49" s="116" t="s">
         <v>312</v>
       </c>
-      <c r="B49" s="118"/>
-      <c r="C49" s="118"/>
-      <c r="D49" s="119"/>
+      <c r="B49" s="117"/>
+      <c r="C49" s="117"/>
+      <c r="D49" s="118"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="114" t="s">
+      <c r="A50" s="119" t="s">
         <v>313</v>
       </c>
-      <c r="B50" s="115"/>
-      <c r="C50" s="115"/>
-      <c r="D50" s="116"/>
+      <c r="B50" s="120"/>
+      <c r="C50" s="120"/>
+      <c r="D50" s="121"/>
       <c r="E50" t="s">
         <v>484</v>
       </c>
@@ -8512,32 +8512,32 @@
     <row r="51" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="52" spans="1:10" ht="13.5" customHeight="1" thickBot="1"/>
     <row r="53" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A53" s="100" t="s">
+      <c r="A53" s="101" t="s">
         <v>386</v>
       </c>
-      <c r="B53" s="101"/>
-      <c r="C53" s="101"/>
-      <c r="D53" s="102"/>
-      <c r="F53" s="100" t="s">
+      <c r="B53" s="102"/>
+      <c r="C53" s="102"/>
+      <c r="D53" s="103"/>
+      <c r="F53" s="101" t="s">
         <v>386</v>
       </c>
-      <c r="G53" s="101"/>
-      <c r="H53" s="101"/>
-      <c r="I53" s="102"/>
+      <c r="G53" s="102"/>
+      <c r="H53" s="102"/>
+      <c r="I53" s="103"/>
     </row>
     <row r="54" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A54" s="103" t="s">
+      <c r="A54" s="104" t="s">
         <v>391</v>
       </c>
-      <c r="B54" s="104"/>
-      <c r="C54" s="104"/>
-      <c r="D54" s="105"/>
-      <c r="F54" s="103" t="s">
+      <c r="B54" s="105"/>
+      <c r="C54" s="105"/>
+      <c r="D54" s="106"/>
+      <c r="F54" s="104" t="s">
         <v>392</v>
       </c>
-      <c r="G54" s="104"/>
-      <c r="H54" s="104"/>
-      <c r="I54" s="105"/>
+      <c r="G54" s="105"/>
+      <c r="H54" s="105"/>
+      <c r="I54" s="106"/>
     </row>
     <row r="55" spans="1:10" ht="13.5" customHeight="1">
       <c r="A55" s="8" t="s">
@@ -8595,32 +8595,32 @@
     <row r="64" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="65" spans="1:10" ht="12.75" customHeight="1" thickBot="1"/>
     <row r="66" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A66" s="100" t="s">
+      <c r="A66" s="101" t="s">
         <v>373</v>
       </c>
-      <c r="B66" s="101"/>
-      <c r="C66" s="101"/>
-      <c r="D66" s="102"/>
-      <c r="F66" s="100" t="s">
+      <c r="B66" s="102"/>
+      <c r="C66" s="102"/>
+      <c r="D66" s="103"/>
+      <c r="F66" s="101" t="s">
         <v>355</v>
       </c>
-      <c r="G66" s="101"/>
-      <c r="H66" s="101"/>
-      <c r="I66" s="102"/>
+      <c r="G66" s="102"/>
+      <c r="H66" s="102"/>
+      <c r="I66" s="103"/>
     </row>
     <row r="67" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A67" s="103" t="s">
+      <c r="A67" s="104" t="s">
         <v>353</v>
       </c>
-      <c r="B67" s="104"/>
-      <c r="C67" s="104"/>
-      <c r="D67" s="105"/>
-      <c r="F67" s="114" t="s">
+      <c r="B67" s="105"/>
+      <c r="C67" s="105"/>
+      <c r="D67" s="106"/>
+      <c r="F67" s="119" t="s">
         <v>360</v>
       </c>
-      <c r="G67" s="115"/>
-      <c r="H67" s="115"/>
-      <c r="I67" s="116"/>
+      <c r="G67" s="120"/>
+      <c r="H67" s="120"/>
+      <c r="I67" s="121"/>
     </row>
     <row r="68" spans="1:10" ht="12.75" customHeight="1" thickBot="1">
       <c r="A68" s="8" t="s">
@@ -8728,46 +8728,46 @@
     </row>
     <row r="77" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="78" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A78" s="117" t="s">
+      <c r="A78" s="116" t="s">
         <v>314</v>
       </c>
-      <c r="B78" s="118"/>
-      <c r="C78" s="118"/>
-      <c r="D78" s="119"/>
-      <c r="F78" s="100" t="s">
+      <c r="B78" s="117"/>
+      <c r="C78" s="117"/>
+      <c r="D78" s="118"/>
+      <c r="F78" s="101" t="s">
         <v>234</v>
       </c>
-      <c r="G78" s="101"/>
-      <c r="H78" s="101"/>
-      <c r="I78" s="102"/>
+      <c r="G78" s="102"/>
+      <c r="H78" s="102"/>
+      <c r="I78" s="103"/>
     </row>
     <row r="79" spans="1:10">
-      <c r="A79" s="100" t="s">
+      <c r="A79" s="101" t="s">
         <v>232</v>
       </c>
-      <c r="B79" s="101"/>
-      <c r="C79" s="101"/>
-      <c r="D79" s="102"/>
+      <c r="B79" s="102"/>
+      <c r="C79" s="102"/>
+      <c r="D79" s="103"/>
       <c r="E79" t="s">
         <v>489</v>
       </c>
-      <c r="F79" s="103" t="s">
+      <c r="F79" s="104" t="s">
         <v>235</v>
       </c>
-      <c r="G79" s="104"/>
-      <c r="H79" s="104"/>
-      <c r="I79" s="105"/>
+      <c r="G79" s="105"/>
+      <c r="H79" s="105"/>
+      <c r="I79" s="106"/>
       <c r="J79" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="80" spans="1:10">
-      <c r="A80" s="103" t="s">
+      <c r="A80" s="104" t="s">
         <v>233</v>
       </c>
-      <c r="B80" s="104"/>
-      <c r="C80" s="104"/>
-      <c r="D80" s="105"/>
+      <c r="B80" s="105"/>
+      <c r="C80" s="105"/>
+      <c r="D80" s="106"/>
       <c r="F80" s="8" t="s">
         <v>237</v>
       </c>
@@ -8829,43 +8829,43 @@
     </row>
     <row r="85" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="86" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A86" s="117" t="s">
+      <c r="A86" s="116" t="s">
         <v>394</v>
       </c>
-      <c r="B86" s="118"/>
-      <c r="C86" s="118"/>
-      <c r="D86" s="119"/>
-      <c r="F86" s="117" t="s">
+      <c r="B86" s="117"/>
+      <c r="C86" s="117"/>
+      <c r="D86" s="118"/>
+      <c r="F86" s="116" t="s">
         <v>394</v>
       </c>
-      <c r="G86" s="118"/>
-      <c r="H86" s="118"/>
-      <c r="I86" s="119"/>
+      <c r="G86" s="117"/>
+      <c r="H86" s="117"/>
+      <c r="I86" s="118"/>
     </row>
     <row r="87" spans="1:10">
-      <c r="A87" s="100" t="s">
+      <c r="A87" s="101" t="s">
         <v>232</v>
       </c>
-      <c r="B87" s="101"/>
-      <c r="C87" s="101"/>
-      <c r="D87" s="102"/>
+      <c r="B87" s="102"/>
+      <c r="C87" s="102"/>
+      <c r="D87" s="103"/>
       <c r="E87" t="s">
         <v>491</v>
       </c>
-      <c r="F87" s="103" t="s">
+      <c r="F87" s="104" t="s">
         <v>235</v>
       </c>
-      <c r="G87" s="104"/>
-      <c r="H87" s="104"/>
-      <c r="I87" s="105"/>
+      <c r="G87" s="105"/>
+      <c r="H87" s="105"/>
+      <c r="I87" s="106"/>
     </row>
     <row r="88" spans="1:10">
-      <c r="A88" s="103" t="s">
+      <c r="A88" s="104" t="s">
         <v>233</v>
       </c>
-      <c r="B88" s="104"/>
-      <c r="C88" s="104"/>
-      <c r="D88" s="105"/>
+      <c r="B88" s="105"/>
+      <c r="C88" s="105"/>
+      <c r="D88" s="106"/>
       <c r="F88" s="8" t="s">
         <v>237</v>
       </c>
@@ -8937,10 +8937,10 @@
       </c>
     </row>
     <row r="96" spans="1:10">
-      <c r="A96" s="98" t="s">
+      <c r="A96" s="107" t="s">
         <v>249</v>
       </c>
-      <c r="B96" s="99"/>
+      <c r="B96" s="108"/>
       <c r="E96" s="21" t="s">
         <v>227</v>
       </c>
@@ -9318,31 +9318,6 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="F67:I67"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="A79:D79"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="F78:I78"/>
-    <mergeCell ref="F79:I79"/>
-    <mergeCell ref="A87:D87"/>
-    <mergeCell ref="F87:I87"/>
-    <mergeCell ref="A88:D88"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="F33:I33"/>
     <mergeCell ref="A47:D47"/>
     <mergeCell ref="F44:I44"/>
     <mergeCell ref="F43:I43"/>
@@ -9359,6 +9334,31 @@
     <mergeCell ref="A66:D66"/>
     <mergeCell ref="A67:D67"/>
     <mergeCell ref="F66:I66"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F67:I67"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A79:D79"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="F78:I78"/>
+    <mergeCell ref="F79:I79"/>
+    <mergeCell ref="A87:D87"/>
+    <mergeCell ref="F87:I87"/>
+    <mergeCell ref="A88:D88"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -9491,44 +9491,44 @@
   <sheetData>
     <row r="10" spans="2:14" ht="14.25" thickBot="1"/>
     <row r="11" spans="2:14">
-      <c r="B11" s="100" t="s">
+      <c r="B11" s="101" t="s">
         <v>381</v>
       </c>
-      <c r="C11" s="101"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="102"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="103"/>
       <c r="F11" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="14.25" thickBot="1"/>
     <row r="13" spans="2:14">
-      <c r="B13" s="100" t="s">
+      <c r="B13" s="101" t="s">
         <v>382</v>
       </c>
-      <c r="C13" s="101"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="102"/>
-      <c r="J13" s="100" t="s">
+      <c r="C13" s="102"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="103"/>
+      <c r="J13" s="101" t="s">
         <v>382</v>
       </c>
-      <c r="K13" s="101"/>
-      <c r="L13" s="101"/>
-      <c r="M13" s="102"/>
+      <c r="K13" s="102"/>
+      <c r="L13" s="102"/>
+      <c r="M13" s="103"/>
     </row>
     <row r="14" spans="2:14">
-      <c r="B14" s="103" t="s">
+      <c r="B14" s="104" t="s">
         <v>507</v>
       </c>
-      <c r="C14" s="104"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="105"/>
-      <c r="J14" s="103" t="s">
+      <c r="C14" s="105"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="106"/>
+      <c r="J14" s="104" t="s">
         <v>380</v>
       </c>
-      <c r="K14" s="104"/>
-      <c r="L14" s="104"/>
-      <c r="M14" s="105"/>
+      <c r="K14" s="105"/>
+      <c r="L14" s="105"/>
+      <c r="M14" s="106"/>
     </row>
     <row r="15" spans="2:14" ht="14.25" thickBot="1">
       <c r="B15" s="8" t="s">
@@ -9609,16 +9609,16 @@
       </c>
     </row>
     <row r="3" spans="2:9">
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="104" t="s">
         <v>460</v>
       </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="G3" s="103" t="s">
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="G3" s="104" t="s">
         <v>433</v>
       </c>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="8" t="s">
@@ -9740,18 +9740,18 @@
       </c>
     </row>
     <row r="14" spans="2:9">
-      <c r="G14" s="103" t="s">
+      <c r="G14" s="104" t="s">
         <v>410</v>
       </c>
-      <c r="H14" s="104"/>
-      <c r="I14" s="104"/>
+      <c r="H14" s="105"/>
+      <c r="I14" s="105"/>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="103" t="s">
+      <c r="B15" s="104" t="s">
         <v>427</v>
       </c>
-      <c r="C15" s="104"/>
-      <c r="D15" s="104"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="105"/>
       <c r="G15" s="8" t="s">
         <v>416</v>
       </c>
@@ -9873,11 +9873,11 @@
       </c>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="103" t="s">
+      <c r="B25" s="104" t="s">
         <v>443</v>
       </c>
-      <c r="C25" s="104"/>
-      <c r="D25" s="104"/>
+      <c r="C25" s="105"/>
+      <c r="D25" s="105"/>
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="8" t="s">
@@ -9914,11 +9914,11 @@
       <c r="D28" s="92" t="s">
         <v>441</v>
       </c>
-      <c r="G28" s="103" t="s">
+      <c r="G28" s="104" t="s">
         <v>449</v>
       </c>
-      <c r="H28" s="104"/>
-      <c r="I28" s="104"/>
+      <c r="H28" s="105"/>
+      <c r="I28" s="105"/>
     </row>
     <row r="29" spans="2:9">
       <c r="B29" s="8"/>
@@ -9965,11 +9965,11 @@
       <c r="I32" s="92"/>
     </row>
     <row r="33" spans="2:9">
-      <c r="B33" s="103" t="s">
+      <c r="B33" s="104" t="s">
         <v>446</v>
       </c>
-      <c r="C33" s="104"/>
-      <c r="D33" s="104"/>
+      <c r="C33" s="105"/>
+      <c r="D33" s="105"/>
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="8" t="s">
@@ -10009,11 +10009,11 @@
       <c r="D37" s="92"/>
     </row>
     <row r="40" spans="2:9">
-      <c r="G40" s="103" t="s">
+      <c r="G40" s="104" t="s">
         <v>452</v>
       </c>
-      <c r="H40" s="104"/>
-      <c r="I40" s="104"/>
+      <c r="H40" s="105"/>
+      <c r="I40" s="105"/>
     </row>
     <row r="41" spans="2:9">
       <c r="G41" s="8" t="s">
@@ -10065,11 +10065,11 @@
       </c>
     </row>
     <row r="49" spans="2:6">
-      <c r="B49" s="103" t="s">
+      <c r="B49" s="104" t="s">
         <v>471</v>
       </c>
-      <c r="C49" s="104"/>
-      <c r="D49" s="104"/>
+      <c r="C49" s="105"/>
+      <c r="D49" s="105"/>
     </row>
     <row r="50" spans="2:6">
       <c r="B50" s="8" t="s">
@@ -10124,11 +10124,11 @@
       </c>
     </row>
     <row r="59" spans="2:6">
-      <c r="B59" s="103" t="s">
+      <c r="B59" s="104" t="s">
         <v>476</v>
       </c>
-      <c r="C59" s="104"/>
-      <c r="D59" s="104"/>
+      <c r="C59" s="105"/>
+      <c r="D59" s="105"/>
     </row>
     <row r="60" spans="2:6">
       <c r="B60" s="8" t="s">

--- a/doc/最新接口_拟定.xlsx
+++ b/doc/最新接口_拟定.xlsx
@@ -454,44 +454,6 @@
           </rPr>
           <t xml:space="preserve">位：是否托管
 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>3</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>位</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>是否准备</t>
         </r>
       </text>
     </comment>
@@ -977,7 +939,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G114" authorId="0">
+    <comment ref="G115" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1107,7 +1069,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="506">
   <si>
     <t>int</t>
   </si>
@@ -2090,10 +2052,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>玩家playerStatus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>uid:庄家id
 dList:摇色子情况</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2458,12 +2416,6 @@
   </si>
   <si>
     <t>状态位3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1位：是否离线
-2位：是否托管
-3位:是否准备</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2719,10 +2671,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dvlue:压跑内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>optional</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3128,19 +3076,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>压跑状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uid:uid
-dvlue:压跑内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KVData:玩家id-已压跑情况（未压跑的不显示）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>uid:uid
 dval:出牌时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3169,6 +3104,29 @@
   </si>
   <si>
     <t>NetLoginConfirm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uid:uid
+dvlue:压跑内容
+KVData:玩家id-已压跑情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1位：是否离线
+2位：是否托管
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">uid:uid（&gt;0 为玩家选择反馈，否则为状态信息）
+dval:1：准备，0取消准备
+KVData:玩家id-已准备情况
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dval:1：准备，0取消准备</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3948,14 +3906,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3975,12 +3930,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3990,16 +3939,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4011,17 +3972,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4340,32 +4298,32 @@
   <sheetData>
     <row r="3" spans="2:16" ht="14.25" thickBot="1"/>
     <row r="4" spans="2:16">
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="100" t="s">
         <v>232</v>
       </c>
-      <c r="C4" s="102"/>
-      <c r="D4" s="102"/>
-      <c r="E4" s="103"/>
-      <c r="I4" s="101" t="s">
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="102"/>
+      <c r="I4" s="100" t="s">
         <v>234</v>
       </c>
-      <c r="J4" s="102"/>
-      <c r="K4" s="102"/>
-      <c r="L4" s="103"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="102"/>
     </row>
     <row r="5" spans="2:16">
-      <c r="B5" s="104" t="s">
+      <c r="B5" s="103" t="s">
         <v>233</v>
       </c>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="106"/>
-      <c r="I5" s="104" t="s">
-        <v>494</v>
-      </c>
-      <c r="J5" s="105"/>
-      <c r="K5" s="105"/>
-      <c r="L5" s="106"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="105"/>
+      <c r="I5" s="103" t="s">
+        <v>491</v>
+      </c>
+      <c r="J5" s="104"/>
+      <c r="K5" s="104"/>
+      <c r="L5" s="105"/>
     </row>
     <row r="6" spans="2:16">
       <c r="B6" s="8"/>
@@ -4415,13 +4373,13 @@
     </row>
     <row r="9" spans="2:16">
       <c r="I9" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J9" s="55" t="s">
         <v>238</v>
       </c>
       <c r="K9" s="55" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L9" s="56" t="s">
         <v>240</v>
@@ -4429,21 +4387,21 @@
     </row>
     <row r="11" spans="2:16" ht="14.25" customHeight="1"/>
     <row r="14" spans="2:16" ht="14.25" thickBot="1">
-      <c r="I14" s="98" t="s">
+      <c r="I14" s="109" t="s">
         <v>54</v>
       </c>
-      <c r="J14" s="99"/>
-      <c r="K14" s="99"/>
-      <c r="L14" s="99"/>
-      <c r="M14" s="100"/>
+      <c r="J14" s="110"/>
+      <c r="K14" s="110"/>
+      <c r="L14" s="110"/>
+      <c r="M14" s="111"/>
     </row>
     <row r="15" spans="2:16">
-      <c r="B15" s="101" t="s">
+      <c r="B15" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="102"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="103"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="102"/>
       <c r="I15" s="21" t="s">
         <v>34</v>
       </c>
@@ -4458,18 +4416,18 @@
         <v>34</v>
       </c>
       <c r="N15" s="3"/>
-      <c r="O15" s="107" t="s">
+      <c r="O15" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="P15" s="108"/>
+      <c r="P15" s="99"/>
     </row>
     <row r="16" spans="2:16">
-      <c r="B16" s="104" t="s">
+      <c r="B16" s="103" t="s">
         <v>233</v>
       </c>
-      <c r="C16" s="105"/>
-      <c r="D16" s="105"/>
-      <c r="E16" s="106"/>
+      <c r="C16" s="104"/>
+      <c r="D16" s="104"/>
+      <c r="E16" s="105"/>
       <c r="I16" s="33"/>
       <c r="J16" s="30"/>
       <c r="K16" s="31">
@@ -4497,7 +4455,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="85" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>14</v>
@@ -4529,7 +4487,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="75" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E18" s="20" t="s">
         <v>13</v>
@@ -4658,10 +4616,10 @@
     </row>
     <row r="22" spans="2:16" ht="27.75" thickBot="1">
       <c r="B22" s="5" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>34</v>
@@ -4967,12 +4925,12 @@
       <c r="P37" s="23"/>
     </row>
     <row r="38" spans="2:16">
-      <c r="B38" s="109" t="s">
-        <v>262</v>
-      </c>
-      <c r="C38" s="110"/>
-      <c r="D38" s="110"/>
-      <c r="E38" s="111"/>
+      <c r="B38" s="106" t="s">
+        <v>261</v>
+      </c>
+      <c r="C38" s="107"/>
+      <c r="D38" s="107"/>
+      <c r="E38" s="108"/>
       <c r="I38" s="33" t="s">
         <v>117</v>
       </c>
@@ -5054,18 +5012,18 @@
     <row r="42" spans="2:16" ht="22.5" customHeight="1"/>
     <row r="43" spans="2:16" ht="31.5" customHeight="1"/>
     <row r="44" spans="2:16">
-      <c r="H44" s="107" t="s">
+      <c r="H44" s="98" t="s">
         <v>247</v>
       </c>
-      <c r="I44" s="108"/>
-      <c r="J44" s="107" t="s">
+      <c r="I44" s="99"/>
+      <c r="J44" s="98" t="s">
         <v>116</v>
       </c>
-      <c r="K44" s="108"/>
-      <c r="L44" s="107" t="s">
+      <c r="K44" s="99"/>
+      <c r="L44" s="98" t="s">
         <v>77</v>
       </c>
-      <c r="M44" s="108"/>
+      <c r="M44" s="99"/>
     </row>
     <row r="45" spans="2:16">
       <c r="H45" s="22">
@@ -5181,6 +5139,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="I14:M14"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="I5:L5"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="J44:K44"/>
     <mergeCell ref="L44:M44"/>
@@ -5188,11 +5151,6 @@
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="H44:I44"/>
     <mergeCell ref="B38:E38"/>
-    <mergeCell ref="I14:M14"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="I5:L5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5386,11 +5344,11 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="4"/>
-      <c r="B10" s="116" t="s">
+      <c r="B10" s="117" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="117"/>
-      <c r="D10" s="118"/>
+      <c r="C10" s="118"/>
+      <c r="D10" s="119"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -5399,11 +5357,11 @@
       <c r="J10" s="4"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="116" t="s">
+      <c r="M10" s="117" t="s">
         <v>28</v>
       </c>
-      <c r="N10" s="117"/>
-      <c r="O10" s="118"/>
+      <c r="N10" s="118"/>
+      <c r="O10" s="119"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -5413,11 +5371,11 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="4"/>
-      <c r="B11" s="119" t="s">
+      <c r="B11" s="114" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="120"/>
-      <c r="D11" s="121"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="116"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -5426,11 +5384,11 @@
       <c r="J11" s="4"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="119" t="s">
+      <c r="M11" s="114" t="s">
         <v>27</v>
       </c>
-      <c r="N11" s="120"/>
-      <c r="O11" s="121"/>
+      <c r="N11" s="115"/>
+      <c r="O11" s="116"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -5551,11 +5509,11 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="4"/>
-      <c r="B17" s="116" t="s">
+      <c r="B17" s="117" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="117"/>
-      <c r="D17" s="118"/>
+      <c r="C17" s="118"/>
+      <c r="D17" s="119"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -5564,11 +5522,11 @@
       <c r="J17" s="4"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="116" t="s">
+      <c r="M17" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="N17" s="117"/>
-      <c r="O17" s="118"/>
+      <c r="N17" s="118"/>
+      <c r="O17" s="119"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -5577,11 +5535,11 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="4"/>
-      <c r="B18" s="119" t="s">
+      <c r="B18" s="114" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="120"/>
-      <c r="D18" s="121"/>
+      <c r="C18" s="115"/>
+      <c r="D18" s="116"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -5590,11 +5548,11 @@
       <c r="J18" s="4"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="119" t="s">
+      <c r="M18" s="114" t="s">
         <v>129</v>
       </c>
-      <c r="N18" s="120"/>
-      <c r="O18" s="121"/>
+      <c r="N18" s="115"/>
+      <c r="O18" s="116"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -5634,9 +5592,9 @@
     </row>
     <row r="20" spans="1:21" ht="41.25" thickBot="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="116"/>
-      <c r="C20" s="117"/>
-      <c r="D20" s="118"/>
+      <c r="B20" s="117"/>
+      <c r="C20" s="118"/>
+      <c r="D20" s="119"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -5665,11 +5623,11 @@
     </row>
     <row r="21" spans="1:21" ht="14.25" thickBot="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="119" t="s">
+      <c r="B21" s="114" t="s">
         <v>129</v>
       </c>
-      <c r="C21" s="120"/>
-      <c r="D21" s="121"/>
+      <c r="C21" s="115"/>
+      <c r="D21" s="116"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -5736,11 +5694,11 @@
       <c r="J23" s="4"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="116" t="s">
+      <c r="M23" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="N23" s="117"/>
-      <c r="O23" s="118"/>
+      <c r="N23" s="118"/>
+      <c r="O23" s="119"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
@@ -5761,11 +5719,11 @@
       <c r="J24" s="4"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-      <c r="M24" s="119" t="s">
+      <c r="M24" s="114" t="s">
         <v>69</v>
       </c>
-      <c r="N24" s="120"/>
-      <c r="O24" s="121"/>
+      <c r="N24" s="115"/>
+      <c r="O24" s="116"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
@@ -5898,11 +5856,11 @@
       <c r="J29" s="4"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
-      <c r="M29" s="116" t="s">
+      <c r="M29" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="N29" s="117"/>
-      <c r="O29" s="118"/>
+      <c r="N29" s="118"/>
+      <c r="O29" s="119"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
@@ -5923,11 +5881,11 @@
       <c r="J30" s="4"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="119" t="s">
+      <c r="M30" s="114" t="s">
         <v>69</v>
       </c>
-      <c r="N30" s="120"/>
-      <c r="O30" s="121"/>
+      <c r="N30" s="115"/>
+      <c r="O30" s="116"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
@@ -6083,11 +6041,11 @@
       <c r="J36" s="4"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
-      <c r="M36" s="116" t="s">
+      <c r="M36" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="N36" s="117"/>
-      <c r="O36" s="118"/>
+      <c r="N36" s="118"/>
+      <c r="O36" s="119"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
@@ -6108,11 +6066,11 @@
       <c r="J37" s="4"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
-      <c r="M37" s="119" t="s">
+      <c r="M37" s="114" t="s">
         <v>69</v>
       </c>
-      <c r="N37" s="120"/>
-      <c r="O37" s="121"/>
+      <c r="N37" s="115"/>
+      <c r="O37" s="116"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
@@ -6291,14 +6249,14 @@
       <c r="J44" s="4"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
-      <c r="M44" s="116" t="s">
+      <c r="M44" s="117" t="s">
         <v>16</v>
       </c>
-      <c r="N44" s="117"/>
-      <c r="O44" s="117"/>
-      <c r="P44" s="117"/>
-      <c r="Q44" s="117"/>
-      <c r="R44" s="118"/>
+      <c r="N44" s="118"/>
+      <c r="O44" s="118"/>
+      <c r="P44" s="118"/>
+      <c r="Q44" s="118"/>
+      <c r="R44" s="119"/>
       <c r="S44" s="2"/>
       <c r="T44" s="3"/>
       <c r="U44" s="3"/>
@@ -6316,14 +6274,14 @@
       <c r="J45" s="4"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
-      <c r="M45" s="119" t="s">
-        <v>278</v>
-      </c>
-      <c r="N45" s="120"/>
-      <c r="O45" s="120"/>
-      <c r="P45" s="120"/>
-      <c r="Q45" s="120"/>
-      <c r="R45" s="121"/>
+      <c r="M45" s="114" t="s">
+        <v>277</v>
+      </c>
+      <c r="N45" s="115"/>
+      <c r="O45" s="115"/>
+      <c r="P45" s="115"/>
+      <c r="Q45" s="115"/>
+      <c r="R45" s="116"/>
       <c r="S45" s="2"/>
       <c r="T45" s="3"/>
       <c r="U45" s="3"/>
@@ -6350,11 +6308,11 @@
       <c r="O46" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="P46" s="122" t="s">
+      <c r="P46" s="120" t="s">
         <v>130</v>
       </c>
-      <c r="Q46" s="122"/>
-      <c r="R46" s="123"/>
+      <c r="Q46" s="120"/>
+      <c r="R46" s="121"/>
       <c r="S46" s="2"/>
       <c r="T46" s="3"/>
       <c r="U46" s="3"/>
@@ -6381,22 +6339,22 @@
       <c r="O47" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="P47" s="122" t="s">
+      <c r="P47" s="120" t="s">
         <v>149</v>
       </c>
-      <c r="Q47" s="122"/>
-      <c r="R47" s="123"/>
+      <c r="Q47" s="120"/>
+      <c r="R47" s="121"/>
       <c r="S47" s="2"/>
       <c r="T47" s="3"/>
       <c r="U47" s="3"/>
     </row>
     <row r="48" spans="1:21">
       <c r="A48" s="1"/>
-      <c r="B48" s="116" t="s">
+      <c r="B48" s="117" t="s">
         <v>114</v>
       </c>
-      <c r="C48" s="117"/>
-      <c r="D48" s="118"/>
+      <c r="C48" s="118"/>
+      <c r="D48" s="119"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -6414,22 +6372,22 @@
       <c r="O48" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P48" s="122" t="s">
+      <c r="P48" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="Q48" s="122"/>
-      <c r="R48" s="123"/>
+      <c r="Q48" s="120"/>
+      <c r="R48" s="121"/>
       <c r="S48" s="2"/>
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
     </row>
     <row r="49" spans="1:21">
       <c r="A49" s="1"/>
-      <c r="B49" s="119" t="s">
+      <c r="B49" s="114" t="s">
         <v>112</v>
       </c>
-      <c r="C49" s="120"/>
-      <c r="D49" s="121"/>
+      <c r="C49" s="115"/>
+      <c r="D49" s="116"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -6486,11 +6444,11 @@
       <c r="O50" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P50" s="122" t="s">
+      <c r="P50" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="Q50" s="122"/>
-      <c r="R50" s="123"/>
+      <c r="Q50" s="120"/>
+      <c r="R50" s="121"/>
       <c r="S50" s="2"/>
       <c r="T50" s="3"/>
       <c r="U50" s="3"/>
@@ -6517,11 +6475,11 @@
       <c r="O51" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="P51" s="122" t="s">
+      <c r="P51" s="120" t="s">
         <v>20</v>
       </c>
-      <c r="Q51" s="122"/>
-      <c r="R51" s="123"/>
+      <c r="Q51" s="120"/>
+      <c r="R51" s="121"/>
       <c r="S51" s="2"/>
       <c r="T51" s="3"/>
       <c r="U51" s="3"/>
@@ -6579,11 +6537,11 @@
       <c r="O53" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="P53" s="122" t="s">
+      <c r="P53" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="Q53" s="122"/>
-      <c r="R53" s="123"/>
+      <c r="Q53" s="120"/>
+      <c r="R53" s="121"/>
       <c r="S53" s="2"/>
       <c r="T53" s="3"/>
       <c r="U53" s="3"/>
@@ -6748,13 +6706,13 @@
       <c r="J59" s="4"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
-      <c r="M59" s="116" t="s">
+      <c r="M59" s="117" t="s">
         <v>136</v>
       </c>
-      <c r="N59" s="117"/>
-      <c r="O59" s="117"/>
-      <c r="P59" s="117"/>
-      <c r="Q59" s="118"/>
+      <c r="N59" s="118"/>
+      <c r="O59" s="118"/>
+      <c r="P59" s="118"/>
+      <c r="Q59" s="119"/>
       <c r="R59" s="1"/>
       <c r="S59" s="2"/>
       <c r="T59" s="3"/>
@@ -6782,10 +6740,10 @@
       <c r="O60" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="P60" s="114" t="s">
+      <c r="P60" s="112" t="s">
         <v>137</v>
       </c>
-      <c r="Q60" s="115"/>
+      <c r="Q60" s="113"/>
       <c r="R60" s="1"/>
       <c r="S60" s="2"/>
       <c r="T60" s="3"/>
@@ -6813,10 +6771,10 @@
       <c r="O61" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="P61" s="114" t="s">
+      <c r="P61" s="112" t="s">
         <v>140</v>
       </c>
-      <c r="Q61" s="115"/>
+      <c r="Q61" s="113"/>
       <c r="R61" s="1"/>
       <c r="S61" s="2"/>
       <c r="T61" s="3"/>
@@ -6844,10 +6802,10 @@
       <c r="O62" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="P62" s="114" t="s">
+      <c r="P62" s="112" t="s">
         <v>22</v>
       </c>
-      <c r="Q62" s="115"/>
+      <c r="Q62" s="113"/>
       <c r="R62" s="1"/>
       <c r="S62" s="2"/>
       <c r="T62" s="3"/>
@@ -6875,10 +6833,10 @@
       <c r="O63" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P63" s="112" t="s">
+      <c r="P63" s="122" t="s">
         <v>23</v>
       </c>
-      <c r="Q63" s="113"/>
+      <c r="Q63" s="123"/>
       <c r="R63" s="1"/>
       <c r="S63" s="2"/>
       <c r="T63" s="3"/>
@@ -6906,10 +6864,10 @@
       <c r="O64" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P64" s="114" t="s">
+      <c r="P64" s="112" t="s">
         <v>161</v>
       </c>
-      <c r="Q64" s="115"/>
+      <c r="Q64" s="113"/>
       <c r="R64" s="1"/>
       <c r="S64" s="2"/>
       <c r="T64" s="3"/>
@@ -6937,10 +6895,10 @@
       <c r="O65" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="P65" s="114" t="s">
+      <c r="P65" s="112" t="s">
         <v>60</v>
       </c>
-      <c r="Q65" s="115"/>
+      <c r="Q65" s="113"/>
       <c r="R65" s="1"/>
       <c r="S65" s="2"/>
       <c r="T65" s="3"/>
@@ -6968,10 +6926,10 @@
       <c r="O66" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P66" s="114" t="s">
+      <c r="P66" s="112" t="s">
         <v>218</v>
       </c>
-      <c r="Q66" s="115"/>
+      <c r="Q66" s="113"/>
       <c r="R66" s="1"/>
       <c r="S66" s="2"/>
       <c r="T66" s="3"/>
@@ -6999,10 +6957,10 @@
       <c r="O67" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P67" s="114" t="s">
+      <c r="P67" s="112" t="s">
         <v>217</v>
       </c>
-      <c r="Q67" s="115"/>
+      <c r="Q67" s="113"/>
       <c r="R67" s="1"/>
       <c r="S67" s="1"/>
       <c r="T67" s="3"/>
@@ -7044,13 +7002,13 @@
       <c r="J69" s="4"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
-      <c r="M69" s="116" t="s">
+      <c r="M69" s="117" t="s">
         <v>176</v>
       </c>
-      <c r="N69" s="117"/>
-      <c r="O69" s="117"/>
-      <c r="P69" s="117"/>
-      <c r="Q69" s="118"/>
+      <c r="N69" s="118"/>
+      <c r="O69" s="118"/>
+      <c r="P69" s="118"/>
+      <c r="Q69" s="119"/>
       <c r="R69" s="1"/>
       <c r="S69" s="1"/>
       <c r="T69" s="3"/>
@@ -7069,13 +7027,13 @@
       <c r="J70" s="4"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
-      <c r="M70" s="116" t="s">
+      <c r="M70" s="117" t="s">
         <v>177</v>
       </c>
-      <c r="N70" s="117"/>
-      <c r="O70" s="117"/>
-      <c r="P70" s="117"/>
-      <c r="Q70" s="118"/>
+      <c r="N70" s="118"/>
+      <c r="O70" s="118"/>
+      <c r="P70" s="118"/>
+      <c r="Q70" s="119"/>
       <c r="R70" s="1"/>
       <c r="S70" s="1"/>
       <c r="T70" s="3"/>
@@ -7103,10 +7061,10 @@
       <c r="O71" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="P71" s="112" t="s">
+      <c r="P71" s="122" t="s">
         <v>201</v>
       </c>
-      <c r="Q71" s="113"/>
+      <c r="Q71" s="123"/>
       <c r="R71" s="1"/>
       <c r="S71" s="1"/>
       <c r="T71" s="3"/>
@@ -7134,10 +7092,10 @@
       <c r="O72" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="P72" s="112" t="s">
+      <c r="P72" s="122" t="s">
         <v>193</v>
       </c>
-      <c r="Q72" s="113"/>
+      <c r="Q72" s="123"/>
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
       <c r="T72" s="3"/>
@@ -7165,10 +7123,10 @@
       <c r="O73" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="P73" s="112" t="s">
+      <c r="P73" s="122" t="s">
         <v>190</v>
       </c>
-      <c r="Q73" s="113"/>
+      <c r="Q73" s="123"/>
       <c r="R73" s="1"/>
       <c r="S73" s="1"/>
       <c r="T73" s="3"/>
@@ -7225,10 +7183,10 @@
       <c r="O75" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P75" s="114" t="s">
+      <c r="P75" s="112" t="s">
         <v>219</v>
       </c>
-      <c r="Q75" s="115"/>
+      <c r="Q75" s="113"/>
       <c r="R75" s="1"/>
       <c r="S75" s="1"/>
       <c r="T75" s="3"/>
@@ -7256,10 +7214,10 @@
       <c r="O76" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P76" s="114" t="s">
+      <c r="P76" s="112" t="s">
         <v>220</v>
       </c>
-      <c r="Q76" s="115"/>
+      <c r="Q76" s="113"/>
       <c r="R76" s="1"/>
       <c r="S76" s="1"/>
       <c r="T76" s="3"/>
@@ -7301,11 +7259,11 @@
       <c r="J78" s="4"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
-      <c r="M78" s="119" t="s">
+      <c r="M78" s="114" t="s">
         <v>191</v>
       </c>
-      <c r="N78" s="120"/>
-      <c r="O78" s="121"/>
+      <c r="N78" s="115"/>
+      <c r="O78" s="116"/>
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
       <c r="R78" s="1"/>
@@ -7407,11 +7365,11 @@
       <c r="J82" s="4"/>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
-      <c r="M82" s="119" t="s">
+      <c r="M82" s="114" t="s">
         <v>183</v>
       </c>
-      <c r="N82" s="120"/>
-      <c r="O82" s="121"/>
+      <c r="N82" s="115"/>
+      <c r="O82" s="116"/>
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
       <c r="R82" s="1"/>
@@ -7922,6 +7880,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="M69:Q69"/>
+    <mergeCell ref="M70:Q70"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="M45:R45"/>
+    <mergeCell ref="P46:R46"/>
+    <mergeCell ref="P47:R47"/>
+    <mergeCell ref="P48:R48"/>
+    <mergeCell ref="P50:R50"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="M44:R44"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
     <mergeCell ref="P76:Q76"/>
     <mergeCell ref="M78:O78"/>
     <mergeCell ref="M82:O82"/>
@@ -7938,34 +7924,6 @@
     <mergeCell ref="M11:O11"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="M29:O29"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="M44:R44"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="M45:R45"/>
-    <mergeCell ref="P46:R46"/>
-    <mergeCell ref="P47:R47"/>
-    <mergeCell ref="P48:R48"/>
-    <mergeCell ref="P50:R50"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="M69:Q69"/>
-    <mergeCell ref="M70:Q70"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="P67:Q67"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7975,10 +7933,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:T117"/>
+  <dimension ref="A2:T118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H107" sqref="H107"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E99" sqref="E99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7994,86 +7952,86 @@
   <sheetData>
     <row r="2" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="3" spans="1:10">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="100" t="s">
+        <v>285</v>
+      </c>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="102"/>
+      <c r="F3" s="100" t="s">
+        <v>296</v>
+      </c>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="102"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="103" t="s">
         <v>286</v>
       </c>
-      <c r="B3" s="102"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="103"/>
-      <c r="F3" s="101" t="s">
-        <v>297</v>
-      </c>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="103"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="104" t="s">
-        <v>287</v>
-      </c>
-      <c r="B4" s="105"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="106"/>
-      <c r="F4" s="104" t="s">
-        <v>290</v>
-      </c>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="106"/>
+      <c r="B4" s="104"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="105"/>
+      <c r="F4" s="103" t="s">
+        <v>289</v>
+      </c>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="105"/>
     </row>
     <row r="5" spans="1:10" ht="14.25" thickBot="1">
       <c r="A5" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B5" s="76" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="76" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G5" s="76" t="s">
         <v>0</v>
       </c>
       <c r="H5" s="76" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I5" s="20" t="s">
         <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="14.25" thickBot="1">
       <c r="A6" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B6" s="76" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="76" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G6" s="76" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="76" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I6" s="20" t="s">
         <v>13</v>
@@ -8081,39 +8039,39 @@
     </row>
     <row r="7" spans="1:10" ht="14.25" thickBot="1">
       <c r="A7" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="B7" s="76" t="s">
+        <v>316</v>
+      </c>
+      <c r="C7" s="83" t="s">
+        <v>333</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="B7" s="76" t="s">
-        <v>317</v>
-      </c>
-      <c r="C7" s="83" t="s">
-        <v>334</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>316</v>
-      </c>
       <c r="F7" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G7" s="76" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H7" s="76" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.25" thickBot="1">
       <c r="F8" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G8" s="76" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H8" s="83" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I8" s="20" t="s">
         <v>13</v>
@@ -8121,55 +8079,55 @@
     </row>
     <row r="9" spans="1:10" ht="14.25" thickBot="1">
       <c r="F9" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="G9" s="78" t="s">
+        <v>325</v>
+      </c>
+      <c r="H9" s="78" t="s">
         <v>328</v>
       </c>
-      <c r="G9" s="78" t="s">
+      <c r="I9" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="H9" s="78" t="s">
-        <v>329</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="14.25" thickBot="1">
       <c r="F10" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="G10" s="78" t="s">
+        <v>325</v>
+      </c>
+      <c r="H10" s="78" t="s">
         <v>331</v>
       </c>
-      <c r="G10" s="78" t="s">
+      <c r="I10" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="H10" s="78" t="s">
-        <v>332</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.25" thickBot="1">
       <c r="F11" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="G11" s="78" t="s">
         <v>325</v>
       </c>
-      <c r="G11" s="78" t="s">
+      <c r="H11" s="78" t="s">
+        <v>329</v>
+      </c>
+      <c r="I11" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="H11" s="78" t="s">
-        <v>330</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="14.25" thickBot="1">
       <c r="F12" s="8" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G12" s="85" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H12" s="84" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I12" s="20" t="s">
         <v>13</v>
@@ -8177,60 +8135,60 @@
     </row>
     <row r="15" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="16" spans="1:10">
-      <c r="A16" s="101" t="s">
+      <c r="A16" s="100" t="s">
+        <v>283</v>
+      </c>
+      <c r="B16" s="101"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="102"/>
+      <c r="F16" s="100" t="s">
+        <v>283</v>
+      </c>
+      <c r="G16" s="101"/>
+      <c r="H16" s="101"/>
+      <c r="I16" s="102"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="103" t="s">
         <v>284</v>
       </c>
-      <c r="B16" s="102"/>
-      <c r="C16" s="102"/>
-      <c r="D16" s="103"/>
-      <c r="F16" s="101" t="s">
-        <v>284</v>
-      </c>
-      <c r="G16" s="102"/>
-      <c r="H16" s="102"/>
-      <c r="I16" s="103"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="104" t="s">
-        <v>285</v>
-      </c>
-      <c r="B17" s="105"/>
-      <c r="C17" s="105"/>
-      <c r="D17" s="106"/>
-      <c r="F17" s="104" t="s">
-        <v>383</v>
-      </c>
-      <c r="G17" s="105"/>
-      <c r="H17" s="105"/>
-      <c r="I17" s="106"/>
+      <c r="B17" s="104"/>
+      <c r="C17" s="104"/>
+      <c r="D17" s="105"/>
+      <c r="F17" s="103" t="s">
+        <v>381</v>
+      </c>
+      <c r="G17" s="104"/>
+      <c r="H17" s="104"/>
+      <c r="I17" s="105"/>
       <c r="J17" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B18" s="76" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="76" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D18" s="76" t="s">
         <v>72</v>
       </c>
       <c r="E18" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>132</v>
       </c>
       <c r="G18" s="76" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H18" s="76" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I18" s="77" t="s">
         <v>14</v>
@@ -8238,13 +8196,13 @@
     </row>
     <row r="19" spans="1:10" ht="14.25" thickBot="1">
       <c r="A19" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="B19" s="76" t="s">
+        <v>299</v>
+      </c>
+      <c r="C19" s="76" t="s">
         <v>301</v>
-      </c>
-      <c r="B19" s="76" t="s">
-        <v>300</v>
-      </c>
-      <c r="C19" s="76" t="s">
-        <v>302</v>
       </c>
       <c r="D19" s="20" t="s">
         <v>13</v>
@@ -8252,20 +8210,20 @@
     </row>
     <row r="23" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="24" spans="1:10">
-      <c r="F24" s="101" t="s">
+      <c r="F24" s="100" t="s">
+        <v>308</v>
+      </c>
+      <c r="G24" s="101"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="102"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="F25" s="103" t="s">
         <v>309</v>
       </c>
-      <c r="G24" s="102"/>
-      <c r="H24" s="102"/>
-      <c r="I24" s="103"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="F25" s="104" t="s">
-        <v>310</v>
-      </c>
-      <c r="G25" s="105"/>
-      <c r="H25" s="105"/>
-      <c r="I25" s="106"/>
+      <c r="G25" s="104"/>
+      <c r="H25" s="104"/>
+      <c r="I25" s="105"/>
     </row>
     <row r="26" spans="1:10">
       <c r="F26" s="8" t="s">
@@ -8275,7 +8233,7 @@
         <v>0</v>
       </c>
       <c r="H26" s="85" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I26" s="76" t="s">
         <v>72</v>
@@ -8286,33 +8244,33 @@
     </row>
     <row r="31" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="32" spans="1:10">
-      <c r="A32" s="101" t="s">
-        <v>291</v>
-      </c>
-      <c r="B32" s="102"/>
-      <c r="C32" s="102"/>
-      <c r="D32" s="103"/>
-      <c r="F32" s="101" t="s">
+      <c r="A32" s="100" t="s">
+        <v>290</v>
+      </c>
+      <c r="B32" s="101"/>
+      <c r="C32" s="101"/>
+      <c r="D32" s="102"/>
+      <c r="F32" s="100" t="s">
+        <v>317</v>
+      </c>
+      <c r="G32" s="101"/>
+      <c r="H32" s="101"/>
+      <c r="I32" s="102"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="103" t="s">
+        <v>292</v>
+      </c>
+      <c r="B33" s="104"/>
+      <c r="C33" s="104"/>
+      <c r="D33" s="105"/>
+      <c r="E33" s="80"/>
+      <c r="F33" s="103" t="s">
         <v>318</v>
       </c>
-      <c r="G32" s="102"/>
-      <c r="H32" s="102"/>
-      <c r="I32" s="103"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="104" t="s">
-        <v>293</v>
-      </c>
-      <c r="B33" s="105"/>
-      <c r="C33" s="105"/>
-      <c r="D33" s="106"/>
-      <c r="E33" s="80"/>
-      <c r="F33" s="104" t="s">
-        <v>319</v>
-      </c>
-      <c r="G33" s="105"/>
-      <c r="H33" s="105"/>
-      <c r="I33" s="106"/>
+      <c r="G33" s="104"/>
+      <c r="H33" s="104"/>
+      <c r="I33" s="105"/>
     </row>
     <row r="34" spans="1:10" ht="14.25" thickBot="1">
       <c r="A34" s="8" t="s">
@@ -8322,54 +8280,54 @@
         <v>0</v>
       </c>
       <c r="C34" s="85" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D34" s="76" t="s">
         <v>72</v>
       </c>
       <c r="E34" s="80"/>
       <c r="F34" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="G34" s="76" t="s">
         <v>320</v>
       </c>
-      <c r="G34" s="76" t="s">
-        <v>321</v>
-      </c>
       <c r="H34" s="76" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="14.25" thickBot="1">
       <c r="A35" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B35" s="85" t="s">
         <v>142</v>
       </c>
       <c r="C35" s="85" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D35" s="20" t="s">
         <v>13</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G35" s="85" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H35" s="76" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="14.25" thickBot="1">
       <c r="A36" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B36" s="76" t="s">
         <v>0</v>
@@ -8381,16 +8339,16 @@
         <v>13</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G36" s="85" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H36" s="76" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -8401,7 +8359,7 @@
         <v>0</v>
       </c>
       <c r="C37" s="84" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D37" s="76" t="s">
         <v>72</v>
@@ -8409,13 +8367,13 @@
     </row>
     <row r="38" spans="1:10" ht="14.25" thickBot="1">
       <c r="A38" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B38" s="85" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C38" s="84" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D38" s="20" t="s">
         <v>13</v>
@@ -8423,37 +8381,37 @@
     </row>
     <row r="42" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="43" spans="1:10">
-      <c r="A43" s="101" t="s">
-        <v>304</v>
-      </c>
-      <c r="B43" s="102"/>
-      <c r="C43" s="102"/>
-      <c r="D43" s="103"/>
-      <c r="F43" s="101" t="s">
-        <v>385</v>
-      </c>
-      <c r="G43" s="102"/>
-      <c r="H43" s="102"/>
-      <c r="I43" s="103"/>
+      <c r="A43" s="100" t="s">
+        <v>303</v>
+      </c>
+      <c r="B43" s="101"/>
+      <c r="C43" s="101"/>
+      <c r="D43" s="102"/>
+      <c r="F43" s="100" t="s">
+        <v>383</v>
+      </c>
+      <c r="G43" s="101"/>
+      <c r="H43" s="101"/>
+      <c r="I43" s="102"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="104" t="s">
-        <v>502</v>
-      </c>
-      <c r="B44" s="105"/>
-      <c r="C44" s="105"/>
-      <c r="D44" s="106"/>
+      <c r="A44" s="103" t="s">
+        <v>496</v>
+      </c>
+      <c r="B44" s="104"/>
+      <c r="C44" s="104"/>
+      <c r="D44" s="105"/>
       <c r="E44" t="s">
-        <v>482</v>
-      </c>
-      <c r="F44" s="104" t="s">
-        <v>384</v>
-      </c>
-      <c r="G44" s="105"/>
-      <c r="H44" s="105"/>
-      <c r="I44" s="106"/>
+        <v>479</v>
+      </c>
+      <c r="F44" s="103" t="s">
+        <v>382</v>
+      </c>
+      <c r="G44" s="104"/>
+      <c r="H44" s="104"/>
+      <c r="I44" s="105"/>
       <c r="J44" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="14.25" thickBot="1">
@@ -8464,105 +8422,105 @@
         <v>0</v>
       </c>
       <c r="H45" s="87" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="I45" s="86" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="101" t="s">
+      <c r="A46" s="100" t="s">
+        <v>306</v>
+      </c>
+      <c r="B46" s="101"/>
+      <c r="C46" s="101"/>
+      <c r="D46" s="102"/>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="103" t="s">
         <v>307</v>
       </c>
-      <c r="B46" s="102"/>
-      <c r="C46" s="102"/>
-      <c r="D46" s="103"/>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="104" t="s">
-        <v>308</v>
-      </c>
-      <c r="B47" s="105"/>
-      <c r="C47" s="105"/>
-      <c r="D47" s="106"/>
+      <c r="B47" s="104"/>
+      <c r="C47" s="104"/>
+      <c r="D47" s="105"/>
       <c r="E47" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="49" spans="1:10">
-      <c r="A49" s="116" t="s">
+      <c r="A49" s="117" t="s">
+        <v>311</v>
+      </c>
+      <c r="B49" s="118"/>
+      <c r="C49" s="118"/>
+      <c r="D49" s="119"/>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="114" t="s">
         <v>312</v>
       </c>
-      <c r="B49" s="117"/>
-      <c r="C49" s="117"/>
-      <c r="D49" s="118"/>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="119" t="s">
-        <v>313</v>
-      </c>
-      <c r="B50" s="120"/>
-      <c r="C50" s="120"/>
-      <c r="D50" s="121"/>
+      <c r="B50" s="115"/>
+      <c r="C50" s="115"/>
+      <c r="D50" s="116"/>
       <c r="E50" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="52" spans="1:10" ht="13.5" customHeight="1" thickBot="1"/>
     <row r="53" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A53" s="101" t="s">
-        <v>386</v>
-      </c>
-      <c r="B53" s="102"/>
-      <c r="C53" s="102"/>
-      <c r="D53" s="103"/>
-      <c r="F53" s="101" t="s">
-        <v>386</v>
-      </c>
-      <c r="G53" s="102"/>
-      <c r="H53" s="102"/>
-      <c r="I53" s="103"/>
+      <c r="A53" s="100" t="s">
+        <v>384</v>
+      </c>
+      <c r="B53" s="101"/>
+      <c r="C53" s="101"/>
+      <c r="D53" s="102"/>
+      <c r="F53" s="100" t="s">
+        <v>384</v>
+      </c>
+      <c r="G53" s="101"/>
+      <c r="H53" s="101"/>
+      <c r="I53" s="102"/>
     </row>
     <row r="54" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A54" s="104" t="s">
-        <v>391</v>
-      </c>
-      <c r="B54" s="105"/>
-      <c r="C54" s="105"/>
-      <c r="D54" s="106"/>
-      <c r="F54" s="104" t="s">
-        <v>392</v>
-      </c>
-      <c r="G54" s="105"/>
-      <c r="H54" s="105"/>
-      <c r="I54" s="106"/>
+      <c r="A54" s="103" t="s">
+        <v>389</v>
+      </c>
+      <c r="B54" s="104"/>
+      <c r="C54" s="104"/>
+      <c r="D54" s="105"/>
+      <c r="F54" s="103" t="s">
+        <v>390</v>
+      </c>
+      <c r="G54" s="104"/>
+      <c r="H54" s="104"/>
+      <c r="I54" s="105"/>
     </row>
     <row r="55" spans="1:10" ht="13.5" customHeight="1">
       <c r="A55" s="8" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B55" s="86" t="s">
+        <v>385</v>
+      </c>
+      <c r="C55" s="86" t="s">
         <v>387</v>
-      </c>
-      <c r="C55" s="86" t="s">
-        <v>389</v>
       </c>
       <c r="D55" s="86" t="s">
         <v>72</v>
       </c>
       <c r="E55" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G55" s="87" t="s">
+        <v>385</v>
+      </c>
+      <c r="H55" s="87" t="s">
         <v>387</v>
-      </c>
-      <c r="H55" s="87" t="s">
-        <v>389</v>
       </c>
       <c r="I55" s="87" t="s">
         <v>72</v>
@@ -8576,13 +8534,13 @@
         <v>0</v>
       </c>
       <c r="H56" s="87" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="I56" s="20" t="s">
         <v>13</v>
       </c>
       <c r="J56" s="97" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="13.5" customHeight="1"/>
@@ -8595,32 +8553,32 @@
     <row r="64" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="65" spans="1:10" ht="12.75" customHeight="1" thickBot="1"/>
     <row r="66" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A66" s="101" t="s">
-        <v>373</v>
-      </c>
-      <c r="B66" s="102"/>
-      <c r="C66" s="102"/>
-      <c r="D66" s="103"/>
-      <c r="F66" s="101" t="s">
-        <v>355</v>
-      </c>
-      <c r="G66" s="102"/>
-      <c r="H66" s="102"/>
-      <c r="I66" s="103"/>
+      <c r="A66" s="100" t="s">
+        <v>371</v>
+      </c>
+      <c r="B66" s="101"/>
+      <c r="C66" s="101"/>
+      <c r="D66" s="102"/>
+      <c r="F66" s="100" t="s">
+        <v>353</v>
+      </c>
+      <c r="G66" s="101"/>
+      <c r="H66" s="101"/>
+      <c r="I66" s="102"/>
     </row>
     <row r="67" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A67" s="104" t="s">
-        <v>353</v>
-      </c>
-      <c r="B67" s="105"/>
-      <c r="C67" s="105"/>
-      <c r="D67" s="106"/>
-      <c r="F67" s="119" t="s">
-        <v>360</v>
-      </c>
-      <c r="G67" s="120"/>
-      <c r="H67" s="120"/>
-      <c r="I67" s="121"/>
+      <c r="A67" s="103" t="s">
+        <v>351</v>
+      </c>
+      <c r="B67" s="104"/>
+      <c r="C67" s="104"/>
+      <c r="D67" s="105"/>
+      <c r="F67" s="114" t="s">
+        <v>358</v>
+      </c>
+      <c r="G67" s="115"/>
+      <c r="H67" s="115"/>
+      <c r="I67" s="116"/>
     </row>
     <row r="68" spans="1:10" ht="12.75" customHeight="1" thickBot="1">
       <c r="A68" s="8" t="s">
@@ -8630,51 +8588,51 @@
         <v>32</v>
       </c>
       <c r="C68" s="79" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D68" s="20" t="s">
         <v>13</v>
       </c>
       <c r="E68" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G68" s="85" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="H68" s="82" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J68" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="14.25" thickBot="1">
       <c r="A69" s="8" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B69" s="78" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C69" s="78" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D69" s="20" t="s">
         <v>13</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G69" s="78" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H69" s="85" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="I69" s="20" t="s">
         <v>13</v>
@@ -8682,25 +8640,25 @@
     </row>
     <row r="70" spans="1:10" ht="14.25" thickBot="1">
       <c r="A70" s="8" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B70" s="78" t="s">
         <v>32</v>
       </c>
       <c r="C70" s="78" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D70" s="20" t="s">
         <v>13</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G70" s="78" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H70" s="78" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="I70" s="20" t="s">
         <v>13</v>
@@ -8714,7 +8672,7 @@
         <v>32</v>
       </c>
       <c r="H71" s="78" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I71" s="20" t="s">
         <v>13</v>
@@ -8728,46 +8686,46 @@
     </row>
     <row r="77" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="78" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A78" s="116" t="s">
-        <v>314</v>
-      </c>
-      <c r="B78" s="117"/>
-      <c r="C78" s="117"/>
-      <c r="D78" s="118"/>
-      <c r="F78" s="101" t="s">
+      <c r="A78" s="117" t="s">
+        <v>313</v>
+      </c>
+      <c r="B78" s="118"/>
+      <c r="C78" s="118"/>
+      <c r="D78" s="119"/>
+      <c r="F78" s="100" t="s">
         <v>234</v>
       </c>
-      <c r="G78" s="102"/>
-      <c r="H78" s="102"/>
-      <c r="I78" s="103"/>
+      <c r="G78" s="101"/>
+      <c r="H78" s="101"/>
+      <c r="I78" s="102"/>
     </row>
     <row r="79" spans="1:10">
-      <c r="A79" s="101" t="s">
+      <c r="A79" s="100" t="s">
         <v>232</v>
       </c>
-      <c r="B79" s="102"/>
-      <c r="C79" s="102"/>
-      <c r="D79" s="103"/>
+      <c r="B79" s="101"/>
+      <c r="C79" s="101"/>
+      <c r="D79" s="102"/>
       <c r="E79" t="s">
-        <v>489</v>
-      </c>
-      <c r="F79" s="104" t="s">
+        <v>486</v>
+      </c>
+      <c r="F79" s="103" t="s">
         <v>235</v>
       </c>
-      <c r="G79" s="105"/>
-      <c r="H79" s="105"/>
-      <c r="I79" s="106"/>
+      <c r="G79" s="104"/>
+      <c r="H79" s="104"/>
+      <c r="I79" s="105"/>
       <c r="J79" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="80" spans="1:10">
-      <c r="A80" s="104" t="s">
+      <c r="A80" s="103" t="s">
         <v>233</v>
       </c>
-      <c r="B80" s="105"/>
-      <c r="C80" s="105"/>
-      <c r="D80" s="106"/>
+      <c r="B80" s="104"/>
+      <c r="C80" s="104"/>
+      <c r="D80" s="105"/>
       <c r="F80" s="8" t="s">
         <v>237</v>
       </c>
@@ -8815,13 +8773,13 @@
     </row>
     <row r="83" spans="1:10">
       <c r="F83" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G83" s="76" t="s">
         <v>32</v>
       </c>
       <c r="H83" s="76" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I83" s="77" t="s">
         <v>72</v>
@@ -8829,43 +8787,43 @@
     </row>
     <row r="85" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="86" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A86" s="116" t="s">
-        <v>394</v>
-      </c>
-      <c r="B86" s="117"/>
-      <c r="C86" s="117"/>
-      <c r="D86" s="118"/>
-      <c r="F86" s="116" t="s">
-        <v>394</v>
-      </c>
-      <c r="G86" s="117"/>
-      <c r="H86" s="117"/>
-      <c r="I86" s="118"/>
+      <c r="A86" s="117" t="s">
+        <v>392</v>
+      </c>
+      <c r="B86" s="118"/>
+      <c r="C86" s="118"/>
+      <c r="D86" s="119"/>
+      <c r="F86" s="117" t="s">
+        <v>392</v>
+      </c>
+      <c r="G86" s="118"/>
+      <c r="H86" s="118"/>
+      <c r="I86" s="119"/>
     </row>
     <row r="87" spans="1:10">
-      <c r="A87" s="101" t="s">
+      <c r="A87" s="100" t="s">
         <v>232</v>
       </c>
-      <c r="B87" s="102"/>
-      <c r="C87" s="102"/>
-      <c r="D87" s="103"/>
+      <c r="B87" s="101"/>
+      <c r="C87" s="101"/>
+      <c r="D87" s="102"/>
       <c r="E87" t="s">
-        <v>491</v>
-      </c>
-      <c r="F87" s="104" t="s">
+        <v>488</v>
+      </c>
+      <c r="F87" s="103" t="s">
         <v>235</v>
       </c>
-      <c r="G87" s="105"/>
-      <c r="H87" s="105"/>
-      <c r="I87" s="106"/>
+      <c r="G87" s="104"/>
+      <c r="H87" s="104"/>
+      <c r="I87" s="105"/>
     </row>
     <row r="88" spans="1:10">
-      <c r="A88" s="104" t="s">
+      <c r="A88" s="103" t="s">
         <v>233</v>
       </c>
-      <c r="B88" s="105"/>
-      <c r="C88" s="105"/>
-      <c r="D88" s="106"/>
+      <c r="B88" s="104"/>
+      <c r="C88" s="104"/>
+      <c r="D88" s="105"/>
       <c r="F88" s="8" t="s">
         <v>237</v>
       </c>
@@ -8879,7 +8837,7 @@
         <v>72</v>
       </c>
       <c r="J88" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -8916,13 +8874,13 @@
     </row>
     <row r="91" spans="1:10">
       <c r="F91" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G91" s="89" t="s">
         <v>32</v>
       </c>
       <c r="H91" s="89" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I91" s="90" t="s">
         <v>72</v>
@@ -8933,14 +8891,10 @@
         <v>229</v>
       </c>
       <c r="F95" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="96" spans="1:10">
-      <c r="A96" s="107" t="s">
-        <v>249</v>
-      </c>
-      <c r="B96" s="108"/>
       <c r="E96" s="21" t="s">
         <v>227</v>
       </c>
@@ -8954,22 +8908,18 @@
         <v>228</v>
       </c>
     </row>
-    <row r="97" spans="1:20" ht="40.5">
-      <c r="A97" s="22">
-        <v>0</v>
-      </c>
-      <c r="B97" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="E97" s="59"/>
+    <row r="97" spans="5:20" ht="54">
+      <c r="E97" s="59" t="s">
+        <v>505</v>
+      </c>
       <c r="F97" s="58">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G97" s="32" t="s">
-        <v>266</v>
+        <v>231</v>
       </c>
       <c r="H97" s="33" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="L97" s="65"/>
       <c r="M97" s="66"/>
@@ -8981,22 +8931,16 @@
       <c r="S97" s="66"/>
       <c r="T97" s="67"/>
     </row>
-    <row r="98" spans="1:20" ht="27">
-      <c r="A98" s="22">
-        <v>1</v>
-      </c>
-      <c r="B98" s="25" t="s">
-        <v>231</v>
-      </c>
+    <row r="98" spans="5:20" ht="40.5">
       <c r="E98" s="57"/>
       <c r="F98" s="58">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G98" s="32" t="s">
-        <v>374</v>
+        <v>265</v>
       </c>
       <c r="H98" s="33" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="L98" s="65"/>
       <c r="M98" s="66"/>
@@ -9008,17 +8952,17 @@
       <c r="S98" s="66"/>
       <c r="T98" s="67"/>
     </row>
-    <row r="99" spans="1:20">
-      <c r="A99" s="22">
-        <v>2</v>
-      </c>
-      <c r="B99" s="25" t="s">
-        <v>248</v>
-      </c>
+    <row r="99" spans="5:20" ht="27">
       <c r="E99" s="57"/>
-      <c r="F99" s="58"/>
-      <c r="G99" s="32"/>
-      <c r="H99" s="33"/>
+      <c r="F99" s="58">
+        <v>6</v>
+      </c>
+      <c r="G99" s="32" t="s">
+        <v>372</v>
+      </c>
+      <c r="H99" s="33" t="s">
+        <v>495</v>
+      </c>
       <c r="L99" s="65"/>
       <c r="M99" s="66"/>
       <c r="N99" s="66"/>
@@ -9029,87 +8973,79 @@
       <c r="S99" s="66"/>
       <c r="T99" s="67"/>
     </row>
-    <row r="100" spans="1:20" ht="27">
+    <row r="100" spans="5:20">
       <c r="E100" s="57"/>
-      <c r="F100" s="58">
-        <v>201</v>
-      </c>
-      <c r="G100" s="32" t="s">
-        <v>246</v>
-      </c>
-      <c r="H100" s="33" t="s">
-        <v>250</v>
-      </c>
+      <c r="F100" s="58"/>
+      <c r="G100" s="32"/>
+      <c r="H100" s="33"/>
       <c r="L100" s="65"/>
       <c r="M100" s="66"/>
       <c r="N100" s="66"/>
-      <c r="O100" s="61"/>
+      <c r="O100" s="62"/>
       <c r="P100" s="66"/>
-      <c r="Q100" s="61"/>
+      <c r="Q100" s="66"/>
       <c r="R100" s="66"/>
       <c r="S100" s="66"/>
       <c r="T100" s="67"/>
     </row>
-    <row r="101" spans="1:20" ht="27">
-      <c r="E101" s="59" t="s">
-        <v>260</v>
-      </c>
+    <row r="101" spans="5:20" ht="27">
+      <c r="E101" s="57"/>
       <c r="F101" s="58">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G101" s="32" t="s">
-        <v>251</v>
-      </c>
-      <c r="H101" s="57" t="s">
-        <v>252</v>
+        <v>246</v>
+      </c>
+      <c r="H101" s="33" t="s">
+        <v>249</v>
       </c>
       <c r="L101" s="65"/>
       <c r="M101" s="66"/>
       <c r="N101" s="66"/>
-      <c r="O101" s="63"/>
-      <c r="P101" s="60">
-        <v>1</v>
-      </c>
-      <c r="Q101" s="64"/>
+      <c r="O101" s="61"/>
+      <c r="P101" s="66"/>
+      <c r="Q101" s="61"/>
       <c r="R101" s="66"/>
       <c r="S101" s="66"/>
       <c r="T101" s="67"/>
     </row>
-    <row r="102" spans="1:20" ht="27">
+    <row r="102" spans="5:20" ht="27">
       <c r="E102" s="59" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F102" s="58">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G102" s="32" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H102" s="57" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="L102" s="65"/>
       <c r="M102" s="66"/>
       <c r="N102" s="66"/>
-      <c r="O102" s="66"/>
-      <c r="P102" s="66"/>
-      <c r="Q102" s="66"/>
-      <c r="R102" s="74">
-        <v>4</v>
-      </c>
+      <c r="O102" s="63"/>
+      <c r="P102" s="60">
+        <v>1</v>
+      </c>
+      <c r="Q102" s="64"/>
+      <c r="R102" s="66"/>
       <c r="S102" s="66"/>
       <c r="T102" s="67"/>
     </row>
-    <row r="103" spans="1:20" ht="27">
-      <c r="E103" s="59"/>
+    <row r="103" spans="5:20" ht="27">
+      <c r="E103" s="59" t="s">
+        <v>260</v>
+      </c>
       <c r="F103" s="58">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G103" s="32" t="s">
+        <v>252</v>
+      </c>
+      <c r="H103" s="57" t="s">
         <v>254</v>
-      </c>
-      <c r="H103" s="57" t="s">
-        <v>256</v>
       </c>
       <c r="L103" s="65"/>
       <c r="M103" s="66"/>
@@ -9117,20 +9053,22 @@
       <c r="O103" s="66"/>
       <c r="P103" s="66"/>
       <c r="Q103" s="66"/>
-      <c r="R103" s="91"/>
+      <c r="R103" s="74">
+        <v>4</v>
+      </c>
       <c r="S103" s="66"/>
       <c r="T103" s="67"/>
     </row>
-    <row r="104" spans="1:20" ht="27">
+    <row r="104" spans="5:20" ht="27">
       <c r="E104" s="59"/>
       <c r="F104" s="58">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G104" s="32" t="s">
-        <v>394</v>
+        <v>253</v>
       </c>
       <c r="H104" s="57" t="s">
-        <v>499</v>
+        <v>255</v>
       </c>
       <c r="L104" s="65"/>
       <c r="M104" s="66"/>
@@ -9142,171 +9080,174 @@
       <c r="S104" s="66"/>
       <c r="T104" s="67"/>
     </row>
-    <row r="105" spans="1:20">
-      <c r="E105" s="59" t="s">
-        <v>396</v>
-      </c>
+    <row r="105" spans="5:20" ht="40.5">
+      <c r="E105" s="59"/>
       <c r="F105" s="58">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G105" s="32" t="s">
-        <v>498</v>
+        <v>392</v>
       </c>
       <c r="H105" s="57" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="L105" s="65"/>
-      <c r="M105" s="74">
-        <v>3</v>
-      </c>
+      <c r="M105" s="66"/>
       <c r="N105" s="66"/>
-      <c r="O105" s="71"/>
-      <c r="P105" s="72">
-        <v>2</v>
-      </c>
-      <c r="Q105" s="72"/>
-      <c r="R105" s="73"/>
+      <c r="O105" s="66"/>
+      <c r="P105" s="66"/>
+      <c r="Q105" s="66"/>
+      <c r="R105" s="91"/>
       <c r="S105" s="66"/>
       <c r="T105" s="67"/>
     </row>
-    <row r="106" spans="1:20" ht="27">
-      <c r="E106" s="57"/>
-      <c r="F106" s="58">
-        <v>211</v>
-      </c>
-      <c r="G106" s="32" t="s">
-        <v>257</v>
-      </c>
-      <c r="H106" s="57" t="s">
-        <v>259</v>
-      </c>
-      <c r="L106" s="68"/>
-      <c r="M106" s="69"/>
-      <c r="N106" s="69"/>
-      <c r="O106" s="69"/>
-      <c r="P106" s="69"/>
-      <c r="Q106" s="69"/>
-      <c r="R106" s="69"/>
-      <c r="S106" s="69"/>
-      <c r="T106" s="70"/>
-    </row>
-    <row r="107" spans="1:20">
+    <row r="106" spans="5:20">
+      <c r="E106" s="59"/>
+      <c r="F106" s="58"/>
+      <c r="G106" s="32"/>
+      <c r="H106" s="57"/>
+      <c r="L106" s="65"/>
+      <c r="M106" s="74"/>
+      <c r="N106" s="66"/>
+      <c r="O106" s="71"/>
+      <c r="P106" s="72"/>
+      <c r="Q106" s="72"/>
+      <c r="R106" s="73"/>
+      <c r="S106" s="66"/>
+      <c r="T106" s="67"/>
+    </row>
+    <row r="107" spans="5:20" ht="27">
       <c r="E107" s="57"/>
       <c r="F107" s="58">
+        <v>211</v>
+      </c>
+      <c r="G107" s="32" t="s">
+        <v>256</v>
+      </c>
+      <c r="H107" s="57" t="s">
+        <v>258</v>
+      </c>
+      <c r="L107" s="68"/>
+      <c r="M107" s="69"/>
+      <c r="N107" s="69"/>
+      <c r="O107" s="69"/>
+      <c r="P107" s="69"/>
+      <c r="Q107" s="69"/>
+      <c r="R107" s="69"/>
+      <c r="S107" s="69"/>
+      <c r="T107" s="70"/>
+    </row>
+    <row r="108" spans="5:20">
+      <c r="E108" s="57"/>
+      <c r="F108" s="58">
         <v>212</v>
-      </c>
-      <c r="G107" s="32" t="s">
-        <v>268</v>
-      </c>
-      <c r="H107" s="57" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="108" spans="1:20" ht="27">
-      <c r="E108" s="59" t="s">
-        <v>505</v>
-      </c>
-      <c r="F108" s="58">
-        <v>213</v>
       </c>
       <c r="G108" s="32" t="s">
         <v>267</v>
       </c>
       <c r="H108" s="57" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="109" spans="5:20" ht="27">
+      <c r="E109" s="59" t="s">
+        <v>499</v>
+      </c>
+      <c r="F109" s="58">
+        <v>213</v>
+      </c>
+      <c r="G109" s="32" t="s">
+        <v>266</v>
+      </c>
+      <c r="H109" s="57" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="110" spans="5:20" ht="27">
+      <c r="E110" s="59" t="s">
+        <v>500</v>
+      </c>
+      <c r="F110" s="58">
+        <v>214</v>
+      </c>
+      <c r="G110" s="32" t="s">
+        <v>268</v>
+      </c>
+      <c r="H110" s="57" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="109" spans="1:20" ht="27">
-      <c r="E109" s="59" t="s">
-        <v>506</v>
-      </c>
-      <c r="F109" s="58">
-        <v>214</v>
-      </c>
-      <c r="G109" s="32" t="s">
+    <row r="111" spans="5:20">
+      <c r="E111" s="59"/>
+      <c r="F111" s="58">
+        <v>215</v>
+      </c>
+      <c r="G111" s="57" t="s">
         <v>269</v>
       </c>
-      <c r="H109" s="57" t="s">
+      <c r="H111" s="57" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="112" spans="5:20" ht="27">
+      <c r="E112" s="59" t="s">
+        <v>498</v>
+      </c>
+      <c r="F112" s="58">
+        <v>220</v>
+      </c>
+      <c r="G112" s="84" t="s">
+        <v>339</v>
+      </c>
+      <c r="H112" s="57" t="s">
         <v>273</v>
-      </c>
-    </row>
-    <row r="110" spans="1:20">
-      <c r="E110" s="59"/>
-      <c r="F110" s="58">
-        <v>215</v>
-      </c>
-      <c r="G110" s="57" t="s">
-        <v>270</v>
-      </c>
-      <c r="H110" s="57" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="111" spans="1:20" ht="27">
-      <c r="E111" s="59" t="s">
-        <v>504</v>
-      </c>
-      <c r="F111" s="58">
-        <v>220</v>
-      </c>
-      <c r="G111" s="84" t="s">
-        <v>341</v>
-      </c>
-      <c r="H111" s="57" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="112" spans="1:20" ht="40.5">
-      <c r="E112" s="59" t="s">
-        <v>281</v>
-      </c>
-      <c r="F112" s="58">
-        <v>230</v>
-      </c>
-      <c r="G112" s="84" t="s">
-        <v>346</v>
-      </c>
-      <c r="H112" s="57" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="113" spans="5:8" ht="40.5">
       <c r="E113" s="59" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F113" s="58">
+        <v>230</v>
+      </c>
+      <c r="G113" s="84" t="s">
+        <v>344</v>
+      </c>
+      <c r="H113" s="57" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="114" spans="5:8" ht="40.5">
+      <c r="E114" s="59" t="s">
+        <v>278</v>
+      </c>
+      <c r="F114" s="58">
         <v>240</v>
-      </c>
-      <c r="G113" s="84" t="s">
-        <v>347</v>
-      </c>
-      <c r="H113" s="57" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="114" spans="5:8" ht="40.5">
-      <c r="E114" s="59"/>
-      <c r="F114" s="58">
-        <v>250</v>
       </c>
       <c r="G114" s="84" t="s">
         <v>345</v>
       </c>
       <c r="H114" s="57" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="115" spans="5:8">
-      <c r="E115" s="57"/>
+        <v>274</v>
+      </c>
+    </row>
+    <row r="115" spans="5:8" ht="40.5">
+      <c r="E115" s="59"/>
       <c r="F115" s="58">
-        <v>280</v>
-      </c>
-      <c r="G115" s="32"/>
-      <c r="H115" s="57"/>
+        <v>250</v>
+      </c>
+      <c r="G115" s="84" t="s">
+        <v>343</v>
+      </c>
+      <c r="H115" s="57" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="116" spans="5:8">
       <c r="E116" s="57"/>
-      <c r="F116" s="58"/>
+      <c r="F116" s="58">
+        <v>280</v>
+      </c>
       <c r="G116" s="32"/>
       <c r="H116" s="57"/>
     </row>
@@ -9316,8 +9257,38 @@
       <c r="G117" s="32"/>
       <c r="H117" s="57"/>
     </row>
+    <row r="118" spans="5:8">
+      <c r="E118" s="57"/>
+      <c r="F118" s="58"/>
+      <c r="G118" s="32"/>
+      <c r="H118" s="57"/>
+    </row>
   </sheetData>
-  <mergeCells count="41">
+  <mergeCells count="40">
+    <mergeCell ref="F67:I67"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A79:D79"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="F78:I78"/>
+    <mergeCell ref="F79:I79"/>
+    <mergeCell ref="A87:D87"/>
+    <mergeCell ref="F87:I87"/>
+    <mergeCell ref="A88:D88"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="F33:I33"/>
     <mergeCell ref="A47:D47"/>
     <mergeCell ref="F44:I44"/>
     <mergeCell ref="F43:I43"/>
@@ -9334,42 +9305,17 @@
     <mergeCell ref="A66:D66"/>
     <mergeCell ref="A67:D67"/>
     <mergeCell ref="F66:I66"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F67:I67"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="A79:D79"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="F78:I78"/>
-    <mergeCell ref="F79:I79"/>
-    <mergeCell ref="A87:D87"/>
-    <mergeCell ref="F87:I87"/>
-    <mergeCell ref="A88:D88"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C7" location="参数说明!A1" display="选项附加值1"/>
     <hyperlink ref="H8" location="参数说明!A1" display="选项附加值1"/>
-    <hyperlink ref="G114" location="参数说明!A1" display="胡牌8"/>
+    <hyperlink ref="G115" location="参数说明!A1" display="胡牌8"/>
     <hyperlink ref="C37" location="参数说明!A1" display="状态位3"/>
     <hyperlink ref="C38" location="参数说明!A1" display="额外值4"/>
-    <hyperlink ref="G111" location="参数说明!A1" display="吃牌5"/>
-    <hyperlink ref="G112" location="参数说明!A1" display="杠6"/>
-    <hyperlink ref="G113" location="参数说明!A1" display="听牌7"/>
+    <hyperlink ref="G112" location="参数说明!A1" display="吃牌5"/>
+    <hyperlink ref="G113" location="参数说明!A1" display="杠6"/>
+    <hyperlink ref="G114" location="参数说明!A1" display="听牌7"/>
     <hyperlink ref="H12" location="参数说明!A1" display="游戏数据附加值2"/>
     <hyperlink ref="H68" location="参数说明!A1" display="得分详情10"/>
   </hyperlinks>
@@ -9384,7 +9330,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9395,82 +9341,82 @@
   <sheetData>
     <row r="1" spans="1:2" ht="40.5">
       <c r="A1" s="80" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B1" s="81" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="81">
       <c r="A2" s="80" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B2" s="81" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="40.5">
       <c r="A3" s="80" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B3" s="81" t="s">
-        <v>338</v>
+        <v>503</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="94.5">
       <c r="A4" s="80" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B4" s="81" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="54">
       <c r="A5" s="80" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B5" s="81" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="67.5">
       <c r="A6" s="80" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B6" s="81" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="27">
       <c r="A7" s="80" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B7" s="81" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="67.5">
       <c r="A8" s="80" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B8" s="81" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="27">
       <c r="A9" s="80" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B9" s="81" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="40.5">
       <c r="A10" s="80" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B10" s="81" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
   </sheetData>
@@ -9491,44 +9437,44 @@
   <sheetData>
     <row r="10" spans="2:14" ht="14.25" thickBot="1"/>
     <row r="11" spans="2:14">
-      <c r="B11" s="101" t="s">
-        <v>381</v>
-      </c>
-      <c r="C11" s="102"/>
-      <c r="D11" s="102"/>
-      <c r="E11" s="103"/>
+      <c r="B11" s="100" t="s">
+        <v>379</v>
+      </c>
+      <c r="C11" s="101"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="102"/>
       <c r="F11" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="14.25" thickBot="1"/>
     <row r="13" spans="2:14">
-      <c r="B13" s="101" t="s">
-        <v>382</v>
-      </c>
-      <c r="C13" s="102"/>
-      <c r="D13" s="102"/>
-      <c r="E13" s="103"/>
-      <c r="J13" s="101" t="s">
-        <v>382</v>
-      </c>
-      <c r="K13" s="102"/>
-      <c r="L13" s="102"/>
-      <c r="M13" s="103"/>
+      <c r="B13" s="100" t="s">
+        <v>380</v>
+      </c>
+      <c r="C13" s="101"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="102"/>
+      <c r="J13" s="100" t="s">
+        <v>380</v>
+      </c>
+      <c r="K13" s="101"/>
+      <c r="L13" s="101"/>
+      <c r="M13" s="102"/>
     </row>
     <row r="14" spans="2:14">
-      <c r="B14" s="104" t="s">
-        <v>507</v>
-      </c>
-      <c r="C14" s="105"/>
-      <c r="D14" s="105"/>
-      <c r="E14" s="106"/>
-      <c r="J14" s="104" t="s">
-        <v>380</v>
-      </c>
-      <c r="K14" s="105"/>
-      <c r="L14" s="105"/>
-      <c r="M14" s="106"/>
+      <c r="B14" s="103" t="s">
+        <v>501</v>
+      </c>
+      <c r="C14" s="104"/>
+      <c r="D14" s="104"/>
+      <c r="E14" s="105"/>
+      <c r="J14" s="103" t="s">
+        <v>378</v>
+      </c>
+      <c r="K14" s="104"/>
+      <c r="L14" s="104"/>
+      <c r="M14" s="105"/>
     </row>
     <row r="15" spans="2:14" ht="14.25" thickBot="1">
       <c r="B15" s="8" t="s">
@@ -9541,25 +9487,25 @@
         <v>122</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F15" s="94" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K15" s="85" t="s">
         <v>0</v>
       </c>
       <c r="L15" s="85" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M15" s="20" t="s">
         <v>13</v>
       </c>
       <c r="N15" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
   </sheetData>
@@ -9597,229 +9543,229 @@
   <sheetData>
     <row r="1" spans="2:9">
       <c r="C1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="H1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="2" spans="2:9">
       <c r="B2" s="96" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="3" spans="2:9">
-      <c r="B3" s="104" t="s">
-        <v>460</v>
-      </c>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="G3" s="104" t="s">
-        <v>433</v>
-      </c>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
+      <c r="B3" s="103" t="s">
+        <v>457</v>
+      </c>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="G3" s="103" t="s">
+        <v>430</v>
+      </c>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="8" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C4" s="92" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D4" s="92" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="H4" s="92" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I4" s="92" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="8" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C5" s="92" t="s">
         <v>172</v>
       </c>
       <c r="D5" s="92" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="E5" s="94" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F5" s="94" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H5" s="92" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I5" s="92" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C6" s="92" t="s">
         <v>32</v>
       </c>
       <c r="D6" s="92" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="H6" s="92" t="s">
         <v>32</v>
       </c>
       <c r="I6" s="92" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="8" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C7" s="92" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="92" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="H7" s="92" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="I7" s="92" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="8" spans="2:9">
       <c r="G8" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="H8" s="92" t="s">
+        <v>299</v>
+      </c>
+      <c r="I8" s="92" t="s">
         <v>419</v>
-      </c>
-      <c r="H8" s="92" t="s">
-        <v>300</v>
-      </c>
-      <c r="I8" s="92" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="9" spans="2:9">
       <c r="G9" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="H9" s="92" t="s">
+        <v>299</v>
+      </c>
+      <c r="I9" s="92" t="s">
         <v>420</v>
-      </c>
-      <c r="H9" s="92" t="s">
-        <v>300</v>
-      </c>
-      <c r="I9" s="92" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="10" spans="2:9">
       <c r="G10" s="8" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="H10" s="92" t="s">
+        <v>421</v>
+      </c>
+      <c r="I10" s="92" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="G14" s="103" t="s">
+        <v>407</v>
+      </c>
+      <c r="H14" s="104"/>
+      <c r="I14" s="104"/>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" s="103" t="s">
         <v>424</v>
       </c>
-      <c r="I10" s="92" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9">
-      <c r="G14" s="104" t="s">
-        <v>410</v>
-      </c>
-      <c r="H14" s="105"/>
-      <c r="I14" s="105"/>
-    </row>
-    <row r="15" spans="2:9">
-      <c r="B15" s="104" t="s">
-        <v>427</v>
-      </c>
-      <c r="C15" s="105"/>
-      <c r="D15" s="105"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="104"/>
       <c r="G15" s="8" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="H15" s="92" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="I15" s="92" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="16" spans="2:9">
       <c r="B16" s="8" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C16" s="92" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D16" s="92" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H16" s="92" t="s">
         <v>32</v>
       </c>
       <c r="I16" s="92" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="8" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C17" s="92" t="s">
         <v>32</v>
       </c>
       <c r="D17" s="92" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="H17" s="92" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I17" s="92" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="8" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C18" s="92" t="s">
         <v>32</v>
       </c>
       <c r="D18" s="92" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="H18" s="92" t="s">
         <v>32</v>
       </c>
       <c r="I18" s="92" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="19" spans="2:9">
@@ -9830,36 +9776,36 @@
         <v>32</v>
       </c>
       <c r="D19" s="92" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H19" s="92" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="I19" s="92" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="20" spans="2:9">
       <c r="B20" s="8" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C20" s="92" t="s">
         <v>32</v>
       </c>
       <c r="D20" s="92" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="H20" s="92" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="I20" s="92" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="21" spans="2:9">
@@ -9869,56 +9815,56 @@
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="96" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="104" t="s">
-        <v>443</v>
-      </c>
-      <c r="C25" s="105"/>
-      <c r="D25" s="105"/>
+      <c r="B25" s="103" t="s">
+        <v>440</v>
+      </c>
+      <c r="C25" s="104"/>
+      <c r="D25" s="104"/>
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="8" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C26" s="92" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D26" s="92" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="27" spans="2:9">
       <c r="B27" s="8" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C27" s="92" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D27" s="92" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E27" s="94" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="28" spans="2:9">
       <c r="B28" s="8" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C28" s="92" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D28" s="92" t="s">
-        <v>441</v>
-      </c>
-      <c r="G28" s="104" t="s">
-        <v>449</v>
-      </c>
-      <c r="H28" s="105"/>
-      <c r="I28" s="105"/>
+        <v>438</v>
+      </c>
+      <c r="G28" s="103" t="s">
+        <v>446</v>
+      </c>
+      <c r="H28" s="104"/>
+      <c r="I28" s="104"/>
     </row>
     <row r="29" spans="2:9">
       <c r="B29" s="8"/>
@@ -9931,76 +9877,76 @@
         <v>32</v>
       </c>
       <c r="I29" s="92" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="30" spans="2:9">
       <c r="G30" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H30" s="92" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I30" s="92" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="31" spans="2:9">
       <c r="G31" s="8" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="H31" s="92" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I31" s="92" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="32" spans="2:9">
       <c r="B32" s="96" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G32" s="8"/>
       <c r="H32" s="92"/>
       <c r="I32" s="92"/>
     </row>
     <row r="33" spans="2:9">
-      <c r="B33" s="104" t="s">
-        <v>446</v>
-      </c>
-      <c r="C33" s="105"/>
-      <c r="D33" s="105"/>
+      <c r="B33" s="103" t="s">
+        <v>443</v>
+      </c>
+      <c r="C33" s="104"/>
+      <c r="D33" s="104"/>
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="8" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C34" s="92" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D34" s="92"/>
     </row>
     <row r="35" spans="2:9">
       <c r="B35" s="8" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C35" s="92" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D35" s="92"/>
       <c r="E35" s="94" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="36" spans="2:9">
       <c r="B36" s="8" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C36" s="92" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D36" s="92" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="37" spans="2:9">
@@ -10009,165 +9955,165 @@
       <c r="D37" s="92"/>
     </row>
     <row r="40" spans="2:9">
-      <c r="G40" s="104" t="s">
-        <v>452</v>
-      </c>
-      <c r="H40" s="105"/>
-      <c r="I40" s="105"/>
+      <c r="G40" s="103" t="s">
+        <v>449</v>
+      </c>
+      <c r="H40" s="104"/>
+      <c r="I40" s="104"/>
     </row>
     <row r="41" spans="2:9">
       <c r="G41" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="H41" s="92" t="s">
+        <v>299</v>
+      </c>
+      <c r="I41" s="95" t="s">
         <v>453</v>
-      </c>
-      <c r="H41" s="92" t="s">
-        <v>300</v>
-      </c>
-      <c r="I41" s="95" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="42" spans="2:9">
       <c r="G42" s="8" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="H42" s="92" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I42" s="92" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="43" spans="2:9">
       <c r="G43" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="H43" s="92" t="s">
+        <v>299</v>
+      </c>
+      <c r="I43" s="92" t="s">
         <v>455</v>
-      </c>
-      <c r="H43" s="92" t="s">
-        <v>300</v>
-      </c>
-      <c r="I43" s="92" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="44" spans="2:9">
       <c r="G44" s="8" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="H44" s="92" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I44" s="92" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="48" spans="2:9">
       <c r="B48" s="96" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="49" spans="2:6">
-      <c r="B49" s="104" t="s">
-        <v>471</v>
-      </c>
-      <c r="C49" s="105"/>
-      <c r="D49" s="105"/>
+      <c r="B49" s="103" t="s">
+        <v>468</v>
+      </c>
+      <c r="C49" s="104"/>
+      <c r="D49" s="104"/>
     </row>
     <row r="50" spans="2:6">
       <c r="B50" s="8" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C50" s="92" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D50" s="92"/>
       <c r="F50" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="51" spans="2:6">
       <c r="B51" s="8" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C51" s="92" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D51" s="92"/>
       <c r="E51" s="94" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="F51" s="94" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="52" spans="2:6">
       <c r="B52" s="8" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C52" s="92" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D52" s="93" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="53" spans="2:6">
       <c r="B53" s="8" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C53" s="92" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D53" s="92"/>
     </row>
     <row r="58" spans="2:6">
       <c r="B58" s="96" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="59" spans="2:6">
-      <c r="B59" s="104" t="s">
-        <v>476</v>
-      </c>
-      <c r="C59" s="105"/>
-      <c r="D59" s="105"/>
+      <c r="B59" s="103" t="s">
+        <v>473</v>
+      </c>
+      <c r="C59" s="104"/>
+      <c r="D59" s="104"/>
     </row>
     <row r="60" spans="2:6">
       <c r="B60" s="8" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C60" s="93" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D60" s="93"/>
     </row>
     <row r="61" spans="2:6">
       <c r="B61" s="8" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C61" s="93" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D61" s="93"/>
       <c r="E61" s="94" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="62" spans="2:6">
       <c r="B62" s="8" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C62" s="93" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D62" s="93" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="63" spans="2:6">
       <c r="B63" s="8" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C63" s="93" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D63" s="93"/>
     </row>

--- a/doc/最新接口_拟定.xlsx
+++ b/doc/最新接口_拟定.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="首标签" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="登录" sheetId="5" r:id="rId5"/>
     <sheet name="http登录" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1069,7 +1069,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="505">
   <si>
     <t>int</t>
   </si>
@@ -2153,11 +2153,6 @@
   </si>
   <si>
     <t>uid:uid
-dval:内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uid:uid
 dlist:内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2192,11 +2187,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dVal:杠的子类型
-dlist:杠的内容（明杠，暗杠，捡杠，四风都不需要传，三剑客只需要传多余的哪一个牌即可）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>操作人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2426,10 +2416,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>吃牌5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>杠6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2451,13 +2437,6 @@
   </si>
   <si>
     <t>听牌7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>子类如下
-221:前
-222:中
-223:后</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2590,6 +2569,521 @@
   </si>
   <si>
     <t>玩家id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQConnect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心跳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一个链接返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQEnterRoom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQExit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投票解散</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isAgree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否同意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出游戏（如果为0表示解散房间，否则为退出玩家的玩家id）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPVote</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQVote</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家id：如果为0表示发起投票，显示同意/拒绝按钮,否则为该玩家的选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>压跑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>optional</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>noticeVersions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渠道id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goUrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提审服务器服务器（如果有则跳转，否则不跳转）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本地公告缓存id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quzoneStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器状态（0：停机，1空闲，2爆满，3：维护）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;NetNotice&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NetNotice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公告类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>titleName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>titleDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>startTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>downv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>downr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完整包下载地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源更新地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List《NetZone》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zones</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏区列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NetZone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>port</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>udpport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器状态（0：停机，1空闲，2爆满，3：维护）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEVersionCheck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一个版本请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NetDevice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dev</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RELogin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三方登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RELoginThird</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ThirdKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ukey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELogin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ipPort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ip+":"+port(如果为空则按照玩家自选，否则强制跳转)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NetDevice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>udid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mac</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备名子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备简单信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备mac地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备串号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REVersionCheck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oldPwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>newPwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果：error字段不空空表示错误，否则正确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以上接口格式一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>srcId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://47.92.115.60:8080/LGameLogin/gameserver/version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://47.92.115.60:8080/LGameLogin/gameserver/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://47.92.115.60:8080/LGameLogin/gameserver/login_three</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReModifyPwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://47.92.115.60:8080/LGameLogin/gameserver/register</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>regedist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://47.92.115.60:8080/LGameLogin/gameserver/modifyPwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dev</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,2</t>
+  </si>
+  <si>
+    <t>11,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NetResponse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kvData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uid:uid
+kvData:uid-手牌数量
+dlist：手牌内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uid:uid
+dval:出牌时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPEixtRoom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:局数
+1:最大番数
+2:玩法位集合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dval:0;Dlist:打牌的内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dval:0;Dlist:碰的内容（可以不穿）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NetLoginConfirm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uid:uid
+dvlue:压跑内容
+KVData:玩家id-已压跑情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1位：是否离线
+2位：是否托管
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">uid:uid（&gt;0 为玩家选择反馈，否则为状态信息）
+dval:1：准备，0取消准备
+KVData:玩家id-已准备情况
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dval:1：准备，0取消准备</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2602,66 +3096,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RQConnect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>心跳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一个链接返回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RQEnterRoom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RQExit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退出游戏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>投票解散</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isAgree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否同意</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退出游戏（如果为0表示解散房间，否则为退出玩家的玩家id）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPVote</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RQVote</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家id：如果为0表示发起投票，显示同意/拒绝按钮,否则为该玩家的选择</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>压跑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>extra数据为：kvDatas:(k-v)如下：
 1-&gt;出牌详情(dlist)
 2-&gt;手牌信息（v/dlist）
@@ -2671,462 +3105,21 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>optional</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>version</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>noticeVersions</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>版本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>渠道id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>goUrl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提审服务器服务器（如果有则跳转，否则不跳转）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本地公告缓存id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quzoneStatus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务器状态（0：停机，1空闲，2爆满，3：维护）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>List&lt;NetNotice&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公告</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NetNotice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公告类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>titleName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>titleDesc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>startTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>endTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>downv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>downr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公告</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完整包下载地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源更新地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>List《NetZone》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zones</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏区列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NetZone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>port</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>udpport</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务器状态（0：停机，1空闲，2爆满，3：维护）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SEVersionCheck</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一个版本请求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pwd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NetDevice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dev</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RELogin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第三方登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RELoginThird</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ThirdKey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ukey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SELogin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ipPort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ip+":"+port(如果为空则按照玩家自选，否则强制跳转)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NetDevice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>plat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>udid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mac</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备名子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备简单信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备mac地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备串号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REVersionCheck</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oldPwd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>newPwd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果：error字段不空空表示错误，否则正确</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以上接口格式一致</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>srcId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://47.92.115.60:8080/LGameLogin/gameserver/version</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://47.92.115.60:8080/LGameLogin/gameserver/login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://47.92.115.60:8080/LGameLogin/gameserver/login_three</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReModifyPwd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://47.92.115.60:8080/LGameLogin/gameserver/register</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>regedist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://47.92.115.60:8080/LGameLogin/gameserver/modifyPwd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dev</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11,2</t>
-  </si>
-  <si>
-    <t>11,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NetResponse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kvData</t>
+    <t>dVal:杠的子类型
+dlist:杠的内容（明杠，四风传空，三剑客只需要传多余的那一张牌；暗杠，捡杠：需要传一张目标牌即可）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>uid:uid
-kvData:uid-手牌数量
-dlist：手牌内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uid:uid
-dval:出牌时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPEixtRoom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:局数
-1:最大番数
-2:玩法位集合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dVal:吃的子类型;dlist：吃牌的内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dval:0;Dlist:打牌的内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dval:0;Dlist:碰的内容（可以不穿）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NetLoginConfirm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uid:uid
-dvlue:压跑内容
-KVData:玩家id-已压跑情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1位：是否离线
-2位：是否托管
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">uid:uid（&gt;0 为玩家选择反馈，否则为状态信息）
-dval:1：准备，0取消准备
-KVData:玩家id-已准备情况
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dval:1：准备，0取消准备</t>
+dval:内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dVal:0;dlist：吃牌的内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃牌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3906,11 +3899,14 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3930,6 +3926,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3939,19 +3941,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3963,23 +3971,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4298,32 +4291,32 @@
   <sheetData>
     <row r="3" spans="2:16" ht="14.25" thickBot="1"/>
     <row r="4" spans="2:16">
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="101" t="s">
         <v>232</v>
       </c>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="102"/>
-      <c r="I4" s="100" t="s">
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="103"/>
+      <c r="I4" s="101" t="s">
         <v>234</v>
       </c>
-      <c r="J4" s="101"/>
-      <c r="K4" s="101"/>
-      <c r="L4" s="102"/>
+      <c r="J4" s="102"/>
+      <c r="K4" s="102"/>
+      <c r="L4" s="103"/>
     </row>
     <row r="5" spans="2:16">
-      <c r="B5" s="103" t="s">
+      <c r="B5" s="104" t="s">
         <v>233</v>
       </c>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="105"/>
-      <c r="I5" s="103" t="s">
-        <v>491</v>
-      </c>
-      <c r="J5" s="104"/>
-      <c r="K5" s="104"/>
-      <c r="L5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="106"/>
+      <c r="I5" s="104" t="s">
+        <v>485</v>
+      </c>
+      <c r="J5" s="105"/>
+      <c r="K5" s="105"/>
+      <c r="L5" s="106"/>
     </row>
     <row r="6" spans="2:16">
       <c r="B6" s="8"/>
@@ -4373,7 +4366,7 @@
     </row>
     <row r="9" spans="2:16">
       <c r="I9" s="8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="J9" s="55" t="s">
         <v>238</v>
@@ -4387,21 +4380,21 @@
     </row>
     <row r="11" spans="2:16" ht="14.25" customHeight="1"/>
     <row r="14" spans="2:16" ht="14.25" thickBot="1">
-      <c r="I14" s="109" t="s">
+      <c r="I14" s="98" t="s">
         <v>54</v>
       </c>
-      <c r="J14" s="110"/>
-      <c r="K14" s="110"/>
-      <c r="L14" s="110"/>
-      <c r="M14" s="111"/>
+      <c r="J14" s="99"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="99"/>
+      <c r="M14" s="100"/>
     </row>
     <row r="15" spans="2:16">
-      <c r="B15" s="100" t="s">
+      <c r="B15" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="101"/>
-      <c r="D15" s="101"/>
-      <c r="E15" s="102"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="103"/>
       <c r="I15" s="21" t="s">
         <v>34</v>
       </c>
@@ -4416,18 +4409,18 @@
         <v>34</v>
       </c>
       <c r="N15" s="3"/>
-      <c r="O15" s="98" t="s">
+      <c r="O15" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="P15" s="99"/>
+      <c r="P15" s="108"/>
     </row>
     <row r="16" spans="2:16">
-      <c r="B16" s="103" t="s">
+      <c r="B16" s="104" t="s">
         <v>233</v>
       </c>
-      <c r="C16" s="104"/>
-      <c r="D16" s="104"/>
-      <c r="E16" s="105"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="106"/>
       <c r="I16" s="33"/>
       <c r="J16" s="30"/>
       <c r="K16" s="31">
@@ -4487,7 +4480,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="75" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E18" s="20" t="s">
         <v>13</v>
@@ -4616,7 +4609,7 @@
     </row>
     <row r="22" spans="2:16" ht="27.75" thickBot="1">
       <c r="B22" s="5" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>264</v>
@@ -4925,12 +4918,12 @@
       <c r="P37" s="23"/>
     </row>
     <row r="38" spans="2:16">
-      <c r="B38" s="106" t="s">
+      <c r="B38" s="109" t="s">
         <v>261</v>
       </c>
-      <c r="C38" s="107"/>
-      <c r="D38" s="107"/>
-      <c r="E38" s="108"/>
+      <c r="C38" s="110"/>
+      <c r="D38" s="110"/>
+      <c r="E38" s="111"/>
       <c r="I38" s="33" t="s">
         <v>117</v>
       </c>
@@ -5012,18 +5005,18 @@
     <row r="42" spans="2:16" ht="22.5" customHeight="1"/>
     <row r="43" spans="2:16" ht="31.5" customHeight="1"/>
     <row r="44" spans="2:16">
-      <c r="H44" s="98" t="s">
+      <c r="H44" s="107" t="s">
         <v>247</v>
       </c>
-      <c r="I44" s="99"/>
-      <c r="J44" s="98" t="s">
+      <c r="I44" s="108"/>
+      <c r="J44" s="107" t="s">
         <v>116</v>
       </c>
-      <c r="K44" s="99"/>
-      <c r="L44" s="98" t="s">
+      <c r="K44" s="108"/>
+      <c r="L44" s="107" t="s">
         <v>77</v>
       </c>
-      <c r="M44" s="99"/>
+      <c r="M44" s="108"/>
     </row>
     <row r="45" spans="2:16">
       <c r="H45" s="22">
@@ -5139,11 +5132,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="I14:M14"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="I5:L5"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="J44:K44"/>
     <mergeCell ref="L44:M44"/>
@@ -5151,6 +5139,11 @@
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="H44:I44"/>
     <mergeCell ref="B38:E38"/>
+    <mergeCell ref="I14:M14"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="I5:L5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5163,7 +5156,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:U103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
@@ -5344,11 +5337,11 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="4"/>
-      <c r="B10" s="117" t="s">
+      <c r="B10" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="118"/>
-      <c r="D10" s="119"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="118"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -5357,11 +5350,11 @@
       <c r="J10" s="4"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="117" t="s">
+      <c r="M10" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="N10" s="118"/>
-      <c r="O10" s="119"/>
+      <c r="N10" s="117"/>
+      <c r="O10" s="118"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -5371,11 +5364,11 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="4"/>
-      <c r="B11" s="114" t="s">
+      <c r="B11" s="119" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="115"/>
-      <c r="D11" s="116"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="121"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -5384,11 +5377,11 @@
       <c r="J11" s="4"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="114" t="s">
+      <c r="M11" s="119" t="s">
         <v>27</v>
       </c>
-      <c r="N11" s="115"/>
-      <c r="O11" s="116"/>
+      <c r="N11" s="120"/>
+      <c r="O11" s="121"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -5509,11 +5502,11 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="4"/>
-      <c r="B17" s="117" t="s">
+      <c r="B17" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="118"/>
-      <c r="D17" s="119"/>
+      <c r="C17" s="117"/>
+      <c r="D17" s="118"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -5522,11 +5515,11 @@
       <c r="J17" s="4"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="117" t="s">
+      <c r="M17" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="N17" s="118"/>
-      <c r="O17" s="119"/>
+      <c r="N17" s="117"/>
+      <c r="O17" s="118"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -5535,11 +5528,11 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="4"/>
-      <c r="B18" s="114" t="s">
+      <c r="B18" s="119" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="115"/>
-      <c r="D18" s="116"/>
+      <c r="C18" s="120"/>
+      <c r="D18" s="121"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -5548,11 +5541,11 @@
       <c r="J18" s="4"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="114" t="s">
+      <c r="M18" s="119" t="s">
         <v>129</v>
       </c>
-      <c r="N18" s="115"/>
-      <c r="O18" s="116"/>
+      <c r="N18" s="120"/>
+      <c r="O18" s="121"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -5592,9 +5585,9 @@
     </row>
     <row r="20" spans="1:21" ht="41.25" thickBot="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="117"/>
-      <c r="C20" s="118"/>
-      <c r="D20" s="119"/>
+      <c r="B20" s="116"/>
+      <c r="C20" s="117"/>
+      <c r="D20" s="118"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -5623,11 +5616,11 @@
     </row>
     <row r="21" spans="1:21" ht="14.25" thickBot="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="114" t="s">
+      <c r="B21" s="119" t="s">
         <v>129</v>
       </c>
-      <c r="C21" s="115"/>
-      <c r="D21" s="116"/>
+      <c r="C21" s="120"/>
+      <c r="D21" s="121"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -5694,11 +5687,11 @@
       <c r="J23" s="4"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="117" t="s">
+      <c r="M23" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="N23" s="118"/>
-      <c r="O23" s="119"/>
+      <c r="N23" s="117"/>
+      <c r="O23" s="118"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
@@ -5719,11 +5712,11 @@
       <c r="J24" s="4"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-      <c r="M24" s="114" t="s">
+      <c r="M24" s="119" t="s">
         <v>69</v>
       </c>
-      <c r="N24" s="115"/>
-      <c r="O24" s="116"/>
+      <c r="N24" s="120"/>
+      <c r="O24" s="121"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
@@ -5856,11 +5849,11 @@
       <c r="J29" s="4"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
-      <c r="M29" s="117" t="s">
+      <c r="M29" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="N29" s="118"/>
-      <c r="O29" s="119"/>
+      <c r="N29" s="117"/>
+      <c r="O29" s="118"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
@@ -5881,11 +5874,11 @@
       <c r="J30" s="4"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="114" t="s">
+      <c r="M30" s="119" t="s">
         <v>69</v>
       </c>
-      <c r="N30" s="115"/>
-      <c r="O30" s="116"/>
+      <c r="N30" s="120"/>
+      <c r="O30" s="121"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
@@ -6041,11 +6034,11 @@
       <c r="J36" s="4"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
-      <c r="M36" s="117" t="s">
+      <c r="M36" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="N36" s="118"/>
-      <c r="O36" s="119"/>
+      <c r="N36" s="117"/>
+      <c r="O36" s="118"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
@@ -6066,11 +6059,11 @@
       <c r="J37" s="4"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
-      <c r="M37" s="114" t="s">
+      <c r="M37" s="119" t="s">
         <v>69</v>
       </c>
-      <c r="N37" s="115"/>
-      <c r="O37" s="116"/>
+      <c r="N37" s="120"/>
+      <c r="O37" s="121"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
@@ -6249,14 +6242,14 @@
       <c r="J44" s="4"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
-      <c r="M44" s="117" t="s">
+      <c r="M44" s="116" t="s">
         <v>16</v>
       </c>
-      <c r="N44" s="118"/>
-      <c r="O44" s="118"/>
-      <c r="P44" s="118"/>
-      <c r="Q44" s="118"/>
-      <c r="R44" s="119"/>
+      <c r="N44" s="117"/>
+      <c r="O44" s="117"/>
+      <c r="P44" s="117"/>
+      <c r="Q44" s="117"/>
+      <c r="R44" s="118"/>
       <c r="S44" s="2"/>
       <c r="T44" s="3"/>
       <c r="U44" s="3"/>
@@ -6274,14 +6267,14 @@
       <c r="J45" s="4"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
-      <c r="M45" s="114" t="s">
-        <v>277</v>
-      </c>
-      <c r="N45" s="115"/>
-      <c r="O45" s="115"/>
-      <c r="P45" s="115"/>
-      <c r="Q45" s="115"/>
-      <c r="R45" s="116"/>
+      <c r="M45" s="119" t="s">
+        <v>276</v>
+      </c>
+      <c r="N45" s="120"/>
+      <c r="O45" s="120"/>
+      <c r="P45" s="120"/>
+      <c r="Q45" s="120"/>
+      <c r="R45" s="121"/>
       <c r="S45" s="2"/>
       <c r="T45" s="3"/>
       <c r="U45" s="3"/>
@@ -6308,11 +6301,11 @@
       <c r="O46" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="P46" s="120" t="s">
+      <c r="P46" s="122" t="s">
         <v>130</v>
       </c>
-      <c r="Q46" s="120"/>
-      <c r="R46" s="121"/>
+      <c r="Q46" s="122"/>
+      <c r="R46" s="123"/>
       <c r="S46" s="2"/>
       <c r="T46" s="3"/>
       <c r="U46" s="3"/>
@@ -6339,22 +6332,22 @@
       <c r="O47" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="P47" s="120" t="s">
+      <c r="P47" s="122" t="s">
         <v>149</v>
       </c>
-      <c r="Q47" s="120"/>
-      <c r="R47" s="121"/>
+      <c r="Q47" s="122"/>
+      <c r="R47" s="123"/>
       <c r="S47" s="2"/>
       <c r="T47" s="3"/>
       <c r="U47" s="3"/>
     </row>
     <row r="48" spans="1:21">
       <c r="A48" s="1"/>
-      <c r="B48" s="117" t="s">
+      <c r="B48" s="116" t="s">
         <v>114</v>
       </c>
-      <c r="C48" s="118"/>
-      <c r="D48" s="119"/>
+      <c r="C48" s="117"/>
+      <c r="D48" s="118"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -6372,22 +6365,22 @@
       <c r="O48" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P48" s="120" t="s">
+      <c r="P48" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="Q48" s="120"/>
-      <c r="R48" s="121"/>
+      <c r="Q48" s="122"/>
+      <c r="R48" s="123"/>
       <c r="S48" s="2"/>
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
     </row>
     <row r="49" spans="1:21">
       <c r="A49" s="1"/>
-      <c r="B49" s="114" t="s">
+      <c r="B49" s="119" t="s">
         <v>112</v>
       </c>
-      <c r="C49" s="115"/>
-      <c r="D49" s="116"/>
+      <c r="C49" s="120"/>
+      <c r="D49" s="121"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -6444,11 +6437,11 @@
       <c r="O50" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P50" s="120" t="s">
+      <c r="P50" s="122" t="s">
         <v>18</v>
       </c>
-      <c r="Q50" s="120"/>
-      <c r="R50" s="121"/>
+      <c r="Q50" s="122"/>
+      <c r="R50" s="123"/>
       <c r="S50" s="2"/>
       <c r="T50" s="3"/>
       <c r="U50" s="3"/>
@@ -6475,11 +6468,11 @@
       <c r="O51" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="P51" s="120" t="s">
+      <c r="P51" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="Q51" s="120"/>
-      <c r="R51" s="121"/>
+      <c r="Q51" s="122"/>
+      <c r="R51" s="123"/>
       <c r="S51" s="2"/>
       <c r="T51" s="3"/>
       <c r="U51" s="3"/>
@@ -6537,11 +6530,11 @@
       <c r="O53" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="P53" s="120" t="s">
+      <c r="P53" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="Q53" s="120"/>
-      <c r="R53" s="121"/>
+      <c r="Q53" s="122"/>
+      <c r="R53" s="123"/>
       <c r="S53" s="2"/>
       <c r="T53" s="3"/>
       <c r="U53" s="3"/>
@@ -6706,13 +6699,13 @@
       <c r="J59" s="4"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
-      <c r="M59" s="117" t="s">
+      <c r="M59" s="116" t="s">
         <v>136</v>
       </c>
-      <c r="N59" s="118"/>
-      <c r="O59" s="118"/>
-      <c r="P59" s="118"/>
-      <c r="Q59" s="119"/>
+      <c r="N59" s="117"/>
+      <c r="O59" s="117"/>
+      <c r="P59" s="117"/>
+      <c r="Q59" s="118"/>
       <c r="R59" s="1"/>
       <c r="S59" s="2"/>
       <c r="T59" s="3"/>
@@ -6740,10 +6733,10 @@
       <c r="O60" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="P60" s="112" t="s">
+      <c r="P60" s="114" t="s">
         <v>137</v>
       </c>
-      <c r="Q60" s="113"/>
+      <c r="Q60" s="115"/>
       <c r="R60" s="1"/>
       <c r="S60" s="2"/>
       <c r="T60" s="3"/>
@@ -6771,10 +6764,10 @@
       <c r="O61" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="P61" s="112" t="s">
+      <c r="P61" s="114" t="s">
         <v>140</v>
       </c>
-      <c r="Q61" s="113"/>
+      <c r="Q61" s="115"/>
       <c r="R61" s="1"/>
       <c r="S61" s="2"/>
       <c r="T61" s="3"/>
@@ -6802,10 +6795,10 @@
       <c r="O62" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="P62" s="112" t="s">
+      <c r="P62" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="Q62" s="113"/>
+      <c r="Q62" s="115"/>
       <c r="R62" s="1"/>
       <c r="S62" s="2"/>
       <c r="T62" s="3"/>
@@ -6833,10 +6826,10 @@
       <c r="O63" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P63" s="122" t="s">
+      <c r="P63" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="Q63" s="123"/>
+      <c r="Q63" s="113"/>
       <c r="R63" s="1"/>
       <c r="S63" s="2"/>
       <c r="T63" s="3"/>
@@ -6864,10 +6857,10 @@
       <c r="O64" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P64" s="112" t="s">
+      <c r="P64" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="Q64" s="113"/>
+      <c r="Q64" s="115"/>
       <c r="R64" s="1"/>
       <c r="S64" s="2"/>
       <c r="T64" s="3"/>
@@ -6895,10 +6888,10 @@
       <c r="O65" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="P65" s="112" t="s">
+      <c r="P65" s="114" t="s">
         <v>60</v>
       </c>
-      <c r="Q65" s="113"/>
+      <c r="Q65" s="115"/>
       <c r="R65" s="1"/>
       <c r="S65" s="2"/>
       <c r="T65" s="3"/>
@@ -6926,10 +6919,10 @@
       <c r="O66" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P66" s="112" t="s">
+      <c r="P66" s="114" t="s">
         <v>218</v>
       </c>
-      <c r="Q66" s="113"/>
+      <c r="Q66" s="115"/>
       <c r="R66" s="1"/>
       <c r="S66" s="2"/>
       <c r="T66" s="3"/>
@@ -6957,10 +6950,10 @@
       <c r="O67" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P67" s="112" t="s">
+      <c r="P67" s="114" t="s">
         <v>217</v>
       </c>
-      <c r="Q67" s="113"/>
+      <c r="Q67" s="115"/>
       <c r="R67" s="1"/>
       <c r="S67" s="1"/>
       <c r="T67" s="3"/>
@@ -7002,13 +6995,13 @@
       <c r="J69" s="4"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
-      <c r="M69" s="117" t="s">
+      <c r="M69" s="116" t="s">
         <v>176</v>
       </c>
-      <c r="N69" s="118"/>
-      <c r="O69" s="118"/>
-      <c r="P69" s="118"/>
-      <c r="Q69" s="119"/>
+      <c r="N69" s="117"/>
+      <c r="O69" s="117"/>
+      <c r="P69" s="117"/>
+      <c r="Q69" s="118"/>
       <c r="R69" s="1"/>
       <c r="S69" s="1"/>
       <c r="T69" s="3"/>
@@ -7027,13 +7020,13 @@
       <c r="J70" s="4"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
-      <c r="M70" s="117" t="s">
+      <c r="M70" s="116" t="s">
         <v>177</v>
       </c>
-      <c r="N70" s="118"/>
-      <c r="O70" s="118"/>
-      <c r="P70" s="118"/>
-      <c r="Q70" s="119"/>
+      <c r="N70" s="117"/>
+      <c r="O70" s="117"/>
+      <c r="P70" s="117"/>
+      <c r="Q70" s="118"/>
       <c r="R70" s="1"/>
       <c r="S70" s="1"/>
       <c r="T70" s="3"/>
@@ -7061,10 +7054,10 @@
       <c r="O71" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="P71" s="122" t="s">
+      <c r="P71" s="112" t="s">
         <v>201</v>
       </c>
-      <c r="Q71" s="123"/>
+      <c r="Q71" s="113"/>
       <c r="R71" s="1"/>
       <c r="S71" s="1"/>
       <c r="T71" s="3"/>
@@ -7092,10 +7085,10 @@
       <c r="O72" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="P72" s="122" t="s">
+      <c r="P72" s="112" t="s">
         <v>193</v>
       </c>
-      <c r="Q72" s="123"/>
+      <c r="Q72" s="113"/>
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
       <c r="T72" s="3"/>
@@ -7123,10 +7116,10 @@
       <c r="O73" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="P73" s="122" t="s">
+      <c r="P73" s="112" t="s">
         <v>190</v>
       </c>
-      <c r="Q73" s="123"/>
+      <c r="Q73" s="113"/>
       <c r="R73" s="1"/>
       <c r="S73" s="1"/>
       <c r="T73" s="3"/>
@@ -7183,10 +7176,10 @@
       <c r="O75" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P75" s="112" t="s">
+      <c r="P75" s="114" t="s">
         <v>219</v>
       </c>
-      <c r="Q75" s="113"/>
+      <c r="Q75" s="115"/>
       <c r="R75" s="1"/>
       <c r="S75" s="1"/>
       <c r="T75" s="3"/>
@@ -7214,10 +7207,10 @@
       <c r="O76" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P76" s="112" t="s">
+      <c r="P76" s="114" t="s">
         <v>220</v>
       </c>
-      <c r="Q76" s="113"/>
+      <c r="Q76" s="115"/>
       <c r="R76" s="1"/>
       <c r="S76" s="1"/>
       <c r="T76" s="3"/>
@@ -7259,11 +7252,11 @@
       <c r="J78" s="4"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
-      <c r="M78" s="114" t="s">
+      <c r="M78" s="119" t="s">
         <v>191</v>
       </c>
-      <c r="N78" s="115"/>
-      <c r="O78" s="116"/>
+      <c r="N78" s="120"/>
+      <c r="O78" s="121"/>
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
       <c r="R78" s="1"/>
@@ -7365,11 +7358,11 @@
       <c r="J82" s="4"/>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
-      <c r="M82" s="114" t="s">
+      <c r="M82" s="119" t="s">
         <v>183</v>
       </c>
-      <c r="N82" s="115"/>
-      <c r="O82" s="116"/>
+      <c r="N82" s="120"/>
+      <c r="O82" s="121"/>
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
       <c r="R82" s="1"/>
@@ -7880,6 +7873,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="M78:O78"/>
+    <mergeCell ref="M82:O82"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="M59:Q59"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P51:R51"/>
+    <mergeCell ref="P53:R53"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="M44:R44"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="M45:R45"/>
+    <mergeCell ref="P46:R46"/>
+    <mergeCell ref="P47:R47"/>
+    <mergeCell ref="P48:R48"/>
+    <mergeCell ref="P50:R50"/>
     <mergeCell ref="P63:Q63"/>
     <mergeCell ref="P66:Q66"/>
     <mergeCell ref="B48:D48"/>
@@ -7896,34 +7917,6 @@
     <mergeCell ref="P60:Q60"/>
     <mergeCell ref="P62:Q62"/>
     <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="M45:R45"/>
-    <mergeCell ref="P46:R46"/>
-    <mergeCell ref="P47:R47"/>
-    <mergeCell ref="P48:R48"/>
-    <mergeCell ref="P50:R50"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="M44:R44"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="M78:O78"/>
-    <mergeCell ref="M82:O82"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="M59:Q59"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P51:R51"/>
-    <mergeCell ref="P53:R53"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="M29:O29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7935,8 +7928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:T118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E99" sqref="E99"/>
+    <sheetView topLeftCell="C100" workbookViewId="0">
+      <selection activeCell="H112" sqref="E110:H112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7952,86 +7945,86 @@
   <sheetData>
     <row r="2" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="3" spans="1:10">
-      <c r="A3" s="100" t="s">
-        <v>285</v>
-      </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="102"/>
-      <c r="F3" s="100" t="s">
-        <v>296</v>
-      </c>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="102"/>
+      <c r="A3" s="101" t="s">
+        <v>283</v>
+      </c>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="103"/>
+      <c r="F3" s="101" t="s">
+        <v>294</v>
+      </c>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="103"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="103" t="s">
-        <v>286</v>
-      </c>
-      <c r="B4" s="104"/>
-      <c r="C4" s="104"/>
-      <c r="D4" s="105"/>
-      <c r="F4" s="103" t="s">
-        <v>289</v>
-      </c>
-      <c r="G4" s="104"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="105"/>
+      <c r="A4" s="104" t="s">
+        <v>284</v>
+      </c>
+      <c r="B4" s="105"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="106"/>
+      <c r="F4" s="104" t="s">
+        <v>287</v>
+      </c>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="106"/>
     </row>
     <row r="5" spans="1:10" ht="14.25" thickBot="1">
       <c r="A5" s="8" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B5" s="76" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="76" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G5" s="76" t="s">
         <v>0</v>
       </c>
       <c r="H5" s="76" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="I5" s="20" t="s">
         <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="14.25" thickBot="1">
       <c r="A6" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B6" s="76" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="76" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G6" s="76" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="76" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="I6" s="20" t="s">
         <v>13</v>
@@ -8039,39 +8032,39 @@
     </row>
     <row r="7" spans="1:10" ht="14.25" thickBot="1">
       <c r="A7" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="B7" s="76" t="s">
         <v>314</v>
       </c>
-      <c r="B7" s="76" t="s">
-        <v>316</v>
-      </c>
       <c r="C7" s="83" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G7" s="76" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H7" s="76" t="s">
         <v>262</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.25" thickBot="1">
       <c r="F8" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="G8" s="76" t="s">
         <v>314</v>
       </c>
-      <c r="G8" s="76" t="s">
-        <v>316</v>
-      </c>
       <c r="H8" s="83" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I8" s="20" t="s">
         <v>13</v>
@@ -8079,55 +8072,55 @@
     </row>
     <row r="9" spans="1:10" ht="14.25" thickBot="1">
       <c r="F9" s="8" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G9" s="78" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H9" s="78" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="14.25" thickBot="1">
       <c r="F10" s="8" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G10" s="78" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H10" s="78" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.25" thickBot="1">
       <c r="F11" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="G11" s="78" t="s">
+        <v>323</v>
+      </c>
+      <c r="H11" s="78" t="s">
+        <v>327</v>
+      </c>
+      <c r="I11" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="G11" s="78" t="s">
-        <v>325</v>
-      </c>
-      <c r="H11" s="78" t="s">
-        <v>329</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="14.25" thickBot="1">
       <c r="F12" s="8" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="G12" s="85" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H12" s="84" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="I12" s="20" t="s">
         <v>13</v>
@@ -8135,57 +8128,57 @@
     </row>
     <row r="15" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="16" spans="1:10">
-      <c r="A16" s="100" t="s">
-        <v>283</v>
-      </c>
-      <c r="B16" s="101"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="102"/>
-      <c r="F16" s="100" t="s">
-        <v>283</v>
-      </c>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="102"/>
+      <c r="A16" s="101" t="s">
+        <v>281</v>
+      </c>
+      <c r="B16" s="102"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="103"/>
+      <c r="F16" s="101" t="s">
+        <v>281</v>
+      </c>
+      <c r="G16" s="102"/>
+      <c r="H16" s="102"/>
+      <c r="I16" s="103"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="103" t="s">
-        <v>284</v>
-      </c>
-      <c r="B17" s="104"/>
-      <c r="C17" s="104"/>
-      <c r="D17" s="105"/>
-      <c r="F17" s="103" t="s">
-        <v>381</v>
-      </c>
-      <c r="G17" s="104"/>
-      <c r="H17" s="104"/>
-      <c r="I17" s="105"/>
+      <c r="A17" s="104" t="s">
+        <v>282</v>
+      </c>
+      <c r="B17" s="105"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="106"/>
+      <c r="F17" s="104" t="s">
+        <v>376</v>
+      </c>
+      <c r="G17" s="105"/>
+      <c r="H17" s="105"/>
+      <c r="I17" s="106"/>
       <c r="J17" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="8" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B18" s="76" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="76" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D18" s="76" t="s">
         <v>72</v>
       </c>
       <c r="E18" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>132</v>
       </c>
       <c r="G18" s="76" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H18" s="76" t="s">
         <v>263</v>
@@ -8196,13 +8189,13 @@
     </row>
     <row r="19" spans="1:10" ht="14.25" thickBot="1">
       <c r="A19" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B19" s="76" t="s">
+        <v>297</v>
+      </c>
+      <c r="C19" s="76" t="s">
         <v>299</v>
-      </c>
-      <c r="C19" s="76" t="s">
-        <v>301</v>
       </c>
       <c r="D19" s="20" t="s">
         <v>13</v>
@@ -8210,20 +8203,20 @@
     </row>
     <row r="23" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="24" spans="1:10">
-      <c r="F24" s="100" t="s">
-        <v>308</v>
-      </c>
-      <c r="G24" s="101"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="102"/>
+      <c r="F24" s="101" t="s">
+        <v>306</v>
+      </c>
+      <c r="G24" s="102"/>
+      <c r="H24" s="102"/>
+      <c r="I24" s="103"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="F25" s="103" t="s">
-        <v>309</v>
-      </c>
-      <c r="G25" s="104"/>
-      <c r="H25" s="104"/>
-      <c r="I25" s="105"/>
+      <c r="F25" s="104" t="s">
+        <v>307</v>
+      </c>
+      <c r="G25" s="105"/>
+      <c r="H25" s="105"/>
+      <c r="I25" s="106"/>
     </row>
     <row r="26" spans="1:10">
       <c r="F26" s="8" t="s">
@@ -8233,7 +8226,7 @@
         <v>0</v>
       </c>
       <c r="H26" s="85" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I26" s="76" t="s">
         <v>72</v>
@@ -8244,33 +8237,33 @@
     </row>
     <row r="31" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="32" spans="1:10">
-      <c r="A32" s="100" t="s">
+      <c r="A32" s="101" t="s">
+        <v>288</v>
+      </c>
+      <c r="B32" s="102"/>
+      <c r="C32" s="102"/>
+      <c r="D32" s="103"/>
+      <c r="F32" s="101" t="s">
+        <v>315</v>
+      </c>
+      <c r="G32" s="102"/>
+      <c r="H32" s="102"/>
+      <c r="I32" s="103"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="104" t="s">
         <v>290</v>
       </c>
-      <c r="B32" s="101"/>
-      <c r="C32" s="101"/>
-      <c r="D32" s="102"/>
-      <c r="F32" s="100" t="s">
-        <v>317</v>
-      </c>
-      <c r="G32" s="101"/>
-      <c r="H32" s="101"/>
-      <c r="I32" s="102"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="103" t="s">
-        <v>292</v>
-      </c>
-      <c r="B33" s="104"/>
-      <c r="C33" s="104"/>
-      <c r="D33" s="105"/>
+      <c r="B33" s="105"/>
+      <c r="C33" s="105"/>
+      <c r="D33" s="106"/>
       <c r="E33" s="80"/>
-      <c r="F33" s="103" t="s">
-        <v>318</v>
-      </c>
-      <c r="G33" s="104"/>
-      <c r="H33" s="104"/>
-      <c r="I33" s="105"/>
+      <c r="F33" s="104" t="s">
+        <v>316</v>
+      </c>
+      <c r="G33" s="105"/>
+      <c r="H33" s="105"/>
+      <c r="I33" s="106"/>
     </row>
     <row r="34" spans="1:10" ht="14.25" thickBot="1">
       <c r="A34" s="8" t="s">
@@ -8280,54 +8273,54 @@
         <v>0</v>
       </c>
       <c r="C34" s="85" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D34" s="76" t="s">
         <v>72</v>
       </c>
       <c r="E34" s="80"/>
       <c r="F34" s="8" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G34" s="76" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H34" s="76" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="14.25" thickBot="1">
       <c r="A35" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B35" s="85" t="s">
         <v>142</v>
       </c>
       <c r="C35" s="85" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D35" s="20" t="s">
         <v>13</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G35" s="85" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H35" s="76" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="14.25" thickBot="1">
       <c r="A36" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B36" s="76" t="s">
         <v>0</v>
@@ -8339,16 +8332,16 @@
         <v>13</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G36" s="85" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="H36" s="76" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -8359,7 +8352,7 @@
         <v>0</v>
       </c>
       <c r="C37" s="84" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D37" s="76" t="s">
         <v>72</v>
@@ -8367,13 +8360,13 @@
     </row>
     <row r="38" spans="1:10" ht="14.25" thickBot="1">
       <c r="A38" s="8" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B38" s="85" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C38" s="84" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D38" s="20" t="s">
         <v>13</v>
@@ -8381,37 +8374,37 @@
     </row>
     <row r="42" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="43" spans="1:10">
-      <c r="A43" s="100" t="s">
-        <v>303</v>
-      </c>
-      <c r="B43" s="101"/>
-      <c r="C43" s="101"/>
-      <c r="D43" s="102"/>
-      <c r="F43" s="100" t="s">
-        <v>383</v>
-      </c>
-      <c r="G43" s="101"/>
-      <c r="H43" s="101"/>
-      <c r="I43" s="102"/>
+      <c r="A43" s="101" t="s">
+        <v>301</v>
+      </c>
+      <c r="B43" s="102"/>
+      <c r="C43" s="102"/>
+      <c r="D43" s="103"/>
+      <c r="F43" s="101" t="s">
+        <v>378</v>
+      </c>
+      <c r="G43" s="102"/>
+      <c r="H43" s="102"/>
+      <c r="I43" s="103"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="103" t="s">
-        <v>496</v>
-      </c>
-      <c r="B44" s="104"/>
-      <c r="C44" s="104"/>
-      <c r="D44" s="105"/>
+      <c r="A44" s="104" t="s">
+        <v>490</v>
+      </c>
+      <c r="B44" s="105"/>
+      <c r="C44" s="105"/>
+      <c r="D44" s="106"/>
       <c r="E44" t="s">
-        <v>479</v>
-      </c>
-      <c r="F44" s="103" t="s">
-        <v>382</v>
-      </c>
-      <c r="G44" s="104"/>
-      <c r="H44" s="104"/>
-      <c r="I44" s="105"/>
+        <v>473</v>
+      </c>
+      <c r="F44" s="104" t="s">
+        <v>377</v>
+      </c>
+      <c r="G44" s="105"/>
+      <c r="H44" s="105"/>
+      <c r="I44" s="106"/>
       <c r="J44" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="14.25" thickBot="1">
@@ -8422,105 +8415,105 @@
         <v>0</v>
       </c>
       <c r="H45" s="87" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="I45" s="86" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="100" t="s">
-        <v>306</v>
-      </c>
-      <c r="B46" s="101"/>
-      <c r="C46" s="101"/>
-      <c r="D46" s="102"/>
+      <c r="A46" s="101" t="s">
+        <v>304</v>
+      </c>
+      <c r="B46" s="102"/>
+      <c r="C46" s="102"/>
+      <c r="D46" s="103"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="103" t="s">
-        <v>307</v>
-      </c>
-      <c r="B47" s="104"/>
-      <c r="C47" s="104"/>
-      <c r="D47" s="105"/>
+      <c r="A47" s="104" t="s">
+        <v>305</v>
+      </c>
+      <c r="B47" s="105"/>
+      <c r="C47" s="105"/>
+      <c r="D47" s="106"/>
       <c r="E47" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="49" spans="1:10">
-      <c r="A49" s="117" t="s">
-        <v>311</v>
-      </c>
-      <c r="B49" s="118"/>
-      <c r="C49" s="118"/>
-      <c r="D49" s="119"/>
+      <c r="A49" s="116" t="s">
+        <v>309</v>
+      </c>
+      <c r="B49" s="117"/>
+      <c r="C49" s="117"/>
+      <c r="D49" s="118"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="114" t="s">
-        <v>312</v>
-      </c>
-      <c r="B50" s="115"/>
-      <c r="C50" s="115"/>
-      <c r="D50" s="116"/>
+      <c r="A50" s="119" t="s">
+        <v>310</v>
+      </c>
+      <c r="B50" s="120"/>
+      <c r="C50" s="120"/>
+      <c r="D50" s="121"/>
       <c r="E50" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="52" spans="1:10" ht="13.5" customHeight="1" thickBot="1"/>
     <row r="53" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A53" s="100" t="s">
+      <c r="A53" s="101" t="s">
+        <v>379</v>
+      </c>
+      <c r="B53" s="102"/>
+      <c r="C53" s="102"/>
+      <c r="D53" s="103"/>
+      <c r="F53" s="101" t="s">
+        <v>379</v>
+      </c>
+      <c r="G53" s="102"/>
+      <c r="H53" s="102"/>
+      <c r="I53" s="103"/>
+    </row>
+    <row r="54" spans="1:10" ht="13.5" customHeight="1">
+      <c r="A54" s="104" t="s">
         <v>384</v>
       </c>
-      <c r="B53" s="101"/>
-      <c r="C53" s="101"/>
-      <c r="D53" s="102"/>
-      <c r="F53" s="100" t="s">
-        <v>384</v>
-      </c>
-      <c r="G53" s="101"/>
-      <c r="H53" s="101"/>
-      <c r="I53" s="102"/>
-    </row>
-    <row r="54" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A54" s="103" t="s">
-        <v>389</v>
-      </c>
-      <c r="B54" s="104"/>
-      <c r="C54" s="104"/>
-      <c r="D54" s="105"/>
-      <c r="F54" s="103" t="s">
-        <v>390</v>
-      </c>
-      <c r="G54" s="104"/>
-      <c r="H54" s="104"/>
-      <c r="I54" s="105"/>
+      <c r="B54" s="105"/>
+      <c r="C54" s="105"/>
+      <c r="D54" s="106"/>
+      <c r="F54" s="104" t="s">
+        <v>385</v>
+      </c>
+      <c r="G54" s="105"/>
+      <c r="H54" s="105"/>
+      <c r="I54" s="106"/>
     </row>
     <row r="55" spans="1:10" ht="13.5" customHeight="1">
       <c r="A55" s="8" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B55" s="86" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C55" s="86" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D55" s="86" t="s">
         <v>72</v>
       </c>
       <c r="E55" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="G55" s="87" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="H55" s="87" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="I55" s="87" t="s">
         <v>72</v>
@@ -8534,13 +8527,13 @@
         <v>0</v>
       </c>
       <c r="H56" s="87" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="I56" s="20" t="s">
         <v>13</v>
       </c>
       <c r="J56" s="97" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="13.5" customHeight="1"/>
@@ -8553,32 +8546,32 @@
     <row r="64" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="65" spans="1:10" ht="12.75" customHeight="1" thickBot="1"/>
     <row r="66" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A66" s="100" t="s">
-        <v>371</v>
-      </c>
-      <c r="B66" s="101"/>
-      <c r="C66" s="101"/>
-      <c r="D66" s="102"/>
-      <c r="F66" s="100" t="s">
-        <v>353</v>
-      </c>
-      <c r="G66" s="101"/>
-      <c r="H66" s="101"/>
-      <c r="I66" s="102"/>
+      <c r="A66" s="101" t="s">
+        <v>367</v>
+      </c>
+      <c r="B66" s="102"/>
+      <c r="C66" s="102"/>
+      <c r="D66" s="103"/>
+      <c r="F66" s="101" t="s">
+        <v>349</v>
+      </c>
+      <c r="G66" s="102"/>
+      <c r="H66" s="102"/>
+      <c r="I66" s="103"/>
     </row>
     <row r="67" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A67" s="103" t="s">
-        <v>351</v>
-      </c>
-      <c r="B67" s="104"/>
-      <c r="C67" s="104"/>
-      <c r="D67" s="105"/>
-      <c r="F67" s="114" t="s">
-        <v>358</v>
-      </c>
-      <c r="G67" s="115"/>
-      <c r="H67" s="115"/>
-      <c r="I67" s="116"/>
+      <c r="A67" s="104" t="s">
+        <v>347</v>
+      </c>
+      <c r="B67" s="105"/>
+      <c r="C67" s="105"/>
+      <c r="D67" s="106"/>
+      <c r="F67" s="119" t="s">
+        <v>354</v>
+      </c>
+      <c r="G67" s="120"/>
+      <c r="H67" s="120"/>
+      <c r="I67" s="121"/>
     </row>
     <row r="68" spans="1:10" ht="12.75" customHeight="1" thickBot="1">
       <c r="A68" s="8" t="s">
@@ -8588,51 +8581,51 @@
         <v>32</v>
       </c>
       <c r="C68" s="79" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D68" s="20" t="s">
         <v>13</v>
       </c>
       <c r="E68" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G68" s="85" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="H68" s="82" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J68" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="14.25" thickBot="1">
       <c r="A69" s="8" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B69" s="78" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C69" s="78" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D69" s="20" t="s">
         <v>13</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="G69" s="78" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H69" s="85" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="I69" s="20" t="s">
         <v>13</v>
@@ -8640,25 +8633,25 @@
     </row>
     <row r="70" spans="1:10" ht="14.25" thickBot="1">
       <c r="A70" s="8" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B70" s="78" t="s">
         <v>32</v>
       </c>
       <c r="C70" s="78" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D70" s="20" t="s">
         <v>13</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="G70" s="78" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H70" s="78" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="I70" s="20" t="s">
         <v>13</v>
@@ -8672,7 +8665,7 @@
         <v>32</v>
       </c>
       <c r="H71" s="78" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="I71" s="20" t="s">
         <v>13</v>
@@ -8686,46 +8679,46 @@
     </row>
     <row r="77" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="78" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A78" s="117" t="s">
-        <v>313</v>
-      </c>
-      <c r="B78" s="118"/>
-      <c r="C78" s="118"/>
-      <c r="D78" s="119"/>
-      <c r="F78" s="100" t="s">
+      <c r="A78" s="116" t="s">
+        <v>311</v>
+      </c>
+      <c r="B78" s="117"/>
+      <c r="C78" s="117"/>
+      <c r="D78" s="118"/>
+      <c r="F78" s="101" t="s">
         <v>234</v>
       </c>
-      <c r="G78" s="101"/>
-      <c r="H78" s="101"/>
-      <c r="I78" s="102"/>
+      <c r="G78" s="102"/>
+      <c r="H78" s="102"/>
+      <c r="I78" s="103"/>
     </row>
     <row r="79" spans="1:10">
-      <c r="A79" s="100" t="s">
+      <c r="A79" s="101" t="s">
         <v>232</v>
       </c>
-      <c r="B79" s="101"/>
-      <c r="C79" s="101"/>
-      <c r="D79" s="102"/>
+      <c r="B79" s="102"/>
+      <c r="C79" s="102"/>
+      <c r="D79" s="103"/>
       <c r="E79" t="s">
-        <v>486</v>
-      </c>
-      <c r="F79" s="103" t="s">
+        <v>480</v>
+      </c>
+      <c r="F79" s="104" t="s">
         <v>235</v>
       </c>
-      <c r="G79" s="104"/>
-      <c r="H79" s="104"/>
-      <c r="I79" s="105"/>
+      <c r="G79" s="105"/>
+      <c r="H79" s="105"/>
+      <c r="I79" s="106"/>
       <c r="J79" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="80" spans="1:10">
-      <c r="A80" s="103" t="s">
+      <c r="A80" s="104" t="s">
         <v>233</v>
       </c>
-      <c r="B80" s="104"/>
-      <c r="C80" s="104"/>
-      <c r="D80" s="105"/>
+      <c r="B80" s="105"/>
+      <c r="C80" s="105"/>
+      <c r="D80" s="106"/>
       <c r="F80" s="8" t="s">
         <v>237</v>
       </c>
@@ -8773,7 +8766,7 @@
     </row>
     <row r="83" spans="1:10">
       <c r="F83" s="8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G83" s="76" t="s">
         <v>32</v>
@@ -8787,43 +8780,43 @@
     </row>
     <row r="85" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="86" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A86" s="117" t="s">
-        <v>392</v>
-      </c>
-      <c r="B86" s="118"/>
-      <c r="C86" s="118"/>
-      <c r="D86" s="119"/>
-      <c r="F86" s="117" t="s">
-        <v>392</v>
-      </c>
-      <c r="G86" s="118"/>
-      <c r="H86" s="118"/>
-      <c r="I86" s="119"/>
+      <c r="A86" s="116" t="s">
+        <v>387</v>
+      </c>
+      <c r="B86" s="117"/>
+      <c r="C86" s="117"/>
+      <c r="D86" s="118"/>
+      <c r="F86" s="116" t="s">
+        <v>387</v>
+      </c>
+      <c r="G86" s="117"/>
+      <c r="H86" s="117"/>
+      <c r="I86" s="118"/>
     </row>
     <row r="87" spans="1:10">
-      <c r="A87" s="100" t="s">
+      <c r="A87" s="101" t="s">
         <v>232</v>
       </c>
-      <c r="B87" s="101"/>
-      <c r="C87" s="101"/>
-      <c r="D87" s="102"/>
+      <c r="B87" s="102"/>
+      <c r="C87" s="102"/>
+      <c r="D87" s="103"/>
       <c r="E87" t="s">
-        <v>488</v>
-      </c>
-      <c r="F87" s="103" t="s">
+        <v>482</v>
+      </c>
+      <c r="F87" s="104" t="s">
         <v>235</v>
       </c>
-      <c r="G87" s="104"/>
-      <c r="H87" s="104"/>
-      <c r="I87" s="105"/>
+      <c r="G87" s="105"/>
+      <c r="H87" s="105"/>
+      <c r="I87" s="106"/>
     </row>
     <row r="88" spans="1:10">
-      <c r="A88" s="103" t="s">
+      <c r="A88" s="104" t="s">
         <v>233</v>
       </c>
-      <c r="B88" s="104"/>
-      <c r="C88" s="104"/>
-      <c r="D88" s="105"/>
+      <c r="B88" s="105"/>
+      <c r="C88" s="105"/>
+      <c r="D88" s="106"/>
       <c r="F88" s="8" t="s">
         <v>237</v>
       </c>
@@ -8837,7 +8830,7 @@
         <v>72</v>
       </c>
       <c r="J88" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -8874,7 +8867,7 @@
     </row>
     <row r="91" spans="1:10">
       <c r="F91" s="8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G91" s="89" t="s">
         <v>32</v>
@@ -8891,7 +8884,7 @@
         <v>229</v>
       </c>
       <c r="F95" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -8910,7 +8903,7 @@
     </row>
     <row r="97" spans="5:20" ht="54">
       <c r="E97" s="59" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="F97" s="58">
         <v>4</v>
@@ -8919,7 +8912,7 @@
         <v>231</v>
       </c>
       <c r="H97" s="33" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="L97" s="65"/>
       <c r="M97" s="66"/>
@@ -8940,7 +8933,7 @@
         <v>265</v>
       </c>
       <c r="H98" s="33" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="L98" s="65"/>
       <c r="M98" s="66"/>
@@ -8958,10 +8951,10 @@
         <v>6</v>
       </c>
       <c r="G99" s="32" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="H99" s="33" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="L99" s="65"/>
       <c r="M99" s="66"/>
@@ -9086,10 +9079,10 @@
         <v>205</v>
       </c>
       <c r="G105" s="32" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="H105" s="57" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="L105" s="65"/>
       <c r="M105" s="66"/>
@@ -9146,12 +9139,12 @@
         <v>267</v>
       </c>
       <c r="H108" s="57" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="109" spans="5:20" ht="27">
       <c r="E109" s="59" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="F109" s="58">
         <v>213</v>
@@ -9160,12 +9153,12 @@
         <v>266</v>
       </c>
       <c r="H109" s="57" t="s">
-        <v>271</v>
+        <v>502</v>
       </c>
     </row>
     <row r="110" spans="5:20" ht="27">
       <c r="E110" s="59" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="F110" s="58">
         <v>214</v>
@@ -9174,7 +9167,7 @@
         <v>268</v>
       </c>
       <c r="H110" s="57" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="111" spans="5:20">
@@ -9191,44 +9184,44 @@
     </row>
     <row r="112" spans="5:20" ht="27">
       <c r="E112" s="59" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="F112" s="58">
         <v>220</v>
       </c>
-      <c r="G112" s="84" t="s">
-        <v>339</v>
+      <c r="G112" s="32" t="s">
+        <v>504</v>
       </c>
       <c r="H112" s="57" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="113" spans="5:8" ht="40.5">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="113" spans="5:8" ht="54">
       <c r="E113" s="59" t="s">
-        <v>280</v>
+        <v>501</v>
       </c>
       <c r="F113" s="58">
         <v>230</v>
       </c>
       <c r="G113" s="84" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="H113" s="57" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="114" spans="5:8" ht="40.5">
       <c r="E114" s="59" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F114" s="58">
         <v>240</v>
       </c>
       <c r="G114" s="84" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="H114" s="57" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="115" spans="5:8" ht="40.5">
@@ -9237,10 +9230,10 @@
         <v>250</v>
       </c>
       <c r="G115" s="84" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="H115" s="57" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="116" spans="5:8">
@@ -9265,12 +9258,24 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="F67:I67"/>
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="A79:D79"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="F78:I78"/>
-    <mergeCell ref="F79:I79"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="A86:D86"/>
+    <mergeCell ref="F86:I86"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="F53:I53"/>
+    <mergeCell ref="F54:I54"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="F43:I43"/>
     <mergeCell ref="A87:D87"/>
     <mergeCell ref="F87:I87"/>
     <mergeCell ref="A88:D88"/>
@@ -9287,24 +9292,12 @@
     <mergeCell ref="A43:D43"/>
     <mergeCell ref="F24:I24"/>
     <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="F44:I44"/>
-    <mergeCell ref="F43:I43"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="A86:D86"/>
-    <mergeCell ref="F86:I86"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="F53:I53"/>
-    <mergeCell ref="F54:I54"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A66:D66"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="F67:I67"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A79:D79"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="F78:I78"/>
+    <mergeCell ref="F79:I79"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -9313,7 +9306,6 @@
     <hyperlink ref="G115" location="参数说明!A1" display="胡牌8"/>
     <hyperlink ref="C37" location="参数说明!A1" display="状态位3"/>
     <hyperlink ref="C38" location="参数说明!A1" display="额外值4"/>
-    <hyperlink ref="G112" location="参数说明!A1" display="吃牌5"/>
     <hyperlink ref="G113" location="参数说明!A1" display="杠6"/>
     <hyperlink ref="G114" location="参数说明!A1" display="听牌7"/>
     <hyperlink ref="H12" location="参数说明!A1" display="游戏数据附加值2"/>
@@ -9327,10 +9319,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9341,82 +9333,74 @@
   <sheetData>
     <row r="1" spans="1:2" ht="40.5">
       <c r="A1" s="80" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B1" s="81" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="81">
       <c r="A2" s="80" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B2" s="81" t="s">
-        <v>377</v>
+        <v>499</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="40.5">
       <c r="A3" s="80" t="s">
+        <v>333</v>
+      </c>
+      <c r="B3" s="81" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="81">
+      <c r="A4" s="80" t="s">
         <v>335</v>
       </c>
-      <c r="B3" s="81" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="94.5">
-      <c r="A4" s="80" t="s">
+      <c r="B4" s="81" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="67.5">
+      <c r="A5" s="80" t="s">
         <v>337</v>
       </c>
-      <c r="B4" s="81" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="54">
-      <c r="A5" s="80" t="s">
+      <c r="B5" s="81" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="27">
+      <c r="A6" s="80" t="s">
+        <v>338</v>
+      </c>
+      <c r="B6" s="81" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="67.5">
+      <c r="A7" s="80" t="s">
         <v>339</v>
       </c>
-      <c r="B5" s="81" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="67.5">
-      <c r="A6" s="80" t="s">
-        <v>340</v>
-      </c>
-      <c r="B6" s="81" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="27">
-      <c r="A7" s="80" t="s">
-        <v>341</v>
-      </c>
       <c r="B7" s="81" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="67.5">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="27">
       <c r="A8" s="80" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="B8" s="81" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="27">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="40.5">
       <c r="A9" s="80" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="B9" s="81" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="40.5">
-      <c r="A10" s="80" t="s">
-        <v>368</v>
-      </c>
-      <c r="B10" s="81" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -9437,44 +9421,44 @@
   <sheetData>
     <row r="10" spans="2:14" ht="14.25" thickBot="1"/>
     <row r="11" spans="2:14">
-      <c r="B11" s="100" t="s">
-        <v>379</v>
-      </c>
-      <c r="C11" s="101"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="102"/>
+      <c r="B11" s="101" t="s">
+        <v>374</v>
+      </c>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="103"/>
       <c r="F11" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="14.25" thickBot="1"/>
     <row r="13" spans="2:14">
-      <c r="B13" s="100" t="s">
-        <v>380</v>
-      </c>
-      <c r="C13" s="101"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="102"/>
-      <c r="J13" s="100" t="s">
-        <v>380</v>
-      </c>
-      <c r="K13" s="101"/>
-      <c r="L13" s="101"/>
-      <c r="M13" s="102"/>
+      <c r="B13" s="101" t="s">
+        <v>375</v>
+      </c>
+      <c r="C13" s="102"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="103"/>
+      <c r="J13" s="101" t="s">
+        <v>375</v>
+      </c>
+      <c r="K13" s="102"/>
+      <c r="L13" s="102"/>
+      <c r="M13" s="103"/>
     </row>
     <row r="14" spans="2:14">
-      <c r="B14" s="103" t="s">
-        <v>501</v>
-      </c>
-      <c r="C14" s="104"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="105"/>
-      <c r="J14" s="103" t="s">
-        <v>378</v>
-      </c>
-      <c r="K14" s="104"/>
-      <c r="L14" s="104"/>
-      <c r="M14" s="105"/>
+      <c r="B14" s="104" t="s">
+        <v>494</v>
+      </c>
+      <c r="C14" s="105"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="106"/>
+      <c r="J14" s="104" t="s">
+        <v>373</v>
+      </c>
+      <c r="K14" s="105"/>
+      <c r="L14" s="105"/>
+      <c r="M14" s="106"/>
     </row>
     <row r="15" spans="2:14" ht="14.25" thickBot="1">
       <c r="B15" s="8" t="s">
@@ -9487,25 +9471,25 @@
         <v>122</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="F15" s="94" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K15" s="85" t="s">
         <v>0</v>
       </c>
       <c r="L15" s="85" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="M15" s="20" t="s">
         <v>13</v>
       </c>
       <c r="N15" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
     </row>
   </sheetData>
@@ -9543,229 +9527,229 @@
   <sheetData>
     <row r="1" spans="2:9">
       <c r="C1" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="H1" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="2" spans="2:9">
       <c r="B2" s="96" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
     </row>
     <row r="3" spans="2:9">
-      <c r="B3" s="103" t="s">
-        <v>457</v>
-      </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="G3" s="103" t="s">
-        <v>430</v>
-      </c>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
+      <c r="B3" s="104" t="s">
+        <v>451</v>
+      </c>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="G3" s="104" t="s">
+        <v>424</v>
+      </c>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="8" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C4" s="92" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D4" s="92" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="H4" s="92" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I4" s="92" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="8" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C5" s="92" t="s">
         <v>172</v>
       </c>
       <c r="D5" s="92" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="E5" s="94" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="F5" s="94" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="H5" s="92" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I5" s="92" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C6" s="92" t="s">
         <v>32</v>
       </c>
       <c r="D6" s="92" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="H6" s="92" t="s">
         <v>32</v>
       </c>
       <c r="I6" s="92" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="8" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="C7" s="92" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="92" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="H7" s="92" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="I7" s="92" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="8" spans="2:9">
       <c r="G8" s="8" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="H8" s="92" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I8" s="92" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="9" spans="2:9">
       <c r="G9" s="8" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="H9" s="92" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I9" s="92" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="10" spans="2:9">
       <c r="G10" s="8" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="H10" s="92" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="I10" s="92" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
     </row>
     <row r="14" spans="2:9">
-      <c r="G14" s="103" t="s">
+      <c r="G14" s="104" t="s">
+        <v>401</v>
+      </c>
+      <c r="H14" s="105"/>
+      <c r="I14" s="105"/>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" s="104" t="s">
+        <v>418</v>
+      </c>
+      <c r="C15" s="105"/>
+      <c r="D15" s="105"/>
+      <c r="G15" s="8" t="s">
         <v>407</v>
       </c>
-      <c r="H14" s="104"/>
-      <c r="I14" s="104"/>
-    </row>
-    <row r="15" spans="2:9">
-      <c r="B15" s="103" t="s">
-        <v>424</v>
-      </c>
-      <c r="C15" s="104"/>
-      <c r="D15" s="104"/>
-      <c r="G15" s="8" t="s">
-        <v>413</v>
-      </c>
       <c r="H15" s="92" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="I15" s="92" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="16" spans="2:9">
       <c r="B16" s="8" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="C16" s="92" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D16" s="92" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H16" s="92" t="s">
         <v>32</v>
       </c>
       <c r="I16" s="92" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="8" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="C17" s="92" t="s">
         <v>32</v>
       </c>
       <c r="D17" s="92" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="H17" s="92" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I17" s="92" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="8" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="C18" s="92" t="s">
         <v>32</v>
       </c>
       <c r="D18" s="92" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="H18" s="92" t="s">
         <v>32</v>
       </c>
       <c r="I18" s="92" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
     </row>
     <row r="19" spans="2:9">
@@ -9776,36 +9760,36 @@
         <v>32</v>
       </c>
       <c r="D19" s="92" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="H19" s="92" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="I19" s="92" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="20" spans="2:9">
       <c r="B20" s="8" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="C20" s="92" t="s">
         <v>32</v>
       </c>
       <c r="D20" s="92" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="H20" s="92" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="I20" s="92" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="21" spans="2:9">
@@ -9815,56 +9799,56 @@
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="96" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="103" t="s">
-        <v>440</v>
-      </c>
-      <c r="C25" s="104"/>
-      <c r="D25" s="104"/>
+      <c r="B25" s="104" t="s">
+        <v>434</v>
+      </c>
+      <c r="C25" s="105"/>
+      <c r="D25" s="105"/>
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="8" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="C26" s="92" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D26" s="92" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
     </row>
     <row r="27" spans="2:9">
       <c r="B27" s="8" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="C27" s="92" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D27" s="92" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="E27" s="94" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
     </row>
     <row r="28" spans="2:9">
       <c r="B28" s="8" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C28" s="92" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="D28" s="92" t="s">
-        <v>438</v>
-      </c>
-      <c r="G28" s="103" t="s">
-        <v>446</v>
-      </c>
-      <c r="H28" s="104"/>
-      <c r="I28" s="104"/>
+        <v>432</v>
+      </c>
+      <c r="G28" s="104" t="s">
+        <v>440</v>
+      </c>
+      <c r="H28" s="105"/>
+      <c r="I28" s="105"/>
     </row>
     <row r="29" spans="2:9">
       <c r="B29" s="8"/>
@@ -9877,76 +9861,76 @@
         <v>32</v>
       </c>
       <c r="I29" s="92" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="30" spans="2:9">
       <c r="G30" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H30" s="92" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I30" s="92" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
     </row>
     <row r="31" spans="2:9">
       <c r="G31" s="8" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="H31" s="92" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I31" s="92" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
     </row>
     <row r="32" spans="2:9">
       <c r="B32" s="96" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="G32" s="8"/>
       <c r="H32" s="92"/>
       <c r="I32" s="92"/>
     </row>
     <row r="33" spans="2:9">
-      <c r="B33" s="103" t="s">
-        <v>443</v>
-      </c>
-      <c r="C33" s="104"/>
-      <c r="D33" s="104"/>
+      <c r="B33" s="104" t="s">
+        <v>437</v>
+      </c>
+      <c r="C33" s="105"/>
+      <c r="D33" s="105"/>
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="8" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="C34" s="92" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D34" s="92"/>
     </row>
     <row r="35" spans="2:9">
       <c r="B35" s="8" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="C35" s="92" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D35" s="92"/>
       <c r="E35" s="94" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="36" spans="2:9">
       <c r="B36" s="8" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="C36" s="92" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="D36" s="92" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
     </row>
     <row r="37" spans="2:9">
@@ -9955,165 +9939,165 @@
       <c r="D37" s="92"/>
     </row>
     <row r="40" spans="2:9">
-      <c r="G40" s="103" t="s">
-        <v>449</v>
-      </c>
-      <c r="H40" s="104"/>
-      <c r="I40" s="104"/>
+      <c r="G40" s="104" t="s">
+        <v>443</v>
+      </c>
+      <c r="H40" s="105"/>
+      <c r="I40" s="105"/>
     </row>
     <row r="41" spans="2:9">
       <c r="G41" s="8" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="H41" s="92" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I41" s="95" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="42" spans="2:9">
       <c r="G42" s="8" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="H42" s="92" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I42" s="92" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
     </row>
     <row r="43" spans="2:9">
       <c r="G43" s="8" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="H43" s="92" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I43" s="92" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
     </row>
     <row r="44" spans="2:9">
       <c r="G44" s="8" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="H44" s="92" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I44" s="92" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
     </row>
     <row r="48" spans="2:9">
       <c r="B48" s="96" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="49" spans="2:6">
-      <c r="B49" s="103" t="s">
-        <v>468</v>
-      </c>
-      <c r="C49" s="104"/>
-      <c r="D49" s="104"/>
+      <c r="B49" s="104" t="s">
+        <v>462</v>
+      </c>
+      <c r="C49" s="105"/>
+      <c r="D49" s="105"/>
     </row>
     <row r="50" spans="2:6">
       <c r="B50" s="8" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="C50" s="92" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D50" s="92"/>
       <c r="F50" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
     </row>
     <row r="51" spans="2:6">
       <c r="B51" s="8" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="C51" s="92" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D51" s="92"/>
       <c r="E51" s="94" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="F51" s="94" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
     </row>
     <row r="52" spans="2:6">
       <c r="B52" s="8" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="C52" s="92" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D52" s="93" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="53" spans="2:6">
       <c r="B53" s="8" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C53" s="92" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D53" s="92"/>
     </row>
     <row r="58" spans="2:6">
       <c r="B58" s="96" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
     </row>
     <row r="59" spans="2:6">
-      <c r="B59" s="103" t="s">
-        <v>473</v>
-      </c>
-      <c r="C59" s="104"/>
-      <c r="D59" s="104"/>
+      <c r="B59" s="104" t="s">
+        <v>467</v>
+      </c>
+      <c r="C59" s="105"/>
+      <c r="D59" s="105"/>
     </row>
     <row r="60" spans="2:6">
       <c r="B60" s="8" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="C60" s="93" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D60" s="93"/>
     </row>
     <row r="61" spans="2:6">
       <c r="B61" s="8" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="C61" s="93" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D61" s="93"/>
       <c r="E61" s="94" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="62" spans="2:6">
       <c r="B62" s="8" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="C62" s="93" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="D62" s="93" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
     </row>
     <row r="63" spans="2:6">
       <c r="B63" s="8" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C63" s="93" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D63" s="93"/>
     </row>

--- a/doc/最新接口_拟定.xlsx
+++ b/doc/最新接口_拟定.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="首标签" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="登录" sheetId="5" r:id="rId5"/>
     <sheet name="http登录" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -2092,11 +2092,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>uid:uid
-dval:换牌内容（其他人看到的为空）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">
 dval:定缺内容1-4</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3120,6 +3115,11 @@
   </si>
   <si>
     <t>吃牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uid:uid
+dval:换牌内容（其他人看到的为剩余手牌数量）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3899,14 +3899,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3926,12 +3923,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3941,16 +3932,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3962,17 +3965,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4291,32 +4291,32 @@
   <sheetData>
     <row r="3" spans="2:16" ht="14.25" thickBot="1"/>
     <row r="4" spans="2:16">
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="100" t="s">
         <v>232</v>
       </c>
-      <c r="C4" s="102"/>
-      <c r="D4" s="102"/>
-      <c r="E4" s="103"/>
-      <c r="I4" s="101" t="s">
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="102"/>
+      <c r="I4" s="100" t="s">
         <v>234</v>
       </c>
-      <c r="J4" s="102"/>
-      <c r="K4" s="102"/>
-      <c r="L4" s="103"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="102"/>
     </row>
     <row r="5" spans="2:16">
-      <c r="B5" s="104" t="s">
+      <c r="B5" s="103" t="s">
         <v>233</v>
       </c>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="106"/>
-      <c r="I5" s="104" t="s">
-        <v>485</v>
-      </c>
-      <c r="J5" s="105"/>
-      <c r="K5" s="105"/>
-      <c r="L5" s="106"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="105"/>
+      <c r="I5" s="103" t="s">
+        <v>484</v>
+      </c>
+      <c r="J5" s="104"/>
+      <c r="K5" s="104"/>
+      <c r="L5" s="105"/>
     </row>
     <row r="6" spans="2:16">
       <c r="B6" s="8"/>
@@ -4366,7 +4366,7 @@
     </row>
     <row r="9" spans="2:16">
       <c r="I9" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J9" s="55" t="s">
         <v>238</v>
@@ -4380,21 +4380,21 @@
     </row>
     <row r="11" spans="2:16" ht="14.25" customHeight="1"/>
     <row r="14" spans="2:16" ht="14.25" thickBot="1">
-      <c r="I14" s="98" t="s">
+      <c r="I14" s="109" t="s">
         <v>54</v>
       </c>
-      <c r="J14" s="99"/>
-      <c r="K14" s="99"/>
-      <c r="L14" s="99"/>
-      <c r="M14" s="100"/>
+      <c r="J14" s="110"/>
+      <c r="K14" s="110"/>
+      <c r="L14" s="110"/>
+      <c r="M14" s="111"/>
     </row>
     <row r="15" spans="2:16">
-      <c r="B15" s="101" t="s">
+      <c r="B15" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="102"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="103"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="102"/>
       <c r="I15" s="21" t="s">
         <v>34</v>
       </c>
@@ -4409,18 +4409,18 @@
         <v>34</v>
       </c>
       <c r="N15" s="3"/>
-      <c r="O15" s="107" t="s">
+      <c r="O15" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="P15" s="108"/>
+      <c r="P15" s="99"/>
     </row>
     <row r="16" spans="2:16">
-      <c r="B16" s="104" t="s">
+      <c r="B16" s="103" t="s">
         <v>233</v>
       </c>
-      <c r="C16" s="105"/>
-      <c r="D16" s="105"/>
-      <c r="E16" s="106"/>
+      <c r="C16" s="104"/>
+      <c r="D16" s="104"/>
+      <c r="E16" s="105"/>
       <c r="I16" s="33"/>
       <c r="J16" s="30"/>
       <c r="K16" s="31">
@@ -4448,7 +4448,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="85" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>14</v>
@@ -4480,7 +4480,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="75" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E18" s="20" t="s">
         <v>13</v>
@@ -4609,10 +4609,10 @@
     </row>
     <row r="22" spans="2:16" ht="27.75" thickBot="1">
       <c r="B22" s="5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>34</v>
@@ -4918,12 +4918,12 @@
       <c r="P37" s="23"/>
     </row>
     <row r="38" spans="2:16">
-      <c r="B38" s="109" t="s">
-        <v>261</v>
-      </c>
-      <c r="C38" s="110"/>
-      <c r="D38" s="110"/>
-      <c r="E38" s="111"/>
+      <c r="B38" s="106" t="s">
+        <v>260</v>
+      </c>
+      <c r="C38" s="107"/>
+      <c r="D38" s="107"/>
+      <c r="E38" s="108"/>
       <c r="I38" s="33" t="s">
         <v>117</v>
       </c>
@@ -5005,18 +5005,18 @@
     <row r="42" spans="2:16" ht="22.5" customHeight="1"/>
     <row r="43" spans="2:16" ht="31.5" customHeight="1"/>
     <row r="44" spans="2:16">
-      <c r="H44" s="107" t="s">
+      <c r="H44" s="98" t="s">
         <v>247</v>
       </c>
-      <c r="I44" s="108"/>
-      <c r="J44" s="107" t="s">
+      <c r="I44" s="99"/>
+      <c r="J44" s="98" t="s">
         <v>116</v>
       </c>
-      <c r="K44" s="108"/>
-      <c r="L44" s="107" t="s">
+      <c r="K44" s="99"/>
+      <c r="L44" s="98" t="s">
         <v>77</v>
       </c>
-      <c r="M44" s="108"/>
+      <c r="M44" s="99"/>
     </row>
     <row r="45" spans="2:16">
       <c r="H45" s="22">
@@ -5132,6 +5132,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="I14:M14"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="I5:L5"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="J44:K44"/>
     <mergeCell ref="L44:M44"/>
@@ -5139,11 +5144,6 @@
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="H44:I44"/>
     <mergeCell ref="B38:E38"/>
-    <mergeCell ref="I14:M14"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="I5:L5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5337,11 +5337,11 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="4"/>
-      <c r="B10" s="116" t="s">
+      <c r="B10" s="117" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="117"/>
-      <c r="D10" s="118"/>
+      <c r="C10" s="118"/>
+      <c r="D10" s="119"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -5350,11 +5350,11 @@
       <c r="J10" s="4"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="116" t="s">
+      <c r="M10" s="117" t="s">
         <v>28</v>
       </c>
-      <c r="N10" s="117"/>
-      <c r="O10" s="118"/>
+      <c r="N10" s="118"/>
+      <c r="O10" s="119"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -5364,11 +5364,11 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="4"/>
-      <c r="B11" s="119" t="s">
+      <c r="B11" s="114" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="120"/>
-      <c r="D11" s="121"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="116"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -5377,11 +5377,11 @@
       <c r="J11" s="4"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="119" t="s">
+      <c r="M11" s="114" t="s">
         <v>27</v>
       </c>
-      <c r="N11" s="120"/>
-      <c r="O11" s="121"/>
+      <c r="N11" s="115"/>
+      <c r="O11" s="116"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -5502,11 +5502,11 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="4"/>
-      <c r="B17" s="116" t="s">
+      <c r="B17" s="117" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="117"/>
-      <c r="D17" s="118"/>
+      <c r="C17" s="118"/>
+      <c r="D17" s="119"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -5515,11 +5515,11 @@
       <c r="J17" s="4"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="116" t="s">
+      <c r="M17" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="N17" s="117"/>
-      <c r="O17" s="118"/>
+      <c r="N17" s="118"/>
+      <c r="O17" s="119"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -5528,11 +5528,11 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="4"/>
-      <c r="B18" s="119" t="s">
+      <c r="B18" s="114" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="120"/>
-      <c r="D18" s="121"/>
+      <c r="C18" s="115"/>
+      <c r="D18" s="116"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -5541,11 +5541,11 @@
       <c r="J18" s="4"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="119" t="s">
+      <c r="M18" s="114" t="s">
         <v>129</v>
       </c>
-      <c r="N18" s="120"/>
-      <c r="O18" s="121"/>
+      <c r="N18" s="115"/>
+      <c r="O18" s="116"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -5585,9 +5585,9 @@
     </row>
     <row r="20" spans="1:21" ht="41.25" thickBot="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="116"/>
-      <c r="C20" s="117"/>
-      <c r="D20" s="118"/>
+      <c r="B20" s="117"/>
+      <c r="C20" s="118"/>
+      <c r="D20" s="119"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -5616,11 +5616,11 @@
     </row>
     <row r="21" spans="1:21" ht="14.25" thickBot="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="119" t="s">
+      <c r="B21" s="114" t="s">
         <v>129</v>
       </c>
-      <c r="C21" s="120"/>
-      <c r="D21" s="121"/>
+      <c r="C21" s="115"/>
+      <c r="D21" s="116"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -5687,11 +5687,11 @@
       <c r="J23" s="4"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="116" t="s">
+      <c r="M23" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="N23" s="117"/>
-      <c r="O23" s="118"/>
+      <c r="N23" s="118"/>
+      <c r="O23" s="119"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
@@ -5712,11 +5712,11 @@
       <c r="J24" s="4"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-      <c r="M24" s="119" t="s">
+      <c r="M24" s="114" t="s">
         <v>69</v>
       </c>
-      <c r="N24" s="120"/>
-      <c r="O24" s="121"/>
+      <c r="N24" s="115"/>
+      <c r="O24" s="116"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
@@ -5849,11 +5849,11 @@
       <c r="J29" s="4"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
-      <c r="M29" s="116" t="s">
+      <c r="M29" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="N29" s="117"/>
-      <c r="O29" s="118"/>
+      <c r="N29" s="118"/>
+      <c r="O29" s="119"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
@@ -5874,11 +5874,11 @@
       <c r="J30" s="4"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="119" t="s">
+      <c r="M30" s="114" t="s">
         <v>69</v>
       </c>
-      <c r="N30" s="120"/>
-      <c r="O30" s="121"/>
+      <c r="N30" s="115"/>
+      <c r="O30" s="116"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
@@ -6034,11 +6034,11 @@
       <c r="J36" s="4"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
-      <c r="M36" s="116" t="s">
+      <c r="M36" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="N36" s="117"/>
-      <c r="O36" s="118"/>
+      <c r="N36" s="118"/>
+      <c r="O36" s="119"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
@@ -6059,11 +6059,11 @@
       <c r="J37" s="4"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
-      <c r="M37" s="119" t="s">
+      <c r="M37" s="114" t="s">
         <v>69</v>
       </c>
-      <c r="N37" s="120"/>
-      <c r="O37" s="121"/>
+      <c r="N37" s="115"/>
+      <c r="O37" s="116"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
@@ -6242,14 +6242,14 @@
       <c r="J44" s="4"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
-      <c r="M44" s="116" t="s">
+      <c r="M44" s="117" t="s">
         <v>16</v>
       </c>
-      <c r="N44" s="117"/>
-      <c r="O44" s="117"/>
-      <c r="P44" s="117"/>
-      <c r="Q44" s="117"/>
-      <c r="R44" s="118"/>
+      <c r="N44" s="118"/>
+      <c r="O44" s="118"/>
+      <c r="P44" s="118"/>
+      <c r="Q44" s="118"/>
+      <c r="R44" s="119"/>
       <c r="S44" s="2"/>
       <c r="T44" s="3"/>
       <c r="U44" s="3"/>
@@ -6267,14 +6267,14 @@
       <c r="J45" s="4"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
-      <c r="M45" s="119" t="s">
-        <v>276</v>
-      </c>
-      <c r="N45" s="120"/>
-      <c r="O45" s="120"/>
-      <c r="P45" s="120"/>
-      <c r="Q45" s="120"/>
-      <c r="R45" s="121"/>
+      <c r="M45" s="114" t="s">
+        <v>275</v>
+      </c>
+      <c r="N45" s="115"/>
+      <c r="O45" s="115"/>
+      <c r="P45" s="115"/>
+      <c r="Q45" s="115"/>
+      <c r="R45" s="116"/>
       <c r="S45" s="2"/>
       <c r="T45" s="3"/>
       <c r="U45" s="3"/>
@@ -6301,11 +6301,11 @@
       <c r="O46" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="P46" s="122" t="s">
+      <c r="P46" s="120" t="s">
         <v>130</v>
       </c>
-      <c r="Q46" s="122"/>
-      <c r="R46" s="123"/>
+      <c r="Q46" s="120"/>
+      <c r="R46" s="121"/>
       <c r="S46" s="2"/>
       <c r="T46" s="3"/>
       <c r="U46" s="3"/>
@@ -6332,22 +6332,22 @@
       <c r="O47" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="P47" s="122" t="s">
+      <c r="P47" s="120" t="s">
         <v>149</v>
       </c>
-      <c r="Q47" s="122"/>
-      <c r="R47" s="123"/>
+      <c r="Q47" s="120"/>
+      <c r="R47" s="121"/>
       <c r="S47" s="2"/>
       <c r="T47" s="3"/>
       <c r="U47" s="3"/>
     </row>
     <row r="48" spans="1:21">
       <c r="A48" s="1"/>
-      <c r="B48" s="116" t="s">
+      <c r="B48" s="117" t="s">
         <v>114</v>
       </c>
-      <c r="C48" s="117"/>
-      <c r="D48" s="118"/>
+      <c r="C48" s="118"/>
+      <c r="D48" s="119"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -6365,22 +6365,22 @@
       <c r="O48" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P48" s="122" t="s">
+      <c r="P48" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="Q48" s="122"/>
-      <c r="R48" s="123"/>
+      <c r="Q48" s="120"/>
+      <c r="R48" s="121"/>
       <c r="S48" s="2"/>
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
     </row>
     <row r="49" spans="1:21">
       <c r="A49" s="1"/>
-      <c r="B49" s="119" t="s">
+      <c r="B49" s="114" t="s">
         <v>112</v>
       </c>
-      <c r="C49" s="120"/>
-      <c r="D49" s="121"/>
+      <c r="C49" s="115"/>
+      <c r="D49" s="116"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -6437,11 +6437,11 @@
       <c r="O50" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P50" s="122" t="s">
+      <c r="P50" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="Q50" s="122"/>
-      <c r="R50" s="123"/>
+      <c r="Q50" s="120"/>
+      <c r="R50" s="121"/>
       <c r="S50" s="2"/>
       <c r="T50" s="3"/>
       <c r="U50" s="3"/>
@@ -6468,11 +6468,11 @@
       <c r="O51" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="P51" s="122" t="s">
+      <c r="P51" s="120" t="s">
         <v>20</v>
       </c>
-      <c r="Q51" s="122"/>
-      <c r="R51" s="123"/>
+      <c r="Q51" s="120"/>
+      <c r="R51" s="121"/>
       <c r="S51" s="2"/>
       <c r="T51" s="3"/>
       <c r="U51" s="3"/>
@@ -6530,11 +6530,11 @@
       <c r="O53" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="P53" s="122" t="s">
+      <c r="P53" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="Q53" s="122"/>
-      <c r="R53" s="123"/>
+      <c r="Q53" s="120"/>
+      <c r="R53" s="121"/>
       <c r="S53" s="2"/>
       <c r="T53" s="3"/>
       <c r="U53" s="3"/>
@@ -6699,13 +6699,13 @@
       <c r="J59" s="4"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
-      <c r="M59" s="116" t="s">
+      <c r="M59" s="117" t="s">
         <v>136</v>
       </c>
-      <c r="N59" s="117"/>
-      <c r="O59" s="117"/>
-      <c r="P59" s="117"/>
-      <c r="Q59" s="118"/>
+      <c r="N59" s="118"/>
+      <c r="O59" s="118"/>
+      <c r="P59" s="118"/>
+      <c r="Q59" s="119"/>
       <c r="R59" s="1"/>
       <c r="S59" s="2"/>
       <c r="T59" s="3"/>
@@ -6733,10 +6733,10 @@
       <c r="O60" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="P60" s="114" t="s">
+      <c r="P60" s="112" t="s">
         <v>137</v>
       </c>
-      <c r="Q60" s="115"/>
+      <c r="Q60" s="113"/>
       <c r="R60" s="1"/>
       <c r="S60" s="2"/>
       <c r="T60" s="3"/>
@@ -6764,10 +6764,10 @@
       <c r="O61" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="P61" s="114" t="s">
+      <c r="P61" s="112" t="s">
         <v>140</v>
       </c>
-      <c r="Q61" s="115"/>
+      <c r="Q61" s="113"/>
       <c r="R61" s="1"/>
       <c r="S61" s="2"/>
       <c r="T61" s="3"/>
@@ -6795,10 +6795,10 @@
       <c r="O62" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="P62" s="114" t="s">
+      <c r="P62" s="112" t="s">
         <v>22</v>
       </c>
-      <c r="Q62" s="115"/>
+      <c r="Q62" s="113"/>
       <c r="R62" s="1"/>
       <c r="S62" s="2"/>
       <c r="T62" s="3"/>
@@ -6826,10 +6826,10 @@
       <c r="O63" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P63" s="112" t="s">
+      <c r="P63" s="122" t="s">
         <v>23</v>
       </c>
-      <c r="Q63" s="113"/>
+      <c r="Q63" s="123"/>
       <c r="R63" s="1"/>
       <c r="S63" s="2"/>
       <c r="T63" s="3"/>
@@ -6857,10 +6857,10 @@
       <c r="O64" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P64" s="114" t="s">
+      <c r="P64" s="112" t="s">
         <v>161</v>
       </c>
-      <c r="Q64" s="115"/>
+      <c r="Q64" s="113"/>
       <c r="R64" s="1"/>
       <c r="S64" s="2"/>
       <c r="T64" s="3"/>
@@ -6888,10 +6888,10 @@
       <c r="O65" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="P65" s="114" t="s">
+      <c r="P65" s="112" t="s">
         <v>60</v>
       </c>
-      <c r="Q65" s="115"/>
+      <c r="Q65" s="113"/>
       <c r="R65" s="1"/>
       <c r="S65" s="2"/>
       <c r="T65" s="3"/>
@@ -6919,10 +6919,10 @@
       <c r="O66" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P66" s="114" t="s">
+      <c r="P66" s="112" t="s">
         <v>218</v>
       </c>
-      <c r="Q66" s="115"/>
+      <c r="Q66" s="113"/>
       <c r="R66" s="1"/>
       <c r="S66" s="2"/>
       <c r="T66" s="3"/>
@@ -6950,10 +6950,10 @@
       <c r="O67" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P67" s="114" t="s">
+      <c r="P67" s="112" t="s">
         <v>217</v>
       </c>
-      <c r="Q67" s="115"/>
+      <c r="Q67" s="113"/>
       <c r="R67" s="1"/>
       <c r="S67" s="1"/>
       <c r="T67" s="3"/>
@@ -6995,13 +6995,13 @@
       <c r="J69" s="4"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
-      <c r="M69" s="116" t="s">
+      <c r="M69" s="117" t="s">
         <v>176</v>
       </c>
-      <c r="N69" s="117"/>
-      <c r="O69" s="117"/>
-      <c r="P69" s="117"/>
-      <c r="Q69" s="118"/>
+      <c r="N69" s="118"/>
+      <c r="O69" s="118"/>
+      <c r="P69" s="118"/>
+      <c r="Q69" s="119"/>
       <c r="R69" s="1"/>
       <c r="S69" s="1"/>
       <c r="T69" s="3"/>
@@ -7020,13 +7020,13 @@
       <c r="J70" s="4"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
-      <c r="M70" s="116" t="s">
+      <c r="M70" s="117" t="s">
         <v>177</v>
       </c>
-      <c r="N70" s="117"/>
-      <c r="O70" s="117"/>
-      <c r="P70" s="117"/>
-      <c r="Q70" s="118"/>
+      <c r="N70" s="118"/>
+      <c r="O70" s="118"/>
+      <c r="P70" s="118"/>
+      <c r="Q70" s="119"/>
       <c r="R70" s="1"/>
       <c r="S70" s="1"/>
       <c r="T70" s="3"/>
@@ -7054,10 +7054,10 @@
       <c r="O71" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="P71" s="112" t="s">
+      <c r="P71" s="122" t="s">
         <v>201</v>
       </c>
-      <c r="Q71" s="113"/>
+      <c r="Q71" s="123"/>
       <c r="R71" s="1"/>
       <c r="S71" s="1"/>
       <c r="T71" s="3"/>
@@ -7085,10 +7085,10 @@
       <c r="O72" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="P72" s="112" t="s">
+      <c r="P72" s="122" t="s">
         <v>193</v>
       </c>
-      <c r="Q72" s="113"/>
+      <c r="Q72" s="123"/>
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
       <c r="T72" s="3"/>
@@ -7116,10 +7116,10 @@
       <c r="O73" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="P73" s="112" t="s">
+      <c r="P73" s="122" t="s">
         <v>190</v>
       </c>
-      <c r="Q73" s="113"/>
+      <c r="Q73" s="123"/>
       <c r="R73" s="1"/>
       <c r="S73" s="1"/>
       <c r="T73" s="3"/>
@@ -7176,10 +7176,10 @@
       <c r="O75" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P75" s="114" t="s">
+      <c r="P75" s="112" t="s">
         <v>219</v>
       </c>
-      <c r="Q75" s="115"/>
+      <c r="Q75" s="113"/>
       <c r="R75" s="1"/>
       <c r="S75" s="1"/>
       <c r="T75" s="3"/>
@@ -7207,10 +7207,10 @@
       <c r="O76" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P76" s="114" t="s">
+      <c r="P76" s="112" t="s">
         <v>220</v>
       </c>
-      <c r="Q76" s="115"/>
+      <c r="Q76" s="113"/>
       <c r="R76" s="1"/>
       <c r="S76" s="1"/>
       <c r="T76" s="3"/>
@@ -7252,11 +7252,11 @@
       <c r="J78" s="4"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
-      <c r="M78" s="119" t="s">
+      <c r="M78" s="114" t="s">
         <v>191</v>
       </c>
-      <c r="N78" s="120"/>
-      <c r="O78" s="121"/>
+      <c r="N78" s="115"/>
+      <c r="O78" s="116"/>
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
       <c r="R78" s="1"/>
@@ -7358,11 +7358,11 @@
       <c r="J82" s="4"/>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
-      <c r="M82" s="119" t="s">
+      <c r="M82" s="114" t="s">
         <v>183</v>
       </c>
-      <c r="N82" s="120"/>
-      <c r="O82" s="121"/>
+      <c r="N82" s="115"/>
+      <c r="O82" s="116"/>
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
       <c r="R82" s="1"/>
@@ -7873,6 +7873,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="M69:Q69"/>
+    <mergeCell ref="M70:Q70"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="M45:R45"/>
+    <mergeCell ref="P46:R46"/>
+    <mergeCell ref="P47:R47"/>
+    <mergeCell ref="P48:R48"/>
+    <mergeCell ref="P50:R50"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="M44:R44"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
     <mergeCell ref="P76:Q76"/>
     <mergeCell ref="M78:O78"/>
     <mergeCell ref="M82:O82"/>
@@ -7889,34 +7917,6 @@
     <mergeCell ref="M11:O11"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="M29:O29"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="M44:R44"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="M45:R45"/>
-    <mergeCell ref="P46:R46"/>
-    <mergeCell ref="P47:R47"/>
-    <mergeCell ref="P48:R48"/>
-    <mergeCell ref="P50:R50"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="M69:Q69"/>
-    <mergeCell ref="M70:Q70"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="P67:Q67"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7928,8 +7928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:T118"/>
   <sheetViews>
-    <sheetView topLeftCell="C100" workbookViewId="0">
-      <selection activeCell="H112" sqref="E110:H112"/>
+    <sheetView tabSelected="1" topLeftCell="F100" workbookViewId="0">
+      <selection activeCell="H110" sqref="H110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7945,86 +7945,86 @@
   <sheetData>
     <row r="2" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="3" spans="1:10">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="100" t="s">
+        <v>282</v>
+      </c>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="102"/>
+      <c r="F3" s="100" t="s">
+        <v>293</v>
+      </c>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="102"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="103" t="s">
         <v>283</v>
       </c>
-      <c r="B3" s="102"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="103"/>
-      <c r="F3" s="101" t="s">
-        <v>294</v>
-      </c>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="103"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="104" t="s">
-        <v>284</v>
-      </c>
-      <c r="B4" s="105"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="106"/>
-      <c r="F4" s="104" t="s">
-        <v>287</v>
-      </c>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="106"/>
+      <c r="B4" s="104"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="105"/>
+      <c r="F4" s="103" t="s">
+        <v>286</v>
+      </c>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="105"/>
     </row>
     <row r="5" spans="1:10" ht="14.25" thickBot="1">
       <c r="A5" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B5" s="76" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="76" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G5" s="76" t="s">
         <v>0</v>
       </c>
       <c r="H5" s="76" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I5" s="20" t="s">
         <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="14.25" thickBot="1">
       <c r="A6" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B6" s="76" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="76" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G6" s="76" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="76" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I6" s="20" t="s">
         <v>13</v>
@@ -8032,39 +8032,39 @@
     </row>
     <row r="7" spans="1:10" ht="14.25" thickBot="1">
       <c r="A7" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="B7" s="76" t="s">
+        <v>313</v>
+      </c>
+      <c r="C7" s="83" t="s">
+        <v>330</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="B7" s="76" t="s">
-        <v>314</v>
-      </c>
-      <c r="C7" s="83" t="s">
-        <v>331</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>313</v>
-      </c>
       <c r="F7" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G7" s="76" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H7" s="76" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.25" thickBot="1">
       <c r="F8" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G8" s="76" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H8" s="83" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I8" s="20" t="s">
         <v>13</v>
@@ -8072,55 +8072,55 @@
     </row>
     <row r="9" spans="1:10" ht="14.25" thickBot="1">
       <c r="F9" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="G9" s="78" t="s">
+        <v>322</v>
+      </c>
+      <c r="H9" s="78" t="s">
         <v>325</v>
       </c>
-      <c r="G9" s="78" t="s">
+      <c r="I9" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="H9" s="78" t="s">
-        <v>326</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="14.25" thickBot="1">
       <c r="F10" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="G10" s="78" t="s">
+        <v>322</v>
+      </c>
+      <c r="H10" s="78" t="s">
         <v>328</v>
       </c>
-      <c r="G10" s="78" t="s">
+      <c r="I10" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="H10" s="78" t="s">
-        <v>329</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.25" thickBot="1">
       <c r="F11" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="G11" s="78" t="s">
         <v>322</v>
       </c>
-      <c r="G11" s="78" t="s">
+      <c r="H11" s="78" t="s">
+        <v>326</v>
+      </c>
+      <c r="I11" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="H11" s="78" t="s">
-        <v>327</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="14.25" thickBot="1">
       <c r="F12" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G12" s="85" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H12" s="84" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I12" s="20" t="s">
         <v>13</v>
@@ -8128,60 +8128,60 @@
     </row>
     <row r="15" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="16" spans="1:10">
-      <c r="A16" s="101" t="s">
+      <c r="A16" s="100" t="s">
+        <v>280</v>
+      </c>
+      <c r="B16" s="101"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="102"/>
+      <c r="F16" s="100" t="s">
+        <v>280</v>
+      </c>
+      <c r="G16" s="101"/>
+      <c r="H16" s="101"/>
+      <c r="I16" s="102"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="103" t="s">
         <v>281</v>
       </c>
-      <c r="B16" s="102"/>
-      <c r="C16" s="102"/>
-      <c r="D16" s="103"/>
-      <c r="F16" s="101" t="s">
-        <v>281</v>
-      </c>
-      <c r="G16" s="102"/>
-      <c r="H16" s="102"/>
-      <c r="I16" s="103"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="104" t="s">
-        <v>282</v>
-      </c>
-      <c r="B17" s="105"/>
-      <c r="C17" s="105"/>
-      <c r="D17" s="106"/>
-      <c r="F17" s="104" t="s">
-        <v>376</v>
-      </c>
-      <c r="G17" s="105"/>
-      <c r="H17" s="105"/>
-      <c r="I17" s="106"/>
+      <c r="B17" s="104"/>
+      <c r="C17" s="104"/>
+      <c r="D17" s="105"/>
+      <c r="F17" s="103" t="s">
+        <v>375</v>
+      </c>
+      <c r="G17" s="104"/>
+      <c r="H17" s="104"/>
+      <c r="I17" s="105"/>
       <c r="J17" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B18" s="76" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="76" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D18" s="76" t="s">
         <v>72</v>
       </c>
       <c r="E18" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>132</v>
       </c>
       <c r="G18" s="76" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H18" s="76" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I18" s="77" t="s">
         <v>14</v>
@@ -8189,13 +8189,13 @@
     </row>
     <row r="19" spans="1:10" ht="14.25" thickBot="1">
       <c r="A19" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="B19" s="76" t="s">
+        <v>296</v>
+      </c>
+      <c r="C19" s="76" t="s">
         <v>298</v>
-      </c>
-      <c r="B19" s="76" t="s">
-        <v>297</v>
-      </c>
-      <c r="C19" s="76" t="s">
-        <v>299</v>
       </c>
       <c r="D19" s="20" t="s">
         <v>13</v>
@@ -8203,20 +8203,20 @@
     </row>
     <row r="23" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="24" spans="1:10">
-      <c r="F24" s="101" t="s">
+      <c r="F24" s="100" t="s">
+        <v>305</v>
+      </c>
+      <c r="G24" s="101"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="102"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="F25" s="103" t="s">
         <v>306</v>
       </c>
-      <c r="G24" s="102"/>
-      <c r="H24" s="102"/>
-      <c r="I24" s="103"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="F25" s="104" t="s">
-        <v>307</v>
-      </c>
-      <c r="G25" s="105"/>
-      <c r="H25" s="105"/>
-      <c r="I25" s="106"/>
+      <c r="G25" s="104"/>
+      <c r="H25" s="104"/>
+      <c r="I25" s="105"/>
     </row>
     <row r="26" spans="1:10">
       <c r="F26" s="8" t="s">
@@ -8226,7 +8226,7 @@
         <v>0</v>
       </c>
       <c r="H26" s="85" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I26" s="76" t="s">
         <v>72</v>
@@ -8237,33 +8237,33 @@
     </row>
     <row r="31" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="32" spans="1:10">
-      <c r="A32" s="101" t="s">
-        <v>288</v>
-      </c>
-      <c r="B32" s="102"/>
-      <c r="C32" s="102"/>
-      <c r="D32" s="103"/>
-      <c r="F32" s="101" t="s">
+      <c r="A32" s="100" t="s">
+        <v>287</v>
+      </c>
+      <c r="B32" s="101"/>
+      <c r="C32" s="101"/>
+      <c r="D32" s="102"/>
+      <c r="F32" s="100" t="s">
+        <v>314</v>
+      </c>
+      <c r="G32" s="101"/>
+      <c r="H32" s="101"/>
+      <c r="I32" s="102"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="103" t="s">
+        <v>289</v>
+      </c>
+      <c r="B33" s="104"/>
+      <c r="C33" s="104"/>
+      <c r="D33" s="105"/>
+      <c r="E33" s="80"/>
+      <c r="F33" s="103" t="s">
         <v>315</v>
       </c>
-      <c r="G32" s="102"/>
-      <c r="H32" s="102"/>
-      <c r="I32" s="103"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="104" t="s">
-        <v>290</v>
-      </c>
-      <c r="B33" s="105"/>
-      <c r="C33" s="105"/>
-      <c r="D33" s="106"/>
-      <c r="E33" s="80"/>
-      <c r="F33" s="104" t="s">
-        <v>316</v>
-      </c>
-      <c r="G33" s="105"/>
-      <c r="H33" s="105"/>
-      <c r="I33" s="106"/>
+      <c r="G33" s="104"/>
+      <c r="H33" s="104"/>
+      <c r="I33" s="105"/>
     </row>
     <row r="34" spans="1:10" ht="14.25" thickBot="1">
       <c r="A34" s="8" t="s">
@@ -8273,54 +8273,54 @@
         <v>0</v>
       </c>
       <c r="C34" s="85" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D34" s="76" t="s">
         <v>72</v>
       </c>
       <c r="E34" s="80"/>
       <c r="F34" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="G34" s="76" t="s">
         <v>317</v>
       </c>
-      <c r="G34" s="76" t="s">
-        <v>318</v>
-      </c>
       <c r="H34" s="76" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="14.25" thickBot="1">
       <c r="A35" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B35" s="85" t="s">
         <v>142</v>
       </c>
       <c r="C35" s="85" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D35" s="20" t="s">
         <v>13</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G35" s="85" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H35" s="76" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="14.25" thickBot="1">
       <c r="A36" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B36" s="76" t="s">
         <v>0</v>
@@ -8332,16 +8332,16 @@
         <v>13</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G36" s="85" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H36" s="76" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -8352,7 +8352,7 @@
         <v>0</v>
       </c>
       <c r="C37" s="84" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D37" s="76" t="s">
         <v>72</v>
@@ -8360,13 +8360,13 @@
     </row>
     <row r="38" spans="1:10" ht="14.25" thickBot="1">
       <c r="A38" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B38" s="85" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C38" s="84" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D38" s="20" t="s">
         <v>13</v>
@@ -8374,37 +8374,37 @@
     </row>
     <row r="42" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="43" spans="1:10">
-      <c r="A43" s="101" t="s">
-        <v>301</v>
-      </c>
-      <c r="B43" s="102"/>
-      <c r="C43" s="102"/>
-      <c r="D43" s="103"/>
-      <c r="F43" s="101" t="s">
-        <v>378</v>
-      </c>
-      <c r="G43" s="102"/>
-      <c r="H43" s="102"/>
-      <c r="I43" s="103"/>
+      <c r="A43" s="100" t="s">
+        <v>300</v>
+      </c>
+      <c r="B43" s="101"/>
+      <c r="C43" s="101"/>
+      <c r="D43" s="102"/>
+      <c r="F43" s="100" t="s">
+        <v>377</v>
+      </c>
+      <c r="G43" s="101"/>
+      <c r="H43" s="101"/>
+      <c r="I43" s="102"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="104" t="s">
-        <v>490</v>
-      </c>
-      <c r="B44" s="105"/>
-      <c r="C44" s="105"/>
-      <c r="D44" s="106"/>
+      <c r="A44" s="103" t="s">
+        <v>489</v>
+      </c>
+      <c r="B44" s="104"/>
+      <c r="C44" s="104"/>
+      <c r="D44" s="105"/>
       <c r="E44" t="s">
-        <v>473</v>
-      </c>
-      <c r="F44" s="104" t="s">
-        <v>377</v>
-      </c>
-      <c r="G44" s="105"/>
-      <c r="H44" s="105"/>
-      <c r="I44" s="106"/>
+        <v>472</v>
+      </c>
+      <c r="F44" s="103" t="s">
+        <v>376</v>
+      </c>
+      <c r="G44" s="104"/>
+      <c r="H44" s="104"/>
+      <c r="I44" s="105"/>
       <c r="J44" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="14.25" thickBot="1">
@@ -8415,105 +8415,105 @@
         <v>0</v>
       </c>
       <c r="H45" s="87" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I45" s="86" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="101" t="s">
+      <c r="A46" s="100" t="s">
+        <v>303</v>
+      </c>
+      <c r="B46" s="101"/>
+      <c r="C46" s="101"/>
+      <c r="D46" s="102"/>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="103" t="s">
         <v>304</v>
       </c>
-      <c r="B46" s="102"/>
-      <c r="C46" s="102"/>
-      <c r="D46" s="103"/>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="104" t="s">
-        <v>305</v>
-      </c>
-      <c r="B47" s="105"/>
-      <c r="C47" s="105"/>
-      <c r="D47" s="106"/>
+      <c r="B47" s="104"/>
+      <c r="C47" s="104"/>
+      <c r="D47" s="105"/>
       <c r="E47" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="49" spans="1:10">
-      <c r="A49" s="116" t="s">
+      <c r="A49" s="117" t="s">
+        <v>308</v>
+      </c>
+      <c r="B49" s="118"/>
+      <c r="C49" s="118"/>
+      <c r="D49" s="119"/>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="114" t="s">
         <v>309</v>
       </c>
-      <c r="B49" s="117"/>
-      <c r="C49" s="117"/>
-      <c r="D49" s="118"/>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="119" t="s">
-        <v>310</v>
-      </c>
-      <c r="B50" s="120"/>
-      <c r="C50" s="120"/>
-      <c r="D50" s="121"/>
+      <c r="B50" s="115"/>
+      <c r="C50" s="115"/>
+      <c r="D50" s="116"/>
       <c r="E50" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="52" spans="1:10" ht="13.5" customHeight="1" thickBot="1"/>
     <row r="53" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A53" s="101" t="s">
-        <v>379</v>
-      </c>
-      <c r="B53" s="102"/>
-      <c r="C53" s="102"/>
-      <c r="D53" s="103"/>
-      <c r="F53" s="101" t="s">
-        <v>379</v>
-      </c>
-      <c r="G53" s="102"/>
-      <c r="H53" s="102"/>
-      <c r="I53" s="103"/>
+      <c r="A53" s="100" t="s">
+        <v>378</v>
+      </c>
+      <c r="B53" s="101"/>
+      <c r="C53" s="101"/>
+      <c r="D53" s="102"/>
+      <c r="F53" s="100" t="s">
+        <v>378</v>
+      </c>
+      <c r="G53" s="101"/>
+      <c r="H53" s="101"/>
+      <c r="I53" s="102"/>
     </row>
     <row r="54" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A54" s="104" t="s">
+      <c r="A54" s="103" t="s">
+        <v>383</v>
+      </c>
+      <c r="B54" s="104"/>
+      <c r="C54" s="104"/>
+      <c r="D54" s="105"/>
+      <c r="F54" s="103" t="s">
         <v>384</v>
       </c>
-      <c r="B54" s="105"/>
-      <c r="C54" s="105"/>
-      <c r="D54" s="106"/>
-      <c r="F54" s="104" t="s">
-        <v>385</v>
-      </c>
-      <c r="G54" s="105"/>
-      <c r="H54" s="105"/>
-      <c r="I54" s="106"/>
+      <c r="G54" s="104"/>
+      <c r="H54" s="104"/>
+      <c r="I54" s="105"/>
     </row>
     <row r="55" spans="1:10" ht="13.5" customHeight="1">
       <c r="A55" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="B55" s="86" t="s">
+        <v>379</v>
+      </c>
+      <c r="C55" s="86" t="s">
         <v>381</v>
-      </c>
-      <c r="B55" s="86" t="s">
-        <v>380</v>
-      </c>
-      <c r="C55" s="86" t="s">
-        <v>382</v>
       </c>
       <c r="D55" s="86" t="s">
         <v>72</v>
       </c>
       <c r="E55" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F55" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="G55" s="87" t="s">
+        <v>379</v>
+      </c>
+      <c r="H55" s="87" t="s">
         <v>381</v>
-      </c>
-      <c r="G55" s="87" t="s">
-        <v>380</v>
-      </c>
-      <c r="H55" s="87" t="s">
-        <v>382</v>
       </c>
       <c r="I55" s="87" t="s">
         <v>72</v>
@@ -8527,13 +8527,13 @@
         <v>0</v>
       </c>
       <c r="H56" s="87" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I56" s="20" t="s">
         <v>13</v>
       </c>
       <c r="J56" s="97" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="13.5" customHeight="1"/>
@@ -8546,32 +8546,32 @@
     <row r="64" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="65" spans="1:10" ht="12.75" customHeight="1" thickBot="1"/>
     <row r="66" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A66" s="101" t="s">
-        <v>367</v>
-      </c>
-      <c r="B66" s="102"/>
-      <c r="C66" s="102"/>
-      <c r="D66" s="103"/>
-      <c r="F66" s="101" t="s">
-        <v>349</v>
-      </c>
-      <c r="G66" s="102"/>
-      <c r="H66" s="102"/>
-      <c r="I66" s="103"/>
+      <c r="A66" s="100" t="s">
+        <v>366</v>
+      </c>
+      <c r="B66" s="101"/>
+      <c r="C66" s="101"/>
+      <c r="D66" s="102"/>
+      <c r="F66" s="100" t="s">
+        <v>348</v>
+      </c>
+      <c r="G66" s="101"/>
+      <c r="H66" s="101"/>
+      <c r="I66" s="102"/>
     </row>
     <row r="67" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A67" s="104" t="s">
-        <v>347</v>
-      </c>
-      <c r="B67" s="105"/>
-      <c r="C67" s="105"/>
-      <c r="D67" s="106"/>
-      <c r="F67" s="119" t="s">
-        <v>354</v>
-      </c>
-      <c r="G67" s="120"/>
-      <c r="H67" s="120"/>
-      <c r="I67" s="121"/>
+      <c r="A67" s="103" t="s">
+        <v>346</v>
+      </c>
+      <c r="B67" s="104"/>
+      <c r="C67" s="104"/>
+      <c r="D67" s="105"/>
+      <c r="F67" s="114" t="s">
+        <v>353</v>
+      </c>
+      <c r="G67" s="115"/>
+      <c r="H67" s="115"/>
+      <c r="I67" s="116"/>
     </row>
     <row r="68" spans="1:10" ht="12.75" customHeight="1" thickBot="1">
       <c r="A68" s="8" t="s">
@@ -8581,51 +8581,51 @@
         <v>32</v>
       </c>
       <c r="C68" s="79" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D68" s="20" t="s">
         <v>13</v>
       </c>
       <c r="E68" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G68" s="85" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H68" s="82" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J68" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="14.25" thickBot="1">
       <c r="A69" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B69" s="78" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C69" s="78" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D69" s="20" t="s">
         <v>13</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G69" s="78" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H69" s="85" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I69" s="20" t="s">
         <v>13</v>
@@ -8633,25 +8633,25 @@
     </row>
     <row r="70" spans="1:10" ht="14.25" thickBot="1">
       <c r="A70" s="8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B70" s="78" t="s">
         <v>32</v>
       </c>
       <c r="C70" s="78" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D70" s="20" t="s">
         <v>13</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G70" s="78" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H70" s="78" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I70" s="20" t="s">
         <v>13</v>
@@ -8665,7 +8665,7 @@
         <v>32</v>
       </c>
       <c r="H71" s="78" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I71" s="20" t="s">
         <v>13</v>
@@ -8679,46 +8679,46 @@
     </row>
     <row r="77" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="78" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A78" s="116" t="s">
-        <v>311</v>
-      </c>
-      <c r="B78" s="117"/>
-      <c r="C78" s="117"/>
-      <c r="D78" s="118"/>
-      <c r="F78" s="101" t="s">
+      <c r="A78" s="117" t="s">
+        <v>310</v>
+      </c>
+      <c r="B78" s="118"/>
+      <c r="C78" s="118"/>
+      <c r="D78" s="119"/>
+      <c r="F78" s="100" t="s">
         <v>234</v>
       </c>
-      <c r="G78" s="102"/>
-      <c r="H78" s="102"/>
-      <c r="I78" s="103"/>
+      <c r="G78" s="101"/>
+      <c r="H78" s="101"/>
+      <c r="I78" s="102"/>
     </row>
     <row r="79" spans="1:10">
-      <c r="A79" s="101" t="s">
+      <c r="A79" s="100" t="s">
         <v>232</v>
       </c>
-      <c r="B79" s="102"/>
-      <c r="C79" s="102"/>
-      <c r="D79" s="103"/>
+      <c r="B79" s="101"/>
+      <c r="C79" s="101"/>
+      <c r="D79" s="102"/>
       <c r="E79" t="s">
+        <v>479</v>
+      </c>
+      <c r="F79" s="103" t="s">
+        <v>235</v>
+      </c>
+      <c r="G79" s="104"/>
+      <c r="H79" s="104"/>
+      <c r="I79" s="105"/>
+      <c r="J79" t="s">
         <v>480</v>
       </c>
-      <c r="F79" s="104" t="s">
-        <v>235</v>
-      </c>
-      <c r="G79" s="105"/>
-      <c r="H79" s="105"/>
-      <c r="I79" s="106"/>
-      <c r="J79" t="s">
-        <v>481</v>
-      </c>
     </row>
     <row r="80" spans="1:10">
-      <c r="A80" s="104" t="s">
+      <c r="A80" s="103" t="s">
         <v>233</v>
       </c>
-      <c r="B80" s="105"/>
-      <c r="C80" s="105"/>
-      <c r="D80" s="106"/>
+      <c r="B80" s="104"/>
+      <c r="C80" s="104"/>
+      <c r="D80" s="105"/>
       <c r="F80" s="8" t="s">
         <v>237</v>
       </c>
@@ -8766,7 +8766,7 @@
     </row>
     <row r="83" spans="1:10">
       <c r="F83" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G83" s="76" t="s">
         <v>32</v>
@@ -8780,43 +8780,43 @@
     </row>
     <row r="85" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="86" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A86" s="116" t="s">
-        <v>387</v>
-      </c>
-      <c r="B86" s="117"/>
-      <c r="C86" s="117"/>
-      <c r="D86" s="118"/>
-      <c r="F86" s="116" t="s">
-        <v>387</v>
-      </c>
-      <c r="G86" s="117"/>
-      <c r="H86" s="117"/>
-      <c r="I86" s="118"/>
+      <c r="A86" s="117" t="s">
+        <v>386</v>
+      </c>
+      <c r="B86" s="118"/>
+      <c r="C86" s="118"/>
+      <c r="D86" s="119"/>
+      <c r="F86" s="117" t="s">
+        <v>386</v>
+      </c>
+      <c r="G86" s="118"/>
+      <c r="H86" s="118"/>
+      <c r="I86" s="119"/>
     </row>
     <row r="87" spans="1:10">
-      <c r="A87" s="101" t="s">
+      <c r="A87" s="100" t="s">
         <v>232</v>
       </c>
-      <c r="B87" s="102"/>
-      <c r="C87" s="102"/>
-      <c r="D87" s="103"/>
+      <c r="B87" s="101"/>
+      <c r="C87" s="101"/>
+      <c r="D87" s="102"/>
       <c r="E87" t="s">
-        <v>482</v>
-      </c>
-      <c r="F87" s="104" t="s">
+        <v>481</v>
+      </c>
+      <c r="F87" s="103" t="s">
         <v>235</v>
       </c>
-      <c r="G87" s="105"/>
-      <c r="H87" s="105"/>
-      <c r="I87" s="106"/>
+      <c r="G87" s="104"/>
+      <c r="H87" s="104"/>
+      <c r="I87" s="105"/>
     </row>
     <row r="88" spans="1:10">
-      <c r="A88" s="104" t="s">
+      <c r="A88" s="103" t="s">
         <v>233</v>
       </c>
-      <c r="B88" s="105"/>
-      <c r="C88" s="105"/>
-      <c r="D88" s="106"/>
+      <c r="B88" s="104"/>
+      <c r="C88" s="104"/>
+      <c r="D88" s="105"/>
       <c r="F88" s="8" t="s">
         <v>237</v>
       </c>
@@ -8830,7 +8830,7 @@
         <v>72</v>
       </c>
       <c r="J88" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -8867,7 +8867,7 @@
     </row>
     <row r="91" spans="1:10">
       <c r="F91" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G91" s="89" t="s">
         <v>32</v>
@@ -8884,7 +8884,7 @@
         <v>229</v>
       </c>
       <c r="F95" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -8903,7 +8903,7 @@
     </row>
     <row r="97" spans="5:20" ht="54">
       <c r="E97" s="59" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F97" s="58">
         <v>4</v>
@@ -8912,7 +8912,7 @@
         <v>231</v>
       </c>
       <c r="H97" s="33" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="L97" s="65"/>
       <c r="M97" s="66"/>
@@ -8930,10 +8930,10 @@
         <v>5</v>
       </c>
       <c r="G98" s="32" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H98" s="33" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="L98" s="65"/>
       <c r="M98" s="66"/>
@@ -8951,10 +8951,10 @@
         <v>6</v>
       </c>
       <c r="G99" s="32" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H99" s="33" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="L99" s="65"/>
       <c r="M99" s="66"/>
@@ -9004,7 +9004,7 @@
     </row>
     <row r="102" spans="5:20" ht="27">
       <c r="E102" s="59" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F102" s="58">
         <v>202</v>
@@ -9029,7 +9029,7 @@
     </row>
     <row r="103" spans="5:20" ht="27">
       <c r="E103" s="59" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F103" s="58">
         <v>203</v>
@@ -9079,10 +9079,10 @@
         <v>205</v>
       </c>
       <c r="G105" s="32" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H105" s="57" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="L105" s="65"/>
       <c r="M105" s="66"/>
@@ -9118,7 +9118,7 @@
         <v>256</v>
       </c>
       <c r="H107" s="57" t="s">
-        <v>258</v>
+        <v>504</v>
       </c>
       <c r="L107" s="68"/>
       <c r="M107" s="69"/>
@@ -9136,38 +9136,38 @@
         <v>212</v>
       </c>
       <c r="G108" s="32" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H108" s="57" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="109" spans="5:20" ht="27">
       <c r="E109" s="59" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F109" s="58">
         <v>213</v>
       </c>
       <c r="G109" s="32" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H109" s="57" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="110" spans="5:20" ht="27">
       <c r="E110" s="59" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F110" s="58">
         <v>214</v>
       </c>
       <c r="G110" s="32" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H110" s="57" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="111" spans="5:20">
@@ -9176,52 +9176,52 @@
         <v>215</v>
       </c>
       <c r="G111" s="57" t="s">
+        <v>268</v>
+      </c>
+      <c r="H111" s="57" t="s">
         <v>269</v>
-      </c>
-      <c r="H111" s="57" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="112" spans="5:20" ht="27">
       <c r="E112" s="59" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F112" s="58">
         <v>220</v>
       </c>
       <c r="G112" s="32" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H112" s="57" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="113" spans="5:8" ht="54">
       <c r="E113" s="59" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F113" s="58">
         <v>230</v>
       </c>
       <c r="G113" s="84" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H113" s="57" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="114" spans="5:8" ht="40.5">
       <c r="E114" s="59" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F114" s="58">
         <v>240</v>
       </c>
       <c r="G114" s="84" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H114" s="57" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="115" spans="5:8" ht="40.5">
@@ -9230,10 +9230,10 @@
         <v>250</v>
       </c>
       <c r="G115" s="84" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H115" s="57" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="116" spans="5:8">
@@ -9258,24 +9258,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A66:D66"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="A86:D86"/>
-    <mergeCell ref="F86:I86"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="F53:I53"/>
-    <mergeCell ref="F54:I54"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="F66:I66"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="F44:I44"/>
-    <mergeCell ref="F43:I43"/>
     <mergeCell ref="A87:D87"/>
     <mergeCell ref="F87:I87"/>
     <mergeCell ref="A88:D88"/>
@@ -9292,12 +9274,30 @@
     <mergeCell ref="A43:D43"/>
     <mergeCell ref="F24:I24"/>
     <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="A86:D86"/>
+    <mergeCell ref="F86:I86"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="F53:I53"/>
+    <mergeCell ref="F54:I54"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="F66:I66"/>
     <mergeCell ref="F67:I67"/>
     <mergeCell ref="A78:D78"/>
     <mergeCell ref="A79:D79"/>
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="F78:I78"/>
     <mergeCell ref="F79:I79"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="A53:D53"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -9321,7 +9321,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
@@ -9333,74 +9333,74 @@
   <sheetData>
     <row r="1" spans="1:2" ht="40.5">
       <c r="A1" s="80" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B1" s="81" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="81">
       <c r="A2" s="80" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B2" s="81" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="40.5">
       <c r="A3" s="80" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B3" s="81" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="81">
       <c r="A4" s="80" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B4" s="81" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="67.5">
       <c r="A5" s="80" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B5" s="81" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="27">
       <c r="A6" s="80" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B6" s="81" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="67.5">
       <c r="A7" s="80" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B7" s="81" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="27">
       <c r="A8" s="80" t="s">
+        <v>351</v>
+      </c>
+      <c r="B8" s="81" t="s">
         <v>352</v>
-      </c>
-      <c r="B8" s="81" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="40.5">
       <c r="A9" s="80" t="s">
+        <v>363</v>
+      </c>
+      <c r="B9" s="81" t="s">
         <v>364</v>
-      </c>
-      <c r="B9" s="81" t="s">
-        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -9421,44 +9421,44 @@
   <sheetData>
     <row r="10" spans="2:14" ht="14.25" thickBot="1"/>
     <row r="11" spans="2:14">
-      <c r="B11" s="101" t="s">
-        <v>374</v>
-      </c>
-      <c r="C11" s="102"/>
-      <c r="D11" s="102"/>
-      <c r="E11" s="103"/>
+      <c r="B11" s="100" t="s">
+        <v>373</v>
+      </c>
+      <c r="C11" s="101"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="102"/>
       <c r="F11" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="14.25" thickBot="1"/>
     <row r="13" spans="2:14">
-      <c r="B13" s="101" t="s">
-        <v>375</v>
-      </c>
-      <c r="C13" s="102"/>
-      <c r="D13" s="102"/>
-      <c r="E13" s="103"/>
-      <c r="J13" s="101" t="s">
-        <v>375</v>
-      </c>
-      <c r="K13" s="102"/>
-      <c r="L13" s="102"/>
-      <c r="M13" s="103"/>
+      <c r="B13" s="100" t="s">
+        <v>374</v>
+      </c>
+      <c r="C13" s="101"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="102"/>
+      <c r="J13" s="100" t="s">
+        <v>374</v>
+      </c>
+      <c r="K13" s="101"/>
+      <c r="L13" s="101"/>
+      <c r="M13" s="102"/>
     </row>
     <row r="14" spans="2:14">
-      <c r="B14" s="104" t="s">
-        <v>494</v>
-      </c>
-      <c r="C14" s="105"/>
-      <c r="D14" s="105"/>
-      <c r="E14" s="106"/>
-      <c r="J14" s="104" t="s">
-        <v>373</v>
-      </c>
-      <c r="K14" s="105"/>
-      <c r="L14" s="105"/>
-      <c r="M14" s="106"/>
+      <c r="B14" s="103" t="s">
+        <v>493</v>
+      </c>
+      <c r="C14" s="104"/>
+      <c r="D14" s="104"/>
+      <c r="E14" s="105"/>
+      <c r="J14" s="103" t="s">
+        <v>372</v>
+      </c>
+      <c r="K14" s="104"/>
+      <c r="L14" s="104"/>
+      <c r="M14" s="105"/>
     </row>
     <row r="15" spans="2:14" ht="14.25" thickBot="1">
       <c r="B15" s="8" t="s">
@@ -9471,25 +9471,25 @@
         <v>122</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F15" s="94" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K15" s="85" t="s">
         <v>0</v>
       </c>
       <c r="L15" s="85" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M15" s="20" t="s">
         <v>13</v>
       </c>
       <c r="N15" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
   </sheetData>
@@ -9527,229 +9527,229 @@
   <sheetData>
     <row r="1" spans="2:9">
       <c r="C1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="2" spans="2:9">
       <c r="B2" s="96" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="3" spans="2:9">
-      <c r="B3" s="104" t="s">
-        <v>451</v>
-      </c>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="G3" s="104" t="s">
-        <v>424</v>
-      </c>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
+      <c r="B3" s="103" t="s">
+        <v>450</v>
+      </c>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="G3" s="103" t="s">
+        <v>423</v>
+      </c>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C4" s="92" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D4" s="92" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H4" s="92" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I4" s="92" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C5" s="92" t="s">
         <v>172</v>
       </c>
       <c r="D5" s="92" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E5" s="94" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F5" s="94" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G5" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="H5" s="92" t="s">
+        <v>296</v>
+      </c>
+      <c r="I5" s="92" t="s">
         <v>394</v>
-      </c>
-      <c r="H5" s="92" t="s">
-        <v>297</v>
-      </c>
-      <c r="I5" s="92" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C6" s="92" t="s">
         <v>32</v>
       </c>
       <c r="D6" s="92" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H6" s="92" t="s">
         <v>32</v>
       </c>
       <c r="I6" s="92" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="8" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C7" s="92" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="92" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H7" s="92" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I7" s="92" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="8" spans="2:9">
       <c r="G8" s="8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H8" s="92" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I8" s="92" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="9" spans="2:9">
       <c r="G9" s="8" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H9" s="92" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I9" s="92" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="10" spans="2:9">
       <c r="G10" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="H10" s="92" t="s">
+        <v>414</v>
+      </c>
+      <c r="I10" s="92" t="s">
         <v>416</v>
       </c>
-      <c r="H10" s="92" t="s">
-        <v>415</v>
-      </c>
-      <c r="I10" s="92" t="s">
+    </row>
+    <row r="14" spans="2:9">
+      <c r="G14" s="103" t="s">
+        <v>400</v>
+      </c>
+      <c r="H14" s="104"/>
+      <c r="I14" s="104"/>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" s="103" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="14" spans="2:9">
-      <c r="G14" s="104" t="s">
-        <v>401</v>
-      </c>
-      <c r="H14" s="105"/>
-      <c r="I14" s="105"/>
-    </row>
-    <row r="15" spans="2:9">
-      <c r="B15" s="104" t="s">
-        <v>418</v>
-      </c>
-      <c r="C15" s="105"/>
-      <c r="D15" s="105"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="104"/>
       <c r="G15" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="H15" s="92" t="s">
         <v>407</v>
       </c>
-      <c r="H15" s="92" t="s">
+      <c r="I15" s="92" t="s">
         <v>408</v>
-      </c>
-      <c r="I15" s="92" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="16" spans="2:9">
       <c r="B16" s="8" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C16" s="92" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D16" s="92" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H16" s="92" t="s">
         <v>32</v>
       </c>
       <c r="I16" s="92" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="8" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C17" s="92" t="s">
         <v>32</v>
       </c>
       <c r="D17" s="92" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H17" s="92" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I17" s="92" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="8" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C18" s="92" t="s">
         <v>32</v>
       </c>
       <c r="D18" s="92" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H18" s="92" t="s">
         <v>32</v>
       </c>
       <c r="I18" s="92" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="19" spans="2:9">
@@ -9760,36 +9760,36 @@
         <v>32</v>
       </c>
       <c r="D19" s="92" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H19" s="92" t="s">
+        <v>398</v>
+      </c>
+      <c r="I19" s="92" t="s">
         <v>399</v>
-      </c>
-      <c r="I19" s="92" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="20" spans="2:9">
       <c r="B20" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C20" s="92" t="s">
         <v>32</v>
       </c>
       <c r="D20" s="92" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H20" s="92" t="s">
+        <v>398</v>
+      </c>
+      <c r="I20" s="92" t="s">
         <v>399</v>
-      </c>
-      <c r="I20" s="92" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="21" spans="2:9">
@@ -9799,56 +9799,56 @@
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="96" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="104" t="s">
-        <v>434</v>
-      </c>
-      <c r="C25" s="105"/>
-      <c r="D25" s="105"/>
+      <c r="B25" s="103" t="s">
+        <v>433</v>
+      </c>
+      <c r="C25" s="104"/>
+      <c r="D25" s="104"/>
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C26" s="92" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D26" s="92" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="27" spans="2:9">
       <c r="B27" s="8" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C27" s="92" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D27" s="92" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E27" s="94" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="28" spans="2:9">
       <c r="B28" s="8" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C28" s="92" t="s">
+        <v>430</v>
+      </c>
+      <c r="D28" s="92" t="s">
         <v>431</v>
       </c>
-      <c r="D28" s="92" t="s">
-        <v>432</v>
-      </c>
-      <c r="G28" s="104" t="s">
-        <v>440</v>
-      </c>
-      <c r="H28" s="105"/>
-      <c r="I28" s="105"/>
+      <c r="G28" s="103" t="s">
+        <v>439</v>
+      </c>
+      <c r="H28" s="104"/>
+      <c r="I28" s="104"/>
     </row>
     <row r="29" spans="2:9">
       <c r="B29" s="8"/>
@@ -9861,76 +9861,76 @@
         <v>32</v>
       </c>
       <c r="I29" s="92" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="30" spans="2:9">
       <c r="G30" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H30" s="92" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I30" s="92" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="31" spans="2:9">
       <c r="G31" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="H31" s="92" t="s">
+        <v>296</v>
+      </c>
+      <c r="I31" s="92" t="s">
         <v>441</v>
-      </c>
-      <c r="H31" s="92" t="s">
-        <v>297</v>
-      </c>
-      <c r="I31" s="92" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="32" spans="2:9">
       <c r="B32" s="96" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G32" s="8"/>
       <c r="H32" s="92"/>
       <c r="I32" s="92"/>
     </row>
     <row r="33" spans="2:9">
-      <c r="B33" s="104" t="s">
-        <v>437</v>
-      </c>
-      <c r="C33" s="105"/>
-      <c r="D33" s="105"/>
+      <c r="B33" s="103" t="s">
+        <v>436</v>
+      </c>
+      <c r="C33" s="104"/>
+      <c r="D33" s="104"/>
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="8" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C34" s="92" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D34" s="92"/>
     </row>
     <row r="35" spans="2:9">
       <c r="B35" s="8" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C35" s="92" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D35" s="92"/>
       <c r="E35" s="94" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="36" spans="2:9">
       <c r="B36" s="8" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C36" s="92" t="s">
+        <v>430</v>
+      </c>
+      <c r="D36" s="92" t="s">
         <v>431</v>
-      </c>
-      <c r="D36" s="92" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="37" spans="2:9">
@@ -9939,165 +9939,165 @@
       <c r="D37" s="92"/>
     </row>
     <row r="40" spans="2:9">
-      <c r="G40" s="104" t="s">
-        <v>443</v>
-      </c>
-      <c r="H40" s="105"/>
-      <c r="I40" s="105"/>
+      <c r="G40" s="103" t="s">
+        <v>442</v>
+      </c>
+      <c r="H40" s="104"/>
+      <c r="I40" s="104"/>
     </row>
     <row r="41" spans="2:9">
       <c r="G41" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H41" s="92" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I41" s="95" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="42" spans="2:9">
       <c r="G42" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H42" s="92" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I42" s="92" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="43" spans="2:9">
       <c r="G43" s="8" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H43" s="92" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I43" s="92" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="44" spans="2:9">
       <c r="G44" s="8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H44" s="92" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I44" s="92" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="48" spans="2:9">
       <c r="B48" s="96" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="49" spans="2:6">
-      <c r="B49" s="104" t="s">
-        <v>462</v>
-      </c>
-      <c r="C49" s="105"/>
-      <c r="D49" s="105"/>
+      <c r="B49" s="103" t="s">
+        <v>461</v>
+      </c>
+      <c r="C49" s="104"/>
+      <c r="D49" s="104"/>
     </row>
     <row r="50" spans="2:6">
       <c r="B50" s="8" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C50" s="92" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D50" s="92"/>
       <c r="F50" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="51" spans="2:6">
       <c r="B51" s="8" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C51" s="92" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D51" s="92"/>
       <c r="E51" s="94" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F51" s="94" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="52" spans="2:6">
       <c r="B52" s="8" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C52" s="92" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D52" s="93" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="53" spans="2:6">
       <c r="B53" s="8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C53" s="92" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D53" s="92"/>
     </row>
     <row r="58" spans="2:6">
       <c r="B58" s="96" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="59" spans="2:6">
-      <c r="B59" s="104" t="s">
-        <v>467</v>
-      </c>
-      <c r="C59" s="105"/>
-      <c r="D59" s="105"/>
+      <c r="B59" s="103" t="s">
+        <v>466</v>
+      </c>
+      <c r="C59" s="104"/>
+      <c r="D59" s="104"/>
     </row>
     <row r="60" spans="2:6">
       <c r="B60" s="8" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C60" s="93" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D60" s="93"/>
     </row>
     <row r="61" spans="2:6">
       <c r="B61" s="8" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C61" s="93" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D61" s="93"/>
       <c r="E61" s="94" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="62" spans="2:6">
       <c r="B62" s="8" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C62" s="93" t="s">
+        <v>430</v>
+      </c>
+      <c r="D62" s="93" t="s">
         <v>431</v>
-      </c>
-      <c r="D62" s="93" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="63" spans="2:6">
       <c r="B63" s="8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C63" s="93" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D63" s="93"/>
     </row>

--- a/doc/最新接口_拟定.xlsx
+++ b/doc/最新接口_拟定.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
@@ -14,7 +14,7 @@
     <sheet name="登录" sheetId="5" r:id="rId5"/>
     <sheet name="http登录" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -3032,11 +3032,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>uid:uid
-dval:出牌时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RPEixtRoom</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3120,6 +3115,12 @@
   <si>
     <t>uid:uid
 dval:换牌内容（其他人看到的为剩余手牌数量）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uid:uid
+dval:摸牌内容（&gt;0为摸牌的内容，否则直接忽略）
+flag:剩余出牌时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3728,7 +3729,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3845,15 +3846,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -3899,11 +3891,14 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3923,6 +3918,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3932,19 +3933,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3956,22 +3963,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4270,8 +4280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:P51"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G42" sqref="B37:G42"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4291,32 +4301,32 @@
   <sheetData>
     <row r="3" spans="2:16" ht="14.25" thickBot="1"/>
     <row r="4" spans="2:16">
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="98" t="s">
         <v>232</v>
       </c>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="102"/>
-      <c r="I4" s="100" t="s">
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="100"/>
+      <c r="I4" s="98" t="s">
         <v>234</v>
       </c>
-      <c r="J4" s="101"/>
-      <c r="K4" s="101"/>
-      <c r="L4" s="102"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="100"/>
     </row>
     <row r="5" spans="2:16">
-      <c r="B5" s="103" t="s">
+      <c r="B5" s="101" t="s">
         <v>233</v>
       </c>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="105"/>
-      <c r="I5" s="103" t="s">
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="103"/>
+      <c r="I5" s="101" t="s">
         <v>484</v>
       </c>
-      <c r="J5" s="104"/>
-      <c r="K5" s="104"/>
-      <c r="L5" s="105"/>
+      <c r="J5" s="102"/>
+      <c r="K5" s="102"/>
+      <c r="L5" s="103"/>
     </row>
     <row r="6" spans="2:16">
       <c r="B6" s="8"/>
@@ -4380,21 +4390,21 @@
     </row>
     <row r="11" spans="2:16" ht="14.25" customHeight="1"/>
     <row r="14" spans="2:16" ht="14.25" thickBot="1">
-      <c r="I14" s="109" t="s">
+      <c r="I14" s="95" t="s">
         <v>54</v>
       </c>
-      <c r="J14" s="110"/>
-      <c r="K14" s="110"/>
-      <c r="L14" s="110"/>
-      <c r="M14" s="111"/>
+      <c r="J14" s="96"/>
+      <c r="K14" s="96"/>
+      <c r="L14" s="96"/>
+      <c r="M14" s="97"/>
     </row>
     <row r="15" spans="2:16">
-      <c r="B15" s="100" t="s">
+      <c r="B15" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="101"/>
-      <c r="D15" s="101"/>
-      <c r="E15" s="102"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="100"/>
       <c r="I15" s="21" t="s">
         <v>34</v>
       </c>
@@ -4409,18 +4419,18 @@
         <v>34</v>
       </c>
       <c r="N15" s="3"/>
-      <c r="O15" s="98" t="s">
+      <c r="O15" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="P15" s="99"/>
+      <c r="P15" s="105"/>
     </row>
     <row r="16" spans="2:16">
-      <c r="B16" s="103" t="s">
+      <c r="B16" s="101" t="s">
         <v>233</v>
       </c>
-      <c r="C16" s="104"/>
-      <c r="D16" s="104"/>
-      <c r="E16" s="105"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="103"/>
       <c r="I16" s="33"/>
       <c r="J16" s="30"/>
       <c r="K16" s="31">
@@ -4447,7 +4457,7 @@
       <c r="C17" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D17" s="85" t="s">
+      <c r="D17" s="82" t="s">
         <v>262</v>
       </c>
       <c r="E17" s="10" t="s">
@@ -4479,7 +4489,7 @@
       <c r="C18" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="75" t="s">
+      <c r="D18" s="72" t="s">
         <v>278</v>
       </c>
       <c r="E18" s="20" t="s">
@@ -5005,18 +5015,18 @@
     <row r="42" spans="2:16" ht="22.5" customHeight="1"/>
     <row r="43" spans="2:16" ht="31.5" customHeight="1"/>
     <row r="44" spans="2:16">
-      <c r="H44" s="98" t="s">
+      <c r="H44" s="104" t="s">
         <v>247</v>
       </c>
-      <c r="I44" s="99"/>
-      <c r="J44" s="98" t="s">
+      <c r="I44" s="105"/>
+      <c r="J44" s="104" t="s">
         <v>116</v>
       </c>
-      <c r="K44" s="99"/>
-      <c r="L44" s="98" t="s">
+      <c r="K44" s="105"/>
+      <c r="L44" s="104" t="s">
         <v>77</v>
       </c>
-      <c r="M44" s="99"/>
+      <c r="M44" s="105"/>
     </row>
     <row r="45" spans="2:16">
       <c r="H45" s="22">
@@ -5132,11 +5142,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="I14:M14"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="I5:L5"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="J44:K44"/>
     <mergeCell ref="L44:M44"/>
@@ -5144,6 +5149,11 @@
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="H44:I44"/>
     <mergeCell ref="B38:E38"/>
+    <mergeCell ref="I14:M14"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="I5:L5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5337,11 +5347,11 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="4"/>
-      <c r="B10" s="117" t="s">
+      <c r="B10" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="118"/>
-      <c r="D10" s="119"/>
+      <c r="C10" s="114"/>
+      <c r="D10" s="115"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -5350,11 +5360,11 @@
       <c r="J10" s="4"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="117" t="s">
+      <c r="M10" s="113" t="s">
         <v>28</v>
       </c>
-      <c r="N10" s="118"/>
-      <c r="O10" s="119"/>
+      <c r="N10" s="114"/>
+      <c r="O10" s="115"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -5364,11 +5374,11 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="4"/>
-      <c r="B11" s="114" t="s">
+      <c r="B11" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="115"/>
-      <c r="D11" s="116"/>
+      <c r="C11" s="117"/>
+      <c r="D11" s="118"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -5377,11 +5387,11 @@
       <c r="J11" s="4"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="114" t="s">
+      <c r="M11" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="N11" s="115"/>
-      <c r="O11" s="116"/>
+      <c r="N11" s="117"/>
+      <c r="O11" s="118"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -5502,11 +5512,11 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="4"/>
-      <c r="B17" s="117" t="s">
+      <c r="B17" s="113" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="118"/>
-      <c r="D17" s="119"/>
+      <c r="C17" s="114"/>
+      <c r="D17" s="115"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -5515,11 +5525,11 @@
       <c r="J17" s="4"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="117" t="s">
+      <c r="M17" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="N17" s="118"/>
-      <c r="O17" s="119"/>
+      <c r="N17" s="114"/>
+      <c r="O17" s="115"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -5528,11 +5538,11 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="4"/>
-      <c r="B18" s="114" t="s">
+      <c r="B18" s="116" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="115"/>
-      <c r="D18" s="116"/>
+      <c r="C18" s="117"/>
+      <c r="D18" s="118"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -5541,11 +5551,11 @@
       <c r="J18" s="4"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="114" t="s">
+      <c r="M18" s="116" t="s">
         <v>129</v>
       </c>
-      <c r="N18" s="115"/>
-      <c r="O18" s="116"/>
+      <c r="N18" s="117"/>
+      <c r="O18" s="118"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -5585,9 +5595,9 @@
     </row>
     <row r="20" spans="1:21" ht="41.25" thickBot="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="117"/>
-      <c r="C20" s="118"/>
-      <c r="D20" s="119"/>
+      <c r="B20" s="113"/>
+      <c r="C20" s="114"/>
+      <c r="D20" s="115"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -5616,11 +5626,11 @@
     </row>
     <row r="21" spans="1:21" ht="14.25" thickBot="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="114" t="s">
+      <c r="B21" s="116" t="s">
         <v>129</v>
       </c>
-      <c r="C21" s="115"/>
-      <c r="D21" s="116"/>
+      <c r="C21" s="117"/>
+      <c r="D21" s="118"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -5687,11 +5697,11 @@
       <c r="J23" s="4"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="117" t="s">
+      <c r="M23" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="N23" s="118"/>
-      <c r="O23" s="119"/>
+      <c r="N23" s="114"/>
+      <c r="O23" s="115"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
@@ -5712,11 +5722,11 @@
       <c r="J24" s="4"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-      <c r="M24" s="114" t="s">
+      <c r="M24" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="N24" s="115"/>
-      <c r="O24" s="116"/>
+      <c r="N24" s="117"/>
+      <c r="O24" s="118"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
@@ -5849,11 +5859,11 @@
       <c r="J29" s="4"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
-      <c r="M29" s="117" t="s">
+      <c r="M29" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="N29" s="118"/>
-      <c r="O29" s="119"/>
+      <c r="N29" s="114"/>
+      <c r="O29" s="115"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
@@ -5874,11 +5884,11 @@
       <c r="J30" s="4"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="114" t="s">
+      <c r="M30" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="N30" s="115"/>
-      <c r="O30" s="116"/>
+      <c r="N30" s="117"/>
+      <c r="O30" s="118"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
@@ -6034,11 +6044,11 @@
       <c r="J36" s="4"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
-      <c r="M36" s="117" t="s">
+      <c r="M36" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="N36" s="118"/>
-      <c r="O36" s="119"/>
+      <c r="N36" s="114"/>
+      <c r="O36" s="115"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
@@ -6059,11 +6069,11 @@
       <c r="J37" s="4"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
-      <c r="M37" s="114" t="s">
+      <c r="M37" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="N37" s="115"/>
-      <c r="O37" s="116"/>
+      <c r="N37" s="117"/>
+      <c r="O37" s="118"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
@@ -6242,14 +6252,14 @@
       <c r="J44" s="4"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
-      <c r="M44" s="117" t="s">
+      <c r="M44" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="N44" s="118"/>
-      <c r="O44" s="118"/>
-      <c r="P44" s="118"/>
-      <c r="Q44" s="118"/>
-      <c r="R44" s="119"/>
+      <c r="N44" s="114"/>
+      <c r="O44" s="114"/>
+      <c r="P44" s="114"/>
+      <c r="Q44" s="114"/>
+      <c r="R44" s="115"/>
       <c r="S44" s="2"/>
       <c r="T44" s="3"/>
       <c r="U44" s="3"/>
@@ -6267,14 +6277,14 @@
       <c r="J45" s="4"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
-      <c r="M45" s="114" t="s">
+      <c r="M45" s="116" t="s">
         <v>275</v>
       </c>
-      <c r="N45" s="115"/>
-      <c r="O45" s="115"/>
-      <c r="P45" s="115"/>
-      <c r="Q45" s="115"/>
-      <c r="R45" s="116"/>
+      <c r="N45" s="117"/>
+      <c r="O45" s="117"/>
+      <c r="P45" s="117"/>
+      <c r="Q45" s="117"/>
+      <c r="R45" s="118"/>
       <c r="S45" s="2"/>
       <c r="T45" s="3"/>
       <c r="U45" s="3"/>
@@ -6301,11 +6311,11 @@
       <c r="O46" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="P46" s="120" t="s">
+      <c r="P46" s="119" t="s">
         <v>130</v>
       </c>
-      <c r="Q46" s="120"/>
-      <c r="R46" s="121"/>
+      <c r="Q46" s="119"/>
+      <c r="R46" s="120"/>
       <c r="S46" s="2"/>
       <c r="T46" s="3"/>
       <c r="U46" s="3"/>
@@ -6332,22 +6342,22 @@
       <c r="O47" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="P47" s="120" t="s">
+      <c r="P47" s="119" t="s">
         <v>149</v>
       </c>
-      <c r="Q47" s="120"/>
-      <c r="R47" s="121"/>
+      <c r="Q47" s="119"/>
+      <c r="R47" s="120"/>
       <c r="S47" s="2"/>
       <c r="T47" s="3"/>
       <c r="U47" s="3"/>
     </row>
     <row r="48" spans="1:21">
       <c r="A48" s="1"/>
-      <c r="B48" s="117" t="s">
+      <c r="B48" s="113" t="s">
         <v>114</v>
       </c>
-      <c r="C48" s="118"/>
-      <c r="D48" s="119"/>
+      <c r="C48" s="114"/>
+      <c r="D48" s="115"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -6365,22 +6375,22 @@
       <c r="O48" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P48" s="120" t="s">
+      <c r="P48" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="Q48" s="120"/>
-      <c r="R48" s="121"/>
+      <c r="Q48" s="119"/>
+      <c r="R48" s="120"/>
       <c r="S48" s="2"/>
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
     </row>
     <row r="49" spans="1:21">
       <c r="A49" s="1"/>
-      <c r="B49" s="114" t="s">
+      <c r="B49" s="116" t="s">
         <v>112</v>
       </c>
-      <c r="C49" s="115"/>
-      <c r="D49" s="116"/>
+      <c r="C49" s="117"/>
+      <c r="D49" s="118"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -6437,11 +6447,11 @@
       <c r="O50" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P50" s="120" t="s">
+      <c r="P50" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="Q50" s="120"/>
-      <c r="R50" s="121"/>
+      <c r="Q50" s="119"/>
+      <c r="R50" s="120"/>
       <c r="S50" s="2"/>
       <c r="T50" s="3"/>
       <c r="U50" s="3"/>
@@ -6468,11 +6478,11 @@
       <c r="O51" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="P51" s="120" t="s">
+      <c r="P51" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="Q51" s="120"/>
-      <c r="R51" s="121"/>
+      <c r="Q51" s="119"/>
+      <c r="R51" s="120"/>
       <c r="S51" s="2"/>
       <c r="T51" s="3"/>
       <c r="U51" s="3"/>
@@ -6530,11 +6540,11 @@
       <c r="O53" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="P53" s="120" t="s">
+      <c r="P53" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="Q53" s="120"/>
-      <c r="R53" s="121"/>
+      <c r="Q53" s="119"/>
+      <c r="R53" s="120"/>
       <c r="S53" s="2"/>
       <c r="T53" s="3"/>
       <c r="U53" s="3"/>
@@ -6699,13 +6709,13 @@
       <c r="J59" s="4"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
-      <c r="M59" s="117" t="s">
+      <c r="M59" s="113" t="s">
         <v>136</v>
       </c>
-      <c r="N59" s="118"/>
-      <c r="O59" s="118"/>
-      <c r="P59" s="118"/>
-      <c r="Q59" s="119"/>
+      <c r="N59" s="114"/>
+      <c r="O59" s="114"/>
+      <c r="P59" s="114"/>
+      <c r="Q59" s="115"/>
       <c r="R59" s="1"/>
       <c r="S59" s="2"/>
       <c r="T59" s="3"/>
@@ -6733,10 +6743,10 @@
       <c r="O60" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="P60" s="112" t="s">
+      <c r="P60" s="111" t="s">
         <v>137</v>
       </c>
-      <c r="Q60" s="113"/>
+      <c r="Q60" s="112"/>
       <c r="R60" s="1"/>
       <c r="S60" s="2"/>
       <c r="T60" s="3"/>
@@ -6764,10 +6774,10 @@
       <c r="O61" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="P61" s="112" t="s">
+      <c r="P61" s="111" t="s">
         <v>140</v>
       </c>
-      <c r="Q61" s="113"/>
+      <c r="Q61" s="112"/>
       <c r="R61" s="1"/>
       <c r="S61" s="2"/>
       <c r="T61" s="3"/>
@@ -6795,10 +6805,10 @@
       <c r="O62" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="P62" s="112" t="s">
+      <c r="P62" s="111" t="s">
         <v>22</v>
       </c>
-      <c r="Q62" s="113"/>
+      <c r="Q62" s="112"/>
       <c r="R62" s="1"/>
       <c r="S62" s="2"/>
       <c r="T62" s="3"/>
@@ -6826,10 +6836,10 @@
       <c r="O63" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P63" s="122" t="s">
+      <c r="P63" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="Q63" s="123"/>
+      <c r="Q63" s="110"/>
       <c r="R63" s="1"/>
       <c r="S63" s="2"/>
       <c r="T63" s="3"/>
@@ -6857,10 +6867,10 @@
       <c r="O64" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P64" s="112" t="s">
+      <c r="P64" s="111" t="s">
         <v>161</v>
       </c>
-      <c r="Q64" s="113"/>
+      <c r="Q64" s="112"/>
       <c r="R64" s="1"/>
       <c r="S64" s="2"/>
       <c r="T64" s="3"/>
@@ -6888,10 +6898,10 @@
       <c r="O65" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="P65" s="112" t="s">
+      <c r="P65" s="111" t="s">
         <v>60</v>
       </c>
-      <c r="Q65" s="113"/>
+      <c r="Q65" s="112"/>
       <c r="R65" s="1"/>
       <c r="S65" s="2"/>
       <c r="T65" s="3"/>
@@ -6919,10 +6929,10 @@
       <c r="O66" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P66" s="112" t="s">
+      <c r="P66" s="111" t="s">
         <v>218</v>
       </c>
-      <c r="Q66" s="113"/>
+      <c r="Q66" s="112"/>
       <c r="R66" s="1"/>
       <c r="S66" s="2"/>
       <c r="T66" s="3"/>
@@ -6950,10 +6960,10 @@
       <c r="O67" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P67" s="112" t="s">
+      <c r="P67" s="111" t="s">
         <v>217</v>
       </c>
-      <c r="Q67" s="113"/>
+      <c r="Q67" s="112"/>
       <c r="R67" s="1"/>
       <c r="S67" s="1"/>
       <c r="T67" s="3"/>
@@ -6995,13 +7005,13 @@
       <c r="J69" s="4"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
-      <c r="M69" s="117" t="s">
+      <c r="M69" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="N69" s="118"/>
-      <c r="O69" s="118"/>
-      <c r="P69" s="118"/>
-      <c r="Q69" s="119"/>
+      <c r="N69" s="114"/>
+      <c r="O69" s="114"/>
+      <c r="P69" s="114"/>
+      <c r="Q69" s="115"/>
       <c r="R69" s="1"/>
       <c r="S69" s="1"/>
       <c r="T69" s="3"/>
@@ -7020,13 +7030,13 @@
       <c r="J70" s="4"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
-      <c r="M70" s="117" t="s">
+      <c r="M70" s="113" t="s">
         <v>177</v>
       </c>
-      <c r="N70" s="118"/>
-      <c r="O70" s="118"/>
-      <c r="P70" s="118"/>
-      <c r="Q70" s="119"/>
+      <c r="N70" s="114"/>
+      <c r="O70" s="114"/>
+      <c r="P70" s="114"/>
+      <c r="Q70" s="115"/>
       <c r="R70" s="1"/>
       <c r="S70" s="1"/>
       <c r="T70" s="3"/>
@@ -7054,10 +7064,10 @@
       <c r="O71" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="P71" s="122" t="s">
+      <c r="P71" s="109" t="s">
         <v>201</v>
       </c>
-      <c r="Q71" s="123"/>
+      <c r="Q71" s="110"/>
       <c r="R71" s="1"/>
       <c r="S71" s="1"/>
       <c r="T71" s="3"/>
@@ -7085,10 +7095,10 @@
       <c r="O72" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="P72" s="122" t="s">
+      <c r="P72" s="109" t="s">
         <v>193</v>
       </c>
-      <c r="Q72" s="123"/>
+      <c r="Q72" s="110"/>
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
       <c r="T72" s="3"/>
@@ -7116,10 +7126,10 @@
       <c r="O73" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="P73" s="122" t="s">
+      <c r="P73" s="109" t="s">
         <v>190</v>
       </c>
-      <c r="Q73" s="123"/>
+      <c r="Q73" s="110"/>
       <c r="R73" s="1"/>
       <c r="S73" s="1"/>
       <c r="T73" s="3"/>
@@ -7176,10 +7186,10 @@
       <c r="O75" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P75" s="112" t="s">
+      <c r="P75" s="111" t="s">
         <v>219</v>
       </c>
-      <c r="Q75" s="113"/>
+      <c r="Q75" s="112"/>
       <c r="R75" s="1"/>
       <c r="S75" s="1"/>
       <c r="T75" s="3"/>
@@ -7207,10 +7217,10 @@
       <c r="O76" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P76" s="112" t="s">
+      <c r="P76" s="111" t="s">
         <v>220</v>
       </c>
-      <c r="Q76" s="113"/>
+      <c r="Q76" s="112"/>
       <c r="R76" s="1"/>
       <c r="S76" s="1"/>
       <c r="T76" s="3"/>
@@ -7252,11 +7262,11 @@
       <c r="J78" s="4"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
-      <c r="M78" s="114" t="s">
+      <c r="M78" s="116" t="s">
         <v>191</v>
       </c>
-      <c r="N78" s="115"/>
-      <c r="O78" s="116"/>
+      <c r="N78" s="117"/>
+      <c r="O78" s="118"/>
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
       <c r="R78" s="1"/>
@@ -7358,11 +7368,11 @@
       <c r="J82" s="4"/>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
-      <c r="M82" s="114" t="s">
+      <c r="M82" s="116" t="s">
         <v>183</v>
       </c>
-      <c r="N82" s="115"/>
-      <c r="O82" s="116"/>
+      <c r="N82" s="117"/>
+      <c r="O82" s="118"/>
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
       <c r="R82" s="1"/>
@@ -7873,6 +7883,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="M78:O78"/>
+    <mergeCell ref="M82:O82"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="M59:Q59"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P51:R51"/>
+    <mergeCell ref="P53:R53"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="M44:R44"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="M45:R45"/>
+    <mergeCell ref="P46:R46"/>
+    <mergeCell ref="P47:R47"/>
+    <mergeCell ref="P48:R48"/>
+    <mergeCell ref="P50:R50"/>
     <mergeCell ref="P63:Q63"/>
     <mergeCell ref="P66:Q66"/>
     <mergeCell ref="B48:D48"/>
@@ -7889,34 +7927,6 @@
     <mergeCell ref="P60:Q60"/>
     <mergeCell ref="P62:Q62"/>
     <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="M45:R45"/>
-    <mergeCell ref="P46:R46"/>
-    <mergeCell ref="P47:R47"/>
-    <mergeCell ref="P48:R48"/>
-    <mergeCell ref="P50:R50"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="M44:R44"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="M78:O78"/>
-    <mergeCell ref="M82:O82"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="M59:Q59"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P51:R51"/>
-    <mergeCell ref="P53:R53"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="M29:O29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7928,8 +7938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:T118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F100" workbookViewId="0">
-      <selection activeCell="H110" sqref="H110"/>
+    <sheetView tabSelected="1" topLeftCell="C82" workbookViewId="0">
+      <selection activeCell="F100" sqref="F100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7945,41 +7955,41 @@
   <sheetData>
     <row r="2" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="3" spans="1:10">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="98" t="s">
         <v>282</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="102"/>
-      <c r="F3" s="100" t="s">
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="100"/>
+      <c r="F3" s="98" t="s">
         <v>293</v>
       </c>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="102"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="100"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="103" t="s">
+      <c r="A4" s="101" t="s">
         <v>283</v>
       </c>
-      <c r="B4" s="104"/>
-      <c r="C4" s="104"/>
-      <c r="D4" s="105"/>
-      <c r="F4" s="103" t="s">
+      <c r="B4" s="102"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="103"/>
+      <c r="F4" s="101" t="s">
         <v>286</v>
       </c>
-      <c r="G4" s="104"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="105"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="103"/>
     </row>
     <row r="5" spans="1:10" ht="14.25" thickBot="1">
       <c r="A5" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="76" t="s">
+      <c r="C5" s="73" t="s">
         <v>284</v>
       </c>
       <c r="D5" s="20" t="s">
@@ -7991,10 +8001,10 @@
       <c r="F5" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="G5" s="76" t="s">
+      <c r="G5" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="76" t="s">
+      <c r="H5" s="73" t="s">
         <v>284</v>
       </c>
       <c r="I5" s="20" t="s">
@@ -8008,10 +8018,10 @@
       <c r="A6" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="B6" s="76" t="s">
+      <c r="B6" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="76" t="s">
+      <c r="C6" s="73" t="s">
         <v>302</v>
       </c>
       <c r="D6" s="20" t="s">
@@ -8020,10 +8030,10 @@
       <c r="F6" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="G6" s="76" t="s">
+      <c r="G6" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="76" t="s">
+      <c r="H6" s="73" t="s">
         <v>302</v>
       </c>
       <c r="I6" s="20" t="s">
@@ -8034,10 +8044,10 @@
       <c r="A7" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="B7" s="76" t="s">
+      <c r="B7" s="73" t="s">
         <v>313</v>
       </c>
-      <c r="C7" s="83" t="s">
+      <c r="C7" s="80" t="s">
         <v>330</v>
       </c>
       <c r="D7" s="7" t="s">
@@ -8046,10 +8056,10 @@
       <c r="F7" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="G7" s="76" t="s">
+      <c r="G7" s="73" t="s">
         <v>294</v>
       </c>
-      <c r="H7" s="76" t="s">
+      <c r="H7" s="73" t="s">
         <v>261</v>
       </c>
       <c r="I7" s="7" t="s">
@@ -8060,10 +8070,10 @@
       <c r="F8" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="G8" s="76" t="s">
+      <c r="G8" s="73" t="s">
         <v>313</v>
       </c>
-      <c r="H8" s="83" t="s">
+      <c r="H8" s="80" t="s">
         <v>330</v>
       </c>
       <c r="I8" s="20" t="s">
@@ -8074,10 +8084,10 @@
       <c r="F9" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="G9" s="78" t="s">
+      <c r="G9" s="75" t="s">
         <v>322</v>
       </c>
-      <c r="H9" s="78" t="s">
+      <c r="H9" s="75" t="s">
         <v>325</v>
       </c>
       <c r="I9" s="7" t="s">
@@ -8088,10 +8098,10 @@
       <c r="F10" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="G10" s="78" t="s">
+      <c r="G10" s="75" t="s">
         <v>322</v>
       </c>
-      <c r="H10" s="78" t="s">
+      <c r="H10" s="75" t="s">
         <v>328</v>
       </c>
       <c r="I10" s="7" t="s">
@@ -8102,10 +8112,10 @@
       <c r="F11" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="G11" s="78" t="s">
+      <c r="G11" s="75" t="s">
         <v>322</v>
       </c>
-      <c r="H11" s="78" t="s">
+      <c r="H11" s="75" t="s">
         <v>326</v>
       </c>
       <c r="I11" s="7" t="s">
@@ -8116,10 +8126,10 @@
       <c r="F12" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="G12" s="85" t="s">
+      <c r="G12" s="82" t="s">
         <v>315</v>
       </c>
-      <c r="H12" s="84" t="s">
+      <c r="H12" s="81" t="s">
         <v>345</v>
       </c>
       <c r="I12" s="20" t="s">
@@ -8128,32 +8138,32 @@
     </row>
     <row r="15" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="16" spans="1:10">
-      <c r="A16" s="100" t="s">
+      <c r="A16" s="98" t="s">
         <v>280</v>
       </c>
-      <c r="B16" s="101"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="102"/>
-      <c r="F16" s="100" t="s">
+      <c r="B16" s="99"/>
+      <c r="C16" s="99"/>
+      <c r="D16" s="100"/>
+      <c r="F16" s="98" t="s">
         <v>280</v>
       </c>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="102"/>
+      <c r="G16" s="99"/>
+      <c r="H16" s="99"/>
+      <c r="I16" s="100"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="103" t="s">
+      <c r="A17" s="101" t="s">
         <v>281</v>
       </c>
-      <c r="B17" s="104"/>
-      <c r="C17" s="104"/>
-      <c r="D17" s="105"/>
-      <c r="F17" s="103" t="s">
+      <c r="B17" s="102"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="103"/>
+      <c r="F17" s="101" t="s">
         <v>375</v>
       </c>
-      <c r="G17" s="104"/>
-      <c r="H17" s="104"/>
-      <c r="I17" s="105"/>
+      <c r="G17" s="102"/>
+      <c r="H17" s="102"/>
+      <c r="I17" s="103"/>
       <c r="J17" t="s">
         <v>471</v>
       </c>
@@ -8162,13 +8172,13 @@
       <c r="A18" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="B18" s="76" t="s">
+      <c r="B18" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="76" t="s">
+      <c r="C18" s="73" t="s">
         <v>284</v>
       </c>
-      <c r="D18" s="76" t="s">
+      <c r="D18" s="73" t="s">
         <v>72</v>
       </c>
       <c r="E18" t="s">
@@ -8177,13 +8187,13 @@
       <c r="F18" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="G18" s="76" t="s">
+      <c r="G18" s="73" t="s">
         <v>288</v>
       </c>
-      <c r="H18" s="76" t="s">
+      <c r="H18" s="73" t="s">
         <v>262</v>
       </c>
-      <c r="I18" s="77" t="s">
+      <c r="I18" s="74" t="s">
         <v>14</v>
       </c>
     </row>
@@ -8191,10 +8201,10 @@
       <c r="A19" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="B19" s="76" t="s">
+      <c r="B19" s="73" t="s">
         <v>296</v>
       </c>
-      <c r="C19" s="76" t="s">
+      <c r="C19" s="73" t="s">
         <v>298</v>
       </c>
       <c r="D19" s="20" t="s">
@@ -8203,32 +8213,32 @@
     </row>
     <row r="23" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="24" spans="1:10">
-      <c r="F24" s="100" t="s">
+      <c r="F24" s="98" t="s">
         <v>305</v>
       </c>
-      <c r="G24" s="101"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="102"/>
+      <c r="G24" s="99"/>
+      <c r="H24" s="99"/>
+      <c r="I24" s="100"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="F25" s="103" t="s">
+      <c r="F25" s="101" t="s">
         <v>306</v>
       </c>
-      <c r="G25" s="104"/>
-      <c r="H25" s="104"/>
-      <c r="I25" s="105"/>
+      <c r="G25" s="102"/>
+      <c r="H25" s="102"/>
+      <c r="I25" s="103"/>
     </row>
     <row r="26" spans="1:10">
       <c r="F26" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="G26" s="76" t="s">
+      <c r="G26" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="H26" s="85" t="s">
+      <c r="H26" s="82" t="s">
         <v>307</v>
       </c>
-      <c r="I26" s="76" t="s">
+      <c r="I26" s="73" t="s">
         <v>72</v>
       </c>
       <c r="J26">
@@ -8237,55 +8247,55 @@
     </row>
     <row r="31" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="32" spans="1:10">
-      <c r="A32" s="100" t="s">
+      <c r="A32" s="98" t="s">
         <v>287</v>
       </c>
-      <c r="B32" s="101"/>
-      <c r="C32" s="101"/>
-      <c r="D32" s="102"/>
-      <c r="F32" s="100" t="s">
+      <c r="B32" s="99"/>
+      <c r="C32" s="99"/>
+      <c r="D32" s="100"/>
+      <c r="F32" s="98" t="s">
         <v>314</v>
       </c>
-      <c r="G32" s="101"/>
-      <c r="H32" s="101"/>
-      <c r="I32" s="102"/>
+      <c r="G32" s="99"/>
+      <c r="H32" s="99"/>
+      <c r="I32" s="100"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="103" t="s">
+      <c r="A33" s="101" t="s">
         <v>289</v>
       </c>
-      <c r="B33" s="104"/>
-      <c r="C33" s="104"/>
-      <c r="D33" s="105"/>
-      <c r="E33" s="80"/>
-      <c r="F33" s="103" t="s">
+      <c r="B33" s="102"/>
+      <c r="C33" s="102"/>
+      <c r="D33" s="103"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="101" t="s">
         <v>315</v>
       </c>
-      <c r="G33" s="104"/>
-      <c r="H33" s="104"/>
-      <c r="I33" s="105"/>
+      <c r="G33" s="102"/>
+      <c r="H33" s="102"/>
+      <c r="I33" s="103"/>
     </row>
     <row r="34" spans="1:10" ht="14.25" thickBot="1">
       <c r="A34" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="B34" s="76" t="s">
+      <c r="B34" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="C34" s="85" t="s">
+      <c r="C34" s="82" t="s">
         <v>371</v>
       </c>
-      <c r="D34" s="76" t="s">
+      <c r="D34" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="E34" s="80"/>
+      <c r="E34" s="77"/>
       <c r="F34" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="G34" s="76" t="s">
+      <c r="G34" s="73" t="s">
         <v>317</v>
       </c>
-      <c r="H34" s="76" t="s">
+      <c r="H34" s="73" t="s">
         <v>285</v>
       </c>
       <c r="I34" s="7" t="s">
@@ -8296,10 +8306,10 @@
       <c r="A35" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="B35" s="85" t="s">
+      <c r="B35" s="82" t="s">
         <v>142</v>
       </c>
-      <c r="C35" s="85" t="s">
+      <c r="C35" s="82" t="s">
         <v>291</v>
       </c>
       <c r="D35" s="20" t="s">
@@ -8308,10 +8318,10 @@
       <c r="F35" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="G35" s="85" t="s">
+      <c r="G35" s="82" t="s">
         <v>299</v>
       </c>
-      <c r="H35" s="76" t="s">
+      <c r="H35" s="73" t="s">
         <v>285</v>
       </c>
       <c r="I35" s="7" t="s">
@@ -8322,10 +8332,10 @@
       <c r="A36" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="B36" s="76" t="s">
+      <c r="B36" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="C36" s="76" t="s">
+      <c r="C36" s="73" t="s">
         <v>141</v>
       </c>
       <c r="D36" s="20" t="s">
@@ -8334,10 +8344,10 @@
       <c r="F36" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="G36" s="85" t="s">
+      <c r="G36" s="82" t="s">
         <v>370</v>
       </c>
-      <c r="H36" s="76" t="s">
+      <c r="H36" s="73" t="s">
         <v>285</v>
       </c>
       <c r="I36" s="7" t="s">
@@ -8348,13 +8358,13 @@
       <c r="A37" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="B37" s="76" t="s">
+      <c r="B37" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="C37" s="84" t="s">
+      <c r="C37" s="81" t="s">
         <v>333</v>
       </c>
-      <c r="D37" s="76" t="s">
+      <c r="D37" s="73" t="s">
         <v>72</v>
       </c>
     </row>
@@ -8362,10 +8372,10 @@
       <c r="A38" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="B38" s="85" t="s">
+      <c r="B38" s="82" t="s">
         <v>369</v>
       </c>
-      <c r="C38" s="84" t="s">
+      <c r="C38" s="81" t="s">
         <v>335</v>
       </c>
       <c r="D38" s="20" t="s">
@@ -8374,35 +8384,35 @@
     </row>
     <row r="42" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="43" spans="1:10">
-      <c r="A43" s="100" t="s">
+      <c r="A43" s="98" t="s">
         <v>300</v>
       </c>
-      <c r="B43" s="101"/>
-      <c r="C43" s="101"/>
-      <c r="D43" s="102"/>
-      <c r="F43" s="100" t="s">
+      <c r="B43" s="99"/>
+      <c r="C43" s="99"/>
+      <c r="D43" s="100"/>
+      <c r="F43" s="98" t="s">
         <v>377</v>
       </c>
-      <c r="G43" s="101"/>
-      <c r="H43" s="101"/>
-      <c r="I43" s="102"/>
+      <c r="G43" s="99"/>
+      <c r="H43" s="99"/>
+      <c r="I43" s="100"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="103" t="s">
-        <v>489</v>
-      </c>
-      <c r="B44" s="104"/>
-      <c r="C44" s="104"/>
-      <c r="D44" s="105"/>
+      <c r="A44" s="101" t="s">
+        <v>488</v>
+      </c>
+      <c r="B44" s="102"/>
+      <c r="C44" s="102"/>
+      <c r="D44" s="103"/>
       <c r="E44" t="s">
         <v>472</v>
       </c>
-      <c r="F44" s="103" t="s">
+      <c r="F44" s="101" t="s">
         <v>376</v>
       </c>
-      <c r="G44" s="104"/>
-      <c r="H44" s="104"/>
-      <c r="I44" s="105"/>
+      <c r="G44" s="102"/>
+      <c r="H44" s="102"/>
+      <c r="I44" s="103"/>
       <c r="J44" t="s">
         <v>472</v>
       </c>
@@ -8411,51 +8421,51 @@
       <c r="F45" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="G45" s="86" t="s">
+      <c r="G45" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="H45" s="87" t="s">
+      <c r="H45" s="84" t="s">
         <v>382</v>
       </c>
-      <c r="I45" s="86" t="s">
+      <c r="I45" s="83" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="100" t="s">
+      <c r="A46" s="98" t="s">
         <v>303</v>
       </c>
-      <c r="B46" s="101"/>
-      <c r="C46" s="101"/>
-      <c r="D46" s="102"/>
+      <c r="B46" s="99"/>
+      <c r="C46" s="99"/>
+      <c r="D46" s="100"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="103" t="s">
+      <c r="A47" s="101" t="s">
         <v>304</v>
       </c>
-      <c r="B47" s="104"/>
-      <c r="C47" s="104"/>
-      <c r="D47" s="105"/>
+      <c r="B47" s="102"/>
+      <c r="C47" s="102"/>
+      <c r="D47" s="103"/>
       <c r="E47" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="49" spans="1:10">
-      <c r="A49" s="117" t="s">
+      <c r="A49" s="113" t="s">
         <v>308</v>
       </c>
-      <c r="B49" s="118"/>
-      <c r="C49" s="118"/>
-      <c r="D49" s="119"/>
+      <c r="B49" s="114"/>
+      <c r="C49" s="114"/>
+      <c r="D49" s="115"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="114" t="s">
+      <c r="A50" s="116" t="s">
         <v>309</v>
       </c>
-      <c r="B50" s="115"/>
-      <c r="C50" s="115"/>
-      <c r="D50" s="116"/>
+      <c r="B50" s="117"/>
+      <c r="C50" s="117"/>
+      <c r="D50" s="118"/>
       <c r="E50" t="s">
         <v>474</v>
       </c>
@@ -8463,44 +8473,44 @@
     <row r="51" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="52" spans="1:10" ht="13.5" customHeight="1" thickBot="1"/>
     <row r="53" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A53" s="100" t="s">
+      <c r="A53" s="98" t="s">
         <v>378</v>
       </c>
-      <c r="B53" s="101"/>
-      <c r="C53" s="101"/>
-      <c r="D53" s="102"/>
-      <c r="F53" s="100" t="s">
+      <c r="B53" s="99"/>
+      <c r="C53" s="99"/>
+      <c r="D53" s="100"/>
+      <c r="F53" s="98" t="s">
         <v>378</v>
       </c>
-      <c r="G53" s="101"/>
-      <c r="H53" s="101"/>
-      <c r="I53" s="102"/>
+      <c r="G53" s="99"/>
+      <c r="H53" s="99"/>
+      <c r="I53" s="100"/>
     </row>
     <row r="54" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A54" s="103" t="s">
+      <c r="A54" s="101" t="s">
         <v>383</v>
       </c>
-      <c r="B54" s="104"/>
-      <c r="C54" s="104"/>
-      <c r="D54" s="105"/>
-      <c r="F54" s="103" t="s">
+      <c r="B54" s="102"/>
+      <c r="C54" s="102"/>
+      <c r="D54" s="103"/>
+      <c r="F54" s="101" t="s">
         <v>384</v>
       </c>
-      <c r="G54" s="104"/>
-      <c r="H54" s="104"/>
-      <c r="I54" s="105"/>
+      <c r="G54" s="102"/>
+      <c r="H54" s="102"/>
+      <c r="I54" s="103"/>
     </row>
     <row r="55" spans="1:10" ht="13.5" customHeight="1">
       <c r="A55" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="B55" s="86" t="s">
+      <c r="B55" s="83" t="s">
         <v>379</v>
       </c>
-      <c r="C55" s="86" t="s">
+      <c r="C55" s="83" t="s">
         <v>381</v>
       </c>
-      <c r="D55" s="86" t="s">
+      <c r="D55" s="83" t="s">
         <v>72</v>
       </c>
       <c r="E55" t="s">
@@ -8509,13 +8519,13 @@
       <c r="F55" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="G55" s="87" t="s">
+      <c r="G55" s="84" t="s">
         <v>379</v>
       </c>
-      <c r="H55" s="87" t="s">
+      <c r="H55" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="I55" s="87" t="s">
+      <c r="I55" s="84" t="s">
         <v>72</v>
       </c>
     </row>
@@ -8523,16 +8533,16 @@
       <c r="F56" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="G56" s="87" t="s">
+      <c r="G56" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="H56" s="87" t="s">
+      <c r="H56" s="84" t="s">
         <v>385</v>
       </c>
       <c r="I56" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="J56" s="97" t="s">
+      <c r="J56" s="94" t="s">
         <v>476</v>
       </c>
     </row>
@@ -8546,41 +8556,41 @@
     <row r="64" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="65" spans="1:10" ht="12.75" customHeight="1" thickBot="1"/>
     <row r="66" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A66" s="100" t="s">
+      <c r="A66" s="98" t="s">
         <v>366</v>
       </c>
-      <c r="B66" s="101"/>
-      <c r="C66" s="101"/>
-      <c r="D66" s="102"/>
-      <c r="F66" s="100" t="s">
+      <c r="B66" s="99"/>
+      <c r="C66" s="99"/>
+      <c r="D66" s="100"/>
+      <c r="F66" s="98" t="s">
         <v>348</v>
       </c>
-      <c r="G66" s="101"/>
-      <c r="H66" s="101"/>
-      <c r="I66" s="102"/>
+      <c r="G66" s="99"/>
+      <c r="H66" s="99"/>
+      <c r="I66" s="100"/>
     </row>
     <row r="67" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A67" s="103" t="s">
+      <c r="A67" s="101" t="s">
         <v>346</v>
       </c>
-      <c r="B67" s="104"/>
-      <c r="C67" s="104"/>
-      <c r="D67" s="105"/>
-      <c r="F67" s="114" t="s">
+      <c r="B67" s="102"/>
+      <c r="C67" s="102"/>
+      <c r="D67" s="103"/>
+      <c r="F67" s="116" t="s">
         <v>353</v>
       </c>
-      <c r="G67" s="115"/>
-      <c r="H67" s="115"/>
-      <c r="I67" s="116"/>
+      <c r="G67" s="117"/>
+      <c r="H67" s="117"/>
+      <c r="I67" s="118"/>
     </row>
     <row r="68" spans="1:10" ht="12.75" customHeight="1" thickBot="1">
       <c r="A68" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="B68" s="78" t="s">
+      <c r="B68" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="C68" s="79" t="s">
+      <c r="C68" s="76" t="s">
         <v>347</v>
       </c>
       <c r="D68" s="20" t="s">
@@ -8592,10 +8602,10 @@
       <c r="F68" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="G68" s="85" t="s">
+      <c r="G68" s="82" t="s">
         <v>360</v>
       </c>
-      <c r="H68" s="82" t="s">
+      <c r="H68" s="79" t="s">
         <v>365</v>
       </c>
       <c r="I68" s="7" t="s">
@@ -8609,10 +8619,10 @@
       <c r="A69" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="B69" s="78" t="s">
+      <c r="B69" s="75" t="s">
         <v>354</v>
       </c>
-      <c r="C69" s="78" t="s">
+      <c r="C69" s="75" t="s">
         <v>348</v>
       </c>
       <c r="D69" s="20" t="s">
@@ -8621,10 +8631,10 @@
       <c r="F69" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="G69" s="78" t="s">
+      <c r="G69" s="75" t="s">
         <v>322</v>
       </c>
-      <c r="H69" s="85" t="s">
+      <c r="H69" s="82" t="s">
         <v>357</v>
       </c>
       <c r="I69" s="20" t="s">
@@ -8635,10 +8645,10 @@
       <c r="A70" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="B70" s="78" t="s">
+      <c r="B70" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="C70" s="78" t="s">
+      <c r="C70" s="75" t="s">
         <v>362</v>
       </c>
       <c r="D70" s="20" t="s">
@@ -8647,10 +8657,10 @@
       <c r="F70" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="G70" s="78" t="s">
+      <c r="G70" s="75" t="s">
         <v>322</v>
       </c>
-      <c r="H70" s="78" t="s">
+      <c r="H70" s="75" t="s">
         <v>359</v>
       </c>
       <c r="I70" s="20" t="s">
@@ -8661,10 +8671,10 @@
       <c r="F71" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="G71" s="78" t="s">
+      <c r="G71" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="H71" s="78" t="s">
+      <c r="H71" s="75" t="s">
         <v>362</v>
       </c>
       <c r="I71" s="20" t="s">
@@ -8673,80 +8683,80 @@
     </row>
     <row r="72" spans="1:10" ht="14.25" thickBot="1">
       <c r="F72" s="8"/>
-      <c r="G72" s="78"/>
-      <c r="H72" s="78"/>
+      <c r="G72" s="75"/>
+      <c r="H72" s="75"/>
       <c r="I72" s="20"/>
     </row>
     <row r="77" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="78" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A78" s="117" t="s">
+      <c r="A78" s="113" t="s">
         <v>310</v>
       </c>
-      <c r="B78" s="118"/>
-      <c r="C78" s="118"/>
-      <c r="D78" s="119"/>
-      <c r="F78" s="100" t="s">
+      <c r="B78" s="114"/>
+      <c r="C78" s="114"/>
+      <c r="D78" s="115"/>
+      <c r="F78" s="98" t="s">
         <v>234</v>
       </c>
-      <c r="G78" s="101"/>
-      <c r="H78" s="101"/>
-      <c r="I78" s="102"/>
+      <c r="G78" s="99"/>
+      <c r="H78" s="99"/>
+      <c r="I78" s="100"/>
     </row>
     <row r="79" spans="1:10">
-      <c r="A79" s="100" t="s">
+      <c r="A79" s="98" t="s">
         <v>232</v>
       </c>
-      <c r="B79" s="101"/>
-      <c r="C79" s="101"/>
-      <c r="D79" s="102"/>
+      <c r="B79" s="99"/>
+      <c r="C79" s="99"/>
+      <c r="D79" s="100"/>
       <c r="E79" t="s">
         <v>479</v>
       </c>
-      <c r="F79" s="103" t="s">
+      <c r="F79" s="101" t="s">
         <v>235</v>
       </c>
-      <c r="G79" s="104"/>
-      <c r="H79" s="104"/>
-      <c r="I79" s="105"/>
+      <c r="G79" s="102"/>
+      <c r="H79" s="102"/>
+      <c r="I79" s="103"/>
       <c r="J79" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="80" spans="1:10">
-      <c r="A80" s="103" t="s">
+      <c r="A80" s="101" t="s">
         <v>233</v>
       </c>
-      <c r="B80" s="104"/>
-      <c r="C80" s="104"/>
-      <c r="D80" s="105"/>
+      <c r="B80" s="102"/>
+      <c r="C80" s="102"/>
+      <c r="D80" s="103"/>
       <c r="F80" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="G80" s="76" t="s">
+      <c r="G80" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="H80" s="76" t="s">
+      <c r="H80" s="73" t="s">
         <v>239</v>
       </c>
-      <c r="I80" s="77" t="s">
+      <c r="I80" s="74" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="81" spans="1:10">
       <c r="A81" s="8"/>
-      <c r="B81" s="76"/>
+      <c r="B81" s="73"/>
       <c r="C81" s="15"/>
-      <c r="D81" s="77"/>
+      <c r="D81" s="74"/>
       <c r="F81" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="G81" s="76" t="s">
+      <c r="G81" s="73" t="s">
         <v>242</v>
       </c>
-      <c r="H81" s="76" t="s">
+      <c r="H81" s="73" t="s">
         <v>243</v>
       </c>
-      <c r="I81" s="77" t="s">
+      <c r="I81" s="74" t="s">
         <v>72</v>
       </c>
     </row>
@@ -8754,13 +8764,13 @@
       <c r="F82" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="G82" s="76" t="s">
+      <c r="G82" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="H82" s="76" t="s">
+      <c r="H82" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="I82" s="77" t="s">
+      <c r="I82" s="74" t="s">
         <v>72</v>
       </c>
     </row>
@@ -8768,65 +8778,65 @@
       <c r="F83" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="G83" s="76" t="s">
+      <c r="G83" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="H83" s="76" t="s">
+      <c r="H83" s="73" t="s">
         <v>257</v>
       </c>
-      <c r="I83" s="77" t="s">
+      <c r="I83" s="74" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="86" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A86" s="117" t="s">
+      <c r="A86" s="113" t="s">
         <v>386</v>
       </c>
-      <c r="B86" s="118"/>
-      <c r="C86" s="118"/>
-      <c r="D86" s="119"/>
-      <c r="F86" s="117" t="s">
+      <c r="B86" s="114"/>
+      <c r="C86" s="114"/>
+      <c r="D86" s="115"/>
+      <c r="F86" s="113" t="s">
         <v>386</v>
       </c>
-      <c r="G86" s="118"/>
-      <c r="H86" s="118"/>
-      <c r="I86" s="119"/>
+      <c r="G86" s="114"/>
+      <c r="H86" s="114"/>
+      <c r="I86" s="115"/>
     </row>
     <row r="87" spans="1:10">
-      <c r="A87" s="100" t="s">
+      <c r="A87" s="98" t="s">
         <v>232</v>
       </c>
-      <c r="B87" s="101"/>
-      <c r="C87" s="101"/>
-      <c r="D87" s="102"/>
+      <c r="B87" s="99"/>
+      <c r="C87" s="99"/>
+      <c r="D87" s="100"/>
       <c r="E87" t="s">
         <v>481</v>
       </c>
-      <c r="F87" s="103" t="s">
+      <c r="F87" s="101" t="s">
         <v>235</v>
       </c>
-      <c r="G87" s="104"/>
-      <c r="H87" s="104"/>
-      <c r="I87" s="105"/>
+      <c r="G87" s="102"/>
+      <c r="H87" s="102"/>
+      <c r="I87" s="103"/>
     </row>
     <row r="88" spans="1:10">
-      <c r="A88" s="103" t="s">
+      <c r="A88" s="101" t="s">
         <v>233</v>
       </c>
-      <c r="B88" s="104"/>
-      <c r="C88" s="104"/>
-      <c r="D88" s="105"/>
+      <c r="B88" s="102"/>
+      <c r="C88" s="102"/>
+      <c r="D88" s="103"/>
       <c r="F88" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="G88" s="89" t="s">
+      <c r="G88" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="H88" s="89" t="s">
+      <c r="H88" s="86" t="s">
         <v>239</v>
       </c>
-      <c r="I88" s="90" t="s">
+      <c r="I88" s="87" t="s">
         <v>72</v>
       </c>
       <c r="J88" t="s">
@@ -8835,19 +8845,19 @@
     </row>
     <row r="89" spans="1:10">
       <c r="A89" s="8"/>
-      <c r="B89" s="89"/>
+      <c r="B89" s="86"/>
       <c r="C89" s="15"/>
-      <c r="D89" s="90"/>
+      <c r="D89" s="87"/>
       <c r="F89" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="G89" s="89" t="s">
+      <c r="G89" s="86" t="s">
         <v>242</v>
       </c>
-      <c r="H89" s="89" t="s">
+      <c r="H89" s="86" t="s">
         <v>243</v>
       </c>
-      <c r="I89" s="90" t="s">
+      <c r="I89" s="87" t="s">
         <v>72</v>
       </c>
     </row>
@@ -8855,13 +8865,13 @@
       <c r="F90" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="G90" s="89" t="s">
+      <c r="G90" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="H90" s="89" t="s">
+      <c r="H90" s="86" t="s">
         <v>77</v>
       </c>
-      <c r="I90" s="90" t="s">
+      <c r="I90" s="87" t="s">
         <v>72</v>
       </c>
     </row>
@@ -8869,13 +8879,13 @@
       <c r="F91" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="G91" s="89" t="s">
+      <c r="G91" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="H91" s="89" t="s">
+      <c r="H91" s="86" t="s">
         <v>257</v>
       </c>
-      <c r="I91" s="90" t="s">
+      <c r="I91" s="87" t="s">
         <v>72</v>
       </c>
     </row>
@@ -8903,7 +8913,7 @@
     </row>
     <row r="97" spans="5:20" ht="54">
       <c r="E97" s="59" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F97" s="58">
         <v>4</v>
@@ -8912,7 +8922,7 @@
         <v>231</v>
       </c>
       <c r="H97" s="33" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="L97" s="65"/>
       <c r="M97" s="66"/>
@@ -8945,7 +8955,7 @@
       <c r="S98" s="66"/>
       <c r="T98" s="67"/>
     </row>
-    <row r="99" spans="5:20" ht="27">
+    <row r="99" spans="5:20" ht="40.5">
       <c r="E99" s="57"/>
       <c r="F99" s="58">
         <v>6</v>
@@ -8954,7 +8964,7 @@
         <v>367</v>
       </c>
       <c r="H99" s="33" t="s">
-        <v>488</v>
+        <v>504</v>
       </c>
       <c r="L99" s="65"/>
       <c r="M99" s="66"/>
@@ -9046,7 +9056,7 @@
       <c r="O103" s="66"/>
       <c r="P103" s="66"/>
       <c r="Q103" s="66"/>
-      <c r="R103" s="74">
+      <c r="R103" s="71">
         <v>4</v>
       </c>
       <c r="S103" s="66"/>
@@ -9069,7 +9079,7 @@
       <c r="O104" s="66"/>
       <c r="P104" s="66"/>
       <c r="Q104" s="66"/>
-      <c r="R104" s="91"/>
+      <c r="R104" s="88"/>
       <c r="S104" s="66"/>
       <c r="T104" s="67"/>
     </row>
@@ -9082,7 +9092,7 @@
         <v>386</v>
       </c>
       <c r="H105" s="57" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="L105" s="65"/>
       <c r="M105" s="66"/>
@@ -9090,7 +9100,7 @@
       <c r="O105" s="66"/>
       <c r="P105" s="66"/>
       <c r="Q105" s="66"/>
-      <c r="R105" s="91"/>
+      <c r="R105" s="88"/>
       <c r="S105" s="66"/>
       <c r="T105" s="67"/>
     </row>
@@ -9100,35 +9110,35 @@
       <c r="G106" s="32"/>
       <c r="H106" s="57"/>
       <c r="L106" s="65"/>
-      <c r="M106" s="74"/>
+      <c r="M106" s="71"/>
       <c r="N106" s="66"/>
-      <c r="O106" s="71"/>
-      <c r="P106" s="72"/>
-      <c r="Q106" s="72"/>
-      <c r="R106" s="73"/>
+      <c r="O106" s="68"/>
+      <c r="P106" s="69"/>
+      <c r="Q106" s="69"/>
+      <c r="R106" s="70"/>
       <c r="S106" s="66"/>
       <c r="T106" s="67"/>
     </row>
-    <row r="107" spans="5:20" ht="27">
-      <c r="E107" s="57"/>
-      <c r="F107" s="58">
+    <row r="107" spans="5:20" s="123" customFormat="1" ht="27">
+      <c r="E107" s="121"/>
+      <c r="F107" s="122">
         <v>211</v>
       </c>
-      <c r="G107" s="32" t="s">
+      <c r="G107" s="37" t="s">
         <v>256</v>
       </c>
-      <c r="H107" s="57" t="s">
-        <v>504</v>
-      </c>
-      <c r="L107" s="68"/>
-      <c r="M107" s="69"/>
-      <c r="N107" s="69"/>
-      <c r="O107" s="69"/>
-      <c r="P107" s="69"/>
-      <c r="Q107" s="69"/>
-      <c r="R107" s="69"/>
-      <c r="S107" s="69"/>
-      <c r="T107" s="70"/>
+      <c r="H107" s="121" t="s">
+        <v>503</v>
+      </c>
+      <c r="L107" s="124"/>
+      <c r="M107" s="125"/>
+      <c r="N107" s="125"/>
+      <c r="O107" s="125"/>
+      <c r="P107" s="125"/>
+      <c r="Q107" s="125"/>
+      <c r="R107" s="125"/>
+      <c r="S107" s="125"/>
+      <c r="T107" s="126"/>
     </row>
     <row r="108" spans="5:20">
       <c r="E108" s="57"/>
@@ -9144,7 +9154,7 @@
     </row>
     <row r="109" spans="5:20" ht="27">
       <c r="E109" s="59" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F109" s="58">
         <v>213</v>
@@ -9153,12 +9163,12 @@
         <v>265</v>
       </c>
       <c r="H109" s="57" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="110" spans="5:20" ht="27">
       <c r="E110" s="59" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F110" s="58">
         <v>214</v>
@@ -9184,13 +9194,13 @@
     </row>
     <row r="112" spans="5:20" ht="27">
       <c r="E112" s="59" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F112" s="58">
         <v>220</v>
       </c>
       <c r="G112" s="32" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H112" s="57" t="s">
         <v>271</v>
@@ -9198,12 +9208,12 @@
     </row>
     <row r="113" spans="5:8" ht="54">
       <c r="E113" s="59" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F113" s="58">
         <v>230</v>
       </c>
-      <c r="G113" s="84" t="s">
+      <c r="G113" s="81" t="s">
         <v>340</v>
       </c>
       <c r="H113" s="57" t="s">
@@ -9217,7 +9227,7 @@
       <c r="F114" s="58">
         <v>240</v>
       </c>
-      <c r="G114" s="84" t="s">
+      <c r="G114" s="81" t="s">
         <v>341</v>
       </c>
       <c r="H114" s="57" t="s">
@@ -9229,7 +9239,7 @@
       <c r="F115" s="58">
         <v>250</v>
       </c>
-      <c r="G115" s="84" t="s">
+      <c r="G115" s="81" t="s">
         <v>339</v>
       </c>
       <c r="H115" s="57" t="s">
@@ -9258,6 +9268,30 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="A86:D86"/>
+    <mergeCell ref="F86:I86"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="F53:I53"/>
+    <mergeCell ref="F54:I54"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="F67:I67"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A79:D79"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="F78:I78"/>
+    <mergeCell ref="F79:I79"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="F43:I43"/>
     <mergeCell ref="A87:D87"/>
     <mergeCell ref="F87:I87"/>
     <mergeCell ref="A88:D88"/>
@@ -9274,30 +9308,6 @@
     <mergeCell ref="A43:D43"/>
     <mergeCell ref="F24:I24"/>
     <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="F44:I44"/>
-    <mergeCell ref="F43:I43"/>
-    <mergeCell ref="A86:D86"/>
-    <mergeCell ref="F86:I86"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="F53:I53"/>
-    <mergeCell ref="F54:I54"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="F66:I66"/>
-    <mergeCell ref="F67:I67"/>
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="A79:D79"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="F78:I78"/>
-    <mergeCell ref="F79:I79"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A66:D66"/>
-    <mergeCell ref="A53:D53"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -9322,84 +9332,84 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="17.375" style="80" customWidth="1"/>
+    <col min="1" max="1" width="17.375" style="77" customWidth="1"/>
     <col min="2" max="2" width="77.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="40.5">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="77" t="s">
         <v>329</v>
       </c>
-      <c r="B1" s="81" t="s">
-        <v>490</v>
+      <c r="B1" s="78" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="81">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="77" t="s">
         <v>331</v>
       </c>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="78" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="40.5">
+      <c r="A3" s="77" t="s">
+        <v>332</v>
+      </c>
+      <c r="B3" s="78" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="81">
+      <c r="A4" s="77" t="s">
+        <v>334</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="40.5">
-      <c r="A3" s="80" t="s">
-        <v>332</v>
-      </c>
-      <c r="B3" s="81" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="81">
-      <c r="A4" s="80" t="s">
-        <v>334</v>
-      </c>
-      <c r="B4" s="81" t="s">
-        <v>499</v>
-      </c>
-    </row>
     <row r="5" spans="1:2" ht="67.5">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="77" t="s">
         <v>336</v>
       </c>
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="78" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="27">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="77" t="s">
         <v>337</v>
       </c>
-      <c r="B6" s="81" t="s">
+      <c r="B6" s="78" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="67.5">
-      <c r="A7" s="80" t="s">
+      <c r="A7" s="77" t="s">
         <v>338</v>
       </c>
-      <c r="B7" s="81" t="s">
+      <c r="B7" s="78" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="27">
-      <c r="A8" s="80" t="s">
+      <c r="A8" s="77" t="s">
         <v>351</v>
       </c>
-      <c r="B8" s="81" t="s">
+      <c r="B8" s="78" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="40.5">
-      <c r="A9" s="80" t="s">
+      <c r="A9" s="77" t="s">
         <v>363</v>
       </c>
-      <c r="B9" s="81" t="s">
+      <c r="B9" s="78" t="s">
         <v>364</v>
       </c>
     </row>
@@ -9421,68 +9431,68 @@
   <sheetData>
     <row r="10" spans="2:14" ht="14.25" thickBot="1"/>
     <row r="11" spans="2:14">
-      <c r="B11" s="100" t="s">
+      <c r="B11" s="98" t="s">
         <v>373</v>
       </c>
-      <c r="C11" s="101"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="102"/>
+      <c r="C11" s="99"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="100"/>
       <c r="F11" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="14.25" thickBot="1"/>
     <row r="13" spans="2:14">
-      <c r="B13" s="100" t="s">
+      <c r="B13" s="98" t="s">
         <v>374</v>
       </c>
-      <c r="C13" s="101"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="102"/>
-      <c r="J13" s="100" t="s">
+      <c r="C13" s="99"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="100"/>
+      <c r="J13" s="98" t="s">
         <v>374</v>
       </c>
-      <c r="K13" s="101"/>
-      <c r="L13" s="101"/>
-      <c r="M13" s="102"/>
+      <c r="K13" s="99"/>
+      <c r="L13" s="99"/>
+      <c r="M13" s="100"/>
     </row>
     <row r="14" spans="2:14">
-      <c r="B14" s="103" t="s">
-        <v>493</v>
-      </c>
-      <c r="C14" s="104"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="105"/>
-      <c r="J14" s="103" t="s">
+      <c r="B14" s="101" t="s">
+        <v>492</v>
+      </c>
+      <c r="C14" s="102"/>
+      <c r="D14" s="102"/>
+      <c r="E14" s="103"/>
+      <c r="J14" s="101" t="s">
         <v>372</v>
       </c>
-      <c r="K14" s="104"/>
-      <c r="L14" s="104"/>
-      <c r="M14" s="105"/>
+      <c r="K14" s="102"/>
+      <c r="L14" s="102"/>
+      <c r="M14" s="103"/>
     </row>
     <row r="15" spans="2:14" ht="14.25" thickBot="1">
       <c r="B15" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="88" t="s">
+      <c r="C15" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="88" t="s">
+      <c r="D15" s="85" t="s">
         <v>122</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="F15" s="94" t="s">
+      <c r="F15" s="91" t="s">
         <v>483</v>
       </c>
       <c r="J15" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="K15" s="85" t="s">
+      <c r="K15" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="L15" s="85" t="s">
+      <c r="L15" s="82" t="s">
         <v>284</v>
       </c>
       <c r="M15" s="20" t="s">
@@ -9534,39 +9544,39 @@
       </c>
     </row>
     <row r="2" spans="2:9">
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="93" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="3" spans="2:9">
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="101" t="s">
         <v>450</v>
       </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="G3" s="103" t="s">
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="G3" s="101" t="s">
         <v>423</v>
       </c>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="C4" s="92" t="s">
+      <c r="C4" s="89" t="s">
         <v>296</v>
       </c>
-      <c r="D4" s="92" t="s">
+      <c r="D4" s="89" t="s">
         <v>390</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="H4" s="92" t="s">
+      <c r="H4" s="89" t="s">
         <v>296</v>
       </c>
-      <c r="I4" s="92" t="s">
+      <c r="I4" s="89" t="s">
         <v>390</v>
       </c>
     </row>
@@ -9574,25 +9584,25 @@
       <c r="B5" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="C5" s="92" t="s">
+      <c r="C5" s="89" t="s">
         <v>172</v>
       </c>
-      <c r="D5" s="92" t="s">
+      <c r="D5" s="89" t="s">
         <v>395</v>
       </c>
-      <c r="E5" s="94" t="s">
+      <c r="E5" s="91" t="s">
         <v>425</v>
       </c>
-      <c r="F5" s="94" t="s">
+      <c r="F5" s="91" t="s">
         <v>424</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>393</v>
       </c>
-      <c r="H5" s="92" t="s">
+      <c r="H5" s="89" t="s">
         <v>296</v>
       </c>
-      <c r="I5" s="92" t="s">
+      <c r="I5" s="89" t="s">
         <v>394</v>
       </c>
     </row>
@@ -9600,19 +9610,19 @@
       <c r="B6" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="C6" s="92" t="s">
+      <c r="C6" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="92" t="s">
+      <c r="D6" s="89" t="s">
         <v>302</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>396</v>
       </c>
-      <c r="H6" s="92" t="s">
+      <c r="H6" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="92" t="s">
+      <c r="I6" s="89" t="s">
         <v>422</v>
       </c>
     </row>
@@ -9620,19 +9630,19 @@
       <c r="B7" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="C7" s="92" t="s">
+      <c r="C7" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="92" t="s">
+      <c r="D7" s="89" t="s">
         <v>391</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="H7" s="92" t="s">
+      <c r="H7" s="89" t="s">
         <v>398</v>
       </c>
-      <c r="I7" s="92" t="s">
+      <c r="I7" s="89" t="s">
         <v>411</v>
       </c>
     </row>
@@ -9640,10 +9650,10 @@
       <c r="G8" s="8" t="s">
         <v>409</v>
       </c>
-      <c r="H8" s="92" t="s">
+      <c r="H8" s="89" t="s">
         <v>296</v>
       </c>
-      <c r="I8" s="92" t="s">
+      <c r="I8" s="89" t="s">
         <v>412</v>
       </c>
     </row>
@@ -9651,10 +9661,10 @@
       <c r="G9" s="8" t="s">
         <v>410</v>
       </c>
-      <c r="H9" s="92" t="s">
+      <c r="H9" s="89" t="s">
         <v>296</v>
       </c>
-      <c r="I9" s="92" t="s">
+      <c r="I9" s="89" t="s">
         <v>413</v>
       </c>
     </row>
@@ -9662,33 +9672,33 @@
       <c r="G10" s="8" t="s">
         <v>415</v>
       </c>
-      <c r="H10" s="92" t="s">
+      <c r="H10" s="89" t="s">
         <v>414</v>
       </c>
-      <c r="I10" s="92" t="s">
+      <c r="I10" s="89" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="14" spans="2:9">
-      <c r="G14" s="103" t="s">
+      <c r="G14" s="101" t="s">
         <v>400</v>
       </c>
-      <c r="H14" s="104"/>
-      <c r="I14" s="104"/>
+      <c r="H14" s="102"/>
+      <c r="I14" s="102"/>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="103" t="s">
+      <c r="B15" s="101" t="s">
         <v>417</v>
       </c>
-      <c r="C15" s="104"/>
-      <c r="D15" s="104"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="102"/>
       <c r="G15" s="8" t="s">
         <v>406</v>
       </c>
-      <c r="H15" s="92" t="s">
+      <c r="H15" s="89" t="s">
         <v>407</v>
       </c>
-      <c r="I15" s="92" t="s">
+      <c r="I15" s="89" t="s">
         <v>408</v>
       </c>
     </row>
@@ -9696,19 +9706,19 @@
       <c r="B16" s="8" t="s">
         <v>418</v>
       </c>
-      <c r="C16" s="92" t="s">
+      <c r="C16" s="89" t="s">
         <v>296</v>
       </c>
-      <c r="D16" s="92" t="s">
+      <c r="D16" s="89" t="s">
         <v>390</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="H16" s="92" t="s">
+      <c r="H16" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="I16" s="92" t="s">
+      <c r="I16" s="89" t="s">
         <v>401</v>
       </c>
     </row>
@@ -9716,19 +9726,19 @@
       <c r="B17" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="C17" s="92" t="s">
+      <c r="C17" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="92" t="s">
+      <c r="D17" s="89" t="s">
         <v>395</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>402</v>
       </c>
-      <c r="H17" s="92" t="s">
+      <c r="H17" s="89" t="s">
         <v>296</v>
       </c>
-      <c r="I17" s="92" t="s">
+      <c r="I17" s="89" t="s">
         <v>394</v>
       </c>
     </row>
@@ -9736,19 +9746,19 @@
       <c r="B18" s="8" t="s">
         <v>420</v>
       </c>
-      <c r="C18" s="92" t="s">
+      <c r="C18" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="92" t="s">
+      <c r="D18" s="89" t="s">
         <v>302</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="H18" s="92" t="s">
+      <c r="H18" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="I18" s="92" t="s">
+      <c r="I18" s="89" t="s">
         <v>397</v>
       </c>
     </row>
@@ -9756,19 +9766,19 @@
       <c r="B19" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="C19" s="92" t="s">
+      <c r="C19" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="92" t="s">
+      <c r="D19" s="89" t="s">
         <v>422</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>404</v>
       </c>
-      <c r="H19" s="92" t="s">
+      <c r="H19" s="89" t="s">
         <v>398</v>
       </c>
-      <c r="I19" s="92" t="s">
+      <c r="I19" s="89" t="s">
         <v>399</v>
       </c>
     </row>
@@ -9776,47 +9786,47 @@
       <c r="B20" s="8" t="s">
         <v>406</v>
       </c>
-      <c r="C20" s="92" t="s">
+      <c r="C20" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="92" t="s">
+      <c r="D20" s="89" t="s">
         <v>391</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="H20" s="92" t="s">
+      <c r="H20" s="89" t="s">
         <v>398</v>
       </c>
-      <c r="I20" s="92" t="s">
+      <c r="I20" s="89" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="21" spans="2:9">
       <c r="B21" s="8"/>
-      <c r="C21" s="92"/>
-      <c r="D21" s="92"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="89"/>
     </row>
     <row r="24" spans="2:9">
-      <c r="B24" s="96" t="s">
+      <c r="B24" s="93" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="103" t="s">
+      <c r="B25" s="101" t="s">
         <v>433</v>
       </c>
-      <c r="C25" s="104"/>
-      <c r="D25" s="104"/>
+      <c r="C25" s="102"/>
+      <c r="D25" s="102"/>
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="8" t="s">
         <v>426</v>
       </c>
-      <c r="C26" s="92" t="s">
+      <c r="C26" s="89" t="s">
         <v>296</v>
       </c>
-      <c r="D26" s="92" t="s">
+      <c r="D26" s="89" t="s">
         <v>428</v>
       </c>
     </row>
@@ -9824,13 +9834,13 @@
       <c r="B27" s="8" t="s">
         <v>427</v>
       </c>
-      <c r="C27" s="92" t="s">
+      <c r="C27" s="89" t="s">
         <v>296</v>
       </c>
-      <c r="D27" s="92" t="s">
+      <c r="D27" s="89" t="s">
         <v>429</v>
       </c>
-      <c r="E27" s="94" t="s">
+      <c r="E27" s="91" t="s">
         <v>434</v>
       </c>
     </row>
@@ -9838,29 +9848,29 @@
       <c r="B28" s="8" t="s">
         <v>468</v>
       </c>
-      <c r="C28" s="92" t="s">
+      <c r="C28" s="89" t="s">
         <v>430</v>
       </c>
-      <c r="D28" s="92" t="s">
+      <c r="D28" s="89" t="s">
         <v>431</v>
       </c>
-      <c r="G28" s="103" t="s">
+      <c r="G28" s="101" t="s">
         <v>439</v>
       </c>
-      <c r="H28" s="104"/>
-      <c r="I28" s="104"/>
+      <c r="H28" s="102"/>
+      <c r="I28" s="102"/>
     </row>
     <row r="29" spans="2:9">
       <c r="B29" s="8"/>
-      <c r="C29" s="92"/>
-      <c r="D29" s="92"/>
+      <c r="C29" s="89"/>
+      <c r="D29" s="89"/>
       <c r="G29" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="H29" s="92" t="s">
+      <c r="H29" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="I29" s="92" t="s">
+      <c r="I29" s="89" t="s">
         <v>371</v>
       </c>
     </row>
@@ -9868,10 +9878,10 @@
       <c r="G30" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="H30" s="92" t="s">
+      <c r="H30" s="89" t="s">
         <v>296</v>
       </c>
-      <c r="I30" s="92" t="s">
+      <c r="I30" s="89" t="s">
         <v>429</v>
       </c>
     </row>
@@ -9879,46 +9889,46 @@
       <c r="G31" s="8" t="s">
         <v>440</v>
       </c>
-      <c r="H31" s="92" t="s">
+      <c r="H31" s="89" t="s">
         <v>296</v>
       </c>
-      <c r="I31" s="92" t="s">
+      <c r="I31" s="89" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="32" spans="2:9">
-      <c r="B32" s="96" t="s">
+      <c r="B32" s="93" t="s">
         <v>460</v>
       </c>
       <c r="G32" s="8"/>
-      <c r="H32" s="92"/>
-      <c r="I32" s="92"/>
+      <c r="H32" s="89"/>
+      <c r="I32" s="89"/>
     </row>
     <row r="33" spans="2:9">
-      <c r="B33" s="103" t="s">
+      <c r="B33" s="101" t="s">
         <v>436</v>
       </c>
-      <c r="C33" s="104"/>
-      <c r="D33" s="104"/>
+      <c r="C33" s="102"/>
+      <c r="D33" s="102"/>
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="8" t="s">
         <v>437</v>
       </c>
-      <c r="C34" s="92" t="s">
+      <c r="C34" s="89" t="s">
         <v>296</v>
       </c>
-      <c r="D34" s="92"/>
+      <c r="D34" s="89"/>
     </row>
     <row r="35" spans="2:9">
       <c r="B35" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="C35" s="92" t="s">
+      <c r="C35" s="89" t="s">
         <v>296</v>
       </c>
-      <c r="D35" s="92"/>
-      <c r="E35" s="94" t="s">
+      <c r="D35" s="89"/>
+      <c r="E35" s="91" t="s">
         <v>435</v>
       </c>
     </row>
@@ -9926,33 +9936,33 @@
       <c r="B36" s="8" t="s">
         <v>432</v>
       </c>
-      <c r="C36" s="92" t="s">
+      <c r="C36" s="89" t="s">
         <v>430</v>
       </c>
-      <c r="D36" s="92" t="s">
+      <c r="D36" s="89" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="37" spans="2:9">
       <c r="B37" s="8"/>
-      <c r="C37" s="92"/>
-      <c r="D37" s="92"/>
+      <c r="C37" s="89"/>
+      <c r="D37" s="89"/>
     </row>
     <row r="40" spans="2:9">
-      <c r="G40" s="103" t="s">
+      <c r="G40" s="101" t="s">
         <v>442</v>
       </c>
-      <c r="H40" s="104"/>
-      <c r="I40" s="104"/>
+      <c r="H40" s="102"/>
+      <c r="I40" s="102"/>
     </row>
     <row r="41" spans="2:9">
       <c r="G41" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="H41" s="92" t="s">
+      <c r="H41" s="89" t="s">
         <v>296</v>
       </c>
-      <c r="I41" s="95" t="s">
+      <c r="I41" s="92" t="s">
         <v>446</v>
       </c>
     </row>
@@ -9960,10 +9970,10 @@
       <c r="G42" s="8" t="s">
         <v>444</v>
       </c>
-      <c r="H42" s="92" t="s">
+      <c r="H42" s="89" t="s">
         <v>296</v>
       </c>
-      <c r="I42" s="92" t="s">
+      <c r="I42" s="89" t="s">
         <v>449</v>
       </c>
     </row>
@@ -9971,10 +9981,10 @@
       <c r="G43" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="H43" s="92" t="s">
+      <c r="H43" s="89" t="s">
         <v>296</v>
       </c>
-      <c r="I43" s="92" t="s">
+      <c r="I43" s="89" t="s">
         <v>448</v>
       </c>
     </row>
@@ -9982,33 +9992,33 @@
       <c r="G44" s="8" t="s">
         <v>465</v>
       </c>
-      <c r="H44" s="92" t="s">
+      <c r="H44" s="89" t="s">
         <v>296</v>
       </c>
-      <c r="I44" s="92" t="s">
+      <c r="I44" s="89" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="48" spans="2:9">
-      <c r="B48" s="96" t="s">
+      <c r="B48" s="93" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="49" spans="2:6">
-      <c r="B49" s="103" t="s">
+      <c r="B49" s="101" t="s">
         <v>461</v>
       </c>
-      <c r="C49" s="104"/>
-      <c r="D49" s="104"/>
+      <c r="C49" s="102"/>
+      <c r="D49" s="102"/>
     </row>
     <row r="50" spans="2:6">
       <c r="B50" s="8" t="s">
         <v>421</v>
       </c>
-      <c r="C50" s="92" t="s">
+      <c r="C50" s="89" t="s">
         <v>296</v>
       </c>
-      <c r="D50" s="92"/>
+      <c r="D50" s="89"/>
       <c r="F50" t="s">
         <v>455</v>
       </c>
@@ -10017,14 +10027,14 @@
       <c r="B51" s="8" t="s">
         <v>451</v>
       </c>
-      <c r="C51" s="92" t="s">
+      <c r="C51" s="89" t="s">
         <v>296</v>
       </c>
-      <c r="D51" s="92"/>
-      <c r="E51" s="94" t="s">
+      <c r="D51" s="89"/>
+      <c r="E51" s="91" t="s">
         <v>454</v>
       </c>
-      <c r="F51" s="94" t="s">
+      <c r="F51" s="91" t="s">
         <v>456</v>
       </c>
     </row>
@@ -10032,10 +10042,10 @@
       <c r="B52" s="8" t="s">
         <v>452</v>
       </c>
-      <c r="C52" s="92" t="s">
+      <c r="C52" s="89" t="s">
         <v>296</v>
       </c>
-      <c r="D52" s="93" t="s">
+      <c r="D52" s="90" t="s">
         <v>463</v>
       </c>
     </row>
@@ -10043,41 +10053,41 @@
       <c r="B53" s="8" t="s">
         <v>453</v>
       </c>
-      <c r="C53" s="92" t="s">
+      <c r="C53" s="89" t="s">
         <v>296</v>
       </c>
-      <c r="D53" s="92"/>
+      <c r="D53" s="89"/>
     </row>
     <row r="58" spans="2:6">
-      <c r="B58" s="96" t="s">
+      <c r="B58" s="93" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="59" spans="2:6">
-      <c r="B59" s="103" t="s">
+      <c r="B59" s="101" t="s">
         <v>466</v>
       </c>
-      <c r="C59" s="104"/>
-      <c r="D59" s="104"/>
+      <c r="C59" s="102"/>
+      <c r="D59" s="102"/>
     </row>
     <row r="60" spans="2:6">
       <c r="B60" s="8" t="s">
         <v>421</v>
       </c>
-      <c r="C60" s="93" t="s">
+      <c r="C60" s="90" t="s">
         <v>296</v>
       </c>
-      <c r="D60" s="93"/>
+      <c r="D60" s="90"/>
     </row>
     <row r="61" spans="2:6">
       <c r="B61" s="8" t="s">
         <v>427</v>
       </c>
-      <c r="C61" s="93" t="s">
+      <c r="C61" s="90" t="s">
         <v>296</v>
       </c>
-      <c r="D61" s="93"/>
-      <c r="E61" s="94" t="s">
+      <c r="D61" s="90"/>
+      <c r="E61" s="91" t="s">
         <v>462</v>
       </c>
     </row>
@@ -10085,10 +10095,10 @@
       <c r="B62" s="8" t="s">
         <v>432</v>
       </c>
-      <c r="C62" s="93" t="s">
+      <c r="C62" s="90" t="s">
         <v>430</v>
       </c>
-      <c r="D62" s="93" t="s">
+      <c r="D62" s="90" t="s">
         <v>431</v>
       </c>
     </row>
@@ -10096,10 +10106,10 @@
       <c r="B63" s="8" t="s">
         <v>453</v>
       </c>
-      <c r="C63" s="93" t="s">
+      <c r="C63" s="90" t="s">
         <v>296</v>
       </c>
-      <c r="D63" s="93"/>
+      <c r="D63" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/doc/最新接口_拟定.xlsx
+++ b/doc/最新接口_拟定.xlsx
@@ -1069,7 +1069,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="504">
   <si>
     <t>int</t>
   </si>
@@ -2148,11 +2148,6 @@
   </si>
   <si>
     <t>uid:uid
-dlist:内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uid:uid
 dVal:打出的牌
 dlist:听牌类型集合</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2175,10 +2170,6 @@
   </si>
   <si>
     <t>dVal:打出的牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KVData:可操作类型otype集合&gt;&gt;k:optype,v:subType(子类),dlist:详情</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3043,10 +3034,6 @@
   </si>
   <si>
     <t>dval:0;Dlist:打牌的内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dval:0;Dlist:碰的内容（可以不穿）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3105,10 +3092,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dVal:0;dlist：吃牌的内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>吃牌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3121,6 +3104,20 @@
     <t>uid:uid
 dval:摸牌内容（&gt;0为摸牌的内容，否则直接忽略）
 flag:剩余出牌时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KVData:可操作类型otype集合&gt;&gt;k:optype,v:subType(子类),dlist:详情
+注：可吃的时候，传2个数(不包含所吃的牌)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dVal:0;dlist：吃牌的内容：传2个数(不包含所吃的牌)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uid:uid
+dlist:内容、传2个数(不包含所吃的牌)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3891,14 +3888,29 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3918,12 +3930,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3933,16 +3939,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3954,34 +3972,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4301,32 +4298,32 @@
   <sheetData>
     <row r="3" spans="2:16" ht="14.25" thickBot="1"/>
     <row r="4" spans="2:16">
-      <c r="B4" s="98" t="s">
+      <c r="B4" s="103" t="s">
         <v>232</v>
       </c>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="100"/>
-      <c r="I4" s="98" t="s">
+      <c r="C4" s="104"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="105"/>
+      <c r="I4" s="103" t="s">
         <v>234</v>
       </c>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="100"/>
+      <c r="J4" s="104"/>
+      <c r="K4" s="104"/>
+      <c r="L4" s="105"/>
     </row>
     <row r="5" spans="2:16">
-      <c r="B5" s="101" t="s">
+      <c r="B5" s="106" t="s">
         <v>233</v>
       </c>
-      <c r="C5" s="102"/>
-      <c r="D5" s="102"/>
-      <c r="E5" s="103"/>
-      <c r="I5" s="101" t="s">
-        <v>484</v>
-      </c>
-      <c r="J5" s="102"/>
-      <c r="K5" s="102"/>
-      <c r="L5" s="103"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="108"/>
+      <c r="I5" s="106" t="s">
+        <v>482</v>
+      </c>
+      <c r="J5" s="107"/>
+      <c r="K5" s="107"/>
+      <c r="L5" s="108"/>
     </row>
     <row r="6" spans="2:16">
       <c r="B6" s="8"/>
@@ -4376,7 +4373,7 @@
     </row>
     <row r="9" spans="2:16">
       <c r="I9" s="8" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="J9" s="55" t="s">
         <v>238</v>
@@ -4390,21 +4387,21 @@
     </row>
     <row r="11" spans="2:16" ht="14.25" customHeight="1"/>
     <row r="14" spans="2:16" ht="14.25" thickBot="1">
-      <c r="I14" s="95" t="s">
+      <c r="I14" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="J14" s="96"/>
-      <c r="K14" s="96"/>
-      <c r="L14" s="96"/>
-      <c r="M14" s="97"/>
+      <c r="J14" s="113"/>
+      <c r="K14" s="113"/>
+      <c r="L14" s="113"/>
+      <c r="M14" s="114"/>
     </row>
     <row r="15" spans="2:16">
-      <c r="B15" s="98" t="s">
+      <c r="B15" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="99"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="100"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="104"/>
+      <c r="E15" s="105"/>
       <c r="I15" s="21" t="s">
         <v>34</v>
       </c>
@@ -4419,18 +4416,18 @@
         <v>34</v>
       </c>
       <c r="N15" s="3"/>
-      <c r="O15" s="104" t="s">
+      <c r="O15" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="P15" s="105"/>
+      <c r="P15" s="102"/>
     </row>
     <row r="16" spans="2:16">
-      <c r="B16" s="101" t="s">
+      <c r="B16" s="106" t="s">
         <v>233</v>
       </c>
-      <c r="C16" s="102"/>
-      <c r="D16" s="102"/>
-      <c r="E16" s="103"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="107"/>
+      <c r="E16" s="108"/>
       <c r="I16" s="33"/>
       <c r="J16" s="30"/>
       <c r="K16" s="31">
@@ -4490,7 +4487,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="72" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E18" s="20" t="s">
         <v>13</v>
@@ -4619,7 +4616,7 @@
     </row>
     <row r="22" spans="2:16" ht="27.75" thickBot="1">
       <c r="B22" s="5" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>263</v>
@@ -4928,12 +4925,12 @@
       <c r="P37" s="23"/>
     </row>
     <row r="38" spans="2:16">
-      <c r="B38" s="106" t="s">
+      <c r="B38" s="109" t="s">
         <v>260</v>
       </c>
-      <c r="C38" s="107"/>
-      <c r="D38" s="107"/>
-      <c r="E38" s="108"/>
+      <c r="C38" s="110"/>
+      <c r="D38" s="110"/>
+      <c r="E38" s="111"/>
       <c r="I38" s="33" t="s">
         <v>117</v>
       </c>
@@ -5015,18 +5012,18 @@
     <row r="42" spans="2:16" ht="22.5" customHeight="1"/>
     <row r="43" spans="2:16" ht="31.5" customHeight="1"/>
     <row r="44" spans="2:16">
-      <c r="H44" s="104" t="s">
+      <c r="H44" s="101" t="s">
         <v>247</v>
       </c>
-      <c r="I44" s="105"/>
-      <c r="J44" s="104" t="s">
+      <c r="I44" s="102"/>
+      <c r="J44" s="101" t="s">
         <v>116</v>
       </c>
-      <c r="K44" s="105"/>
-      <c r="L44" s="104" t="s">
+      <c r="K44" s="102"/>
+      <c r="L44" s="101" t="s">
         <v>77</v>
       </c>
-      <c r="M44" s="105"/>
+      <c r="M44" s="102"/>
     </row>
     <row r="45" spans="2:16">
       <c r="H45" s="22">
@@ -5142,6 +5139,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="I14:M14"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="I5:L5"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="J44:K44"/>
     <mergeCell ref="L44:M44"/>
@@ -5149,11 +5151,6 @@
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="H44:I44"/>
     <mergeCell ref="B38:E38"/>
-    <mergeCell ref="I14:M14"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="I5:L5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5347,11 +5344,11 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="4"/>
-      <c r="B10" s="113" t="s">
+      <c r="B10" s="120" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="114"/>
-      <c r="D10" s="115"/>
+      <c r="C10" s="121"/>
+      <c r="D10" s="122"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -5360,11 +5357,11 @@
       <c r="J10" s="4"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="113" t="s">
+      <c r="M10" s="120" t="s">
         <v>28</v>
       </c>
-      <c r="N10" s="114"/>
-      <c r="O10" s="115"/>
+      <c r="N10" s="121"/>
+      <c r="O10" s="122"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -5374,11 +5371,11 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="4"/>
-      <c r="B11" s="116" t="s">
+      <c r="B11" s="117" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="117"/>
-      <c r="D11" s="118"/>
+      <c r="C11" s="118"/>
+      <c r="D11" s="119"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -5387,11 +5384,11 @@
       <c r="J11" s="4"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="116" t="s">
+      <c r="M11" s="117" t="s">
         <v>27</v>
       </c>
-      <c r="N11" s="117"/>
-      <c r="O11" s="118"/>
+      <c r="N11" s="118"/>
+      <c r="O11" s="119"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -5512,11 +5509,11 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="4"/>
-      <c r="B17" s="113" t="s">
+      <c r="B17" s="120" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="114"/>
-      <c r="D17" s="115"/>
+      <c r="C17" s="121"/>
+      <c r="D17" s="122"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -5525,11 +5522,11 @@
       <c r="J17" s="4"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="113" t="s">
+      <c r="M17" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="N17" s="114"/>
-      <c r="O17" s="115"/>
+      <c r="N17" s="121"/>
+      <c r="O17" s="122"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -5538,11 +5535,11 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="4"/>
-      <c r="B18" s="116" t="s">
+      <c r="B18" s="117" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="117"/>
-      <c r="D18" s="118"/>
+      <c r="C18" s="118"/>
+      <c r="D18" s="119"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -5551,11 +5548,11 @@
       <c r="J18" s="4"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="116" t="s">
+      <c r="M18" s="117" t="s">
         <v>129</v>
       </c>
-      <c r="N18" s="117"/>
-      <c r="O18" s="118"/>
+      <c r="N18" s="118"/>
+      <c r="O18" s="119"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -5595,9 +5592,9 @@
     </row>
     <row r="20" spans="1:21" ht="41.25" thickBot="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="113"/>
-      <c r="C20" s="114"/>
-      <c r="D20" s="115"/>
+      <c r="B20" s="120"/>
+      <c r="C20" s="121"/>
+      <c r="D20" s="122"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -5626,11 +5623,11 @@
     </row>
     <row r="21" spans="1:21" ht="14.25" thickBot="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="116" t="s">
+      <c r="B21" s="117" t="s">
         <v>129</v>
       </c>
-      <c r="C21" s="117"/>
-      <c r="D21" s="118"/>
+      <c r="C21" s="118"/>
+      <c r="D21" s="119"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -5697,11 +5694,11 @@
       <c r="J23" s="4"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="113" t="s">
+      <c r="M23" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="N23" s="114"/>
-      <c r="O23" s="115"/>
+      <c r="N23" s="121"/>
+      <c r="O23" s="122"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
@@ -5722,11 +5719,11 @@
       <c r="J24" s="4"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-      <c r="M24" s="116" t="s">
+      <c r="M24" s="117" t="s">
         <v>69</v>
       </c>
-      <c r="N24" s="117"/>
-      <c r="O24" s="118"/>
+      <c r="N24" s="118"/>
+      <c r="O24" s="119"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
@@ -5859,11 +5856,11 @@
       <c r="J29" s="4"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
-      <c r="M29" s="113" t="s">
+      <c r="M29" s="120" t="s">
         <v>9</v>
       </c>
-      <c r="N29" s="114"/>
-      <c r="O29" s="115"/>
+      <c r="N29" s="121"/>
+      <c r="O29" s="122"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
@@ -5884,11 +5881,11 @@
       <c r="J30" s="4"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="116" t="s">
+      <c r="M30" s="117" t="s">
         <v>69</v>
       </c>
-      <c r="N30" s="117"/>
-      <c r="O30" s="118"/>
+      <c r="N30" s="118"/>
+      <c r="O30" s="119"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
@@ -6044,11 +6041,11 @@
       <c r="J36" s="4"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
-      <c r="M36" s="113" t="s">
+      <c r="M36" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="N36" s="114"/>
-      <c r="O36" s="115"/>
+      <c r="N36" s="121"/>
+      <c r="O36" s="122"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
@@ -6069,11 +6066,11 @@
       <c r="J37" s="4"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
-      <c r="M37" s="116" t="s">
+      <c r="M37" s="117" t="s">
         <v>69</v>
       </c>
-      <c r="N37" s="117"/>
-      <c r="O37" s="118"/>
+      <c r="N37" s="118"/>
+      <c r="O37" s="119"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
@@ -6252,14 +6249,14 @@
       <c r="J44" s="4"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
-      <c r="M44" s="113" t="s">
+      <c r="M44" s="120" t="s">
         <v>16</v>
       </c>
-      <c r="N44" s="114"/>
-      <c r="O44" s="114"/>
-      <c r="P44" s="114"/>
-      <c r="Q44" s="114"/>
-      <c r="R44" s="115"/>
+      <c r="N44" s="121"/>
+      <c r="O44" s="121"/>
+      <c r="P44" s="121"/>
+      <c r="Q44" s="121"/>
+      <c r="R44" s="122"/>
       <c r="S44" s="2"/>
       <c r="T44" s="3"/>
       <c r="U44" s="3"/>
@@ -6277,14 +6274,14 @@
       <c r="J45" s="4"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
-      <c r="M45" s="116" t="s">
-        <v>275</v>
-      </c>
-      <c r="N45" s="117"/>
-      <c r="O45" s="117"/>
-      <c r="P45" s="117"/>
-      <c r="Q45" s="117"/>
-      <c r="R45" s="118"/>
+      <c r="M45" s="117" t="s">
+        <v>274</v>
+      </c>
+      <c r="N45" s="118"/>
+      <c r="O45" s="118"/>
+      <c r="P45" s="118"/>
+      <c r="Q45" s="118"/>
+      <c r="R45" s="119"/>
       <c r="S45" s="2"/>
       <c r="T45" s="3"/>
       <c r="U45" s="3"/>
@@ -6311,11 +6308,11 @@
       <c r="O46" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="P46" s="119" t="s">
+      <c r="P46" s="123" t="s">
         <v>130</v>
       </c>
-      <c r="Q46" s="119"/>
-      <c r="R46" s="120"/>
+      <c r="Q46" s="123"/>
+      <c r="R46" s="124"/>
       <c r="S46" s="2"/>
       <c r="T46" s="3"/>
       <c r="U46" s="3"/>
@@ -6342,22 +6339,22 @@
       <c r="O47" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="P47" s="119" t="s">
+      <c r="P47" s="123" t="s">
         <v>149</v>
       </c>
-      <c r="Q47" s="119"/>
-      <c r="R47" s="120"/>
+      <c r="Q47" s="123"/>
+      <c r="R47" s="124"/>
       <c r="S47" s="2"/>
       <c r="T47" s="3"/>
       <c r="U47" s="3"/>
     </row>
     <row r="48" spans="1:21">
       <c r="A48" s="1"/>
-      <c r="B48" s="113" t="s">
+      <c r="B48" s="120" t="s">
         <v>114</v>
       </c>
-      <c r="C48" s="114"/>
-      <c r="D48" s="115"/>
+      <c r="C48" s="121"/>
+      <c r="D48" s="122"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -6375,22 +6372,22 @@
       <c r="O48" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P48" s="119" t="s">
+      <c r="P48" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="Q48" s="119"/>
-      <c r="R48" s="120"/>
+      <c r="Q48" s="123"/>
+      <c r="R48" s="124"/>
       <c r="S48" s="2"/>
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
     </row>
     <row r="49" spans="1:21">
       <c r="A49" s="1"/>
-      <c r="B49" s="116" t="s">
+      <c r="B49" s="117" t="s">
         <v>112</v>
       </c>
-      <c r="C49" s="117"/>
-      <c r="D49" s="118"/>
+      <c r="C49" s="118"/>
+      <c r="D49" s="119"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -6447,11 +6444,11 @@
       <c r="O50" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P50" s="119" t="s">
+      <c r="P50" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="Q50" s="119"/>
-      <c r="R50" s="120"/>
+      <c r="Q50" s="123"/>
+      <c r="R50" s="124"/>
       <c r="S50" s="2"/>
       <c r="T50" s="3"/>
       <c r="U50" s="3"/>
@@ -6478,11 +6475,11 @@
       <c r="O51" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="P51" s="119" t="s">
+      <c r="P51" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="Q51" s="119"/>
-      <c r="R51" s="120"/>
+      <c r="Q51" s="123"/>
+      <c r="R51" s="124"/>
       <c r="S51" s="2"/>
       <c r="T51" s="3"/>
       <c r="U51" s="3"/>
@@ -6540,11 +6537,11 @@
       <c r="O53" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="P53" s="119" t="s">
+      <c r="P53" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="Q53" s="119"/>
-      <c r="R53" s="120"/>
+      <c r="Q53" s="123"/>
+      <c r="R53" s="124"/>
       <c r="S53" s="2"/>
       <c r="T53" s="3"/>
       <c r="U53" s="3"/>
@@ -6709,13 +6706,13 @@
       <c r="J59" s="4"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
-      <c r="M59" s="113" t="s">
+      <c r="M59" s="120" t="s">
         <v>136</v>
       </c>
-      <c r="N59" s="114"/>
-      <c r="O59" s="114"/>
-      <c r="P59" s="114"/>
-      <c r="Q59" s="115"/>
+      <c r="N59" s="121"/>
+      <c r="O59" s="121"/>
+      <c r="P59" s="121"/>
+      <c r="Q59" s="122"/>
       <c r="R59" s="1"/>
       <c r="S59" s="2"/>
       <c r="T59" s="3"/>
@@ -6743,10 +6740,10 @@
       <c r="O60" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="P60" s="111" t="s">
+      <c r="P60" s="115" t="s">
         <v>137</v>
       </c>
-      <c r="Q60" s="112"/>
+      <c r="Q60" s="116"/>
       <c r="R60" s="1"/>
       <c r="S60" s="2"/>
       <c r="T60" s="3"/>
@@ -6774,10 +6771,10 @@
       <c r="O61" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="P61" s="111" t="s">
+      <c r="P61" s="115" t="s">
         <v>140</v>
       </c>
-      <c r="Q61" s="112"/>
+      <c r="Q61" s="116"/>
       <c r="R61" s="1"/>
       <c r="S61" s="2"/>
       <c r="T61" s="3"/>
@@ -6805,10 +6802,10 @@
       <c r="O62" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="P62" s="111" t="s">
+      <c r="P62" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="Q62" s="112"/>
+      <c r="Q62" s="116"/>
       <c r="R62" s="1"/>
       <c r="S62" s="2"/>
       <c r="T62" s="3"/>
@@ -6836,10 +6833,10 @@
       <c r="O63" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P63" s="109" t="s">
+      <c r="P63" s="125" t="s">
         <v>23</v>
       </c>
-      <c r="Q63" s="110"/>
+      <c r="Q63" s="126"/>
       <c r="R63" s="1"/>
       <c r="S63" s="2"/>
       <c r="T63" s="3"/>
@@ -6867,10 +6864,10 @@
       <c r="O64" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P64" s="111" t="s">
+      <c r="P64" s="115" t="s">
         <v>161</v>
       </c>
-      <c r="Q64" s="112"/>
+      <c r="Q64" s="116"/>
       <c r="R64" s="1"/>
       <c r="S64" s="2"/>
       <c r="T64" s="3"/>
@@ -6898,10 +6895,10 @@
       <c r="O65" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="P65" s="111" t="s">
+      <c r="P65" s="115" t="s">
         <v>60</v>
       </c>
-      <c r="Q65" s="112"/>
+      <c r="Q65" s="116"/>
       <c r="R65" s="1"/>
       <c r="S65" s="2"/>
       <c r="T65" s="3"/>
@@ -6929,10 +6926,10 @@
       <c r="O66" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P66" s="111" t="s">
+      <c r="P66" s="115" t="s">
         <v>218</v>
       </c>
-      <c r="Q66" s="112"/>
+      <c r="Q66" s="116"/>
       <c r="R66" s="1"/>
       <c r="S66" s="2"/>
       <c r="T66" s="3"/>
@@ -6960,10 +6957,10 @@
       <c r="O67" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P67" s="111" t="s">
+      <c r="P67" s="115" t="s">
         <v>217</v>
       </c>
-      <c r="Q67" s="112"/>
+      <c r="Q67" s="116"/>
       <c r="R67" s="1"/>
       <c r="S67" s="1"/>
       <c r="T67" s="3"/>
@@ -7005,13 +7002,13 @@
       <c r="J69" s="4"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
-      <c r="M69" s="113" t="s">
+      <c r="M69" s="120" t="s">
         <v>176</v>
       </c>
-      <c r="N69" s="114"/>
-      <c r="O69" s="114"/>
-      <c r="P69" s="114"/>
-      <c r="Q69" s="115"/>
+      <c r="N69" s="121"/>
+      <c r="O69" s="121"/>
+      <c r="P69" s="121"/>
+      <c r="Q69" s="122"/>
       <c r="R69" s="1"/>
       <c r="S69" s="1"/>
       <c r="T69" s="3"/>
@@ -7030,13 +7027,13 @@
       <c r="J70" s="4"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
-      <c r="M70" s="113" t="s">
+      <c r="M70" s="120" t="s">
         <v>177</v>
       </c>
-      <c r="N70" s="114"/>
-      <c r="O70" s="114"/>
-      <c r="P70" s="114"/>
-      <c r="Q70" s="115"/>
+      <c r="N70" s="121"/>
+      <c r="O70" s="121"/>
+      <c r="P70" s="121"/>
+      <c r="Q70" s="122"/>
       <c r="R70" s="1"/>
       <c r="S70" s="1"/>
       <c r="T70" s="3"/>
@@ -7064,10 +7061,10 @@
       <c r="O71" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="P71" s="109" t="s">
+      <c r="P71" s="125" t="s">
         <v>201</v>
       </c>
-      <c r="Q71" s="110"/>
+      <c r="Q71" s="126"/>
       <c r="R71" s="1"/>
       <c r="S71" s="1"/>
       <c r="T71" s="3"/>
@@ -7095,10 +7092,10 @@
       <c r="O72" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="P72" s="109" t="s">
+      <c r="P72" s="125" t="s">
         <v>193</v>
       </c>
-      <c r="Q72" s="110"/>
+      <c r="Q72" s="126"/>
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
       <c r="T72" s="3"/>
@@ -7126,10 +7123,10 @@
       <c r="O73" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="P73" s="109" t="s">
+      <c r="P73" s="125" t="s">
         <v>190</v>
       </c>
-      <c r="Q73" s="110"/>
+      <c r="Q73" s="126"/>
       <c r="R73" s="1"/>
       <c r="S73" s="1"/>
       <c r="T73" s="3"/>
@@ -7186,10 +7183,10 @@
       <c r="O75" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P75" s="111" t="s">
+      <c r="P75" s="115" t="s">
         <v>219</v>
       </c>
-      <c r="Q75" s="112"/>
+      <c r="Q75" s="116"/>
       <c r="R75" s="1"/>
       <c r="S75" s="1"/>
       <c r="T75" s="3"/>
@@ -7217,10 +7214,10 @@
       <c r="O76" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P76" s="111" t="s">
+      <c r="P76" s="115" t="s">
         <v>220</v>
       </c>
-      <c r="Q76" s="112"/>
+      <c r="Q76" s="116"/>
       <c r="R76" s="1"/>
       <c r="S76" s="1"/>
       <c r="T76" s="3"/>
@@ -7262,11 +7259,11 @@
       <c r="J78" s="4"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
-      <c r="M78" s="116" t="s">
+      <c r="M78" s="117" t="s">
         <v>191</v>
       </c>
-      <c r="N78" s="117"/>
-      <c r="O78" s="118"/>
+      <c r="N78" s="118"/>
+      <c r="O78" s="119"/>
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
       <c r="R78" s="1"/>
@@ -7368,11 +7365,11 @@
       <c r="J82" s="4"/>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
-      <c r="M82" s="116" t="s">
+      <c r="M82" s="117" t="s">
         <v>183</v>
       </c>
-      <c r="N82" s="117"/>
-      <c r="O82" s="118"/>
+      <c r="N82" s="118"/>
+      <c r="O82" s="119"/>
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
       <c r="R82" s="1"/>
@@ -7883,6 +7880,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="M69:Q69"/>
+    <mergeCell ref="M70:Q70"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="M45:R45"/>
+    <mergeCell ref="P46:R46"/>
+    <mergeCell ref="P47:R47"/>
+    <mergeCell ref="P48:R48"/>
+    <mergeCell ref="P50:R50"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="M44:R44"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
     <mergeCell ref="P76:Q76"/>
     <mergeCell ref="M78:O78"/>
     <mergeCell ref="M82:O82"/>
@@ -7899,34 +7924,6 @@
     <mergeCell ref="M11:O11"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="M29:O29"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="M44:R44"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="M45:R45"/>
-    <mergeCell ref="P46:R46"/>
-    <mergeCell ref="P47:R47"/>
-    <mergeCell ref="P48:R48"/>
-    <mergeCell ref="P50:R50"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="M69:Q69"/>
-    <mergeCell ref="M70:Q70"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="P67:Q67"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7938,8 +7935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:T118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C82" workbookViewId="0">
-      <selection activeCell="F100" sqref="F100"/>
+    <sheetView tabSelected="1" topLeftCell="C100" workbookViewId="0">
+      <selection activeCell="E113" sqref="E113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7955,86 +7952,86 @@
   <sheetData>
     <row r="2" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="3" spans="1:10">
-      <c r="A3" s="98" t="s">
-        <v>282</v>
-      </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="100"/>
-      <c r="F3" s="98" t="s">
-        <v>293</v>
-      </c>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="100"/>
+      <c r="A3" s="103" t="s">
+        <v>280</v>
+      </c>
+      <c r="B3" s="104"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="105"/>
+      <c r="F3" s="103" t="s">
+        <v>291</v>
+      </c>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="105"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="101" t="s">
-        <v>283</v>
-      </c>
-      <c r="B4" s="102"/>
-      <c r="C4" s="102"/>
-      <c r="D4" s="103"/>
-      <c r="F4" s="101" t="s">
-        <v>286</v>
-      </c>
-      <c r="G4" s="102"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="103"/>
+      <c r="A4" s="106" t="s">
+        <v>281</v>
+      </c>
+      <c r="B4" s="107"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="108"/>
+      <c r="F4" s="106" t="s">
+        <v>284</v>
+      </c>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="108"/>
     </row>
     <row r="5" spans="1:10" ht="14.25" thickBot="1">
       <c r="A5" s="8" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B5" s="73" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="73" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G5" s="73" t="s">
         <v>0</v>
       </c>
       <c r="H5" s="73" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I5" s="20" t="s">
         <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="14.25" thickBot="1">
       <c r="A6" s="8" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B6" s="73" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="73" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G6" s="73" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="73" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I6" s="20" t="s">
         <v>13</v>
@@ -8042,39 +8039,39 @@
     </row>
     <row r="7" spans="1:10" ht="14.25" thickBot="1">
       <c r="A7" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="B7" s="73" t="s">
         <v>311</v>
       </c>
-      <c r="B7" s="73" t="s">
-        <v>313</v>
-      </c>
       <c r="C7" s="80" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G7" s="73" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H7" s="73" t="s">
         <v>261</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.25" thickBot="1">
       <c r="F8" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="G8" s="73" t="s">
         <v>311</v>
       </c>
-      <c r="G8" s="73" t="s">
-        <v>313</v>
-      </c>
       <c r="H8" s="80" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I8" s="20" t="s">
         <v>13</v>
@@ -8082,55 +8079,55 @@
     </row>
     <row r="9" spans="1:10" ht="14.25" thickBot="1">
       <c r="F9" s="8" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G9" s="75" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H9" s="75" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="14.25" thickBot="1">
       <c r="F10" s="8" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G10" s="75" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H10" s="75" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.25" thickBot="1">
       <c r="F11" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="G11" s="75" t="s">
+        <v>320</v>
+      </c>
+      <c r="H11" s="75" t="s">
+        <v>324</v>
+      </c>
+      <c r="I11" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="G11" s="75" t="s">
-        <v>322</v>
-      </c>
-      <c r="H11" s="75" t="s">
-        <v>326</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="14.25" thickBot="1">
       <c r="F12" s="8" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G12" s="82" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H12" s="81" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="I12" s="20" t="s">
         <v>13</v>
@@ -8138,57 +8135,57 @@
     </row>
     <row r="15" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="16" spans="1:10">
-      <c r="A16" s="98" t="s">
-        <v>280</v>
-      </c>
-      <c r="B16" s="99"/>
-      <c r="C16" s="99"/>
-      <c r="D16" s="100"/>
-      <c r="F16" s="98" t="s">
-        <v>280</v>
-      </c>
-      <c r="G16" s="99"/>
-      <c r="H16" s="99"/>
-      <c r="I16" s="100"/>
+      <c r="A16" s="103" t="s">
+        <v>278</v>
+      </c>
+      <c r="B16" s="104"/>
+      <c r="C16" s="104"/>
+      <c r="D16" s="105"/>
+      <c r="F16" s="103" t="s">
+        <v>278</v>
+      </c>
+      <c r="G16" s="104"/>
+      <c r="H16" s="104"/>
+      <c r="I16" s="105"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="101" t="s">
-        <v>281</v>
-      </c>
-      <c r="B17" s="102"/>
-      <c r="C17" s="102"/>
-      <c r="D17" s="103"/>
-      <c r="F17" s="101" t="s">
-        <v>375</v>
-      </c>
-      <c r="G17" s="102"/>
-      <c r="H17" s="102"/>
-      <c r="I17" s="103"/>
+      <c r="A17" s="106" t="s">
+        <v>279</v>
+      </c>
+      <c r="B17" s="107"/>
+      <c r="C17" s="107"/>
+      <c r="D17" s="108"/>
+      <c r="F17" s="106" t="s">
+        <v>373</v>
+      </c>
+      <c r="G17" s="107"/>
+      <c r="H17" s="107"/>
+      <c r="I17" s="108"/>
       <c r="J17" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="8" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B18" s="73" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="73" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D18" s="73" t="s">
         <v>72</v>
       </c>
       <c r="E18" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>132</v>
       </c>
       <c r="G18" s="73" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H18" s="73" t="s">
         <v>262</v>
@@ -8199,13 +8196,13 @@
     </row>
     <row r="19" spans="1:10" ht="14.25" thickBot="1">
       <c r="A19" s="8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B19" s="73" t="s">
+        <v>294</v>
+      </c>
+      <c r="C19" s="73" t="s">
         <v>296</v>
-      </c>
-      <c r="C19" s="73" t="s">
-        <v>298</v>
       </c>
       <c r="D19" s="20" t="s">
         <v>13</v>
@@ -8213,20 +8210,20 @@
     </row>
     <row r="23" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="24" spans="1:10">
-      <c r="F24" s="98" t="s">
-        <v>305</v>
-      </c>
-      <c r="G24" s="99"/>
-      <c r="H24" s="99"/>
-      <c r="I24" s="100"/>
+      <c r="F24" s="103" t="s">
+        <v>303</v>
+      </c>
+      <c r="G24" s="104"/>
+      <c r="H24" s="104"/>
+      <c r="I24" s="105"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="F25" s="101" t="s">
-        <v>306</v>
-      </c>
-      <c r="G25" s="102"/>
-      <c r="H25" s="102"/>
-      <c r="I25" s="103"/>
+      <c r="F25" s="106" t="s">
+        <v>304</v>
+      </c>
+      <c r="G25" s="107"/>
+      <c r="H25" s="107"/>
+      <c r="I25" s="108"/>
     </row>
     <row r="26" spans="1:10">
       <c r="F26" s="8" t="s">
@@ -8236,7 +8233,7 @@
         <v>0</v>
       </c>
       <c r="H26" s="82" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="I26" s="73" t="s">
         <v>72</v>
@@ -8247,33 +8244,33 @@
     </row>
     <row r="31" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="32" spans="1:10">
-      <c r="A32" s="98" t="s">
+      <c r="A32" s="103" t="s">
+        <v>285</v>
+      </c>
+      <c r="B32" s="104"/>
+      <c r="C32" s="104"/>
+      <c r="D32" s="105"/>
+      <c r="F32" s="103" t="s">
+        <v>312</v>
+      </c>
+      <c r="G32" s="104"/>
+      <c r="H32" s="104"/>
+      <c r="I32" s="105"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="106" t="s">
         <v>287</v>
       </c>
-      <c r="B32" s="99"/>
-      <c r="C32" s="99"/>
-      <c r="D32" s="100"/>
-      <c r="F32" s="98" t="s">
-        <v>314</v>
-      </c>
-      <c r="G32" s="99"/>
-      <c r="H32" s="99"/>
-      <c r="I32" s="100"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="101" t="s">
-        <v>289</v>
-      </c>
-      <c r="B33" s="102"/>
-      <c r="C33" s="102"/>
-      <c r="D33" s="103"/>
+      <c r="B33" s="107"/>
+      <c r="C33" s="107"/>
+      <c r="D33" s="108"/>
       <c r="E33" s="77"/>
-      <c r="F33" s="101" t="s">
-        <v>315</v>
-      </c>
-      <c r="G33" s="102"/>
-      <c r="H33" s="102"/>
-      <c r="I33" s="103"/>
+      <c r="F33" s="106" t="s">
+        <v>313</v>
+      </c>
+      <c r="G33" s="107"/>
+      <c r="H33" s="107"/>
+      <c r="I33" s="108"/>
     </row>
     <row r="34" spans="1:10" ht="14.25" thickBot="1">
       <c r="A34" s="8" t="s">
@@ -8283,54 +8280,54 @@
         <v>0</v>
       </c>
       <c r="C34" s="82" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D34" s="73" t="s">
         <v>72</v>
       </c>
       <c r="E34" s="77"/>
       <c r="F34" s="8" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G34" s="73" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H34" s="73" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="14.25" thickBot="1">
       <c r="A35" s="8" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B35" s="82" t="s">
         <v>142</v>
       </c>
       <c r="C35" s="82" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D35" s="20" t="s">
         <v>13</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G35" s="82" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H35" s="73" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="14.25" thickBot="1">
       <c r="A36" s="8" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B36" s="73" t="s">
         <v>0</v>
@@ -8342,16 +8339,16 @@
         <v>13</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G36" s="82" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="H36" s="73" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -8362,7 +8359,7 @@
         <v>0</v>
       </c>
       <c r="C37" s="81" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D37" s="73" t="s">
         <v>72</v>
@@ -8370,13 +8367,13 @@
     </row>
     <row r="38" spans="1:10" ht="14.25" thickBot="1">
       <c r="A38" s="8" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B38" s="82" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C38" s="81" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D38" s="20" t="s">
         <v>13</v>
@@ -8384,37 +8381,37 @@
     </row>
     <row r="42" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="43" spans="1:10">
-      <c r="A43" s="98" t="s">
-        <v>300</v>
-      </c>
-      <c r="B43" s="99"/>
-      <c r="C43" s="99"/>
-      <c r="D43" s="100"/>
-      <c r="F43" s="98" t="s">
-        <v>377</v>
-      </c>
-      <c r="G43" s="99"/>
-      <c r="H43" s="99"/>
-      <c r="I43" s="100"/>
+      <c r="A43" s="103" t="s">
+        <v>298</v>
+      </c>
+      <c r="B43" s="104"/>
+      <c r="C43" s="104"/>
+      <c r="D43" s="105"/>
+      <c r="F43" s="103" t="s">
+        <v>375</v>
+      </c>
+      <c r="G43" s="104"/>
+      <c r="H43" s="104"/>
+      <c r="I43" s="105"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="101" t="s">
-        <v>488</v>
-      </c>
-      <c r="B44" s="102"/>
-      <c r="C44" s="102"/>
-      <c r="D44" s="103"/>
+      <c r="A44" s="106" t="s">
+        <v>486</v>
+      </c>
+      <c r="B44" s="107"/>
+      <c r="C44" s="107"/>
+      <c r="D44" s="108"/>
       <c r="E44" t="s">
-        <v>472</v>
-      </c>
-      <c r="F44" s="101" t="s">
-        <v>376</v>
-      </c>
-      <c r="G44" s="102"/>
-      <c r="H44" s="102"/>
-      <c r="I44" s="103"/>
+        <v>470</v>
+      </c>
+      <c r="F44" s="106" t="s">
+        <v>374</v>
+      </c>
+      <c r="G44" s="107"/>
+      <c r="H44" s="107"/>
+      <c r="I44" s="108"/>
       <c r="J44" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="14.25" thickBot="1">
@@ -8425,105 +8422,105 @@
         <v>0</v>
       </c>
       <c r="H45" s="84" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I45" s="83" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="98" t="s">
-        <v>303</v>
-      </c>
-      <c r="B46" s="99"/>
-      <c r="C46" s="99"/>
-      <c r="D46" s="100"/>
+      <c r="A46" s="103" t="s">
+        <v>301</v>
+      </c>
+      <c r="B46" s="104"/>
+      <c r="C46" s="104"/>
+      <c r="D46" s="105"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="101" t="s">
-        <v>304</v>
-      </c>
-      <c r="B47" s="102"/>
-      <c r="C47" s="102"/>
-      <c r="D47" s="103"/>
+      <c r="A47" s="106" t="s">
+        <v>302</v>
+      </c>
+      <c r="B47" s="107"/>
+      <c r="C47" s="107"/>
+      <c r="D47" s="108"/>
       <c r="E47" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="49" spans="1:10">
-      <c r="A49" s="113" t="s">
-        <v>308</v>
-      </c>
-      <c r="B49" s="114"/>
-      <c r="C49" s="114"/>
-      <c r="D49" s="115"/>
+      <c r="A49" s="120" t="s">
+        <v>306</v>
+      </c>
+      <c r="B49" s="121"/>
+      <c r="C49" s="121"/>
+      <c r="D49" s="122"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="116" t="s">
-        <v>309</v>
-      </c>
-      <c r="B50" s="117"/>
-      <c r="C50" s="117"/>
-      <c r="D50" s="118"/>
+      <c r="A50" s="117" t="s">
+        <v>307</v>
+      </c>
+      <c r="B50" s="118"/>
+      <c r="C50" s="118"/>
+      <c r="D50" s="119"/>
       <c r="E50" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="52" spans="1:10" ht="13.5" customHeight="1" thickBot="1"/>
     <row r="53" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A53" s="98" t="s">
-        <v>378</v>
-      </c>
-      <c r="B53" s="99"/>
-      <c r="C53" s="99"/>
-      <c r="D53" s="100"/>
-      <c r="F53" s="98" t="s">
-        <v>378</v>
-      </c>
-      <c r="G53" s="99"/>
-      <c r="H53" s="99"/>
-      <c r="I53" s="100"/>
+      <c r="A53" s="103" t="s">
+        <v>376</v>
+      </c>
+      <c r="B53" s="104"/>
+      <c r="C53" s="104"/>
+      <c r="D53" s="105"/>
+      <c r="F53" s="103" t="s">
+        <v>376</v>
+      </c>
+      <c r="G53" s="104"/>
+      <c r="H53" s="104"/>
+      <c r="I53" s="105"/>
     </row>
     <row r="54" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A54" s="101" t="s">
-        <v>383</v>
-      </c>
-      <c r="B54" s="102"/>
-      <c r="C54" s="102"/>
-      <c r="D54" s="103"/>
-      <c r="F54" s="101" t="s">
-        <v>384</v>
-      </c>
-      <c r="G54" s="102"/>
-      <c r="H54" s="102"/>
-      <c r="I54" s="103"/>
+      <c r="A54" s="106" t="s">
+        <v>381</v>
+      </c>
+      <c r="B54" s="107"/>
+      <c r="C54" s="107"/>
+      <c r="D54" s="108"/>
+      <c r="F54" s="106" t="s">
+        <v>382</v>
+      </c>
+      <c r="G54" s="107"/>
+      <c r="H54" s="107"/>
+      <c r="I54" s="108"/>
     </row>
     <row r="55" spans="1:10" ht="13.5" customHeight="1">
       <c r="A55" s="8" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B55" s="83" t="s">
+        <v>377</v>
+      </c>
+      <c r="C55" s="83" t="s">
         <v>379</v>
-      </c>
-      <c r="C55" s="83" t="s">
-        <v>381</v>
       </c>
       <c r="D55" s="83" t="s">
         <v>72</v>
       </c>
       <c r="E55" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G55" s="84" t="s">
+        <v>377</v>
+      </c>
+      <c r="H55" s="84" t="s">
         <v>379</v>
-      </c>
-      <c r="H55" s="84" t="s">
-        <v>381</v>
       </c>
       <c r="I55" s="84" t="s">
         <v>72</v>
@@ -8537,13 +8534,13 @@
         <v>0</v>
       </c>
       <c r="H56" s="84" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="I56" s="20" t="s">
         <v>13</v>
       </c>
       <c r="J56" s="94" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="13.5" customHeight="1"/>
@@ -8556,32 +8553,32 @@
     <row r="64" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="65" spans="1:10" ht="12.75" customHeight="1" thickBot="1"/>
     <row r="66" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A66" s="98" t="s">
-        <v>366</v>
-      </c>
-      <c r="B66" s="99"/>
-      <c r="C66" s="99"/>
-      <c r="D66" s="100"/>
-      <c r="F66" s="98" t="s">
-        <v>348</v>
-      </c>
-      <c r="G66" s="99"/>
-      <c r="H66" s="99"/>
-      <c r="I66" s="100"/>
+      <c r="A66" s="103" t="s">
+        <v>364</v>
+      </c>
+      <c r="B66" s="104"/>
+      <c r="C66" s="104"/>
+      <c r="D66" s="105"/>
+      <c r="F66" s="103" t="s">
+        <v>346</v>
+      </c>
+      <c r="G66" s="104"/>
+      <c r="H66" s="104"/>
+      <c r="I66" s="105"/>
     </row>
     <row r="67" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A67" s="101" t="s">
-        <v>346</v>
-      </c>
-      <c r="B67" s="102"/>
-      <c r="C67" s="102"/>
-      <c r="D67" s="103"/>
-      <c r="F67" s="116" t="s">
-        <v>353</v>
-      </c>
-      <c r="G67" s="117"/>
-      <c r="H67" s="117"/>
-      <c r="I67" s="118"/>
+      <c r="A67" s="106" t="s">
+        <v>344</v>
+      </c>
+      <c r="B67" s="107"/>
+      <c r="C67" s="107"/>
+      <c r="D67" s="108"/>
+      <c r="F67" s="117" t="s">
+        <v>351</v>
+      </c>
+      <c r="G67" s="118"/>
+      <c r="H67" s="118"/>
+      <c r="I67" s="119"/>
     </row>
     <row r="68" spans="1:10" ht="12.75" customHeight="1" thickBot="1">
       <c r="A68" s="8" t="s">
@@ -8591,51 +8588,51 @@
         <v>32</v>
       </c>
       <c r="C68" s="76" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D68" s="20" t="s">
         <v>13</v>
       </c>
       <c r="E68" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="G68" s="82" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="H68" s="79" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J68" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="14.25" thickBot="1">
       <c r="A69" s="8" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B69" s="75" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C69" s="75" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D69" s="20" t="s">
         <v>13</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G69" s="75" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H69" s="82" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="I69" s="20" t="s">
         <v>13</v>
@@ -8643,25 +8640,25 @@
     </row>
     <row r="70" spans="1:10" ht="14.25" thickBot="1">
       <c r="A70" s="8" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B70" s="75" t="s">
         <v>32</v>
       </c>
       <c r="C70" s="75" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D70" s="20" t="s">
         <v>13</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G70" s="75" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H70" s="75" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="I70" s="20" t="s">
         <v>13</v>
@@ -8675,7 +8672,7 @@
         <v>32</v>
       </c>
       <c r="H71" s="75" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="I71" s="20" t="s">
         <v>13</v>
@@ -8689,46 +8686,46 @@
     </row>
     <row r="77" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="78" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A78" s="113" t="s">
-        <v>310</v>
-      </c>
-      <c r="B78" s="114"/>
-      <c r="C78" s="114"/>
-      <c r="D78" s="115"/>
-      <c r="F78" s="98" t="s">
+      <c r="A78" s="120" t="s">
+        <v>308</v>
+      </c>
+      <c r="B78" s="121"/>
+      <c r="C78" s="121"/>
+      <c r="D78" s="122"/>
+      <c r="F78" s="103" t="s">
         <v>234</v>
       </c>
-      <c r="G78" s="99"/>
-      <c r="H78" s="99"/>
-      <c r="I78" s="100"/>
+      <c r="G78" s="104"/>
+      <c r="H78" s="104"/>
+      <c r="I78" s="105"/>
     </row>
     <row r="79" spans="1:10">
-      <c r="A79" s="98" t="s">
+      <c r="A79" s="103" t="s">
         <v>232</v>
       </c>
-      <c r="B79" s="99"/>
-      <c r="C79" s="99"/>
-      <c r="D79" s="100"/>
+      <c r="B79" s="104"/>
+      <c r="C79" s="104"/>
+      <c r="D79" s="105"/>
       <c r="E79" t="s">
-        <v>479</v>
-      </c>
-      <c r="F79" s="101" t="s">
+        <v>477</v>
+      </c>
+      <c r="F79" s="106" t="s">
         <v>235</v>
       </c>
-      <c r="G79" s="102"/>
-      <c r="H79" s="102"/>
-      <c r="I79" s="103"/>
+      <c r="G79" s="107"/>
+      <c r="H79" s="107"/>
+      <c r="I79" s="108"/>
       <c r="J79" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="80" spans="1:10">
-      <c r="A80" s="101" t="s">
+      <c r="A80" s="106" t="s">
         <v>233</v>
       </c>
-      <c r="B80" s="102"/>
-      <c r="C80" s="102"/>
-      <c r="D80" s="103"/>
+      <c r="B80" s="107"/>
+      <c r="C80" s="107"/>
+      <c r="D80" s="108"/>
       <c r="F80" s="8" t="s">
         <v>237</v>
       </c>
@@ -8776,7 +8773,7 @@
     </row>
     <row r="83" spans="1:10">
       <c r="F83" s="8" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G83" s="73" t="s">
         <v>32</v>
@@ -8790,43 +8787,43 @@
     </row>
     <row r="85" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="86" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A86" s="113" t="s">
-        <v>386</v>
-      </c>
-      <c r="B86" s="114"/>
-      <c r="C86" s="114"/>
-      <c r="D86" s="115"/>
-      <c r="F86" s="113" t="s">
-        <v>386</v>
-      </c>
-      <c r="G86" s="114"/>
-      <c r="H86" s="114"/>
-      <c r="I86" s="115"/>
+      <c r="A86" s="120" t="s">
+        <v>384</v>
+      </c>
+      <c r="B86" s="121"/>
+      <c r="C86" s="121"/>
+      <c r="D86" s="122"/>
+      <c r="F86" s="120" t="s">
+        <v>384</v>
+      </c>
+      <c r="G86" s="121"/>
+      <c r="H86" s="121"/>
+      <c r="I86" s="122"/>
     </row>
     <row r="87" spans="1:10">
-      <c r="A87" s="98" t="s">
+      <c r="A87" s="103" t="s">
         <v>232</v>
       </c>
-      <c r="B87" s="99"/>
-      <c r="C87" s="99"/>
-      <c r="D87" s="100"/>
+      <c r="B87" s="104"/>
+      <c r="C87" s="104"/>
+      <c r="D87" s="105"/>
       <c r="E87" t="s">
-        <v>481</v>
-      </c>
-      <c r="F87" s="101" t="s">
+        <v>479</v>
+      </c>
+      <c r="F87" s="106" t="s">
         <v>235</v>
       </c>
-      <c r="G87" s="102"/>
-      <c r="H87" s="102"/>
-      <c r="I87" s="103"/>
+      <c r="G87" s="107"/>
+      <c r="H87" s="107"/>
+      <c r="I87" s="108"/>
     </row>
     <row r="88" spans="1:10">
-      <c r="A88" s="101" t="s">
+      <c r="A88" s="106" t="s">
         <v>233</v>
       </c>
-      <c r="B88" s="102"/>
-      <c r="C88" s="102"/>
-      <c r="D88" s="103"/>
+      <c r="B88" s="107"/>
+      <c r="C88" s="107"/>
+      <c r="D88" s="108"/>
       <c r="F88" s="8" t="s">
         <v>237</v>
       </c>
@@ -8840,7 +8837,7 @@
         <v>72</v>
       </c>
       <c r="J88" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -8877,7 +8874,7 @@
     </row>
     <row r="91" spans="1:10">
       <c r="F91" s="8" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G91" s="86" t="s">
         <v>32</v>
@@ -8894,7 +8891,7 @@
         <v>229</v>
       </c>
       <c r="F95" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -8913,7 +8910,7 @@
     </row>
     <row r="97" spans="5:20" ht="54">
       <c r="E97" s="59" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="F97" s="58">
         <v>4</v>
@@ -8922,7 +8919,7 @@
         <v>231</v>
       </c>
       <c r="H97" s="33" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="L97" s="65"/>
       <c r="M97" s="66"/>
@@ -8943,7 +8940,7 @@
         <v>264</v>
       </c>
       <c r="H98" s="33" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="L98" s="65"/>
       <c r="M98" s="66"/>
@@ -8961,10 +8958,10 @@
         <v>6</v>
       </c>
       <c r="G99" s="32" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="H99" s="33" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="L99" s="65"/>
       <c r="M99" s="66"/>
@@ -9089,10 +9086,10 @@
         <v>205</v>
       </c>
       <c r="G105" s="32" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H105" s="57" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="L105" s="65"/>
       <c r="M105" s="66"/>
@@ -9119,28 +9116,28 @@
       <c r="S106" s="66"/>
       <c r="T106" s="67"/>
     </row>
-    <row r="107" spans="5:20" s="123" customFormat="1" ht="27">
-      <c r="E107" s="121"/>
-      <c r="F107" s="122">
+    <row r="107" spans="5:20" s="97" customFormat="1" ht="27">
+      <c r="E107" s="95"/>
+      <c r="F107" s="96">
         <v>211</v>
       </c>
       <c r="G107" s="37" t="s">
         <v>256</v>
       </c>
-      <c r="H107" s="121" t="s">
-        <v>503</v>
-      </c>
-      <c r="L107" s="124"/>
-      <c r="M107" s="125"/>
-      <c r="N107" s="125"/>
-      <c r="O107" s="125"/>
-      <c r="P107" s="125"/>
-      <c r="Q107" s="125"/>
-      <c r="R107" s="125"/>
-      <c r="S107" s="125"/>
-      <c r="T107" s="126"/>
-    </row>
-    <row r="108" spans="5:20">
+      <c r="H107" s="95" t="s">
+        <v>499</v>
+      </c>
+      <c r="L107" s="98"/>
+      <c r="M107" s="99"/>
+      <c r="N107" s="99"/>
+      <c r="O107" s="99"/>
+      <c r="P107" s="99"/>
+      <c r="Q107" s="99"/>
+      <c r="R107" s="99"/>
+      <c r="S107" s="99"/>
+      <c r="T107" s="100"/>
+    </row>
+    <row r="108" spans="5:20" ht="27">
       <c r="E108" s="57"/>
       <c r="F108" s="58">
         <v>212</v>
@@ -9149,12 +9146,12 @@
         <v>266</v>
       </c>
       <c r="H108" s="57" t="s">
-        <v>277</v>
+        <v>501</v>
       </c>
     </row>
     <row r="109" spans="5:20" ht="27">
       <c r="E109" s="59" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="F109" s="58">
         <v>213</v>
@@ -9163,13 +9160,11 @@
         <v>265</v>
       </c>
       <c r="H109" s="57" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="110" spans="5:20" ht="27">
-      <c r="E110" s="59" t="s">
-        <v>491</v>
-      </c>
+      <c r="E110" s="59"/>
       <c r="F110" s="58">
         <v>214</v>
       </c>
@@ -9194,44 +9189,44 @@
     </row>
     <row r="112" spans="5:20" ht="27">
       <c r="E112" s="59" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="F112" s="58">
         <v>220</v>
       </c>
       <c r="G112" s="32" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="H112" s="57" t="s">
-        <v>271</v>
+        <v>503</v>
       </c>
     </row>
     <row r="113" spans="5:8" ht="54">
       <c r="E113" s="59" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="F113" s="58">
         <v>230</v>
       </c>
       <c r="G113" s="81" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="H113" s="57" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="114" spans="5:8" ht="40.5">
       <c r="E114" s="59" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F114" s="58">
         <v>240</v>
       </c>
       <c r="G114" s="81" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H114" s="57" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="115" spans="5:8" ht="40.5">
@@ -9240,10 +9235,10 @@
         <v>250</v>
       </c>
       <c r="G115" s="81" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="H115" s="57" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="116" spans="5:8">
@@ -9268,30 +9263,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A66:D66"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="A86:D86"/>
-    <mergeCell ref="F86:I86"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="F53:I53"/>
-    <mergeCell ref="F54:I54"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="F66:I66"/>
-    <mergeCell ref="F67:I67"/>
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="A79:D79"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="F78:I78"/>
-    <mergeCell ref="F79:I79"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="F44:I44"/>
-    <mergeCell ref="F43:I43"/>
     <mergeCell ref="A87:D87"/>
     <mergeCell ref="F87:I87"/>
     <mergeCell ref="A88:D88"/>
@@ -9308,6 +9279,30 @@
     <mergeCell ref="A43:D43"/>
     <mergeCell ref="F24:I24"/>
     <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="A86:D86"/>
+    <mergeCell ref="F86:I86"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="F53:I53"/>
+    <mergeCell ref="F54:I54"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="F67:I67"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A79:D79"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="F78:I78"/>
+    <mergeCell ref="F79:I79"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="A53:D53"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -9343,74 +9338,74 @@
   <sheetData>
     <row r="1" spans="1:2" ht="40.5">
       <c r="A1" s="77" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B1" s="78" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="81">
       <c r="A2" s="77" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B2" s="78" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="40.5">
       <c r="A3" s="77" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B3" s="78" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="81">
       <c r="A4" s="77" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B4" s="78" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="67.5">
       <c r="A5" s="77" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B5" s="78" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="27">
       <c r="A6" s="77" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B6" s="78" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="67.5">
       <c r="A7" s="77" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B7" s="78" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="27">
       <c r="A8" s="77" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B8" s="78" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="40.5">
       <c r="A9" s="77" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B9" s="78" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -9431,44 +9426,44 @@
   <sheetData>
     <row r="10" spans="2:14" ht="14.25" thickBot="1"/>
     <row r="11" spans="2:14">
-      <c r="B11" s="98" t="s">
-        <v>373</v>
-      </c>
-      <c r="C11" s="99"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="100"/>
+      <c r="B11" s="103" t="s">
+        <v>371</v>
+      </c>
+      <c r="C11" s="104"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="105"/>
       <c r="F11" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="14.25" thickBot="1"/>
     <row r="13" spans="2:14">
-      <c r="B13" s="98" t="s">
-        <v>374</v>
-      </c>
-      <c r="C13" s="99"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="100"/>
-      <c r="J13" s="98" t="s">
-        <v>374</v>
-      </c>
-      <c r="K13" s="99"/>
-      <c r="L13" s="99"/>
-      <c r="M13" s="100"/>
+      <c r="B13" s="103" t="s">
+        <v>372</v>
+      </c>
+      <c r="C13" s="104"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="105"/>
+      <c r="J13" s="103" t="s">
+        <v>372</v>
+      </c>
+      <c r="K13" s="104"/>
+      <c r="L13" s="104"/>
+      <c r="M13" s="105"/>
     </row>
     <row r="14" spans="2:14">
-      <c r="B14" s="101" t="s">
-        <v>492</v>
-      </c>
-      <c r="C14" s="102"/>
-      <c r="D14" s="102"/>
-      <c r="E14" s="103"/>
-      <c r="J14" s="101" t="s">
-        <v>372</v>
-      </c>
-      <c r="K14" s="102"/>
-      <c r="L14" s="102"/>
-      <c r="M14" s="103"/>
+      <c r="B14" s="106" t="s">
+        <v>489</v>
+      </c>
+      <c r="C14" s="107"/>
+      <c r="D14" s="107"/>
+      <c r="E14" s="108"/>
+      <c r="J14" s="106" t="s">
+        <v>370</v>
+      </c>
+      <c r="K14" s="107"/>
+      <c r="L14" s="107"/>
+      <c r="M14" s="108"/>
     </row>
     <row r="15" spans="2:14" ht="14.25" thickBot="1">
       <c r="B15" s="8" t="s">
@@ -9481,25 +9476,25 @@
         <v>122</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F15" s="91" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K15" s="82" t="s">
         <v>0</v>
       </c>
       <c r="L15" s="82" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="M15" s="20" t="s">
         <v>13</v>
       </c>
       <c r="N15" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
   </sheetData>
@@ -9537,229 +9532,229 @@
   <sheetData>
     <row r="1" spans="2:9">
       <c r="C1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="2" spans="2:9">
       <c r="B2" s="93" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="3" spans="2:9">
-      <c r="B3" s="101" t="s">
-        <v>450</v>
-      </c>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="G3" s="101" t="s">
-        <v>423</v>
-      </c>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
+      <c r="B3" s="106" t="s">
+        <v>448</v>
+      </c>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="G3" s="106" t="s">
+        <v>421</v>
+      </c>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="C4" s="89" t="s">
+        <v>294</v>
+      </c>
+      <c r="D4" s="89" t="s">
         <v>388</v>
       </c>
-      <c r="C4" s="89" t="s">
-        <v>296</v>
-      </c>
-      <c r="D4" s="89" t="s">
-        <v>390</v>
-      </c>
       <c r="G4" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="H4" s="89" t="s">
+        <v>294</v>
+      </c>
+      <c r="I4" s="89" t="s">
         <v>388</v>
-      </c>
-      <c r="H4" s="89" t="s">
-        <v>296</v>
-      </c>
-      <c r="I4" s="89" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="8" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C5" s="89" t="s">
         <v>172</v>
       </c>
       <c r="D5" s="89" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E5" s="91" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F5" s="91" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="H5" s="89" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I5" s="89" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="8" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C6" s="89" t="s">
         <v>32</v>
       </c>
       <c r="D6" s="89" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="H6" s="89" t="s">
         <v>32</v>
       </c>
       <c r="I6" s="89" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="8" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C7" s="89" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="89" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="H7" s="89" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I7" s="89" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="8" spans="2:9">
       <c r="G8" s="8" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="H8" s="89" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I8" s="89" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="9" spans="2:9">
       <c r="G9" s="8" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="H9" s="89" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I9" s="89" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="10" spans="2:9">
       <c r="G10" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="H10" s="89" t="s">
+        <v>412</v>
+      </c>
+      <c r="I10" s="89" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="G14" s="106" t="s">
+        <v>398</v>
+      </c>
+      <c r="H14" s="107"/>
+      <c r="I14" s="107"/>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" s="106" t="s">
         <v>415</v>
       </c>
-      <c r="H10" s="89" t="s">
-        <v>414</v>
-      </c>
-      <c r="I10" s="89" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9">
-      <c r="G14" s="101" t="s">
-        <v>400</v>
-      </c>
-      <c r="H14" s="102"/>
-      <c r="I14" s="102"/>
-    </row>
-    <row r="15" spans="2:9">
-      <c r="B15" s="101" t="s">
-        <v>417</v>
-      </c>
-      <c r="C15" s="102"/>
-      <c r="D15" s="102"/>
+      <c r="C15" s="107"/>
+      <c r="D15" s="107"/>
       <c r="G15" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="H15" s="89" t="s">
+        <v>405</v>
+      </c>
+      <c r="I15" s="89" t="s">
         <v>406</v>
-      </c>
-      <c r="H15" s="89" t="s">
-        <v>407</v>
-      </c>
-      <c r="I15" s="89" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="16" spans="2:9">
       <c r="B16" s="8" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C16" s="89" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D16" s="89" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H16" s="89" t="s">
         <v>32</v>
       </c>
       <c r="I16" s="89" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="8" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C17" s="89" t="s">
         <v>32</v>
       </c>
       <c r="D17" s="89" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="H17" s="89" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I17" s="89" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="8" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C18" s="89" t="s">
         <v>32</v>
       </c>
       <c r="D18" s="89" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="H18" s="89" t="s">
         <v>32</v>
       </c>
       <c r="I18" s="89" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="19" spans="2:9">
@@ -9770,36 +9765,36 @@
         <v>32</v>
       </c>
       <c r="D19" s="89" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="H19" s="89" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I19" s="89" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="20" spans="2:9">
       <c r="B20" s="8" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C20" s="89" t="s">
         <v>32</v>
       </c>
       <c r="D20" s="89" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H20" s="89" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I20" s="89" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="21" spans="2:9">
@@ -9809,56 +9804,56 @@
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="93" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="101" t="s">
-        <v>433</v>
-      </c>
-      <c r="C25" s="102"/>
-      <c r="D25" s="102"/>
+      <c r="B25" s="106" t="s">
+        <v>431</v>
+      </c>
+      <c r="C25" s="107"/>
+      <c r="D25" s="107"/>
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="C26" s="89" t="s">
+        <v>294</v>
+      </c>
+      <c r="D26" s="89" t="s">
         <v>426</v>
-      </c>
-      <c r="C26" s="89" t="s">
-        <v>296</v>
-      </c>
-      <c r="D26" s="89" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="27" spans="2:9">
       <c r="B27" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="C27" s="89" t="s">
+        <v>294</v>
+      </c>
+      <c r="D27" s="89" t="s">
         <v>427</v>
       </c>
-      <c r="C27" s="89" t="s">
-        <v>296</v>
-      </c>
-      <c r="D27" s="89" t="s">
-        <v>429</v>
-      </c>
       <c r="E27" s="91" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="28" spans="2:9">
       <c r="B28" s="8" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D28" s="89" t="s">
-        <v>431</v>
-      </c>
-      <c r="G28" s="101" t="s">
-        <v>439</v>
-      </c>
-      <c r="H28" s="102"/>
-      <c r="I28" s="102"/>
+        <v>429</v>
+      </c>
+      <c r="G28" s="106" t="s">
+        <v>437</v>
+      </c>
+      <c r="H28" s="107"/>
+      <c r="I28" s="107"/>
     </row>
     <row r="29" spans="2:9">
       <c r="B29" s="8"/>
@@ -9871,76 +9866,76 @@
         <v>32</v>
       </c>
       <c r="I29" s="89" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="30" spans="2:9">
       <c r="G30" s="8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H30" s="89" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I30" s="89" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="31" spans="2:9">
       <c r="G31" s="8" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="H31" s="89" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I31" s="89" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="32" spans="2:9">
       <c r="B32" s="93" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G32" s="8"/>
       <c r="H32" s="89"/>
       <c r="I32" s="89"/>
     </row>
     <row r="33" spans="2:9">
-      <c r="B33" s="101" t="s">
-        <v>436</v>
-      </c>
-      <c r="C33" s="102"/>
-      <c r="D33" s="102"/>
+      <c r="B33" s="106" t="s">
+        <v>434</v>
+      </c>
+      <c r="C33" s="107"/>
+      <c r="D33" s="107"/>
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C34" s="89" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D34" s="89"/>
     </row>
     <row r="35" spans="2:9">
       <c r="B35" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C35" s="89" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D35" s="89"/>
       <c r="E35" s="91" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="36" spans="2:9">
       <c r="B36" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C36" s="89" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D36" s="89" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="37" spans="2:9">
@@ -9949,165 +9944,165 @@
       <c r="D37" s="89"/>
     </row>
     <row r="40" spans="2:9">
-      <c r="G40" s="101" t="s">
-        <v>442</v>
-      </c>
-      <c r="H40" s="102"/>
-      <c r="I40" s="102"/>
+      <c r="G40" s="106" t="s">
+        <v>440</v>
+      </c>
+      <c r="H40" s="107"/>
+      <c r="I40" s="107"/>
     </row>
     <row r="41" spans="2:9">
       <c r="G41" s="8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="H41" s="89" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I41" s="92" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="42" spans="2:9">
       <c r="G42" s="8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H42" s="89" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I42" s="89" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="43" spans="2:9">
       <c r="G43" s="8" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H43" s="89" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I43" s="89" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="44" spans="2:9">
       <c r="G44" s="8" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="H44" s="89" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I44" s="89" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="48" spans="2:9">
       <c r="B48" s="93" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="49" spans="2:6">
-      <c r="B49" s="101" t="s">
-        <v>461</v>
-      </c>
-      <c r="C49" s="102"/>
-      <c r="D49" s="102"/>
+      <c r="B49" s="106" t="s">
+        <v>459</v>
+      </c>
+      <c r="C49" s="107"/>
+      <c r="D49" s="107"/>
     </row>
     <row r="50" spans="2:6">
       <c r="B50" s="8" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C50" s="89" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D50" s="89"/>
       <c r="F50" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="51" spans="2:6">
       <c r="B51" s="8" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C51" s="89" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D51" s="89"/>
       <c r="E51" s="91" t="s">
+        <v>452</v>
+      </c>
+      <c r="F51" s="91" t="s">
         <v>454</v>
-      </c>
-      <c r="F51" s="91" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="52" spans="2:6">
       <c r="B52" s="8" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C52" s="89" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D52" s="90" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="53" spans="2:6">
       <c r="B53" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C53" s="89" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D53" s="89"/>
     </row>
     <row r="58" spans="2:6">
       <c r="B58" s="93" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6">
+      <c r="B59" s="106" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="59" spans="2:6">
-      <c r="B59" s="101" t="s">
-        <v>466</v>
-      </c>
-      <c r="C59" s="102"/>
-      <c r="D59" s="102"/>
+      <c r="C59" s="107"/>
+      <c r="D59" s="107"/>
     </row>
     <row r="60" spans="2:6">
       <c r="B60" s="8" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C60" s="90" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D60" s="90"/>
     </row>
     <row r="61" spans="2:6">
       <c r="B61" s="8" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C61" s="90" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D61" s="90"/>
       <c r="E61" s="91" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="62" spans="2:6">
       <c r="B62" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C62" s="90" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D62" s="90" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="63" spans="2:6">
       <c r="B63" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C63" s="90" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D63" s="90"/>
     </row>

--- a/doc/最新接口_拟定.xlsx
+++ b/doc/最新接口_拟定.xlsx
@@ -1069,7 +1069,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="502">
   <si>
     <t>int</t>
   </si>
@@ -2451,10 +2451,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RQREsult</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>结算标记9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2512,25 +2508,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>score</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>本次总得分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>得分详情10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">k:得失分子类
-v:详细数值
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>得分详情10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3118,6 +3096,19 @@
   <si>
     <t>uid:uid
 dlist:内容、传2个数(不包含所吃的牌)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQREsult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得失分详情10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k:得失分子类
+v:详细数值value(value*10+type:(0:不显示分数，1：分数用+，2：番数用x))</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3726,7 +3717,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3906,11 +3897,15 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3930,6 +3925,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3939,19 +3940,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3963,23 +3970,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4277,7 +4269,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:P51"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -4298,32 +4290,32 @@
   <sheetData>
     <row r="3" spans="2:16" ht="14.25" thickBot="1"/>
     <row r="4" spans="2:16">
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="105" t="s">
         <v>232</v>
       </c>
-      <c r="C4" s="104"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="105"/>
-      <c r="I4" s="103" t="s">
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="107"/>
+      <c r="I4" s="105" t="s">
         <v>234</v>
       </c>
-      <c r="J4" s="104"/>
-      <c r="K4" s="104"/>
-      <c r="L4" s="105"/>
+      <c r="J4" s="106"/>
+      <c r="K4" s="106"/>
+      <c r="L4" s="107"/>
     </row>
     <row r="5" spans="2:16">
-      <c r="B5" s="106" t="s">
+      <c r="B5" s="108" t="s">
         <v>233</v>
       </c>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="108"/>
-      <c r="I5" s="106" t="s">
-        <v>482</v>
-      </c>
-      <c r="J5" s="107"/>
-      <c r="K5" s="107"/>
-      <c r="L5" s="108"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="110"/>
+      <c r="I5" s="108" t="s">
+        <v>477</v>
+      </c>
+      <c r="J5" s="109"/>
+      <c r="K5" s="109"/>
+      <c r="L5" s="110"/>
     </row>
     <row r="6" spans="2:16">
       <c r="B6" s="8"/>
@@ -4387,21 +4379,21 @@
     </row>
     <row r="11" spans="2:16" ht="14.25" customHeight="1"/>
     <row r="14" spans="2:16" ht="14.25" thickBot="1">
-      <c r="I14" s="112" t="s">
+      <c r="I14" s="102" t="s">
         <v>54</v>
       </c>
-      <c r="J14" s="113"/>
-      <c r="K14" s="113"/>
-      <c r="L14" s="113"/>
-      <c r="M14" s="114"/>
+      <c r="J14" s="103"/>
+      <c r="K14" s="103"/>
+      <c r="L14" s="103"/>
+      <c r="M14" s="104"/>
     </row>
     <row r="15" spans="2:16">
-      <c r="B15" s="103" t="s">
+      <c r="B15" s="105" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="104"/>
-      <c r="D15" s="104"/>
-      <c r="E15" s="105"/>
+      <c r="C15" s="106"/>
+      <c r="D15" s="106"/>
+      <c r="E15" s="107"/>
       <c r="I15" s="21" t="s">
         <v>34</v>
       </c>
@@ -4416,18 +4408,18 @@
         <v>34</v>
       </c>
       <c r="N15" s="3"/>
-      <c r="O15" s="101" t="s">
+      <c r="O15" s="111" t="s">
         <v>39</v>
       </c>
-      <c r="P15" s="102"/>
+      <c r="P15" s="112"/>
     </row>
     <row r="16" spans="2:16">
-      <c r="B16" s="106" t="s">
+      <c r="B16" s="108" t="s">
         <v>233</v>
       </c>
-      <c r="C16" s="107"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="108"/>
+      <c r="C16" s="109"/>
+      <c r="D16" s="109"/>
+      <c r="E16" s="110"/>
       <c r="I16" s="33"/>
       <c r="J16" s="30"/>
       <c r="K16" s="31">
@@ -4616,7 +4608,7 @@
     </row>
     <row r="22" spans="2:16" ht="27.75" thickBot="1">
       <c r="B22" s="5" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>263</v>
@@ -4925,12 +4917,12 @@
       <c r="P37" s="23"/>
     </row>
     <row r="38" spans="2:16">
-      <c r="B38" s="109" t="s">
+      <c r="B38" s="113" t="s">
         <v>260</v>
       </c>
-      <c r="C38" s="110"/>
-      <c r="D38" s="110"/>
-      <c r="E38" s="111"/>
+      <c r="C38" s="114"/>
+      <c r="D38" s="114"/>
+      <c r="E38" s="115"/>
       <c r="I38" s="33" t="s">
         <v>117</v>
       </c>
@@ -5012,18 +5004,18 @@
     <row r="42" spans="2:16" ht="22.5" customHeight="1"/>
     <row r="43" spans="2:16" ht="31.5" customHeight="1"/>
     <row r="44" spans="2:16">
-      <c r="H44" s="101" t="s">
+      <c r="H44" s="111" t="s">
         <v>247</v>
       </c>
-      <c r="I44" s="102"/>
-      <c r="J44" s="101" t="s">
+      <c r="I44" s="112"/>
+      <c r="J44" s="111" t="s">
         <v>116</v>
       </c>
-      <c r="K44" s="102"/>
-      <c r="L44" s="101" t="s">
+      <c r="K44" s="112"/>
+      <c r="L44" s="111" t="s">
         <v>77</v>
       </c>
-      <c r="M44" s="102"/>
+      <c r="M44" s="112"/>
     </row>
     <row r="45" spans="2:16">
       <c r="H45" s="22">
@@ -5139,11 +5131,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="I14:M14"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="I5:L5"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="J44:K44"/>
     <mergeCell ref="L44:M44"/>
@@ -5151,6 +5138,11 @@
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="H44:I44"/>
     <mergeCell ref="B38:E38"/>
+    <mergeCell ref="I14:M14"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="I5:L5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5371,11 +5363,11 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="4"/>
-      <c r="B11" s="117" t="s">
+      <c r="B11" s="123" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="118"/>
-      <c r="D11" s="119"/>
+      <c r="C11" s="124"/>
+      <c r="D11" s="125"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -5384,11 +5376,11 @@
       <c r="J11" s="4"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="117" t="s">
+      <c r="M11" s="123" t="s">
         <v>27</v>
       </c>
-      <c r="N11" s="118"/>
-      <c r="O11" s="119"/>
+      <c r="N11" s="124"/>
+      <c r="O11" s="125"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -5535,11 +5527,11 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="4"/>
-      <c r="B18" s="117" t="s">
+      <c r="B18" s="123" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="118"/>
-      <c r="D18" s="119"/>
+      <c r="C18" s="124"/>
+      <c r="D18" s="125"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -5548,11 +5540,11 @@
       <c r="J18" s="4"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="117" t="s">
+      <c r="M18" s="123" t="s">
         <v>129</v>
       </c>
-      <c r="N18" s="118"/>
-      <c r="O18" s="119"/>
+      <c r="N18" s="124"/>
+      <c r="O18" s="125"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -5623,11 +5615,11 @@
     </row>
     <row r="21" spans="1:21" ht="14.25" thickBot="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="117" t="s">
+      <c r="B21" s="123" t="s">
         <v>129</v>
       </c>
-      <c r="C21" s="118"/>
-      <c r="D21" s="119"/>
+      <c r="C21" s="124"/>
+      <c r="D21" s="125"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -5719,11 +5711,11 @@
       <c r="J24" s="4"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-      <c r="M24" s="117" t="s">
+      <c r="M24" s="123" t="s">
         <v>69</v>
       </c>
-      <c r="N24" s="118"/>
-      <c r="O24" s="119"/>
+      <c r="N24" s="124"/>
+      <c r="O24" s="125"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
@@ -5881,11 +5873,11 @@
       <c r="J30" s="4"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="117" t="s">
+      <c r="M30" s="123" t="s">
         <v>69</v>
       </c>
-      <c r="N30" s="118"/>
-      <c r="O30" s="119"/>
+      <c r="N30" s="124"/>
+      <c r="O30" s="125"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
@@ -6066,11 +6058,11 @@
       <c r="J37" s="4"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
-      <c r="M37" s="117" t="s">
+      <c r="M37" s="123" t="s">
         <v>69</v>
       </c>
-      <c r="N37" s="118"/>
-      <c r="O37" s="119"/>
+      <c r="N37" s="124"/>
+      <c r="O37" s="125"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
@@ -6274,14 +6266,14 @@
       <c r="J45" s="4"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
-      <c r="M45" s="117" t="s">
+      <c r="M45" s="123" t="s">
         <v>274</v>
       </c>
-      <c r="N45" s="118"/>
-      <c r="O45" s="118"/>
-      <c r="P45" s="118"/>
-      <c r="Q45" s="118"/>
-      <c r="R45" s="119"/>
+      <c r="N45" s="124"/>
+      <c r="O45" s="124"/>
+      <c r="P45" s="124"/>
+      <c r="Q45" s="124"/>
+      <c r="R45" s="125"/>
       <c r="S45" s="2"/>
       <c r="T45" s="3"/>
       <c r="U45" s="3"/>
@@ -6308,11 +6300,11 @@
       <c r="O46" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="P46" s="123" t="s">
+      <c r="P46" s="126" t="s">
         <v>130</v>
       </c>
-      <c r="Q46" s="123"/>
-      <c r="R46" s="124"/>
+      <c r="Q46" s="126"/>
+      <c r="R46" s="127"/>
       <c r="S46" s="2"/>
       <c r="T46" s="3"/>
       <c r="U46" s="3"/>
@@ -6339,11 +6331,11 @@
       <c r="O47" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="P47" s="123" t="s">
+      <c r="P47" s="126" t="s">
         <v>149</v>
       </c>
-      <c r="Q47" s="123"/>
-      <c r="R47" s="124"/>
+      <c r="Q47" s="126"/>
+      <c r="R47" s="127"/>
       <c r="S47" s="2"/>
       <c r="T47" s="3"/>
       <c r="U47" s="3"/>
@@ -6372,22 +6364,22 @@
       <c r="O48" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P48" s="123" t="s">
+      <c r="P48" s="126" t="s">
         <v>17</v>
       </c>
-      <c r="Q48" s="123"/>
-      <c r="R48" s="124"/>
+      <c r="Q48" s="126"/>
+      <c r="R48" s="127"/>
       <c r="S48" s="2"/>
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
     </row>
     <row r="49" spans="1:21">
       <c r="A49" s="1"/>
-      <c r="B49" s="117" t="s">
+      <c r="B49" s="123" t="s">
         <v>112</v>
       </c>
-      <c r="C49" s="118"/>
-      <c r="D49" s="119"/>
+      <c r="C49" s="124"/>
+      <c r="D49" s="125"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -6444,11 +6436,11 @@
       <c r="O50" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P50" s="123" t="s">
+      <c r="P50" s="126" t="s">
         <v>18</v>
       </c>
-      <c r="Q50" s="123"/>
-      <c r="R50" s="124"/>
+      <c r="Q50" s="126"/>
+      <c r="R50" s="127"/>
       <c r="S50" s="2"/>
       <c r="T50" s="3"/>
       <c r="U50" s="3"/>
@@ -6475,11 +6467,11 @@
       <c r="O51" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="P51" s="123" t="s">
+      <c r="P51" s="126" t="s">
         <v>20</v>
       </c>
-      <c r="Q51" s="123"/>
-      <c r="R51" s="124"/>
+      <c r="Q51" s="126"/>
+      <c r="R51" s="127"/>
       <c r="S51" s="2"/>
       <c r="T51" s="3"/>
       <c r="U51" s="3"/>
@@ -6537,11 +6529,11 @@
       <c r="O53" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="P53" s="123" t="s">
+      <c r="P53" s="126" t="s">
         <v>21</v>
       </c>
-      <c r="Q53" s="123"/>
-      <c r="R53" s="124"/>
+      <c r="Q53" s="126"/>
+      <c r="R53" s="127"/>
       <c r="S53" s="2"/>
       <c r="T53" s="3"/>
       <c r="U53" s="3"/>
@@ -6740,10 +6732,10 @@
       <c r="O60" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="P60" s="115" t="s">
+      <c r="P60" s="118" t="s">
         <v>137</v>
       </c>
-      <c r="Q60" s="116"/>
+      <c r="Q60" s="119"/>
       <c r="R60" s="1"/>
       <c r="S60" s="2"/>
       <c r="T60" s="3"/>
@@ -6771,10 +6763,10 @@
       <c r="O61" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="P61" s="115" t="s">
+      <c r="P61" s="118" t="s">
         <v>140</v>
       </c>
-      <c r="Q61" s="116"/>
+      <c r="Q61" s="119"/>
       <c r="R61" s="1"/>
       <c r="S61" s="2"/>
       <c r="T61" s="3"/>
@@ -6802,10 +6794,10 @@
       <c r="O62" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="P62" s="115" t="s">
+      <c r="P62" s="118" t="s">
         <v>22</v>
       </c>
-      <c r="Q62" s="116"/>
+      <c r="Q62" s="119"/>
       <c r="R62" s="1"/>
       <c r="S62" s="2"/>
       <c r="T62" s="3"/>
@@ -6833,10 +6825,10 @@
       <c r="O63" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P63" s="125" t="s">
+      <c r="P63" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="Q63" s="126"/>
+      <c r="Q63" s="117"/>
       <c r="R63" s="1"/>
       <c r="S63" s="2"/>
       <c r="T63" s="3"/>
@@ -6864,10 +6856,10 @@
       <c r="O64" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P64" s="115" t="s">
+      <c r="P64" s="118" t="s">
         <v>161</v>
       </c>
-      <c r="Q64" s="116"/>
+      <c r="Q64" s="119"/>
       <c r="R64" s="1"/>
       <c r="S64" s="2"/>
       <c r="T64" s="3"/>
@@ -6895,10 +6887,10 @@
       <c r="O65" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="P65" s="115" t="s">
+      <c r="P65" s="118" t="s">
         <v>60</v>
       </c>
-      <c r="Q65" s="116"/>
+      <c r="Q65" s="119"/>
       <c r="R65" s="1"/>
       <c r="S65" s="2"/>
       <c r="T65" s="3"/>
@@ -6926,10 +6918,10 @@
       <c r="O66" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P66" s="115" t="s">
+      <c r="P66" s="118" t="s">
         <v>218</v>
       </c>
-      <c r="Q66" s="116"/>
+      <c r="Q66" s="119"/>
       <c r="R66" s="1"/>
       <c r="S66" s="2"/>
       <c r="T66" s="3"/>
@@ -6957,10 +6949,10 @@
       <c r="O67" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P67" s="115" t="s">
+      <c r="P67" s="118" t="s">
         <v>217</v>
       </c>
-      <c r="Q67" s="116"/>
+      <c r="Q67" s="119"/>
       <c r="R67" s="1"/>
       <c r="S67" s="1"/>
       <c r="T67" s="3"/>
@@ -7061,10 +7053,10 @@
       <c r="O71" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="P71" s="125" t="s">
+      <c r="P71" s="116" t="s">
         <v>201</v>
       </c>
-      <c r="Q71" s="126"/>
+      <c r="Q71" s="117"/>
       <c r="R71" s="1"/>
       <c r="S71" s="1"/>
       <c r="T71" s="3"/>
@@ -7092,10 +7084,10 @@
       <c r="O72" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="P72" s="125" t="s">
+      <c r="P72" s="116" t="s">
         <v>193</v>
       </c>
-      <c r="Q72" s="126"/>
+      <c r="Q72" s="117"/>
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
       <c r="T72" s="3"/>
@@ -7123,10 +7115,10 @@
       <c r="O73" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="P73" s="125" t="s">
+      <c r="P73" s="116" t="s">
         <v>190</v>
       </c>
-      <c r="Q73" s="126"/>
+      <c r="Q73" s="117"/>
       <c r="R73" s="1"/>
       <c r="S73" s="1"/>
       <c r="T73" s="3"/>
@@ -7183,10 +7175,10 @@
       <c r="O75" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P75" s="115" t="s">
+      <c r="P75" s="118" t="s">
         <v>219</v>
       </c>
-      <c r="Q75" s="116"/>
+      <c r="Q75" s="119"/>
       <c r="R75" s="1"/>
       <c r="S75" s="1"/>
       <c r="T75" s="3"/>
@@ -7214,10 +7206,10 @@
       <c r="O76" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P76" s="115" t="s">
+      <c r="P76" s="118" t="s">
         <v>220</v>
       </c>
-      <c r="Q76" s="116"/>
+      <c r="Q76" s="119"/>
       <c r="R76" s="1"/>
       <c r="S76" s="1"/>
       <c r="T76" s="3"/>
@@ -7259,11 +7251,11 @@
       <c r="J78" s="4"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
-      <c r="M78" s="117" t="s">
+      <c r="M78" s="123" t="s">
         <v>191</v>
       </c>
-      <c r="N78" s="118"/>
-      <c r="O78" s="119"/>
+      <c r="N78" s="124"/>
+      <c r="O78" s="125"/>
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
       <c r="R78" s="1"/>
@@ -7365,11 +7357,11 @@
       <c r="J82" s="4"/>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
-      <c r="M82" s="117" t="s">
+      <c r="M82" s="123" t="s">
         <v>183</v>
       </c>
-      <c r="N82" s="118"/>
-      <c r="O82" s="119"/>
+      <c r="N82" s="124"/>
+      <c r="O82" s="125"/>
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
       <c r="R82" s="1"/>
@@ -7880,6 +7872,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="M78:O78"/>
+    <mergeCell ref="M82:O82"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="M59:Q59"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P51:R51"/>
+    <mergeCell ref="P53:R53"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="M44:R44"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="M45:R45"/>
+    <mergeCell ref="P46:R46"/>
+    <mergeCell ref="P47:R47"/>
+    <mergeCell ref="P48:R48"/>
+    <mergeCell ref="P50:R50"/>
     <mergeCell ref="P63:Q63"/>
     <mergeCell ref="P66:Q66"/>
     <mergeCell ref="B48:D48"/>
@@ -7896,34 +7916,6 @@
     <mergeCell ref="P60:Q60"/>
     <mergeCell ref="P62:Q62"/>
     <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="M45:R45"/>
-    <mergeCell ref="P46:R46"/>
-    <mergeCell ref="P47:R47"/>
-    <mergeCell ref="P48:R48"/>
-    <mergeCell ref="P50:R50"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="M44:R44"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="M78:O78"/>
-    <mergeCell ref="M82:O82"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="M59:Q59"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P51:R51"/>
-    <mergeCell ref="P53:R53"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="M29:O29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7935,8 +7927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:T118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C100" workbookViewId="0">
-      <selection activeCell="E113" sqref="E113"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="H75" sqref="F65:I75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7952,32 +7944,32 @@
   <sheetData>
     <row r="2" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="3" spans="1:10">
-      <c r="A3" s="103" t="s">
+      <c r="A3" s="105" t="s">
         <v>280</v>
       </c>
-      <c r="B3" s="104"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="105"/>
-      <c r="F3" s="103" t="s">
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="107"/>
+      <c r="F3" s="105" t="s">
         <v>291</v>
       </c>
-      <c r="G3" s="104"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="105"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="107"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="106" t="s">
+      <c r="A4" s="108" t="s">
         <v>281</v>
       </c>
-      <c r="B4" s="107"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="108"/>
-      <c r="F4" s="106" t="s">
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="110"/>
+      <c r="F4" s="108" t="s">
         <v>284</v>
       </c>
-      <c r="G4" s="107"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="108"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="110"/>
     </row>
     <row r="5" spans="1:10" ht="14.25" thickBot="1">
       <c r="A5" s="8" t="s">
@@ -7993,7 +7985,7 @@
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>282</v>
@@ -8008,7 +8000,7 @@
         <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="14.25" thickBot="1">
@@ -8121,7 +8113,7 @@
     </row>
     <row r="12" spans="1:10" ht="14.25" thickBot="1">
       <c r="F12" s="8" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="G12" s="82" t="s">
         <v>313</v>
@@ -8135,34 +8127,34 @@
     </row>
     <row r="15" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="16" spans="1:10">
-      <c r="A16" s="103" t="s">
+      <c r="A16" s="105" t="s">
         <v>278</v>
       </c>
-      <c r="B16" s="104"/>
-      <c r="C16" s="104"/>
-      <c r="D16" s="105"/>
-      <c r="F16" s="103" t="s">
+      <c r="B16" s="106"/>
+      <c r="C16" s="106"/>
+      <c r="D16" s="107"/>
+      <c r="F16" s="105" t="s">
         <v>278</v>
       </c>
-      <c r="G16" s="104"/>
-      <c r="H16" s="104"/>
-      <c r="I16" s="105"/>
+      <c r="G16" s="106"/>
+      <c r="H16" s="106"/>
+      <c r="I16" s="107"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="106" t="s">
+      <c r="A17" s="108" t="s">
         <v>279</v>
       </c>
-      <c r="B17" s="107"/>
-      <c r="C17" s="107"/>
-      <c r="D17" s="108"/>
-      <c r="F17" s="106" t="s">
-        <v>373</v>
-      </c>
-      <c r="G17" s="107"/>
-      <c r="H17" s="107"/>
-      <c r="I17" s="108"/>
+      <c r="B17" s="109"/>
+      <c r="C17" s="109"/>
+      <c r="D17" s="110"/>
+      <c r="F17" s="108" t="s">
+        <v>368</v>
+      </c>
+      <c r="G17" s="109"/>
+      <c r="H17" s="109"/>
+      <c r="I17" s="110"/>
       <c r="J17" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -8179,7 +8171,7 @@
         <v>72</v>
       </c>
       <c r="E18" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>132</v>
@@ -8210,20 +8202,20 @@
     </row>
     <row r="23" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="24" spans="1:10">
-      <c r="F24" s="103" t="s">
+      <c r="F24" s="105" t="s">
         <v>303</v>
       </c>
-      <c r="G24" s="104"/>
-      <c r="H24" s="104"/>
-      <c r="I24" s="105"/>
+      <c r="G24" s="106"/>
+      <c r="H24" s="106"/>
+      <c r="I24" s="107"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="F25" s="106" t="s">
+      <c r="F25" s="108" t="s">
         <v>304</v>
       </c>
-      <c r="G25" s="107"/>
-      <c r="H25" s="107"/>
-      <c r="I25" s="108"/>
+      <c r="G25" s="109"/>
+      <c r="H25" s="109"/>
+      <c r="I25" s="110"/>
     </row>
     <row r="26" spans="1:10">
       <c r="F26" s="8" t="s">
@@ -8244,33 +8236,33 @@
     </row>
     <row r="31" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="32" spans="1:10">
-      <c r="A32" s="103" t="s">
+      <c r="A32" s="105" t="s">
         <v>285</v>
       </c>
-      <c r="B32" s="104"/>
-      <c r="C32" s="104"/>
-      <c r="D32" s="105"/>
-      <c r="F32" s="103" t="s">
+      <c r="B32" s="106"/>
+      <c r="C32" s="106"/>
+      <c r="D32" s="107"/>
+      <c r="F32" s="105" t="s">
         <v>312</v>
       </c>
-      <c r="G32" s="104"/>
-      <c r="H32" s="104"/>
-      <c r="I32" s="105"/>
+      <c r="G32" s="106"/>
+      <c r="H32" s="106"/>
+      <c r="I32" s="107"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="106" t="s">
+      <c r="A33" s="108" t="s">
         <v>287</v>
       </c>
-      <c r="B33" s="107"/>
-      <c r="C33" s="107"/>
-      <c r="D33" s="108"/>
+      <c r="B33" s="109"/>
+      <c r="C33" s="109"/>
+      <c r="D33" s="110"/>
       <c r="E33" s="77"/>
-      <c r="F33" s="106" t="s">
+      <c r="F33" s="108" t="s">
         <v>313</v>
       </c>
-      <c r="G33" s="107"/>
-      <c r="H33" s="107"/>
-      <c r="I33" s="108"/>
+      <c r="G33" s="109"/>
+      <c r="H33" s="109"/>
+      <c r="I33" s="110"/>
     </row>
     <row r="34" spans="1:10" ht="14.25" thickBot="1">
       <c r="A34" s="8" t="s">
@@ -8280,7 +8272,7 @@
         <v>0</v>
       </c>
       <c r="C34" s="82" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="D34" s="73" t="s">
         <v>72</v>
@@ -8342,7 +8334,7 @@
         <v>318</v>
       </c>
       <c r="G36" s="82" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="H36" s="73" t="s">
         <v>283</v>
@@ -8370,7 +8362,7 @@
         <v>316</v>
       </c>
       <c r="B38" s="82" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C38" s="81" t="s">
         <v>333</v>
@@ -8381,37 +8373,37 @@
     </row>
     <row r="42" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="43" spans="1:10">
-      <c r="A43" s="103" t="s">
+      <c r="A43" s="105" t="s">
         <v>298</v>
       </c>
-      <c r="B43" s="104"/>
-      <c r="C43" s="104"/>
-      <c r="D43" s="105"/>
-      <c r="F43" s="103" t="s">
-        <v>375</v>
-      </c>
-      <c r="G43" s="104"/>
-      <c r="H43" s="104"/>
-      <c r="I43" s="105"/>
+      <c r="B43" s="106"/>
+      <c r="C43" s="106"/>
+      <c r="D43" s="107"/>
+      <c r="F43" s="105" t="s">
+        <v>370</v>
+      </c>
+      <c r="G43" s="106"/>
+      <c r="H43" s="106"/>
+      <c r="I43" s="107"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="106" t="s">
-        <v>486</v>
-      </c>
-      <c r="B44" s="107"/>
-      <c r="C44" s="107"/>
-      <c r="D44" s="108"/>
+      <c r="A44" s="108" t="s">
+        <v>481</v>
+      </c>
+      <c r="B44" s="109"/>
+      <c r="C44" s="109"/>
+      <c r="D44" s="110"/>
       <c r="E44" t="s">
-        <v>470</v>
-      </c>
-      <c r="F44" s="106" t="s">
-        <v>374</v>
-      </c>
-      <c r="G44" s="107"/>
-      <c r="H44" s="107"/>
-      <c r="I44" s="108"/>
+        <v>465</v>
+      </c>
+      <c r="F44" s="108" t="s">
+        <v>369</v>
+      </c>
+      <c r="G44" s="109"/>
+      <c r="H44" s="109"/>
+      <c r="I44" s="110"/>
       <c r="J44" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="14.25" thickBot="1">
@@ -8422,29 +8414,29 @@
         <v>0</v>
       </c>
       <c r="H45" s="84" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="I45" s="83" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="103" t="s">
+      <c r="A46" s="105" t="s">
         <v>301</v>
       </c>
-      <c r="B46" s="104"/>
-      <c r="C46" s="104"/>
-      <c r="D46" s="105"/>
+      <c r="B46" s="106"/>
+      <c r="C46" s="106"/>
+      <c r="D46" s="107"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="106" t="s">
+      <c r="A47" s="108" t="s">
         <v>302</v>
       </c>
-      <c r="B47" s="107"/>
-      <c r="C47" s="107"/>
-      <c r="D47" s="108"/>
+      <c r="B47" s="109"/>
+      <c r="C47" s="109"/>
+      <c r="D47" s="110"/>
       <c r="E47" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="14.25" thickBot="1"/>
@@ -8457,70 +8449,70 @@
       <c r="D49" s="122"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="117" t="s">
+      <c r="A50" s="123" t="s">
         <v>307</v>
       </c>
-      <c r="B50" s="118"/>
-      <c r="C50" s="118"/>
-      <c r="D50" s="119"/>
+      <c r="B50" s="124"/>
+      <c r="C50" s="124"/>
+      <c r="D50" s="125"/>
       <c r="E50" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="52" spans="1:10" ht="13.5" customHeight="1" thickBot="1"/>
     <row r="53" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A53" s="103" t="s">
+      <c r="A53" s="105" t="s">
+        <v>371</v>
+      </c>
+      <c r="B53" s="106"/>
+      <c r="C53" s="106"/>
+      <c r="D53" s="107"/>
+      <c r="F53" s="105" t="s">
+        <v>371</v>
+      </c>
+      <c r="G53" s="106"/>
+      <c r="H53" s="106"/>
+      <c r="I53" s="107"/>
+    </row>
+    <row r="54" spans="1:10" ht="13.5" customHeight="1">
+      <c r="A54" s="108" t="s">
         <v>376</v>
       </c>
-      <c r="B53" s="104"/>
-      <c r="C53" s="104"/>
-      <c r="D53" s="105"/>
-      <c r="F53" s="103" t="s">
-        <v>376</v>
-      </c>
-      <c r="G53" s="104"/>
-      <c r="H53" s="104"/>
-      <c r="I53" s="105"/>
-    </row>
-    <row r="54" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A54" s="106" t="s">
-        <v>381</v>
-      </c>
-      <c r="B54" s="107"/>
-      <c r="C54" s="107"/>
-      <c r="D54" s="108"/>
-      <c r="F54" s="106" t="s">
-        <v>382</v>
-      </c>
-      <c r="G54" s="107"/>
-      <c r="H54" s="107"/>
-      <c r="I54" s="108"/>
+      <c r="B54" s="109"/>
+      <c r="C54" s="109"/>
+      <c r="D54" s="110"/>
+      <c r="F54" s="108" t="s">
+        <v>377</v>
+      </c>
+      <c r="G54" s="109"/>
+      <c r="H54" s="109"/>
+      <c r="I54" s="110"/>
     </row>
     <row r="55" spans="1:10" ht="13.5" customHeight="1">
       <c r="A55" s="8" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="B55" s="83" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C55" s="83" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="D55" s="83" t="s">
         <v>72</v>
       </c>
       <c r="E55" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="G55" s="84" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="H55" s="84" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="I55" s="84" t="s">
         <v>72</v>
@@ -8534,13 +8526,13 @@
         <v>0</v>
       </c>
       <c r="H56" s="84" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="I56" s="20" t="s">
         <v>13</v>
       </c>
       <c r="J56" s="94" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="13.5" customHeight="1"/>
@@ -8553,32 +8545,32 @@
     <row r="64" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="65" spans="1:10" ht="12.75" customHeight="1" thickBot="1"/>
     <row r="66" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A66" s="103" t="s">
-        <v>364</v>
-      </c>
-      <c r="B66" s="104"/>
-      <c r="C66" s="104"/>
-      <c r="D66" s="105"/>
-      <c r="F66" s="103" t="s">
-        <v>346</v>
-      </c>
-      <c r="G66" s="104"/>
-      <c r="H66" s="104"/>
-      <c r="I66" s="105"/>
+      <c r="A66" s="105" t="s">
+        <v>359</v>
+      </c>
+      <c r="B66" s="106"/>
+      <c r="C66" s="106"/>
+      <c r="D66" s="107"/>
+      <c r="F66" s="105" t="s">
+        <v>345</v>
+      </c>
+      <c r="G66" s="106"/>
+      <c r="H66" s="106"/>
+      <c r="I66" s="107"/>
     </row>
     <row r="67" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A67" s="106" t="s">
-        <v>344</v>
-      </c>
-      <c r="B67" s="107"/>
-      <c r="C67" s="107"/>
-      <c r="D67" s="108"/>
-      <c r="F67" s="117" t="s">
-        <v>351</v>
-      </c>
-      <c r="G67" s="118"/>
-      <c r="H67" s="118"/>
-      <c r="I67" s="119"/>
+      <c r="A67" s="108" t="s">
+        <v>499</v>
+      </c>
+      <c r="B67" s="109"/>
+      <c r="C67" s="109"/>
+      <c r="D67" s="110"/>
+      <c r="F67" s="123" t="s">
+        <v>350</v>
+      </c>
+      <c r="G67" s="124"/>
+      <c r="H67" s="124"/>
+      <c r="I67" s="125"/>
     </row>
     <row r="68" spans="1:10" ht="12.75" customHeight="1" thickBot="1">
       <c r="A68" s="8" t="s">
@@ -8588,77 +8580,69 @@
         <v>32</v>
       </c>
       <c r="C68" s="76" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D68" s="20" t="s">
         <v>13</v>
       </c>
       <c r="E68" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="G68" s="82" t="s">
-        <v>358</v>
+        <v>352</v>
+      </c>
+      <c r="G68" s="101" t="s">
+        <v>357</v>
       </c>
       <c r="H68" s="79" t="s">
-        <v>363</v>
+        <v>500</v>
       </c>
       <c r="I68" s="7" t="s">
         <v>310</v>
       </c>
       <c r="J68" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="14.25" thickBot="1">
       <c r="A69" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B69" s="75" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C69" s="75" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D69" s="20" t="s">
         <v>13</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G69" s="75" t="s">
         <v>320</v>
       </c>
       <c r="H69" s="82" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I69" s="20" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A70" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="B70" s="75" t="s">
-        <v>32</v>
-      </c>
-      <c r="C70" s="75" t="s">
-        <v>360</v>
-      </c>
-      <c r="D70" s="20" t="s">
-        <v>13</v>
-      </c>
+      <c r="A70" s="8"/>
+      <c r="B70" s="75"/>
+      <c r="C70" s="75"/>
+      <c r="D70" s="20"/>
       <c r="F70" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G70" s="75" t="s">
         <v>320</v>
       </c>
       <c r="H70" s="75" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I70" s="20" t="s">
         <v>13</v>
@@ -8672,7 +8656,7 @@
         <v>32</v>
       </c>
       <c r="H71" s="75" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="I71" s="20" t="s">
         <v>13</v>
@@ -8692,40 +8676,40 @@
       <c r="B78" s="121"/>
       <c r="C78" s="121"/>
       <c r="D78" s="122"/>
-      <c r="F78" s="103" t="s">
+      <c r="F78" s="105" t="s">
         <v>234</v>
       </c>
-      <c r="G78" s="104"/>
-      <c r="H78" s="104"/>
-      <c r="I78" s="105"/>
+      <c r="G78" s="106"/>
+      <c r="H78" s="106"/>
+      <c r="I78" s="107"/>
     </row>
     <row r="79" spans="1:10">
-      <c r="A79" s="103" t="s">
+      <c r="A79" s="105" t="s">
         <v>232</v>
       </c>
-      <c r="B79" s="104"/>
-      <c r="C79" s="104"/>
-      <c r="D79" s="105"/>
+      <c r="B79" s="106"/>
+      <c r="C79" s="106"/>
+      <c r="D79" s="107"/>
       <c r="E79" t="s">
-        <v>477</v>
-      </c>
-      <c r="F79" s="106" t="s">
+        <v>472</v>
+      </c>
+      <c r="F79" s="108" t="s">
         <v>235</v>
       </c>
-      <c r="G79" s="107"/>
-      <c r="H79" s="107"/>
-      <c r="I79" s="108"/>
+      <c r="G79" s="109"/>
+      <c r="H79" s="109"/>
+      <c r="I79" s="110"/>
       <c r="J79" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="80" spans="1:10">
-      <c r="A80" s="106" t="s">
+      <c r="A80" s="108" t="s">
         <v>233</v>
       </c>
-      <c r="B80" s="107"/>
-      <c r="C80" s="107"/>
-      <c r="D80" s="108"/>
+      <c r="B80" s="109"/>
+      <c r="C80" s="109"/>
+      <c r="D80" s="110"/>
       <c r="F80" s="8" t="s">
         <v>237</v>
       </c>
@@ -8788,42 +8772,42 @@
     <row r="85" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="86" spans="1:10" ht="14.25" thickBot="1">
       <c r="A86" s="120" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B86" s="121"/>
       <c r="C86" s="121"/>
       <c r="D86" s="122"/>
       <c r="F86" s="120" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="G86" s="121"/>
       <c r="H86" s="121"/>
       <c r="I86" s="122"/>
     </row>
     <row r="87" spans="1:10">
-      <c r="A87" s="103" t="s">
+      <c r="A87" s="105" t="s">
         <v>232</v>
       </c>
-      <c r="B87" s="104"/>
-      <c r="C87" s="104"/>
-      <c r="D87" s="105"/>
+      <c r="B87" s="106"/>
+      <c r="C87" s="106"/>
+      <c r="D87" s="107"/>
       <c r="E87" t="s">
-        <v>479</v>
-      </c>
-      <c r="F87" s="106" t="s">
+        <v>474</v>
+      </c>
+      <c r="F87" s="108" t="s">
         <v>235</v>
       </c>
-      <c r="G87" s="107"/>
-      <c r="H87" s="107"/>
-      <c r="I87" s="108"/>
+      <c r="G87" s="109"/>
+      <c r="H87" s="109"/>
+      <c r="I87" s="110"/>
     </row>
     <row r="88" spans="1:10">
-      <c r="A88" s="106" t="s">
+      <c r="A88" s="108" t="s">
         <v>233</v>
       </c>
-      <c r="B88" s="107"/>
-      <c r="C88" s="107"/>
-      <c r="D88" s="108"/>
+      <c r="B88" s="109"/>
+      <c r="C88" s="109"/>
+      <c r="D88" s="110"/>
       <c r="F88" s="8" t="s">
         <v>237</v>
       </c>
@@ -8837,7 +8821,7 @@
         <v>72</v>
       </c>
       <c r="J88" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -8891,7 +8875,7 @@
         <v>229</v>
       </c>
       <c r="F95" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -8910,7 +8894,7 @@
     </row>
     <row r="97" spans="5:20" ht="54">
       <c r="E97" s="59" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="F97" s="58">
         <v>4</v>
@@ -8919,7 +8903,7 @@
         <v>231</v>
       </c>
       <c r="H97" s="33" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="L97" s="65"/>
       <c r="M97" s="66"/>
@@ -8940,7 +8924,7 @@
         <v>264</v>
       </c>
       <c r="H98" s="33" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="L98" s="65"/>
       <c r="M98" s="66"/>
@@ -8958,10 +8942,10 @@
         <v>6</v>
       </c>
       <c r="G99" s="32" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="H99" s="33" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="L99" s="65"/>
       <c r="M99" s="66"/>
@@ -9086,10 +9070,10 @@
         <v>205</v>
       </c>
       <c r="G105" s="32" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="H105" s="57" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="L105" s="65"/>
       <c r="M105" s="66"/>
@@ -9125,7 +9109,7 @@
         <v>256</v>
       </c>
       <c r="H107" s="95" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="L107" s="98"/>
       <c r="M107" s="99"/>
@@ -9146,12 +9130,12 @@
         <v>266</v>
       </c>
       <c r="H108" s="57" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
     </row>
     <row r="109" spans="5:20" ht="27">
       <c r="E109" s="59" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="F109" s="58">
         <v>213</v>
@@ -9160,7 +9144,7 @@
         <v>265</v>
       </c>
       <c r="H109" s="57" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
     </row>
     <row r="110" spans="5:20" ht="27">
@@ -9189,21 +9173,21 @@
     </row>
     <row r="112" spans="5:20" ht="27">
       <c r="E112" s="59" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="F112" s="58">
         <v>220</v>
       </c>
       <c r="G112" s="32" t="s">
+        <v>493</v>
+      </c>
+      <c r="H112" s="57" t="s">
         <v>498</v>
-      </c>
-      <c r="H112" s="57" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="113" spans="5:8" ht="54">
       <c r="E113" s="59" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="F113" s="58">
         <v>230</v>
@@ -9263,6 +9247,30 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="A86:D86"/>
+    <mergeCell ref="F86:I86"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="F53:I53"/>
+    <mergeCell ref="F54:I54"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="F67:I67"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A79:D79"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="F78:I78"/>
+    <mergeCell ref="F79:I79"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="F43:I43"/>
     <mergeCell ref="A87:D87"/>
     <mergeCell ref="F87:I87"/>
     <mergeCell ref="A88:D88"/>
@@ -9279,30 +9287,6 @@
     <mergeCell ref="A43:D43"/>
     <mergeCell ref="F24:I24"/>
     <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="F44:I44"/>
-    <mergeCell ref="F43:I43"/>
-    <mergeCell ref="A86:D86"/>
-    <mergeCell ref="F86:I86"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="F53:I53"/>
-    <mergeCell ref="F54:I54"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="F66:I66"/>
-    <mergeCell ref="F67:I67"/>
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="A79:D79"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="F78:I78"/>
-    <mergeCell ref="F79:I79"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A66:D66"/>
-    <mergeCell ref="A53:D53"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -9327,7 +9311,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9341,7 +9325,7 @@
         <v>327</v>
       </c>
       <c r="B1" s="78" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="81">
@@ -9349,7 +9333,7 @@
         <v>329</v>
       </c>
       <c r="B2" s="78" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="40.5">
@@ -9357,7 +9341,7 @@
         <v>330</v>
       </c>
       <c r="B3" s="78" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="81">
@@ -9365,7 +9349,7 @@
         <v>332</v>
       </c>
       <c r="B4" s="78" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="67.5">
@@ -9394,18 +9378,18 @@
     </row>
     <row r="8" spans="1:2" ht="27">
       <c r="A8" s="77" t="s">
+        <v>348</v>
+      </c>
+      <c r="B8" s="78" t="s">
         <v>349</v>
       </c>
-      <c r="B8" s="78" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="40.5">
+    </row>
+    <row r="9" spans="1:2" ht="27">
       <c r="A9" s="77" t="s">
-        <v>361</v>
+        <v>500</v>
       </c>
       <c r="B9" s="78" t="s">
-        <v>362</v>
+        <v>501</v>
       </c>
     </row>
   </sheetData>
@@ -9426,44 +9410,44 @@
   <sheetData>
     <row r="10" spans="2:14" ht="14.25" thickBot="1"/>
     <row r="11" spans="2:14">
-      <c r="B11" s="103" t="s">
-        <v>371</v>
-      </c>
-      <c r="C11" s="104"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="105"/>
+      <c r="B11" s="105" t="s">
+        <v>366</v>
+      </c>
+      <c r="C11" s="106"/>
+      <c r="D11" s="106"/>
+      <c r="E11" s="107"/>
       <c r="F11" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="14.25" thickBot="1"/>
     <row r="13" spans="2:14">
-      <c r="B13" s="103" t="s">
-        <v>372</v>
-      </c>
-      <c r="C13" s="104"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="105"/>
-      <c r="J13" s="103" t="s">
-        <v>372</v>
-      </c>
-      <c r="K13" s="104"/>
-      <c r="L13" s="104"/>
-      <c r="M13" s="105"/>
+      <c r="B13" s="105" t="s">
+        <v>367</v>
+      </c>
+      <c r="C13" s="106"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="107"/>
+      <c r="J13" s="105" t="s">
+        <v>367</v>
+      </c>
+      <c r="K13" s="106"/>
+      <c r="L13" s="106"/>
+      <c r="M13" s="107"/>
     </row>
     <row r="14" spans="2:14">
-      <c r="B14" s="106" t="s">
-        <v>489</v>
-      </c>
-      <c r="C14" s="107"/>
-      <c r="D14" s="107"/>
-      <c r="E14" s="108"/>
-      <c r="J14" s="106" t="s">
-        <v>370</v>
-      </c>
-      <c r="K14" s="107"/>
-      <c r="L14" s="107"/>
-      <c r="M14" s="108"/>
+      <c r="B14" s="108" t="s">
+        <v>484</v>
+      </c>
+      <c r="C14" s="109"/>
+      <c r="D14" s="109"/>
+      <c r="E14" s="110"/>
+      <c r="J14" s="108" t="s">
+        <v>365</v>
+      </c>
+      <c r="K14" s="109"/>
+      <c r="L14" s="109"/>
+      <c r="M14" s="110"/>
     </row>
     <row r="15" spans="2:14" ht="14.25" thickBot="1">
       <c r="B15" s="8" t="s">
@@ -9476,10 +9460,10 @@
         <v>122</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="F15" s="91" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="J15" s="8" t="s">
         <v>282</v>
@@ -9494,7 +9478,7 @@
         <v>13</v>
       </c>
       <c r="N15" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
     </row>
   </sheetData>
@@ -9532,73 +9516,73 @@
   <sheetData>
     <row r="1" spans="2:9">
       <c r="C1" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="H1" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="2" spans="2:9">
       <c r="B2" s="93" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
     </row>
     <row r="3" spans="2:9">
-      <c r="B3" s="106" t="s">
-        <v>448</v>
-      </c>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="G3" s="106" t="s">
-        <v>421</v>
-      </c>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107"/>
+      <c r="B3" s="108" t="s">
+        <v>443</v>
+      </c>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="G3" s="108" t="s">
+        <v>416</v>
+      </c>
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="8" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C4" s="89" t="s">
         <v>294</v>
       </c>
       <c r="D4" s="89" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="H4" s="89" t="s">
         <v>294</v>
       </c>
       <c r="I4" s="89" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="8" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C5" s="89" t="s">
         <v>172</v>
       </c>
       <c r="D5" s="89" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="E5" s="91" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="F5" s="91" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="H5" s="89" t="s">
         <v>294</v>
       </c>
       <c r="I5" s="89" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="6" spans="2:9">
@@ -9612,100 +9596,100 @@
         <v>300</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="H6" s="89" t="s">
         <v>32</v>
       </c>
       <c r="I6" s="89" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="8" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="C7" s="89" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="89" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="H7" s="89" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="I7" s="89" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="8" spans="2:9">
       <c r="G8" s="8" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="H8" s="89" t="s">
         <v>294</v>
       </c>
       <c r="I8" s="89" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
     </row>
     <row r="9" spans="2:9">
       <c r="G9" s="8" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="H9" s="89" t="s">
         <v>294</v>
       </c>
       <c r="I9" s="89" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
     </row>
     <row r="10" spans="2:9">
       <c r="G10" s="8" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="H10" s="89" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="I10" s="89" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
     </row>
     <row r="14" spans="2:9">
-      <c r="G14" s="106" t="s">
-        <v>398</v>
-      </c>
-      <c r="H14" s="107"/>
-      <c r="I14" s="107"/>
+      <c r="G14" s="108" t="s">
+        <v>393</v>
+      </c>
+      <c r="H14" s="109"/>
+      <c r="I14" s="109"/>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="106" t="s">
-        <v>415</v>
-      </c>
-      <c r="C15" s="107"/>
-      <c r="D15" s="107"/>
+      <c r="B15" s="108" t="s">
+        <v>410</v>
+      </c>
+      <c r="C15" s="109"/>
+      <c r="D15" s="109"/>
       <c r="G15" s="8" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="H15" s="89" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="I15" s="89" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="16" spans="2:9">
       <c r="B16" s="8" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C16" s="89" t="s">
         <v>294</v>
       </c>
       <c r="D16" s="89" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>309</v>
@@ -9714,32 +9698,32 @@
         <v>32</v>
       </c>
       <c r="I16" s="89" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="8" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C17" s="89" t="s">
         <v>32</v>
       </c>
       <c r="D17" s="89" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="H17" s="89" t="s">
         <v>294</v>
       </c>
       <c r="I17" s="89" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="8" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C18" s="89" t="s">
         <v>32</v>
@@ -9748,13 +9732,13 @@
         <v>300</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="H18" s="89" t="s">
         <v>32</v>
       </c>
       <c r="I18" s="89" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="19" spans="2:9">
@@ -9765,36 +9749,36 @@
         <v>32</v>
       </c>
       <c r="D19" s="89" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="H19" s="89" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="I19" s="89" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="20" spans="2:9">
       <c r="B20" s="8" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="C20" s="89" t="s">
         <v>32</v>
       </c>
       <c r="D20" s="89" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="H20" s="89" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="I20" s="89" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="21" spans="2:9">
@@ -9804,56 +9788,56 @@
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="93" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="106" t="s">
-        <v>431</v>
-      </c>
-      <c r="C25" s="107"/>
-      <c r="D25" s="107"/>
+      <c r="B25" s="108" t="s">
+        <v>426</v>
+      </c>
+      <c r="C25" s="109"/>
+      <c r="D25" s="109"/>
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="8" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C26" s="89" t="s">
         <v>294</v>
       </c>
       <c r="D26" s="89" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
     </row>
     <row r="27" spans="2:9">
       <c r="B27" s="8" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C27" s="89" t="s">
         <v>294</v>
       </c>
       <c r="D27" s="89" t="s">
+        <v>422</v>
+      </c>
+      <c r="E27" s="91" t="s">
         <v>427</v>
-      </c>
-      <c r="E27" s="91" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="28" spans="2:9">
       <c r="B28" s="8" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="D28" s="89" t="s">
-        <v>429</v>
-      </c>
-      <c r="G28" s="106" t="s">
-        <v>437</v>
-      </c>
-      <c r="H28" s="107"/>
-      <c r="I28" s="107"/>
+        <v>424</v>
+      </c>
+      <c r="G28" s="108" t="s">
+        <v>432</v>
+      </c>
+      <c r="H28" s="109"/>
+      <c r="I28" s="109"/>
     </row>
     <row r="29" spans="2:9">
       <c r="B29" s="8"/>
@@ -9866,7 +9850,7 @@
         <v>32</v>
       </c>
       <c r="I29" s="89" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="30" spans="2:9">
@@ -9877,38 +9861,38 @@
         <v>294</v>
       </c>
       <c r="I30" s="89" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
     </row>
     <row r="31" spans="2:9">
       <c r="G31" s="8" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="H31" s="89" t="s">
         <v>294</v>
       </c>
       <c r="I31" s="89" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
     </row>
     <row r="32" spans="2:9">
       <c r="B32" s="93" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="G32" s="8"/>
       <c r="H32" s="89"/>
       <c r="I32" s="89"/>
     </row>
     <row r="33" spans="2:9">
-      <c r="B33" s="106" t="s">
-        <v>434</v>
-      </c>
-      <c r="C33" s="107"/>
-      <c r="D33" s="107"/>
+      <c r="B33" s="108" t="s">
+        <v>429</v>
+      </c>
+      <c r="C33" s="109"/>
+      <c r="D33" s="109"/>
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="8" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="C34" s="89" t="s">
         <v>294</v>
@@ -9917,25 +9901,25 @@
     </row>
     <row r="35" spans="2:9">
       <c r="B35" s="8" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="C35" s="89" t="s">
         <v>294</v>
       </c>
       <c r="D35" s="89"/>
       <c r="E35" s="91" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="36" spans="2:9">
       <c r="B36" s="8" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="C36" s="89" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="D36" s="89" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
     <row r="37" spans="2:9">
@@ -9944,109 +9928,109 @@
       <c r="D37" s="89"/>
     </row>
     <row r="40" spans="2:9">
-      <c r="G40" s="106" t="s">
-        <v>440</v>
-      </c>
-      <c r="H40" s="107"/>
-      <c r="I40" s="107"/>
+      <c r="G40" s="108" t="s">
+        <v>435</v>
+      </c>
+      <c r="H40" s="109"/>
+      <c r="I40" s="109"/>
     </row>
     <row r="41" spans="2:9">
       <c r="G41" s="8" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="H41" s="89" t="s">
         <v>294</v>
       </c>
       <c r="I41" s="92" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
     </row>
     <row r="42" spans="2:9">
       <c r="G42" s="8" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="H42" s="89" t="s">
         <v>294</v>
       </c>
       <c r="I42" s="89" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
     </row>
     <row r="43" spans="2:9">
       <c r="G43" s="8" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="H43" s="89" t="s">
         <v>294</v>
       </c>
       <c r="I43" s="89" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
     </row>
     <row r="44" spans="2:9">
       <c r="G44" s="8" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="H44" s="89" t="s">
         <v>294</v>
       </c>
       <c r="I44" s="89" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="48" spans="2:9">
       <c r="B48" s="93" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="49" spans="2:6">
-      <c r="B49" s="106" t="s">
-        <v>459</v>
-      </c>
-      <c r="C49" s="107"/>
-      <c r="D49" s="107"/>
+      <c r="B49" s="108" t="s">
+        <v>454</v>
+      </c>
+      <c r="C49" s="109"/>
+      <c r="D49" s="109"/>
     </row>
     <row r="50" spans="2:6">
       <c r="B50" s="8" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="C50" s="89" t="s">
         <v>294</v>
       </c>
       <c r="D50" s="89"/>
       <c r="F50" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="51" spans="2:6">
       <c r="B51" s="8" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="C51" s="89" t="s">
         <v>294</v>
       </c>
       <c r="D51" s="89"/>
       <c r="E51" s="91" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="F51" s="91" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
     </row>
     <row r="52" spans="2:6">
       <c r="B52" s="8" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="C52" s="89" t="s">
         <v>294</v>
       </c>
       <c r="D52" s="90" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="53" spans="2:6">
       <c r="B53" s="8" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="C53" s="89" t="s">
         <v>294</v>
@@ -10055,19 +10039,19 @@
     </row>
     <row r="58" spans="2:6">
       <c r="B58" s="93" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
     </row>
     <row r="59" spans="2:6">
-      <c r="B59" s="106" t="s">
-        <v>464</v>
-      </c>
-      <c r="C59" s="107"/>
-      <c r="D59" s="107"/>
+      <c r="B59" s="108" t="s">
+        <v>459</v>
+      </c>
+      <c r="C59" s="109"/>
+      <c r="D59" s="109"/>
     </row>
     <row r="60" spans="2:6">
       <c r="B60" s="8" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="C60" s="90" t="s">
         <v>294</v>
@@ -10076,30 +10060,30 @@
     </row>
     <row r="61" spans="2:6">
       <c r="B61" s="8" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C61" s="90" t="s">
         <v>294</v>
       </c>
       <c r="D61" s="90"/>
       <c r="E61" s="91" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
     </row>
     <row r="62" spans="2:6">
       <c r="B62" s="8" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="C62" s="90" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="D62" s="90" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
     <row r="63" spans="2:6">
       <c r="B63" s="8" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="C63" s="90" t="s">
         <v>294</v>

--- a/doc/最新接口_拟定.xlsx
+++ b/doc/最新接口_拟定.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
@@ -14,7 +14,7 @@
     <sheet name="登录" sheetId="5" r:id="rId5"/>
     <sheet name="http登录" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -3019,21 +3019,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>uid:uid
-dvlue:压跑内容
-KVData:玩家id-已压跑情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">1位：是否离线
 2位：是否托管
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">uid:uid（&gt;0 为玩家选择反馈，否则为状态信息）
-dval:1：准备，0取消准备
-KVData:玩家id-已准备情况
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3109,6 +3096,19 @@
   <si>
     <t>k:得失分子类
 v:详细数值value(value*10+type:(0:不显示分数，1：分数用+，2：番数用x))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">uid:uid（&gt;0 为玩家选择反馈，否则为状态信息）
+dval:1：准备，0取消准备
+KVData:玩家id-已准备情况（发送的是已准备，没有发送的是为准备）
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uid:uid
+dvlue:压跑内容
+KVData:玩家id-已压跑情况（发送的是已压过跑并且是压跑的数值0-5，没有发送的是等待压跑）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3898,14 +3898,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3925,12 +3922,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3940,16 +3931,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3961,17 +3964,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4290,32 +4290,32 @@
   <sheetData>
     <row r="3" spans="2:16" ht="14.25" thickBot="1"/>
     <row r="4" spans="2:16">
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="104" t="s">
         <v>232</v>
       </c>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="107"/>
-      <c r="I4" s="105" t="s">
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="106"/>
+      <c r="I4" s="104" t="s">
         <v>234</v>
       </c>
-      <c r="J4" s="106"/>
-      <c r="K4" s="106"/>
-      <c r="L4" s="107"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="105"/>
+      <c r="L4" s="106"/>
     </row>
     <row r="5" spans="2:16">
-      <c r="B5" s="108" t="s">
+      <c r="B5" s="107" t="s">
         <v>233</v>
       </c>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="110"/>
-      <c r="I5" s="108" t="s">
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="109"/>
+      <c r="I5" s="107" t="s">
         <v>477</v>
       </c>
-      <c r="J5" s="109"/>
-      <c r="K5" s="109"/>
-      <c r="L5" s="110"/>
+      <c r="J5" s="108"/>
+      <c r="K5" s="108"/>
+      <c r="L5" s="109"/>
     </row>
     <row r="6" spans="2:16">
       <c r="B6" s="8"/>
@@ -4379,21 +4379,21 @@
     </row>
     <row r="11" spans="2:16" ht="14.25" customHeight="1"/>
     <row r="14" spans="2:16" ht="14.25" thickBot="1">
-      <c r="I14" s="102" t="s">
+      <c r="I14" s="113" t="s">
         <v>54</v>
       </c>
-      <c r="J14" s="103"/>
-      <c r="K14" s="103"/>
-      <c r="L14" s="103"/>
-      <c r="M14" s="104"/>
+      <c r="J14" s="114"/>
+      <c r="K14" s="114"/>
+      <c r="L14" s="114"/>
+      <c r="M14" s="115"/>
     </row>
     <row r="15" spans="2:16">
-      <c r="B15" s="105" t="s">
+      <c r="B15" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="106"/>
-      <c r="D15" s="106"/>
-      <c r="E15" s="107"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="106"/>
       <c r="I15" s="21" t="s">
         <v>34</v>
       </c>
@@ -4408,18 +4408,18 @@
         <v>34</v>
       </c>
       <c r="N15" s="3"/>
-      <c r="O15" s="111" t="s">
+      <c r="O15" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="P15" s="112"/>
+      <c r="P15" s="103"/>
     </row>
     <row r="16" spans="2:16">
-      <c r="B16" s="108" t="s">
+      <c r="B16" s="107" t="s">
         <v>233</v>
       </c>
-      <c r="C16" s="109"/>
-      <c r="D16" s="109"/>
-      <c r="E16" s="110"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="109"/>
       <c r="I16" s="33"/>
       <c r="J16" s="30"/>
       <c r="K16" s="31">
@@ -4917,12 +4917,12 @@
       <c r="P37" s="23"/>
     </row>
     <row r="38" spans="2:16">
-      <c r="B38" s="113" t="s">
+      <c r="B38" s="110" t="s">
         <v>260</v>
       </c>
-      <c r="C38" s="114"/>
-      <c r="D38" s="114"/>
-      <c r="E38" s="115"/>
+      <c r="C38" s="111"/>
+      <c r="D38" s="111"/>
+      <c r="E38" s="112"/>
       <c r="I38" s="33" t="s">
         <v>117</v>
       </c>
@@ -5004,18 +5004,18 @@
     <row r="42" spans="2:16" ht="22.5" customHeight="1"/>
     <row r="43" spans="2:16" ht="31.5" customHeight="1"/>
     <row r="44" spans="2:16">
-      <c r="H44" s="111" t="s">
+      <c r="H44" s="102" t="s">
         <v>247</v>
       </c>
-      <c r="I44" s="112"/>
-      <c r="J44" s="111" t="s">
+      <c r="I44" s="103"/>
+      <c r="J44" s="102" t="s">
         <v>116</v>
       </c>
-      <c r="K44" s="112"/>
-      <c r="L44" s="111" t="s">
+      <c r="K44" s="103"/>
+      <c r="L44" s="102" t="s">
         <v>77</v>
       </c>
-      <c r="M44" s="112"/>
+      <c r="M44" s="103"/>
     </row>
     <row r="45" spans="2:16">
       <c r="H45" s="22">
@@ -5131,6 +5131,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="I14:M14"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="I5:L5"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="J44:K44"/>
     <mergeCell ref="L44:M44"/>
@@ -5138,11 +5143,6 @@
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="H44:I44"/>
     <mergeCell ref="B38:E38"/>
-    <mergeCell ref="I14:M14"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="I5:L5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5336,11 +5336,11 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="4"/>
-      <c r="B10" s="120" t="s">
+      <c r="B10" s="121" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="121"/>
-      <c r="D10" s="122"/>
+      <c r="C10" s="122"/>
+      <c r="D10" s="123"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -5349,11 +5349,11 @@
       <c r="J10" s="4"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="120" t="s">
+      <c r="M10" s="121" t="s">
         <v>28</v>
       </c>
-      <c r="N10" s="121"/>
-      <c r="O10" s="122"/>
+      <c r="N10" s="122"/>
+      <c r="O10" s="123"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -5363,11 +5363,11 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="4"/>
-      <c r="B11" s="123" t="s">
+      <c r="B11" s="118" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="124"/>
-      <c r="D11" s="125"/>
+      <c r="C11" s="119"/>
+      <c r="D11" s="120"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -5376,11 +5376,11 @@
       <c r="J11" s="4"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="123" t="s">
+      <c r="M11" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="N11" s="124"/>
-      <c r="O11" s="125"/>
+      <c r="N11" s="119"/>
+      <c r="O11" s="120"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -5501,11 +5501,11 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="4"/>
-      <c r="B17" s="120" t="s">
+      <c r="B17" s="121" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="121"/>
-      <c r="D17" s="122"/>
+      <c r="C17" s="122"/>
+      <c r="D17" s="123"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -5514,11 +5514,11 @@
       <c r="J17" s="4"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="120" t="s">
+      <c r="M17" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="N17" s="121"/>
-      <c r="O17" s="122"/>
+      <c r="N17" s="122"/>
+      <c r="O17" s="123"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -5527,11 +5527,11 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="4"/>
-      <c r="B18" s="123" t="s">
+      <c r="B18" s="118" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="124"/>
-      <c r="D18" s="125"/>
+      <c r="C18" s="119"/>
+      <c r="D18" s="120"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -5540,11 +5540,11 @@
       <c r="J18" s="4"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="123" t="s">
+      <c r="M18" s="118" t="s">
         <v>129</v>
       </c>
-      <c r="N18" s="124"/>
-      <c r="O18" s="125"/>
+      <c r="N18" s="119"/>
+      <c r="O18" s="120"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -5584,9 +5584,9 @@
     </row>
     <row r="20" spans="1:21" ht="41.25" thickBot="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="120"/>
-      <c r="C20" s="121"/>
-      <c r="D20" s="122"/>
+      <c r="B20" s="121"/>
+      <c r="C20" s="122"/>
+      <c r="D20" s="123"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -5615,11 +5615,11 @@
     </row>
     <row r="21" spans="1:21" ht="14.25" thickBot="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="123" t="s">
+      <c r="B21" s="118" t="s">
         <v>129</v>
       </c>
-      <c r="C21" s="124"/>
-      <c r="D21" s="125"/>
+      <c r="C21" s="119"/>
+      <c r="D21" s="120"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -5686,11 +5686,11 @@
       <c r="J23" s="4"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="120" t="s">
+      <c r="M23" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="N23" s="121"/>
-      <c r="O23" s="122"/>
+      <c r="N23" s="122"/>
+      <c r="O23" s="123"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
@@ -5711,11 +5711,11 @@
       <c r="J24" s="4"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-      <c r="M24" s="123" t="s">
+      <c r="M24" s="118" t="s">
         <v>69</v>
       </c>
-      <c r="N24" s="124"/>
-      <c r="O24" s="125"/>
+      <c r="N24" s="119"/>
+      <c r="O24" s="120"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
@@ -5848,11 +5848,11 @@
       <c r="J29" s="4"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
-      <c r="M29" s="120" t="s">
+      <c r="M29" s="121" t="s">
         <v>9</v>
       </c>
-      <c r="N29" s="121"/>
-      <c r="O29" s="122"/>
+      <c r="N29" s="122"/>
+      <c r="O29" s="123"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
@@ -5873,11 +5873,11 @@
       <c r="J30" s="4"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="123" t="s">
+      <c r="M30" s="118" t="s">
         <v>69</v>
       </c>
-      <c r="N30" s="124"/>
-      <c r="O30" s="125"/>
+      <c r="N30" s="119"/>
+      <c r="O30" s="120"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
@@ -6033,11 +6033,11 @@
       <c r="J36" s="4"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
-      <c r="M36" s="120" t="s">
+      <c r="M36" s="121" t="s">
         <v>10</v>
       </c>
-      <c r="N36" s="121"/>
-      <c r="O36" s="122"/>
+      <c r="N36" s="122"/>
+      <c r="O36" s="123"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
@@ -6058,11 +6058,11 @@
       <c r="J37" s="4"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
-      <c r="M37" s="123" t="s">
+      <c r="M37" s="118" t="s">
         <v>69</v>
       </c>
-      <c r="N37" s="124"/>
-      <c r="O37" s="125"/>
+      <c r="N37" s="119"/>
+      <c r="O37" s="120"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
@@ -6241,14 +6241,14 @@
       <c r="J44" s="4"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
-      <c r="M44" s="120" t="s">
+      <c r="M44" s="121" t="s">
         <v>16</v>
       </c>
-      <c r="N44" s="121"/>
-      <c r="O44" s="121"/>
-      <c r="P44" s="121"/>
-      <c r="Q44" s="121"/>
-      <c r="R44" s="122"/>
+      <c r="N44" s="122"/>
+      <c r="O44" s="122"/>
+      <c r="P44" s="122"/>
+      <c r="Q44" s="122"/>
+      <c r="R44" s="123"/>
       <c r="S44" s="2"/>
       <c r="T44" s="3"/>
       <c r="U44" s="3"/>
@@ -6266,14 +6266,14 @@
       <c r="J45" s="4"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
-      <c r="M45" s="123" t="s">
+      <c r="M45" s="118" t="s">
         <v>274</v>
       </c>
-      <c r="N45" s="124"/>
-      <c r="O45" s="124"/>
-      <c r="P45" s="124"/>
-      <c r="Q45" s="124"/>
-      <c r="R45" s="125"/>
+      <c r="N45" s="119"/>
+      <c r="O45" s="119"/>
+      <c r="P45" s="119"/>
+      <c r="Q45" s="119"/>
+      <c r="R45" s="120"/>
       <c r="S45" s="2"/>
       <c r="T45" s="3"/>
       <c r="U45" s="3"/>
@@ -6300,11 +6300,11 @@
       <c r="O46" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="P46" s="126" t="s">
+      <c r="P46" s="124" t="s">
         <v>130</v>
       </c>
-      <c r="Q46" s="126"/>
-      <c r="R46" s="127"/>
+      <c r="Q46" s="124"/>
+      <c r="R46" s="125"/>
       <c r="S46" s="2"/>
       <c r="T46" s="3"/>
       <c r="U46" s="3"/>
@@ -6331,22 +6331,22 @@
       <c r="O47" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="P47" s="126" t="s">
+      <c r="P47" s="124" t="s">
         <v>149</v>
       </c>
-      <c r="Q47" s="126"/>
-      <c r="R47" s="127"/>
+      <c r="Q47" s="124"/>
+      <c r="R47" s="125"/>
       <c r="S47" s="2"/>
       <c r="T47" s="3"/>
       <c r="U47" s="3"/>
     </row>
     <row r="48" spans="1:21">
       <c r="A48" s="1"/>
-      <c r="B48" s="120" t="s">
+      <c r="B48" s="121" t="s">
         <v>114</v>
       </c>
-      <c r="C48" s="121"/>
-      <c r="D48" s="122"/>
+      <c r="C48" s="122"/>
+      <c r="D48" s="123"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -6364,22 +6364,22 @@
       <c r="O48" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P48" s="126" t="s">
+      <c r="P48" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="Q48" s="126"/>
-      <c r="R48" s="127"/>
+      <c r="Q48" s="124"/>
+      <c r="R48" s="125"/>
       <c r="S48" s="2"/>
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
     </row>
     <row r="49" spans="1:21">
       <c r="A49" s="1"/>
-      <c r="B49" s="123" t="s">
+      <c r="B49" s="118" t="s">
         <v>112</v>
       </c>
-      <c r="C49" s="124"/>
-      <c r="D49" s="125"/>
+      <c r="C49" s="119"/>
+      <c r="D49" s="120"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -6436,11 +6436,11 @@
       <c r="O50" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P50" s="126" t="s">
+      <c r="P50" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="Q50" s="126"/>
-      <c r="R50" s="127"/>
+      <c r="Q50" s="124"/>
+      <c r="R50" s="125"/>
       <c r="S50" s="2"/>
       <c r="T50" s="3"/>
       <c r="U50" s="3"/>
@@ -6467,11 +6467,11 @@
       <c r="O51" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="P51" s="126" t="s">
+      <c r="P51" s="124" t="s">
         <v>20</v>
       </c>
-      <c r="Q51" s="126"/>
-      <c r="R51" s="127"/>
+      <c r="Q51" s="124"/>
+      <c r="R51" s="125"/>
       <c r="S51" s="2"/>
       <c r="T51" s="3"/>
       <c r="U51" s="3"/>
@@ -6529,11 +6529,11 @@
       <c r="O53" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="P53" s="126" t="s">
+      <c r="P53" s="124" t="s">
         <v>21</v>
       </c>
-      <c r="Q53" s="126"/>
-      <c r="R53" s="127"/>
+      <c r="Q53" s="124"/>
+      <c r="R53" s="125"/>
       <c r="S53" s="2"/>
       <c r="T53" s="3"/>
       <c r="U53" s="3"/>
@@ -6698,13 +6698,13 @@
       <c r="J59" s="4"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
-      <c r="M59" s="120" t="s">
+      <c r="M59" s="121" t="s">
         <v>136</v>
       </c>
-      <c r="N59" s="121"/>
-      <c r="O59" s="121"/>
-      <c r="P59" s="121"/>
-      <c r="Q59" s="122"/>
+      <c r="N59" s="122"/>
+      <c r="O59" s="122"/>
+      <c r="P59" s="122"/>
+      <c r="Q59" s="123"/>
       <c r="R59" s="1"/>
       <c r="S59" s="2"/>
       <c r="T59" s="3"/>
@@ -6732,10 +6732,10 @@
       <c r="O60" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="P60" s="118" t="s">
+      <c r="P60" s="116" t="s">
         <v>137</v>
       </c>
-      <c r="Q60" s="119"/>
+      <c r="Q60" s="117"/>
       <c r="R60" s="1"/>
       <c r="S60" s="2"/>
       <c r="T60" s="3"/>
@@ -6763,10 +6763,10 @@
       <c r="O61" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="P61" s="118" t="s">
+      <c r="P61" s="116" t="s">
         <v>140</v>
       </c>
-      <c r="Q61" s="119"/>
+      <c r="Q61" s="117"/>
       <c r="R61" s="1"/>
       <c r="S61" s="2"/>
       <c r="T61" s="3"/>
@@ -6794,10 +6794,10 @@
       <c r="O62" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="P62" s="118" t="s">
+      <c r="P62" s="116" t="s">
         <v>22</v>
       </c>
-      <c r="Q62" s="119"/>
+      <c r="Q62" s="117"/>
       <c r="R62" s="1"/>
       <c r="S62" s="2"/>
       <c r="T62" s="3"/>
@@ -6825,10 +6825,10 @@
       <c r="O63" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P63" s="116" t="s">
+      <c r="P63" s="126" t="s">
         <v>23</v>
       </c>
-      <c r="Q63" s="117"/>
+      <c r="Q63" s="127"/>
       <c r="R63" s="1"/>
       <c r="S63" s="2"/>
       <c r="T63" s="3"/>
@@ -6856,10 +6856,10 @@
       <c r="O64" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P64" s="118" t="s">
+      <c r="P64" s="116" t="s">
         <v>161</v>
       </c>
-      <c r="Q64" s="119"/>
+      <c r="Q64" s="117"/>
       <c r="R64" s="1"/>
       <c r="S64" s="2"/>
       <c r="T64" s="3"/>
@@ -6887,10 +6887,10 @@
       <c r="O65" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="P65" s="118" t="s">
+      <c r="P65" s="116" t="s">
         <v>60</v>
       </c>
-      <c r="Q65" s="119"/>
+      <c r="Q65" s="117"/>
       <c r="R65" s="1"/>
       <c r="S65" s="2"/>
       <c r="T65" s="3"/>
@@ -6918,10 +6918,10 @@
       <c r="O66" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P66" s="118" t="s">
+      <c r="P66" s="116" t="s">
         <v>218</v>
       </c>
-      <c r="Q66" s="119"/>
+      <c r="Q66" s="117"/>
       <c r="R66" s="1"/>
       <c r="S66" s="2"/>
       <c r="T66" s="3"/>
@@ -6949,10 +6949,10 @@
       <c r="O67" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P67" s="118" t="s">
+      <c r="P67" s="116" t="s">
         <v>217</v>
       </c>
-      <c r="Q67" s="119"/>
+      <c r="Q67" s="117"/>
       <c r="R67" s="1"/>
       <c r="S67" s="1"/>
       <c r="T67" s="3"/>
@@ -6994,13 +6994,13 @@
       <c r="J69" s="4"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
-      <c r="M69" s="120" t="s">
+      <c r="M69" s="121" t="s">
         <v>176</v>
       </c>
-      <c r="N69" s="121"/>
-      <c r="O69" s="121"/>
-      <c r="P69" s="121"/>
-      <c r="Q69" s="122"/>
+      <c r="N69" s="122"/>
+      <c r="O69" s="122"/>
+      <c r="P69" s="122"/>
+      <c r="Q69" s="123"/>
       <c r="R69" s="1"/>
       <c r="S69" s="1"/>
       <c r="T69" s="3"/>
@@ -7019,13 +7019,13 @@
       <c r="J70" s="4"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
-      <c r="M70" s="120" t="s">
+      <c r="M70" s="121" t="s">
         <v>177</v>
       </c>
-      <c r="N70" s="121"/>
-      <c r="O70" s="121"/>
-      <c r="P70" s="121"/>
-      <c r="Q70" s="122"/>
+      <c r="N70" s="122"/>
+      <c r="O70" s="122"/>
+      <c r="P70" s="122"/>
+      <c r="Q70" s="123"/>
       <c r="R70" s="1"/>
       <c r="S70" s="1"/>
       <c r="T70" s="3"/>
@@ -7053,10 +7053,10 @@
       <c r="O71" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="P71" s="116" t="s">
+      <c r="P71" s="126" t="s">
         <v>201</v>
       </c>
-      <c r="Q71" s="117"/>
+      <c r="Q71" s="127"/>
       <c r="R71" s="1"/>
       <c r="S71" s="1"/>
       <c r="T71" s="3"/>
@@ -7084,10 +7084,10 @@
       <c r="O72" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="P72" s="116" t="s">
+      <c r="P72" s="126" t="s">
         <v>193</v>
       </c>
-      <c r="Q72" s="117"/>
+      <c r="Q72" s="127"/>
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
       <c r="T72" s="3"/>
@@ -7115,10 +7115,10 @@
       <c r="O73" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="P73" s="116" t="s">
+      <c r="P73" s="126" t="s">
         <v>190</v>
       </c>
-      <c r="Q73" s="117"/>
+      <c r="Q73" s="127"/>
       <c r="R73" s="1"/>
       <c r="S73" s="1"/>
       <c r="T73" s="3"/>
@@ -7175,10 +7175,10 @@
       <c r="O75" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P75" s="118" t="s">
+      <c r="P75" s="116" t="s">
         <v>219</v>
       </c>
-      <c r="Q75" s="119"/>
+      <c r="Q75" s="117"/>
       <c r="R75" s="1"/>
       <c r="S75" s="1"/>
       <c r="T75" s="3"/>
@@ -7206,10 +7206,10 @@
       <c r="O76" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P76" s="118" t="s">
+      <c r="P76" s="116" t="s">
         <v>220</v>
       </c>
-      <c r="Q76" s="119"/>
+      <c r="Q76" s="117"/>
       <c r="R76" s="1"/>
       <c r="S76" s="1"/>
       <c r="T76" s="3"/>
@@ -7251,11 +7251,11 @@
       <c r="J78" s="4"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
-      <c r="M78" s="123" t="s">
+      <c r="M78" s="118" t="s">
         <v>191</v>
       </c>
-      <c r="N78" s="124"/>
-      <c r="O78" s="125"/>
+      <c r="N78" s="119"/>
+      <c r="O78" s="120"/>
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
       <c r="R78" s="1"/>
@@ -7357,11 +7357,11 @@
       <c r="J82" s="4"/>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
-      <c r="M82" s="123" t="s">
+      <c r="M82" s="118" t="s">
         <v>183</v>
       </c>
-      <c r="N82" s="124"/>
-      <c r="O82" s="125"/>
+      <c r="N82" s="119"/>
+      <c r="O82" s="120"/>
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
       <c r="R82" s="1"/>
@@ -7872,6 +7872,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="M69:Q69"/>
+    <mergeCell ref="M70:Q70"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="M45:R45"/>
+    <mergeCell ref="P46:R46"/>
+    <mergeCell ref="P47:R47"/>
+    <mergeCell ref="P48:R48"/>
+    <mergeCell ref="P50:R50"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="M44:R44"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
     <mergeCell ref="P76:Q76"/>
     <mergeCell ref="M78:O78"/>
     <mergeCell ref="M82:O82"/>
@@ -7888,34 +7916,6 @@
     <mergeCell ref="M11:O11"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="M29:O29"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="M44:R44"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="M45:R45"/>
-    <mergeCell ref="P46:R46"/>
-    <mergeCell ref="P47:R47"/>
-    <mergeCell ref="P48:R48"/>
-    <mergeCell ref="P50:R50"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="M69:Q69"/>
-    <mergeCell ref="M70:Q70"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="P67:Q67"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7927,8 +7927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:T118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="H75" sqref="F65:I75"/>
+    <sheetView tabSelected="1" topLeftCell="F88" workbookViewId="0">
+      <selection activeCell="H98" sqref="H98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7944,32 +7944,32 @@
   <sheetData>
     <row r="2" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="3" spans="1:10">
-      <c r="A3" s="105" t="s">
+      <c r="A3" s="104" t="s">
         <v>280</v>
       </c>
-      <c r="B3" s="106"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="107"/>
-      <c r="F3" s="105" t="s">
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="106"/>
+      <c r="F3" s="104" t="s">
         <v>291</v>
       </c>
-      <c r="G3" s="106"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="107"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="106"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="107" t="s">
         <v>281</v>
       </c>
-      <c r="B4" s="109"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="110"/>
-      <c r="F4" s="108" t="s">
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="109"/>
+      <c r="F4" s="107" t="s">
         <v>284</v>
       </c>
-      <c r="G4" s="109"/>
-      <c r="H4" s="109"/>
-      <c r="I4" s="110"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="109"/>
     </row>
     <row r="5" spans="1:10" ht="14.25" thickBot="1">
       <c r="A5" s="8" t="s">
@@ -8127,32 +8127,32 @@
     </row>
     <row r="15" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="16" spans="1:10">
-      <c r="A16" s="105" t="s">
+      <c r="A16" s="104" t="s">
         <v>278</v>
       </c>
-      <c r="B16" s="106"/>
-      <c r="C16" s="106"/>
-      <c r="D16" s="107"/>
-      <c r="F16" s="105" t="s">
+      <c r="B16" s="105"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="106"/>
+      <c r="F16" s="104" t="s">
         <v>278</v>
       </c>
-      <c r="G16" s="106"/>
-      <c r="H16" s="106"/>
-      <c r="I16" s="107"/>
+      <c r="G16" s="105"/>
+      <c r="H16" s="105"/>
+      <c r="I16" s="106"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="108" t="s">
+      <c r="A17" s="107" t="s">
         <v>279</v>
       </c>
-      <c r="B17" s="109"/>
-      <c r="C17" s="109"/>
-      <c r="D17" s="110"/>
-      <c r="F17" s="108" t="s">
+      <c r="B17" s="108"/>
+      <c r="C17" s="108"/>
+      <c r="D17" s="109"/>
+      <c r="F17" s="107" t="s">
         <v>368</v>
       </c>
-      <c r="G17" s="109"/>
-      <c r="H17" s="109"/>
-      <c r="I17" s="110"/>
+      <c r="G17" s="108"/>
+      <c r="H17" s="108"/>
+      <c r="I17" s="109"/>
       <c r="J17" t="s">
         <v>464</v>
       </c>
@@ -8202,20 +8202,20 @@
     </row>
     <row r="23" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="24" spans="1:10">
-      <c r="F24" s="105" t="s">
+      <c r="F24" s="104" t="s">
         <v>303</v>
       </c>
-      <c r="G24" s="106"/>
-      <c r="H24" s="106"/>
-      <c r="I24" s="107"/>
+      <c r="G24" s="105"/>
+      <c r="H24" s="105"/>
+      <c r="I24" s="106"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="F25" s="108" t="s">
+      <c r="F25" s="107" t="s">
         <v>304</v>
       </c>
-      <c r="G25" s="109"/>
-      <c r="H25" s="109"/>
-      <c r="I25" s="110"/>
+      <c r="G25" s="108"/>
+      <c r="H25" s="108"/>
+      <c r="I25" s="109"/>
     </row>
     <row r="26" spans="1:10">
       <c r="F26" s="8" t="s">
@@ -8236,33 +8236,33 @@
     </row>
     <row r="31" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="32" spans="1:10">
-      <c r="A32" s="105" t="s">
+      <c r="A32" s="104" t="s">
         <v>285</v>
       </c>
-      <c r="B32" s="106"/>
-      <c r="C32" s="106"/>
-      <c r="D32" s="107"/>
-      <c r="F32" s="105" t="s">
+      <c r="B32" s="105"/>
+      <c r="C32" s="105"/>
+      <c r="D32" s="106"/>
+      <c r="F32" s="104" t="s">
         <v>312</v>
       </c>
-      <c r="G32" s="106"/>
-      <c r="H32" s="106"/>
-      <c r="I32" s="107"/>
+      <c r="G32" s="105"/>
+      <c r="H32" s="105"/>
+      <c r="I32" s="106"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="108" t="s">
+      <c r="A33" s="107" t="s">
         <v>287</v>
       </c>
-      <c r="B33" s="109"/>
-      <c r="C33" s="109"/>
-      <c r="D33" s="110"/>
+      <c r="B33" s="108"/>
+      <c r="C33" s="108"/>
+      <c r="D33" s="109"/>
       <c r="E33" s="77"/>
-      <c r="F33" s="108" t="s">
+      <c r="F33" s="107" t="s">
         <v>313</v>
       </c>
-      <c r="G33" s="109"/>
-      <c r="H33" s="109"/>
-      <c r="I33" s="110"/>
+      <c r="G33" s="108"/>
+      <c r="H33" s="108"/>
+      <c r="I33" s="109"/>
     </row>
     <row r="34" spans="1:10" ht="14.25" thickBot="1">
       <c r="A34" s="8" t="s">
@@ -8373,35 +8373,35 @@
     </row>
     <row r="42" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="43" spans="1:10">
-      <c r="A43" s="105" t="s">
+      <c r="A43" s="104" t="s">
         <v>298</v>
       </c>
-      <c r="B43" s="106"/>
-      <c r="C43" s="106"/>
-      <c r="D43" s="107"/>
-      <c r="F43" s="105" t="s">
+      <c r="B43" s="105"/>
+      <c r="C43" s="105"/>
+      <c r="D43" s="106"/>
+      <c r="F43" s="104" t="s">
         <v>370</v>
       </c>
-      <c r="G43" s="106"/>
-      <c r="H43" s="106"/>
-      <c r="I43" s="107"/>
+      <c r="G43" s="105"/>
+      <c r="H43" s="105"/>
+      <c r="I43" s="106"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="108" t="s">
+      <c r="A44" s="107" t="s">
         <v>481</v>
       </c>
-      <c r="B44" s="109"/>
-      <c r="C44" s="109"/>
-      <c r="D44" s="110"/>
+      <c r="B44" s="108"/>
+      <c r="C44" s="108"/>
+      <c r="D44" s="109"/>
       <c r="E44" t="s">
         <v>465</v>
       </c>
-      <c r="F44" s="108" t="s">
+      <c r="F44" s="107" t="s">
         <v>369</v>
       </c>
-      <c r="G44" s="109"/>
-      <c r="H44" s="109"/>
-      <c r="I44" s="110"/>
+      <c r="G44" s="108"/>
+      <c r="H44" s="108"/>
+      <c r="I44" s="109"/>
       <c r="J44" t="s">
         <v>465</v>
       </c>
@@ -8421,40 +8421,40 @@
       </c>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="105" t="s">
+      <c r="A46" s="104" t="s">
         <v>301</v>
       </c>
-      <c r="B46" s="106"/>
-      <c r="C46" s="106"/>
-      <c r="D46" s="107"/>
+      <c r="B46" s="105"/>
+      <c r="C46" s="105"/>
+      <c r="D46" s="106"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="108" t="s">
+      <c r="A47" s="107" t="s">
         <v>302</v>
       </c>
-      <c r="B47" s="109"/>
-      <c r="C47" s="109"/>
-      <c r="D47" s="110"/>
+      <c r="B47" s="108"/>
+      <c r="C47" s="108"/>
+      <c r="D47" s="109"/>
       <c r="E47" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="49" spans="1:10">
-      <c r="A49" s="120" t="s">
+      <c r="A49" s="121" t="s">
         <v>306</v>
       </c>
-      <c r="B49" s="121"/>
-      <c r="C49" s="121"/>
-      <c r="D49" s="122"/>
+      <c r="B49" s="122"/>
+      <c r="C49" s="122"/>
+      <c r="D49" s="123"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="123" t="s">
+      <c r="A50" s="118" t="s">
         <v>307</v>
       </c>
-      <c r="B50" s="124"/>
-      <c r="C50" s="124"/>
-      <c r="D50" s="125"/>
+      <c r="B50" s="119"/>
+      <c r="C50" s="119"/>
+      <c r="D50" s="120"/>
       <c r="E50" t="s">
         <v>467</v>
       </c>
@@ -8462,32 +8462,32 @@
     <row r="51" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="52" spans="1:10" ht="13.5" customHeight="1" thickBot="1"/>
     <row r="53" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A53" s="105" t="s">
+      <c r="A53" s="104" t="s">
         <v>371</v>
       </c>
-      <c r="B53" s="106"/>
-      <c r="C53" s="106"/>
-      <c r="D53" s="107"/>
-      <c r="F53" s="105" t="s">
+      <c r="B53" s="105"/>
+      <c r="C53" s="105"/>
+      <c r="D53" s="106"/>
+      <c r="F53" s="104" t="s">
         <v>371</v>
       </c>
-      <c r="G53" s="106"/>
-      <c r="H53" s="106"/>
-      <c r="I53" s="107"/>
+      <c r="G53" s="105"/>
+      <c r="H53" s="105"/>
+      <c r="I53" s="106"/>
     </row>
     <row r="54" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A54" s="108" t="s">
+      <c r="A54" s="107" t="s">
         <v>376</v>
       </c>
-      <c r="B54" s="109"/>
-      <c r="C54" s="109"/>
-      <c r="D54" s="110"/>
-      <c r="F54" s="108" t="s">
+      <c r="B54" s="108"/>
+      <c r="C54" s="108"/>
+      <c r="D54" s="109"/>
+      <c r="F54" s="107" t="s">
         <v>377</v>
       </c>
-      <c r="G54" s="109"/>
-      <c r="H54" s="109"/>
-      <c r="I54" s="110"/>
+      <c r="G54" s="108"/>
+      <c r="H54" s="108"/>
+      <c r="I54" s="109"/>
     </row>
     <row r="55" spans="1:10" ht="13.5" customHeight="1">
       <c r="A55" s="8" t="s">
@@ -8545,32 +8545,32 @@
     <row r="64" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="65" spans="1:10" ht="12.75" customHeight="1" thickBot="1"/>
     <row r="66" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A66" s="105" t="s">
+      <c r="A66" s="104" t="s">
         <v>359</v>
       </c>
-      <c r="B66" s="106"/>
-      <c r="C66" s="106"/>
-      <c r="D66" s="107"/>
-      <c r="F66" s="105" t="s">
+      <c r="B66" s="105"/>
+      <c r="C66" s="105"/>
+      <c r="D66" s="106"/>
+      <c r="F66" s="104" t="s">
         <v>345</v>
       </c>
-      <c r="G66" s="106"/>
-      <c r="H66" s="106"/>
-      <c r="I66" s="107"/>
+      <c r="G66" s="105"/>
+      <c r="H66" s="105"/>
+      <c r="I66" s="106"/>
     </row>
     <row r="67" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A67" s="108" t="s">
-        <v>499</v>
-      </c>
-      <c r="B67" s="109"/>
-      <c r="C67" s="109"/>
-      <c r="D67" s="110"/>
-      <c r="F67" s="123" t="s">
+      <c r="A67" s="107" t="s">
+        <v>497</v>
+      </c>
+      <c r="B67" s="108"/>
+      <c r="C67" s="108"/>
+      <c r="D67" s="109"/>
+      <c r="F67" s="118" t="s">
         <v>350</v>
       </c>
-      <c r="G67" s="124"/>
-      <c r="H67" s="124"/>
-      <c r="I67" s="125"/>
+      <c r="G67" s="119"/>
+      <c r="H67" s="119"/>
+      <c r="I67" s="120"/>
     </row>
     <row r="68" spans="1:10" ht="12.75" customHeight="1" thickBot="1">
       <c r="A68" s="8" t="s">
@@ -8595,7 +8595,7 @@
         <v>357</v>
       </c>
       <c r="H68" s="79" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="I68" s="7" t="s">
         <v>310</v>
@@ -8670,46 +8670,46 @@
     </row>
     <row r="77" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="78" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A78" s="120" t="s">
+      <c r="A78" s="121" t="s">
         <v>308</v>
       </c>
-      <c r="B78" s="121"/>
-      <c r="C78" s="121"/>
-      <c r="D78" s="122"/>
-      <c r="F78" s="105" t="s">
+      <c r="B78" s="122"/>
+      <c r="C78" s="122"/>
+      <c r="D78" s="123"/>
+      <c r="F78" s="104" t="s">
         <v>234</v>
       </c>
-      <c r="G78" s="106"/>
-      <c r="H78" s="106"/>
-      <c r="I78" s="107"/>
+      <c r="G78" s="105"/>
+      <c r="H78" s="105"/>
+      <c r="I78" s="106"/>
     </row>
     <row r="79" spans="1:10">
-      <c r="A79" s="105" t="s">
+      <c r="A79" s="104" t="s">
         <v>232</v>
       </c>
-      <c r="B79" s="106"/>
-      <c r="C79" s="106"/>
-      <c r="D79" s="107"/>
+      <c r="B79" s="105"/>
+      <c r="C79" s="105"/>
+      <c r="D79" s="106"/>
       <c r="E79" t="s">
         <v>472</v>
       </c>
-      <c r="F79" s="108" t="s">
+      <c r="F79" s="107" t="s">
         <v>235</v>
       </c>
-      <c r="G79" s="109"/>
-      <c r="H79" s="109"/>
-      <c r="I79" s="110"/>
+      <c r="G79" s="108"/>
+      <c r="H79" s="108"/>
+      <c r="I79" s="109"/>
       <c r="J79" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="80" spans="1:10">
-      <c r="A80" s="108" t="s">
+      <c r="A80" s="107" t="s">
         <v>233</v>
       </c>
-      <c r="B80" s="109"/>
-      <c r="C80" s="109"/>
-      <c r="D80" s="110"/>
+      <c r="B80" s="108"/>
+      <c r="C80" s="108"/>
+      <c r="D80" s="109"/>
       <c r="F80" s="8" t="s">
         <v>237</v>
       </c>
@@ -8771,43 +8771,43 @@
     </row>
     <row r="85" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="86" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A86" s="120" t="s">
+      <c r="A86" s="121" t="s">
         <v>379</v>
       </c>
-      <c r="B86" s="121"/>
-      <c r="C86" s="121"/>
-      <c r="D86" s="122"/>
-      <c r="F86" s="120" t="s">
+      <c r="B86" s="122"/>
+      <c r="C86" s="122"/>
+      <c r="D86" s="123"/>
+      <c r="F86" s="121" t="s">
         <v>379</v>
       </c>
-      <c r="G86" s="121"/>
-      <c r="H86" s="121"/>
-      <c r="I86" s="122"/>
+      <c r="G86" s="122"/>
+      <c r="H86" s="122"/>
+      <c r="I86" s="123"/>
     </row>
     <row r="87" spans="1:10">
-      <c r="A87" s="105" t="s">
+      <c r="A87" s="104" t="s">
         <v>232</v>
       </c>
-      <c r="B87" s="106"/>
-      <c r="C87" s="106"/>
-      <c r="D87" s="107"/>
+      <c r="B87" s="105"/>
+      <c r="C87" s="105"/>
+      <c r="D87" s="106"/>
       <c r="E87" t="s">
         <v>474</v>
       </c>
-      <c r="F87" s="108" t="s">
+      <c r="F87" s="107" t="s">
         <v>235</v>
       </c>
-      <c r="G87" s="109"/>
-      <c r="H87" s="109"/>
-      <c r="I87" s="110"/>
+      <c r="G87" s="108"/>
+      <c r="H87" s="108"/>
+      <c r="I87" s="109"/>
     </row>
     <row r="88" spans="1:10">
-      <c r="A88" s="108" t="s">
+      <c r="A88" s="107" t="s">
         <v>233</v>
       </c>
-      <c r="B88" s="109"/>
-      <c r="C88" s="109"/>
-      <c r="D88" s="110"/>
+      <c r="B88" s="108"/>
+      <c r="C88" s="108"/>
+      <c r="D88" s="109"/>
       <c r="F88" s="8" t="s">
         <v>237</v>
       </c>
@@ -8894,7 +8894,7 @@
     </row>
     <row r="97" spans="5:20" ht="54">
       <c r="E97" s="59" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="F97" s="58">
         <v>4</v>
@@ -8903,7 +8903,7 @@
         <v>231</v>
       </c>
       <c r="H97" s="33" t="s">
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="L97" s="65"/>
       <c r="M97" s="66"/>
@@ -8945,7 +8945,7 @@
         <v>360</v>
       </c>
       <c r="H99" s="33" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="L99" s="65"/>
       <c r="M99" s="66"/>
@@ -9073,7 +9073,7 @@
         <v>379</v>
       </c>
       <c r="H105" s="57" t="s">
-        <v>485</v>
+        <v>501</v>
       </c>
       <c r="L105" s="65"/>
       <c r="M105" s="66"/>
@@ -9109,7 +9109,7 @@
         <v>256</v>
       </c>
       <c r="H107" s="95" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="L107" s="98"/>
       <c r="M107" s="99"/>
@@ -9130,7 +9130,7 @@
         <v>266</v>
       </c>
       <c r="H108" s="57" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="109" spans="5:20" ht="27">
@@ -9144,7 +9144,7 @@
         <v>265</v>
       </c>
       <c r="H109" s="57" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="110" spans="5:20" ht="27">
@@ -9173,21 +9173,21 @@
     </row>
     <row r="112" spans="5:20" ht="27">
       <c r="E112" s="59" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F112" s="58">
         <v>220</v>
       </c>
       <c r="G112" s="32" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="H112" s="57" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="113" spans="5:8" ht="54">
       <c r="E113" s="59" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F113" s="58">
         <v>230</v>
@@ -9247,30 +9247,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A66:D66"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="A86:D86"/>
-    <mergeCell ref="F86:I86"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="F53:I53"/>
-    <mergeCell ref="F54:I54"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="F66:I66"/>
-    <mergeCell ref="F67:I67"/>
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="A79:D79"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="F78:I78"/>
-    <mergeCell ref="F79:I79"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="F44:I44"/>
-    <mergeCell ref="F43:I43"/>
     <mergeCell ref="A87:D87"/>
     <mergeCell ref="F87:I87"/>
     <mergeCell ref="A88:D88"/>
@@ -9287,6 +9263,30 @@
     <mergeCell ref="A43:D43"/>
     <mergeCell ref="F24:I24"/>
     <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="A86:D86"/>
+    <mergeCell ref="F86:I86"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="F53:I53"/>
+    <mergeCell ref="F54:I54"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="F67:I67"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A79:D79"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="F78:I78"/>
+    <mergeCell ref="F79:I79"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="A53:D53"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -9333,7 +9333,7 @@
         <v>329</v>
       </c>
       <c r="B2" s="78" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="40.5">
@@ -9341,7 +9341,7 @@
         <v>330</v>
       </c>
       <c r="B3" s="78" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="81">
@@ -9349,7 +9349,7 @@
         <v>332</v>
       </c>
       <c r="B4" s="78" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="67.5">
@@ -9386,10 +9386,10 @@
     </row>
     <row r="9" spans="1:2" ht="27">
       <c r="A9" s="77" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B9" s="78" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
   </sheetData>
@@ -9410,44 +9410,44 @@
   <sheetData>
     <row r="10" spans="2:14" ht="14.25" thickBot="1"/>
     <row r="11" spans="2:14">
-      <c r="B11" s="105" t="s">
+      <c r="B11" s="104" t="s">
         <v>366</v>
       </c>
-      <c r="C11" s="106"/>
-      <c r="D11" s="106"/>
-      <c r="E11" s="107"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="106"/>
       <c r="F11" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="14.25" thickBot="1"/>
     <row r="13" spans="2:14">
-      <c r="B13" s="105" t="s">
+      <c r="B13" s="104" t="s">
         <v>367</v>
       </c>
-      <c r="C13" s="106"/>
-      <c r="D13" s="106"/>
-      <c r="E13" s="107"/>
-      <c r="J13" s="105" t="s">
+      <c r="C13" s="105"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="106"/>
+      <c r="J13" s="104" t="s">
         <v>367</v>
       </c>
-      <c r="K13" s="106"/>
-      <c r="L13" s="106"/>
-      <c r="M13" s="107"/>
+      <c r="K13" s="105"/>
+      <c r="L13" s="105"/>
+      <c r="M13" s="106"/>
     </row>
     <row r="14" spans="2:14">
-      <c r="B14" s="108" t="s">
+      <c r="B14" s="107" t="s">
         <v>484</v>
       </c>
-      <c r="C14" s="109"/>
-      <c r="D14" s="109"/>
-      <c r="E14" s="110"/>
-      <c r="J14" s="108" t="s">
+      <c r="C14" s="108"/>
+      <c r="D14" s="108"/>
+      <c r="E14" s="109"/>
+      <c r="J14" s="107" t="s">
         <v>365</v>
       </c>
-      <c r="K14" s="109"/>
-      <c r="L14" s="109"/>
-      <c r="M14" s="110"/>
+      <c r="K14" s="108"/>
+      <c r="L14" s="108"/>
+      <c r="M14" s="109"/>
     </row>
     <row r="15" spans="2:14" ht="14.25" thickBot="1">
       <c r="B15" s="8" t="s">
@@ -9528,16 +9528,16 @@
       </c>
     </row>
     <row r="3" spans="2:9">
-      <c r="B3" s="108" t="s">
+      <c r="B3" s="107" t="s">
         <v>443</v>
       </c>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="G3" s="108" t="s">
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="G3" s="107" t="s">
         <v>416</v>
       </c>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108"/>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="8" t="s">
@@ -9659,18 +9659,18 @@
       </c>
     </row>
     <row r="14" spans="2:9">
-      <c r="G14" s="108" t="s">
+      <c r="G14" s="107" t="s">
         <v>393</v>
       </c>
-      <c r="H14" s="109"/>
-      <c r="I14" s="109"/>
+      <c r="H14" s="108"/>
+      <c r="I14" s="108"/>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="108" t="s">
+      <c r="B15" s="107" t="s">
         <v>410</v>
       </c>
-      <c r="C15" s="109"/>
-      <c r="D15" s="109"/>
+      <c r="C15" s="108"/>
+      <c r="D15" s="108"/>
       <c r="G15" s="8" t="s">
         <v>399</v>
       </c>
@@ -9792,11 +9792,11 @@
       </c>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="108" t="s">
+      <c r="B25" s="107" t="s">
         <v>426</v>
       </c>
-      <c r="C25" s="109"/>
-      <c r="D25" s="109"/>
+      <c r="C25" s="108"/>
+      <c r="D25" s="108"/>
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="8" t="s">
@@ -9833,11 +9833,11 @@
       <c r="D28" s="89" t="s">
         <v>424</v>
       </c>
-      <c r="G28" s="108" t="s">
+      <c r="G28" s="107" t="s">
         <v>432</v>
       </c>
-      <c r="H28" s="109"/>
-      <c r="I28" s="109"/>
+      <c r="H28" s="108"/>
+      <c r="I28" s="108"/>
     </row>
     <row r="29" spans="2:9">
       <c r="B29" s="8"/>
@@ -9884,11 +9884,11 @@
       <c r="I32" s="89"/>
     </row>
     <row r="33" spans="2:9">
-      <c r="B33" s="108" t="s">
+      <c r="B33" s="107" t="s">
         <v>429</v>
       </c>
-      <c r="C33" s="109"/>
-      <c r="D33" s="109"/>
+      <c r="C33" s="108"/>
+      <c r="D33" s="108"/>
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="8" t="s">
@@ -9928,11 +9928,11 @@
       <c r="D37" s="89"/>
     </row>
     <row r="40" spans="2:9">
-      <c r="G40" s="108" t="s">
+      <c r="G40" s="107" t="s">
         <v>435</v>
       </c>
-      <c r="H40" s="109"/>
-      <c r="I40" s="109"/>
+      <c r="H40" s="108"/>
+      <c r="I40" s="108"/>
     </row>
     <row r="41" spans="2:9">
       <c r="G41" s="8" t="s">
@@ -9984,11 +9984,11 @@
       </c>
     </row>
     <row r="49" spans="2:6">
-      <c r="B49" s="108" t="s">
+      <c r="B49" s="107" t="s">
         <v>454</v>
       </c>
-      <c r="C49" s="109"/>
-      <c r="D49" s="109"/>
+      <c r="C49" s="108"/>
+      <c r="D49" s="108"/>
     </row>
     <row r="50" spans="2:6">
       <c r="B50" s="8" t="s">
@@ -10043,11 +10043,11 @@
       </c>
     </row>
     <row r="59" spans="2:6">
-      <c r="B59" s="108" t="s">
+      <c r="B59" s="107" t="s">
         <v>459</v>
       </c>
-      <c r="C59" s="109"/>
-      <c r="D59" s="109"/>
+      <c r="C59" s="108"/>
+      <c r="D59" s="108"/>
     </row>
     <row r="60" spans="2:6">
       <c r="B60" s="8" t="s">

--- a/doc/最新接口_拟定.xlsx
+++ b/doc/最新接口_拟定.xlsx
@@ -1069,7 +1069,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="500">
   <si>
     <t>int</t>
   </si>
@@ -2084,10 +2084,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>摸牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>操作数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2439,14 +2435,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>251：平胡
-252:七对
-253:一色
-254:点杠胡
-255：刚上开花</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>游戏数据附加值2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3008,10 +2996,6 @@
     <t>0:局数
 1:最大番数
 2:玩法位集合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dval:0;Dlist:打牌的内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3047,22 +3031,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dVal:杠的子类型
-dlist:杠的内容（明杠，四风传空，三剑客只需要传多余的那一张牌；暗杠，捡杠：需要传一张目标牌即可）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>uid:uid
 dval:内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>吃牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uid:uid
-dval:换牌内容（其他人看到的为剩余手牌数量）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3074,10 +3048,6 @@
   <si>
     <t>KVData:可操作类型otype集合&gt;&gt;k:optype,v:subType(子类),dlist:详情
 注：可吃的时候，传2个数(不包含所吃的牌)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dVal:0;dlist：吃牌的内容：传2个数(不包含所吃的牌)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3109,6 +3079,29 @@
     <t>uid:uid
 dvlue:压跑内容
 KVData:玩家id-已压跑情况（发送的是已压过跑并且是压跑的数值0-5，没有发送的是等待压跑）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>250：平胡
+251：自摸
+252:七对
+253:一色
+254:抢杠胡
+255：杠上开花
+256：杠后胡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uid:自己id,dval:0;Dlist:打牌的内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uid:自己id，dVal:0;dlist：吃牌的内容：传2个数(不包含所吃的牌)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uid:自己id，dVal:杠的子类型
+dlist:杠的内容（明杠，四风传空，三剑客只需要传多余的那一张牌；暗杠，捡杠：需要传一张目标牌即可）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3717,7 +3710,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3879,30 +3872,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3922,6 +3900,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3931,19 +3915,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3955,23 +3945,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4290,32 +4265,32 @@
   <sheetData>
     <row r="3" spans="2:16" ht="14.25" thickBot="1"/>
     <row r="4" spans="2:16">
-      <c r="B4" s="104" t="s">
+      <c r="B4" s="99" t="s">
         <v>232</v>
       </c>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="106"/>
-      <c r="I4" s="104" t="s">
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="101"/>
+      <c r="I4" s="99" t="s">
         <v>234</v>
       </c>
-      <c r="J4" s="105"/>
-      <c r="K4" s="105"/>
-      <c r="L4" s="106"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="101"/>
     </row>
     <row r="5" spans="2:16">
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="102" t="s">
         <v>233</v>
       </c>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="109"/>
-      <c r="I5" s="107" t="s">
-        <v>477</v>
-      </c>
-      <c r="J5" s="108"/>
-      <c r="K5" s="108"/>
-      <c r="L5" s="109"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="104"/>
+      <c r="I5" s="102" t="s">
+        <v>475</v>
+      </c>
+      <c r="J5" s="103"/>
+      <c r="K5" s="103"/>
+      <c r="L5" s="104"/>
     </row>
     <row r="6" spans="2:16">
       <c r="B6" s="8"/>
@@ -4365,13 +4340,13 @@
     </row>
     <row r="9" spans="2:16">
       <c r="I9" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J9" s="55" t="s">
         <v>238</v>
       </c>
       <c r="K9" s="55" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L9" s="56" t="s">
         <v>240</v>
@@ -4379,21 +4354,21 @@
     </row>
     <row r="11" spans="2:16" ht="14.25" customHeight="1"/>
     <row r="14" spans="2:16" ht="14.25" thickBot="1">
-      <c r="I14" s="113" t="s">
+      <c r="I14" s="96" t="s">
         <v>54</v>
       </c>
-      <c r="J14" s="114"/>
-      <c r="K14" s="114"/>
-      <c r="L14" s="114"/>
-      <c r="M14" s="115"/>
+      <c r="J14" s="97"/>
+      <c r="K14" s="97"/>
+      <c r="L14" s="97"/>
+      <c r="M14" s="98"/>
     </row>
     <row r="15" spans="2:16">
-      <c r="B15" s="104" t="s">
+      <c r="B15" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="105"/>
-      <c r="D15" s="105"/>
-      <c r="E15" s="106"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="101"/>
       <c r="I15" s="21" t="s">
         <v>34</v>
       </c>
@@ -4408,18 +4383,18 @@
         <v>34</v>
       </c>
       <c r="N15" s="3"/>
-      <c r="O15" s="102" t="s">
+      <c r="O15" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="P15" s="103"/>
+      <c r="P15" s="106"/>
     </row>
     <row r="16" spans="2:16">
-      <c r="B16" s="107" t="s">
+      <c r="B16" s="102" t="s">
         <v>233</v>
       </c>
-      <c r="C16" s="108"/>
-      <c r="D16" s="108"/>
-      <c r="E16" s="109"/>
+      <c r="C16" s="103"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="104"/>
       <c r="I16" s="33"/>
       <c r="J16" s="30"/>
       <c r="K16" s="31">
@@ -4447,7 +4422,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="82" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>14</v>
@@ -4479,7 +4454,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="72" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E18" s="20" t="s">
         <v>13</v>
@@ -4608,10 +4583,10 @@
     </row>
     <row r="22" spans="2:16" ht="27.75" thickBot="1">
       <c r="B22" s="5" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>34</v>
@@ -4917,12 +4892,12 @@
       <c r="P37" s="23"/>
     </row>
     <row r="38" spans="2:16">
-      <c r="B38" s="110" t="s">
-        <v>260</v>
-      </c>
-      <c r="C38" s="111"/>
-      <c r="D38" s="111"/>
-      <c r="E38" s="112"/>
+      <c r="B38" s="107" t="s">
+        <v>259</v>
+      </c>
+      <c r="C38" s="108"/>
+      <c r="D38" s="108"/>
+      <c r="E38" s="109"/>
       <c r="I38" s="33" t="s">
         <v>117</v>
       </c>
@@ -5004,18 +4979,18 @@
     <row r="42" spans="2:16" ht="22.5" customHeight="1"/>
     <row r="43" spans="2:16" ht="31.5" customHeight="1"/>
     <row r="44" spans="2:16">
-      <c r="H44" s="102" t="s">
+      <c r="H44" s="105" t="s">
         <v>247</v>
       </c>
-      <c r="I44" s="103"/>
-      <c r="J44" s="102" t="s">
+      <c r="I44" s="106"/>
+      <c r="J44" s="105" t="s">
         <v>116</v>
       </c>
-      <c r="K44" s="103"/>
-      <c r="L44" s="102" t="s">
+      <c r="K44" s="106"/>
+      <c r="L44" s="105" t="s">
         <v>77</v>
       </c>
-      <c r="M44" s="103"/>
+      <c r="M44" s="106"/>
     </row>
     <row r="45" spans="2:16">
       <c r="H45" s="22">
@@ -5131,11 +5106,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="I14:M14"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="I5:L5"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="J44:K44"/>
     <mergeCell ref="L44:M44"/>
@@ -5143,6 +5113,11 @@
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="H44:I44"/>
     <mergeCell ref="B38:E38"/>
+    <mergeCell ref="I14:M14"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="I5:L5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5336,11 +5311,11 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="4"/>
-      <c r="B10" s="121" t="s">
+      <c r="B10" s="114" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="122"/>
-      <c r="D10" s="123"/>
+      <c r="C10" s="115"/>
+      <c r="D10" s="116"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -5349,11 +5324,11 @@
       <c r="J10" s="4"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="121" t="s">
+      <c r="M10" s="114" t="s">
         <v>28</v>
       </c>
-      <c r="N10" s="122"/>
-      <c r="O10" s="123"/>
+      <c r="N10" s="115"/>
+      <c r="O10" s="116"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -5363,11 +5338,11 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="4"/>
-      <c r="B11" s="118" t="s">
+      <c r="B11" s="117" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="119"/>
-      <c r="D11" s="120"/>
+      <c r="C11" s="118"/>
+      <c r="D11" s="119"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -5376,11 +5351,11 @@
       <c r="J11" s="4"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="118" t="s">
+      <c r="M11" s="117" t="s">
         <v>27</v>
       </c>
-      <c r="N11" s="119"/>
-      <c r="O11" s="120"/>
+      <c r="N11" s="118"/>
+      <c r="O11" s="119"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -5501,11 +5476,11 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="4"/>
-      <c r="B17" s="121" t="s">
+      <c r="B17" s="114" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="122"/>
-      <c r="D17" s="123"/>
+      <c r="C17" s="115"/>
+      <c r="D17" s="116"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -5514,11 +5489,11 @@
       <c r="J17" s="4"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="121" t="s">
+      <c r="M17" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="N17" s="122"/>
-      <c r="O17" s="123"/>
+      <c r="N17" s="115"/>
+      <c r="O17" s="116"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -5527,11 +5502,11 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="4"/>
-      <c r="B18" s="118" t="s">
+      <c r="B18" s="117" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="119"/>
-      <c r="D18" s="120"/>
+      <c r="C18" s="118"/>
+      <c r="D18" s="119"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -5540,11 +5515,11 @@
       <c r="J18" s="4"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="118" t="s">
+      <c r="M18" s="117" t="s">
         <v>129</v>
       </c>
-      <c r="N18" s="119"/>
-      <c r="O18" s="120"/>
+      <c r="N18" s="118"/>
+      <c r="O18" s="119"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -5584,9 +5559,9 @@
     </row>
     <row r="20" spans="1:21" ht="41.25" thickBot="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="121"/>
-      <c r="C20" s="122"/>
-      <c r="D20" s="123"/>
+      <c r="B20" s="114"/>
+      <c r="C20" s="115"/>
+      <c r="D20" s="116"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -5615,11 +5590,11 @@
     </row>
     <row r="21" spans="1:21" ht="14.25" thickBot="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="118" t="s">
+      <c r="B21" s="117" t="s">
         <v>129</v>
       </c>
-      <c r="C21" s="119"/>
-      <c r="D21" s="120"/>
+      <c r="C21" s="118"/>
+      <c r="D21" s="119"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -5686,11 +5661,11 @@
       <c r="J23" s="4"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="121" t="s">
+      <c r="M23" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="N23" s="122"/>
-      <c r="O23" s="123"/>
+      <c r="N23" s="115"/>
+      <c r="O23" s="116"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
@@ -5711,11 +5686,11 @@
       <c r="J24" s="4"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-      <c r="M24" s="118" t="s">
+      <c r="M24" s="117" t="s">
         <v>69</v>
       </c>
-      <c r="N24" s="119"/>
-      <c r="O24" s="120"/>
+      <c r="N24" s="118"/>
+      <c r="O24" s="119"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
@@ -5848,11 +5823,11 @@
       <c r="J29" s="4"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
-      <c r="M29" s="121" t="s">
+      <c r="M29" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="N29" s="122"/>
-      <c r="O29" s="123"/>
+      <c r="N29" s="115"/>
+      <c r="O29" s="116"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
@@ -5873,11 +5848,11 @@
       <c r="J30" s="4"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="118" t="s">
+      <c r="M30" s="117" t="s">
         <v>69</v>
       </c>
-      <c r="N30" s="119"/>
-      <c r="O30" s="120"/>
+      <c r="N30" s="118"/>
+      <c r="O30" s="119"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
@@ -6033,11 +6008,11 @@
       <c r="J36" s="4"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
-      <c r="M36" s="121" t="s">
+      <c r="M36" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="N36" s="122"/>
-      <c r="O36" s="123"/>
+      <c r="N36" s="115"/>
+      <c r="O36" s="116"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
@@ -6058,11 +6033,11 @@
       <c r="J37" s="4"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
-      <c r="M37" s="118" t="s">
+      <c r="M37" s="117" t="s">
         <v>69</v>
       </c>
-      <c r="N37" s="119"/>
-      <c r="O37" s="120"/>
+      <c r="N37" s="118"/>
+      <c r="O37" s="119"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
@@ -6241,14 +6216,14 @@
       <c r="J44" s="4"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
-      <c r="M44" s="121" t="s">
+      <c r="M44" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="N44" s="122"/>
-      <c r="O44" s="122"/>
-      <c r="P44" s="122"/>
-      <c r="Q44" s="122"/>
-      <c r="R44" s="123"/>
+      <c r="N44" s="115"/>
+      <c r="O44" s="115"/>
+      <c r="P44" s="115"/>
+      <c r="Q44" s="115"/>
+      <c r="R44" s="116"/>
       <c r="S44" s="2"/>
       <c r="T44" s="3"/>
       <c r="U44" s="3"/>
@@ -6266,14 +6241,14 @@
       <c r="J45" s="4"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
-      <c r="M45" s="118" t="s">
-        <v>274</v>
-      </c>
-      <c r="N45" s="119"/>
-      <c r="O45" s="119"/>
-      <c r="P45" s="119"/>
-      <c r="Q45" s="119"/>
-      <c r="R45" s="120"/>
+      <c r="M45" s="117" t="s">
+        <v>273</v>
+      </c>
+      <c r="N45" s="118"/>
+      <c r="O45" s="118"/>
+      <c r="P45" s="118"/>
+      <c r="Q45" s="118"/>
+      <c r="R45" s="119"/>
       <c r="S45" s="2"/>
       <c r="T45" s="3"/>
       <c r="U45" s="3"/>
@@ -6300,11 +6275,11 @@
       <c r="O46" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="P46" s="124" t="s">
+      <c r="P46" s="120" t="s">
         <v>130</v>
       </c>
-      <c r="Q46" s="124"/>
-      <c r="R46" s="125"/>
+      <c r="Q46" s="120"/>
+      <c r="R46" s="121"/>
       <c r="S46" s="2"/>
       <c r="T46" s="3"/>
       <c r="U46" s="3"/>
@@ -6331,22 +6306,22 @@
       <c r="O47" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="P47" s="124" t="s">
+      <c r="P47" s="120" t="s">
         <v>149</v>
       </c>
-      <c r="Q47" s="124"/>
-      <c r="R47" s="125"/>
+      <c r="Q47" s="120"/>
+      <c r="R47" s="121"/>
       <c r="S47" s="2"/>
       <c r="T47" s="3"/>
       <c r="U47" s="3"/>
     </row>
     <row r="48" spans="1:21">
       <c r="A48" s="1"/>
-      <c r="B48" s="121" t="s">
+      <c r="B48" s="114" t="s">
         <v>114</v>
       </c>
-      <c r="C48" s="122"/>
-      <c r="D48" s="123"/>
+      <c r="C48" s="115"/>
+      <c r="D48" s="116"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -6364,22 +6339,22 @@
       <c r="O48" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P48" s="124" t="s">
+      <c r="P48" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="Q48" s="124"/>
-      <c r="R48" s="125"/>
+      <c r="Q48" s="120"/>
+      <c r="R48" s="121"/>
       <c r="S48" s="2"/>
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
     </row>
     <row r="49" spans="1:21">
       <c r="A49" s="1"/>
-      <c r="B49" s="118" t="s">
+      <c r="B49" s="117" t="s">
         <v>112</v>
       </c>
-      <c r="C49" s="119"/>
-      <c r="D49" s="120"/>
+      <c r="C49" s="118"/>
+      <c r="D49" s="119"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -6436,11 +6411,11 @@
       <c r="O50" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P50" s="124" t="s">
+      <c r="P50" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="Q50" s="124"/>
-      <c r="R50" s="125"/>
+      <c r="Q50" s="120"/>
+      <c r="R50" s="121"/>
       <c r="S50" s="2"/>
       <c r="T50" s="3"/>
       <c r="U50" s="3"/>
@@ -6467,11 +6442,11 @@
       <c r="O51" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="P51" s="124" t="s">
+      <c r="P51" s="120" t="s">
         <v>20</v>
       </c>
-      <c r="Q51" s="124"/>
-      <c r="R51" s="125"/>
+      <c r="Q51" s="120"/>
+      <c r="R51" s="121"/>
       <c r="S51" s="2"/>
       <c r="T51" s="3"/>
       <c r="U51" s="3"/>
@@ -6529,11 +6504,11 @@
       <c r="O53" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="P53" s="124" t="s">
+      <c r="P53" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="Q53" s="124"/>
-      <c r="R53" s="125"/>
+      <c r="Q53" s="120"/>
+      <c r="R53" s="121"/>
       <c r="S53" s="2"/>
       <c r="T53" s="3"/>
       <c r="U53" s="3"/>
@@ -6698,13 +6673,13 @@
       <c r="J59" s="4"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
-      <c r="M59" s="121" t="s">
+      <c r="M59" s="114" t="s">
         <v>136</v>
       </c>
-      <c r="N59" s="122"/>
-      <c r="O59" s="122"/>
-      <c r="P59" s="122"/>
-      <c r="Q59" s="123"/>
+      <c r="N59" s="115"/>
+      <c r="O59" s="115"/>
+      <c r="P59" s="115"/>
+      <c r="Q59" s="116"/>
       <c r="R59" s="1"/>
       <c r="S59" s="2"/>
       <c r="T59" s="3"/>
@@ -6732,10 +6707,10 @@
       <c r="O60" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="P60" s="116" t="s">
+      <c r="P60" s="112" t="s">
         <v>137</v>
       </c>
-      <c r="Q60" s="117"/>
+      <c r="Q60" s="113"/>
       <c r="R60" s="1"/>
       <c r="S60" s="2"/>
       <c r="T60" s="3"/>
@@ -6763,10 +6738,10 @@
       <c r="O61" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="P61" s="116" t="s">
+      <c r="P61" s="112" t="s">
         <v>140</v>
       </c>
-      <c r="Q61" s="117"/>
+      <c r="Q61" s="113"/>
       <c r="R61" s="1"/>
       <c r="S61" s="2"/>
       <c r="T61" s="3"/>
@@ -6794,10 +6769,10 @@
       <c r="O62" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="P62" s="116" t="s">
+      <c r="P62" s="112" t="s">
         <v>22</v>
       </c>
-      <c r="Q62" s="117"/>
+      <c r="Q62" s="113"/>
       <c r="R62" s="1"/>
       <c r="S62" s="2"/>
       <c r="T62" s="3"/>
@@ -6825,10 +6800,10 @@
       <c r="O63" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P63" s="126" t="s">
+      <c r="P63" s="110" t="s">
         <v>23</v>
       </c>
-      <c r="Q63" s="127"/>
+      <c r="Q63" s="111"/>
       <c r="R63" s="1"/>
       <c r="S63" s="2"/>
       <c r="T63" s="3"/>
@@ -6856,10 +6831,10 @@
       <c r="O64" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P64" s="116" t="s">
+      <c r="P64" s="112" t="s">
         <v>161</v>
       </c>
-      <c r="Q64" s="117"/>
+      <c r="Q64" s="113"/>
       <c r="R64" s="1"/>
       <c r="S64" s="2"/>
       <c r="T64" s="3"/>
@@ -6887,10 +6862,10 @@
       <c r="O65" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="P65" s="116" t="s">
+      <c r="P65" s="112" t="s">
         <v>60</v>
       </c>
-      <c r="Q65" s="117"/>
+      <c r="Q65" s="113"/>
       <c r="R65" s="1"/>
       <c r="S65" s="2"/>
       <c r="T65" s="3"/>
@@ -6918,10 +6893,10 @@
       <c r="O66" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P66" s="116" t="s">
+      <c r="P66" s="112" t="s">
         <v>218</v>
       </c>
-      <c r="Q66" s="117"/>
+      <c r="Q66" s="113"/>
       <c r="R66" s="1"/>
       <c r="S66" s="2"/>
       <c r="T66" s="3"/>
@@ -6949,10 +6924,10 @@
       <c r="O67" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P67" s="116" t="s">
+      <c r="P67" s="112" t="s">
         <v>217</v>
       </c>
-      <c r="Q67" s="117"/>
+      <c r="Q67" s="113"/>
       <c r="R67" s="1"/>
       <c r="S67" s="1"/>
       <c r="T67" s="3"/>
@@ -6994,13 +6969,13 @@
       <c r="J69" s="4"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
-      <c r="M69" s="121" t="s">
+      <c r="M69" s="114" t="s">
         <v>176</v>
       </c>
-      <c r="N69" s="122"/>
-      <c r="O69" s="122"/>
-      <c r="P69" s="122"/>
-      <c r="Q69" s="123"/>
+      <c r="N69" s="115"/>
+      <c r="O69" s="115"/>
+      <c r="P69" s="115"/>
+      <c r="Q69" s="116"/>
       <c r="R69" s="1"/>
       <c r="S69" s="1"/>
       <c r="T69" s="3"/>
@@ -7019,13 +6994,13 @@
       <c r="J70" s="4"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
-      <c r="M70" s="121" t="s">
+      <c r="M70" s="114" t="s">
         <v>177</v>
       </c>
-      <c r="N70" s="122"/>
-      <c r="O70" s="122"/>
-      <c r="P70" s="122"/>
-      <c r="Q70" s="123"/>
+      <c r="N70" s="115"/>
+      <c r="O70" s="115"/>
+      <c r="P70" s="115"/>
+      <c r="Q70" s="116"/>
       <c r="R70" s="1"/>
       <c r="S70" s="1"/>
       <c r="T70" s="3"/>
@@ -7053,10 +7028,10 @@
       <c r="O71" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="P71" s="126" t="s">
+      <c r="P71" s="110" t="s">
         <v>201</v>
       </c>
-      <c r="Q71" s="127"/>
+      <c r="Q71" s="111"/>
       <c r="R71" s="1"/>
       <c r="S71" s="1"/>
       <c r="T71" s="3"/>
@@ -7084,10 +7059,10 @@
       <c r="O72" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="P72" s="126" t="s">
+      <c r="P72" s="110" t="s">
         <v>193</v>
       </c>
-      <c r="Q72" s="127"/>
+      <c r="Q72" s="111"/>
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
       <c r="T72" s="3"/>
@@ -7115,10 +7090,10 @@
       <c r="O73" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="P73" s="126" t="s">
+      <c r="P73" s="110" t="s">
         <v>190</v>
       </c>
-      <c r="Q73" s="127"/>
+      <c r="Q73" s="111"/>
       <c r="R73" s="1"/>
       <c r="S73" s="1"/>
       <c r="T73" s="3"/>
@@ -7175,10 +7150,10 @@
       <c r="O75" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P75" s="116" t="s">
+      <c r="P75" s="112" t="s">
         <v>219</v>
       </c>
-      <c r="Q75" s="117"/>
+      <c r="Q75" s="113"/>
       <c r="R75" s="1"/>
       <c r="S75" s="1"/>
       <c r="T75" s="3"/>
@@ -7206,10 +7181,10 @@
       <c r="O76" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P76" s="116" t="s">
+      <c r="P76" s="112" t="s">
         <v>220</v>
       </c>
-      <c r="Q76" s="117"/>
+      <c r="Q76" s="113"/>
       <c r="R76" s="1"/>
       <c r="S76" s="1"/>
       <c r="T76" s="3"/>
@@ -7251,11 +7226,11 @@
       <c r="J78" s="4"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
-      <c r="M78" s="118" t="s">
+      <c r="M78" s="117" t="s">
         <v>191</v>
       </c>
-      <c r="N78" s="119"/>
-      <c r="O78" s="120"/>
+      <c r="N78" s="118"/>
+      <c r="O78" s="119"/>
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
       <c r="R78" s="1"/>
@@ -7357,11 +7332,11 @@
       <c r="J82" s="4"/>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
-      <c r="M82" s="118" t="s">
+      <c r="M82" s="117" t="s">
         <v>183</v>
       </c>
-      <c r="N82" s="119"/>
-      <c r="O82" s="120"/>
+      <c r="N82" s="118"/>
+      <c r="O82" s="119"/>
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
       <c r="R82" s="1"/>
@@ -7872,6 +7847,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="M78:O78"/>
+    <mergeCell ref="M82:O82"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="M59:Q59"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P51:R51"/>
+    <mergeCell ref="P53:R53"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="M44:R44"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="M45:R45"/>
+    <mergeCell ref="P46:R46"/>
+    <mergeCell ref="P47:R47"/>
+    <mergeCell ref="P48:R48"/>
+    <mergeCell ref="P50:R50"/>
     <mergeCell ref="P63:Q63"/>
     <mergeCell ref="P66:Q66"/>
     <mergeCell ref="B48:D48"/>
@@ -7888,34 +7891,6 @@
     <mergeCell ref="P60:Q60"/>
     <mergeCell ref="P62:Q62"/>
     <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="M45:R45"/>
-    <mergeCell ref="P46:R46"/>
-    <mergeCell ref="P47:R47"/>
-    <mergeCell ref="P48:R48"/>
-    <mergeCell ref="P50:R50"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="M44:R44"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="M78:O78"/>
-    <mergeCell ref="M82:O82"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="M59:Q59"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P51:R51"/>
-    <mergeCell ref="P53:R53"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="M29:O29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7927,8 +7902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:T118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F88" workbookViewId="0">
-      <selection activeCell="H98" sqref="H98"/>
+    <sheetView tabSelected="1" topLeftCell="D94" workbookViewId="0">
+      <selection activeCell="H101" sqref="H101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7944,86 +7919,86 @@
   <sheetData>
     <row r="2" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="3" spans="1:10">
-      <c r="A3" s="104" t="s">
+      <c r="A3" s="99" t="s">
+        <v>279</v>
+      </c>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="101"/>
+      <c r="F3" s="99" t="s">
+        <v>290</v>
+      </c>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="101"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="102" t="s">
         <v>280</v>
       </c>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="106"/>
-      <c r="F3" s="104" t="s">
-        <v>291</v>
-      </c>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="106"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="107" t="s">
-        <v>281</v>
-      </c>
-      <c r="B4" s="108"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="109"/>
-      <c r="F4" s="107" t="s">
-        <v>284</v>
-      </c>
-      <c r="G4" s="108"/>
-      <c r="H4" s="108"/>
-      <c r="I4" s="109"/>
+      <c r="B4" s="103"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="104"/>
+      <c r="F4" s="102" t="s">
+        <v>283</v>
+      </c>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="104"/>
     </row>
     <row r="5" spans="1:10" ht="14.25" thickBot="1">
       <c r="A5" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B5" s="73" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="73" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G5" s="73" t="s">
         <v>0</v>
       </c>
       <c r="H5" s="73" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I5" s="20" t="s">
         <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="14.25" thickBot="1">
       <c r="A6" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B6" s="73" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="73" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G6" s="73" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="73" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I6" s="20" t="s">
         <v>13</v>
@@ -8031,39 +8006,39 @@
     </row>
     <row r="7" spans="1:10" ht="14.25" thickBot="1">
       <c r="A7" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="B7" s="73" t="s">
+        <v>310</v>
+      </c>
+      <c r="C7" s="80" t="s">
+        <v>327</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="B7" s="73" t="s">
-        <v>311</v>
-      </c>
-      <c r="C7" s="80" t="s">
-        <v>328</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>310</v>
-      </c>
       <c r="F7" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G7" s="73" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H7" s="73" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.25" thickBot="1">
       <c r="F8" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G8" s="73" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H8" s="80" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I8" s="20" t="s">
         <v>13</v>
@@ -8071,55 +8046,55 @@
     </row>
     <row r="9" spans="1:10" ht="14.25" thickBot="1">
       <c r="F9" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="G9" s="75" t="s">
+        <v>319</v>
+      </c>
+      <c r="H9" s="75" t="s">
         <v>322</v>
       </c>
-      <c r="G9" s="75" t="s">
+      <c r="I9" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="H9" s="75" t="s">
-        <v>323</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="14.25" thickBot="1">
       <c r="F10" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="G10" s="75" t="s">
+        <v>319</v>
+      </c>
+      <c r="H10" s="75" t="s">
         <v>325</v>
       </c>
-      <c r="G10" s="75" t="s">
+      <c r="I10" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="H10" s="75" t="s">
-        <v>326</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.25" thickBot="1">
       <c r="F11" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="G11" s="75" t="s">
         <v>319</v>
       </c>
-      <c r="G11" s="75" t="s">
+      <c r="H11" s="75" t="s">
+        <v>323</v>
+      </c>
+      <c r="I11" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="H11" s="75" t="s">
-        <v>324</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="14.25" thickBot="1">
       <c r="F12" s="8" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G12" s="82" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H12" s="81" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="I12" s="20" t="s">
         <v>13</v>
@@ -8127,60 +8102,60 @@
     </row>
     <row r="15" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="16" spans="1:10">
-      <c r="A16" s="104" t="s">
+      <c r="A16" s="99" t="s">
+        <v>277</v>
+      </c>
+      <c r="B16" s="100"/>
+      <c r="C16" s="100"/>
+      <c r="D16" s="101"/>
+      <c r="F16" s="99" t="s">
+        <v>277</v>
+      </c>
+      <c r="G16" s="100"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="101"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="102" t="s">
         <v>278</v>
       </c>
-      <c r="B16" s="105"/>
-      <c r="C16" s="105"/>
-      <c r="D16" s="106"/>
-      <c r="F16" s="104" t="s">
-        <v>278</v>
-      </c>
-      <c r="G16" s="105"/>
-      <c r="H16" s="105"/>
-      <c r="I16" s="106"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="107" t="s">
-        <v>279</v>
-      </c>
-      <c r="B17" s="108"/>
-      <c r="C17" s="108"/>
-      <c r="D17" s="109"/>
-      <c r="F17" s="107" t="s">
-        <v>368</v>
-      </c>
-      <c r="G17" s="108"/>
-      <c r="H17" s="108"/>
-      <c r="I17" s="109"/>
+      <c r="B17" s="103"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="104"/>
+      <c r="F17" s="102" t="s">
+        <v>366</v>
+      </c>
+      <c r="G17" s="103"/>
+      <c r="H17" s="103"/>
+      <c r="I17" s="104"/>
       <c r="J17" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B18" s="73" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="73" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D18" s="73" t="s">
         <v>72</v>
       </c>
       <c r="E18" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>132</v>
       </c>
       <c r="G18" s="73" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H18" s="73" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I18" s="74" t="s">
         <v>14</v>
@@ -8188,13 +8163,13 @@
     </row>
     <row r="19" spans="1:10" ht="14.25" thickBot="1">
       <c r="A19" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="B19" s="73" t="s">
+        <v>293</v>
+      </c>
+      <c r="C19" s="73" t="s">
         <v>295</v>
-      </c>
-      <c r="B19" s="73" t="s">
-        <v>294</v>
-      </c>
-      <c r="C19" s="73" t="s">
-        <v>296</v>
       </c>
       <c r="D19" s="20" t="s">
         <v>13</v>
@@ -8202,20 +8177,20 @@
     </row>
     <row r="23" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="24" spans="1:10">
-      <c r="F24" s="104" t="s">
+      <c r="F24" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="G24" s="100"/>
+      <c r="H24" s="100"/>
+      <c r="I24" s="101"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="F25" s="102" t="s">
         <v>303</v>
       </c>
-      <c r="G24" s="105"/>
-      <c r="H24" s="105"/>
-      <c r="I24" s="106"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="F25" s="107" t="s">
-        <v>304</v>
-      </c>
-      <c r="G25" s="108"/>
-      <c r="H25" s="108"/>
-      <c r="I25" s="109"/>
+      <c r="G25" s="103"/>
+      <c r="H25" s="103"/>
+      <c r="I25" s="104"/>
     </row>
     <row r="26" spans="1:10">
       <c r="F26" s="8" t="s">
@@ -8225,7 +8200,7 @@
         <v>0</v>
       </c>
       <c r="H26" s="82" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I26" s="73" t="s">
         <v>72</v>
@@ -8236,33 +8211,33 @@
     </row>
     <row r="31" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="32" spans="1:10">
-      <c r="A32" s="104" t="s">
-        <v>285</v>
-      </c>
-      <c r="B32" s="105"/>
-      <c r="C32" s="105"/>
-      <c r="D32" s="106"/>
-      <c r="F32" s="104" t="s">
+      <c r="A32" s="99" t="s">
+        <v>284</v>
+      </c>
+      <c r="B32" s="100"/>
+      <c r="C32" s="100"/>
+      <c r="D32" s="101"/>
+      <c r="F32" s="99" t="s">
+        <v>311</v>
+      </c>
+      <c r="G32" s="100"/>
+      <c r="H32" s="100"/>
+      <c r="I32" s="101"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="102" t="s">
+        <v>286</v>
+      </c>
+      <c r="B33" s="103"/>
+      <c r="C33" s="103"/>
+      <c r="D33" s="104"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="102" t="s">
         <v>312</v>
       </c>
-      <c r="G32" s="105"/>
-      <c r="H32" s="105"/>
-      <c r="I32" s="106"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="107" t="s">
-        <v>287</v>
-      </c>
-      <c r="B33" s="108"/>
-      <c r="C33" s="108"/>
-      <c r="D33" s="109"/>
-      <c r="E33" s="77"/>
-      <c r="F33" s="107" t="s">
-        <v>313</v>
-      </c>
-      <c r="G33" s="108"/>
-      <c r="H33" s="108"/>
-      <c r="I33" s="109"/>
+      <c r="G33" s="103"/>
+      <c r="H33" s="103"/>
+      <c r="I33" s="104"/>
     </row>
     <row r="34" spans="1:10" ht="14.25" thickBot="1">
       <c r="A34" s="8" t="s">
@@ -8272,54 +8247,54 @@
         <v>0</v>
       </c>
       <c r="C34" s="82" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D34" s="73" t="s">
         <v>72</v>
       </c>
       <c r="E34" s="77"/>
       <c r="F34" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="G34" s="73" t="s">
         <v>314</v>
       </c>
-      <c r="G34" s="73" t="s">
-        <v>315</v>
-      </c>
       <c r="H34" s="73" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="14.25" thickBot="1">
       <c r="A35" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B35" s="82" t="s">
         <v>142</v>
       </c>
       <c r="C35" s="82" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D35" s="20" t="s">
         <v>13</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G35" s="82" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H35" s="73" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="14.25" thickBot="1">
       <c r="A36" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B36" s="73" t="s">
         <v>0</v>
@@ -8331,16 +8306,16 @@
         <v>13</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G36" s="82" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="H36" s="73" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -8351,7 +8326,7 @@
         <v>0</v>
       </c>
       <c r="C37" s="81" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D37" s="73" t="s">
         <v>72</v>
@@ -8359,13 +8334,13 @@
     </row>
     <row r="38" spans="1:10" ht="14.25" thickBot="1">
       <c r="A38" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B38" s="82" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C38" s="81" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D38" s="20" t="s">
         <v>13</v>
@@ -8373,37 +8348,37 @@
     </row>
     <row r="42" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="43" spans="1:10">
-      <c r="A43" s="104" t="s">
-        <v>298</v>
-      </c>
-      <c r="B43" s="105"/>
-      <c r="C43" s="105"/>
-      <c r="D43" s="106"/>
-      <c r="F43" s="104" t="s">
-        <v>370</v>
-      </c>
-      <c r="G43" s="105"/>
-      <c r="H43" s="105"/>
-      <c r="I43" s="106"/>
+      <c r="A43" s="99" t="s">
+        <v>297</v>
+      </c>
+      <c r="B43" s="100"/>
+      <c r="C43" s="100"/>
+      <c r="D43" s="101"/>
+      <c r="F43" s="99" t="s">
+        <v>368</v>
+      </c>
+      <c r="G43" s="100"/>
+      <c r="H43" s="100"/>
+      <c r="I43" s="101"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="107" t="s">
-        <v>481</v>
-      </c>
-      <c r="B44" s="108"/>
-      <c r="C44" s="108"/>
-      <c r="D44" s="109"/>
+      <c r="A44" s="102" t="s">
+        <v>479</v>
+      </c>
+      <c r="B44" s="103"/>
+      <c r="C44" s="103"/>
+      <c r="D44" s="104"/>
       <c r="E44" t="s">
-        <v>465</v>
-      </c>
-      <c r="F44" s="107" t="s">
-        <v>369</v>
-      </c>
-      <c r="G44" s="108"/>
-      <c r="H44" s="108"/>
-      <c r="I44" s="109"/>
+        <v>463</v>
+      </c>
+      <c r="F44" s="102" t="s">
+        <v>367</v>
+      </c>
+      <c r="G44" s="103"/>
+      <c r="H44" s="103"/>
+      <c r="I44" s="104"/>
       <c r="J44" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="14.25" thickBot="1">
@@ -8414,105 +8389,105 @@
         <v>0</v>
       </c>
       <c r="H45" s="84" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="I45" s="83" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="104" t="s">
+      <c r="A46" s="99" t="s">
+        <v>300</v>
+      </c>
+      <c r="B46" s="100"/>
+      <c r="C46" s="100"/>
+      <c r="D46" s="101"/>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="102" t="s">
         <v>301</v>
       </c>
-      <c r="B46" s="105"/>
-      <c r="C46" s="105"/>
-      <c r="D46" s="106"/>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="107" t="s">
-        <v>302</v>
-      </c>
-      <c r="B47" s="108"/>
-      <c r="C47" s="108"/>
-      <c r="D47" s="109"/>
+      <c r="B47" s="103"/>
+      <c r="C47" s="103"/>
+      <c r="D47" s="104"/>
       <c r="E47" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="49" spans="1:10">
-      <c r="A49" s="121" t="s">
+      <c r="A49" s="114" t="s">
+        <v>305</v>
+      </c>
+      <c r="B49" s="115"/>
+      <c r="C49" s="115"/>
+      <c r="D49" s="116"/>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="117" t="s">
         <v>306</v>
       </c>
-      <c r="B49" s="122"/>
-      <c r="C49" s="122"/>
-      <c r="D49" s="123"/>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="118" t="s">
-        <v>307</v>
-      </c>
-      <c r="B50" s="119"/>
-      <c r="C50" s="119"/>
-      <c r="D50" s="120"/>
+      <c r="B50" s="118"/>
+      <c r="C50" s="118"/>
+      <c r="D50" s="119"/>
       <c r="E50" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="52" spans="1:10" ht="13.5" customHeight="1" thickBot="1"/>
     <row r="53" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A53" s="104" t="s">
-        <v>371</v>
-      </c>
-      <c r="B53" s="105"/>
-      <c r="C53" s="105"/>
-      <c r="D53" s="106"/>
-      <c r="F53" s="104" t="s">
-        <v>371</v>
-      </c>
-      <c r="G53" s="105"/>
-      <c r="H53" s="105"/>
-      <c r="I53" s="106"/>
+      <c r="A53" s="99" t="s">
+        <v>369</v>
+      </c>
+      <c r="B53" s="100"/>
+      <c r="C53" s="100"/>
+      <c r="D53" s="101"/>
+      <c r="F53" s="99" t="s">
+        <v>369</v>
+      </c>
+      <c r="G53" s="100"/>
+      <c r="H53" s="100"/>
+      <c r="I53" s="101"/>
     </row>
     <row r="54" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A54" s="107" t="s">
-        <v>376</v>
-      </c>
-      <c r="B54" s="108"/>
-      <c r="C54" s="108"/>
-      <c r="D54" s="109"/>
-      <c r="F54" s="107" t="s">
-        <v>377</v>
-      </c>
-      <c r="G54" s="108"/>
-      <c r="H54" s="108"/>
-      <c r="I54" s="109"/>
+      <c r="A54" s="102" t="s">
+        <v>374</v>
+      </c>
+      <c r="B54" s="103"/>
+      <c r="C54" s="103"/>
+      <c r="D54" s="104"/>
+      <c r="F54" s="102" t="s">
+        <v>375</v>
+      </c>
+      <c r="G54" s="103"/>
+      <c r="H54" s="103"/>
+      <c r="I54" s="104"/>
     </row>
     <row r="55" spans="1:10" ht="13.5" customHeight="1">
       <c r="A55" s="8" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B55" s="83" t="s">
+        <v>370</v>
+      </c>
+      <c r="C55" s="83" t="s">
         <v>372</v>
-      </c>
-      <c r="C55" s="83" t="s">
-        <v>374</v>
       </c>
       <c r="D55" s="83" t="s">
         <v>72</v>
       </c>
       <c r="E55" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G55" s="84" t="s">
+        <v>370</v>
+      </c>
+      <c r="H55" s="84" t="s">
         <v>372</v>
-      </c>
-      <c r="H55" s="84" t="s">
-        <v>374</v>
       </c>
       <c r="I55" s="84" t="s">
         <v>72</v>
@@ -8526,13 +8501,13 @@
         <v>0</v>
       </c>
       <c r="H56" s="84" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="I56" s="20" t="s">
         <v>13</v>
       </c>
       <c r="J56" s="94" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="13.5" customHeight="1"/>
@@ -8545,32 +8520,32 @@
     <row r="64" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="65" spans="1:10" ht="12.75" customHeight="1" thickBot="1"/>
     <row r="66" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A66" s="104" t="s">
-        <v>359</v>
-      </c>
-      <c r="B66" s="105"/>
-      <c r="C66" s="105"/>
-      <c r="D66" s="106"/>
-      <c r="F66" s="104" t="s">
-        <v>345</v>
-      </c>
-      <c r="G66" s="105"/>
-      <c r="H66" s="105"/>
-      <c r="I66" s="106"/>
+      <c r="A66" s="99" t="s">
+        <v>357</v>
+      </c>
+      <c r="B66" s="100"/>
+      <c r="C66" s="100"/>
+      <c r="D66" s="101"/>
+      <c r="F66" s="99" t="s">
+        <v>343</v>
+      </c>
+      <c r="G66" s="100"/>
+      <c r="H66" s="100"/>
+      <c r="I66" s="101"/>
     </row>
     <row r="67" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A67" s="107" t="s">
-        <v>497</v>
-      </c>
-      <c r="B67" s="108"/>
-      <c r="C67" s="108"/>
-      <c r="D67" s="109"/>
-      <c r="F67" s="118" t="s">
-        <v>350</v>
-      </c>
-      <c r="G67" s="119"/>
-      <c r="H67" s="119"/>
-      <c r="I67" s="120"/>
+      <c r="A67" s="102" t="s">
+        <v>491</v>
+      </c>
+      <c r="B67" s="103"/>
+      <c r="C67" s="103"/>
+      <c r="D67" s="104"/>
+      <c r="F67" s="117" t="s">
+        <v>348</v>
+      </c>
+      <c r="G67" s="118"/>
+      <c r="H67" s="118"/>
+      <c r="I67" s="119"/>
     </row>
     <row r="68" spans="1:10" ht="12.75" customHeight="1" thickBot="1">
       <c r="A68" s="8" t="s">
@@ -8580,51 +8555,51 @@
         <v>32</v>
       </c>
       <c r="C68" s="76" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D68" s="20" t="s">
         <v>13</v>
       </c>
       <c r="E68" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="G68" s="101" t="s">
-        <v>357</v>
+        <v>350</v>
+      </c>
+      <c r="G68" s="95" t="s">
+        <v>355</v>
       </c>
       <c r="H68" s="79" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J68" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="14.25" thickBot="1">
       <c r="A69" s="8" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B69" s="75" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C69" s="75" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D69" s="20" t="s">
         <v>13</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="G69" s="75" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H69" s="82" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="I69" s="20" t="s">
         <v>13</v>
@@ -8636,13 +8611,13 @@
       <c r="C70" s="75"/>
       <c r="D70" s="20"/>
       <c r="F70" s="8" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="G70" s="75" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H70" s="75" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="I70" s="20" t="s">
         <v>13</v>
@@ -8656,7 +8631,7 @@
         <v>32</v>
       </c>
       <c r="H71" s="75" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="I71" s="20" t="s">
         <v>13</v>
@@ -8670,46 +8645,46 @@
     </row>
     <row r="77" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="78" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A78" s="121" t="s">
-        <v>308</v>
-      </c>
-      <c r="B78" s="122"/>
-      <c r="C78" s="122"/>
-      <c r="D78" s="123"/>
-      <c r="F78" s="104" t="s">
+      <c r="A78" s="114" t="s">
+        <v>307</v>
+      </c>
+      <c r="B78" s="115"/>
+      <c r="C78" s="115"/>
+      <c r="D78" s="116"/>
+      <c r="F78" s="99" t="s">
         <v>234</v>
       </c>
-      <c r="G78" s="105"/>
-      <c r="H78" s="105"/>
-      <c r="I78" s="106"/>
+      <c r="G78" s="100"/>
+      <c r="H78" s="100"/>
+      <c r="I78" s="101"/>
     </row>
     <row r="79" spans="1:10">
-      <c r="A79" s="104" t="s">
+      <c r="A79" s="99" t="s">
         <v>232</v>
       </c>
-      <c r="B79" s="105"/>
-      <c r="C79" s="105"/>
-      <c r="D79" s="106"/>
+      <c r="B79" s="100"/>
+      <c r="C79" s="100"/>
+      <c r="D79" s="101"/>
       <c r="E79" t="s">
-        <v>472</v>
-      </c>
-      <c r="F79" s="107" t="s">
+        <v>470</v>
+      </c>
+      <c r="F79" s="102" t="s">
         <v>235</v>
       </c>
-      <c r="G79" s="108"/>
-      <c r="H79" s="108"/>
-      <c r="I79" s="109"/>
+      <c r="G79" s="103"/>
+      <c r="H79" s="103"/>
+      <c r="I79" s="104"/>
       <c r="J79" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="80" spans="1:10">
-      <c r="A80" s="107" t="s">
+      <c r="A80" s="102" t="s">
         <v>233</v>
       </c>
-      <c r="B80" s="108"/>
-      <c r="C80" s="108"/>
-      <c r="D80" s="109"/>
+      <c r="B80" s="103"/>
+      <c r="C80" s="103"/>
+      <c r="D80" s="104"/>
       <c r="F80" s="8" t="s">
         <v>237</v>
       </c>
@@ -8757,13 +8732,13 @@
     </row>
     <row r="83" spans="1:10">
       <c r="F83" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G83" s="73" t="s">
         <v>32</v>
       </c>
       <c r="H83" s="73" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I83" s="74" t="s">
         <v>72</v>
@@ -8771,43 +8746,43 @@
     </row>
     <row r="85" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="86" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A86" s="121" t="s">
-        <v>379</v>
-      </c>
-      <c r="B86" s="122"/>
-      <c r="C86" s="122"/>
-      <c r="D86" s="123"/>
-      <c r="F86" s="121" t="s">
-        <v>379</v>
-      </c>
-      <c r="G86" s="122"/>
-      <c r="H86" s="122"/>
-      <c r="I86" s="123"/>
+      <c r="A86" s="114" t="s">
+        <v>377</v>
+      </c>
+      <c r="B86" s="115"/>
+      <c r="C86" s="115"/>
+      <c r="D86" s="116"/>
+      <c r="F86" s="114" t="s">
+        <v>377</v>
+      </c>
+      <c r="G86" s="115"/>
+      <c r="H86" s="115"/>
+      <c r="I86" s="116"/>
     </row>
     <row r="87" spans="1:10">
-      <c r="A87" s="104" t="s">
+      <c r="A87" s="99" t="s">
         <v>232</v>
       </c>
-      <c r="B87" s="105"/>
-      <c r="C87" s="105"/>
-      <c r="D87" s="106"/>
+      <c r="B87" s="100"/>
+      <c r="C87" s="100"/>
+      <c r="D87" s="101"/>
       <c r="E87" t="s">
-        <v>474</v>
-      </c>
-      <c r="F87" s="107" t="s">
+        <v>472</v>
+      </c>
+      <c r="F87" s="102" t="s">
         <v>235</v>
       </c>
-      <c r="G87" s="108"/>
-      <c r="H87" s="108"/>
-      <c r="I87" s="109"/>
+      <c r="G87" s="103"/>
+      <c r="H87" s="103"/>
+      <c r="I87" s="104"/>
     </row>
     <row r="88" spans="1:10">
-      <c r="A88" s="107" t="s">
+      <c r="A88" s="102" t="s">
         <v>233</v>
       </c>
-      <c r="B88" s="108"/>
-      <c r="C88" s="108"/>
-      <c r="D88" s="109"/>
+      <c r="B88" s="103"/>
+      <c r="C88" s="103"/>
+      <c r="D88" s="104"/>
       <c r="F88" s="8" t="s">
         <v>237</v>
       </c>
@@ -8821,7 +8796,7 @@
         <v>72</v>
       </c>
       <c r="J88" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -8858,13 +8833,13 @@
     </row>
     <row r="91" spans="1:10">
       <c r="F91" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G91" s="86" t="s">
         <v>32</v>
       </c>
       <c r="H91" s="86" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I91" s="87" t="s">
         <v>72</v>
@@ -8875,7 +8850,7 @@
         <v>229</v>
       </c>
       <c r="F95" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -8894,7 +8869,7 @@
     </row>
     <row r="97" spans="5:20" ht="54">
       <c r="E97" s="59" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="F97" s="58">
         <v>4</v>
@@ -8903,7 +8878,7 @@
         <v>231</v>
       </c>
       <c r="H97" s="33" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="L97" s="65"/>
       <c r="M97" s="66"/>
@@ -8921,10 +8896,10 @@
         <v>5</v>
       </c>
       <c r="G98" s="32" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H98" s="33" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="L98" s="65"/>
       <c r="M98" s="66"/>
@@ -8942,10 +8917,10 @@
         <v>6</v>
       </c>
       <c r="G99" s="32" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="H99" s="33" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="L99" s="65"/>
       <c r="M99" s="66"/>
@@ -8995,7 +8970,7 @@
     </row>
     <row r="102" spans="5:20" ht="27">
       <c r="E102" s="59" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F102" s="58">
         <v>202</v>
@@ -9020,7 +8995,7 @@
     </row>
     <row r="103" spans="5:20" ht="27">
       <c r="E103" s="59" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F103" s="58">
         <v>203</v>
@@ -9070,10 +9045,10 @@
         <v>205</v>
       </c>
       <c r="G105" s="32" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H105" s="57" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="L105" s="65"/>
       <c r="M105" s="66"/>
@@ -9100,26 +9075,20 @@
       <c r="S106" s="66"/>
       <c r="T106" s="67"/>
     </row>
-    <row r="107" spans="5:20" s="97" customFormat="1" ht="27">
-      <c r="E107" s="95"/>
-      <c r="F107" s="96">
-        <v>211</v>
-      </c>
-      <c r="G107" s="37" t="s">
-        <v>256</v>
-      </c>
-      <c r="H107" s="95" t="s">
-        <v>492</v>
-      </c>
-      <c r="L107" s="98"/>
-      <c r="M107" s="99"/>
-      <c r="N107" s="99"/>
-      <c r="O107" s="99"/>
-      <c r="P107" s="99"/>
-      <c r="Q107" s="99"/>
-      <c r="R107" s="99"/>
-      <c r="S107" s="99"/>
-      <c r="T107" s="100"/>
+    <row r="107" spans="5:20">
+      <c r="E107" s="59"/>
+      <c r="F107" s="58"/>
+      <c r="G107" s="32"/>
+      <c r="H107" s="57"/>
+      <c r="L107" s="65"/>
+      <c r="M107" s="71"/>
+      <c r="N107" s="66"/>
+      <c r="O107" s="68"/>
+      <c r="P107" s="69"/>
+      <c r="Q107" s="69"/>
+      <c r="R107" s="70"/>
+      <c r="S107" s="66"/>
+      <c r="T107" s="67"/>
     </row>
     <row r="108" spans="5:20" ht="27">
       <c r="E108" s="57"/>
@@ -9127,24 +9096,24 @@
         <v>212</v>
       </c>
       <c r="G108" s="32" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H108" s="57" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="109" spans="5:20" ht="27">
       <c r="E109" s="59" t="s">
-        <v>483</v>
+        <v>497</v>
       </c>
       <c r="F109" s="58">
         <v>213</v>
       </c>
       <c r="G109" s="32" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H109" s="57" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="110" spans="5:20" ht="27">
@@ -9153,10 +9122,10 @@
         <v>214</v>
       </c>
       <c r="G110" s="32" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H110" s="57" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="111" spans="5:20">
@@ -9165,52 +9134,52 @@
         <v>215</v>
       </c>
       <c r="G111" s="57" t="s">
+        <v>267</v>
+      </c>
+      <c r="H111" s="57" t="s">
         <v>268</v>
-      </c>
-      <c r="H111" s="57" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="112" spans="5:20" ht="27">
       <c r="E112" s="59" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="F112" s="58">
         <v>220</v>
       </c>
       <c r="G112" s="32" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="H112" s="57" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
     </row>
     <row r="113" spans="5:8" ht="54">
       <c r="E113" s="59" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="F113" s="58">
         <v>230</v>
       </c>
       <c r="G113" s="81" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H113" s="57" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="114" spans="5:8" ht="40.5">
       <c r="E114" s="59" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F114" s="58">
         <v>240</v>
       </c>
       <c r="G114" s="81" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H114" s="57" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="115" spans="5:8" ht="40.5">
@@ -9219,10 +9188,10 @@
         <v>250</v>
       </c>
       <c r="G115" s="81" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H115" s="57" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="116" spans="5:8">
@@ -9247,6 +9216,30 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="A86:D86"/>
+    <mergeCell ref="F86:I86"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="F53:I53"/>
+    <mergeCell ref="F54:I54"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="F67:I67"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A79:D79"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="F78:I78"/>
+    <mergeCell ref="F79:I79"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="F43:I43"/>
     <mergeCell ref="A87:D87"/>
     <mergeCell ref="F87:I87"/>
     <mergeCell ref="A88:D88"/>
@@ -9263,30 +9256,6 @@
     <mergeCell ref="A43:D43"/>
     <mergeCell ref="F24:I24"/>
     <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="F44:I44"/>
-    <mergeCell ref="F43:I43"/>
-    <mergeCell ref="A86:D86"/>
-    <mergeCell ref="F86:I86"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="F53:I53"/>
-    <mergeCell ref="F54:I54"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="F66:I66"/>
-    <mergeCell ref="F67:I67"/>
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="A79:D79"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="F78:I78"/>
-    <mergeCell ref="F79:I79"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A66:D66"/>
-    <mergeCell ref="A53:D53"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -9310,8 +9279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9322,74 +9291,74 @@
   <sheetData>
     <row r="1" spans="1:2" ht="40.5">
       <c r="A1" s="77" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B1" s="78" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="81">
       <c r="A2" s="77" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B2" s="78" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="40.5">
       <c r="A3" s="77" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B3" s="78" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="81">
       <c r="A4" s="77" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B4" s="78" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="67.5">
       <c r="A5" s="77" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B5" s="78" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="27">
       <c r="A6" s="77" t="s">
+        <v>334</v>
+      </c>
+      <c r="B6" s="78" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="94.5">
+      <c r="A7" s="77" t="s">
         <v>335</v>
       </c>
-      <c r="B6" s="78" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="67.5">
-      <c r="A7" s="77" t="s">
-        <v>336</v>
-      </c>
       <c r="B7" s="78" t="s">
-        <v>342</v>
+        <v>496</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="27">
       <c r="A8" s="77" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B8" s="78" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="27">
       <c r="A9" s="77" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="B9" s="78" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
     </row>
   </sheetData>
@@ -9410,44 +9379,44 @@
   <sheetData>
     <row r="10" spans="2:14" ht="14.25" thickBot="1"/>
     <row r="11" spans="2:14">
-      <c r="B11" s="104" t="s">
-        <v>366</v>
-      </c>
-      <c r="C11" s="105"/>
-      <c r="D11" s="105"/>
-      <c r="E11" s="106"/>
+      <c r="B11" s="99" t="s">
+        <v>364</v>
+      </c>
+      <c r="C11" s="100"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="101"/>
       <c r="F11" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="14.25" thickBot="1"/>
     <row r="13" spans="2:14">
-      <c r="B13" s="104" t="s">
-        <v>367</v>
-      </c>
-      <c r="C13" s="105"/>
-      <c r="D13" s="105"/>
-      <c r="E13" s="106"/>
-      <c r="J13" s="104" t="s">
-        <v>367</v>
-      </c>
-      <c r="K13" s="105"/>
-      <c r="L13" s="105"/>
-      <c r="M13" s="106"/>
+      <c r="B13" s="99" t="s">
+        <v>365</v>
+      </c>
+      <c r="C13" s="100"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="101"/>
+      <c r="J13" s="99" t="s">
+        <v>365</v>
+      </c>
+      <c r="K13" s="100"/>
+      <c r="L13" s="100"/>
+      <c r="M13" s="101"/>
     </row>
     <row r="14" spans="2:14">
-      <c r="B14" s="107" t="s">
-        <v>484</v>
-      </c>
-      <c r="C14" s="108"/>
-      <c r="D14" s="108"/>
-      <c r="E14" s="109"/>
-      <c r="J14" s="107" t="s">
-        <v>365</v>
-      </c>
-      <c r="K14" s="108"/>
-      <c r="L14" s="108"/>
-      <c r="M14" s="109"/>
+      <c r="B14" s="102" t="s">
+        <v>481</v>
+      </c>
+      <c r="C14" s="103"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="104"/>
+      <c r="J14" s="102" t="s">
+        <v>363</v>
+      </c>
+      <c r="K14" s="103"/>
+      <c r="L14" s="103"/>
+      <c r="M14" s="104"/>
     </row>
     <row r="15" spans="2:14" ht="14.25" thickBot="1">
       <c r="B15" s="8" t="s">
@@ -9460,25 +9429,25 @@
         <v>122</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F15" s="91" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K15" s="82" t="s">
         <v>0</v>
       </c>
       <c r="L15" s="82" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M15" s="20" t="s">
         <v>13</v>
       </c>
       <c r="N15" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
   </sheetData>
@@ -9516,229 +9485,229 @@
   <sheetData>
     <row r="1" spans="2:9">
       <c r="C1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="H1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="2" spans="2:9">
       <c r="B2" s="93" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="3" spans="2:9">
-      <c r="B3" s="107" t="s">
-        <v>443</v>
-      </c>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="G3" s="107" t="s">
-        <v>416</v>
-      </c>
-      <c r="H3" s="108"/>
-      <c r="I3" s="108"/>
+      <c r="B3" s="102" t="s">
+        <v>441</v>
+      </c>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="G3" s="102" t="s">
+        <v>414</v>
+      </c>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="C4" s="89" t="s">
+        <v>293</v>
+      </c>
+      <c r="D4" s="89" t="s">
         <v>381</v>
       </c>
-      <c r="C4" s="89" t="s">
-        <v>294</v>
-      </c>
-      <c r="D4" s="89" t="s">
-        <v>383</v>
-      </c>
       <c r="G4" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="H4" s="89" t="s">
+        <v>293</v>
+      </c>
+      <c r="I4" s="89" t="s">
         <v>381</v>
-      </c>
-      <c r="H4" s="89" t="s">
-        <v>294</v>
-      </c>
-      <c r="I4" s="89" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="8" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C5" s="89" t="s">
         <v>172</v>
       </c>
       <c r="D5" s="89" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E5" s="91" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F5" s="91" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H5" s="89" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I5" s="89" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C6" s="89" t="s">
         <v>32</v>
       </c>
       <c r="D6" s="89" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="H6" s="89" t="s">
         <v>32</v>
       </c>
       <c r="I6" s="89" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="8" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C7" s="89" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="89" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H7" s="89" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I7" s="89" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="8" spans="2:9">
       <c r="G8" s="8" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="H8" s="89" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I8" s="89" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="9" spans="2:9">
       <c r="G9" s="8" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="H9" s="89" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I9" s="89" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="10" spans="2:9">
       <c r="G10" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="H10" s="89" t="s">
+        <v>405</v>
+      </c>
+      <c r="I10" s="89" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="G14" s="102" t="s">
+        <v>391</v>
+      </c>
+      <c r="H14" s="103"/>
+      <c r="I14" s="103"/>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" s="102" t="s">
         <v>408</v>
       </c>
-      <c r="H10" s="89" t="s">
-        <v>407</v>
-      </c>
-      <c r="I10" s="89" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9">
-      <c r="G14" s="107" t="s">
-        <v>393</v>
-      </c>
-      <c r="H14" s="108"/>
-      <c r="I14" s="108"/>
-    </row>
-    <row r="15" spans="2:9">
-      <c r="B15" s="107" t="s">
-        <v>410</v>
-      </c>
-      <c r="C15" s="108"/>
-      <c r="D15" s="108"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="103"/>
       <c r="G15" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="H15" s="89" t="s">
+        <v>398</v>
+      </c>
+      <c r="I15" s="89" t="s">
         <v>399</v>
-      </c>
-      <c r="H15" s="89" t="s">
-        <v>400</v>
-      </c>
-      <c r="I15" s="89" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="16" spans="2:9">
       <c r="B16" s="8" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C16" s="89" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D16" s="89" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H16" s="89" t="s">
         <v>32</v>
       </c>
       <c r="I16" s="89" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="8" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C17" s="89" t="s">
         <v>32</v>
       </c>
       <c r="D17" s="89" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="H17" s="89" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I17" s="89" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="8" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C18" s="89" t="s">
         <v>32</v>
       </c>
       <c r="D18" s="89" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="H18" s="89" t="s">
         <v>32</v>
       </c>
       <c r="I18" s="89" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="19" spans="2:9">
@@ -9749,36 +9718,36 @@
         <v>32</v>
       </c>
       <c r="D19" s="89" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H19" s="89" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I19" s="89" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="20" spans="2:9">
       <c r="B20" s="8" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C20" s="89" t="s">
         <v>32</v>
       </c>
       <c r="D20" s="89" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="H20" s="89" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I20" s="89" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="21" spans="2:9">
@@ -9788,56 +9757,56 @@
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="93" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="107" t="s">
-        <v>426</v>
-      </c>
-      <c r="C25" s="108"/>
-      <c r="D25" s="108"/>
+      <c r="B25" s="102" t="s">
+        <v>424</v>
+      </c>
+      <c r="C25" s="103"/>
+      <c r="D25" s="103"/>
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="C26" s="89" t="s">
+        <v>293</v>
+      </c>
+      <c r="D26" s="89" t="s">
         <v>419</v>
-      </c>
-      <c r="C26" s="89" t="s">
-        <v>294</v>
-      </c>
-      <c r="D26" s="89" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="27" spans="2:9">
       <c r="B27" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="C27" s="89" t="s">
+        <v>293</v>
+      </c>
+      <c r="D27" s="89" t="s">
         <v>420</v>
       </c>
-      <c r="C27" s="89" t="s">
-        <v>294</v>
-      </c>
-      <c r="D27" s="89" t="s">
-        <v>422</v>
-      </c>
       <c r="E27" s="91" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="28" spans="2:9">
       <c r="B28" s="8" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D28" s="89" t="s">
-        <v>424</v>
-      </c>
-      <c r="G28" s="107" t="s">
-        <v>432</v>
-      </c>
-      <c r="H28" s="108"/>
-      <c r="I28" s="108"/>
+        <v>422</v>
+      </c>
+      <c r="G28" s="102" t="s">
+        <v>430</v>
+      </c>
+      <c r="H28" s="103"/>
+      <c r="I28" s="103"/>
     </row>
     <row r="29" spans="2:9">
       <c r="B29" s="8"/>
@@ -9850,76 +9819,76 @@
         <v>32</v>
       </c>
       <c r="I29" s="89" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="30" spans="2:9">
       <c r="G30" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H30" s="89" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I30" s="89" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="31" spans="2:9">
       <c r="G31" s="8" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="H31" s="89" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I31" s="89" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="32" spans="2:9">
       <c r="B32" s="93" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G32" s="8"/>
       <c r="H32" s="89"/>
       <c r="I32" s="89"/>
     </row>
     <row r="33" spans="2:9">
-      <c r="B33" s="107" t="s">
-        <v>429</v>
-      </c>
-      <c r="C33" s="108"/>
-      <c r="D33" s="108"/>
+      <c r="B33" s="102" t="s">
+        <v>427</v>
+      </c>
+      <c r="C33" s="103"/>
+      <c r="D33" s="103"/>
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="8" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C34" s="89" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D34" s="89"/>
     </row>
     <row r="35" spans="2:9">
       <c r="B35" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C35" s="89" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D35" s="89"/>
       <c r="E35" s="91" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="36" spans="2:9">
       <c r="B36" s="8" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C36" s="89" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D36" s="89" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="37" spans="2:9">
@@ -9928,165 +9897,165 @@
       <c r="D37" s="89"/>
     </row>
     <row r="40" spans="2:9">
-      <c r="G40" s="107" t="s">
-        <v>435</v>
-      </c>
-      <c r="H40" s="108"/>
-      <c r="I40" s="108"/>
+      <c r="G40" s="102" t="s">
+        <v>433</v>
+      </c>
+      <c r="H40" s="103"/>
+      <c r="I40" s="103"/>
     </row>
     <row r="41" spans="2:9">
       <c r="G41" s="8" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H41" s="89" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I41" s="92" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="42" spans="2:9">
       <c r="G42" s="8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="H42" s="89" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I42" s="89" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="43" spans="2:9">
       <c r="G43" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H43" s="89" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I43" s="89" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="44" spans="2:9">
       <c r="G44" s="8" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="H44" s="89" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I44" s="89" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="48" spans="2:9">
       <c r="B48" s="93" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="49" spans="2:6">
-      <c r="B49" s="107" t="s">
-        <v>454</v>
-      </c>
-      <c r="C49" s="108"/>
-      <c r="D49" s="108"/>
+      <c r="B49" s="102" t="s">
+        <v>452</v>
+      </c>
+      <c r="C49" s="103"/>
+      <c r="D49" s="103"/>
     </row>
     <row r="50" spans="2:6">
       <c r="B50" s="8" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C50" s="89" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D50" s="89"/>
       <c r="F50" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="51" spans="2:6">
       <c r="B51" s="8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C51" s="89" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D51" s="89"/>
       <c r="E51" s="91" t="s">
+        <v>445</v>
+      </c>
+      <c r="F51" s="91" t="s">
         <v>447</v>
-      </c>
-      <c r="F51" s="91" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="52" spans="2:6">
       <c r="B52" s="8" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C52" s="89" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D52" s="90" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="53" spans="2:6">
       <c r="B53" s="8" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C53" s="89" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D53" s="89"/>
     </row>
     <row r="58" spans="2:6">
       <c r="B58" s="93" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6">
+      <c r="B59" s="102" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="59" spans="2:6">
-      <c r="B59" s="107" t="s">
-        <v>459</v>
-      </c>
-      <c r="C59" s="108"/>
-      <c r="D59" s="108"/>
+      <c r="C59" s="103"/>
+      <c r="D59" s="103"/>
     </row>
     <row r="60" spans="2:6">
       <c r="B60" s="8" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C60" s="90" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D60" s="90"/>
     </row>
     <row r="61" spans="2:6">
       <c r="B61" s="8" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C61" s="90" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D61" s="90"/>
       <c r="E61" s="91" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="62" spans="2:6">
       <c r="B62" s="8" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C62" s="90" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D62" s="90" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="63" spans="2:6">
       <c r="B63" s="8" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C63" s="90" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D63" s="90"/>
     </row>

--- a/doc/最新接口_拟定.xlsx
+++ b/doc/最新接口_拟定.xlsx
@@ -1069,7 +1069,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="501">
   <si>
     <t>int</t>
   </si>
@@ -2993,12 +2993,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0:局数
-1:最大番数
-2:玩法位集合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NetLoginConfirm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3102,6 +3096,16 @@
   <si>
     <t>uid:自己id，dVal:杠的子类型
 dlist:杠的内容（明杠，四风传空，三剑客只需要传多余的那一张牌；暗杠，捡杠：需要传一张目标牌即可）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4:3,8:5,1:20(4局对应3张房卡，8局对应5张房卡)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:局数
+1:最大番数
+2:玩法位集合</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3873,14 +3877,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3900,12 +3901,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3915,16 +3910,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3936,17 +3943,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4265,32 +4269,32 @@
   <sheetData>
     <row r="3" spans="2:16" ht="14.25" thickBot="1"/>
     <row r="4" spans="2:16">
-      <c r="B4" s="99" t="s">
+      <c r="B4" s="98" t="s">
         <v>232</v>
       </c>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="101"/>
-      <c r="I4" s="99" t="s">
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="100"/>
+      <c r="I4" s="98" t="s">
         <v>234</v>
       </c>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="101"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="100"/>
     </row>
     <row r="5" spans="2:16">
-      <c r="B5" s="102" t="s">
+      <c r="B5" s="101" t="s">
         <v>233</v>
       </c>
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="104"/>
-      <c r="I5" s="102" t="s">
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="103"/>
+      <c r="I5" s="101" t="s">
         <v>475</v>
       </c>
-      <c r="J5" s="103"/>
-      <c r="K5" s="103"/>
-      <c r="L5" s="104"/>
+      <c r="J5" s="102"/>
+      <c r="K5" s="102"/>
+      <c r="L5" s="103"/>
     </row>
     <row r="6" spans="2:16">
       <c r="B6" s="8"/>
@@ -4354,21 +4358,21 @@
     </row>
     <row r="11" spans="2:16" ht="14.25" customHeight="1"/>
     <row r="14" spans="2:16" ht="14.25" thickBot="1">
-      <c r="I14" s="96" t="s">
+      <c r="I14" s="107" t="s">
         <v>54</v>
       </c>
-      <c r="J14" s="97"/>
-      <c r="K14" s="97"/>
-      <c r="L14" s="97"/>
-      <c r="M14" s="98"/>
+      <c r="J14" s="108"/>
+      <c r="K14" s="108"/>
+      <c r="L14" s="108"/>
+      <c r="M14" s="109"/>
     </row>
     <row r="15" spans="2:16">
-      <c r="B15" s="99" t="s">
+      <c r="B15" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="100"/>
-      <c r="D15" s="100"/>
-      <c r="E15" s="101"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="100"/>
       <c r="I15" s="21" t="s">
         <v>34</v>
       </c>
@@ -4383,18 +4387,18 @@
         <v>34</v>
       </c>
       <c r="N15" s="3"/>
-      <c r="O15" s="105" t="s">
+      <c r="O15" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="P15" s="106"/>
+      <c r="P15" s="97"/>
     </row>
     <row r="16" spans="2:16">
-      <c r="B16" s="102" t="s">
+      <c r="B16" s="101" t="s">
         <v>233</v>
       </c>
-      <c r="C16" s="103"/>
-      <c r="D16" s="103"/>
-      <c r="E16" s="104"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="103"/>
       <c r="I16" s="33"/>
       <c r="J16" s="30"/>
       <c r="K16" s="31">
@@ -4892,12 +4896,12 @@
       <c r="P37" s="23"/>
     </row>
     <row r="38" spans="2:16">
-      <c r="B38" s="107" t="s">
+      <c r="B38" s="104" t="s">
         <v>259</v>
       </c>
-      <c r="C38" s="108"/>
-      <c r="D38" s="108"/>
-      <c r="E38" s="109"/>
+      <c r="C38" s="105"/>
+      <c r="D38" s="105"/>
+      <c r="E38" s="106"/>
       <c r="I38" s="33" t="s">
         <v>117</v>
       </c>
@@ -4979,18 +4983,18 @@
     <row r="42" spans="2:16" ht="22.5" customHeight="1"/>
     <row r="43" spans="2:16" ht="31.5" customHeight="1"/>
     <row r="44" spans="2:16">
-      <c r="H44" s="105" t="s">
+      <c r="H44" s="96" t="s">
         <v>247</v>
       </c>
-      <c r="I44" s="106"/>
-      <c r="J44" s="105" t="s">
+      <c r="I44" s="97"/>
+      <c r="J44" s="96" t="s">
         <v>116</v>
       </c>
-      <c r="K44" s="106"/>
-      <c r="L44" s="105" t="s">
+      <c r="K44" s="97"/>
+      <c r="L44" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="M44" s="106"/>
+      <c r="M44" s="97"/>
     </row>
     <row r="45" spans="2:16">
       <c r="H45" s="22">
@@ -5106,6 +5110,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="I14:M14"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="I5:L5"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="J44:K44"/>
     <mergeCell ref="L44:M44"/>
@@ -5113,11 +5122,6 @@
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="H44:I44"/>
     <mergeCell ref="B38:E38"/>
-    <mergeCell ref="I14:M14"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="I5:L5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5311,11 +5315,11 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="4"/>
-      <c r="B10" s="114" t="s">
+      <c r="B10" s="115" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="115"/>
-      <c r="D10" s="116"/>
+      <c r="C10" s="116"/>
+      <c r="D10" s="117"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -5324,11 +5328,11 @@
       <c r="J10" s="4"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="114" t="s">
+      <c r="M10" s="115" t="s">
         <v>28</v>
       </c>
-      <c r="N10" s="115"/>
-      <c r="O10" s="116"/>
+      <c r="N10" s="116"/>
+      <c r="O10" s="117"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -5338,11 +5342,11 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="4"/>
-      <c r="B11" s="117" t="s">
+      <c r="B11" s="112" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="118"/>
-      <c r="D11" s="119"/>
+      <c r="C11" s="113"/>
+      <c r="D11" s="114"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -5351,11 +5355,11 @@
       <c r="J11" s="4"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="117" t="s">
+      <c r="M11" s="112" t="s">
         <v>27</v>
       </c>
-      <c r="N11" s="118"/>
-      <c r="O11" s="119"/>
+      <c r="N11" s="113"/>
+      <c r="O11" s="114"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -5476,11 +5480,11 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="4"/>
-      <c r="B17" s="114" t="s">
+      <c r="B17" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="115"/>
-      <c r="D17" s="116"/>
+      <c r="C17" s="116"/>
+      <c r="D17" s="117"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -5489,11 +5493,11 @@
       <c r="J17" s="4"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="114" t="s">
+      <c r="M17" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="N17" s="115"/>
-      <c r="O17" s="116"/>
+      <c r="N17" s="116"/>
+      <c r="O17" s="117"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -5502,11 +5506,11 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="4"/>
-      <c r="B18" s="117" t="s">
+      <c r="B18" s="112" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="118"/>
-      <c r="D18" s="119"/>
+      <c r="C18" s="113"/>
+      <c r="D18" s="114"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -5515,11 +5519,11 @@
       <c r="J18" s="4"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="117" t="s">
+      <c r="M18" s="112" t="s">
         <v>129</v>
       </c>
-      <c r="N18" s="118"/>
-      <c r="O18" s="119"/>
+      <c r="N18" s="113"/>
+      <c r="O18" s="114"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -5559,9 +5563,9 @@
     </row>
     <row r="20" spans="1:21" ht="41.25" thickBot="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="114"/>
-      <c r="C20" s="115"/>
-      <c r="D20" s="116"/>
+      <c r="B20" s="115"/>
+      <c r="C20" s="116"/>
+      <c r="D20" s="117"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -5590,11 +5594,11 @@
     </row>
     <row r="21" spans="1:21" ht="14.25" thickBot="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="117" t="s">
+      <c r="B21" s="112" t="s">
         <v>129</v>
       </c>
-      <c r="C21" s="118"/>
-      <c r="D21" s="119"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="114"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -5661,11 +5665,11 @@
       <c r="J23" s="4"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="114" t="s">
+      <c r="M23" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="N23" s="115"/>
-      <c r="O23" s="116"/>
+      <c r="N23" s="116"/>
+      <c r="O23" s="117"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
@@ -5686,11 +5690,11 @@
       <c r="J24" s="4"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-      <c r="M24" s="117" t="s">
+      <c r="M24" s="112" t="s">
         <v>69</v>
       </c>
-      <c r="N24" s="118"/>
-      <c r="O24" s="119"/>
+      <c r="N24" s="113"/>
+      <c r="O24" s="114"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
@@ -5823,11 +5827,11 @@
       <c r="J29" s="4"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
-      <c r="M29" s="114" t="s">
+      <c r="M29" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="N29" s="115"/>
-      <c r="O29" s="116"/>
+      <c r="N29" s="116"/>
+      <c r="O29" s="117"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
@@ -5848,11 +5852,11 @@
       <c r="J30" s="4"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="117" t="s">
+      <c r="M30" s="112" t="s">
         <v>69</v>
       </c>
-      <c r="N30" s="118"/>
-      <c r="O30" s="119"/>
+      <c r="N30" s="113"/>
+      <c r="O30" s="114"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
@@ -6008,11 +6012,11 @@
       <c r="J36" s="4"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
-      <c r="M36" s="114" t="s">
+      <c r="M36" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="N36" s="115"/>
-      <c r="O36" s="116"/>
+      <c r="N36" s="116"/>
+      <c r="O36" s="117"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
@@ -6033,11 +6037,11 @@
       <c r="J37" s="4"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
-      <c r="M37" s="117" t="s">
+      <c r="M37" s="112" t="s">
         <v>69</v>
       </c>
-      <c r="N37" s="118"/>
-      <c r="O37" s="119"/>
+      <c r="N37" s="113"/>
+      <c r="O37" s="114"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
@@ -6216,14 +6220,14 @@
       <c r="J44" s="4"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
-      <c r="M44" s="114" t="s">
+      <c r="M44" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="N44" s="115"/>
-      <c r="O44" s="115"/>
-      <c r="P44" s="115"/>
-      <c r="Q44" s="115"/>
-      <c r="R44" s="116"/>
+      <c r="N44" s="116"/>
+      <c r="O44" s="116"/>
+      <c r="P44" s="116"/>
+      <c r="Q44" s="116"/>
+      <c r="R44" s="117"/>
       <c r="S44" s="2"/>
       <c r="T44" s="3"/>
       <c r="U44" s="3"/>
@@ -6241,14 +6245,14 @@
       <c r="J45" s="4"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
-      <c r="M45" s="117" t="s">
+      <c r="M45" s="112" t="s">
         <v>273</v>
       </c>
-      <c r="N45" s="118"/>
-      <c r="O45" s="118"/>
-      <c r="P45" s="118"/>
-      <c r="Q45" s="118"/>
-      <c r="R45" s="119"/>
+      <c r="N45" s="113"/>
+      <c r="O45" s="113"/>
+      <c r="P45" s="113"/>
+      <c r="Q45" s="113"/>
+      <c r="R45" s="114"/>
       <c r="S45" s="2"/>
       <c r="T45" s="3"/>
       <c r="U45" s="3"/>
@@ -6275,11 +6279,11 @@
       <c r="O46" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="P46" s="120" t="s">
+      <c r="P46" s="118" t="s">
         <v>130</v>
       </c>
-      <c r="Q46" s="120"/>
-      <c r="R46" s="121"/>
+      <c r="Q46" s="118"/>
+      <c r="R46" s="119"/>
       <c r="S46" s="2"/>
       <c r="T46" s="3"/>
       <c r="U46" s="3"/>
@@ -6306,22 +6310,22 @@
       <c r="O47" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="P47" s="120" t="s">
+      <c r="P47" s="118" t="s">
         <v>149</v>
       </c>
-      <c r="Q47" s="120"/>
-      <c r="R47" s="121"/>
+      <c r="Q47" s="118"/>
+      <c r="R47" s="119"/>
       <c r="S47" s="2"/>
       <c r="T47" s="3"/>
       <c r="U47" s="3"/>
     </row>
     <row r="48" spans="1:21">
       <c r="A48" s="1"/>
-      <c r="B48" s="114" t="s">
+      <c r="B48" s="115" t="s">
         <v>114</v>
       </c>
-      <c r="C48" s="115"/>
-      <c r="D48" s="116"/>
+      <c r="C48" s="116"/>
+      <c r="D48" s="117"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -6339,22 +6343,22 @@
       <c r="O48" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P48" s="120" t="s">
+      <c r="P48" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="Q48" s="120"/>
-      <c r="R48" s="121"/>
+      <c r="Q48" s="118"/>
+      <c r="R48" s="119"/>
       <c r="S48" s="2"/>
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
     </row>
     <row r="49" spans="1:21">
       <c r="A49" s="1"/>
-      <c r="B49" s="117" t="s">
+      <c r="B49" s="112" t="s">
         <v>112</v>
       </c>
-      <c r="C49" s="118"/>
-      <c r="D49" s="119"/>
+      <c r="C49" s="113"/>
+      <c r="D49" s="114"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -6411,11 +6415,11 @@
       <c r="O50" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P50" s="120" t="s">
+      <c r="P50" s="118" t="s">
         <v>18</v>
       </c>
-      <c r="Q50" s="120"/>
-      <c r="R50" s="121"/>
+      <c r="Q50" s="118"/>
+      <c r="R50" s="119"/>
       <c r="S50" s="2"/>
       <c r="T50" s="3"/>
       <c r="U50" s="3"/>
@@ -6442,11 +6446,11 @@
       <c r="O51" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="P51" s="120" t="s">
+      <c r="P51" s="118" t="s">
         <v>20</v>
       </c>
-      <c r="Q51" s="120"/>
-      <c r="R51" s="121"/>
+      <c r="Q51" s="118"/>
+      <c r="R51" s="119"/>
       <c r="S51" s="2"/>
       <c r="T51" s="3"/>
       <c r="U51" s="3"/>
@@ -6504,11 +6508,11 @@
       <c r="O53" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="P53" s="120" t="s">
+      <c r="P53" s="118" t="s">
         <v>21</v>
       </c>
-      <c r="Q53" s="120"/>
-      <c r="R53" s="121"/>
+      <c r="Q53" s="118"/>
+      <c r="R53" s="119"/>
       <c r="S53" s="2"/>
       <c r="T53" s="3"/>
       <c r="U53" s="3"/>
@@ -6673,13 +6677,13 @@
       <c r="J59" s="4"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
-      <c r="M59" s="114" t="s">
+      <c r="M59" s="115" t="s">
         <v>136</v>
       </c>
-      <c r="N59" s="115"/>
-      <c r="O59" s="115"/>
-      <c r="P59" s="115"/>
-      <c r="Q59" s="116"/>
+      <c r="N59" s="116"/>
+      <c r="O59" s="116"/>
+      <c r="P59" s="116"/>
+      <c r="Q59" s="117"/>
       <c r="R59" s="1"/>
       <c r="S59" s="2"/>
       <c r="T59" s="3"/>
@@ -6707,10 +6711,10 @@
       <c r="O60" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="P60" s="112" t="s">
+      <c r="P60" s="110" t="s">
         <v>137</v>
       </c>
-      <c r="Q60" s="113"/>
+      <c r="Q60" s="111"/>
       <c r="R60" s="1"/>
       <c r="S60" s="2"/>
       <c r="T60" s="3"/>
@@ -6738,10 +6742,10 @@
       <c r="O61" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="P61" s="112" t="s">
+      <c r="P61" s="110" t="s">
         <v>140</v>
       </c>
-      <c r="Q61" s="113"/>
+      <c r="Q61" s="111"/>
       <c r="R61" s="1"/>
       <c r="S61" s="2"/>
       <c r="T61" s="3"/>
@@ -6769,10 +6773,10 @@
       <c r="O62" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="P62" s="112" t="s">
+      <c r="P62" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="Q62" s="113"/>
+      <c r="Q62" s="111"/>
       <c r="R62" s="1"/>
       <c r="S62" s="2"/>
       <c r="T62" s="3"/>
@@ -6800,10 +6804,10 @@
       <c r="O63" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P63" s="110" t="s">
+      <c r="P63" s="120" t="s">
         <v>23</v>
       </c>
-      <c r="Q63" s="111"/>
+      <c r="Q63" s="121"/>
       <c r="R63" s="1"/>
       <c r="S63" s="2"/>
       <c r="T63" s="3"/>
@@ -6831,10 +6835,10 @@
       <c r="O64" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P64" s="112" t="s">
+      <c r="P64" s="110" t="s">
         <v>161</v>
       </c>
-      <c r="Q64" s="113"/>
+      <c r="Q64" s="111"/>
       <c r="R64" s="1"/>
       <c r="S64" s="2"/>
       <c r="T64" s="3"/>
@@ -6862,10 +6866,10 @@
       <c r="O65" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="P65" s="112" t="s">
+      <c r="P65" s="110" t="s">
         <v>60</v>
       </c>
-      <c r="Q65" s="113"/>
+      <c r="Q65" s="111"/>
       <c r="R65" s="1"/>
       <c r="S65" s="2"/>
       <c r="T65" s="3"/>
@@ -6893,10 +6897,10 @@
       <c r="O66" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P66" s="112" t="s">
+      <c r="P66" s="110" t="s">
         <v>218</v>
       </c>
-      <c r="Q66" s="113"/>
+      <c r="Q66" s="111"/>
       <c r="R66" s="1"/>
       <c r="S66" s="2"/>
       <c r="T66" s="3"/>
@@ -6924,10 +6928,10 @@
       <c r="O67" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P67" s="112" t="s">
+      <c r="P67" s="110" t="s">
         <v>217</v>
       </c>
-      <c r="Q67" s="113"/>
+      <c r="Q67" s="111"/>
       <c r="R67" s="1"/>
       <c r="S67" s="1"/>
       <c r="T67" s="3"/>
@@ -6969,13 +6973,13 @@
       <c r="J69" s="4"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
-      <c r="M69" s="114" t="s">
+      <c r="M69" s="115" t="s">
         <v>176</v>
       </c>
-      <c r="N69" s="115"/>
-      <c r="O69" s="115"/>
-      <c r="P69" s="115"/>
-      <c r="Q69" s="116"/>
+      <c r="N69" s="116"/>
+      <c r="O69" s="116"/>
+      <c r="P69" s="116"/>
+      <c r="Q69" s="117"/>
       <c r="R69" s="1"/>
       <c r="S69" s="1"/>
       <c r="T69" s="3"/>
@@ -6994,13 +6998,13 @@
       <c r="J70" s="4"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
-      <c r="M70" s="114" t="s">
+      <c r="M70" s="115" t="s">
         <v>177</v>
       </c>
-      <c r="N70" s="115"/>
-      <c r="O70" s="115"/>
-      <c r="P70" s="115"/>
-      <c r="Q70" s="116"/>
+      <c r="N70" s="116"/>
+      <c r="O70" s="116"/>
+      <c r="P70" s="116"/>
+      <c r="Q70" s="117"/>
       <c r="R70" s="1"/>
       <c r="S70" s="1"/>
       <c r="T70" s="3"/>
@@ -7028,10 +7032,10 @@
       <c r="O71" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="P71" s="110" t="s">
+      <c r="P71" s="120" t="s">
         <v>201</v>
       </c>
-      <c r="Q71" s="111"/>
+      <c r="Q71" s="121"/>
       <c r="R71" s="1"/>
       <c r="S71" s="1"/>
       <c r="T71" s="3"/>
@@ -7059,10 +7063,10 @@
       <c r="O72" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="P72" s="110" t="s">
+      <c r="P72" s="120" t="s">
         <v>193</v>
       </c>
-      <c r="Q72" s="111"/>
+      <c r="Q72" s="121"/>
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
       <c r="T72" s="3"/>
@@ -7090,10 +7094,10 @@
       <c r="O73" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="P73" s="110" t="s">
+      <c r="P73" s="120" t="s">
         <v>190</v>
       </c>
-      <c r="Q73" s="111"/>
+      <c r="Q73" s="121"/>
       <c r="R73" s="1"/>
       <c r="S73" s="1"/>
       <c r="T73" s="3"/>
@@ -7150,10 +7154,10 @@
       <c r="O75" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P75" s="112" t="s">
+      <c r="P75" s="110" t="s">
         <v>219</v>
       </c>
-      <c r="Q75" s="113"/>
+      <c r="Q75" s="111"/>
       <c r="R75" s="1"/>
       <c r="S75" s="1"/>
       <c r="T75" s="3"/>
@@ -7181,10 +7185,10 @@
       <c r="O76" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P76" s="112" t="s">
+      <c r="P76" s="110" t="s">
         <v>220</v>
       </c>
-      <c r="Q76" s="113"/>
+      <c r="Q76" s="111"/>
       <c r="R76" s="1"/>
       <c r="S76" s="1"/>
       <c r="T76" s="3"/>
@@ -7226,11 +7230,11 @@
       <c r="J78" s="4"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
-      <c r="M78" s="117" t="s">
+      <c r="M78" s="112" t="s">
         <v>191</v>
       </c>
-      <c r="N78" s="118"/>
-      <c r="O78" s="119"/>
+      <c r="N78" s="113"/>
+      <c r="O78" s="114"/>
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
       <c r="R78" s="1"/>
@@ -7332,11 +7336,11 @@
       <c r="J82" s="4"/>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
-      <c r="M82" s="117" t="s">
+      <c r="M82" s="112" t="s">
         <v>183</v>
       </c>
-      <c r="N82" s="118"/>
-      <c r="O82" s="119"/>
+      <c r="N82" s="113"/>
+      <c r="O82" s="114"/>
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
       <c r="R82" s="1"/>
@@ -7847,6 +7851,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="M69:Q69"/>
+    <mergeCell ref="M70:Q70"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="M45:R45"/>
+    <mergeCell ref="P46:R46"/>
+    <mergeCell ref="P47:R47"/>
+    <mergeCell ref="P48:R48"/>
+    <mergeCell ref="P50:R50"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="M44:R44"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
     <mergeCell ref="P76:Q76"/>
     <mergeCell ref="M78:O78"/>
     <mergeCell ref="M82:O82"/>
@@ -7863,34 +7895,6 @@
     <mergeCell ref="M11:O11"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="M29:O29"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="M44:R44"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="M45:R45"/>
-    <mergeCell ref="P46:R46"/>
-    <mergeCell ref="P47:R47"/>
-    <mergeCell ref="P48:R48"/>
-    <mergeCell ref="P50:R50"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="M69:Q69"/>
-    <mergeCell ref="M70:Q70"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="P67:Q67"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7902,8 +7906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:T118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D94" workbookViewId="0">
-      <selection activeCell="H101" sqref="H101"/>
+    <sheetView tabSelected="1" topLeftCell="D16" workbookViewId="0">
+      <selection activeCell="E114" sqref="E114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7919,32 +7923,32 @@
   <sheetData>
     <row r="2" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="3" spans="1:10">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="98" t="s">
         <v>279</v>
       </c>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="101"/>
-      <c r="F3" s="99" t="s">
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="100"/>
+      <c r="F3" s="98" t="s">
         <v>290</v>
       </c>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="101"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="100"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="101" t="s">
         <v>280</v>
       </c>
-      <c r="B4" s="103"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="104"/>
-      <c r="F4" s="102" t="s">
+      <c r="B4" s="102"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="103"/>
+      <c r="F4" s="101" t="s">
         <v>283</v>
       </c>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="104"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="103"/>
     </row>
     <row r="5" spans="1:10" ht="14.25" thickBot="1">
       <c r="A5" s="8" t="s">
@@ -8102,32 +8106,32 @@
     </row>
     <row r="15" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="16" spans="1:10">
-      <c r="A16" s="99" t="s">
+      <c r="A16" s="98" t="s">
         <v>277</v>
       </c>
-      <c r="B16" s="100"/>
-      <c r="C16" s="100"/>
-      <c r="D16" s="101"/>
-      <c r="F16" s="99" t="s">
+      <c r="B16" s="99"/>
+      <c r="C16" s="99"/>
+      <c r="D16" s="100"/>
+      <c r="F16" s="98" t="s">
         <v>277</v>
       </c>
-      <c r="G16" s="100"/>
-      <c r="H16" s="100"/>
-      <c r="I16" s="101"/>
+      <c r="G16" s="99"/>
+      <c r="H16" s="99"/>
+      <c r="I16" s="100"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="102" t="s">
+      <c r="A17" s="101" t="s">
         <v>278</v>
       </c>
-      <c r="B17" s="103"/>
-      <c r="C17" s="103"/>
-      <c r="D17" s="104"/>
-      <c r="F17" s="102" t="s">
+      <c r="B17" s="102"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="103"/>
+      <c r="F17" s="101" t="s">
         <v>366</v>
       </c>
-      <c r="G17" s="103"/>
-      <c r="H17" s="103"/>
-      <c r="I17" s="104"/>
+      <c r="G17" s="102"/>
+      <c r="H17" s="102"/>
+      <c r="I17" s="103"/>
       <c r="J17" t="s">
         <v>462</v>
       </c>
@@ -8177,20 +8181,20 @@
     </row>
     <row r="23" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="24" spans="1:10">
-      <c r="F24" s="99" t="s">
+      <c r="F24" s="98" t="s">
         <v>302</v>
       </c>
-      <c r="G24" s="100"/>
-      <c r="H24" s="100"/>
-      <c r="I24" s="101"/>
+      <c r="G24" s="99"/>
+      <c r="H24" s="99"/>
+      <c r="I24" s="100"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="F25" s="102" t="s">
+      <c r="F25" s="101" t="s">
         <v>303</v>
       </c>
-      <c r="G25" s="103"/>
-      <c r="H25" s="103"/>
-      <c r="I25" s="104"/>
+      <c r="G25" s="102"/>
+      <c r="H25" s="102"/>
+      <c r="I25" s="103"/>
     </row>
     <row r="26" spans="1:10">
       <c r="F26" s="8" t="s">
@@ -8211,33 +8215,33 @@
     </row>
     <row r="31" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="32" spans="1:10">
-      <c r="A32" s="99" t="s">
+      <c r="A32" s="98" t="s">
         <v>284</v>
       </c>
-      <c r="B32" s="100"/>
-      <c r="C32" s="100"/>
-      <c r="D32" s="101"/>
-      <c r="F32" s="99" t="s">
+      <c r="B32" s="99"/>
+      <c r="C32" s="99"/>
+      <c r="D32" s="100"/>
+      <c r="F32" s="98" t="s">
         <v>311</v>
       </c>
-      <c r="G32" s="100"/>
-      <c r="H32" s="100"/>
-      <c r="I32" s="101"/>
+      <c r="G32" s="99"/>
+      <c r="H32" s="99"/>
+      <c r="I32" s="100"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="102" t="s">
+      <c r="A33" s="101" t="s">
         <v>286</v>
       </c>
-      <c r="B33" s="103"/>
-      <c r="C33" s="103"/>
-      <c r="D33" s="104"/>
+      <c r="B33" s="102"/>
+      <c r="C33" s="102"/>
+      <c r="D33" s="103"/>
       <c r="E33" s="77"/>
-      <c r="F33" s="102" t="s">
+      <c r="F33" s="101" t="s">
         <v>312</v>
       </c>
-      <c r="G33" s="103"/>
-      <c r="H33" s="103"/>
-      <c r="I33" s="104"/>
+      <c r="G33" s="102"/>
+      <c r="H33" s="102"/>
+      <c r="I33" s="103"/>
     </row>
     <row r="34" spans="1:10" ht="14.25" thickBot="1">
       <c r="A34" s="8" t="s">
@@ -8348,35 +8352,35 @@
     </row>
     <row r="42" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="43" spans="1:10">
-      <c r="A43" s="99" t="s">
+      <c r="A43" s="98" t="s">
         <v>297</v>
       </c>
-      <c r="B43" s="100"/>
-      <c r="C43" s="100"/>
-      <c r="D43" s="101"/>
-      <c r="F43" s="99" t="s">
+      <c r="B43" s="99"/>
+      <c r="C43" s="99"/>
+      <c r="D43" s="100"/>
+      <c r="F43" s="98" t="s">
         <v>368</v>
       </c>
-      <c r="G43" s="100"/>
-      <c r="H43" s="100"/>
-      <c r="I43" s="101"/>
+      <c r="G43" s="99"/>
+      <c r="H43" s="99"/>
+      <c r="I43" s="100"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="102" t="s">
+      <c r="A44" s="101" t="s">
         <v>479</v>
       </c>
-      <c r="B44" s="103"/>
-      <c r="C44" s="103"/>
-      <c r="D44" s="104"/>
+      <c r="B44" s="102"/>
+      <c r="C44" s="102"/>
+      <c r="D44" s="103"/>
       <c r="E44" t="s">
         <v>463</v>
       </c>
-      <c r="F44" s="102" t="s">
+      <c r="F44" s="101" t="s">
         <v>367</v>
       </c>
-      <c r="G44" s="103"/>
-      <c r="H44" s="103"/>
-      <c r="I44" s="104"/>
+      <c r="G44" s="102"/>
+      <c r="H44" s="102"/>
+      <c r="I44" s="103"/>
       <c r="J44" t="s">
         <v>463</v>
       </c>
@@ -8396,40 +8400,40 @@
       </c>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="99" t="s">
+      <c r="A46" s="98" t="s">
         <v>300</v>
       </c>
-      <c r="B46" s="100"/>
-      <c r="C46" s="100"/>
-      <c r="D46" s="101"/>
+      <c r="B46" s="99"/>
+      <c r="C46" s="99"/>
+      <c r="D46" s="100"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="102" t="s">
+      <c r="A47" s="101" t="s">
         <v>301</v>
       </c>
-      <c r="B47" s="103"/>
-      <c r="C47" s="103"/>
-      <c r="D47" s="104"/>
+      <c r="B47" s="102"/>
+      <c r="C47" s="102"/>
+      <c r="D47" s="103"/>
       <c r="E47" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="49" spans="1:10">
-      <c r="A49" s="114" t="s">
+      <c r="A49" s="115" t="s">
         <v>305</v>
       </c>
-      <c r="B49" s="115"/>
-      <c r="C49" s="115"/>
-      <c r="D49" s="116"/>
+      <c r="B49" s="116"/>
+      <c r="C49" s="116"/>
+      <c r="D49" s="117"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="117" t="s">
+      <c r="A50" s="112" t="s">
         <v>306</v>
       </c>
-      <c r="B50" s="118"/>
-      <c r="C50" s="118"/>
-      <c r="D50" s="119"/>
+      <c r="B50" s="113"/>
+      <c r="C50" s="113"/>
+      <c r="D50" s="114"/>
       <c r="E50" t="s">
         <v>465</v>
       </c>
@@ -8437,32 +8441,32 @@
     <row r="51" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="52" spans="1:10" ht="13.5" customHeight="1" thickBot="1"/>
     <row r="53" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A53" s="99" t="s">
+      <c r="A53" s="98" t="s">
         <v>369</v>
       </c>
-      <c r="B53" s="100"/>
-      <c r="C53" s="100"/>
-      <c r="D53" s="101"/>
-      <c r="F53" s="99" t="s">
+      <c r="B53" s="99"/>
+      <c r="C53" s="99"/>
+      <c r="D53" s="100"/>
+      <c r="F53" s="98" t="s">
         <v>369</v>
       </c>
-      <c r="G53" s="100"/>
-      <c r="H53" s="100"/>
-      <c r="I53" s="101"/>
+      <c r="G53" s="99"/>
+      <c r="H53" s="99"/>
+      <c r="I53" s="100"/>
     </row>
     <row r="54" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A54" s="102" t="s">
+      <c r="A54" s="101" t="s">
         <v>374</v>
       </c>
-      <c r="B54" s="103"/>
-      <c r="C54" s="103"/>
-      <c r="D54" s="104"/>
-      <c r="F54" s="102" t="s">
+      <c r="B54" s="102"/>
+      <c r="C54" s="102"/>
+      <c r="D54" s="103"/>
+      <c r="F54" s="101" t="s">
         <v>375</v>
       </c>
-      <c r="G54" s="103"/>
-      <c r="H54" s="103"/>
-      <c r="I54" s="104"/>
+      <c r="G54" s="102"/>
+      <c r="H54" s="102"/>
+      <c r="I54" s="103"/>
     </row>
     <row r="55" spans="1:10" ht="13.5" customHeight="1">
       <c r="A55" s="8" t="s">
@@ -8520,32 +8524,32 @@
     <row r="64" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="65" spans="1:10" ht="12.75" customHeight="1" thickBot="1"/>
     <row r="66" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A66" s="99" t="s">
+      <c r="A66" s="98" t="s">
         <v>357</v>
       </c>
-      <c r="B66" s="100"/>
-      <c r="C66" s="100"/>
-      <c r="D66" s="101"/>
-      <c r="F66" s="99" t="s">
+      <c r="B66" s="99"/>
+      <c r="C66" s="99"/>
+      <c r="D66" s="100"/>
+      <c r="F66" s="98" t="s">
         <v>343</v>
       </c>
-      <c r="G66" s="100"/>
-      <c r="H66" s="100"/>
-      <c r="I66" s="101"/>
+      <c r="G66" s="99"/>
+      <c r="H66" s="99"/>
+      <c r="I66" s="100"/>
     </row>
     <row r="67" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A67" s="102" t="s">
-        <v>491</v>
-      </c>
-      <c r="B67" s="103"/>
-      <c r="C67" s="103"/>
-      <c r="D67" s="104"/>
-      <c r="F67" s="117" t="s">
+      <c r="A67" s="101" t="s">
+        <v>490</v>
+      </c>
+      <c r="B67" s="102"/>
+      <c r="C67" s="102"/>
+      <c r="D67" s="103"/>
+      <c r="F67" s="112" t="s">
         <v>348</v>
       </c>
-      <c r="G67" s="118"/>
-      <c r="H67" s="118"/>
-      <c r="I67" s="119"/>
+      <c r="G67" s="113"/>
+      <c r="H67" s="113"/>
+      <c r="I67" s="114"/>
     </row>
     <row r="68" spans="1:10" ht="12.75" customHeight="1" thickBot="1">
       <c r="A68" s="8" t="s">
@@ -8570,7 +8574,7 @@
         <v>355</v>
       </c>
       <c r="H68" s="79" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I68" s="7" t="s">
         <v>309</v>
@@ -8645,46 +8649,46 @@
     </row>
     <row r="77" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="78" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A78" s="114" t="s">
+      <c r="A78" s="115" t="s">
         <v>307</v>
       </c>
-      <c r="B78" s="115"/>
-      <c r="C78" s="115"/>
-      <c r="D78" s="116"/>
-      <c r="F78" s="99" t="s">
+      <c r="B78" s="116"/>
+      <c r="C78" s="116"/>
+      <c r="D78" s="117"/>
+      <c r="F78" s="98" t="s">
         <v>234</v>
       </c>
-      <c r="G78" s="100"/>
-      <c r="H78" s="100"/>
-      <c r="I78" s="101"/>
+      <c r="G78" s="99"/>
+      <c r="H78" s="99"/>
+      <c r="I78" s="100"/>
     </row>
     <row r="79" spans="1:10">
-      <c r="A79" s="99" t="s">
+      <c r="A79" s="98" t="s">
         <v>232</v>
       </c>
-      <c r="B79" s="100"/>
-      <c r="C79" s="100"/>
-      <c r="D79" s="101"/>
+      <c r="B79" s="99"/>
+      <c r="C79" s="99"/>
+      <c r="D79" s="100"/>
       <c r="E79" t="s">
         <v>470</v>
       </c>
-      <c r="F79" s="102" t="s">
+      <c r="F79" s="101" t="s">
         <v>235</v>
       </c>
-      <c r="G79" s="103"/>
-      <c r="H79" s="103"/>
-      <c r="I79" s="104"/>
+      <c r="G79" s="102"/>
+      <c r="H79" s="102"/>
+      <c r="I79" s="103"/>
       <c r="J79" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="80" spans="1:10">
-      <c r="A80" s="102" t="s">
+      <c r="A80" s="101" t="s">
         <v>233</v>
       </c>
-      <c r="B80" s="103"/>
-      <c r="C80" s="103"/>
-      <c r="D80" s="104"/>
+      <c r="B80" s="102"/>
+      <c r="C80" s="102"/>
+      <c r="D80" s="103"/>
       <c r="F80" s="8" t="s">
         <v>237</v>
       </c>
@@ -8746,43 +8750,43 @@
     </row>
     <row r="85" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="86" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A86" s="114" t="s">
+      <c r="A86" s="115" t="s">
         <v>377</v>
       </c>
-      <c r="B86" s="115"/>
-      <c r="C86" s="115"/>
-      <c r="D86" s="116"/>
-      <c r="F86" s="114" t="s">
+      <c r="B86" s="116"/>
+      <c r="C86" s="116"/>
+      <c r="D86" s="117"/>
+      <c r="F86" s="115" t="s">
         <v>377</v>
       </c>
-      <c r="G86" s="115"/>
-      <c r="H86" s="115"/>
-      <c r="I86" s="116"/>
+      <c r="G86" s="116"/>
+      <c r="H86" s="116"/>
+      <c r="I86" s="117"/>
     </row>
     <row r="87" spans="1:10">
-      <c r="A87" s="99" t="s">
+      <c r="A87" s="98" t="s">
         <v>232</v>
       </c>
-      <c r="B87" s="100"/>
-      <c r="C87" s="100"/>
-      <c r="D87" s="101"/>
+      <c r="B87" s="99"/>
+      <c r="C87" s="99"/>
+      <c r="D87" s="100"/>
       <c r="E87" t="s">
         <v>472</v>
       </c>
-      <c r="F87" s="102" t="s">
+      <c r="F87" s="101" t="s">
         <v>235</v>
       </c>
-      <c r="G87" s="103"/>
-      <c r="H87" s="103"/>
-      <c r="I87" s="104"/>
+      <c r="G87" s="102"/>
+      <c r="H87" s="102"/>
+      <c r="I87" s="103"/>
     </row>
     <row r="88" spans="1:10">
-      <c r="A88" s="102" t="s">
+      <c r="A88" s="101" t="s">
         <v>233</v>
       </c>
-      <c r="B88" s="103"/>
-      <c r="C88" s="103"/>
-      <c r="D88" s="104"/>
+      <c r="B88" s="102"/>
+      <c r="C88" s="102"/>
+      <c r="D88" s="103"/>
       <c r="F88" s="8" t="s">
         <v>237</v>
       </c>
@@ -8869,7 +8873,7 @@
     </row>
     <row r="97" spans="5:20" ht="54">
       <c r="E97" s="59" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F97" s="58">
         <v>4</v>
@@ -8878,7 +8882,7 @@
         <v>231</v>
       </c>
       <c r="H97" s="33" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="L97" s="65"/>
       <c r="M97" s="66"/>
@@ -8920,7 +8924,7 @@
         <v>358</v>
       </c>
       <c r="H99" s="33" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="L99" s="65"/>
       <c r="M99" s="66"/>
@@ -9048,7 +9052,7 @@
         <v>377</v>
       </c>
       <c r="H105" s="57" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="L105" s="65"/>
       <c r="M105" s="66"/>
@@ -9099,12 +9103,12 @@
         <v>265</v>
       </c>
       <c r="H108" s="57" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="109" spans="5:20" ht="27">
       <c r="E109" s="59" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F109" s="58">
         <v>213</v>
@@ -9113,7 +9117,7 @@
         <v>264</v>
       </c>
       <c r="H109" s="57" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="110" spans="5:20" ht="27">
@@ -9142,21 +9146,21 @@
     </row>
     <row r="112" spans="5:20" ht="27">
       <c r="E112" s="59" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F112" s="58">
         <v>220</v>
       </c>
       <c r="G112" s="32" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H112" s="57" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="113" spans="5:8" ht="54">
       <c r="E113" s="59" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F113" s="58">
         <v>230</v>
@@ -9216,30 +9220,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A66:D66"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="A86:D86"/>
-    <mergeCell ref="F86:I86"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="F53:I53"/>
-    <mergeCell ref="F54:I54"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="F66:I66"/>
-    <mergeCell ref="F67:I67"/>
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="A79:D79"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="F78:I78"/>
-    <mergeCell ref="F79:I79"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="F44:I44"/>
-    <mergeCell ref="F43:I43"/>
     <mergeCell ref="A87:D87"/>
     <mergeCell ref="F87:I87"/>
     <mergeCell ref="A88:D88"/>
@@ -9256,6 +9236,30 @@
     <mergeCell ref="A43:D43"/>
     <mergeCell ref="F24:I24"/>
     <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="A86:D86"/>
+    <mergeCell ref="F86:I86"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="F53:I53"/>
+    <mergeCell ref="F54:I54"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="F67:I67"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A79:D79"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="F78:I78"/>
+    <mergeCell ref="F79:I79"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="A53:D53"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -9277,51 +9281,55 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17.375" style="77" customWidth="1"/>
     <col min="2" max="2" width="77.75" customWidth="1"/>
+    <col min="3" max="3" width="39.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="40.5">
+    <row r="1" spans="1:3" ht="40.5">
       <c r="A1" s="77" t="s">
         <v>326</v>
       </c>
       <c r="B1" s="78" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="81">
+        <v>500</v>
+      </c>
+      <c r="C1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="81">
       <c r="A2" s="77" t="s">
         <v>328</v>
       </c>
       <c r="B2" s="78" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="40.5">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="40.5">
       <c r="A3" s="77" t="s">
         <v>329</v>
       </c>
       <c r="B3" s="78" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="81">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="81">
       <c r="A4" s="77" t="s">
         <v>331</v>
       </c>
       <c r="B4" s="78" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="67.5">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="67.5">
       <c r="A5" s="77" t="s">
         <v>333</v>
       </c>
@@ -9329,7 +9337,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="27">
+    <row r="6" spans="1:3" ht="27">
       <c r="A6" s="77" t="s">
         <v>334</v>
       </c>
@@ -9337,15 +9345,15 @@
         <v>340</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="94.5">
+    <row r="7" spans="1:3" ht="94.5">
       <c r="A7" s="77" t="s">
         <v>335</v>
       </c>
       <c r="B7" s="78" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="27">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="27">
       <c r="A8" s="77" t="s">
         <v>346</v>
       </c>
@@ -9353,12 +9361,12 @@
         <v>347</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="27">
+    <row r="9" spans="1:3" ht="27">
       <c r="A9" s="77" t="s">
+        <v>491</v>
+      </c>
+      <c r="B9" s="78" t="s">
         <v>492</v>
-      </c>
-      <c r="B9" s="78" t="s">
-        <v>493</v>
       </c>
     </row>
   </sheetData>
@@ -9379,44 +9387,44 @@
   <sheetData>
     <row r="10" spans="2:14" ht="14.25" thickBot="1"/>
     <row r="11" spans="2:14">
-      <c r="B11" s="99" t="s">
+      <c r="B11" s="98" t="s">
         <v>364</v>
       </c>
-      <c r="C11" s="100"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="101"/>
+      <c r="C11" s="99"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="100"/>
       <c r="F11" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="14.25" thickBot="1"/>
     <row r="13" spans="2:14">
-      <c r="B13" s="99" t="s">
+      <c r="B13" s="98" t="s">
         <v>365</v>
       </c>
-      <c r="C13" s="100"/>
-      <c r="D13" s="100"/>
-      <c r="E13" s="101"/>
-      <c r="J13" s="99" t="s">
+      <c r="C13" s="99"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="100"/>
+      <c r="J13" s="98" t="s">
         <v>365</v>
       </c>
-      <c r="K13" s="100"/>
-      <c r="L13" s="100"/>
-      <c r="M13" s="101"/>
+      <c r="K13" s="99"/>
+      <c r="L13" s="99"/>
+      <c r="M13" s="100"/>
     </row>
     <row r="14" spans="2:14">
-      <c r="B14" s="102" t="s">
-        <v>481</v>
-      </c>
-      <c r="C14" s="103"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="104"/>
-      <c r="J14" s="102" t="s">
+      <c r="B14" s="101" t="s">
+        <v>480</v>
+      </c>
+      <c r="C14" s="102"/>
+      <c r="D14" s="102"/>
+      <c r="E14" s="103"/>
+      <c r="J14" s="101" t="s">
         <v>363</v>
       </c>
-      <c r="K14" s="103"/>
-      <c r="L14" s="103"/>
-      <c r="M14" s="104"/>
+      <c r="K14" s="102"/>
+      <c r="L14" s="102"/>
+      <c r="M14" s="103"/>
     </row>
     <row r="15" spans="2:14" ht="14.25" thickBot="1">
       <c r="B15" s="8" t="s">
@@ -9497,16 +9505,16 @@
       </c>
     </row>
     <row r="3" spans="2:9">
-      <c r="B3" s="102" t="s">
+      <c r="B3" s="101" t="s">
         <v>441</v>
       </c>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="G3" s="102" t="s">
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="G3" s="101" t="s">
         <v>414</v>
       </c>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="8" t="s">
@@ -9628,18 +9636,18 @@
       </c>
     </row>
     <row r="14" spans="2:9">
-      <c r="G14" s="102" t="s">
+      <c r="G14" s="101" t="s">
         <v>391</v>
       </c>
-      <c r="H14" s="103"/>
-      <c r="I14" s="103"/>
+      <c r="H14" s="102"/>
+      <c r="I14" s="102"/>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="102" t="s">
+      <c r="B15" s="101" t="s">
         <v>408</v>
       </c>
-      <c r="C15" s="103"/>
-      <c r="D15" s="103"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="102"/>
       <c r="G15" s="8" t="s">
         <v>397</v>
       </c>
@@ -9761,11 +9769,11 @@
       </c>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="102" t="s">
+      <c r="B25" s="101" t="s">
         <v>424</v>
       </c>
-      <c r="C25" s="103"/>
-      <c r="D25" s="103"/>
+      <c r="C25" s="102"/>
+      <c r="D25" s="102"/>
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="8" t="s">
@@ -9802,11 +9810,11 @@
       <c r="D28" s="89" t="s">
         <v>422</v>
       </c>
-      <c r="G28" s="102" t="s">
+      <c r="G28" s="101" t="s">
         <v>430</v>
       </c>
-      <c r="H28" s="103"/>
-      <c r="I28" s="103"/>
+      <c r="H28" s="102"/>
+      <c r="I28" s="102"/>
     </row>
     <row r="29" spans="2:9">
       <c r="B29" s="8"/>
@@ -9853,11 +9861,11 @@
       <c r="I32" s="89"/>
     </row>
     <row r="33" spans="2:9">
-      <c r="B33" s="102" t="s">
+      <c r="B33" s="101" t="s">
         <v>427</v>
       </c>
-      <c r="C33" s="103"/>
-      <c r="D33" s="103"/>
+      <c r="C33" s="102"/>
+      <c r="D33" s="102"/>
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="8" t="s">
@@ -9897,11 +9905,11 @@
       <c r="D37" s="89"/>
     </row>
     <row r="40" spans="2:9">
-      <c r="G40" s="102" t="s">
+      <c r="G40" s="101" t="s">
         <v>433</v>
       </c>
-      <c r="H40" s="103"/>
-      <c r="I40" s="103"/>
+      <c r="H40" s="102"/>
+      <c r="I40" s="102"/>
     </row>
     <row r="41" spans="2:9">
       <c r="G41" s="8" t="s">
@@ -9953,11 +9961,11 @@
       </c>
     </row>
     <row r="49" spans="2:6">
-      <c r="B49" s="102" t="s">
+      <c r="B49" s="101" t="s">
         <v>452</v>
       </c>
-      <c r="C49" s="103"/>
-      <c r="D49" s="103"/>
+      <c r="C49" s="102"/>
+      <c r="D49" s="102"/>
     </row>
     <row r="50" spans="2:6">
       <c r="B50" s="8" t="s">
@@ -10012,11 +10020,11 @@
       </c>
     </row>
     <row r="59" spans="2:6">
-      <c r="B59" s="102" t="s">
+      <c r="B59" s="101" t="s">
         <v>457</v>
       </c>
-      <c r="C59" s="103"/>
-      <c r="D59" s="103"/>
+      <c r="C59" s="102"/>
+      <c r="D59" s="102"/>
     </row>
     <row r="60" spans="2:6">
       <c r="B60" s="8" t="s">

--- a/doc/最新接口_拟定.xlsx
+++ b/doc/最新接口_拟定.xlsx
@@ -3877,11 +3877,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3901,6 +3904,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3910,19 +3919,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3934,23 +3949,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4269,32 +4269,32 @@
   <sheetData>
     <row r="3" spans="2:16" ht="14.25" thickBot="1"/>
     <row r="4" spans="2:16">
-      <c r="B4" s="98" t="s">
+      <c r="B4" s="99" t="s">
         <v>232</v>
       </c>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="100"/>
-      <c r="I4" s="98" t="s">
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="101"/>
+      <c r="I4" s="99" t="s">
         <v>234</v>
       </c>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="101"/>
     </row>
     <row r="5" spans="2:16">
-      <c r="B5" s="101" t="s">
+      <c r="B5" s="102" t="s">
         <v>233</v>
       </c>
-      <c r="C5" s="102"/>
-      <c r="D5" s="102"/>
-      <c r="E5" s="103"/>
-      <c r="I5" s="101" t="s">
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="104"/>
+      <c r="I5" s="102" t="s">
         <v>475</v>
       </c>
-      <c r="J5" s="102"/>
-      <c r="K5" s="102"/>
-      <c r="L5" s="103"/>
+      <c r="J5" s="103"/>
+      <c r="K5" s="103"/>
+      <c r="L5" s="104"/>
     </row>
     <row r="6" spans="2:16">
       <c r="B6" s="8"/>
@@ -4358,21 +4358,21 @@
     </row>
     <row r="11" spans="2:16" ht="14.25" customHeight="1"/>
     <row r="14" spans="2:16" ht="14.25" thickBot="1">
-      <c r="I14" s="107" t="s">
+      <c r="I14" s="96" t="s">
         <v>54</v>
       </c>
-      <c r="J14" s="108"/>
-      <c r="K14" s="108"/>
-      <c r="L14" s="108"/>
-      <c r="M14" s="109"/>
+      <c r="J14" s="97"/>
+      <c r="K14" s="97"/>
+      <c r="L14" s="97"/>
+      <c r="M14" s="98"/>
     </row>
     <row r="15" spans="2:16">
-      <c r="B15" s="98" t="s">
+      <c r="B15" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="99"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="100"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="101"/>
       <c r="I15" s="21" t="s">
         <v>34</v>
       </c>
@@ -4387,18 +4387,18 @@
         <v>34</v>
       </c>
       <c r="N15" s="3"/>
-      <c r="O15" s="96" t="s">
+      <c r="O15" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="P15" s="97"/>
+      <c r="P15" s="106"/>
     </row>
     <row r="16" spans="2:16">
-      <c r="B16" s="101" t="s">
+      <c r="B16" s="102" t="s">
         <v>233</v>
       </c>
-      <c r="C16" s="102"/>
-      <c r="D16" s="102"/>
-      <c r="E16" s="103"/>
+      <c r="C16" s="103"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="104"/>
       <c r="I16" s="33"/>
       <c r="J16" s="30"/>
       <c r="K16" s="31">
@@ -4896,12 +4896,12 @@
       <c r="P37" s="23"/>
     </row>
     <row r="38" spans="2:16">
-      <c r="B38" s="104" t="s">
+      <c r="B38" s="107" t="s">
         <v>259</v>
       </c>
-      <c r="C38" s="105"/>
-      <c r="D38" s="105"/>
-      <c r="E38" s="106"/>
+      <c r="C38" s="108"/>
+      <c r="D38" s="108"/>
+      <c r="E38" s="109"/>
       <c r="I38" s="33" t="s">
         <v>117</v>
       </c>
@@ -4983,18 +4983,18 @@
     <row r="42" spans="2:16" ht="22.5" customHeight="1"/>
     <row r="43" spans="2:16" ht="31.5" customHeight="1"/>
     <row r="44" spans="2:16">
-      <c r="H44" s="96" t="s">
+      <c r="H44" s="105" t="s">
         <v>247</v>
       </c>
-      <c r="I44" s="97"/>
-      <c r="J44" s="96" t="s">
+      <c r="I44" s="106"/>
+      <c r="J44" s="105" t="s">
         <v>116</v>
       </c>
-      <c r="K44" s="97"/>
-      <c r="L44" s="96" t="s">
+      <c r="K44" s="106"/>
+      <c r="L44" s="105" t="s">
         <v>77</v>
       </c>
-      <c r="M44" s="97"/>
+      <c r="M44" s="106"/>
     </row>
     <row r="45" spans="2:16">
       <c r="H45" s="22">
@@ -5110,11 +5110,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="I14:M14"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="I5:L5"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="J44:K44"/>
     <mergeCell ref="L44:M44"/>
@@ -5122,6 +5117,11 @@
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="H44:I44"/>
     <mergeCell ref="B38:E38"/>
+    <mergeCell ref="I14:M14"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="I5:L5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5315,11 +5315,11 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="4"/>
-      <c r="B10" s="115" t="s">
+      <c r="B10" s="114" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="116"/>
-      <c r="D10" s="117"/>
+      <c r="C10" s="115"/>
+      <c r="D10" s="116"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -5328,11 +5328,11 @@
       <c r="J10" s="4"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="115" t="s">
+      <c r="M10" s="114" t="s">
         <v>28</v>
       </c>
-      <c r="N10" s="116"/>
-      <c r="O10" s="117"/>
+      <c r="N10" s="115"/>
+      <c r="O10" s="116"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -5342,11 +5342,11 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="4"/>
-      <c r="B11" s="112" t="s">
+      <c r="B11" s="117" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="113"/>
-      <c r="D11" s="114"/>
+      <c r="C11" s="118"/>
+      <c r="D11" s="119"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -5355,11 +5355,11 @@
       <c r="J11" s="4"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="112" t="s">
+      <c r="M11" s="117" t="s">
         <v>27</v>
       </c>
-      <c r="N11" s="113"/>
-      <c r="O11" s="114"/>
+      <c r="N11" s="118"/>
+      <c r="O11" s="119"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -5480,11 +5480,11 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="4"/>
-      <c r="B17" s="115" t="s">
+      <c r="B17" s="114" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="116"/>
-      <c r="D17" s="117"/>
+      <c r="C17" s="115"/>
+      <c r="D17" s="116"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -5493,11 +5493,11 @@
       <c r="J17" s="4"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="115" t="s">
+      <c r="M17" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="N17" s="116"/>
-      <c r="O17" s="117"/>
+      <c r="N17" s="115"/>
+      <c r="O17" s="116"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -5506,11 +5506,11 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="4"/>
-      <c r="B18" s="112" t="s">
+      <c r="B18" s="117" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="113"/>
-      <c r="D18" s="114"/>
+      <c r="C18" s="118"/>
+      <c r="D18" s="119"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -5519,11 +5519,11 @@
       <c r="J18" s="4"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="112" t="s">
+      <c r="M18" s="117" t="s">
         <v>129</v>
       </c>
-      <c r="N18" s="113"/>
-      <c r="O18" s="114"/>
+      <c r="N18" s="118"/>
+      <c r="O18" s="119"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -5563,9 +5563,9 @@
     </row>
     <row r="20" spans="1:21" ht="41.25" thickBot="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="115"/>
-      <c r="C20" s="116"/>
-      <c r="D20" s="117"/>
+      <c r="B20" s="114"/>
+      <c r="C20" s="115"/>
+      <c r="D20" s="116"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -5594,11 +5594,11 @@
     </row>
     <row r="21" spans="1:21" ht="14.25" thickBot="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="112" t="s">
+      <c r="B21" s="117" t="s">
         <v>129</v>
       </c>
-      <c r="C21" s="113"/>
-      <c r="D21" s="114"/>
+      <c r="C21" s="118"/>
+      <c r="D21" s="119"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -5665,11 +5665,11 @@
       <c r="J23" s="4"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="115" t="s">
+      <c r="M23" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="N23" s="116"/>
-      <c r="O23" s="117"/>
+      <c r="N23" s="115"/>
+      <c r="O23" s="116"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
@@ -5690,11 +5690,11 @@
       <c r="J24" s="4"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-      <c r="M24" s="112" t="s">
+      <c r="M24" s="117" t="s">
         <v>69</v>
       </c>
-      <c r="N24" s="113"/>
-      <c r="O24" s="114"/>
+      <c r="N24" s="118"/>
+      <c r="O24" s="119"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
@@ -5827,11 +5827,11 @@
       <c r="J29" s="4"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
-      <c r="M29" s="115" t="s">
+      <c r="M29" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="N29" s="116"/>
-      <c r="O29" s="117"/>
+      <c r="N29" s="115"/>
+      <c r="O29" s="116"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
@@ -5852,11 +5852,11 @@
       <c r="J30" s="4"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="112" t="s">
+      <c r="M30" s="117" t="s">
         <v>69</v>
       </c>
-      <c r="N30" s="113"/>
-      <c r="O30" s="114"/>
+      <c r="N30" s="118"/>
+      <c r="O30" s="119"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
@@ -6012,11 +6012,11 @@
       <c r="J36" s="4"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
-      <c r="M36" s="115" t="s">
+      <c r="M36" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="N36" s="116"/>
-      <c r="O36" s="117"/>
+      <c r="N36" s="115"/>
+      <c r="O36" s="116"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
@@ -6037,11 +6037,11 @@
       <c r="J37" s="4"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
-      <c r="M37" s="112" t="s">
+      <c r="M37" s="117" t="s">
         <v>69</v>
       </c>
-      <c r="N37" s="113"/>
-      <c r="O37" s="114"/>
+      <c r="N37" s="118"/>
+      <c r="O37" s="119"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
@@ -6220,14 +6220,14 @@
       <c r="J44" s="4"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
-      <c r="M44" s="115" t="s">
+      <c r="M44" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="N44" s="116"/>
-      <c r="O44" s="116"/>
-      <c r="P44" s="116"/>
-      <c r="Q44" s="116"/>
-      <c r="R44" s="117"/>
+      <c r="N44" s="115"/>
+      <c r="O44" s="115"/>
+      <c r="P44" s="115"/>
+      <c r="Q44" s="115"/>
+      <c r="R44" s="116"/>
       <c r="S44" s="2"/>
       <c r="T44" s="3"/>
       <c r="U44" s="3"/>
@@ -6245,14 +6245,14 @@
       <c r="J45" s="4"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
-      <c r="M45" s="112" t="s">
+      <c r="M45" s="117" t="s">
         <v>273</v>
       </c>
-      <c r="N45" s="113"/>
-      <c r="O45" s="113"/>
-      <c r="P45" s="113"/>
-      <c r="Q45" s="113"/>
-      <c r="R45" s="114"/>
+      <c r="N45" s="118"/>
+      <c r="O45" s="118"/>
+      <c r="P45" s="118"/>
+      <c r="Q45" s="118"/>
+      <c r="R45" s="119"/>
       <c r="S45" s="2"/>
       <c r="T45" s="3"/>
       <c r="U45" s="3"/>
@@ -6279,11 +6279,11 @@
       <c r="O46" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="P46" s="118" t="s">
+      <c r="P46" s="120" t="s">
         <v>130</v>
       </c>
-      <c r="Q46" s="118"/>
-      <c r="R46" s="119"/>
+      <c r="Q46" s="120"/>
+      <c r="R46" s="121"/>
       <c r="S46" s="2"/>
       <c r="T46" s="3"/>
       <c r="U46" s="3"/>
@@ -6310,22 +6310,22 @@
       <c r="O47" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="P47" s="118" t="s">
+      <c r="P47" s="120" t="s">
         <v>149</v>
       </c>
-      <c r="Q47" s="118"/>
-      <c r="R47" s="119"/>
+      <c r="Q47" s="120"/>
+      <c r="R47" s="121"/>
       <c r="S47" s="2"/>
       <c r="T47" s="3"/>
       <c r="U47" s="3"/>
     </row>
     <row r="48" spans="1:21">
       <c r="A48" s="1"/>
-      <c r="B48" s="115" t="s">
+      <c r="B48" s="114" t="s">
         <v>114</v>
       </c>
-      <c r="C48" s="116"/>
-      <c r="D48" s="117"/>
+      <c r="C48" s="115"/>
+      <c r="D48" s="116"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -6343,22 +6343,22 @@
       <c r="O48" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P48" s="118" t="s">
+      <c r="P48" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="Q48" s="118"/>
-      <c r="R48" s="119"/>
+      <c r="Q48" s="120"/>
+      <c r="R48" s="121"/>
       <c r="S48" s="2"/>
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
     </row>
     <row r="49" spans="1:21">
       <c r="A49" s="1"/>
-      <c r="B49" s="112" t="s">
+      <c r="B49" s="117" t="s">
         <v>112</v>
       </c>
-      <c r="C49" s="113"/>
-      <c r="D49" s="114"/>
+      <c r="C49" s="118"/>
+      <c r="D49" s="119"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -6415,11 +6415,11 @@
       <c r="O50" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P50" s="118" t="s">
+      <c r="P50" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="Q50" s="118"/>
-      <c r="R50" s="119"/>
+      <c r="Q50" s="120"/>
+      <c r="R50" s="121"/>
       <c r="S50" s="2"/>
       <c r="T50" s="3"/>
       <c r="U50" s="3"/>
@@ -6446,11 +6446,11 @@
       <c r="O51" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="P51" s="118" t="s">
+      <c r="P51" s="120" t="s">
         <v>20</v>
       </c>
-      <c r="Q51" s="118"/>
-      <c r="R51" s="119"/>
+      <c r="Q51" s="120"/>
+      <c r="R51" s="121"/>
       <c r="S51" s="2"/>
       <c r="T51" s="3"/>
       <c r="U51" s="3"/>
@@ -6508,11 +6508,11 @@
       <c r="O53" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="P53" s="118" t="s">
+      <c r="P53" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="Q53" s="118"/>
-      <c r="R53" s="119"/>
+      <c r="Q53" s="120"/>
+      <c r="R53" s="121"/>
       <c r="S53" s="2"/>
       <c r="T53" s="3"/>
       <c r="U53" s="3"/>
@@ -6677,13 +6677,13 @@
       <c r="J59" s="4"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
-      <c r="M59" s="115" t="s">
+      <c r="M59" s="114" t="s">
         <v>136</v>
       </c>
-      <c r="N59" s="116"/>
-      <c r="O59" s="116"/>
-      <c r="P59" s="116"/>
-      <c r="Q59" s="117"/>
+      <c r="N59" s="115"/>
+      <c r="O59" s="115"/>
+      <c r="P59" s="115"/>
+      <c r="Q59" s="116"/>
       <c r="R59" s="1"/>
       <c r="S59" s="2"/>
       <c r="T59" s="3"/>
@@ -6711,10 +6711,10 @@
       <c r="O60" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="P60" s="110" t="s">
+      <c r="P60" s="112" t="s">
         <v>137</v>
       </c>
-      <c r="Q60" s="111"/>
+      <c r="Q60" s="113"/>
       <c r="R60" s="1"/>
       <c r="S60" s="2"/>
       <c r="T60" s="3"/>
@@ -6742,10 +6742,10 @@
       <c r="O61" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="P61" s="110" t="s">
+      <c r="P61" s="112" t="s">
         <v>140</v>
       </c>
-      <c r="Q61" s="111"/>
+      <c r="Q61" s="113"/>
       <c r="R61" s="1"/>
       <c r="S61" s="2"/>
       <c r="T61" s="3"/>
@@ -6773,10 +6773,10 @@
       <c r="O62" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="P62" s="110" t="s">
+      <c r="P62" s="112" t="s">
         <v>22</v>
       </c>
-      <c r="Q62" s="111"/>
+      <c r="Q62" s="113"/>
       <c r="R62" s="1"/>
       <c r="S62" s="2"/>
       <c r="T62" s="3"/>
@@ -6804,10 +6804,10 @@
       <c r="O63" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P63" s="120" t="s">
+      <c r="P63" s="110" t="s">
         <v>23</v>
       </c>
-      <c r="Q63" s="121"/>
+      <c r="Q63" s="111"/>
       <c r="R63" s="1"/>
       <c r="S63" s="2"/>
       <c r="T63" s="3"/>
@@ -6835,10 +6835,10 @@
       <c r="O64" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P64" s="110" t="s">
+      <c r="P64" s="112" t="s">
         <v>161</v>
       </c>
-      <c r="Q64" s="111"/>
+      <c r="Q64" s="113"/>
       <c r="R64" s="1"/>
       <c r="S64" s="2"/>
       <c r="T64" s="3"/>
@@ -6866,10 +6866,10 @@
       <c r="O65" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="P65" s="110" t="s">
+      <c r="P65" s="112" t="s">
         <v>60</v>
       </c>
-      <c r="Q65" s="111"/>
+      <c r="Q65" s="113"/>
       <c r="R65" s="1"/>
       <c r="S65" s="2"/>
       <c r="T65" s="3"/>
@@ -6897,10 +6897,10 @@
       <c r="O66" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P66" s="110" t="s">
+      <c r="P66" s="112" t="s">
         <v>218</v>
       </c>
-      <c r="Q66" s="111"/>
+      <c r="Q66" s="113"/>
       <c r="R66" s="1"/>
       <c r="S66" s="2"/>
       <c r="T66" s="3"/>
@@ -6928,10 +6928,10 @@
       <c r="O67" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P67" s="110" t="s">
+      <c r="P67" s="112" t="s">
         <v>217</v>
       </c>
-      <c r="Q67" s="111"/>
+      <c r="Q67" s="113"/>
       <c r="R67" s="1"/>
       <c r="S67" s="1"/>
       <c r="T67" s="3"/>
@@ -6973,13 +6973,13 @@
       <c r="J69" s="4"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
-      <c r="M69" s="115" t="s">
+      <c r="M69" s="114" t="s">
         <v>176</v>
       </c>
-      <c r="N69" s="116"/>
-      <c r="O69" s="116"/>
-      <c r="P69" s="116"/>
-      <c r="Q69" s="117"/>
+      <c r="N69" s="115"/>
+      <c r="O69" s="115"/>
+      <c r="P69" s="115"/>
+      <c r="Q69" s="116"/>
       <c r="R69" s="1"/>
       <c r="S69" s="1"/>
       <c r="T69" s="3"/>
@@ -6998,13 +6998,13 @@
       <c r="J70" s="4"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
-      <c r="M70" s="115" t="s">
+      <c r="M70" s="114" t="s">
         <v>177</v>
       </c>
-      <c r="N70" s="116"/>
-      <c r="O70" s="116"/>
-      <c r="P70" s="116"/>
-      <c r="Q70" s="117"/>
+      <c r="N70" s="115"/>
+      <c r="O70" s="115"/>
+      <c r="P70" s="115"/>
+      <c r="Q70" s="116"/>
       <c r="R70" s="1"/>
       <c r="S70" s="1"/>
       <c r="T70" s="3"/>
@@ -7032,10 +7032,10 @@
       <c r="O71" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="P71" s="120" t="s">
+      <c r="P71" s="110" t="s">
         <v>201</v>
       </c>
-      <c r="Q71" s="121"/>
+      <c r="Q71" s="111"/>
       <c r="R71" s="1"/>
       <c r="S71" s="1"/>
       <c r="T71" s="3"/>
@@ -7063,10 +7063,10 @@
       <c r="O72" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="P72" s="120" t="s">
+      <c r="P72" s="110" t="s">
         <v>193</v>
       </c>
-      <c r="Q72" s="121"/>
+      <c r="Q72" s="111"/>
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
       <c r="T72" s="3"/>
@@ -7094,10 +7094,10 @@
       <c r="O73" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="P73" s="120" t="s">
+      <c r="P73" s="110" t="s">
         <v>190</v>
       </c>
-      <c r="Q73" s="121"/>
+      <c r="Q73" s="111"/>
       <c r="R73" s="1"/>
       <c r="S73" s="1"/>
       <c r="T73" s="3"/>
@@ -7154,10 +7154,10 @@
       <c r="O75" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P75" s="110" t="s">
+      <c r="P75" s="112" t="s">
         <v>219</v>
       </c>
-      <c r="Q75" s="111"/>
+      <c r="Q75" s="113"/>
       <c r="R75" s="1"/>
       <c r="S75" s="1"/>
       <c r="T75" s="3"/>
@@ -7185,10 +7185,10 @@
       <c r="O76" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P76" s="110" t="s">
+      <c r="P76" s="112" t="s">
         <v>220</v>
       </c>
-      <c r="Q76" s="111"/>
+      <c r="Q76" s="113"/>
       <c r="R76" s="1"/>
       <c r="S76" s="1"/>
       <c r="T76" s="3"/>
@@ -7230,11 +7230,11 @@
       <c r="J78" s="4"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
-      <c r="M78" s="112" t="s">
+      <c r="M78" s="117" t="s">
         <v>191</v>
       </c>
-      <c r="N78" s="113"/>
-      <c r="O78" s="114"/>
+      <c r="N78" s="118"/>
+      <c r="O78" s="119"/>
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
       <c r="R78" s="1"/>
@@ -7336,11 +7336,11 @@
       <c r="J82" s="4"/>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
-      <c r="M82" s="112" t="s">
+      <c r="M82" s="117" t="s">
         <v>183</v>
       </c>
-      <c r="N82" s="113"/>
-      <c r="O82" s="114"/>
+      <c r="N82" s="118"/>
+      <c r="O82" s="119"/>
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
       <c r="R82" s="1"/>
@@ -7851,6 +7851,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="M78:O78"/>
+    <mergeCell ref="M82:O82"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="M59:Q59"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P51:R51"/>
+    <mergeCell ref="P53:R53"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="M44:R44"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="M45:R45"/>
+    <mergeCell ref="P46:R46"/>
+    <mergeCell ref="P47:R47"/>
+    <mergeCell ref="P48:R48"/>
+    <mergeCell ref="P50:R50"/>
     <mergeCell ref="P63:Q63"/>
     <mergeCell ref="P66:Q66"/>
     <mergeCell ref="B48:D48"/>
@@ -7867,34 +7895,6 @@
     <mergeCell ref="P60:Q60"/>
     <mergeCell ref="P62:Q62"/>
     <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="M45:R45"/>
-    <mergeCell ref="P46:R46"/>
-    <mergeCell ref="P47:R47"/>
-    <mergeCell ref="P48:R48"/>
-    <mergeCell ref="P50:R50"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="M44:R44"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="M78:O78"/>
-    <mergeCell ref="M82:O82"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="M59:Q59"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P51:R51"/>
-    <mergeCell ref="P53:R53"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="M29:O29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7906,8 +7906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:T118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D16" workbookViewId="0">
-      <selection activeCell="E114" sqref="E114"/>
+    <sheetView tabSelected="1" topLeftCell="C30" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7923,32 +7923,32 @@
   <sheetData>
     <row r="2" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="3" spans="1:10">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="99" t="s">
         <v>279</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="100"/>
-      <c r="F3" s="98" t="s">
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="101"/>
+      <c r="F3" s="99" t="s">
         <v>290</v>
       </c>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="101"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="101" t="s">
+      <c r="A4" s="102" t="s">
         <v>280</v>
       </c>
-      <c r="B4" s="102"/>
-      <c r="C4" s="102"/>
-      <c r="D4" s="103"/>
-      <c r="F4" s="101" t="s">
+      <c r="B4" s="103"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="104"/>
+      <c r="F4" s="102" t="s">
         <v>283</v>
       </c>
-      <c r="G4" s="102"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="104"/>
     </row>
     <row r="5" spans="1:10" ht="14.25" thickBot="1">
       <c r="A5" s="8" t="s">
@@ -8106,32 +8106,32 @@
     </row>
     <row r="15" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="16" spans="1:10">
-      <c r="A16" s="98" t="s">
+      <c r="A16" s="99" t="s">
         <v>277</v>
       </c>
-      <c r="B16" s="99"/>
-      <c r="C16" s="99"/>
-      <c r="D16" s="100"/>
-      <c r="F16" s="98" t="s">
+      <c r="B16" s="100"/>
+      <c r="C16" s="100"/>
+      <c r="D16" s="101"/>
+      <c r="F16" s="99" t="s">
         <v>277</v>
       </c>
-      <c r="G16" s="99"/>
-      <c r="H16" s="99"/>
-      <c r="I16" s="100"/>
+      <c r="G16" s="100"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="101"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="101" t="s">
+      <c r="A17" s="102" t="s">
         <v>278</v>
       </c>
-      <c r="B17" s="102"/>
-      <c r="C17" s="102"/>
-      <c r="D17" s="103"/>
-      <c r="F17" s="101" t="s">
+      <c r="B17" s="103"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="104"/>
+      <c r="F17" s="102" t="s">
         <v>366</v>
       </c>
-      <c r="G17" s="102"/>
-      <c r="H17" s="102"/>
-      <c r="I17" s="103"/>
+      <c r="G17" s="103"/>
+      <c r="H17" s="103"/>
+      <c r="I17" s="104"/>
       <c r="J17" t="s">
         <v>462</v>
       </c>
@@ -8181,20 +8181,20 @@
     </row>
     <row r="23" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="24" spans="1:10">
-      <c r="F24" s="98" t="s">
+      <c r="F24" s="99" t="s">
         <v>302</v>
       </c>
-      <c r="G24" s="99"/>
-      <c r="H24" s="99"/>
-      <c r="I24" s="100"/>
+      <c r="G24" s="100"/>
+      <c r="H24" s="100"/>
+      <c r="I24" s="101"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="F25" s="101" t="s">
+      <c r="F25" s="102" t="s">
         <v>303</v>
       </c>
-      <c r="G25" s="102"/>
-      <c r="H25" s="102"/>
-      <c r="I25" s="103"/>
+      <c r="G25" s="103"/>
+      <c r="H25" s="103"/>
+      <c r="I25" s="104"/>
     </row>
     <row r="26" spans="1:10">
       <c r="F26" s="8" t="s">
@@ -8215,33 +8215,33 @@
     </row>
     <row r="31" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="32" spans="1:10">
-      <c r="A32" s="98" t="s">
+      <c r="A32" s="99" t="s">
         <v>284</v>
       </c>
-      <c r="B32" s="99"/>
-      <c r="C32" s="99"/>
-      <c r="D32" s="100"/>
-      <c r="F32" s="98" t="s">
+      <c r="B32" s="100"/>
+      <c r="C32" s="100"/>
+      <c r="D32" s="101"/>
+      <c r="F32" s="99" t="s">
         <v>311</v>
       </c>
-      <c r="G32" s="99"/>
-      <c r="H32" s="99"/>
-      <c r="I32" s="100"/>
+      <c r="G32" s="100"/>
+      <c r="H32" s="100"/>
+      <c r="I32" s="101"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="101" t="s">
+      <c r="A33" s="102" t="s">
         <v>286</v>
       </c>
-      <c r="B33" s="102"/>
-      <c r="C33" s="102"/>
-      <c r="D33" s="103"/>
+      <c r="B33" s="103"/>
+      <c r="C33" s="103"/>
+      <c r="D33" s="104"/>
       <c r="E33" s="77"/>
-      <c r="F33" s="101" t="s">
+      <c r="F33" s="102" t="s">
         <v>312</v>
       </c>
-      <c r="G33" s="102"/>
-      <c r="H33" s="102"/>
-      <c r="I33" s="103"/>
+      <c r="G33" s="103"/>
+      <c r="H33" s="103"/>
+      <c r="I33" s="104"/>
     </row>
     <row r="34" spans="1:10" ht="14.25" thickBot="1">
       <c r="A34" s="8" t="s">
@@ -8352,35 +8352,35 @@
     </row>
     <row r="42" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="43" spans="1:10">
-      <c r="A43" s="98" t="s">
+      <c r="A43" s="99" t="s">
         <v>297</v>
       </c>
-      <c r="B43" s="99"/>
-      <c r="C43" s="99"/>
-      <c r="D43" s="100"/>
-      <c r="F43" s="98" t="s">
+      <c r="B43" s="100"/>
+      <c r="C43" s="100"/>
+      <c r="D43" s="101"/>
+      <c r="F43" s="99" t="s">
         <v>368</v>
       </c>
-      <c r="G43" s="99"/>
-      <c r="H43" s="99"/>
-      <c r="I43" s="100"/>
+      <c r="G43" s="100"/>
+      <c r="H43" s="100"/>
+      <c r="I43" s="101"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="101" t="s">
+      <c r="A44" s="102" t="s">
         <v>479</v>
       </c>
-      <c r="B44" s="102"/>
-      <c r="C44" s="102"/>
-      <c r="D44" s="103"/>
+      <c r="B44" s="103"/>
+      <c r="C44" s="103"/>
+      <c r="D44" s="104"/>
       <c r="E44" t="s">
         <v>463</v>
       </c>
-      <c r="F44" s="101" t="s">
+      <c r="F44" s="102" t="s">
         <v>367</v>
       </c>
-      <c r="G44" s="102"/>
-      <c r="H44" s="102"/>
-      <c r="I44" s="103"/>
+      <c r="G44" s="103"/>
+      <c r="H44" s="103"/>
+      <c r="I44" s="104"/>
       <c r="J44" t="s">
         <v>463</v>
       </c>
@@ -8400,40 +8400,40 @@
       </c>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="98" t="s">
+      <c r="A46" s="99" t="s">
         <v>300</v>
       </c>
-      <c r="B46" s="99"/>
-      <c r="C46" s="99"/>
-      <c r="D46" s="100"/>
+      <c r="B46" s="100"/>
+      <c r="C46" s="100"/>
+      <c r="D46" s="101"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="101" t="s">
+      <c r="A47" s="102" t="s">
         <v>301</v>
       </c>
-      <c r="B47" s="102"/>
-      <c r="C47" s="102"/>
-      <c r="D47" s="103"/>
+      <c r="B47" s="103"/>
+      <c r="C47" s="103"/>
+      <c r="D47" s="104"/>
       <c r="E47" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="49" spans="1:10">
-      <c r="A49" s="115" t="s">
+      <c r="A49" s="114" t="s">
         <v>305</v>
       </c>
-      <c r="B49" s="116"/>
-      <c r="C49" s="116"/>
-      <c r="D49" s="117"/>
+      <c r="B49" s="115"/>
+      <c r="C49" s="115"/>
+      <c r="D49" s="116"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="112" t="s">
+      <c r="A50" s="117" t="s">
         <v>306</v>
       </c>
-      <c r="B50" s="113"/>
-      <c r="C50" s="113"/>
-      <c r="D50" s="114"/>
+      <c r="B50" s="118"/>
+      <c r="C50" s="118"/>
+      <c r="D50" s="119"/>
       <c r="E50" t="s">
         <v>465</v>
       </c>
@@ -8441,32 +8441,32 @@
     <row r="51" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="52" spans="1:10" ht="13.5" customHeight="1" thickBot="1"/>
     <row r="53" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A53" s="98" t="s">
+      <c r="A53" s="99" t="s">
         <v>369</v>
       </c>
-      <c r="B53" s="99"/>
-      <c r="C53" s="99"/>
-      <c r="D53" s="100"/>
-      <c r="F53" s="98" t="s">
+      <c r="B53" s="100"/>
+      <c r="C53" s="100"/>
+      <c r="D53" s="101"/>
+      <c r="F53" s="99" t="s">
         <v>369</v>
       </c>
-      <c r="G53" s="99"/>
-      <c r="H53" s="99"/>
-      <c r="I53" s="100"/>
+      <c r="G53" s="100"/>
+      <c r="H53" s="100"/>
+      <c r="I53" s="101"/>
     </row>
     <row r="54" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A54" s="101" t="s">
+      <c r="A54" s="102" t="s">
         <v>374</v>
       </c>
-      <c r="B54" s="102"/>
-      <c r="C54" s="102"/>
-      <c r="D54" s="103"/>
-      <c r="F54" s="101" t="s">
+      <c r="B54" s="103"/>
+      <c r="C54" s="103"/>
+      <c r="D54" s="104"/>
+      <c r="F54" s="102" t="s">
         <v>375</v>
       </c>
-      <c r="G54" s="102"/>
-      <c r="H54" s="102"/>
-      <c r="I54" s="103"/>
+      <c r="G54" s="103"/>
+      <c r="H54" s="103"/>
+      <c r="I54" s="104"/>
     </row>
     <row r="55" spans="1:10" ht="13.5" customHeight="1">
       <c r="A55" s="8" t="s">
@@ -8524,32 +8524,32 @@
     <row r="64" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="65" spans="1:10" ht="12.75" customHeight="1" thickBot="1"/>
     <row r="66" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A66" s="98" t="s">
+      <c r="A66" s="99" t="s">
         <v>357</v>
       </c>
-      <c r="B66" s="99"/>
-      <c r="C66" s="99"/>
-      <c r="D66" s="100"/>
-      <c r="F66" s="98" t="s">
+      <c r="B66" s="100"/>
+      <c r="C66" s="100"/>
+      <c r="D66" s="101"/>
+      <c r="F66" s="99" t="s">
         <v>343</v>
       </c>
-      <c r="G66" s="99"/>
-      <c r="H66" s="99"/>
-      <c r="I66" s="100"/>
+      <c r="G66" s="100"/>
+      <c r="H66" s="100"/>
+      <c r="I66" s="101"/>
     </row>
     <row r="67" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A67" s="101" t="s">
+      <c r="A67" s="102" t="s">
         <v>490</v>
       </c>
-      <c r="B67" s="102"/>
-      <c r="C67" s="102"/>
-      <c r="D67" s="103"/>
-      <c r="F67" s="112" t="s">
+      <c r="B67" s="103"/>
+      <c r="C67" s="103"/>
+      <c r="D67" s="104"/>
+      <c r="F67" s="117" t="s">
         <v>348</v>
       </c>
-      <c r="G67" s="113"/>
-      <c r="H67" s="113"/>
-      <c r="I67" s="114"/>
+      <c r="G67" s="118"/>
+      <c r="H67" s="118"/>
+      <c r="I67" s="119"/>
     </row>
     <row r="68" spans="1:10" ht="12.75" customHeight="1" thickBot="1">
       <c r="A68" s="8" t="s">
@@ -8649,46 +8649,46 @@
     </row>
     <row r="77" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="78" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A78" s="115" t="s">
+      <c r="A78" s="114" t="s">
         <v>307</v>
       </c>
-      <c r="B78" s="116"/>
-      <c r="C78" s="116"/>
-      <c r="D78" s="117"/>
-      <c r="F78" s="98" t="s">
+      <c r="B78" s="115"/>
+      <c r="C78" s="115"/>
+      <c r="D78" s="116"/>
+      <c r="F78" s="99" t="s">
         <v>234</v>
       </c>
-      <c r="G78" s="99"/>
-      <c r="H78" s="99"/>
-      <c r="I78" s="100"/>
+      <c r="G78" s="100"/>
+      <c r="H78" s="100"/>
+      <c r="I78" s="101"/>
     </row>
     <row r="79" spans="1:10">
-      <c r="A79" s="98" t="s">
+      <c r="A79" s="99" t="s">
         <v>232</v>
       </c>
-      <c r="B79" s="99"/>
-      <c r="C79" s="99"/>
-      <c r="D79" s="100"/>
+      <c r="B79" s="100"/>
+      <c r="C79" s="100"/>
+      <c r="D79" s="101"/>
       <c r="E79" t="s">
         <v>470</v>
       </c>
-      <c r="F79" s="101" t="s">
+      <c r="F79" s="102" t="s">
         <v>235</v>
       </c>
-      <c r="G79" s="102"/>
-      <c r="H79" s="102"/>
-      <c r="I79" s="103"/>
+      <c r="G79" s="103"/>
+      <c r="H79" s="103"/>
+      <c r="I79" s="104"/>
       <c r="J79" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="80" spans="1:10">
-      <c r="A80" s="101" t="s">
+      <c r="A80" s="102" t="s">
         <v>233</v>
       </c>
-      <c r="B80" s="102"/>
-      <c r="C80" s="102"/>
-      <c r="D80" s="103"/>
+      <c r="B80" s="103"/>
+      <c r="C80" s="103"/>
+      <c r="D80" s="104"/>
       <c r="F80" s="8" t="s">
         <v>237</v>
       </c>
@@ -8750,43 +8750,43 @@
     </row>
     <row r="85" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="86" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A86" s="115" t="s">
+      <c r="A86" s="114" t="s">
         <v>377</v>
       </c>
-      <c r="B86" s="116"/>
-      <c r="C86" s="116"/>
-      <c r="D86" s="117"/>
-      <c r="F86" s="115" t="s">
+      <c r="B86" s="115"/>
+      <c r="C86" s="115"/>
+      <c r="D86" s="116"/>
+      <c r="F86" s="114" t="s">
         <v>377</v>
       </c>
-      <c r="G86" s="116"/>
-      <c r="H86" s="116"/>
-      <c r="I86" s="117"/>
+      <c r="G86" s="115"/>
+      <c r="H86" s="115"/>
+      <c r="I86" s="116"/>
     </row>
     <row r="87" spans="1:10">
-      <c r="A87" s="98" t="s">
+      <c r="A87" s="99" t="s">
         <v>232</v>
       </c>
-      <c r="B87" s="99"/>
-      <c r="C87" s="99"/>
-      <c r="D87" s="100"/>
+      <c r="B87" s="100"/>
+      <c r="C87" s="100"/>
+      <c r="D87" s="101"/>
       <c r="E87" t="s">
         <v>472</v>
       </c>
-      <c r="F87" s="101" t="s">
+      <c r="F87" s="102" t="s">
         <v>235</v>
       </c>
-      <c r="G87" s="102"/>
-      <c r="H87" s="102"/>
-      <c r="I87" s="103"/>
+      <c r="G87" s="103"/>
+      <c r="H87" s="103"/>
+      <c r="I87" s="104"/>
     </row>
     <row r="88" spans="1:10">
-      <c r="A88" s="101" t="s">
+      <c r="A88" s="102" t="s">
         <v>233</v>
       </c>
-      <c r="B88" s="102"/>
-      <c r="C88" s="102"/>
-      <c r="D88" s="103"/>
+      <c r="B88" s="103"/>
+      <c r="C88" s="103"/>
+      <c r="D88" s="104"/>
       <c r="F88" s="8" t="s">
         <v>237</v>
       </c>
@@ -9220,6 +9220,30 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="A86:D86"/>
+    <mergeCell ref="F86:I86"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="F53:I53"/>
+    <mergeCell ref="F54:I54"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="F67:I67"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A79:D79"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="F78:I78"/>
+    <mergeCell ref="F79:I79"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="F43:I43"/>
     <mergeCell ref="A87:D87"/>
     <mergeCell ref="F87:I87"/>
     <mergeCell ref="A88:D88"/>
@@ -9236,30 +9260,6 @@
     <mergeCell ref="A43:D43"/>
     <mergeCell ref="F24:I24"/>
     <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="F44:I44"/>
-    <mergeCell ref="F43:I43"/>
-    <mergeCell ref="A86:D86"/>
-    <mergeCell ref="F86:I86"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="F53:I53"/>
-    <mergeCell ref="F54:I54"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="F66:I66"/>
-    <mergeCell ref="F67:I67"/>
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="A79:D79"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="F78:I78"/>
-    <mergeCell ref="F79:I79"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A66:D66"/>
-    <mergeCell ref="A53:D53"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -9387,44 +9387,44 @@
   <sheetData>
     <row r="10" spans="2:14" ht="14.25" thickBot="1"/>
     <row r="11" spans="2:14">
-      <c r="B11" s="98" t="s">
+      <c r="B11" s="99" t="s">
         <v>364</v>
       </c>
-      <c r="C11" s="99"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="100"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="101"/>
       <c r="F11" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="14.25" thickBot="1"/>
     <row r="13" spans="2:14">
-      <c r="B13" s="98" t="s">
+      <c r="B13" s="99" t="s">
         <v>365</v>
       </c>
-      <c r="C13" s="99"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="100"/>
-      <c r="J13" s="98" t="s">
+      <c r="C13" s="100"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="101"/>
+      <c r="J13" s="99" t="s">
         <v>365</v>
       </c>
-      <c r="K13" s="99"/>
-      <c r="L13" s="99"/>
-      <c r="M13" s="100"/>
+      <c r="K13" s="100"/>
+      <c r="L13" s="100"/>
+      <c r="M13" s="101"/>
     </row>
     <row r="14" spans="2:14">
-      <c r="B14" s="101" t="s">
+      <c r="B14" s="102" t="s">
         <v>480</v>
       </c>
-      <c r="C14" s="102"/>
-      <c r="D14" s="102"/>
-      <c r="E14" s="103"/>
-      <c r="J14" s="101" t="s">
+      <c r="C14" s="103"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="104"/>
+      <c r="J14" s="102" t="s">
         <v>363</v>
       </c>
-      <c r="K14" s="102"/>
-      <c r="L14" s="102"/>
-      <c r="M14" s="103"/>
+      <c r="K14" s="103"/>
+      <c r="L14" s="103"/>
+      <c r="M14" s="104"/>
     </row>
     <row r="15" spans="2:14" ht="14.25" thickBot="1">
       <c r="B15" s="8" t="s">
@@ -9505,16 +9505,16 @@
       </c>
     </row>
     <row r="3" spans="2:9">
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="102" t="s">
         <v>441</v>
       </c>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="G3" s="101" t="s">
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="G3" s="102" t="s">
         <v>414</v>
       </c>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="8" t="s">
@@ -9636,18 +9636,18 @@
       </c>
     </row>
     <row r="14" spans="2:9">
-      <c r="G14" s="101" t="s">
+      <c r="G14" s="102" t="s">
         <v>391</v>
       </c>
-      <c r="H14" s="102"/>
-      <c r="I14" s="102"/>
+      <c r="H14" s="103"/>
+      <c r="I14" s="103"/>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="101" t="s">
+      <c r="B15" s="102" t="s">
         <v>408</v>
       </c>
-      <c r="C15" s="102"/>
-      <c r="D15" s="102"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="103"/>
       <c r="G15" s="8" t="s">
         <v>397</v>
       </c>
@@ -9769,11 +9769,11 @@
       </c>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="101" t="s">
+      <c r="B25" s="102" t="s">
         <v>424</v>
       </c>
-      <c r="C25" s="102"/>
-      <c r="D25" s="102"/>
+      <c r="C25" s="103"/>
+      <c r="D25" s="103"/>
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="8" t="s">
@@ -9810,11 +9810,11 @@
       <c r="D28" s="89" t="s">
         <v>422</v>
       </c>
-      <c r="G28" s="101" t="s">
+      <c r="G28" s="102" t="s">
         <v>430</v>
       </c>
-      <c r="H28" s="102"/>
-      <c r="I28" s="102"/>
+      <c r="H28" s="103"/>
+      <c r="I28" s="103"/>
     </row>
     <row r="29" spans="2:9">
       <c r="B29" s="8"/>
@@ -9861,11 +9861,11 @@
       <c r="I32" s="89"/>
     </row>
     <row r="33" spans="2:9">
-      <c r="B33" s="101" t="s">
+      <c r="B33" s="102" t="s">
         <v>427</v>
       </c>
-      <c r="C33" s="102"/>
-      <c r="D33" s="102"/>
+      <c r="C33" s="103"/>
+      <c r="D33" s="103"/>
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="8" t="s">
@@ -9905,11 +9905,11 @@
       <c r="D37" s="89"/>
     </row>
     <row r="40" spans="2:9">
-      <c r="G40" s="101" t="s">
+      <c r="G40" s="102" t="s">
         <v>433</v>
       </c>
-      <c r="H40" s="102"/>
-      <c r="I40" s="102"/>
+      <c r="H40" s="103"/>
+      <c r="I40" s="103"/>
     </row>
     <row r="41" spans="2:9">
       <c r="G41" s="8" t="s">
@@ -9961,11 +9961,11 @@
       </c>
     </row>
     <row r="49" spans="2:6">
-      <c r="B49" s="101" t="s">
+      <c r="B49" s="102" t="s">
         <v>452</v>
       </c>
-      <c r="C49" s="102"/>
-      <c r="D49" s="102"/>
+      <c r="C49" s="103"/>
+      <c r="D49" s="103"/>
     </row>
     <row r="50" spans="2:6">
       <c r="B50" s="8" t="s">
@@ -10020,11 +10020,11 @@
       </c>
     </row>
     <row r="59" spans="2:6">
-      <c r="B59" s="101" t="s">
+      <c r="B59" s="102" t="s">
         <v>457</v>
       </c>
-      <c r="C59" s="102"/>
-      <c r="D59" s="102"/>
+      <c r="C59" s="103"/>
+      <c r="D59" s="103"/>
     </row>
     <row r="60" spans="2:6">
       <c r="B60" s="8" t="s">

--- a/doc/最新接口_拟定.xlsx
+++ b/doc/最新接口_拟定.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="首标签" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="参数说明" sheetId="4" r:id="rId4"/>
     <sheet name="登录" sheetId="5" r:id="rId5"/>
     <sheet name="http登录" sheetId="6" r:id="rId6"/>
+    <sheet name="聊天" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -1068,8 +1069,199 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="C12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+0:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>世界，</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>：房间</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+是否是动作表情特效</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>普通聊天，</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>：特效</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+是否是动作表情特效</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>普通聊天，</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>：特效</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="517">
   <si>
     <t>int</t>
   </si>
@@ -2983,12 +3175,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>uid:uid
-kvData:uid-手牌数量
-dlist：手牌内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RPEixtRoom</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3060,13 +3246,6 @@
   <si>
     <t>k:得失分子类
 v:详细数值value(value*10+type:(0:不显示分数，1：分数用+，2：番数用x))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">uid:uid（&gt;0 为玩家选择反馈，否则为状态信息）
-dval:1：准备，0取消准备
-KVData:玩家id-已准备情况（发送的是已准备，没有发送的是为准备）
-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3107,6 +3286,81 @@
 1:最大番数
 2:玩法位集合</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">uid:uid（&gt;0 为玩家选择反馈，否则为状态信息）
+dval:1：准备，0取消准备
+KVData:玩家id-已准备情况（发送的是已准备，没有发送的是为准备）
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uid:uid
+kvData:uid-手牌数量
+dlist：手牌内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聊天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NetChat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receiveId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接受者id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>optional</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>发送人名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>channel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isaction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>频道id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NetChat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,1</t>
   </si>
 </sst>
 </file>
@@ -3714,7 +3968,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3877,6 +4131,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4248,7 +4504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:P51"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -4269,32 +4525,32 @@
   <sheetData>
     <row r="3" spans="2:16" ht="14.25" thickBot="1"/>
     <row r="4" spans="2:16">
-      <c r="B4" s="99" t="s">
+      <c r="B4" s="101" t="s">
         <v>232</v>
       </c>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="101"/>
-      <c r="I4" s="99" t="s">
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="103"/>
+      <c r="I4" s="101" t="s">
         <v>234</v>
       </c>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="101"/>
+      <c r="J4" s="102"/>
+      <c r="K4" s="102"/>
+      <c r="L4" s="103"/>
     </row>
     <row r="5" spans="2:16">
-      <c r="B5" s="102" t="s">
+      <c r="B5" s="104" t="s">
         <v>233</v>
       </c>
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="104"/>
-      <c r="I5" s="102" t="s">
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="106"/>
+      <c r="I5" s="104" t="s">
         <v>475</v>
       </c>
-      <c r="J5" s="103"/>
-      <c r="K5" s="103"/>
-      <c r="L5" s="104"/>
+      <c r="J5" s="105"/>
+      <c r="K5" s="105"/>
+      <c r="L5" s="106"/>
     </row>
     <row r="6" spans="2:16">
       <c r="B6" s="8"/>
@@ -4358,21 +4614,21 @@
     </row>
     <row r="11" spans="2:16" ht="14.25" customHeight="1"/>
     <row r="14" spans="2:16" ht="14.25" thickBot="1">
-      <c r="I14" s="96" t="s">
+      <c r="I14" s="98" t="s">
         <v>54</v>
       </c>
-      <c r="J14" s="97"/>
-      <c r="K14" s="97"/>
-      <c r="L14" s="97"/>
-      <c r="M14" s="98"/>
+      <c r="J14" s="99"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="99"/>
+      <c r="M14" s="100"/>
     </row>
     <row r="15" spans="2:16">
-      <c r="B15" s="99" t="s">
+      <c r="B15" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="100"/>
-      <c r="D15" s="100"/>
-      <c r="E15" s="101"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="103"/>
       <c r="I15" s="21" t="s">
         <v>34</v>
       </c>
@@ -4387,18 +4643,18 @@
         <v>34</v>
       </c>
       <c r="N15" s="3"/>
-      <c r="O15" s="105" t="s">
+      <c r="O15" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="P15" s="106"/>
+      <c r="P15" s="108"/>
     </row>
     <row r="16" spans="2:16">
-      <c r="B16" s="102" t="s">
+      <c r="B16" s="104" t="s">
         <v>233</v>
       </c>
-      <c r="C16" s="103"/>
-      <c r="D16" s="103"/>
-      <c r="E16" s="104"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="106"/>
       <c r="I16" s="33"/>
       <c r="J16" s="30"/>
       <c r="K16" s="31">
@@ -4896,12 +5152,12 @@
       <c r="P37" s="23"/>
     </row>
     <row r="38" spans="2:16">
-      <c r="B38" s="107" t="s">
+      <c r="B38" s="109" t="s">
         <v>259</v>
       </c>
-      <c r="C38" s="108"/>
-      <c r="D38" s="108"/>
-      <c r="E38" s="109"/>
+      <c r="C38" s="110"/>
+      <c r="D38" s="110"/>
+      <c r="E38" s="111"/>
       <c r="I38" s="33" t="s">
         <v>117</v>
       </c>
@@ -4983,18 +5239,18 @@
     <row r="42" spans="2:16" ht="22.5" customHeight="1"/>
     <row r="43" spans="2:16" ht="31.5" customHeight="1"/>
     <row r="44" spans="2:16">
-      <c r="H44" s="105" t="s">
+      <c r="H44" s="107" t="s">
         <v>247</v>
       </c>
-      <c r="I44" s="106"/>
-      <c r="J44" s="105" t="s">
+      <c r="I44" s="108"/>
+      <c r="J44" s="107" t="s">
         <v>116</v>
       </c>
-      <c r="K44" s="106"/>
-      <c r="L44" s="105" t="s">
+      <c r="K44" s="108"/>
+      <c r="L44" s="107" t="s">
         <v>77</v>
       </c>
-      <c r="M44" s="106"/>
+      <c r="M44" s="108"/>
     </row>
     <row r="45" spans="2:16">
       <c r="H45" s="22">
@@ -5134,7 +5390,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:U103"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
@@ -5315,11 +5571,11 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="4"/>
-      <c r="B10" s="114" t="s">
+      <c r="B10" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="115"/>
-      <c r="D10" s="116"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="118"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -5328,11 +5584,11 @@
       <c r="J10" s="4"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="114" t="s">
+      <c r="M10" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="N10" s="115"/>
-      <c r="O10" s="116"/>
+      <c r="N10" s="117"/>
+      <c r="O10" s="118"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -5342,11 +5598,11 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="4"/>
-      <c r="B11" s="117" t="s">
+      <c r="B11" s="119" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="118"/>
-      <c r="D11" s="119"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="121"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -5355,11 +5611,11 @@
       <c r="J11" s="4"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="117" t="s">
+      <c r="M11" s="119" t="s">
         <v>27</v>
       </c>
-      <c r="N11" s="118"/>
-      <c r="O11" s="119"/>
+      <c r="N11" s="120"/>
+      <c r="O11" s="121"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -5480,11 +5736,11 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="4"/>
-      <c r="B17" s="114" t="s">
+      <c r="B17" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="115"/>
-      <c r="D17" s="116"/>
+      <c r="C17" s="117"/>
+      <c r="D17" s="118"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -5493,11 +5749,11 @@
       <c r="J17" s="4"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="114" t="s">
+      <c r="M17" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="N17" s="115"/>
-      <c r="O17" s="116"/>
+      <c r="N17" s="117"/>
+      <c r="O17" s="118"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -5506,11 +5762,11 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="4"/>
-      <c r="B18" s="117" t="s">
+      <c r="B18" s="119" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="118"/>
-      <c r="D18" s="119"/>
+      <c r="C18" s="120"/>
+      <c r="D18" s="121"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -5519,11 +5775,11 @@
       <c r="J18" s="4"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="117" t="s">
+      <c r="M18" s="119" t="s">
         <v>129</v>
       </c>
-      <c r="N18" s="118"/>
-      <c r="O18" s="119"/>
+      <c r="N18" s="120"/>
+      <c r="O18" s="121"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -5563,9 +5819,9 @@
     </row>
     <row r="20" spans="1:21" ht="41.25" thickBot="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="114"/>
-      <c r="C20" s="115"/>
-      <c r="D20" s="116"/>
+      <c r="B20" s="116"/>
+      <c r="C20" s="117"/>
+      <c r="D20" s="118"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -5594,11 +5850,11 @@
     </row>
     <row r="21" spans="1:21" ht="14.25" thickBot="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="117" t="s">
+      <c r="B21" s="119" t="s">
         <v>129</v>
       </c>
-      <c r="C21" s="118"/>
-      <c r="D21" s="119"/>
+      <c r="C21" s="120"/>
+      <c r="D21" s="121"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -5665,11 +5921,11 @@
       <c r="J23" s="4"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="114" t="s">
+      <c r="M23" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="N23" s="115"/>
-      <c r="O23" s="116"/>
+      <c r="N23" s="117"/>
+      <c r="O23" s="118"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
@@ -5690,11 +5946,11 @@
       <c r="J24" s="4"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-      <c r="M24" s="117" t="s">
+      <c r="M24" s="119" t="s">
         <v>69</v>
       </c>
-      <c r="N24" s="118"/>
-      <c r="O24" s="119"/>
+      <c r="N24" s="120"/>
+      <c r="O24" s="121"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
@@ -5827,11 +6083,11 @@
       <c r="J29" s="4"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
-      <c r="M29" s="114" t="s">
+      <c r="M29" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="N29" s="115"/>
-      <c r="O29" s="116"/>
+      <c r="N29" s="117"/>
+      <c r="O29" s="118"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
@@ -5852,11 +6108,11 @@
       <c r="J30" s="4"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="117" t="s">
+      <c r="M30" s="119" t="s">
         <v>69</v>
       </c>
-     